--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tool_test_game\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16384D46-FB1F-473B-8BB6-A902EDC465D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DE08DC-0933-4D8E-A81E-0B15D631CAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>Level</t>
   </si>
@@ -106,11 +106,15 @@
   <si>
     <t>FILE:report\list_fail.txt</t>
   </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="7">
     <font>
       <sz val="10"/>
@@ -27474,15 +27478,15 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" customWidth="1"/>
-    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.140625"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375"/>
+    <col min="7" max="7" customWidth="true" width="26.42578125"/>
+    <col min="11" max="11" customWidth="true" width="24.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -27531,22 +27535,22 @@
         <v>27</v>
       </c>
       <c r="D2" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E2" s="7">
-        <v>27</v>
+        <v>16</v>
       </c>
-      <c r="F2">
-        <v>4</v>
+      <c r="F2" s="0" t="n">
+        <v>16.0</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="8">
-        <v>4</v>
+      <c r="I2" s="8" t="n">
+        <v>4.0</v>
       </c>
-      <c r="J2" s="8">
-        <v>0</v>
+      <c r="J2" s="8" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -27587,7 +27591,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="45.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1">
@@ -27635,7 +27639,7 @@
       <c r="C2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>16</v>
       </c>
       <c r="E2" s="12"/>

--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tool_test_game\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DE08DC-0933-4D8E-A81E-0B15D631CAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832588BA-E7DB-4521-8073-FB112C138CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Level</t>
   </si>
@@ -27535,19 +27535,19 @@
         <v>27</v>
       </c>
       <c r="D2" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E2" s="7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>16.0</v>
+        <v>3.0</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="I2" s="8" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="J2" s="8" t="n">
         <v>0.0</v>

--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tool_test_game\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832588BA-E7DB-4521-8073-FB112C138CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F39D308-63DB-497A-AFB9-DD2A473648C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Level</t>
   </si>
@@ -106,15 +106,11 @@
   <si>
     <t>FILE:report\list_fail.txt</t>
   </si>
-  <si>
-    <t/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="7">
     <font>
       <sz val="10"/>
@@ -27478,15 +27474,15 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.140625"/>
-    <col min="5" max="5" customWidth="true" width="13.7109375"/>
-    <col min="7" max="7" customWidth="true" width="26.42578125"/>
-    <col min="11" max="11" customWidth="true" width="24.0"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -27538,19 +27534,19 @@
         <v>1</v>
       </c>
       <c r="E2" s="7">
+        <v>27</v>
+      </c>
+      <c r="F2">
         <v>3</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>3.0</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="8" t="n">
-        <v>3.0</v>
+      <c r="I2" s="8">
+        <v>3</v>
       </c>
-      <c r="J2" s="8" t="n">
-        <v>0.0</v>
+      <c r="J2" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27591,7 +27587,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="45.7109375"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1">
@@ -27639,7 +27635,7 @@
       <c r="C2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="12"/>

--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tool_test_game\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F39D308-63DB-497A-AFB9-DD2A473648C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5BA46E-1A38-4806-ADC7-72F1B154E527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>Level</t>
   </si>
@@ -104,13 +104,17 @@
     <t>$.topic_name,$.part</t>
   </si>
   <si>
-    <t>FILE:report\list_fail.txt</t>
+    <t>FILE::report\list_fail.txt</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="7">
     <font>
       <sz val="10"/>
@@ -27474,15 +27478,15 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" customWidth="1"/>
-    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.140625"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375"/>
+    <col min="7" max="7" customWidth="true" width="26.42578125"/>
+    <col min="11" max="11" customWidth="true" width="24.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -27528,25 +27532,25 @@
         <v>7</v>
       </c>
       <c r="C2" s="7">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
       </c>
       <c r="E2" s="7">
-        <v>27</v>
+        <v>30</v>
       </c>
-      <c r="F2">
-        <v>3</v>
+      <c r="F2" s="0" t="n">
+        <v>11.0</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="8">
-        <v>3</v>
+      <c r="I2" s="8" t="n">
+        <v>0.0</v>
       </c>
-      <c r="J2" s="8">
-        <v>0</v>
+      <c r="J2" s="8" t="n">
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>
@@ -27587,7 +27591,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="45.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1">
@@ -27635,8 +27639,8 @@
       <c r="C2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
+      <c r="D2" t="s" s="0">
+        <v>26</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="10"/>

--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tool_test_game\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5BA46E-1A38-4806-ADC7-72F1B154E527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1E7BEE-836B-47EC-BCED-C76171182D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Level</t>
   </si>
@@ -114,7 +114,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="7">
     <font>
       <sz val="10"/>
@@ -27478,15 +27477,15 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.140625"/>
-    <col min="5" max="5" customWidth="true" width="13.7109375"/>
-    <col min="7" max="7" customWidth="true" width="26.42578125"/>
-    <col min="11" max="11" customWidth="true" width="24.0"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -27532,25 +27531,25 @@
         <v>7</v>
       </c>
       <c r="C2" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
       </c>
       <c r="E2" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <v>11.0</v>
+      <c r="F2">
+        <v>1</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="8" t="n">
-        <v>0.0</v>
+      <c r="I2" s="8">
+        <v>0</v>
       </c>
-      <c r="J2" s="8" t="n">
-        <v>10.0</v>
+      <c r="J2" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27591,7 +27590,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="45.7109375"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1">
@@ -27639,7 +27638,7 @@
       <c r="C2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="12"/>

--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tool_test_game\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1E7BEE-836B-47EC-BCED-C76171182D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FF72B4-4270-4E74-9A6F-04D628730194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="1" r:id="rId1"/>
@@ -27477,7 +27477,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -27531,7 +27531,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="7">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
@@ -27540,7 +27540,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>24</v>

--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -2,6 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet state="visible" name="Scope" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Plan" sheetId="2" r:id="rId5"/>
@@ -9,18 +12,17 @@
     <sheet state="visible" name="Group-Turn" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Note" sheetId="5" r:id="rId8"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="MaXneR75fr3ccIXyRVVax4ypoWofMYNpAJ2b0h7bH3g="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="6iAbIUUXZoyT++UhMcTHswNiVGMjKpEkA7UuHJMXsBc="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>STT</t>
   </si>
@@ -62,6 +64,9 @@
   </si>
   <si>
     <t>Report_GameName</t>
+  </si>
+  <si>
+    <t>END</t>
   </si>
   <si>
     <t>FLow</t>
@@ -133,7 +138,13 @@
     <t>A</t>
   </si>
   <si>
+    <t>$.topic</t>
+  </si>
+  <si>
     <t>Loop</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
   <si>
     <t>Description</t>
@@ -155,6 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="0"/>
   <fonts count="8">
     <font>
       <sz val="10.0"/>
@@ -253,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -308,6 +320,9 @@
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -574,6 +589,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -582,9 +598,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.88"/>
-    <col customWidth="1" min="2" max="2" width="45.75"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
+    <col min="1" max="1" customWidth="true" width="5.88"/>
+    <col min="2" max="2" customWidth="true" width="45.75"/>
+    <col min="3" max="6" customWidth="true" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -709,7 +725,9 @@
     </row>
     <row r="5">
       <c r="A5" s="11"/>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C5" s="8"/>
       <c r="E5" s="8"/>
     </row>
@@ -747,61 +765,62 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.13"/>
-    <col customWidth="1" min="2" max="4" width="12.63"/>
-    <col customWidth="1" min="5" max="5" width="13.75"/>
-    <col customWidth="1" min="6" max="6" width="12.63"/>
-    <col customWidth="1" min="7" max="7" width="26.38"/>
-    <col customWidth="1" min="8" max="8" width="15.5"/>
-    <col customWidth="1" min="11" max="11" width="24.0"/>
+    <col min="1" max="1" customWidth="true" width="13.13"/>
+    <col min="2" max="4" customWidth="true" width="12.63"/>
+    <col min="5" max="5" customWidth="true" width="13.75"/>
+    <col min="6" max="6" customWidth="true" width="12.63"/>
+    <col min="7" max="7" customWidth="true" width="26.38"/>
+    <col min="8" max="8" customWidth="true" width="15.5"/>
+    <col min="11" max="11" customWidth="true" width="24.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="17" t="s">
-        <v>20</v>
-      </c>
       <c r="B2" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="19">
         <v>2.0</v>
@@ -816,15 +835,15 @@
         <v>82.0</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="20" t="n">
         <v>0.0</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="20" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -853,23 +872,24 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="12.63"/>
+    <col min="1" max="6" customWidth="true" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
@@ -896,13 +916,13 @@
     </row>
     <row r="2" ht="15.0" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -929,13 +949,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="1">
       <c r="A3" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -962,11 +982,11 @@
     </row>
     <row r="4" ht="15.0" customHeight="1">
       <c r="A4" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -993,7 +1013,7 @@
     </row>
     <row r="5" ht="15.0" customHeight="1">
       <c r="A5" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -1022,7 +1042,7 @@
     </row>
     <row r="6" ht="15.0" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -1051,7 +1071,7 @@
     </row>
     <row r="7" ht="15.0" customHeight="1">
       <c r="A7" s="23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -1079,7 +1099,9 @@
       <c r="Y7" s="17"/>
     </row>
     <row r="8" ht="15.0" customHeight="1">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
@@ -7622,13 +7644,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="21.13"/>
-    <col customWidth="1" min="4" max="4" width="31.38"/>
+    <col min="2" max="2" customWidth="true" width="21.13"/>
+    <col min="5" max="5" customWidth="true" width="31.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7636,27 +7659,31 @@
         <v>4</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>38</v>
+      <c r="D1" s="25" t="s">
+        <v>40</v>
       </c>
+      <c r="E1" s="24" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>39</v>
+      <c r="B2" s="26" t="s">
+        <v>42</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="27">
         <v>1.0</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>40</v>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -7674,6 +7701,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7681,12 +7709,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>STT</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>Xác định thêm end game sẽ phân biệt dễ hơn chuyển act hay end game</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Report_MSP.ChW(Clone)</t>
   </si>
 </sst>
 </file>
@@ -589,7 +595,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -651,7 +657,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="4"/>
@@ -677,13 +683,16 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>23</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>11</v>
@@ -711,38 +720,101 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="D4" t="s" s="0">
+        <v>8</v>
+      </c>
       <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11"/>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="A5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D5">
+  <conditionalFormatting sqref="D1:D9">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D5">
+  <conditionalFormatting sqref="D1:D9">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D5">
+  <conditionalFormatting sqref="D1:D9">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
@@ -823,16 +895,16 @@
         <v>26</v>
       </c>
       <c r="C2" s="19">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D2" s="19">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E2" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="F2" s="7">
-        <v>82.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>3.0</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>27</v>
@@ -7681,7 +7753,9 @@
       <c r="C2" s="27">
         <v>1.0</v>
       </c>
-      <c r="D2" s="26"/>
+      <c r="D2" t="s" s="0">
+        <v>12</v>
+      </c>
       <c r="E2" s="26" t="s">
         <v>43</v>
       </c>

--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -2,9 +2,6 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <bookViews>
-    <workbookView activeTab="0"/>
-  </bookViews>
   <sheets>
     <sheet state="visible" name="Scope" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Plan" sheetId="2" r:id="rId5"/>
@@ -12,6 +9,7 @@
     <sheet state="visible" name="Group-Turn" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Note" sheetId="5" r:id="rId8"/>
   </sheets>
+  <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
@@ -22,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>STT</t>
   </si>
@@ -161,18 +159,11 @@
   <si>
     <t>Xác định thêm end game sẽ phân biệt dễ hơn chuyển act hay end game</t>
   </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Report_MSP.ChW(Clone)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="0"/>
   <fonts count="8">
     <font>
       <sz val="10.0"/>
@@ -595,7 +586,6 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -604,9 +594,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="5.88"/>
-    <col min="2" max="2" customWidth="true" width="45.75"/>
-    <col min="3" max="6" customWidth="true" width="12.63"/>
+    <col customWidth="1" min="1" max="1" width="5.88"/>
+    <col customWidth="1" min="2" max="2" width="45.75"/>
+    <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -657,7 +647,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="4"/>
@@ -683,16 +673,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>23</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>11</v>
@@ -720,101 +707,38 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>8</v>
-      </c>
       <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>12</v>
+      <c r="A5" s="11"/>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>11</v>
-      </c>
+      <c r="C5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D9">
+  <conditionalFormatting sqref="D1:D5">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D9">
+  <conditionalFormatting sqref="D1:D5">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D9">
+  <conditionalFormatting sqref="D1:D5">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
@@ -837,19 +761,18 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.13"/>
-    <col min="2" max="4" customWidth="true" width="12.63"/>
-    <col min="5" max="5" customWidth="true" width="13.75"/>
-    <col min="6" max="6" customWidth="true" width="12.63"/>
-    <col min="7" max="7" customWidth="true" width="26.38"/>
-    <col min="8" max="8" customWidth="true" width="15.5"/>
-    <col min="11" max="11" customWidth="true" width="24.0"/>
+    <col customWidth="1" min="1" max="1" width="13.13"/>
+    <col customWidth="1" min="2" max="4" width="12.63"/>
+    <col customWidth="1" min="5" max="5" width="13.75"/>
+    <col customWidth="1" min="6" max="6" width="12.63"/>
+    <col customWidth="1" min="7" max="7" width="26.38"/>
+    <col customWidth="1" min="8" max="8" width="15.5"/>
+    <col customWidth="1" min="11" max="11" width="24.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
@@ -895,16 +818,16 @@
         <v>26</v>
       </c>
       <c r="C2" s="19">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D2" s="19">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E2" s="19">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
-      <c r="F2" s="7" t="n">
-        <v>3.0</v>
+      <c r="F2" s="7">
+        <v>82.0</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>27</v>
@@ -912,10 +835,10 @@
       <c r="H2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="20" t="n">
+      <c r="I2" s="20">
         <v>0.0</v>
       </c>
-      <c r="J2" s="20" t="n">
+      <c r="J2" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -944,13 +867,12 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="6" customWidth="true" width="12.63"/>
+    <col customWidth="1" min="1" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
@@ -7716,14 +7638,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="21.13"/>
-    <col min="5" max="5" customWidth="true" width="31.38"/>
+    <col customWidth="1" min="2" max="2" width="21.13"/>
+    <col customWidth="1" min="5" max="5" width="31.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7753,9 +7674,7 @@
       <c r="C2" s="27">
         <v>1.0</v>
       </c>
-      <c r="D2" t="s" s="0">
-        <v>12</v>
-      </c>
+      <c r="D2" s="26"/>
       <c r="E2" s="26" t="s">
         <v>43</v>
       </c>
@@ -7775,7 +7694,6 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>

--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -2,6 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet state="visible" name="Scope" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Plan" sheetId="2" r:id="rId5"/>
@@ -9,7 +12,6 @@
     <sheet state="visible" name="Group-Turn" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Note" sheetId="5" r:id="rId8"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>STT</t>
   </si>
@@ -164,6 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="0"/>
   <fonts count="8">
     <font>
       <sz val="10.0"/>
@@ -586,6 +589,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -594,9 +598,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.88"/>
-    <col customWidth="1" min="2" max="2" width="45.75"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
+    <col min="1" max="1" customWidth="true" width="5.88"/>
+    <col min="2" max="2" customWidth="true" width="45.75"/>
+    <col min="3" max="6" customWidth="true" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -647,7 +651,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="4"/>
@@ -680,6 +684,9 @@
       </c>
       <c r="C3" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>8</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>11</v>
@@ -718,14 +725,6 @@
       <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="11"/>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="E5" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D5">
@@ -761,18 +760,19 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.13"/>
-    <col customWidth="1" min="2" max="4" width="12.63"/>
-    <col customWidth="1" min="5" max="5" width="13.75"/>
-    <col customWidth="1" min="6" max="6" width="12.63"/>
-    <col customWidth="1" min="7" max="7" width="26.38"/>
-    <col customWidth="1" min="8" max="8" width="15.5"/>
-    <col customWidth="1" min="11" max="11" width="24.0"/>
+    <col min="1" max="1" customWidth="true" width="13.13"/>
+    <col min="2" max="4" customWidth="true" width="12.63"/>
+    <col min="5" max="5" customWidth="true" width="13.75"/>
+    <col min="6" max="6" customWidth="true" width="12.63"/>
+    <col min="7" max="7" customWidth="true" width="26.38"/>
+    <col min="8" max="8" customWidth="true" width="15.5"/>
+    <col min="11" max="11" customWidth="true" width="24.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
@@ -818,16 +818,16 @@
         <v>26</v>
       </c>
       <c r="C2" s="19">
-        <v>4.0</v>
+        <v>120.0</v>
       </c>
       <c r="D2" s="19">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" s="19">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
-      <c r="F2" s="7">
-        <v>82.0</v>
+      <c r="F2" s="7" t="n">
+        <v>1.0</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>27</v>
@@ -835,10 +835,10 @@
       <c r="H2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="20" t="n">
         <v>0.0</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="20" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -867,12 +867,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="12.63"/>
+    <col min="1" max="6" customWidth="true" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
@@ -7638,13 +7639,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="21.13"/>
-    <col customWidth="1" min="5" max="5" width="31.38"/>
+    <col min="2" max="2" customWidth="true" width="21.13"/>
+    <col min="5" max="5" customWidth="true" width="31.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7674,7 +7676,9 @@
       <c r="C2" s="27">
         <v>1.0</v>
       </c>
-      <c r="D2" s="26"/>
+      <c r="D2" t="s" s="0">
+        <v>5</v>
+      </c>
       <c r="E2" s="26" t="s">
         <v>43</v>
       </c>
@@ -7694,6 +7698,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>

--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>STT</t>
   </si>
@@ -589,7 +589,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -651,7 +651,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="4"/>
@@ -682,11 +682,8 @@
       <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>8</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>11</v>
@@ -719,12 +716,20 @@
       <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11"/>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D5">
@@ -824,10 +829,10 @@
         <v>1.0</v>
       </c>
       <c r="E2" s="19">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
-      <c r="F2" s="7" t="n">
-        <v>1.0</v>
+      <c r="F2" s="8">
+        <v>0.0</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>27</v>
@@ -7676,9 +7681,7 @@
       <c r="C2" s="27">
         <v>1.0</v>
       </c>
-      <c r="D2" t="s" s="0">
-        <v>5</v>
-      </c>
+      <c r="D2" s="26"/>
       <c r="E2" s="26" t="s">
         <v>43</v>
       </c>

--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -2,9 +2,6 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <bookViews>
-    <workbookView activeTab="0"/>
-  </bookViews>
   <sheets>
     <sheet state="visible" name="Scope" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Plan" sheetId="2" r:id="rId5"/>
@@ -12,6 +9,7 @@
     <sheet state="visible" name="Group-Turn" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Note" sheetId="5" r:id="rId8"/>
   </sheets>
+  <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
@@ -22,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>STT</t>
   </si>
@@ -64,9 +62,6 @@
   </si>
   <si>
     <t>Report_GameName</t>
-  </si>
-  <si>
-    <t>END</t>
   </si>
   <si>
     <t>FLow</t>
@@ -166,7 +161,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="0"/>
   <fonts count="8">
     <font>
       <sz val="10.0"/>
@@ -589,7 +583,6 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -598,9 +591,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="5.88"/>
-    <col min="2" max="2" customWidth="true" width="45.75"/>
-    <col min="3" max="6" customWidth="true" width="12.63"/>
+    <col customWidth="1" min="1" max="1" width="5.88"/>
+    <col customWidth="1" min="2" max="2" width="45.75"/>
+    <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -725,9 +718,7 @@
     </row>
     <row r="5">
       <c r="A5" s="11"/>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B5" s="6"/>
       <c r="C5" s="8"/>
       <c r="E5" s="8"/>
     </row>
@@ -765,85 +756,84 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.13"/>
-    <col min="2" max="4" customWidth="true" width="12.63"/>
-    <col min="5" max="5" customWidth="true" width="13.75"/>
-    <col min="6" max="6" customWidth="true" width="12.63"/>
-    <col min="7" max="7" customWidth="true" width="26.38"/>
-    <col min="8" max="8" customWidth="true" width="15.5"/>
-    <col min="11" max="11" customWidth="true" width="24.0"/>
+    <col customWidth="1" min="1" max="1" width="13.13"/>
+    <col customWidth="1" min="2" max="4" width="12.63"/>
+    <col customWidth="1" min="5" max="5" width="13.75"/>
+    <col customWidth="1" min="6" max="6" width="12.63"/>
+    <col customWidth="1" min="7" max="7" width="26.38"/>
+    <col customWidth="1" min="8" max="8" width="15.5"/>
+    <col customWidth="1" min="11" max="11" width="24.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="16" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="19">
         <v>120.0</v>
       </c>
       <c r="D2" s="19">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" s="19">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F2" s="8">
         <v>0.0</v>
       </c>
       <c r="G2" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="20" t="n">
+      <c r="I2" s="20">
         <v>0.0</v>
       </c>
-      <c r="J2" s="20" t="n">
+      <c r="J2" s="20">
         <v>0.0</v>
       </c>
     </row>
@@ -872,24 +862,23 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="6" customWidth="true" width="12.63"/>
+    <col customWidth="1" min="1" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
@@ -916,13 +905,13 @@
     </row>
     <row r="2" ht="15.0" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -949,13 +938,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="1">
       <c r="A3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>32</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>33</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -982,11 +971,11 @@
     </row>
     <row r="4" ht="15.0" customHeight="1">
       <c r="A4" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -1013,7 +1002,7 @@
     </row>
     <row r="5" ht="15.0" customHeight="1">
       <c r="A5" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -1042,7 +1031,7 @@
     </row>
     <row r="6" ht="15.0" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -1071,7 +1060,7 @@
     </row>
     <row r="7" ht="15.0" customHeight="1">
       <c r="A7" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -1100,7 +1089,7 @@
     </row>
     <row r="8" ht="15.0" customHeight="1">
       <c r="A8" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -7644,14 +7633,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="21.13"/>
-    <col min="5" max="5" customWidth="true" width="31.38"/>
+    <col customWidth="1" min="2" max="2" width="21.13"/>
+    <col customWidth="1" min="5" max="5" width="31.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7659,16 +7647,16 @@
         <v>4</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -7676,14 +7664,14 @@
         <v>11</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="27">
         <v>1.0</v>
       </c>
       <c r="D2" s="26"/>
       <c r="E2" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -7701,7 +7689,6 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7709,12 +7696,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -2,6 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet state="visible" name="Scope" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Plan" sheetId="2" r:id="rId5"/>
@@ -9,7 +12,6 @@
     <sheet state="visible" name="Group-Turn" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Note" sheetId="5" r:id="rId8"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="49">
   <si>
     <t>STT</t>
   </si>
@@ -156,11 +158,24 @@
   <si>
     <t>Xác định thêm end game sẽ phân biệt dễ hơn chuyển act hay end game</t>
   </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Report_BE.PV02AiSpeakingWords(Clone)</t>
+  </si>
+  <si>
+    <t>Report_BE.PS04SpeakingCompetition(Clone)</t>
+  </si>
+  <si>
+    <t>Report_Chunking1Speaking(Clone)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="0"/>
   <fonts count="8">
     <font>
       <sz val="10.0"/>
@@ -583,6 +598,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -591,9 +607,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.88"/>
-    <col customWidth="1" min="2" max="2" width="45.75"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
+    <col min="1" max="1" customWidth="true" width="5.88"/>
+    <col min="2" max="2" customWidth="true" width="45.75"/>
+    <col min="3" max="6" customWidth="true" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -644,7 +660,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="4"/>
@@ -670,13 +686,16 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>11</v>
@@ -704,36 +723,101 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="A5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D5">
+  <conditionalFormatting sqref="D1:D9">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D5">
+  <conditionalFormatting sqref="D1:D9">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D5">
+  <conditionalFormatting sqref="D1:D9">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
@@ -756,18 +840,19 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.13"/>
-    <col customWidth="1" min="2" max="4" width="12.63"/>
-    <col customWidth="1" min="5" max="5" width="13.75"/>
-    <col customWidth="1" min="6" max="6" width="12.63"/>
-    <col customWidth="1" min="7" max="7" width="26.38"/>
-    <col customWidth="1" min="8" max="8" width="15.5"/>
-    <col customWidth="1" min="11" max="11" width="24.0"/>
+    <col min="1" max="1" customWidth="true" width="13.13"/>
+    <col min="2" max="4" customWidth="true" width="12.63"/>
+    <col min="5" max="5" customWidth="true" width="13.75"/>
+    <col min="6" max="6" customWidth="true" width="12.63"/>
+    <col min="7" max="7" customWidth="true" width="26.38"/>
+    <col min="8" max="8" customWidth="true" width="15.5"/>
+    <col min="11" max="11" customWidth="true" width="24.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
@@ -816,13 +901,13 @@
         <v>120.0</v>
       </c>
       <c r="D2" s="19">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" s="19">
         <v>3.0</v>
       </c>
-      <c r="F2" s="8">
-        <v>0.0</v>
+      <c r="F2" s="8" t="n">
+        <v>2.0</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>26</v>
@@ -830,10 +915,10 @@
       <c r="H2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="20" t="n">
         <v>0.0</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="20" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -862,12 +947,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="12.63"/>
+    <col min="1" max="6" customWidth="true" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
@@ -7633,13 +7719,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="21.13"/>
-    <col customWidth="1" min="5" max="5" width="31.38"/>
+    <col min="2" max="2" customWidth="true" width="21.13"/>
+    <col min="5" max="5" customWidth="true" width="31.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7669,7 +7756,9 @@
       <c r="C2" s="27">
         <v>1.0</v>
       </c>
-      <c r="D2" s="26"/>
+      <c r="D2" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="E2" s="26" t="s">
         <v>42</v>
       </c>
@@ -7689,6 +7778,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>

--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tool_test_game\config\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet state="visible" name="Scope" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Plan" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Options" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Group-Turn" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Note" sheetId="5" r:id="rId8"/>
+    <sheet name="Scope" sheetId="1" r:id="rId3"/>
+    <sheet name="Plan" sheetId="2" r:id="rId4"/>
+    <sheet name="Options" sheetId="3" r:id="rId5"/>
+    <sheet name="Group-Turn" sheetId="4" r:id="rId6"/>
+    <sheet name="Note" sheetId="5" r:id="rId7"/>
+    <sheet name="Evaluation Warning" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="O1KuvzuGQWpvckUPyuT1q4+Ys7VLg0uDHINzSLE5ULY="/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
+  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t>STT</t>
   </si>
@@ -164,52 +167,76 @@
   <si>
     <t>Xác định thêm end game sẽ phân biệt dễ hơn chuyển act hay end game</t>
   </si>
+  <si>
+    <t>Evaluation Only. Created with Aspose.Cells for Java.Copyright 2003 - 2021 Aspose Pty Ltd.</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="9">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="&quot;Times New Roman&quot;"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
+      <b/>
+      <i/>
+      <sz val="18"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -217,180 +244,262 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D2E9"/>
-        <bgColor rgb="FFD9D2E9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9FC5E8"/>
-        <bgColor rgb="FF9FC5E8"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEA9999"/>
-        <bgColor rgb="FFEA9999"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD2F1DA"/>
-        <bgColor rgb="FFD2F1DA"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9FC5E8"/>
           <bgColor rgb="FF9FC5E8"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -580,30 +689,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2.0" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection activeCell="D2" sqref="D2" pane="topRight"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="5.88"/>
-    <col min="2" max="2" customWidth="true" width="45.75"/>
-    <col min="3" max="6" customWidth="true" width="12.63"/>
+    <col min="1" max="1" customWidth="true" width="5.857142857142857"/>
+    <col min="2" max="2" customWidth="true" width="45.714285714285715"/>
+    <col min="3" max="6" customWidth="true" width="12.571428571428571"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -640,7 +751,7 @@
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -675,9 +786,9 @@
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>10</v>
@@ -685,6 +796,7 @@
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="D3" s="0"/>
       <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
@@ -709,9 +821,9 @@
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="10" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>13</v>
@@ -719,60 +831,100 @@
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="D4" s="0"/>
       <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75">
+      <c r="A7" s="10"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="4"/>
+      <c r="E7" s="8"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D4">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="D1:D7">
+    <cfRule type="cellIs" priority="1" dxfId="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D4">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="D1:D7">
+    <cfRule type="cellIs" priority="2" dxfId="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D4">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="D1:D7">
+    <cfRule type="cellIs" priority="3" dxfId="0" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E4">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E5">
       <formula1>'Group-Turn'!$A:$A</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.13"/>
-    <col min="2" max="4" customWidth="true" width="12.63"/>
-    <col min="5" max="5" customWidth="true" width="13.75"/>
-    <col min="6" max="6" customWidth="true" width="12.63"/>
-    <col min="7" max="8" customWidth="true" width="26.38"/>
-    <col min="9" max="9" customWidth="true" width="15.5"/>
+    <col min="1" max="1" customWidth="true" width="13.142857142857142"/>
+    <col min="2" max="4" customWidth="true" width="12.571428571428571"/>
+    <col min="5" max="5" customWidth="true" width="13.714285714285714"/>
+    <col min="6" max="6" customWidth="true" width="12.571428571428571"/>
+    <col min="7" max="8" customWidth="true" width="26.428571428571427"/>
+    <col min="9" max="9" customWidth="true" width="15.428571428571429"/>
     <col min="12" max="12" customWidth="true" width="24.0"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.0" customHeight="1">
+    <row r="1" spans="1:12" ht="15" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
@@ -810,7 +962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" ht="16.5">
       <c r="A2" s="16" t="s">
         <v>26</v>
       </c>
@@ -821,13 +973,13 @@
         <v>120.0</v>
       </c>
       <c r="D2" s="18">
-        <v>29.0</v>
+        <v>43.0</v>
       </c>
       <c r="E2" s="18">
-        <v>29.0</v>
+        <v>60.0</v>
       </c>
       <c r="F2" s="8">
-        <v>0.0</v>
+        <v>43.0</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>28</v>
@@ -838,15 +990,15 @@
       <c r="I2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="19" t="n">
+      <c r="J2" s="19">
         <v>0.0</v>
       </c>
-      <c r="K2" s="19" t="n">
+      <c r="K2" s="19">
         <v>0.0</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations>
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2">
       <formula1>Options!$A$2:$A2</formula1>
     </dataValidation>
@@ -857,29 +1009,26 @@
       <formula1>Options!$C:$C</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" customWidth="true" width="12.63"/>
+    <col min="1" max="6" customWidth="true" width="12.571428571428571"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.0" customHeight="1">
+    <row r="1" spans="1:25" ht="15" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>15</v>
       </c>
@@ -912,7 +1061,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" ht="15.0" customHeight="1">
+    <row r="2" spans="1:25" ht="15" customHeight="1">
       <c r="A2" s="16" t="s">
         <v>32</v>
       </c>
@@ -945,7 +1094,7 @@
       <c r="X2" s="16"/>
       <c r="Y2" s="16"/>
     </row>
-    <row r="3" ht="15.0" customHeight="1">
+    <row r="3" spans="1:25" ht="15" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>33</v>
       </c>
@@ -978,7 +1127,7 @@
       <c r="X3" s="16"/>
       <c r="Y3" s="16"/>
     </row>
-    <row r="4" ht="15.0" customHeight="1">
+    <row r="4" spans="1:25" ht="15" customHeight="1">
       <c r="A4" s="16" t="s">
         <v>36</v>
       </c>
@@ -1009,7 +1158,7 @@
       <c r="X4" s="16"/>
       <c r="Y4" s="16"/>
     </row>
-    <row r="5" ht="15.0" customHeight="1">
+    <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="16" t="s">
         <v>38</v>
       </c>
@@ -1038,7 +1187,7 @@
       <c r="X5" s="16"/>
       <c r="Y5" s="16"/>
     </row>
-    <row r="6" ht="15.0" customHeight="1">
+    <row r="6" spans="1:25" ht="15" customHeight="1">
       <c r="A6" s="16" t="s">
         <v>39</v>
       </c>
@@ -1067,7 +1216,7 @@
       <c r="X6" s="16"/>
       <c r="Y6" s="16"/>
     </row>
-    <row r="7" ht="15.0" customHeight="1">
+    <row r="7" spans="1:25" ht="15" customHeight="1">
       <c r="A7" s="22" t="s">
         <v>27</v>
       </c>
@@ -1096,7 +1245,7 @@
       <c r="X7" s="16"/>
       <c r="Y7" s="16"/>
     </row>
-    <row r="8" ht="15.0" customHeight="1">
+    <row r="8" spans="1:25" ht="15" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>29</v>
       </c>
@@ -1125,7 +1274,7 @@
       <c r="X8" s="16"/>
       <c r="Y8" s="16"/>
     </row>
-    <row r="9" ht="15.0" customHeight="1">
+    <row r="9" spans="1:25" ht="15" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -1152,7 +1301,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" ht="15.0" customHeight="1">
+    <row r="10" spans="1:25" ht="15" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -1179,7 +1328,7 @@
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
     </row>
-    <row r="11" ht="15.0" customHeight="1">
+    <row r="11" spans="1:25" ht="15" customHeight="1">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1206,7 +1355,7 @@
       <c r="X11" s="16"/>
       <c r="Y11" s="16"/>
     </row>
-    <row r="12" ht="15.0" customHeight="1">
+    <row r="12" spans="1:25" ht="15" customHeight="1">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -1233,7 +1382,7 @@
       <c r="X12" s="16"/>
       <c r="Y12" s="16"/>
     </row>
-    <row r="13" ht="15.0" customHeight="1">
+    <row r="13" spans="1:25" ht="15" customHeight="1">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1260,7 +1409,7 @@
       <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
     </row>
-    <row r="14" ht="15.0" customHeight="1">
+    <row r="14" spans="1:25" ht="15" customHeight="1">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -1287,7 +1436,7 @@
       <c r="X14" s="16"/>
       <c r="Y14" s="16"/>
     </row>
-    <row r="15" ht="15.0" customHeight="1">
+    <row r="15" spans="1:25" ht="15" customHeight="1">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -1314,7 +1463,7 @@
       <c r="X15" s="16"/>
       <c r="Y15" s="16"/>
     </row>
-    <row r="16" ht="15.0" customHeight="1">
+    <row r="16" spans="1:25" ht="15" customHeight="1">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -1341,7 +1490,7 @@
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
     </row>
-    <row r="17" ht="15.0" customHeight="1">
+    <row r="17" spans="1:25" ht="15" customHeight="1">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -1368,7 +1517,7 @@
       <c r="X17" s="16"/>
       <c r="Y17" s="16"/>
     </row>
-    <row r="18" ht="15.0" customHeight="1">
+    <row r="18" spans="1:25" ht="15" customHeight="1">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -1395,7 +1544,7 @@
       <c r="X18" s="16"/>
       <c r="Y18" s="16"/>
     </row>
-    <row r="19" ht="15.0" customHeight="1">
+    <row r="19" spans="1:25" ht="15" customHeight="1">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -1422,7 +1571,7 @@
       <c r="X19" s="16"/>
       <c r="Y19" s="16"/>
     </row>
-    <row r="20" ht="15.0" customHeight="1">
+    <row r="20" spans="1:25" ht="15" customHeight="1">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -1449,7 +1598,7 @@
       <c r="X20" s="16"/>
       <c r="Y20" s="16"/>
     </row>
-    <row r="21" ht="15.0" customHeight="1">
+    <row r="21" spans="1:25" ht="15" customHeight="1">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -1476,7 +1625,7 @@
       <c r="X21" s="16"/>
       <c r="Y21" s="16"/>
     </row>
-    <row r="22" ht="15.0" customHeight="1">
+    <row r="22" spans="1:25" ht="15" customHeight="1">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -1503,7 +1652,7 @@
       <c r="X22" s="16"/>
       <c r="Y22" s="16"/>
     </row>
-    <row r="23" ht="15.0" customHeight="1">
+    <row r="23" spans="1:25" ht="15" customHeight="1">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -1530,7 +1679,7 @@
       <c r="X23" s="16"/>
       <c r="Y23" s="16"/>
     </row>
-    <row r="24" ht="15.0" customHeight="1">
+    <row r="24" spans="1:25" ht="15" customHeight="1">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -1557,7 +1706,7 @@
       <c r="X24" s="16"/>
       <c r="Y24" s="16"/>
     </row>
-    <row r="25" ht="15.0" customHeight="1">
+    <row r="25" spans="1:25" ht="15" customHeight="1">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -1584,7 +1733,7 @@
       <c r="X25" s="16"/>
       <c r="Y25" s="16"/>
     </row>
-    <row r="26" ht="15.0" customHeight="1">
+    <row r="26" spans="1:25" ht="15" customHeight="1">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -1611,7 +1760,7 @@
       <c r="X26" s="16"/>
       <c r="Y26" s="16"/>
     </row>
-    <row r="27" ht="15.0" customHeight="1">
+    <row r="27" spans="1:25" ht="15" customHeight="1">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -1638,7 +1787,7 @@
       <c r="X27" s="16"/>
       <c r="Y27" s="16"/>
     </row>
-    <row r="28" ht="15.0" customHeight="1">
+    <row r="28" spans="1:25" ht="15" customHeight="1">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -1665,7 +1814,7 @@
       <c r="X28" s="16"/>
       <c r="Y28" s="16"/>
     </row>
-    <row r="29" ht="15.0" customHeight="1">
+    <row r="29" spans="1:25" ht="15" customHeight="1">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -1692,7 +1841,7 @@
       <c r="X29" s="16"/>
       <c r="Y29" s="16"/>
     </row>
-    <row r="30" ht="15.0" customHeight="1">
+    <row r="30" spans="1:25" ht="15" customHeight="1">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -1719,7 +1868,7 @@
       <c r="X30" s="16"/>
       <c r="Y30" s="16"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -1746,7 +1895,7 @@
       <c r="X31" s="16"/>
       <c r="Y31" s="16"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -1773,7 +1922,7 @@
       <c r="X32" s="16"/>
       <c r="Y32" s="16"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:25" ht="15.75" customHeight="1">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -1800,7 +1949,7 @@
       <c r="X33" s="16"/>
       <c r="Y33" s="16"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:25" ht="15.75" customHeight="1">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -1827,7 +1976,7 @@
       <c r="X34" s="16"/>
       <c r="Y34" s="16"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:25" ht="15.75" customHeight="1">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -1854,7 +2003,7 @@
       <c r="X35" s="16"/>
       <c r="Y35" s="16"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:25" ht="15.75" customHeight="1">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -1881,7 +2030,7 @@
       <c r="X36" s="16"/>
       <c r="Y36" s="16"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:25" ht="15.75" customHeight="1">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -1908,7 +2057,7 @@
       <c r="X37" s="16"/>
       <c r="Y37" s="16"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:25" ht="15.75" customHeight="1">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -1935,7 +2084,7 @@
       <c r="X38" s="16"/>
       <c r="Y38" s="16"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:25" ht="15.75" customHeight="1">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -1962,7 +2111,7 @@
       <c r="X39" s="16"/>
       <c r="Y39" s="16"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:25" ht="15.75" customHeight="1">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -1989,7 +2138,7 @@
       <c r="X40" s="16"/>
       <c r="Y40" s="16"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:25" ht="15.75" customHeight="1">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
@@ -2016,7 +2165,7 @@
       <c r="X41" s="16"/>
       <c r="Y41" s="16"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:25" ht="15.75" customHeight="1">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -2043,7 +2192,7 @@
       <c r="X42" s="16"/>
       <c r="Y42" s="16"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:25" ht="15.75" customHeight="1">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -2070,7 +2219,7 @@
       <c r="X43" s="16"/>
       <c r="Y43" s="16"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:25" ht="15.75" customHeight="1">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
@@ -2097,7 +2246,7 @@
       <c r="X44" s="16"/>
       <c r="Y44" s="16"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:25" ht="15.75" customHeight="1">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -2124,7 +2273,7 @@
       <c r="X45" s="16"/>
       <c r="Y45" s="16"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:25" ht="15.75" customHeight="1">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -2151,7 +2300,7 @@
       <c r="X46" s="16"/>
       <c r="Y46" s="16"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:25" ht="15.75" customHeight="1">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -2178,7 +2327,7 @@
       <c r="X47" s="16"/>
       <c r="Y47" s="16"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:25" ht="15.75" customHeight="1">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -2205,7 +2354,7 @@
       <c r="X48" s="16"/>
       <c r="Y48" s="16"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:25" ht="15.75" customHeight="1">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -2232,7 +2381,7 @@
       <c r="X49" s="16"/>
       <c r="Y49" s="16"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:25" ht="15.75" customHeight="1">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -2259,7 +2408,7 @@
       <c r="X50" s="16"/>
       <c r="Y50" s="16"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:25" ht="15.75" customHeight="1">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -2286,7 +2435,7 @@
       <c r="X51" s="16"/>
       <c r="Y51" s="16"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:25" ht="15.75" customHeight="1">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -2313,7 +2462,7 @@
       <c r="X52" s="16"/>
       <c r="Y52" s="16"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1">
       <c r="A53" s="16"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
@@ -2340,7 +2489,7 @@
       <c r="X53" s="16"/>
       <c r="Y53" s="16"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -2367,7 +2516,7 @@
       <c r="X54" s="16"/>
       <c r="Y54" s="16"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:25" ht="15.75" customHeight="1">
       <c r="A55" s="16"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -2394,7 +2543,7 @@
       <c r="X55" s="16"/>
       <c r="Y55" s="16"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:25" ht="15.75" customHeight="1">
       <c r="A56" s="16"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -2421,7 +2570,7 @@
       <c r="X56" s="16"/>
       <c r="Y56" s="16"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:25" ht="15.75" customHeight="1">
       <c r="A57" s="16"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -2448,7 +2597,7 @@
       <c r="X57" s="16"/>
       <c r="Y57" s="16"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:25" ht="15.75" customHeight="1">
       <c r="A58" s="16"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -2475,7 +2624,7 @@
       <c r="X58" s="16"/>
       <c r="Y58" s="16"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:25" ht="15.75" customHeight="1">
       <c r="A59" s="16"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -2502,7 +2651,7 @@
       <c r="X59" s="16"/>
       <c r="Y59" s="16"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:25" ht="15.75" customHeight="1">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -2529,7 +2678,7 @@
       <c r="X60" s="16"/>
       <c r="Y60" s="16"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:25" ht="15.75" customHeight="1">
       <c r="A61" s="16"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -2556,7 +2705,7 @@
       <c r="X61" s="16"/>
       <c r="Y61" s="16"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:25" ht="15.75" customHeight="1">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -2583,7 +2732,7 @@
       <c r="X62" s="16"/>
       <c r="Y62" s="16"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:25" ht="15.75" customHeight="1">
       <c r="A63" s="16"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
@@ -2610,7 +2759,7 @@
       <c r="X63" s="16"/>
       <c r="Y63" s="16"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:25" ht="15.75" customHeight="1">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
@@ -2637,7 +2786,7 @@
       <c r="X64" s="16"/>
       <c r="Y64" s="16"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:25" ht="15.75" customHeight="1">
       <c r="A65" s="16"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
@@ -2664,7 +2813,7 @@
       <c r="X65" s="16"/>
       <c r="Y65" s="16"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:25" ht="15.75" customHeight="1">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -2691,7 +2840,7 @@
       <c r="X66" s="16"/>
       <c r="Y66" s="16"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:25" ht="15.75" customHeight="1">
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -2718,7 +2867,7 @@
       <c r="X67" s="16"/>
       <c r="Y67" s="16"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:25" ht="15.75" customHeight="1">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -2745,7 +2894,7 @@
       <c r="X68" s="16"/>
       <c r="Y68" s="16"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:25" ht="15.75" customHeight="1">
       <c r="A69" s="16"/>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
@@ -2772,7 +2921,7 @@
       <c r="X69" s="16"/>
       <c r="Y69" s="16"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:25" ht="15.75" customHeight="1">
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
@@ -2799,7 +2948,7 @@
       <c r="X70" s="16"/>
       <c r="Y70" s="16"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:25" ht="15.75" customHeight="1">
       <c r="A71" s="16"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
@@ -2826,7 +2975,7 @@
       <c r="X71" s="16"/>
       <c r="Y71" s="16"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:25" ht="15.75" customHeight="1">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -2853,7 +3002,7 @@
       <c r="X72" s="16"/>
       <c r="Y72" s="16"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:25" ht="15.75" customHeight="1">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -2880,7 +3029,7 @@
       <c r="X73" s="16"/>
       <c r="Y73" s="16"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:25" ht="15.75" customHeight="1">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
@@ -2907,7 +3056,7 @@
       <c r="X74" s="16"/>
       <c r="Y74" s="16"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:25" ht="15.75" customHeight="1">
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
@@ -2934,7 +3083,7 @@
       <c r="X75" s="16"/>
       <c r="Y75" s="16"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:25" ht="15.75" customHeight="1">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
@@ -2961,7 +3110,7 @@
       <c r="X76" s="16"/>
       <c r="Y76" s="16"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:25" ht="15.75" customHeight="1">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -2988,7 +3137,7 @@
       <c r="X77" s="16"/>
       <c r="Y77" s="16"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:25" ht="15.75" customHeight="1">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
@@ -3015,7 +3164,7 @@
       <c r="X78" s="16"/>
       <c r="Y78" s="16"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:25" ht="15.75" customHeight="1">
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
@@ -3042,7 +3191,7 @@
       <c r="X79" s="16"/>
       <c r="Y79" s="16"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:25" ht="15.75" customHeight="1">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
@@ -3069,7 +3218,7 @@
       <c r="X80" s="16"/>
       <c r="Y80" s="16"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:25" ht="15.75" customHeight="1">
       <c r="A81" s="16"/>
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
@@ -3096,7 +3245,7 @@
       <c r="X81" s="16"/>
       <c r="Y81" s="16"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:25" ht="15.75" customHeight="1">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
@@ -3123,7 +3272,7 @@
       <c r="X82" s="16"/>
       <c r="Y82" s="16"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:25" ht="15.75" customHeight="1">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
@@ -3150,7 +3299,7 @@
       <c r="X83" s="16"/>
       <c r="Y83" s="16"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:25" ht="15.75" customHeight="1">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -3177,7 +3326,7 @@
       <c r="X84" s="16"/>
       <c r="Y84" s="16"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:25" ht="15.75" customHeight="1">
       <c r="A85" s="16"/>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
@@ -3204,7 +3353,7 @@
       <c r="X85" s="16"/>
       <c r="Y85" s="16"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:25" ht="15.75" customHeight="1">
       <c r="A86" s="16"/>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
@@ -3231,7 +3380,7 @@
       <c r="X86" s="16"/>
       <c r="Y86" s="16"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:25" ht="15.75" customHeight="1">
       <c r="A87" s="16"/>
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
@@ -3258,7 +3407,7 @@
       <c r="X87" s="16"/>
       <c r="Y87" s="16"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:25" ht="15.75" customHeight="1">
       <c r="A88" s="16"/>
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
@@ -3285,7 +3434,7 @@
       <c r="X88" s="16"/>
       <c r="Y88" s="16"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:25" ht="15.75" customHeight="1">
       <c r="A89" s="16"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
@@ -3312,7 +3461,7 @@
       <c r="X89" s="16"/>
       <c r="Y89" s="16"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:25" ht="15.75" customHeight="1">
       <c r="A90" s="16"/>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
@@ -3339,7 +3488,7 @@
       <c r="X90" s="16"/>
       <c r="Y90" s="16"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:25" ht="15.75" customHeight="1">
       <c r="A91" s="16"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
@@ -3366,7 +3515,7 @@
       <c r="X91" s="16"/>
       <c r="Y91" s="16"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:25" ht="15.75" customHeight="1">
       <c r="A92" s="16"/>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
@@ -3393,7 +3542,7 @@
       <c r="X92" s="16"/>
       <c r="Y92" s="16"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:25" ht="15.75" customHeight="1">
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
@@ -3420,7 +3569,7 @@
       <c r="X93" s="16"/>
       <c r="Y93" s="16"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:25" ht="15.75" customHeight="1">
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
@@ -3447,7 +3596,7 @@
       <c r="X94" s="16"/>
       <c r="Y94" s="16"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:25" ht="15.75" customHeight="1">
       <c r="A95" s="16"/>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
@@ -3474,7 +3623,7 @@
       <c r="X95" s="16"/>
       <c r="Y95" s="16"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:25" ht="15.75" customHeight="1">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
@@ -3501,7 +3650,7 @@
       <c r="X96" s="16"/>
       <c r="Y96" s="16"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:25" ht="15.75" customHeight="1">
       <c r="A97" s="16"/>
       <c r="B97" s="16"/>
       <c r="C97" s="16"/>
@@ -3528,7 +3677,7 @@
       <c r="X97" s="16"/>
       <c r="Y97" s="16"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:25" ht="15.75" customHeight="1">
       <c r="A98" s="16"/>
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
@@ -3555,7 +3704,7 @@
       <c r="X98" s="16"/>
       <c r="Y98" s="16"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:25" ht="15.75" customHeight="1">
       <c r="A99" s="16"/>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
@@ -3582,7 +3731,7 @@
       <c r="X99" s="16"/>
       <c r="Y99" s="16"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:25" ht="15.75" customHeight="1">
       <c r="A100" s="16"/>
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
@@ -3609,7 +3758,7 @@
       <c r="X100" s="16"/>
       <c r="Y100" s="16"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:25" ht="15.75" customHeight="1">
       <c r="A101" s="16"/>
       <c r="B101" s="16"/>
       <c r="C101" s="16"/>
@@ -3636,7 +3785,7 @@
       <c r="X101" s="16"/>
       <c r="Y101" s="16"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:25" ht="15.75" customHeight="1">
       <c r="A102" s="16"/>
       <c r="B102" s="16"/>
       <c r="C102" s="16"/>
@@ -3663,7 +3812,7 @@
       <c r="X102" s="16"/>
       <c r="Y102" s="16"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:25" ht="15.75" customHeight="1">
       <c r="A103" s="16"/>
       <c r="B103" s="16"/>
       <c r="C103" s="16"/>
@@ -3690,7 +3839,7 @@
       <c r="X103" s="16"/>
       <c r="Y103" s="16"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:25" ht="15.75" customHeight="1">
       <c r="A104" s="16"/>
       <c r="B104" s="16"/>
       <c r="C104" s="16"/>
@@ -3717,7 +3866,7 @@
       <c r="X104" s="16"/>
       <c r="Y104" s="16"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:25" ht="15.75" customHeight="1">
       <c r="A105" s="16"/>
       <c r="B105" s="16"/>
       <c r="C105" s="16"/>
@@ -3744,7 +3893,7 @@
       <c r="X105" s="16"/>
       <c r="Y105" s="16"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:25" ht="15.75" customHeight="1">
       <c r="A106" s="16"/>
       <c r="B106" s="16"/>
       <c r="C106" s="16"/>
@@ -3771,7 +3920,7 @@
       <c r="X106" s="16"/>
       <c r="Y106" s="16"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:25" ht="15.75" customHeight="1">
       <c r="A107" s="16"/>
       <c r="B107" s="16"/>
       <c r="C107" s="16"/>
@@ -3798,7 +3947,7 @@
       <c r="X107" s="16"/>
       <c r="Y107" s="16"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:25" ht="15.75" customHeight="1">
       <c r="A108" s="16"/>
       <c r="B108" s="16"/>
       <c r="C108" s="16"/>
@@ -3825,7 +3974,7 @@
       <c r="X108" s="16"/>
       <c r="Y108" s="16"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:25" ht="15.75" customHeight="1">
       <c r="A109" s="16"/>
       <c r="B109" s="16"/>
       <c r="C109" s="16"/>
@@ -3852,7 +4001,7 @@
       <c r="X109" s="16"/>
       <c r="Y109" s="16"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:25" ht="15.75" customHeight="1">
       <c r="A110" s="16"/>
       <c r="B110" s="16"/>
       <c r="C110" s="16"/>
@@ -3879,7 +4028,7 @@
       <c r="X110" s="16"/>
       <c r="Y110" s="16"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:25" ht="15.75" customHeight="1">
       <c r="A111" s="16"/>
       <c r="B111" s="16"/>
       <c r="C111" s="16"/>
@@ -3906,7 +4055,7 @@
       <c r="X111" s="16"/>
       <c r="Y111" s="16"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:25" ht="15.75" customHeight="1">
       <c r="A112" s="16"/>
       <c r="B112" s="16"/>
       <c r="C112" s="16"/>
@@ -3933,7 +4082,7 @@
       <c r="X112" s="16"/>
       <c r="Y112" s="16"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:25" ht="15.75" customHeight="1">
       <c r="A113" s="16"/>
       <c r="B113" s="16"/>
       <c r="C113" s="16"/>
@@ -3960,7 +4109,7 @@
       <c r="X113" s="16"/>
       <c r="Y113" s="16"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:25" ht="15.75" customHeight="1">
       <c r="A114" s="16"/>
       <c r="B114" s="16"/>
       <c r="C114" s="16"/>
@@ -3987,7 +4136,7 @@
       <c r="X114" s="16"/>
       <c r="Y114" s="16"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:25" ht="15.75" customHeight="1">
       <c r="A115" s="16"/>
       <c r="B115" s="16"/>
       <c r="C115" s="16"/>
@@ -4014,7 +4163,7 @@
       <c r="X115" s="16"/>
       <c r="Y115" s="16"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:25" ht="15.75" customHeight="1">
       <c r="A116" s="16"/>
       <c r="B116" s="16"/>
       <c r="C116" s="16"/>
@@ -4041,7 +4190,7 @@
       <c r="X116" s="16"/>
       <c r="Y116" s="16"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:25" ht="15.75" customHeight="1">
       <c r="A117" s="16"/>
       <c r="B117" s="16"/>
       <c r="C117" s="16"/>
@@ -4068,7 +4217,7 @@
       <c r="X117" s="16"/>
       <c r="Y117" s="16"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:25" ht="15.75" customHeight="1">
       <c r="A118" s="16"/>
       <c r="B118" s="16"/>
       <c r="C118" s="16"/>
@@ -4095,7 +4244,7 @@
       <c r="X118" s="16"/>
       <c r="Y118" s="16"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:25" ht="15.75" customHeight="1">
       <c r="A119" s="16"/>
       <c r="B119" s="16"/>
       <c r="C119" s="16"/>
@@ -4122,7 +4271,7 @@
       <c r="X119" s="16"/>
       <c r="Y119" s="16"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:25" ht="15.75" customHeight="1">
       <c r="A120" s="16"/>
       <c r="B120" s="16"/>
       <c r="C120" s="16"/>
@@ -4149,7 +4298,7 @@
       <c r="X120" s="16"/>
       <c r="Y120" s="16"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:25" ht="15.75" customHeight="1">
       <c r="A121" s="16"/>
       <c r="B121" s="16"/>
       <c r="C121" s="16"/>
@@ -4176,7 +4325,7 @@
       <c r="X121" s="16"/>
       <c r="Y121" s="16"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:25" ht="15.75" customHeight="1">
       <c r="A122" s="16"/>
       <c r="B122" s="16"/>
       <c r="C122" s="16"/>
@@ -4203,7 +4352,7 @@
       <c r="X122" s="16"/>
       <c r="Y122" s="16"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:25" ht="15.75" customHeight="1">
       <c r="A123" s="16"/>
       <c r="B123" s="16"/>
       <c r="C123" s="16"/>
@@ -4230,7 +4379,7 @@
       <c r="X123" s="16"/>
       <c r="Y123" s="16"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:25" ht="15.75" customHeight="1">
       <c r="A124" s="16"/>
       <c r="B124" s="16"/>
       <c r="C124" s="16"/>
@@ -4257,7 +4406,7 @@
       <c r="X124" s="16"/>
       <c r="Y124" s="16"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:25" ht="15.75" customHeight="1">
       <c r="A125" s="16"/>
       <c r="B125" s="16"/>
       <c r="C125" s="16"/>
@@ -4284,7 +4433,7 @@
       <c r="X125" s="16"/>
       <c r="Y125" s="16"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:25" ht="15.75" customHeight="1">
       <c r="A126" s="16"/>
       <c r="B126" s="16"/>
       <c r="C126" s="16"/>
@@ -4311,7 +4460,7 @@
       <c r="X126" s="16"/>
       <c r="Y126" s="16"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:25" ht="15.75" customHeight="1">
       <c r="A127" s="16"/>
       <c r="B127" s="16"/>
       <c r="C127" s="16"/>
@@ -4338,7 +4487,7 @@
       <c r="X127" s="16"/>
       <c r="Y127" s="16"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:25" ht="15.75" customHeight="1">
       <c r="A128" s="16"/>
       <c r="B128" s="16"/>
       <c r="C128" s="16"/>
@@ -4365,7 +4514,7 @@
       <c r="X128" s="16"/>
       <c r="Y128" s="16"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:25" ht="15.75" customHeight="1">
       <c r="A129" s="16"/>
       <c r="B129" s="16"/>
       <c r="C129" s="16"/>
@@ -4392,7 +4541,7 @@
       <c r="X129" s="16"/>
       <c r="Y129" s="16"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:25" ht="15.75" customHeight="1">
       <c r="A130" s="16"/>
       <c r="B130" s="16"/>
       <c r="C130" s="16"/>
@@ -4419,7 +4568,7 @@
       <c r="X130" s="16"/>
       <c r="Y130" s="16"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:25" ht="15.75" customHeight="1">
       <c r="A131" s="16"/>
       <c r="B131" s="16"/>
       <c r="C131" s="16"/>
@@ -4446,7 +4595,7 @@
       <c r="X131" s="16"/>
       <c r="Y131" s="16"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:25" ht="15.75" customHeight="1">
       <c r="A132" s="16"/>
       <c r="B132" s="16"/>
       <c r="C132" s="16"/>
@@ -4473,7 +4622,7 @@
       <c r="X132" s="16"/>
       <c r="Y132" s="16"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:25" ht="15.75" customHeight="1">
       <c r="A133" s="16"/>
       <c r="B133" s="16"/>
       <c r="C133" s="16"/>
@@ -4500,7 +4649,7 @@
       <c r="X133" s="16"/>
       <c r="Y133" s="16"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:25" ht="15.75" customHeight="1">
       <c r="A134" s="16"/>
       <c r="B134" s="16"/>
       <c r="C134" s="16"/>
@@ -4527,7 +4676,7 @@
       <c r="X134" s="16"/>
       <c r="Y134" s="16"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:25" ht="15.75" customHeight="1">
       <c r="A135" s="16"/>
       <c r="B135" s="16"/>
       <c r="C135" s="16"/>
@@ -4554,7 +4703,7 @@
       <c r="X135" s="16"/>
       <c r="Y135" s="16"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:25" ht="15.75" customHeight="1">
       <c r="A136" s="16"/>
       <c r="B136" s="16"/>
       <c r="C136" s="16"/>
@@ -4581,7 +4730,7 @@
       <c r="X136" s="16"/>
       <c r="Y136" s="16"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:25" ht="15.75" customHeight="1">
       <c r="A137" s="16"/>
       <c r="B137" s="16"/>
       <c r="C137" s="16"/>
@@ -4608,7 +4757,7 @@
       <c r="X137" s="16"/>
       <c r="Y137" s="16"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:25" ht="15.75" customHeight="1">
       <c r="A138" s="16"/>
       <c r="B138" s="16"/>
       <c r="C138" s="16"/>
@@ -4635,7 +4784,7 @@
       <c r="X138" s="16"/>
       <c r="Y138" s="16"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:25" ht="15.75" customHeight="1">
       <c r="A139" s="16"/>
       <c r="B139" s="16"/>
       <c r="C139" s="16"/>
@@ -4662,7 +4811,7 @@
       <c r="X139" s="16"/>
       <c r="Y139" s="16"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:25" ht="15.75" customHeight="1">
       <c r="A140" s="16"/>
       <c r="B140" s="16"/>
       <c r="C140" s="16"/>
@@ -4689,7 +4838,7 @@
       <c r="X140" s="16"/>
       <c r="Y140" s="16"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:25" ht="15.75" customHeight="1">
       <c r="A141" s="16"/>
       <c r="B141" s="16"/>
       <c r="C141" s="16"/>
@@ -4716,7 +4865,7 @@
       <c r="X141" s="16"/>
       <c r="Y141" s="16"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:25" ht="15.75" customHeight="1">
       <c r="A142" s="16"/>
       <c r="B142" s="16"/>
       <c r="C142" s="16"/>
@@ -4743,7 +4892,7 @@
       <c r="X142" s="16"/>
       <c r="Y142" s="16"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:25" ht="15.75" customHeight="1">
       <c r="A143" s="16"/>
       <c r="B143" s="16"/>
       <c r="C143" s="16"/>
@@ -4770,7 +4919,7 @@
       <c r="X143" s="16"/>
       <c r="Y143" s="16"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:25" ht="15.75" customHeight="1">
       <c r="A144" s="16"/>
       <c r="B144" s="16"/>
       <c r="C144" s="16"/>
@@ -4797,7 +4946,7 @@
       <c r="X144" s="16"/>
       <c r="Y144" s="16"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:25" ht="15.75" customHeight="1">
       <c r="A145" s="16"/>
       <c r="B145" s="16"/>
       <c r="C145" s="16"/>
@@ -4824,7 +4973,7 @@
       <c r="X145" s="16"/>
       <c r="Y145" s="16"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:25" ht="15.75" customHeight="1">
       <c r="A146" s="16"/>
       <c r="B146" s="16"/>
       <c r="C146" s="16"/>
@@ -4851,7 +5000,7 @@
       <c r="X146" s="16"/>
       <c r="Y146" s="16"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:25" ht="15.75" customHeight="1">
       <c r="A147" s="16"/>
       <c r="B147" s="16"/>
       <c r="C147" s="16"/>
@@ -4878,7 +5027,7 @@
       <c r="X147" s="16"/>
       <c r="Y147" s="16"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:25" ht="15.75" customHeight="1">
       <c r="A148" s="16"/>
       <c r="B148" s="16"/>
       <c r="C148" s="16"/>
@@ -4905,7 +5054,7 @@
       <c r="X148" s="16"/>
       <c r="Y148" s="16"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:25" ht="15.75" customHeight="1">
       <c r="A149" s="16"/>
       <c r="B149" s="16"/>
       <c r="C149" s="16"/>
@@ -4932,7 +5081,7 @@
       <c r="X149" s="16"/>
       <c r="Y149" s="16"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:25" ht="15.75" customHeight="1">
       <c r="A150" s="16"/>
       <c r="B150" s="16"/>
       <c r="C150" s="16"/>
@@ -4959,7 +5108,7 @@
       <c r="X150" s="16"/>
       <c r="Y150" s="16"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:25" ht="15.75" customHeight="1">
       <c r="A151" s="16"/>
       <c r="B151" s="16"/>
       <c r="C151" s="16"/>
@@ -4986,7 +5135,7 @@
       <c r="X151" s="16"/>
       <c r="Y151" s="16"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:25" ht="15.75" customHeight="1">
       <c r="A152" s="16"/>
       <c r="B152" s="16"/>
       <c r="C152" s="16"/>
@@ -5013,7 +5162,7 @@
       <c r="X152" s="16"/>
       <c r="Y152" s="16"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:25" ht="15.75" customHeight="1">
       <c r="A153" s="16"/>
       <c r="B153" s="16"/>
       <c r="C153" s="16"/>
@@ -5040,7 +5189,7 @@
       <c r="X153" s="16"/>
       <c r="Y153" s="16"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:25" ht="15.75" customHeight="1">
       <c r="A154" s="16"/>
       <c r="B154" s="16"/>
       <c r="C154" s="16"/>
@@ -5067,7 +5216,7 @@
       <c r="X154" s="16"/>
       <c r="Y154" s="16"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:25" ht="15.75" customHeight="1">
       <c r="A155" s="16"/>
       <c r="B155" s="16"/>
       <c r="C155" s="16"/>
@@ -5094,7 +5243,7 @@
       <c r="X155" s="16"/>
       <c r="Y155" s="16"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:25" ht="15.75" customHeight="1">
       <c r="A156" s="16"/>
       <c r="B156" s="16"/>
       <c r="C156" s="16"/>
@@ -5121,7 +5270,7 @@
       <c r="X156" s="16"/>
       <c r="Y156" s="16"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:25" ht="15.75" customHeight="1">
       <c r="A157" s="16"/>
       <c r="B157" s="16"/>
       <c r="C157" s="16"/>
@@ -5148,7 +5297,7 @@
       <c r="X157" s="16"/>
       <c r="Y157" s="16"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:25" ht="15.75" customHeight="1">
       <c r="A158" s="16"/>
       <c r="B158" s="16"/>
       <c r="C158" s="16"/>
@@ -5175,7 +5324,7 @@
       <c r="X158" s="16"/>
       <c r="Y158" s="16"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:25" ht="15.75" customHeight="1">
       <c r="A159" s="16"/>
       <c r="B159" s="16"/>
       <c r="C159" s="16"/>
@@ -5202,7 +5351,7 @@
       <c r="X159" s="16"/>
       <c r="Y159" s="16"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:25" ht="15.75" customHeight="1">
       <c r="A160" s="16"/>
       <c r="B160" s="16"/>
       <c r="C160" s="16"/>
@@ -5229,7 +5378,7 @@
       <c r="X160" s="16"/>
       <c r="Y160" s="16"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:25" ht="15.75" customHeight="1">
       <c r="A161" s="16"/>
       <c r="B161" s="16"/>
       <c r="C161" s="16"/>
@@ -5256,7 +5405,7 @@
       <c r="X161" s="16"/>
       <c r="Y161" s="16"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:25" ht="15.75" customHeight="1">
       <c r="A162" s="16"/>
       <c r="B162" s="16"/>
       <c r="C162" s="16"/>
@@ -5283,7 +5432,7 @@
       <c r="X162" s="16"/>
       <c r="Y162" s="16"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:25" ht="15.75" customHeight="1">
       <c r="A163" s="16"/>
       <c r="B163" s="16"/>
       <c r="C163" s="16"/>
@@ -5310,7 +5459,7 @@
       <c r="X163" s="16"/>
       <c r="Y163" s="16"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:25" ht="15.75" customHeight="1">
       <c r="A164" s="16"/>
       <c r="B164" s="16"/>
       <c r="C164" s="16"/>
@@ -5337,7 +5486,7 @@
       <c r="X164" s="16"/>
       <c r="Y164" s="16"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:25" ht="15.75" customHeight="1">
       <c r="A165" s="16"/>
       <c r="B165" s="16"/>
       <c r="C165" s="16"/>
@@ -5364,7 +5513,7 @@
       <c r="X165" s="16"/>
       <c r="Y165" s="16"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:25" ht="15.75" customHeight="1">
       <c r="A166" s="16"/>
       <c r="B166" s="16"/>
       <c r="C166" s="16"/>
@@ -5391,7 +5540,7 @@
       <c r="X166" s="16"/>
       <c r="Y166" s="16"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:25" ht="15.75" customHeight="1">
       <c r="A167" s="16"/>
       <c r="B167" s="16"/>
       <c r="C167" s="16"/>
@@ -5418,7 +5567,7 @@
       <c r="X167" s="16"/>
       <c r="Y167" s="16"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:25" ht="15.75" customHeight="1">
       <c r="A168" s="16"/>
       <c r="B168" s="16"/>
       <c r="C168" s="16"/>
@@ -5445,7 +5594,7 @@
       <c r="X168" s="16"/>
       <c r="Y168" s="16"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:25" ht="15.75" customHeight="1">
       <c r="A169" s="16"/>
       <c r="B169" s="16"/>
       <c r="C169" s="16"/>
@@ -5472,7 +5621,7 @@
       <c r="X169" s="16"/>
       <c r="Y169" s="16"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:25" ht="15.75" customHeight="1">
       <c r="A170" s="16"/>
       <c r="B170" s="16"/>
       <c r="C170" s="16"/>
@@ -5499,7 +5648,7 @@
       <c r="X170" s="16"/>
       <c r="Y170" s="16"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:25" ht="15.75" customHeight="1">
       <c r="A171" s="16"/>
       <c r="B171" s="16"/>
       <c r="C171" s="16"/>
@@ -5526,7 +5675,7 @@
       <c r="X171" s="16"/>
       <c r="Y171" s="16"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:25" ht="15.75" customHeight="1">
       <c r="A172" s="16"/>
       <c r="B172" s="16"/>
       <c r="C172" s="16"/>
@@ -5553,7 +5702,7 @@
       <c r="X172" s="16"/>
       <c r="Y172" s="16"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:25" ht="15.75" customHeight="1">
       <c r="A173" s="16"/>
       <c r="B173" s="16"/>
       <c r="C173" s="16"/>
@@ -5580,7 +5729,7 @@
       <c r="X173" s="16"/>
       <c r="Y173" s="16"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:25" ht="15.75" customHeight="1">
       <c r="A174" s="16"/>
       <c r="B174" s="16"/>
       <c r="C174" s="16"/>
@@ -5607,7 +5756,7 @@
       <c r="X174" s="16"/>
       <c r="Y174" s="16"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:25" ht="15.75" customHeight="1">
       <c r="A175" s="16"/>
       <c r="B175" s="16"/>
       <c r="C175" s="16"/>
@@ -5634,7 +5783,7 @@
       <c r="X175" s="16"/>
       <c r="Y175" s="16"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:25" ht="15.75" customHeight="1">
       <c r="A176" s="16"/>
       <c r="B176" s="16"/>
       <c r="C176" s="16"/>
@@ -5661,7 +5810,7 @@
       <c r="X176" s="16"/>
       <c r="Y176" s="16"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:25" ht="15.75" customHeight="1">
       <c r="A177" s="16"/>
       <c r="B177" s="16"/>
       <c r="C177" s="16"/>
@@ -5688,7 +5837,7 @@
       <c r="X177" s="16"/>
       <c r="Y177" s="16"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:25" ht="15.75" customHeight="1">
       <c r="A178" s="16"/>
       <c r="B178" s="16"/>
       <c r="C178" s="16"/>
@@ -5715,7 +5864,7 @@
       <c r="X178" s="16"/>
       <c r="Y178" s="16"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:25" ht="15.75" customHeight="1">
       <c r="A179" s="16"/>
       <c r="B179" s="16"/>
       <c r="C179" s="16"/>
@@ -5742,7 +5891,7 @@
       <c r="X179" s="16"/>
       <c r="Y179" s="16"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:25" ht="15.75" customHeight="1">
       <c r="A180" s="16"/>
       <c r="B180" s="16"/>
       <c r="C180" s="16"/>
@@ -5769,7 +5918,7 @@
       <c r="X180" s="16"/>
       <c r="Y180" s="16"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:25" ht="15.75" customHeight="1">
       <c r="A181" s="16"/>
       <c r="B181" s="16"/>
       <c r="C181" s="16"/>
@@ -5796,7 +5945,7 @@
       <c r="X181" s="16"/>
       <c r="Y181" s="16"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:25" ht="15.75" customHeight="1">
       <c r="A182" s="16"/>
       <c r="B182" s="16"/>
       <c r="C182" s="16"/>
@@ -5823,7 +5972,7 @@
       <c r="X182" s="16"/>
       <c r="Y182" s="16"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:25" ht="15.75" customHeight="1">
       <c r="A183" s="16"/>
       <c r="B183" s="16"/>
       <c r="C183" s="16"/>
@@ -5850,7 +5999,7 @@
       <c r="X183" s="16"/>
       <c r="Y183" s="16"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:25" ht="15.75" customHeight="1">
       <c r="A184" s="16"/>
       <c r="B184" s="16"/>
       <c r="C184" s="16"/>
@@ -5877,7 +6026,7 @@
       <c r="X184" s="16"/>
       <c r="Y184" s="16"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:25" ht="15.75" customHeight="1">
       <c r="A185" s="16"/>
       <c r="B185" s="16"/>
       <c r="C185" s="16"/>
@@ -5904,7 +6053,7 @@
       <c r="X185" s="16"/>
       <c r="Y185" s="16"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:25" ht="15.75" customHeight="1">
       <c r="A186" s="16"/>
       <c r="B186" s="16"/>
       <c r="C186" s="16"/>
@@ -5931,7 +6080,7 @@
       <c r="X186" s="16"/>
       <c r="Y186" s="16"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:25" ht="15.75" customHeight="1">
       <c r="A187" s="16"/>
       <c r="B187" s="16"/>
       <c r="C187" s="16"/>
@@ -5958,7 +6107,7 @@
       <c r="X187" s="16"/>
       <c r="Y187" s="16"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:25" ht="15.75" customHeight="1">
       <c r="A188" s="16"/>
       <c r="B188" s="16"/>
       <c r="C188" s="16"/>
@@ -5985,7 +6134,7 @@
       <c r="X188" s="16"/>
       <c r="Y188" s="16"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:25" ht="15.75" customHeight="1">
       <c r="A189" s="16"/>
       <c r="B189" s="16"/>
       <c r="C189" s="16"/>
@@ -6012,7 +6161,7 @@
       <c r="X189" s="16"/>
       <c r="Y189" s="16"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:25" ht="15.75" customHeight="1">
       <c r="A190" s="16"/>
       <c r="B190" s="16"/>
       <c r="C190" s="16"/>
@@ -6039,7 +6188,7 @@
       <c r="X190" s="16"/>
       <c r="Y190" s="16"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:25" ht="15.75" customHeight="1">
       <c r="A191" s="16"/>
       <c r="B191" s="16"/>
       <c r="C191" s="16"/>
@@ -6066,7 +6215,7 @@
       <c r="X191" s="16"/>
       <c r="Y191" s="16"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:25" ht="15.75" customHeight="1">
       <c r="A192" s="16"/>
       <c r="B192" s="16"/>
       <c r="C192" s="16"/>
@@ -6093,7 +6242,7 @@
       <c r="X192" s="16"/>
       <c r="Y192" s="16"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:25" ht="15.75" customHeight="1">
       <c r="A193" s="16"/>
       <c r="B193" s="16"/>
       <c r="C193" s="16"/>
@@ -6120,7 +6269,7 @@
       <c r="X193" s="16"/>
       <c r="Y193" s="16"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:25" ht="15.75" customHeight="1">
       <c r="A194" s="16"/>
       <c r="B194" s="16"/>
       <c r="C194" s="16"/>
@@ -6147,7 +6296,7 @@
       <c r="X194" s="16"/>
       <c r="Y194" s="16"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:25" ht="15.75" customHeight="1">
       <c r="A195" s="16"/>
       <c r="B195" s="16"/>
       <c r="C195" s="16"/>
@@ -6174,7 +6323,7 @@
       <c r="X195" s="16"/>
       <c r="Y195" s="16"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:25" ht="15.75" customHeight="1">
       <c r="A196" s="16"/>
       <c r="B196" s="16"/>
       <c r="C196" s="16"/>
@@ -6201,7 +6350,7 @@
       <c r="X196" s="16"/>
       <c r="Y196" s="16"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:25" ht="15.75" customHeight="1">
       <c r="A197" s="16"/>
       <c r="B197" s="16"/>
       <c r="C197" s="16"/>
@@ -6228,7 +6377,7 @@
       <c r="X197" s="16"/>
       <c r="Y197" s="16"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:25" ht="15.75" customHeight="1">
       <c r="A198" s="16"/>
       <c r="B198" s="16"/>
       <c r="C198" s="16"/>
@@ -6255,7 +6404,7 @@
       <c r="X198" s="16"/>
       <c r="Y198" s="16"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:25" ht="15.75" customHeight="1">
       <c r="A199" s="16"/>
       <c r="B199" s="16"/>
       <c r="C199" s="16"/>
@@ -6282,7 +6431,7 @@
       <c r="X199" s="16"/>
       <c r="Y199" s="16"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:25" ht="15.75" customHeight="1">
       <c r="A200" s="16"/>
       <c r="B200" s="16"/>
       <c r="C200" s="16"/>
@@ -6309,7 +6458,7 @@
       <c r="X200" s="16"/>
       <c r="Y200" s="16"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:25" ht="15.75" customHeight="1">
       <c r="A201" s="16"/>
       <c r="B201" s="16"/>
       <c r="C201" s="16"/>
@@ -6336,7 +6485,7 @@
       <c r="X201" s="16"/>
       <c r="Y201" s="16"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:25" ht="15.75" customHeight="1">
       <c r="A202" s="16"/>
       <c r="B202" s="16"/>
       <c r="C202" s="16"/>
@@ -6363,7 +6512,7 @@
       <c r="X202" s="16"/>
       <c r="Y202" s="16"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:25" ht="15.75" customHeight="1">
       <c r="A203" s="16"/>
       <c r="B203" s="16"/>
       <c r="C203" s="16"/>
@@ -6390,7 +6539,7 @@
       <c r="X203" s="16"/>
       <c r="Y203" s="16"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:25" ht="15.75" customHeight="1">
       <c r="A204" s="16"/>
       <c r="B204" s="16"/>
       <c r="C204" s="16"/>
@@ -6417,7 +6566,7 @@
       <c r="X204" s="16"/>
       <c r="Y204" s="16"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:25" ht="15.75" customHeight="1">
       <c r="A205" s="16"/>
       <c r="B205" s="16"/>
       <c r="C205" s="16"/>
@@ -6444,7 +6593,7 @@
       <c r="X205" s="16"/>
       <c r="Y205" s="16"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:25" ht="15.75" customHeight="1">
       <c r="A206" s="16"/>
       <c r="B206" s="16"/>
       <c r="C206" s="16"/>
@@ -6471,7 +6620,7 @@
       <c r="X206" s="16"/>
       <c r="Y206" s="16"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:25" ht="15.75" customHeight="1">
       <c r="A207" s="16"/>
       <c r="B207" s="16"/>
       <c r="C207" s="16"/>
@@ -6498,7 +6647,7 @@
       <c r="X207" s="16"/>
       <c r="Y207" s="16"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:25" ht="15.75" customHeight="1">
       <c r="A208" s="16"/>
       <c r="B208" s="16"/>
       <c r="C208" s="16"/>
@@ -6525,7 +6674,7 @@
       <c r="X208" s="16"/>
       <c r="Y208" s="16"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:25" ht="15.75" customHeight="1">
       <c r="A209" s="16"/>
       <c r="B209" s="16"/>
       <c r="C209" s="16"/>
@@ -6552,7 +6701,7 @@
       <c r="X209" s="16"/>
       <c r="Y209" s="16"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:25" ht="15.75" customHeight="1">
       <c r="A210" s="16"/>
       <c r="B210" s="16"/>
       <c r="C210" s="16"/>
@@ -6579,7 +6728,7 @@
       <c r="X210" s="16"/>
       <c r="Y210" s="16"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:25" ht="15.75" customHeight="1">
       <c r="A211" s="16"/>
       <c r="B211" s="16"/>
       <c r="C211" s="16"/>
@@ -6606,7 +6755,7 @@
       <c r="X211" s="16"/>
       <c r="Y211" s="16"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:25" ht="15.75" customHeight="1">
       <c r="A212" s="16"/>
       <c r="B212" s="16"/>
       <c r="C212" s="16"/>
@@ -6633,7 +6782,7 @@
       <c r="X212" s="16"/>
       <c r="Y212" s="16"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:25" ht="15.75" customHeight="1">
       <c r="A213" s="16"/>
       <c r="B213" s="16"/>
       <c r="C213" s="16"/>
@@ -6660,7 +6809,7 @@
       <c r="X213" s="16"/>
       <c r="Y213" s="16"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:25" ht="15.75" customHeight="1">
       <c r="A214" s="16"/>
       <c r="B214" s="16"/>
       <c r="C214" s="16"/>
@@ -6687,7 +6836,7 @@
       <c r="X214" s="16"/>
       <c r="Y214" s="16"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:25" ht="15.75" customHeight="1">
       <c r="A215" s="16"/>
       <c r="B215" s="16"/>
       <c r="C215" s="16"/>
@@ -6714,7 +6863,7 @@
       <c r="X215" s="16"/>
       <c r="Y215" s="16"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:25" ht="15.75" customHeight="1">
       <c r="A216" s="16"/>
       <c r="B216" s="16"/>
       <c r="C216" s="16"/>
@@ -6741,7 +6890,7 @@
       <c r="X216" s="16"/>
       <c r="Y216" s="16"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:25" ht="15.75" customHeight="1">
       <c r="A217" s="16"/>
       <c r="B217" s="16"/>
       <c r="C217" s="16"/>
@@ -6768,7 +6917,7 @@
       <c r="X217" s="16"/>
       <c r="Y217" s="16"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:25" ht="15.75" customHeight="1">
       <c r="A218" s="16"/>
       <c r="B218" s="16"/>
       <c r="C218" s="16"/>
@@ -6795,7 +6944,7 @@
       <c r="X218" s="16"/>
       <c r="Y218" s="16"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:25" ht="15.75" customHeight="1">
       <c r="A219" s="16"/>
       <c r="B219" s="16"/>
       <c r="C219" s="16"/>
@@ -6822,7 +6971,7 @@
       <c r="X219" s="16"/>
       <c r="Y219" s="16"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:25" ht="15.75" customHeight="1">
       <c r="A220" s="16"/>
       <c r="B220" s="16"/>
       <c r="C220" s="16"/>
@@ -7630,29 +7779,27 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="21.13"/>
-    <col min="5" max="5" customWidth="true" width="31.38"/>
+    <col min="2" max="2" customWidth="true" width="21.142857142857142"/>
+    <col min="5" max="5" customWidth="true" width="31.428571428571427"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
@@ -7669,7 +7816,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="15">
       <c r="A2" s="25" t="s">
         <v>11</v>
       </c>
@@ -7679,43 +7826,66 @@
       <c r="C2" s="26">
         <v>1.0</v>
       </c>
-      <c r="D2" s="25"/>
+      <c r="D2" s="25" t="s">
+        <v>9</v>
+      </c>
       <c r="E2" s="25" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations>
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2">
       <formula1>"1,2"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" ht="15">
       <c r="A1" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" ht="15">
       <c r="A2" s="8" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498722d1-cdc6-4cfa-9575-e4f37c80b76f}">
+  <dimension ref="A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="5" spans="1:1" ht="23.25" customHeight="1">
+      <c r="A5" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr/>
   <mc:AlternateContent>
@@ -8,24 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tool_test_game\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A682E7E2-CAE6-4725-8895-867FD7BD7BAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Scope" sheetId="1" r:id="rId3"/>
-    <sheet name="Plan" sheetId="2" r:id="rId4"/>
-    <sheet name="Options" sheetId="3" r:id="rId5"/>
-    <sheet name="Group-Turn" sheetId="4" r:id="rId6"/>
-    <sheet name="Note" sheetId="5" r:id="rId7"/>
-    <sheet name="Evaluation Warning" sheetId="6" r:id="rId8"/>
+    <sheet name="Scope" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan" sheetId="2" r:id="rId2"/>
+    <sheet name="Options" sheetId="3" r:id="rId3"/>
+    <sheet name="Group-Turn" sheetId="4" r:id="rId4"/>
+    <sheet name="Note" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="O1KuvzuGQWpvckUPyuT1q4+Ys7VLg0uDHINzSLE5ULY="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>STT</t>
   </si>
@@ -167,76 +171,54 @@
   <si>
     <t>Xác định thêm end game sẽ phân biệt dễ hơn chuyển act hay end game</t>
   </si>
-  <si>
-    <t>Evaluation Only. Created with Aspose.Cells for Java.Copyright 2003 - 2021 Aspose Pty Ltd.</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="&quot;Times New Roman&quot;"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="18"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -249,41 +231,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D2E9"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFD9D2E9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9FC5E8"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF9FC5E8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEA9999"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFEA9999"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD2F1DA"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFD2F1DA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -292,105 +281,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -419,74 +355,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -695,23 +563,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="5.857142857142857"/>
-    <col min="2" max="2" customWidth="true" width="45.714285714285715"/>
-    <col min="3" max="6" customWidth="true" width="12.571428571428571"/>
+    <col min="1" max="1" customWidth="true" width="5.85546875"/>
+    <col min="2" max="2" customWidth="true" width="45.7109375"/>
+    <col min="3" max="6" customWidth="true" width="12.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1">
@@ -788,7 +655,7 @@
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>10</v>
@@ -796,7 +663,6 @@
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="0"/>
       <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
@@ -821,9 +687,9 @@
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75">
+    <row r="4" spans="1:25" ht="15.75">
       <c r="A4" s="10" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>13</v>
@@ -831,96 +697,62 @@
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="0"/>
       <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75">
-      <c r="A7" s="10"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="4"/>
-      <c r="E7" s="8"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D7">
-    <cfRule type="cellIs" priority="1" dxfId="2" operator="equal">
+  <conditionalFormatting sqref="D1:D4">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D7">
-    <cfRule type="cellIs" priority="2" dxfId="1" operator="equal">
+  <conditionalFormatting sqref="D1:D4">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D7">
-    <cfRule type="cellIs" priority="3" dxfId="0" operator="equal">
+  <conditionalFormatting sqref="D1:D4">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E5">
-      <formula1>'Group-Turn'!$A:$A</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>'Group-Turn'!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.142857142857142"/>
-    <col min="2" max="4" customWidth="true" width="12.571428571428571"/>
-    <col min="5" max="5" customWidth="true" width="13.714285714285714"/>
-    <col min="6" max="6" customWidth="true" width="12.571428571428571"/>
-    <col min="7" max="8" customWidth="true" width="26.428571428571427"/>
-    <col min="9" max="9" customWidth="true" width="15.428571428571429"/>
+    <col min="1" max="1" customWidth="true" width="13.140625"/>
+    <col min="2" max="4" customWidth="true" width="12.5703125"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375"/>
+    <col min="6" max="6" customWidth="true" width="12.5703125"/>
+    <col min="7" max="8" customWidth="true" width="26.42578125"/>
+    <col min="9" max="9" customWidth="true" width="15.42578125"/>
     <col min="12" max="12" customWidth="true" width="24.0"/>
   </cols>
   <sheetData>
@@ -962,7 +794,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5">
+    <row r="2" spans="1:12" ht="16.5">
       <c r="A2" s="16" t="s">
         <v>26</v>
       </c>
@@ -970,16 +802,16 @@
         <v>27</v>
       </c>
       <c r="C2" s="18">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="D2" s="18">
-        <v>43.0</v>
+        <v>44</v>
       </c>
       <c r="E2" s="18">
-        <v>60.0</v>
+        <v>60</v>
       </c>
-      <c r="F2" s="8">
-        <v>43.0</v>
+      <c r="F2" s="8" t="n">
+        <v>44.0</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>28</v>
@@ -990,42 +822,55 @@
       <c r="I2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="19" t="n">
         <v>0.0</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="19" t="n">
         <v>0.0</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2">
-      <formula1>Options!$A$2:$A2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2">
-      <formula1>Options!$B$2:$B2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2">
-      <formula1>Options!$C:$C</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>Options!$A$2:$A2</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+          <x14:formula1>
+            <xm:f>Options!$B$2:$B2</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+          <x14:formula1>
+            <xm:f>Options!$C:$C</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" customWidth="true" width="12.571428571428571"/>
+    <col min="1" max="6" customWidth="true" width="12.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15" customHeight="1">
@@ -6998,10 +6843,10 @@
       <c r="X220" s="16"/>
       <c r="Y220" s="16"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="221" spans="1:25" ht="15.75" customHeight="1"/>
+    <row r="222" spans="1:25" ht="15.75" customHeight="1"/>
+    <row r="223" spans="1:25" ht="15.75" customHeight="1"/>
+    <row r="224" spans="1:25" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -7785,21 +7630,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="21.142857142857142"/>
-    <col min="5" max="5" customWidth="true" width="31.428571428571427"/>
+    <col min="2" max="2" customWidth="true" width="21.140625"/>
+    <col min="5" max="5" customWidth="true" width="31.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:5">
       <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
@@ -7816,7 +7661,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15">
+    <row r="2" spans="1:5">
       <c r="A2" s="25" t="s">
         <v>11</v>
       </c>
@@ -7824,68 +7669,45 @@
         <v>43</v>
       </c>
       <c r="C2" s="26">
-        <v>1.0</v>
+        <v>1</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>9</v>
-      </c>
+      <c r="D2" s="25"/>
       <c r="E2" s="25" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"1,2"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15">
+    <row r="1" spans="1:1">
       <c r="A1" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15">
+    <row r="2" spans="1:1">
       <c r="A2" s="8" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498722d1-cdc6-4cfa-9575-e4f37c80b76f}">
-  <dimension ref="A5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="5" spans="1:1" ht="23.25" customHeight="1">
-      <c r="A5" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tool_test_game\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A682E7E2-CAE6-4725-8895-867FD7BD7BAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36009496-323C-457F-B57B-36DE07E91ED8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -176,7 +176,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="8">
     <font>
       <sz val="10"/>
@@ -576,9 +575,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="5.85546875"/>
-    <col min="2" max="2" customWidth="true" width="45.7109375"/>
-    <col min="3" max="6" customWidth="true" width="12.5703125"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="3" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1">
@@ -747,13 +746,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.140625"/>
-    <col min="2" max="4" customWidth="true" width="12.5703125"/>
-    <col min="5" max="5" customWidth="true" width="13.7109375"/>
-    <col min="6" max="6" customWidth="true" width="12.5703125"/>
-    <col min="7" max="8" customWidth="true" width="26.42578125"/>
-    <col min="9" max="9" customWidth="true" width="15.42578125"/>
-    <col min="12" max="12" customWidth="true" width="24.0"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="8" width="26.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -810,8 +809,8 @@
       <c r="E2" s="18">
         <v>60</v>
       </c>
-      <c r="F2" s="8" t="n">
-        <v>44.0</v>
+      <c r="F2" s="8">
+        <v>0</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>28</v>
@@ -822,11 +821,11 @@
       <c r="I2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="19" t="n">
-        <v>0.0</v>
+      <c r="J2" s="19">
+        <v>0</v>
       </c>
-      <c r="K2" s="19" t="n">
-        <v>0.0</v>
+      <c r="K2" s="19">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -870,7 +869,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" customWidth="true" width="12.5703125"/>
+    <col min="1" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15" customHeight="1">
@@ -7640,8 +7639,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="21.140625"/>
-    <col min="5" max="5" customWidth="true" width="31.42578125"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -1,25 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tool_test_game\config\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B3879C-4571-4082-A49D-081420AE6203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Scope" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan" sheetId="2" r:id="rId2"/>
-    <sheet name="Options" sheetId="3" r:id="rId3"/>
-    <sheet name="Group-Turn" sheetId="4" r:id="rId4"/>
-    <sheet name="Note" sheetId="5" r:id="rId5"/>
+    <sheet state="visible" name="Scope" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Plan" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Options" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Group-Turn" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Note" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="Wqrab3t6a9P+8657acRiy3PPnRgyPXlHeqJS7A1TITw="/>
@@ -29,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>STT</t>
   </si>
@@ -94,10 +85,7 @@
     <t>Course</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
+    <t>Type</t>
   </si>
   <si>
     <t>FILE::report\list_fail.txt</t>
@@ -118,6 +106,9 @@
     <t>AI_Speak</t>
   </si>
   <si>
+    <t>app</t>
+  </si>
+  <si>
     <t>Flow</t>
   </si>
   <si>
@@ -131,6 +122,9 @@
   </si>
   <si>
     <t>EE</t>
+  </si>
+  <si>
+    <t>api</t>
   </si>
   <si>
     <t>Advanced</t>
@@ -169,75 +163,54 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="7">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="13.0"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="&quot;Times New Roman&quot;"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D2E9"/>
         <bgColor rgb="FFD9D2E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9FC5E8"/>
-        <bgColor rgb="FF9FC5E8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEA9999"/>
-        <bgColor rgb="FFEA9999"/>
       </patternFill>
     </fill>
     <fill>
@@ -260,98 +233,125 @@
     </fill>
   </fills>
   <borders count="2">
+    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="22">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9FC5E8"/>
+          <bgColor rgb="FF9FC5E8"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFCCCCCC"/>
           <bgColor rgb="FFCCCCCC"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9FC5E8"/>
-          <bgColor rgb="FF9FC5E8"/>
-        </patternFill>
-      </fill>
+      <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -541,31 +541,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D2" sqref="D2"/>
+      <pane xSplit="2.0" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection activeCell="D2" sqref="D2" pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="5.85546875"/>
-    <col min="2" max="2" customWidth="true" width="45.7109375"/>
-    <col min="3" max="6" customWidth="true" width="12.5703125"/>
+    <col customWidth="1" min="1" max="1" width="5.88"/>
+    <col customWidth="1" min="2" max="2" width="45.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,7 +599,7 @@
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
     </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -637,7 +634,7 @@
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
     </row>
-    <row r="3" spans="1:25" ht="15.75">
+    <row r="3">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -653,56 +650,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D3">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D3">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D3">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E3">
+      <formula1>'Group-Turn'!$A:$A</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>'Group-Turn'!$A:$A</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2:E3</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.140625"/>
-    <col min="2" max="4" customWidth="true" width="12.5703125"/>
-    <col min="5" max="5" customWidth="true" width="13.7109375"/>
-    <col min="6" max="6" customWidth="true" width="12.5703125"/>
-    <col min="7" max="8" customWidth="true" width="26.42578125"/>
-    <col min="9" max="9" customWidth="true" width="15.42578125"/>
-    <col min="12" max="12" customWidth="true" width="24.0"/>
+    <col customWidth="1" min="1" max="1" width="13.13"/>
+    <col customWidth="1" min="5" max="5" width="13.75"/>
+    <col customWidth="1" min="7" max="8" width="26.38"/>
+    <col customWidth="1" min="9" max="9" width="15.5"/>
+    <col customWidth="1" min="11" max="11" width="20.75"/>
+    <col customWidth="1" min="12" max="12" width="24.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1">
+    <row r="1" ht="15.0" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -736,100 +729,87 @@
       <c r="K1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="16.5">
-      <c r="A2" s="12" t="s">
+      <c r="B2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="13">
+        <v>30.0</v>
+      </c>
+      <c r="D2" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="E2" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="13">
-        <v>30</v>
-      </c>
-      <c r="D2" s="13">
-        <v>1</v>
-      </c>
-      <c r="E2" s="13">
-        <v>30</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K2" s="13" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="K2" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J2">
+      <formula1>Options!$D$2:$D2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2">
+      <formula1>Options!$C:$C</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2">
+      <formula1>Options!$A$2:$A2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2">
+      <formula1>Options!$B$2:$B2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
-          <x14:formula1>
-            <xm:f>Options!$A$2:$A2</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
-          <x14:formula1>
-            <xm:f>Options!$B$2:$B2</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
-          <x14:formula1>
-            <xm:f>Options!$C:$C</xm:f>
-          </x14:formula1>
-          <xm:sqref>I2</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="6" customWidth="true" width="12.5703125"/>
-  </cols>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" customHeight="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" ht="15.0" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="12"/>
+      <c r="D1" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -852,17 +832,19 @@
       <c r="X1" s="12"/>
       <c r="Y1" s="12"/>
     </row>
-    <row r="2" spans="1:25" ht="15" customHeight="1">
+    <row r="2" ht="15.0" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -885,7 +867,7 @@
       <c r="X2" s="12"/>
       <c r="Y2" s="12"/>
     </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1">
+    <row r="3" ht="15.0" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>31</v>
       </c>
@@ -895,7 +877,9 @@
       <c r="C3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -918,13 +902,13 @@
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
     </row>
-    <row r="4" spans="1:25" ht="15" customHeight="1">
+    <row r="4" ht="15.0" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -949,9 +933,9 @@
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
     </row>
-    <row r="5" spans="1:25" ht="15" customHeight="1">
+    <row r="5" ht="15.0" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -978,9 +962,9 @@
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
     </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1">
+    <row r="6" ht="15.0" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -1007,9 +991,9 @@
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
     </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1">
-      <c r="A7" s="15" t="s">
-        <v>25</v>
+    <row r="7" ht="15.0" customHeight="1">
+      <c r="A7" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1036,9 +1020,9 @@
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1">
+    <row r="8" ht="15.0" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1065,7 +1049,7 @@
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
     </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1">
+    <row r="9" ht="15.0" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1092,7 +1076,7 @@
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
     </row>
-    <row r="10" spans="1:25" ht="15" customHeight="1">
+    <row r="10" ht="15.0" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1119,7 +1103,7 @@
       <c r="X10" s="12"/>
       <c r="Y10" s="12"/>
     </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1">
+    <row r="11" ht="15.0" customHeight="1">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1146,7 +1130,7 @@
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
     </row>
-    <row r="12" spans="1:25" ht="15" customHeight="1">
+    <row r="12" ht="15.0" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1173,7 +1157,7 @@
       <c r="X12" s="12"/>
       <c r="Y12" s="12"/>
     </row>
-    <row r="13" spans="1:25" ht="15" customHeight="1">
+    <row r="13" ht="15.0" customHeight="1">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -1200,7 +1184,7 @@
       <c r="X13" s="12"/>
       <c r="Y13" s="12"/>
     </row>
-    <row r="14" spans="1:25" ht="15" customHeight="1">
+    <row r="14" ht="15.0" customHeight="1">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -1227,7 +1211,7 @@
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
     </row>
-    <row r="15" spans="1:25" ht="15" customHeight="1">
+    <row r="15" ht="15.0" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1254,7 +1238,7 @@
       <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
     </row>
-    <row r="16" spans="1:25" ht="15" customHeight="1">
+    <row r="16" ht="15.0" customHeight="1">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -1281,7 +1265,7 @@
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
     </row>
-    <row r="17" spans="1:25" ht="15" customHeight="1">
+    <row r="17" ht="15.0" customHeight="1">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -1308,7 +1292,7 @@
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
     </row>
-    <row r="18" spans="1:25" ht="15" customHeight="1">
+    <row r="18" ht="15.0" customHeight="1">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -1335,7 +1319,7 @@
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
     </row>
-    <row r="19" spans="1:25" ht="15" customHeight="1">
+    <row r="19" ht="15.0" customHeight="1">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -1362,7 +1346,7 @@
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
     </row>
-    <row r="20" spans="1:25" ht="15" customHeight="1">
+    <row r="20" ht="15.0" customHeight="1">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1389,7 +1373,7 @@
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
     </row>
-    <row r="21" spans="1:25" ht="15" customHeight="1">
+    <row r="21" ht="15.0" customHeight="1">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -1416,7 +1400,7 @@
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
     </row>
-    <row r="22" spans="1:25" ht="15" customHeight="1">
+    <row r="22" ht="15.0" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -1443,7 +1427,7 @@
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
     </row>
-    <row r="23" spans="1:25" ht="15" customHeight="1">
+    <row r="23" ht="15.0" customHeight="1">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -1470,7 +1454,7 @@
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
     </row>
-    <row r="24" spans="1:25" ht="15" customHeight="1">
+    <row r="24" ht="15.0" customHeight="1">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -1497,7 +1481,7 @@
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
     </row>
-    <row r="25" spans="1:25" ht="15" customHeight="1">
+    <row r="25" ht="15.0" customHeight="1">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -1524,7 +1508,7 @@
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
     </row>
-    <row r="26" spans="1:25" ht="15" customHeight="1">
+    <row r="26" ht="15.0" customHeight="1">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -1551,7 +1535,7 @@
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
     </row>
-    <row r="27" spans="1:25" ht="15" customHeight="1">
+    <row r="27" ht="15.0" customHeight="1">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -1578,7 +1562,7 @@
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
     </row>
-    <row r="28" spans="1:25" ht="15" customHeight="1">
+    <row r="28" ht="15.0" customHeight="1">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -1605,7 +1589,7 @@
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
     </row>
-    <row r="29" spans="1:25" ht="15" customHeight="1">
+    <row r="29" ht="15.0" customHeight="1">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -1632,7 +1616,7 @@
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
     </row>
-    <row r="30" spans="1:25" ht="15" customHeight="1">
+    <row r="30" ht="15.0" customHeight="1">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -1659,7 +1643,7 @@
       <c r="X30" s="12"/>
       <c r="Y30" s="12"/>
     </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -1686,7 +1670,7 @@
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
     </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -1713,7 +1697,7 @@
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
     </row>
-    <row r="33" spans="1:25" ht="15.75" customHeight="1">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -1740,7 +1724,7 @@
       <c r="X33" s="12"/>
       <c r="Y33" s="12"/>
     </row>
-    <row r="34" spans="1:25" ht="15.75" customHeight="1">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -1767,7 +1751,7 @@
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
     </row>
-    <row r="35" spans="1:25" ht="15.75" customHeight="1">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -1794,7 +1778,7 @@
       <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
     </row>
-    <row r="36" spans="1:25" ht="15.75" customHeight="1">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -1821,7 +1805,7 @@
       <c r="X36" s="12"/>
       <c r="Y36" s="12"/>
     </row>
-    <row r="37" spans="1:25" ht="15.75" customHeight="1">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -1848,7 +1832,7 @@
       <c r="X37" s="12"/>
       <c r="Y37" s="12"/>
     </row>
-    <row r="38" spans="1:25" ht="15.75" customHeight="1">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -1875,7 +1859,7 @@
       <c r="X38" s="12"/>
       <c r="Y38" s="12"/>
     </row>
-    <row r="39" spans="1:25" ht="15.75" customHeight="1">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -1902,7 +1886,7 @@
       <c r="X39" s="12"/>
       <c r="Y39" s="12"/>
     </row>
-    <row r="40" spans="1:25" ht="15.75" customHeight="1">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -1929,7 +1913,7 @@
       <c r="X40" s="12"/>
       <c r="Y40" s="12"/>
     </row>
-    <row r="41" spans="1:25" ht="15.75" customHeight="1">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -1956,7 +1940,7 @@
       <c r="X41" s="12"/>
       <c r="Y41" s="12"/>
     </row>
-    <row r="42" spans="1:25" ht="15.75" customHeight="1">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -1983,7 +1967,7 @@
       <c r="X42" s="12"/>
       <c r="Y42" s="12"/>
     </row>
-    <row r="43" spans="1:25" ht="15.75" customHeight="1">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -2010,7 +1994,7 @@
       <c r="X43" s="12"/>
       <c r="Y43" s="12"/>
     </row>
-    <row r="44" spans="1:25" ht="15.75" customHeight="1">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -2037,7 +2021,7 @@
       <c r="X44" s="12"/>
       <c r="Y44" s="12"/>
     </row>
-    <row r="45" spans="1:25" ht="15.75" customHeight="1">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -2064,7 +2048,7 @@
       <c r="X45" s="12"/>
       <c r="Y45" s="12"/>
     </row>
-    <row r="46" spans="1:25" ht="15.75" customHeight="1">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -2091,7 +2075,7 @@
       <c r="X46" s="12"/>
       <c r="Y46" s="12"/>
     </row>
-    <row r="47" spans="1:25" ht="15.75" customHeight="1">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -2118,7 +2102,7 @@
       <c r="X47" s="12"/>
       <c r="Y47" s="12"/>
     </row>
-    <row r="48" spans="1:25" ht="15.75" customHeight="1">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -2145,7 +2129,7 @@
       <c r="X48" s="12"/>
       <c r="Y48" s="12"/>
     </row>
-    <row r="49" spans="1:25" ht="15.75" customHeight="1">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -2172,7 +2156,7 @@
       <c r="X49" s="12"/>
       <c r="Y49" s="12"/>
     </row>
-    <row r="50" spans="1:25" ht="15.75" customHeight="1">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -2199,7 +2183,7 @@
       <c r="X50" s="12"/>
       <c r="Y50" s="12"/>
     </row>
-    <row r="51" spans="1:25" ht="15.75" customHeight="1">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -2226,7 +2210,7 @@
       <c r="X51" s="12"/>
       <c r="Y51" s="12"/>
     </row>
-    <row r="52" spans="1:25" ht="15.75" customHeight="1">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -2253,7 +2237,7 @@
       <c r="X52" s="12"/>
       <c r="Y52" s="12"/>
     </row>
-    <row r="53" spans="1:25" ht="15.75" customHeight="1">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -2280,7 +2264,7 @@
       <c r="X53" s="12"/>
       <c r="Y53" s="12"/>
     </row>
-    <row r="54" spans="1:25" ht="15.75" customHeight="1">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -2307,7 +2291,7 @@
       <c r="X54" s="12"/>
       <c r="Y54" s="12"/>
     </row>
-    <row r="55" spans="1:25" ht="15.75" customHeight="1">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -2334,7 +2318,7 @@
       <c r="X55" s="12"/>
       <c r="Y55" s="12"/>
     </row>
-    <row r="56" spans="1:25" ht="15.75" customHeight="1">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -2361,7 +2345,7 @@
       <c r="X56" s="12"/>
       <c r="Y56" s="12"/>
     </row>
-    <row r="57" spans="1:25" ht="15.75" customHeight="1">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -2388,7 +2372,7 @@
       <c r="X57" s="12"/>
       <c r="Y57" s="12"/>
     </row>
-    <row r="58" spans="1:25" ht="15.75" customHeight="1">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -2415,7 +2399,7 @@
       <c r="X58" s="12"/>
       <c r="Y58" s="12"/>
     </row>
-    <row r="59" spans="1:25" ht="15.75" customHeight="1">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -2442,7 +2426,7 @@
       <c r="X59" s="12"/>
       <c r="Y59" s="12"/>
     </row>
-    <row r="60" spans="1:25" ht="15.75" customHeight="1">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -2469,7 +2453,7 @@
       <c r="X60" s="12"/>
       <c r="Y60" s="12"/>
     </row>
-    <row r="61" spans="1:25" ht="15.75" customHeight="1">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
@@ -2496,7 +2480,7 @@
       <c r="X61" s="12"/>
       <c r="Y61" s="12"/>
     </row>
-    <row r="62" spans="1:25" ht="15.75" customHeight="1">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -2523,7 +2507,7 @@
       <c r="X62" s="12"/>
       <c r="Y62" s="12"/>
     </row>
-    <row r="63" spans="1:25" ht="15.75" customHeight="1">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
@@ -2550,7 +2534,7 @@
       <c r="X63" s="12"/>
       <c r="Y63" s="12"/>
     </row>
-    <row r="64" spans="1:25" ht="15.75" customHeight="1">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -2577,7 +2561,7 @@
       <c r="X64" s="12"/>
       <c r="Y64" s="12"/>
     </row>
-    <row r="65" spans="1:25" ht="15.75" customHeight="1">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -2604,7 +2588,7 @@
       <c r="X65" s="12"/>
       <c r="Y65" s="12"/>
     </row>
-    <row r="66" spans="1:25" ht="15.75" customHeight="1">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -2631,7 +2615,7 @@
       <c r="X66" s="12"/>
       <c r="Y66" s="12"/>
     </row>
-    <row r="67" spans="1:25" ht="15.75" customHeight="1">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -2658,7 +2642,7 @@
       <c r="X67" s="12"/>
       <c r="Y67" s="12"/>
     </row>
-    <row r="68" spans="1:25" ht="15.75" customHeight="1">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -2685,7 +2669,7 @@
       <c r="X68" s="12"/>
       <c r="Y68" s="12"/>
     </row>
-    <row r="69" spans="1:25" ht="15.75" customHeight="1">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
@@ -2712,7 +2696,7 @@
       <c r="X69" s="12"/>
       <c r="Y69" s="12"/>
     </row>
-    <row r="70" spans="1:25" ht="15.75" customHeight="1">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -2739,7 +2723,7 @@
       <c r="X70" s="12"/>
       <c r="Y70" s="12"/>
     </row>
-    <row r="71" spans="1:25" ht="15.75" customHeight="1">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
@@ -2766,7 +2750,7 @@
       <c r="X71" s="12"/>
       <c r="Y71" s="12"/>
     </row>
-    <row r="72" spans="1:25" ht="15.75" customHeight="1">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -2793,7 +2777,7 @@
       <c r="X72" s="12"/>
       <c r="Y72" s="12"/>
     </row>
-    <row r="73" spans="1:25" ht="15.75" customHeight="1">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -2820,7 +2804,7 @@
       <c r="X73" s="12"/>
       <c r="Y73" s="12"/>
     </row>
-    <row r="74" spans="1:25" ht="15.75" customHeight="1">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -2847,7 +2831,7 @@
       <c r="X74" s="12"/>
       <c r="Y74" s="12"/>
     </row>
-    <row r="75" spans="1:25" ht="15.75" customHeight="1">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -2874,7 +2858,7 @@
       <c r="X75" s="12"/>
       <c r="Y75" s="12"/>
     </row>
-    <row r="76" spans="1:25" ht="15.75" customHeight="1">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -2901,7 +2885,7 @@
       <c r="X76" s="12"/>
       <c r="Y76" s="12"/>
     </row>
-    <row r="77" spans="1:25" ht="15.75" customHeight="1">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -2928,7 +2912,7 @@
       <c r="X77" s="12"/>
       <c r="Y77" s="12"/>
     </row>
-    <row r="78" spans="1:25" ht="15.75" customHeight="1">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -2955,7 +2939,7 @@
       <c r="X78" s="12"/>
       <c r="Y78" s="12"/>
     </row>
-    <row r="79" spans="1:25" ht="15.75" customHeight="1">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -2982,7 +2966,7 @@
       <c r="X79" s="12"/>
       <c r="Y79" s="12"/>
     </row>
-    <row r="80" spans="1:25" ht="15.75" customHeight="1">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -3009,7 +2993,7 @@
       <c r="X80" s="12"/>
       <c r="Y80" s="12"/>
     </row>
-    <row r="81" spans="1:25" ht="15.75" customHeight="1">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -3036,7 +3020,7 @@
       <c r="X81" s="12"/>
       <c r="Y81" s="12"/>
     </row>
-    <row r="82" spans="1:25" ht="15.75" customHeight="1">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -3063,7 +3047,7 @@
       <c r="X82" s="12"/>
       <c r="Y82" s="12"/>
     </row>
-    <row r="83" spans="1:25" ht="15.75" customHeight="1">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -3090,7 +3074,7 @@
       <c r="X83" s="12"/>
       <c r="Y83" s="12"/>
     </row>
-    <row r="84" spans="1:25" ht="15.75" customHeight="1">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -3117,7 +3101,7 @@
       <c r="X84" s="12"/>
       <c r="Y84" s="12"/>
     </row>
-    <row r="85" spans="1:25" ht="15.75" customHeight="1">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -3144,7 +3128,7 @@
       <c r="X85" s="12"/>
       <c r="Y85" s="12"/>
     </row>
-    <row r="86" spans="1:25" ht="15.75" customHeight="1">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
@@ -3171,7 +3155,7 @@
       <c r="X86" s="12"/>
       <c r="Y86" s="12"/>
     </row>
-    <row r="87" spans="1:25" ht="15.75" customHeight="1">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -3198,7 +3182,7 @@
       <c r="X87" s="12"/>
       <c r="Y87" s="12"/>
     </row>
-    <row r="88" spans="1:25" ht="15.75" customHeight="1">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
@@ -3225,7 +3209,7 @@
       <c r="X88" s="12"/>
       <c r="Y88" s="12"/>
     </row>
-    <row r="89" spans="1:25" ht="15.75" customHeight="1">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -3252,7 +3236,7 @@
       <c r="X89" s="12"/>
       <c r="Y89" s="12"/>
     </row>
-    <row r="90" spans="1:25" ht="15.75" customHeight="1">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
@@ -3279,7 +3263,7 @@
       <c r="X90" s="12"/>
       <c r="Y90" s="12"/>
     </row>
-    <row r="91" spans="1:25" ht="15.75" customHeight="1">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -3306,7 +3290,7 @@
       <c r="X91" s="12"/>
       <c r="Y91" s="12"/>
     </row>
-    <row r="92" spans="1:25" ht="15.75" customHeight="1">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
@@ -3333,7 +3317,7 @@
       <c r="X92" s="12"/>
       <c r="Y92" s="12"/>
     </row>
-    <row r="93" spans="1:25" ht="15.75" customHeight="1">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
@@ -3360,7 +3344,7 @@
       <c r="X93" s="12"/>
       <c r="Y93" s="12"/>
     </row>
-    <row r="94" spans="1:25" ht="15.75" customHeight="1">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
@@ -3387,7 +3371,7 @@
       <c r="X94" s="12"/>
       <c r="Y94" s="12"/>
     </row>
-    <row r="95" spans="1:25" ht="15.75" customHeight="1">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
@@ -3414,7 +3398,7 @@
       <c r="X95" s="12"/>
       <c r="Y95" s="12"/>
     </row>
-    <row r="96" spans="1:25" ht="15.75" customHeight="1">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -3441,7 +3425,7 @@
       <c r="X96" s="12"/>
       <c r="Y96" s="12"/>
     </row>
-    <row r="97" spans="1:25" ht="15.75" customHeight="1">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
@@ -3468,7 +3452,7 @@
       <c r="X97" s="12"/>
       <c r="Y97" s="12"/>
     </row>
-    <row r="98" spans="1:25" ht="15.75" customHeight="1">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
@@ -3495,7 +3479,7 @@
       <c r="X98" s="12"/>
       <c r="Y98" s="12"/>
     </row>
-    <row r="99" spans="1:25" ht="15.75" customHeight="1">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -3522,7 +3506,7 @@
       <c r="X99" s="12"/>
       <c r="Y99" s="12"/>
     </row>
-    <row r="100" spans="1:25" ht="15.75" customHeight="1">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
@@ -3549,7 +3533,7 @@
       <c r="X100" s="12"/>
       <c r="Y100" s="12"/>
     </row>
-    <row r="101" spans="1:25" ht="15.75" customHeight="1">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -3576,7 +3560,7 @@
       <c r="X101" s="12"/>
       <c r="Y101" s="12"/>
     </row>
-    <row r="102" spans="1:25" ht="15.75" customHeight="1">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
@@ -3603,7 +3587,7 @@
       <c r="X102" s="12"/>
       <c r="Y102" s="12"/>
     </row>
-    <row r="103" spans="1:25" ht="15.75" customHeight="1">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -3630,7 +3614,7 @@
       <c r="X103" s="12"/>
       <c r="Y103" s="12"/>
     </row>
-    <row r="104" spans="1:25" ht="15.75" customHeight="1">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -3657,7 +3641,7 @@
       <c r="X104" s="12"/>
       <c r="Y104" s="12"/>
     </row>
-    <row r="105" spans="1:25" ht="15.75" customHeight="1">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
@@ -3684,7 +3668,7 @@
       <c r="X105" s="12"/>
       <c r="Y105" s="12"/>
     </row>
-    <row r="106" spans="1:25" ht="15.75" customHeight="1">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
@@ -3711,7 +3695,7 @@
       <c r="X106" s="12"/>
       <c r="Y106" s="12"/>
     </row>
-    <row r="107" spans="1:25" ht="15.75" customHeight="1">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
@@ -3738,7 +3722,7 @@
       <c r="X107" s="12"/>
       <c r="Y107" s="12"/>
     </row>
-    <row r="108" spans="1:25" ht="15.75" customHeight="1">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
@@ -3765,7 +3749,7 @@
       <c r="X108" s="12"/>
       <c r="Y108" s="12"/>
     </row>
-    <row r="109" spans="1:25" ht="15.75" customHeight="1">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
@@ -3792,7 +3776,7 @@
       <c r="X109" s="12"/>
       <c r="Y109" s="12"/>
     </row>
-    <row r="110" spans="1:25" ht="15.75" customHeight="1">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
@@ -3819,7 +3803,7 @@
       <c r="X110" s="12"/>
       <c r="Y110" s="12"/>
     </row>
-    <row r="111" spans="1:25" ht="15.75" customHeight="1">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
@@ -3846,7 +3830,7 @@
       <c r="X111" s="12"/>
       <c r="Y111" s="12"/>
     </row>
-    <row r="112" spans="1:25" ht="15.75" customHeight="1">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
@@ -3873,7 +3857,7 @@
       <c r="X112" s="12"/>
       <c r="Y112" s="12"/>
     </row>
-    <row r="113" spans="1:25" ht="15.75" customHeight="1">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -3900,7 +3884,7 @@
       <c r="X113" s="12"/>
       <c r="Y113" s="12"/>
     </row>
-    <row r="114" spans="1:25" ht="15.75" customHeight="1">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -3927,7 +3911,7 @@
       <c r="X114" s="12"/>
       <c r="Y114" s="12"/>
     </row>
-    <row r="115" spans="1:25" ht="15.75" customHeight="1">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -3954,7 +3938,7 @@
       <c r="X115" s="12"/>
       <c r="Y115" s="12"/>
     </row>
-    <row r="116" spans="1:25" ht="15.75" customHeight="1">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -3981,7 +3965,7 @@
       <c r="X116" s="12"/>
       <c r="Y116" s="12"/>
     </row>
-    <row r="117" spans="1:25" ht="15.75" customHeight="1">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
@@ -4008,7 +3992,7 @@
       <c r="X117" s="12"/>
       <c r="Y117" s="12"/>
     </row>
-    <row r="118" spans="1:25" ht="15.75" customHeight="1">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="12"/>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
@@ -4035,7 +4019,7 @@
       <c r="X118" s="12"/>
       <c r="Y118" s="12"/>
     </row>
-    <row r="119" spans="1:25" ht="15.75" customHeight="1">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
@@ -4062,7 +4046,7 @@
       <c r="X119" s="12"/>
       <c r="Y119" s="12"/>
     </row>
-    <row r="120" spans="1:25" ht="15.75" customHeight="1">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
@@ -4089,7 +4073,7 @@
       <c r="X120" s="12"/>
       <c r="Y120" s="12"/>
     </row>
-    <row r="121" spans="1:25" ht="15.75" customHeight="1">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
@@ -4116,7 +4100,7 @@
       <c r="X121" s="12"/>
       <c r="Y121" s="12"/>
     </row>
-    <row r="122" spans="1:25" ht="15.75" customHeight="1">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
@@ -4143,7 +4127,7 @@
       <c r="X122" s="12"/>
       <c r="Y122" s="12"/>
     </row>
-    <row r="123" spans="1:25" ht="15.75" customHeight="1">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
@@ -4170,7 +4154,7 @@
       <c r="X123" s="12"/>
       <c r="Y123" s="12"/>
     </row>
-    <row r="124" spans="1:25" ht="15.75" customHeight="1">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
@@ -4197,7 +4181,7 @@
       <c r="X124" s="12"/>
       <c r="Y124" s="12"/>
     </row>
-    <row r="125" spans="1:25" ht="15.75" customHeight="1">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
@@ -4224,7 +4208,7 @@
       <c r="X125" s="12"/>
       <c r="Y125" s="12"/>
     </row>
-    <row r="126" spans="1:25" ht="15.75" customHeight="1">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="12"/>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
@@ -4251,7 +4235,7 @@
       <c r="X126" s="12"/>
       <c r="Y126" s="12"/>
     </row>
-    <row r="127" spans="1:25" ht="15.75" customHeight="1">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="12"/>
       <c r="B127" s="12"/>
       <c r="C127" s="12"/>
@@ -4278,7 +4262,7 @@
       <c r="X127" s="12"/>
       <c r="Y127" s="12"/>
     </row>
-    <row r="128" spans="1:25" ht="15.75" customHeight="1">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="12"/>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
@@ -4305,7 +4289,7 @@
       <c r="X128" s="12"/>
       <c r="Y128" s="12"/>
     </row>
-    <row r="129" spans="1:25" ht="15.75" customHeight="1">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
@@ -4332,7 +4316,7 @@
       <c r="X129" s="12"/>
       <c r="Y129" s="12"/>
     </row>
-    <row r="130" spans="1:25" ht="15.75" customHeight="1">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="12"/>
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
@@ -4359,7 +4343,7 @@
       <c r="X130" s="12"/>
       <c r="Y130" s="12"/>
     </row>
-    <row r="131" spans="1:25" ht="15.75" customHeight="1">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="12"/>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
@@ -4386,7 +4370,7 @@
       <c r="X131" s="12"/>
       <c r="Y131" s="12"/>
     </row>
-    <row r="132" spans="1:25" ht="15.75" customHeight="1">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="12"/>
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
@@ -4413,7 +4397,7 @@
       <c r="X132" s="12"/>
       <c r="Y132" s="12"/>
     </row>
-    <row r="133" spans="1:25" ht="15.75" customHeight="1">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="12"/>
       <c r="B133" s="12"/>
       <c r="C133" s="12"/>
@@ -4440,7 +4424,7 @@
       <c r="X133" s="12"/>
       <c r="Y133" s="12"/>
     </row>
-    <row r="134" spans="1:25" ht="15.75" customHeight="1">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="12"/>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
@@ -4467,7 +4451,7 @@
       <c r="X134" s="12"/>
       <c r="Y134" s="12"/>
     </row>
-    <row r="135" spans="1:25" ht="15.75" customHeight="1">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="12"/>
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
@@ -4494,7 +4478,7 @@
       <c r="X135" s="12"/>
       <c r="Y135" s="12"/>
     </row>
-    <row r="136" spans="1:25" ht="15.75" customHeight="1">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="12"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
@@ -4521,7 +4505,7 @@
       <c r="X136" s="12"/>
       <c r="Y136" s="12"/>
     </row>
-    <row r="137" spans="1:25" ht="15.75" customHeight="1">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="12"/>
       <c r="B137" s="12"/>
       <c r="C137" s="12"/>
@@ -4548,7 +4532,7 @@
       <c r="X137" s="12"/>
       <c r="Y137" s="12"/>
     </row>
-    <row r="138" spans="1:25" ht="15.75" customHeight="1">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="12"/>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
@@ -4575,7 +4559,7 @@
       <c r="X138" s="12"/>
       <c r="Y138" s="12"/>
     </row>
-    <row r="139" spans="1:25" ht="15.75" customHeight="1">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="12"/>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
@@ -4602,7 +4586,7 @@
       <c r="X139" s="12"/>
       <c r="Y139" s="12"/>
     </row>
-    <row r="140" spans="1:25" ht="15.75" customHeight="1">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="12"/>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
@@ -4629,7 +4613,7 @@
       <c r="X140" s="12"/>
       <c r="Y140" s="12"/>
     </row>
-    <row r="141" spans="1:25" ht="15.75" customHeight="1">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="12"/>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
@@ -4656,7 +4640,7 @@
       <c r="X141" s="12"/>
       <c r="Y141" s="12"/>
     </row>
-    <row r="142" spans="1:25" ht="15.75" customHeight="1">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="12"/>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
@@ -4683,7 +4667,7 @@
       <c r="X142" s="12"/>
       <c r="Y142" s="12"/>
     </row>
-    <row r="143" spans="1:25" ht="15.75" customHeight="1">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="12"/>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -4710,7 +4694,7 @@
       <c r="X143" s="12"/>
       <c r="Y143" s="12"/>
     </row>
-    <row r="144" spans="1:25" ht="15.75" customHeight="1">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="12"/>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
@@ -4737,7 +4721,7 @@
       <c r="X144" s="12"/>
       <c r="Y144" s="12"/>
     </row>
-    <row r="145" spans="1:25" ht="15.75" customHeight="1">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="12"/>
       <c r="B145" s="12"/>
       <c r="C145" s="12"/>
@@ -4764,7 +4748,7 @@
       <c r="X145" s="12"/>
       <c r="Y145" s="12"/>
     </row>
-    <row r="146" spans="1:25" ht="15.75" customHeight="1">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="12"/>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
@@ -4791,7 +4775,7 @@
       <c r="X146" s="12"/>
       <c r="Y146" s="12"/>
     </row>
-    <row r="147" spans="1:25" ht="15.75" customHeight="1">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="12"/>
       <c r="B147" s="12"/>
       <c r="C147" s="12"/>
@@ -4818,7 +4802,7 @@
       <c r="X147" s="12"/>
       <c r="Y147" s="12"/>
     </row>
-    <row r="148" spans="1:25" ht="15.75" customHeight="1">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="12"/>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
@@ -4845,7 +4829,7 @@
       <c r="X148" s="12"/>
       <c r="Y148" s="12"/>
     </row>
-    <row r="149" spans="1:25" ht="15.75" customHeight="1">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="12"/>
       <c r="B149" s="12"/>
       <c r="C149" s="12"/>
@@ -4872,7 +4856,7 @@
       <c r="X149" s="12"/>
       <c r="Y149" s="12"/>
     </row>
-    <row r="150" spans="1:25" ht="15.75" customHeight="1">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="12"/>
       <c r="B150" s="12"/>
       <c r="C150" s="12"/>
@@ -4899,7 +4883,7 @@
       <c r="X150" s="12"/>
       <c r="Y150" s="12"/>
     </row>
-    <row r="151" spans="1:25" ht="15.75" customHeight="1">
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="12"/>
       <c r="B151" s="12"/>
       <c r="C151" s="12"/>
@@ -4926,7 +4910,7 @@
       <c r="X151" s="12"/>
       <c r="Y151" s="12"/>
     </row>
-    <row r="152" spans="1:25" ht="15.75" customHeight="1">
+    <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="12"/>
       <c r="B152" s="12"/>
       <c r="C152" s="12"/>
@@ -4953,7 +4937,7 @@
       <c r="X152" s="12"/>
       <c r="Y152" s="12"/>
     </row>
-    <row r="153" spans="1:25" ht="15.75" customHeight="1">
+    <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="12"/>
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
@@ -4980,7 +4964,7 @@
       <c r="X153" s="12"/>
       <c r="Y153" s="12"/>
     </row>
-    <row r="154" spans="1:25" ht="15.75" customHeight="1">
+    <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="12"/>
       <c r="B154" s="12"/>
       <c r="C154" s="12"/>
@@ -5007,7 +4991,7 @@
       <c r="X154" s="12"/>
       <c r="Y154" s="12"/>
     </row>
-    <row r="155" spans="1:25" ht="15.75" customHeight="1">
+    <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="12"/>
       <c r="B155" s="12"/>
       <c r="C155" s="12"/>
@@ -5034,7 +5018,7 @@
       <c r="X155" s="12"/>
       <c r="Y155" s="12"/>
     </row>
-    <row r="156" spans="1:25" ht="15.75" customHeight="1">
+    <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="12"/>
       <c r="B156" s="12"/>
       <c r="C156" s="12"/>
@@ -5061,7 +5045,7 @@
       <c r="X156" s="12"/>
       <c r="Y156" s="12"/>
     </row>
-    <row r="157" spans="1:25" ht="15.75" customHeight="1">
+    <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="12"/>
       <c r="B157" s="12"/>
       <c r="C157" s="12"/>
@@ -5088,7 +5072,7 @@
       <c r="X157" s="12"/>
       <c r="Y157" s="12"/>
     </row>
-    <row r="158" spans="1:25" ht="15.75" customHeight="1">
+    <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="12"/>
       <c r="B158" s="12"/>
       <c r="C158" s="12"/>
@@ -5115,7 +5099,7 @@
       <c r="X158" s="12"/>
       <c r="Y158" s="12"/>
     </row>
-    <row r="159" spans="1:25" ht="15.75" customHeight="1">
+    <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="12"/>
       <c r="B159" s="12"/>
       <c r="C159" s="12"/>
@@ -5142,7 +5126,7 @@
       <c r="X159" s="12"/>
       <c r="Y159" s="12"/>
     </row>
-    <row r="160" spans="1:25" ht="15.75" customHeight="1">
+    <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="12"/>
       <c r="B160" s="12"/>
       <c r="C160" s="12"/>
@@ -5169,7 +5153,7 @@
       <c r="X160" s="12"/>
       <c r="Y160" s="12"/>
     </row>
-    <row r="161" spans="1:25" ht="15.75" customHeight="1">
+    <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="12"/>
       <c r="B161" s="12"/>
       <c r="C161" s="12"/>
@@ -5196,7 +5180,7 @@
       <c r="X161" s="12"/>
       <c r="Y161" s="12"/>
     </row>
-    <row r="162" spans="1:25" ht="15.75" customHeight="1">
+    <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="12"/>
       <c r="B162" s="12"/>
       <c r="C162" s="12"/>
@@ -5223,7 +5207,7 @@
       <c r="X162" s="12"/>
       <c r="Y162" s="12"/>
     </row>
-    <row r="163" spans="1:25" ht="15.75" customHeight="1">
+    <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="12"/>
       <c r="B163" s="12"/>
       <c r="C163" s="12"/>
@@ -5250,7 +5234,7 @@
       <c r="X163" s="12"/>
       <c r="Y163" s="12"/>
     </row>
-    <row r="164" spans="1:25" ht="15.75" customHeight="1">
+    <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="12"/>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
@@ -5277,7 +5261,7 @@
       <c r="X164" s="12"/>
       <c r="Y164" s="12"/>
     </row>
-    <row r="165" spans="1:25" ht="15.75" customHeight="1">
+    <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="12"/>
       <c r="B165" s="12"/>
       <c r="C165" s="12"/>
@@ -5304,7 +5288,7 @@
       <c r="X165" s="12"/>
       <c r="Y165" s="12"/>
     </row>
-    <row r="166" spans="1:25" ht="15.75" customHeight="1">
+    <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="12"/>
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
@@ -5331,7 +5315,7 @@
       <c r="X166" s="12"/>
       <c r="Y166" s="12"/>
     </row>
-    <row r="167" spans="1:25" ht="15.75" customHeight="1">
+    <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="12"/>
       <c r="B167" s="12"/>
       <c r="C167" s="12"/>
@@ -5358,7 +5342,7 @@
       <c r="X167" s="12"/>
       <c r="Y167" s="12"/>
     </row>
-    <row r="168" spans="1:25" ht="15.75" customHeight="1">
+    <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="12"/>
       <c r="B168" s="12"/>
       <c r="C168" s="12"/>
@@ -5385,7 +5369,7 @@
       <c r="X168" s="12"/>
       <c r="Y168" s="12"/>
     </row>
-    <row r="169" spans="1:25" ht="15.75" customHeight="1">
+    <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="12"/>
       <c r="B169" s="12"/>
       <c r="C169" s="12"/>
@@ -5412,7 +5396,7 @@
       <c r="X169" s="12"/>
       <c r="Y169" s="12"/>
     </row>
-    <row r="170" spans="1:25" ht="15.75" customHeight="1">
+    <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="12"/>
       <c r="B170" s="12"/>
       <c r="C170" s="12"/>
@@ -5439,7 +5423,7 @@
       <c r="X170" s="12"/>
       <c r="Y170" s="12"/>
     </row>
-    <row r="171" spans="1:25" ht="15.75" customHeight="1">
+    <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="12"/>
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
@@ -5466,7 +5450,7 @@
       <c r="X171" s="12"/>
       <c r="Y171" s="12"/>
     </row>
-    <row r="172" spans="1:25" ht="15.75" customHeight="1">
+    <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="12"/>
       <c r="B172" s="12"/>
       <c r="C172" s="12"/>
@@ -5493,7 +5477,7 @@
       <c r="X172" s="12"/>
       <c r="Y172" s="12"/>
     </row>
-    <row r="173" spans="1:25" ht="15.75" customHeight="1">
+    <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="12"/>
       <c r="B173" s="12"/>
       <c r="C173" s="12"/>
@@ -5520,7 +5504,7 @@
       <c r="X173" s="12"/>
       <c r="Y173" s="12"/>
     </row>
-    <row r="174" spans="1:25" ht="15.75" customHeight="1">
+    <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="12"/>
       <c r="B174" s="12"/>
       <c r="C174" s="12"/>
@@ -5547,7 +5531,7 @@
       <c r="X174" s="12"/>
       <c r="Y174" s="12"/>
     </row>
-    <row r="175" spans="1:25" ht="15.75" customHeight="1">
+    <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="12"/>
       <c r="B175" s="12"/>
       <c r="C175" s="12"/>
@@ -5574,7 +5558,7 @@
       <c r="X175" s="12"/>
       <c r="Y175" s="12"/>
     </row>
-    <row r="176" spans="1:25" ht="15.75" customHeight="1">
+    <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="12"/>
       <c r="B176" s="12"/>
       <c r="C176" s="12"/>
@@ -5601,7 +5585,7 @@
       <c r="X176" s="12"/>
       <c r="Y176" s="12"/>
     </row>
-    <row r="177" spans="1:25" ht="15.75" customHeight="1">
+    <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="12"/>
       <c r="B177" s="12"/>
       <c r="C177" s="12"/>
@@ -5628,7 +5612,7 @@
       <c r="X177" s="12"/>
       <c r="Y177" s="12"/>
     </row>
-    <row r="178" spans="1:25" ht="15.75" customHeight="1">
+    <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="12"/>
       <c r="B178" s="12"/>
       <c r="C178" s="12"/>
@@ -5655,7 +5639,7 @@
       <c r="X178" s="12"/>
       <c r="Y178" s="12"/>
     </row>
-    <row r="179" spans="1:25" ht="15.75" customHeight="1">
+    <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="12"/>
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>
@@ -5682,7 +5666,7 @@
       <c r="X179" s="12"/>
       <c r="Y179" s="12"/>
     </row>
-    <row r="180" spans="1:25" ht="15.75" customHeight="1">
+    <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="12"/>
       <c r="B180" s="12"/>
       <c r="C180" s="12"/>
@@ -5709,7 +5693,7 @@
       <c r="X180" s="12"/>
       <c r="Y180" s="12"/>
     </row>
-    <row r="181" spans="1:25" ht="15.75" customHeight="1">
+    <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="12"/>
       <c r="B181" s="12"/>
       <c r="C181" s="12"/>
@@ -5736,7 +5720,7 @@
       <c r="X181" s="12"/>
       <c r="Y181" s="12"/>
     </row>
-    <row r="182" spans="1:25" ht="15.75" customHeight="1">
+    <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="12"/>
       <c r="B182" s="12"/>
       <c r="C182" s="12"/>
@@ -5763,7 +5747,7 @@
       <c r="X182" s="12"/>
       <c r="Y182" s="12"/>
     </row>
-    <row r="183" spans="1:25" ht="15.75" customHeight="1">
+    <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="12"/>
       <c r="B183" s="12"/>
       <c r="C183" s="12"/>
@@ -5790,7 +5774,7 @@
       <c r="X183" s="12"/>
       <c r="Y183" s="12"/>
     </row>
-    <row r="184" spans="1:25" ht="15.75" customHeight="1">
+    <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="12"/>
       <c r="B184" s="12"/>
       <c r="C184" s="12"/>
@@ -5817,7 +5801,7 @@
       <c r="X184" s="12"/>
       <c r="Y184" s="12"/>
     </row>
-    <row r="185" spans="1:25" ht="15.75" customHeight="1">
+    <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="12"/>
       <c r="B185" s="12"/>
       <c r="C185" s="12"/>
@@ -5844,7 +5828,7 @@
       <c r="X185" s="12"/>
       <c r="Y185" s="12"/>
     </row>
-    <row r="186" spans="1:25" ht="15.75" customHeight="1">
+    <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="12"/>
       <c r="B186" s="12"/>
       <c r="C186" s="12"/>
@@ -5871,7 +5855,7 @@
       <c r="X186" s="12"/>
       <c r="Y186" s="12"/>
     </row>
-    <row r="187" spans="1:25" ht="15.75" customHeight="1">
+    <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="12"/>
       <c r="B187" s="12"/>
       <c r="C187" s="12"/>
@@ -5898,7 +5882,7 @@
       <c r="X187" s="12"/>
       <c r="Y187" s="12"/>
     </row>
-    <row r="188" spans="1:25" ht="15.75" customHeight="1">
+    <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="12"/>
       <c r="B188" s="12"/>
       <c r="C188" s="12"/>
@@ -5925,7 +5909,7 @@
       <c r="X188" s="12"/>
       <c r="Y188" s="12"/>
     </row>
-    <row r="189" spans="1:25" ht="15.75" customHeight="1">
+    <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="12"/>
       <c r="B189" s="12"/>
       <c r="C189" s="12"/>
@@ -5952,7 +5936,7 @@
       <c r="X189" s="12"/>
       <c r="Y189" s="12"/>
     </row>
-    <row r="190" spans="1:25" ht="15.75" customHeight="1">
+    <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="12"/>
       <c r="B190" s="12"/>
       <c r="C190" s="12"/>
@@ -5979,7 +5963,7 @@
       <c r="X190" s="12"/>
       <c r="Y190" s="12"/>
     </row>
-    <row r="191" spans="1:25" ht="15.75" customHeight="1">
+    <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="12"/>
       <c r="B191" s="12"/>
       <c r="C191" s="12"/>
@@ -6006,7 +5990,7 @@
       <c r="X191" s="12"/>
       <c r="Y191" s="12"/>
     </row>
-    <row r="192" spans="1:25" ht="15.75" customHeight="1">
+    <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="12"/>
       <c r="B192" s="12"/>
       <c r="C192" s="12"/>
@@ -6033,7 +6017,7 @@
       <c r="X192" s="12"/>
       <c r="Y192" s="12"/>
     </row>
-    <row r="193" spans="1:25" ht="15.75" customHeight="1">
+    <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="12"/>
       <c r="B193" s="12"/>
       <c r="C193" s="12"/>
@@ -6060,7 +6044,7 @@
       <c r="X193" s="12"/>
       <c r="Y193" s="12"/>
     </row>
-    <row r="194" spans="1:25" ht="15.75" customHeight="1">
+    <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="12"/>
       <c r="B194" s="12"/>
       <c r="C194" s="12"/>
@@ -6087,7 +6071,7 @@
       <c r="X194" s="12"/>
       <c r="Y194" s="12"/>
     </row>
-    <row r="195" spans="1:25" ht="15.75" customHeight="1">
+    <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="12"/>
       <c r="B195" s="12"/>
       <c r="C195" s="12"/>
@@ -6114,7 +6098,7 @@
       <c r="X195" s="12"/>
       <c r="Y195" s="12"/>
     </row>
-    <row r="196" spans="1:25" ht="15.75" customHeight="1">
+    <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="12"/>
       <c r="B196" s="12"/>
       <c r="C196" s="12"/>
@@ -6141,7 +6125,7 @@
       <c r="X196" s="12"/>
       <c r="Y196" s="12"/>
     </row>
-    <row r="197" spans="1:25" ht="15.75" customHeight="1">
+    <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="12"/>
       <c r="B197" s="12"/>
       <c r="C197" s="12"/>
@@ -6168,7 +6152,7 @@
       <c r="X197" s="12"/>
       <c r="Y197" s="12"/>
     </row>
-    <row r="198" spans="1:25" ht="15.75" customHeight="1">
+    <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="12"/>
       <c r="B198" s="12"/>
       <c r="C198" s="12"/>
@@ -6195,7 +6179,7 @@
       <c r="X198" s="12"/>
       <c r="Y198" s="12"/>
     </row>
-    <row r="199" spans="1:25" ht="15.75" customHeight="1">
+    <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="12"/>
       <c r="B199" s="12"/>
       <c r="C199" s="12"/>
@@ -6222,7 +6206,7 @@
       <c r="X199" s="12"/>
       <c r="Y199" s="12"/>
     </row>
-    <row r="200" spans="1:25" ht="15.75" customHeight="1">
+    <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="12"/>
       <c r="B200" s="12"/>
       <c r="C200" s="12"/>
@@ -6249,7 +6233,7 @@
       <c r="X200" s="12"/>
       <c r="Y200" s="12"/>
     </row>
-    <row r="201" spans="1:25" ht="15.75" customHeight="1">
+    <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="12"/>
       <c r="B201" s="12"/>
       <c r="C201" s="12"/>
@@ -6276,7 +6260,7 @@
       <c r="X201" s="12"/>
       <c r="Y201" s="12"/>
     </row>
-    <row r="202" spans="1:25" ht="15.75" customHeight="1">
+    <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="12"/>
       <c r="B202" s="12"/>
       <c r="C202" s="12"/>
@@ -6303,7 +6287,7 @@
       <c r="X202" s="12"/>
       <c r="Y202" s="12"/>
     </row>
-    <row r="203" spans="1:25" ht="15.75" customHeight="1">
+    <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="12"/>
       <c r="B203" s="12"/>
       <c r="C203" s="12"/>
@@ -6330,7 +6314,7 @@
       <c r="X203" s="12"/>
       <c r="Y203" s="12"/>
     </row>
-    <row r="204" spans="1:25" ht="15.75" customHeight="1">
+    <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="12"/>
       <c r="B204" s="12"/>
       <c r="C204" s="12"/>
@@ -6357,7 +6341,7 @@
       <c r="X204" s="12"/>
       <c r="Y204" s="12"/>
     </row>
-    <row r="205" spans="1:25" ht="15.75" customHeight="1">
+    <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="12"/>
       <c r="B205" s="12"/>
       <c r="C205" s="12"/>
@@ -6384,7 +6368,7 @@
       <c r="X205" s="12"/>
       <c r="Y205" s="12"/>
     </row>
-    <row r="206" spans="1:25" ht="15.75" customHeight="1">
+    <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="12"/>
       <c r="B206" s="12"/>
       <c r="C206" s="12"/>
@@ -6411,7 +6395,7 @@
       <c r="X206" s="12"/>
       <c r="Y206" s="12"/>
     </row>
-    <row r="207" spans="1:25" ht="15.75" customHeight="1">
+    <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="12"/>
       <c r="B207" s="12"/>
       <c r="C207" s="12"/>
@@ -6438,7 +6422,7 @@
       <c r="X207" s="12"/>
       <c r="Y207" s="12"/>
     </row>
-    <row r="208" spans="1:25" ht="15.75" customHeight="1">
+    <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="12"/>
       <c r="B208" s="12"/>
       <c r="C208" s="12"/>
@@ -6465,7 +6449,7 @@
       <c r="X208" s="12"/>
       <c r="Y208" s="12"/>
     </row>
-    <row r="209" spans="1:25" ht="15.75" customHeight="1">
+    <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="12"/>
       <c r="B209" s="12"/>
       <c r="C209" s="12"/>
@@ -6492,7 +6476,7 @@
       <c r="X209" s="12"/>
       <c r="Y209" s="12"/>
     </row>
-    <row r="210" spans="1:25" ht="15.75" customHeight="1">
+    <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="12"/>
       <c r="B210" s="12"/>
       <c r="C210" s="12"/>
@@ -6519,7 +6503,7 @@
       <c r="X210" s="12"/>
       <c r="Y210" s="12"/>
     </row>
-    <row r="211" spans="1:25" ht="15.75" customHeight="1">
+    <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="12"/>
       <c r="B211" s="12"/>
       <c r="C211" s="12"/>
@@ -6546,7 +6530,7 @@
       <c r="X211" s="12"/>
       <c r="Y211" s="12"/>
     </row>
-    <row r="212" spans="1:25" ht="15.75" customHeight="1">
+    <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="12"/>
       <c r="B212" s="12"/>
       <c r="C212" s="12"/>
@@ -6573,7 +6557,7 @@
       <c r="X212" s="12"/>
       <c r="Y212" s="12"/>
     </row>
-    <row r="213" spans="1:25" ht="15.75" customHeight="1">
+    <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="12"/>
       <c r="B213" s="12"/>
       <c r="C213" s="12"/>
@@ -6600,7 +6584,7 @@
       <c r="X213" s="12"/>
       <c r="Y213" s="12"/>
     </row>
-    <row r="214" spans="1:25" ht="15.75" customHeight="1">
+    <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="12"/>
       <c r="B214" s="12"/>
       <c r="C214" s="12"/>
@@ -6627,7 +6611,7 @@
       <c r="X214" s="12"/>
       <c r="Y214" s="12"/>
     </row>
-    <row r="215" spans="1:25" ht="15.75" customHeight="1">
+    <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="12"/>
       <c r="B215" s="12"/>
       <c r="C215" s="12"/>
@@ -6654,7 +6638,7 @@
       <c r="X215" s="12"/>
       <c r="Y215" s="12"/>
     </row>
-    <row r="216" spans="1:25" ht="15.75" customHeight="1">
+    <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="12"/>
       <c r="B216" s="12"/>
       <c r="C216" s="12"/>
@@ -6681,7 +6665,7 @@
       <c r="X216" s="12"/>
       <c r="Y216" s="12"/>
     </row>
-    <row r="217" spans="1:25" ht="15.75" customHeight="1">
+    <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="12"/>
       <c r="B217" s="12"/>
       <c r="C217" s="12"/>
@@ -6708,7 +6692,7 @@
       <c r="X217" s="12"/>
       <c r="Y217" s="12"/>
     </row>
-    <row r="218" spans="1:25" ht="15.75" customHeight="1">
+    <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="12"/>
       <c r="B218" s="12"/>
       <c r="C218" s="12"/>
@@ -6735,7 +6719,7 @@
       <c r="X218" s="12"/>
       <c r="Y218" s="12"/>
     </row>
-    <row r="219" spans="1:25" ht="15.75" customHeight="1">
+    <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="12"/>
       <c r="B219" s="12"/>
       <c r="C219" s="12"/>
@@ -6762,7 +6746,7 @@
       <c r="X219" s="12"/>
       <c r="Y219" s="12"/>
     </row>
-    <row r="220" spans="1:25" ht="15.75" customHeight="1">
+    <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="12"/>
       <c r="B220" s="12"/>
       <c r="C220" s="12"/>
@@ -6789,10 +6773,10 @@
       <c r="X220" s="12"/>
       <c r="Y220" s="12"/>
     </row>
-    <row r="221" spans="1:25" ht="15.75" customHeight="1"/>
-    <row r="222" spans="1:25" ht="15.75" customHeight="1"/>
-    <row r="223" spans="1:25" ht="15.75" customHeight="1"/>
-    <row r="224" spans="1:25" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -7570,90 +7554,90 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="21.140625"/>
-    <col min="5" max="5" customWidth="true" width="31.42578125"/>
+    <col customWidth="1" min="2" max="2" width="21.13"/>
+    <col customWidth="1" min="5" max="5" width="31.38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="16" t="s">
+    <row r="1">
+      <c r="A1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>38</v>
+      <c r="B1" s="19" t="s">
+        <v>39</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="17" t="s">
+      <c r="E1" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="18">
-        <v>1</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>42</v>
       </c>
+      <c r="C2" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0300-000000000000}">
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2">
       <formula1>"1,2"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1">
       <c r="A1" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="6" t="s">
         <v>44</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tool_test_game\config\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="375" yWindow="795" windowWidth="21600" windowHeight="11385" activeTab="5"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Scope" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Plan" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Options" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Group-Turn" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Note" sheetId="5" r:id="rId8"/>
+    <sheet name="Scope" sheetId="1" r:id="rId3"/>
+    <sheet name="Plan" sheetId="2" r:id="rId4"/>
+    <sheet name="Options" sheetId="3" r:id="rId5"/>
+    <sheet name="Group-Turn" sheetId="4" r:id="rId6"/>
+    <sheet name="Note" sheetId="5" r:id="rId7"/>
+    <sheet name="Evaluation Warning" sheetId="7" r:id="rId8"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="Wqrab3t6a9P+8657acRiy3PPnRgyPXlHeqJS7A1TITw="/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>STT</t>
   </si>
@@ -40,22 +44,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>Report_Play lesson</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Report_GameName</t>
-  </si>
-  <si>
-    <t>G_act</t>
   </si>
   <si>
     <t>FLow</t>
@@ -85,7 +77,10 @@
     <t>Course</t>
   </si>
   <si>
-    <t>Type</t>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
   <si>
     <t>FILE::report\list_fail.txt</t>
@@ -97,16 +92,10 @@
     <t>$.level</t>
   </si>
   <si>
-    <t>$.lesson</t>
-  </si>
-  <si>
     <t>$.topic</t>
   </si>
   <si>
     <t>AI_Speak</t>
-  </si>
-  <si>
-    <t>app</t>
   </si>
   <si>
     <t>Flow</t>
@@ -122,9 +111,6 @@
   </si>
   <si>
     <t>EE</t>
-  </si>
-  <si>
-    <t>api</t>
   </si>
   <si>
     <t>Advanced</t>
@@ -148,210 +134,325 @@
     <t>Description</t>
   </si>
   <si>
-    <t>$.act.length()</t>
-  </si>
-  <si>
-    <t>Tổng số act</t>
-  </si>
-  <si>
     <t>Xác định end game sau mỗi testcase hay chuyển act</t>
   </si>
   <si>
     <t>Xác định thêm end game sẽ phân biệt dễ hơn chuyển act hay end game</t>
   </si>
+  <si>
+    <t>$.name</t>
+  </si>
+  <si>
+    <t>$.act_id</t>
+  </si>
+  <si>
+    <t>M_go</t>
+  </si>
+  <si>
+    <t>Report_GS01LetterFishing(Clone)</t>
+  </si>
+  <si>
+    <t>Report_Play game</t>
+  </si>
+  <si>
+    <t>Evaluation Only. Created with Aspose.Cells for Java.Copyright 2003 - 2021 Aspose Pty Ltd.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="9">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="&quot;Times New Roman&quot;"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D2E9"/>
-        <bgColor rgb="FFD9D2E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FC5E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD2F1DA"/>
-        <bgColor rgb="FFD2F1DA"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9FC5E8"/>
           <bgColor rgb="FF9FC5E8"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -541,28 +642,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2.0" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection activeCell="D2" sqref="D2" pane="topRight"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.88"/>
-    <col customWidth="1" min="2" max="2" width="45.75"/>
+    <col min="1" max="1" customWidth="true" width="5.857142857142857"/>
+    <col min="2" max="2" customWidth="true" width="45.714285714285715"/>
+    <col min="3" max="6" customWidth="true" width="12.571428571428571"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,18 +704,18 @@
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="4"/>
@@ -634,141 +739,152 @@
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
     </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>9</v>
+    <row r="3" spans="1:5" ht="15.75">
+      <c r="A3" s="7">
+        <v>2.0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75">
+      <c r="A4" s="7"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75">
+      <c r="A5" s="7"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="E5" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D3">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="D1:D5">
+    <cfRule type="cellIs" priority="1" dxfId="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D3">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" priority="2" dxfId="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D3">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" priority="3" dxfId="0" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E3">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E5">
       <formula1>'Group-Turn'!$A:$A</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.13"/>
-    <col customWidth="1" min="5" max="5" width="13.75"/>
-    <col customWidth="1" min="7" max="8" width="26.38"/>
-    <col customWidth="1" min="9" max="9" width="15.5"/>
-    <col customWidth="1" min="11" max="11" width="20.75"/>
-    <col customWidth="1" min="12" max="12" width="24.0"/>
+    <col min="1" max="1" customWidth="true" width="13.142857142857142"/>
+    <col min="2" max="4" customWidth="true" width="12.571428571428571"/>
+    <col min="5" max="5" customWidth="true" width="13.714285714285714"/>
+    <col min="6" max="6" customWidth="true" width="12.571428571428571"/>
+    <col min="7" max="8" customWidth="true" width="26.428571428571427"/>
+    <col min="9" max="9" customWidth="true" width="15.428571428571429"/>
+    <col min="12" max="12" customWidth="true" width="24.0"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.0" customHeight="1">
+    <row r="1" spans="1:12" ht="15" customHeight="1">
       <c r="A1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="K1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="L1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="16.5">
+      <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="12" t="s">
-        <v>23</v>
-      </c>
       <c r="B2" s="12" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C2" s="13">
-        <v>30.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" s="13">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" s="13">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="13" t="n">
         <v>0.0</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>25</v>
+      <c r="K2" s="13" t="n">
+        <v>0.0</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="13"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J2">
-      <formula1>Options!$D$2:$D2</formula1>
-    </dataValidation>
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2">
       <formula1>Options!$C:$C</formula1>
     </dataValidation>
@@ -779,37 +895,38 @@
       <formula1>Options!$B$2:$B2</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" customWidth="true" width="12.571428571428571"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="15.0" customHeight="1">
-      <c r="A1" s="15" t="s">
-        <v>13</v>
+    <row r="1" spans="1:25" ht="15" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>9</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>29</v>
+      <c r="B1" s="14" t="s">
+        <v>24</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>20</v>
+      <c r="C1" s="14" t="s">
+        <v>16</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -832,19 +949,17 @@
       <c r="X1" s="12"/>
       <c r="Y1" s="12"/>
     </row>
-    <row r="2" ht="15.0" customHeight="1">
+    <row r="2" spans="1:25" ht="15" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>28</v>
-      </c>
+      <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -867,19 +982,17 @@
       <c r="X2" s="12"/>
       <c r="Y2" s="12"/>
     </row>
-    <row r="3" ht="15.0" customHeight="1">
+    <row r="3" spans="1:25" ht="15" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>34</v>
-      </c>
+      <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -902,13 +1015,13 @@
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
     </row>
-    <row r="4" ht="15.0" customHeight="1">
+    <row r="4" spans="1:25" ht="15" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -933,12 +1046,14 @@
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
     </row>
-    <row r="5" ht="15.0" customHeight="1">
+    <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+      <c r="C5" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -962,9 +1077,9 @@
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
     </row>
-    <row r="6" ht="15.0" customHeight="1">
+    <row r="6" spans="1:25" ht="15" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -991,9 +1106,9 @@
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
     </row>
-    <row r="7" ht="15.0" customHeight="1">
-      <c r="A7" s="18" t="s">
-        <v>24</v>
+    <row r="7" spans="1:25" ht="15" customHeight="1">
+      <c r="A7" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1020,9 +1135,9 @@
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
     </row>
-    <row r="8" ht="15.0" customHeight="1">
+    <row r="8" spans="1:25" ht="15" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1049,8 +1164,10 @@
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
     </row>
-    <row r="9" ht="15.0" customHeight="1">
-      <c r="A9" s="12"/>
+    <row r="9" spans="1:25" ht="15" customHeight="1">
+      <c r="A9" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -1076,7 +1193,7 @@
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
     </row>
-    <row r="10" ht="15.0" customHeight="1">
+    <row r="10" spans="1:25" ht="15" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1103,7 +1220,7 @@
       <c r="X10" s="12"/>
       <c r="Y10" s="12"/>
     </row>
-    <row r="11" ht="15.0" customHeight="1">
+    <row r="11" spans="1:25" ht="15" customHeight="1">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1130,7 +1247,7 @@
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
     </row>
-    <row r="12" ht="15.0" customHeight="1">
+    <row r="12" spans="1:25" ht="15" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1157,7 +1274,7 @@
       <c r="X12" s="12"/>
       <c r="Y12" s="12"/>
     </row>
-    <row r="13" ht="15.0" customHeight="1">
+    <row r="13" spans="1:25" ht="15" customHeight="1">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -1184,7 +1301,7 @@
       <c r="X13" s="12"/>
       <c r="Y13" s="12"/>
     </row>
-    <row r="14" ht="15.0" customHeight="1">
+    <row r="14" spans="1:25" ht="15" customHeight="1">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -1211,7 +1328,7 @@
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
     </row>
-    <row r="15" ht="15.0" customHeight="1">
+    <row r="15" spans="1:25" ht="15" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1238,7 +1355,7 @@
       <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
     </row>
-    <row r="16" ht="15.0" customHeight="1">
+    <row r="16" spans="1:25" ht="15" customHeight="1">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -1265,7 +1382,7 @@
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
     </row>
-    <row r="17" ht="15.0" customHeight="1">
+    <row r="17" spans="1:25" ht="15" customHeight="1">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -1292,7 +1409,7 @@
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
     </row>
-    <row r="18" ht="15.0" customHeight="1">
+    <row r="18" spans="1:25" ht="15" customHeight="1">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -1319,7 +1436,7 @@
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
     </row>
-    <row r="19" ht="15.0" customHeight="1">
+    <row r="19" spans="1:25" ht="15" customHeight="1">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -1346,7 +1463,7 @@
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
     </row>
-    <row r="20" ht="15.0" customHeight="1">
+    <row r="20" spans="1:25" ht="15" customHeight="1">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1373,7 +1490,7 @@
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
     </row>
-    <row r="21" ht="15.0" customHeight="1">
+    <row r="21" spans="1:25" ht="15" customHeight="1">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -1400,7 +1517,7 @@
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
     </row>
-    <row r="22" ht="15.0" customHeight="1">
+    <row r="22" spans="1:25" ht="15" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -1427,7 +1544,7 @@
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
     </row>
-    <row r="23" ht="15.0" customHeight="1">
+    <row r="23" spans="1:25" ht="15" customHeight="1">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -1454,7 +1571,7 @@
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
     </row>
-    <row r="24" ht="15.0" customHeight="1">
+    <row r="24" spans="1:25" ht="15" customHeight="1">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -1481,7 +1598,7 @@
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
     </row>
-    <row r="25" ht="15.0" customHeight="1">
+    <row r="25" spans="1:25" ht="15" customHeight="1">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -1508,7 +1625,7 @@
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
     </row>
-    <row r="26" ht="15.0" customHeight="1">
+    <row r="26" spans="1:25" ht="15" customHeight="1">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -1535,7 +1652,7 @@
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
     </row>
-    <row r="27" ht="15.0" customHeight="1">
+    <row r="27" spans="1:25" ht="15" customHeight="1">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -1562,7 +1679,7 @@
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
     </row>
-    <row r="28" ht="15.0" customHeight="1">
+    <row r="28" spans="1:25" ht="15" customHeight="1">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -1589,7 +1706,7 @@
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
     </row>
-    <row r="29" ht="15.0" customHeight="1">
+    <row r="29" spans="1:25" ht="15" customHeight="1">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -1616,7 +1733,7 @@
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
     </row>
-    <row r="30" ht="15.0" customHeight="1">
+    <row r="30" spans="1:25" ht="15" customHeight="1">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -1643,7 +1760,7 @@
       <c r="X30" s="12"/>
       <c r="Y30" s="12"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -1670,7 +1787,7 @@
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -1697,7 +1814,7 @@
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:25" ht="15.75" customHeight="1">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -1724,7 +1841,7 @@
       <c r="X33" s="12"/>
       <c r="Y33" s="12"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:25" ht="15.75" customHeight="1">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -1751,7 +1868,7 @@
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:25" ht="15.75" customHeight="1">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -1778,7 +1895,7 @@
       <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:25" ht="15.75" customHeight="1">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -1805,7 +1922,7 @@
       <c r="X36" s="12"/>
       <c r="Y36" s="12"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:25" ht="15.75" customHeight="1">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -1832,7 +1949,7 @@
       <c r="X37" s="12"/>
       <c r="Y37" s="12"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:25" ht="15.75" customHeight="1">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -1859,7 +1976,7 @@
       <c r="X38" s="12"/>
       <c r="Y38" s="12"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:25" ht="15.75" customHeight="1">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -1886,7 +2003,7 @@
       <c r="X39" s="12"/>
       <c r="Y39" s="12"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:25" ht="15.75" customHeight="1">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -1913,7 +2030,7 @@
       <c r="X40" s="12"/>
       <c r="Y40" s="12"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:25" ht="15.75" customHeight="1">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -1940,7 +2057,7 @@
       <c r="X41" s="12"/>
       <c r="Y41" s="12"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:25" ht="15.75" customHeight="1">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -1967,7 +2084,7 @@
       <c r="X42" s="12"/>
       <c r="Y42" s="12"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:25" ht="15.75" customHeight="1">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -1994,7 +2111,7 @@
       <c r="X43" s="12"/>
       <c r="Y43" s="12"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:25" ht="15.75" customHeight="1">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -2021,7 +2138,7 @@
       <c r="X44" s="12"/>
       <c r="Y44" s="12"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:25" ht="15.75" customHeight="1">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -2048,7 +2165,7 @@
       <c r="X45" s="12"/>
       <c r="Y45" s="12"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:25" ht="15.75" customHeight="1">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -2075,7 +2192,7 @@
       <c r="X46" s="12"/>
       <c r="Y46" s="12"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:25" ht="15.75" customHeight="1">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -2102,7 +2219,7 @@
       <c r="X47" s="12"/>
       <c r="Y47" s="12"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:25" ht="15.75" customHeight="1">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -2129,7 +2246,7 @@
       <c r="X48" s="12"/>
       <c r="Y48" s="12"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:25" ht="15.75" customHeight="1">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -2156,7 +2273,7 @@
       <c r="X49" s="12"/>
       <c r="Y49" s="12"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:25" ht="15.75" customHeight="1">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -2183,7 +2300,7 @@
       <c r="X50" s="12"/>
       <c r="Y50" s="12"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:25" ht="15.75" customHeight="1">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -2210,7 +2327,7 @@
       <c r="X51" s="12"/>
       <c r="Y51" s="12"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:25" ht="15.75" customHeight="1">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -2237,7 +2354,7 @@
       <c r="X52" s="12"/>
       <c r="Y52" s="12"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -2264,7 +2381,7 @@
       <c r="X53" s="12"/>
       <c r="Y53" s="12"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -2291,7 +2408,7 @@
       <c r="X54" s="12"/>
       <c r="Y54" s="12"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:25" ht="15.75" customHeight="1">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -2318,7 +2435,7 @@
       <c r="X55" s="12"/>
       <c r="Y55" s="12"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:25" ht="15.75" customHeight="1">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -2345,7 +2462,7 @@
       <c r="X56" s="12"/>
       <c r="Y56" s="12"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:25" ht="15.75" customHeight="1">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -2372,7 +2489,7 @@
       <c r="X57" s="12"/>
       <c r="Y57" s="12"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:25" ht="15.75" customHeight="1">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -2399,7 +2516,7 @@
       <c r="X58" s="12"/>
       <c r="Y58" s="12"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:25" ht="15.75" customHeight="1">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -2426,7 +2543,7 @@
       <c r="X59" s="12"/>
       <c r="Y59" s="12"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:25" ht="15.75" customHeight="1">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -2453,7 +2570,7 @@
       <c r="X60" s="12"/>
       <c r="Y60" s="12"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:25" ht="15.75" customHeight="1">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
@@ -2480,7 +2597,7 @@
       <c r="X61" s="12"/>
       <c r="Y61" s="12"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:25" ht="15.75" customHeight="1">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -2507,7 +2624,7 @@
       <c r="X62" s="12"/>
       <c r="Y62" s="12"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:25" ht="15.75" customHeight="1">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
@@ -2534,7 +2651,7 @@
       <c r="X63" s="12"/>
       <c r="Y63" s="12"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:25" ht="15.75" customHeight="1">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -2561,7 +2678,7 @@
       <c r="X64" s="12"/>
       <c r="Y64" s="12"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:25" ht="15.75" customHeight="1">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -2588,7 +2705,7 @@
       <c r="X65" s="12"/>
       <c r="Y65" s="12"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:25" ht="15.75" customHeight="1">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -2615,7 +2732,7 @@
       <c r="X66" s="12"/>
       <c r="Y66" s="12"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:25" ht="15.75" customHeight="1">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -2642,7 +2759,7 @@
       <c r="X67" s="12"/>
       <c r="Y67" s="12"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:25" ht="15.75" customHeight="1">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -2669,7 +2786,7 @@
       <c r="X68" s="12"/>
       <c r="Y68" s="12"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:25" ht="15.75" customHeight="1">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
@@ -2696,7 +2813,7 @@
       <c r="X69" s="12"/>
       <c r="Y69" s="12"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:25" ht="15.75" customHeight="1">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -2723,7 +2840,7 @@
       <c r="X70" s="12"/>
       <c r="Y70" s="12"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:25" ht="15.75" customHeight="1">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
@@ -2750,7 +2867,7 @@
       <c r="X71" s="12"/>
       <c r="Y71" s="12"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:25" ht="15.75" customHeight="1">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -2777,7 +2894,7 @@
       <c r="X72" s="12"/>
       <c r="Y72" s="12"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:25" ht="15.75" customHeight="1">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -2804,7 +2921,7 @@
       <c r="X73" s="12"/>
       <c r="Y73" s="12"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:25" ht="15.75" customHeight="1">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -2831,7 +2948,7 @@
       <c r="X74" s="12"/>
       <c r="Y74" s="12"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:25" ht="15.75" customHeight="1">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -2858,7 +2975,7 @@
       <c r="X75" s="12"/>
       <c r="Y75" s="12"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:25" ht="15.75" customHeight="1">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -2885,7 +3002,7 @@
       <c r="X76" s="12"/>
       <c r="Y76" s="12"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:25" ht="15.75" customHeight="1">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -2912,7 +3029,7 @@
       <c r="X77" s="12"/>
       <c r="Y77" s="12"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:25" ht="15.75" customHeight="1">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -2939,7 +3056,7 @@
       <c r="X78" s="12"/>
       <c r="Y78" s="12"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:25" ht="15.75" customHeight="1">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -2966,7 +3083,7 @@
       <c r="X79" s="12"/>
       <c r="Y79" s="12"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:25" ht="15.75" customHeight="1">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -2993,7 +3110,7 @@
       <c r="X80" s="12"/>
       <c r="Y80" s="12"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:25" ht="15.75" customHeight="1">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -3020,7 +3137,7 @@
       <c r="X81" s="12"/>
       <c r="Y81" s="12"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:25" ht="15.75" customHeight="1">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -3047,7 +3164,7 @@
       <c r="X82" s="12"/>
       <c r="Y82" s="12"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:25" ht="15.75" customHeight="1">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -3074,7 +3191,7 @@
       <c r="X83" s="12"/>
       <c r="Y83" s="12"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:25" ht="15.75" customHeight="1">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -3101,7 +3218,7 @@
       <c r="X84" s="12"/>
       <c r="Y84" s="12"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:25" ht="15.75" customHeight="1">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -3128,7 +3245,7 @@
       <c r="X85" s="12"/>
       <c r="Y85" s="12"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:25" ht="15.75" customHeight="1">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
@@ -3155,7 +3272,7 @@
       <c r="X86" s="12"/>
       <c r="Y86" s="12"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:25" ht="15.75" customHeight="1">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -3182,7 +3299,7 @@
       <c r="X87" s="12"/>
       <c r="Y87" s="12"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:25" ht="15.75" customHeight="1">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
@@ -3209,7 +3326,7 @@
       <c r="X88" s="12"/>
       <c r="Y88" s="12"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:25" ht="15.75" customHeight="1">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -3236,7 +3353,7 @@
       <c r="X89" s="12"/>
       <c r="Y89" s="12"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:25" ht="15.75" customHeight="1">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
@@ -3263,7 +3380,7 @@
       <c r="X90" s="12"/>
       <c r="Y90" s="12"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:25" ht="15.75" customHeight="1">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -3290,7 +3407,7 @@
       <c r="X91" s="12"/>
       <c r="Y91" s="12"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:25" ht="15.75" customHeight="1">
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
@@ -3317,7 +3434,7 @@
       <c r="X92" s="12"/>
       <c r="Y92" s="12"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:25" ht="15.75" customHeight="1">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
@@ -3344,7 +3461,7 @@
       <c r="X93" s="12"/>
       <c r="Y93" s="12"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:25" ht="15.75" customHeight="1">
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
@@ -3371,7 +3488,7 @@
       <c r="X94" s="12"/>
       <c r="Y94" s="12"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:25" ht="15.75" customHeight="1">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
@@ -3398,7 +3515,7 @@
       <c r="X95" s="12"/>
       <c r="Y95" s="12"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:25" ht="15.75" customHeight="1">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -3425,7 +3542,7 @@
       <c r="X96" s="12"/>
       <c r="Y96" s="12"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:25" ht="15.75" customHeight="1">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
@@ -3452,7 +3569,7 @@
       <c r="X97" s="12"/>
       <c r="Y97" s="12"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:25" ht="15.75" customHeight="1">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
@@ -3479,7 +3596,7 @@
       <c r="X98" s="12"/>
       <c r="Y98" s="12"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:25" ht="15.75" customHeight="1">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -3506,7 +3623,7 @@
       <c r="X99" s="12"/>
       <c r="Y99" s="12"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:25" ht="15.75" customHeight="1">
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
@@ -3533,7 +3650,7 @@
       <c r="X100" s="12"/>
       <c r="Y100" s="12"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:25" ht="15.75" customHeight="1">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -3560,7 +3677,7 @@
       <c r="X101" s="12"/>
       <c r="Y101" s="12"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:25" ht="15.75" customHeight="1">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
@@ -3587,7 +3704,7 @@
       <c r="X102" s="12"/>
       <c r="Y102" s="12"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:25" ht="15.75" customHeight="1">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -3614,7 +3731,7 @@
       <c r="X103" s="12"/>
       <c r="Y103" s="12"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:25" ht="15.75" customHeight="1">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -3641,7 +3758,7 @@
       <c r="X104" s="12"/>
       <c r="Y104" s="12"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:25" ht="15.75" customHeight="1">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
@@ -3668,7 +3785,7 @@
       <c r="X105" s="12"/>
       <c r="Y105" s="12"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:25" ht="15.75" customHeight="1">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
@@ -3695,7 +3812,7 @@
       <c r="X106" s="12"/>
       <c r="Y106" s="12"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:25" ht="15.75" customHeight="1">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
@@ -3722,7 +3839,7 @@
       <c r="X107" s="12"/>
       <c r="Y107" s="12"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:25" ht="15.75" customHeight="1">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
@@ -3749,7 +3866,7 @@
       <c r="X108" s="12"/>
       <c r="Y108" s="12"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:25" ht="15.75" customHeight="1">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
@@ -3776,7 +3893,7 @@
       <c r="X109" s="12"/>
       <c r="Y109" s="12"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:25" ht="15.75" customHeight="1">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
@@ -3803,7 +3920,7 @@
       <c r="X110" s="12"/>
       <c r="Y110" s="12"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:25" ht="15.75" customHeight="1">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
@@ -3830,7 +3947,7 @@
       <c r="X111" s="12"/>
       <c r="Y111" s="12"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:25" ht="15.75" customHeight="1">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
@@ -3857,7 +3974,7 @@
       <c r="X112" s="12"/>
       <c r="Y112" s="12"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:25" ht="15.75" customHeight="1">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -3884,7 +4001,7 @@
       <c r="X113" s="12"/>
       <c r="Y113" s="12"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:25" ht="15.75" customHeight="1">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -3911,7 +4028,7 @@
       <c r="X114" s="12"/>
       <c r="Y114" s="12"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:25" ht="15.75" customHeight="1">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -3938,7 +4055,7 @@
       <c r="X115" s="12"/>
       <c r="Y115" s="12"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:25" ht="15.75" customHeight="1">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -3965,7 +4082,7 @@
       <c r="X116" s="12"/>
       <c r="Y116" s="12"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:25" ht="15.75" customHeight="1">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
@@ -3992,7 +4109,7 @@
       <c r="X117" s="12"/>
       <c r="Y117" s="12"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:25" ht="15.75" customHeight="1">
       <c r="A118" s="12"/>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
@@ -4019,7 +4136,7 @@
       <c r="X118" s="12"/>
       <c r="Y118" s="12"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:25" ht="15.75" customHeight="1">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
@@ -4046,7 +4163,7 @@
       <c r="X119" s="12"/>
       <c r="Y119" s="12"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:25" ht="15.75" customHeight="1">
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
@@ -4073,7 +4190,7 @@
       <c r="X120" s="12"/>
       <c r="Y120" s="12"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:25" ht="15.75" customHeight="1">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
@@ -4100,7 +4217,7 @@
       <c r="X121" s="12"/>
       <c r="Y121" s="12"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:25" ht="15.75" customHeight="1">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
@@ -4127,7 +4244,7 @@
       <c r="X122" s="12"/>
       <c r="Y122" s="12"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:25" ht="15.75" customHeight="1">
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
@@ -4154,7 +4271,7 @@
       <c r="X123" s="12"/>
       <c r="Y123" s="12"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:25" ht="15.75" customHeight="1">
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
@@ -4181,7 +4298,7 @@
       <c r="X124" s="12"/>
       <c r="Y124" s="12"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:25" ht="15.75" customHeight="1">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
@@ -4208,7 +4325,7 @@
       <c r="X125" s="12"/>
       <c r="Y125" s="12"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:25" ht="15.75" customHeight="1">
       <c r="A126" s="12"/>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
@@ -4235,7 +4352,7 @@
       <c r="X126" s="12"/>
       <c r="Y126" s="12"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:25" ht="15.75" customHeight="1">
       <c r="A127" s="12"/>
       <c r="B127" s="12"/>
       <c r="C127" s="12"/>
@@ -4262,7 +4379,7 @@
       <c r="X127" s="12"/>
       <c r="Y127" s="12"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:25" ht="15.75" customHeight="1">
       <c r="A128" s="12"/>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
@@ -4289,7 +4406,7 @@
       <c r="X128" s="12"/>
       <c r="Y128" s="12"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:25" ht="15.75" customHeight="1">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
@@ -4316,7 +4433,7 @@
       <c r="X129" s="12"/>
       <c r="Y129" s="12"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:25" ht="15.75" customHeight="1">
       <c r="A130" s="12"/>
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
@@ -4343,7 +4460,7 @@
       <c r="X130" s="12"/>
       <c r="Y130" s="12"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:25" ht="15.75" customHeight="1">
       <c r="A131" s="12"/>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
@@ -4370,7 +4487,7 @@
       <c r="X131" s="12"/>
       <c r="Y131" s="12"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:25" ht="15.75" customHeight="1">
       <c r="A132" s="12"/>
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
@@ -4397,7 +4514,7 @@
       <c r="X132" s="12"/>
       <c r="Y132" s="12"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:25" ht="15.75" customHeight="1">
       <c r="A133" s="12"/>
       <c r="B133" s="12"/>
       <c r="C133" s="12"/>
@@ -4424,7 +4541,7 @@
       <c r="X133" s="12"/>
       <c r="Y133" s="12"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:25" ht="15.75" customHeight="1">
       <c r="A134" s="12"/>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
@@ -4451,7 +4568,7 @@
       <c r="X134" s="12"/>
       <c r="Y134" s="12"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:25" ht="15.75" customHeight="1">
       <c r="A135" s="12"/>
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
@@ -4478,7 +4595,7 @@
       <c r="X135" s="12"/>
       <c r="Y135" s="12"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:25" ht="15.75" customHeight="1">
       <c r="A136" s="12"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
@@ -4505,7 +4622,7 @@
       <c r="X136" s="12"/>
       <c r="Y136" s="12"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:25" ht="15.75" customHeight="1">
       <c r="A137" s="12"/>
       <c r="B137" s="12"/>
       <c r="C137" s="12"/>
@@ -4532,7 +4649,7 @@
       <c r="X137" s="12"/>
       <c r="Y137" s="12"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:25" ht="15.75" customHeight="1">
       <c r="A138" s="12"/>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
@@ -4559,7 +4676,7 @@
       <c r="X138" s="12"/>
       <c r="Y138" s="12"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:25" ht="15.75" customHeight="1">
       <c r="A139" s="12"/>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
@@ -4586,7 +4703,7 @@
       <c r="X139" s="12"/>
       <c r="Y139" s="12"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:25" ht="15.75" customHeight="1">
       <c r="A140" s="12"/>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
@@ -4613,7 +4730,7 @@
       <c r="X140" s="12"/>
       <c r="Y140" s="12"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:25" ht="15.75" customHeight="1">
       <c r="A141" s="12"/>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
@@ -4640,7 +4757,7 @@
       <c r="X141" s="12"/>
       <c r="Y141" s="12"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:25" ht="15.75" customHeight="1">
       <c r="A142" s="12"/>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
@@ -4667,7 +4784,7 @@
       <c r="X142" s="12"/>
       <c r="Y142" s="12"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:25" ht="15.75" customHeight="1">
       <c r="A143" s="12"/>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -4694,7 +4811,7 @@
       <c r="X143" s="12"/>
       <c r="Y143" s="12"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:25" ht="15.75" customHeight="1">
       <c r="A144" s="12"/>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
@@ -4721,7 +4838,7 @@
       <c r="X144" s="12"/>
       <c r="Y144" s="12"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:25" ht="15.75" customHeight="1">
       <c r="A145" s="12"/>
       <c r="B145" s="12"/>
       <c r="C145" s="12"/>
@@ -4748,7 +4865,7 @@
       <c r="X145" s="12"/>
       <c r="Y145" s="12"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:25" ht="15.75" customHeight="1">
       <c r="A146" s="12"/>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
@@ -4775,7 +4892,7 @@
       <c r="X146" s="12"/>
       <c r="Y146" s="12"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:25" ht="15.75" customHeight="1">
       <c r="A147" s="12"/>
       <c r="B147" s="12"/>
       <c r="C147" s="12"/>
@@ -4802,7 +4919,7 @@
       <c r="X147" s="12"/>
       <c r="Y147" s="12"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:25" ht="15.75" customHeight="1">
       <c r="A148" s="12"/>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
@@ -4829,7 +4946,7 @@
       <c r="X148" s="12"/>
       <c r="Y148" s="12"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:25" ht="15.75" customHeight="1">
       <c r="A149" s="12"/>
       <c r="B149" s="12"/>
       <c r="C149" s="12"/>
@@ -4856,7 +4973,7 @@
       <c r="X149" s="12"/>
       <c r="Y149" s="12"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:25" ht="15.75" customHeight="1">
       <c r="A150" s="12"/>
       <c r="B150" s="12"/>
       <c r="C150" s="12"/>
@@ -4883,7 +5000,7 @@
       <c r="X150" s="12"/>
       <c r="Y150" s="12"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:25" ht="15.75" customHeight="1">
       <c r="A151" s="12"/>
       <c r="B151" s="12"/>
       <c r="C151" s="12"/>
@@ -4910,7 +5027,7 @@
       <c r="X151" s="12"/>
       <c r="Y151" s="12"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:25" ht="15.75" customHeight="1">
       <c r="A152" s="12"/>
       <c r="B152" s="12"/>
       <c r="C152" s="12"/>
@@ -4937,7 +5054,7 @@
       <c r="X152" s="12"/>
       <c r="Y152" s="12"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:25" ht="15.75" customHeight="1">
       <c r="A153" s="12"/>
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
@@ -4964,7 +5081,7 @@
       <c r="X153" s="12"/>
       <c r="Y153" s="12"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:25" ht="15.75" customHeight="1">
       <c r="A154" s="12"/>
       <c r="B154" s="12"/>
       <c r="C154" s="12"/>
@@ -4991,7 +5108,7 @@
       <c r="X154" s="12"/>
       <c r="Y154" s="12"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:25" ht="15.75" customHeight="1">
       <c r="A155" s="12"/>
       <c r="B155" s="12"/>
       <c r="C155" s="12"/>
@@ -5018,7 +5135,7 @@
       <c r="X155" s="12"/>
       <c r="Y155" s="12"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:25" ht="15.75" customHeight="1">
       <c r="A156" s="12"/>
       <c r="B156" s="12"/>
       <c r="C156" s="12"/>
@@ -5045,7 +5162,7 @@
       <c r="X156" s="12"/>
       <c r="Y156" s="12"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:25" ht="15.75" customHeight="1">
       <c r="A157" s="12"/>
       <c r="B157" s="12"/>
       <c r="C157" s="12"/>
@@ -5072,7 +5189,7 @@
       <c r="X157" s="12"/>
       <c r="Y157" s="12"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:25" ht="15.75" customHeight="1">
       <c r="A158" s="12"/>
       <c r="B158" s="12"/>
       <c r="C158" s="12"/>
@@ -5099,7 +5216,7 @@
       <c r="X158" s="12"/>
       <c r="Y158" s="12"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:25" ht="15.75" customHeight="1">
       <c r="A159" s="12"/>
       <c r="B159" s="12"/>
       <c r="C159" s="12"/>
@@ -5126,7 +5243,7 @@
       <c r="X159" s="12"/>
       <c r="Y159" s="12"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:25" ht="15.75" customHeight="1">
       <c r="A160" s="12"/>
       <c r="B160" s="12"/>
       <c r="C160" s="12"/>
@@ -5153,7 +5270,7 @@
       <c r="X160" s="12"/>
       <c r="Y160" s="12"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:25" ht="15.75" customHeight="1">
       <c r="A161" s="12"/>
       <c r="B161" s="12"/>
       <c r="C161" s="12"/>
@@ -5180,7 +5297,7 @@
       <c r="X161" s="12"/>
       <c r="Y161" s="12"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:25" ht="15.75" customHeight="1">
       <c r="A162" s="12"/>
       <c r="B162" s="12"/>
       <c r="C162" s="12"/>
@@ -5207,7 +5324,7 @@
       <c r="X162" s="12"/>
       <c r="Y162" s="12"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:25" ht="15.75" customHeight="1">
       <c r="A163" s="12"/>
       <c r="B163" s="12"/>
       <c r="C163" s="12"/>
@@ -5234,7 +5351,7 @@
       <c r="X163" s="12"/>
       <c r="Y163" s="12"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:25" ht="15.75" customHeight="1">
       <c r="A164" s="12"/>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
@@ -5261,7 +5378,7 @@
       <c r="X164" s="12"/>
       <c r="Y164" s="12"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:25" ht="15.75" customHeight="1">
       <c r="A165" s="12"/>
       <c r="B165" s="12"/>
       <c r="C165" s="12"/>
@@ -5288,7 +5405,7 @@
       <c r="X165" s="12"/>
       <c r="Y165" s="12"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:25" ht="15.75" customHeight="1">
       <c r="A166" s="12"/>
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
@@ -5315,7 +5432,7 @@
       <c r="X166" s="12"/>
       <c r="Y166" s="12"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:25" ht="15.75" customHeight="1">
       <c r="A167" s="12"/>
       <c r="B167" s="12"/>
       <c r="C167" s="12"/>
@@ -5342,7 +5459,7 @@
       <c r="X167" s="12"/>
       <c r="Y167" s="12"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:25" ht="15.75" customHeight="1">
       <c r="A168" s="12"/>
       <c r="B168" s="12"/>
       <c r="C168" s="12"/>
@@ -5369,7 +5486,7 @@
       <c r="X168" s="12"/>
       <c r="Y168" s="12"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:25" ht="15.75" customHeight="1">
       <c r="A169" s="12"/>
       <c r="B169" s="12"/>
       <c r="C169" s="12"/>
@@ -5396,7 +5513,7 @@
       <c r="X169" s="12"/>
       <c r="Y169" s="12"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:25" ht="15.75" customHeight="1">
       <c r="A170" s="12"/>
       <c r="B170" s="12"/>
       <c r="C170" s="12"/>
@@ -5423,7 +5540,7 @@
       <c r="X170" s="12"/>
       <c r="Y170" s="12"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:25" ht="15.75" customHeight="1">
       <c r="A171" s="12"/>
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
@@ -5450,7 +5567,7 @@
       <c r="X171" s="12"/>
       <c r="Y171" s="12"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:25" ht="15.75" customHeight="1">
       <c r="A172" s="12"/>
       <c r="B172" s="12"/>
       <c r="C172" s="12"/>
@@ -5477,7 +5594,7 @@
       <c r="X172" s="12"/>
       <c r="Y172" s="12"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:25" ht="15.75" customHeight="1">
       <c r="A173" s="12"/>
       <c r="B173" s="12"/>
       <c r="C173" s="12"/>
@@ -5504,7 +5621,7 @@
       <c r="X173" s="12"/>
       <c r="Y173" s="12"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:25" ht="15.75" customHeight="1">
       <c r="A174" s="12"/>
       <c r="B174" s="12"/>
       <c r="C174" s="12"/>
@@ -5531,7 +5648,7 @@
       <c r="X174" s="12"/>
       <c r="Y174" s="12"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:25" ht="15.75" customHeight="1">
       <c r="A175" s="12"/>
       <c r="B175" s="12"/>
       <c r="C175" s="12"/>
@@ -5558,7 +5675,7 @@
       <c r="X175" s="12"/>
       <c r="Y175" s="12"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:25" ht="15.75" customHeight="1">
       <c r="A176" s="12"/>
       <c r="B176" s="12"/>
       <c r="C176" s="12"/>
@@ -5585,7 +5702,7 @@
       <c r="X176" s="12"/>
       <c r="Y176" s="12"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:25" ht="15.75" customHeight="1">
       <c r="A177" s="12"/>
       <c r="B177" s="12"/>
       <c r="C177" s="12"/>
@@ -5612,7 +5729,7 @@
       <c r="X177" s="12"/>
       <c r="Y177" s="12"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:25" ht="15.75" customHeight="1">
       <c r="A178" s="12"/>
       <c r="B178" s="12"/>
       <c r="C178" s="12"/>
@@ -5639,7 +5756,7 @@
       <c r="X178" s="12"/>
       <c r="Y178" s="12"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:25" ht="15.75" customHeight="1">
       <c r="A179" s="12"/>
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>
@@ -5666,7 +5783,7 @@
       <c r="X179" s="12"/>
       <c r="Y179" s="12"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:25" ht="15.75" customHeight="1">
       <c r="A180" s="12"/>
       <c r="B180" s="12"/>
       <c r="C180" s="12"/>
@@ -5693,7 +5810,7 @@
       <c r="X180" s="12"/>
       <c r="Y180" s="12"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:25" ht="15.75" customHeight="1">
       <c r="A181" s="12"/>
       <c r="B181" s="12"/>
       <c r="C181" s="12"/>
@@ -5720,7 +5837,7 @@
       <c r="X181" s="12"/>
       <c r="Y181" s="12"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:25" ht="15.75" customHeight="1">
       <c r="A182" s="12"/>
       <c r="B182" s="12"/>
       <c r="C182" s="12"/>
@@ -5747,7 +5864,7 @@
       <c r="X182" s="12"/>
       <c r="Y182" s="12"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:25" ht="15.75" customHeight="1">
       <c r="A183" s="12"/>
       <c r="B183" s="12"/>
       <c r="C183" s="12"/>
@@ -5774,7 +5891,7 @@
       <c r="X183" s="12"/>
       <c r="Y183" s="12"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:25" ht="15.75" customHeight="1">
       <c r="A184" s="12"/>
       <c r="B184" s="12"/>
       <c r="C184" s="12"/>
@@ -5801,7 +5918,7 @@
       <c r="X184" s="12"/>
       <c r="Y184" s="12"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:25" ht="15.75" customHeight="1">
       <c r="A185" s="12"/>
       <c r="B185" s="12"/>
       <c r="C185" s="12"/>
@@ -5828,7 +5945,7 @@
       <c r="X185" s="12"/>
       <c r="Y185" s="12"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:25" ht="15.75" customHeight="1">
       <c r="A186" s="12"/>
       <c r="B186" s="12"/>
       <c r="C186" s="12"/>
@@ -5855,7 +5972,7 @@
       <c r="X186" s="12"/>
       <c r="Y186" s="12"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:25" ht="15.75" customHeight="1">
       <c r="A187" s="12"/>
       <c r="B187" s="12"/>
       <c r="C187" s="12"/>
@@ -5882,7 +5999,7 @@
       <c r="X187" s="12"/>
       <c r="Y187" s="12"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:25" ht="15.75" customHeight="1">
       <c r="A188" s="12"/>
       <c r="B188" s="12"/>
       <c r="C188" s="12"/>
@@ -5909,7 +6026,7 @@
       <c r="X188" s="12"/>
       <c r="Y188" s="12"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:25" ht="15.75" customHeight="1">
       <c r="A189" s="12"/>
       <c r="B189" s="12"/>
       <c r="C189" s="12"/>
@@ -5936,7 +6053,7 @@
       <c r="X189" s="12"/>
       <c r="Y189" s="12"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:25" ht="15.75" customHeight="1">
       <c r="A190" s="12"/>
       <c r="B190" s="12"/>
       <c r="C190" s="12"/>
@@ -5963,7 +6080,7 @@
       <c r="X190" s="12"/>
       <c r="Y190" s="12"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:25" ht="15.75" customHeight="1">
       <c r="A191" s="12"/>
       <c r="B191" s="12"/>
       <c r="C191" s="12"/>
@@ -5990,7 +6107,7 @@
       <c r="X191" s="12"/>
       <c r="Y191" s="12"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:25" ht="15.75" customHeight="1">
       <c r="A192" s="12"/>
       <c r="B192" s="12"/>
       <c r="C192" s="12"/>
@@ -6017,7 +6134,7 @@
       <c r="X192" s="12"/>
       <c r="Y192" s="12"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:25" ht="15.75" customHeight="1">
       <c r="A193" s="12"/>
       <c r="B193" s="12"/>
       <c r="C193" s="12"/>
@@ -6044,7 +6161,7 @@
       <c r="X193" s="12"/>
       <c r="Y193" s="12"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:25" ht="15.75" customHeight="1">
       <c r="A194" s="12"/>
       <c r="B194" s="12"/>
       <c r="C194" s="12"/>
@@ -6071,7 +6188,7 @@
       <c r="X194" s="12"/>
       <c r="Y194" s="12"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:25" ht="15.75" customHeight="1">
       <c r="A195" s="12"/>
       <c r="B195" s="12"/>
       <c r="C195" s="12"/>
@@ -6098,7 +6215,7 @@
       <c r="X195" s="12"/>
       <c r="Y195" s="12"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:25" ht="15.75" customHeight="1">
       <c r="A196" s="12"/>
       <c r="B196" s="12"/>
       <c r="C196" s="12"/>
@@ -6125,7 +6242,7 @@
       <c r="X196" s="12"/>
       <c r="Y196" s="12"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:25" ht="15.75" customHeight="1">
       <c r="A197" s="12"/>
       <c r="B197" s="12"/>
       <c r="C197" s="12"/>
@@ -6152,7 +6269,7 @@
       <c r="X197" s="12"/>
       <c r="Y197" s="12"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:25" ht="15.75" customHeight="1">
       <c r="A198" s="12"/>
       <c r="B198" s="12"/>
       <c r="C198" s="12"/>
@@ -6179,7 +6296,7 @@
       <c r="X198" s="12"/>
       <c r="Y198" s="12"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:25" ht="15.75" customHeight="1">
       <c r="A199" s="12"/>
       <c r="B199" s="12"/>
       <c r="C199" s="12"/>
@@ -6206,7 +6323,7 @@
       <c r="X199" s="12"/>
       <c r="Y199" s="12"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:25" ht="15.75" customHeight="1">
       <c r="A200" s="12"/>
       <c r="B200" s="12"/>
       <c r="C200" s="12"/>
@@ -6233,7 +6350,7 @@
       <c r="X200" s="12"/>
       <c r="Y200" s="12"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:25" ht="15.75" customHeight="1">
       <c r="A201" s="12"/>
       <c r="B201" s="12"/>
       <c r="C201" s="12"/>
@@ -6260,7 +6377,7 @@
       <c r="X201" s="12"/>
       <c r="Y201" s="12"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:25" ht="15.75" customHeight="1">
       <c r="A202" s="12"/>
       <c r="B202" s="12"/>
       <c r="C202" s="12"/>
@@ -6287,7 +6404,7 @@
       <c r="X202" s="12"/>
       <c r="Y202" s="12"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:25" ht="15.75" customHeight="1">
       <c r="A203" s="12"/>
       <c r="B203" s="12"/>
       <c r="C203" s="12"/>
@@ -6314,7 +6431,7 @@
       <c r="X203" s="12"/>
       <c r="Y203" s="12"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:25" ht="15.75" customHeight="1">
       <c r="A204" s="12"/>
       <c r="B204" s="12"/>
       <c r="C204" s="12"/>
@@ -6341,7 +6458,7 @@
       <c r="X204" s="12"/>
       <c r="Y204" s="12"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:25" ht="15.75" customHeight="1">
       <c r="A205" s="12"/>
       <c r="B205" s="12"/>
       <c r="C205" s="12"/>
@@ -6368,7 +6485,7 @@
       <c r="X205" s="12"/>
       <c r="Y205" s="12"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:25" ht="15.75" customHeight="1">
       <c r="A206" s="12"/>
       <c r="B206" s="12"/>
       <c r="C206" s="12"/>
@@ -6395,7 +6512,7 @@
       <c r="X206" s="12"/>
       <c r="Y206" s="12"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:25" ht="15.75" customHeight="1">
       <c r="A207" s="12"/>
       <c r="B207" s="12"/>
       <c r="C207" s="12"/>
@@ -6422,7 +6539,7 @@
       <c r="X207" s="12"/>
       <c r="Y207" s="12"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:25" ht="15.75" customHeight="1">
       <c r="A208" s="12"/>
       <c r="B208" s="12"/>
       <c r="C208" s="12"/>
@@ -6449,7 +6566,7 @@
       <c r="X208" s="12"/>
       <c r="Y208" s="12"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:25" ht="15.75" customHeight="1">
       <c r="A209" s="12"/>
       <c r="B209" s="12"/>
       <c r="C209" s="12"/>
@@ -6476,7 +6593,7 @@
       <c r="X209" s="12"/>
       <c r="Y209" s="12"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:25" ht="15.75" customHeight="1">
       <c r="A210" s="12"/>
       <c r="B210" s="12"/>
       <c r="C210" s="12"/>
@@ -6503,7 +6620,7 @@
       <c r="X210" s="12"/>
       <c r="Y210" s="12"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:25" ht="15.75" customHeight="1">
       <c r="A211" s="12"/>
       <c r="B211" s="12"/>
       <c r="C211" s="12"/>
@@ -6530,7 +6647,7 @@
       <c r="X211" s="12"/>
       <c r="Y211" s="12"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:25" ht="15.75" customHeight="1">
       <c r="A212" s="12"/>
       <c r="B212" s="12"/>
       <c r="C212" s="12"/>
@@ -6557,7 +6674,7 @@
       <c r="X212" s="12"/>
       <c r="Y212" s="12"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:25" ht="15.75" customHeight="1">
       <c r="A213" s="12"/>
       <c r="B213" s="12"/>
       <c r="C213" s="12"/>
@@ -6584,7 +6701,7 @@
       <c r="X213" s="12"/>
       <c r="Y213" s="12"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:25" ht="15.75" customHeight="1">
       <c r="A214" s="12"/>
       <c r="B214" s="12"/>
       <c r="C214" s="12"/>
@@ -6611,7 +6728,7 @@
       <c r="X214" s="12"/>
       <c r="Y214" s="12"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:25" ht="15.75" customHeight="1">
       <c r="A215" s="12"/>
       <c r="B215" s="12"/>
       <c r="C215" s="12"/>
@@ -6638,7 +6755,7 @@
       <c r="X215" s="12"/>
       <c r="Y215" s="12"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:25" ht="15.75" customHeight="1">
       <c r="A216" s="12"/>
       <c r="B216" s="12"/>
       <c r="C216" s="12"/>
@@ -6665,7 +6782,7 @@
       <c r="X216" s="12"/>
       <c r="Y216" s="12"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:25" ht="15.75" customHeight="1">
       <c r="A217" s="12"/>
       <c r="B217" s="12"/>
       <c r="C217" s="12"/>
@@ -6692,7 +6809,7 @@
       <c r="X217" s="12"/>
       <c r="Y217" s="12"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:25" ht="15.75" customHeight="1">
       <c r="A218" s="12"/>
       <c r="B218" s="12"/>
       <c r="C218" s="12"/>
@@ -6719,7 +6836,7 @@
       <c r="X218" s="12"/>
       <c r="Y218" s="12"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:25" ht="15.75" customHeight="1">
       <c r="A219" s="12"/>
       <c r="B219" s="12"/>
       <c r="C219" s="12"/>
@@ -6746,7 +6863,7 @@
       <c r="X219" s="12"/>
       <c r="Y219" s="12"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:25" ht="15.75" customHeight="1">
       <c r="A220" s="12"/>
       <c r="B220" s="12"/>
       <c r="C220" s="12"/>
@@ -7554,90 +7671,93 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="21.13"/>
-    <col customWidth="1" min="5" max="5" width="31.38"/>
+    <col min="2" max="2" customWidth="true" width="21.142857142857142"/>
+    <col min="5" max="5" customWidth="true" width="31.428571428571427"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:5" ht="15">
+      <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>39</v>
+      <c r="B1" s="16" t="s">
+        <v>33</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>13</v>
+      <c r="C1" s="16" t="s">
+        <v>9</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>40</v>
+      <c r="D1" s="16" t="s">
+        <v>34</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>41</v>
+      <c r="E1" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2">
-      <formula1>"1,2"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" ht="15">
       <c r="A1" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" ht="15">
       <c r="A2" s="6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a8934887-2acd-469b-8ed5-533fbe88b3c4}">
+  <dimension ref="A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="5" spans="1:1" ht="23.25" customHeight="1">
+      <c r="A5" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -1,31 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tool_test_game\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEC982D-7D64-4C3B-9006-112C4B1849C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1140" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Scope" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan" sheetId="2" r:id="rId2"/>
-    <sheet name="Options" sheetId="3" r:id="rId3"/>
-    <sheet name="Group-Turn" sheetId="4" r:id="rId4"/>
-    <sheet name="Note" sheetId="5" r:id="rId5"/>
-    <sheet name="Evaluation Warning" sheetId="9" r:id="rId6"/>
+    <sheet name="Scope" sheetId="1" r:id="rId3"/>
+    <sheet name="Plan" sheetId="2" r:id="rId4"/>
+    <sheet name="Options" sheetId="3" r:id="rId5"/>
+    <sheet name="Group-Turn" sheetId="4" r:id="rId6"/>
+    <sheet name="Note" sheetId="5" r:id="rId7"/>
+    <sheet name="Evaluation Warning" sheetId="22" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>STT</t>
   </si>
@@ -40,9 +39,6 @@
   </si>
   <si>
     <t>GroupID</t>
-  </si>
-  <si>
-    <t>Report_BE.GP06SoundVocabMatching(Clone)</t>
   </si>
   <si>
     <t>Y</t>
@@ -152,12 +148,16 @@
   <si>
     <t>Evaluation Only. Created with Aspose.Cells for Java.Copyright 2003 - 2021 Aspose Pty Ltd.</t>
   </si>
+  <si>
+    <t>Report_BE.RS02WordMachine(Clone)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -263,10 +263,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -293,9 +315,66 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -324,6 +403,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -532,25 +679,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0388E7AB-5141-4C6A-9D1A-96678E51502C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0388E7AB-5141-4C6A-9D1A-96678E51502C}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" topLeftCell="A1">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D2" sqref="D2"/>
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
-    <col min="3" max="6" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="5.857142857142857"/>
+    <col min="2" max="2" customWidth="true" width="45.714285714285715"/>
+    <col min="3" max="6" customWidth="true" width="12.571428571428571"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,18 +735,18 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1">
       <c r="A2" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="3"/>
@@ -622,7 +770,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -649,7 +797,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -676,7 +824,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -703,7 +851,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -730,184 +878,515 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
+    <row r="7" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+    </row>
+    <row r="10" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+    </row>
+    <row r="11" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+    </row>
+    <row r="13" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+    </row>
+    <row r="14" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+    </row>
+    <row r="18" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+    </row>
+    <row r="19" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D6">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="D1:D19">
+    <cfRule type="cellIs" priority="1" dxfId="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" priority="2" dxfId="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" priority="3" dxfId="0" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E19">
+      <formula1>'Group-Turn'!$A:$A</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>'Group-Turn'!$A:$A</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2:E6</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A823D49-3ECE-41E6-9052-6B54B9FD6041}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A823D49-3ECE-41E6-9052-6B54B9FD6041}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="8" width="26.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.142857142857142"/>
+    <col min="2" max="4" customWidth="true" width="12.571428571428571"/>
+    <col min="5" max="5" customWidth="true" width="13.714285714285714"/>
+    <col min="6" max="6" customWidth="true" width="12.571428571428571"/>
+    <col min="7" max="8" customWidth="true" width="26.428571428571427"/>
+    <col min="9" max="9" customWidth="true" width="15.571428571428571"/>
+    <col min="12" max="12" customWidth="true" width="24.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1">
       <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="16.5">
+      <c r="A2" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="11">
-        <v>1</v>
+      <c r="H2" s="12" t="s">
+        <v>34</v>
       </c>
-      <c r="D2" s="11">
-        <v>1</v>
-      </c>
-      <c r="E2" s="11">
-        <v>1</v>
-      </c>
-      <c r="F2" s="11">
-        <v>1</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>35</v>
+      <c r="J2" s="11" t="n">
+        <v>0.0</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="11">
-        <v>0</v>
-      </c>
-      <c r="K2" s="11">
-        <v>0</v>
+      <c r="K2" s="11" t="n">
+        <v>0.0</v>
       </c>
       <c r="L2" s="12"/>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2">
+      <formula1>Options!$C:$C</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2">
+      <formula1>Options!$A$2:$A2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2">
+      <formula1>Options!$B$2:$B2</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
-          <x14:formula1>
-            <xm:f>Options!$C:$C</xm:f>
-          </x14:formula1>
-          <xm:sqref>I2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
-          <x14:formula1>
-            <xm:f>Options!$A$2:$A2</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
-          <x14:formula1>
-            <xm:f>Options!$B$2:$B2</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEDEEE1-AE87-43AE-8245-93CE1AC16CA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEDEEE1-AE87-43AE-8245-93CE1AC16CA0}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="12.5703125" customWidth="1"/>
+    <col min="1" max="6" customWidth="true" width="12.571428571428571"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="15" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
@@ -932,15 +1411,15 @@
       <c r="X1" s="14"/>
       <c r="Y1" s="14"/>
     </row>
-    <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -965,15 +1444,15 @@
       <c r="X2" s="14"/>
       <c r="Y2" s="14"/>
     </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="15" customHeight="1">
       <c r="A3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -998,13 +1477,13 @@
       <c r="X3" s="14"/>
       <c r="Y3" s="14"/>
     </row>
-    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="15" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -1029,13 +1508,13 @@
       <c r="X4" s="14"/>
       <c r="Y4" s="14"/>
     </row>
-    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -1060,9 +1539,9 @@
       <c r="X5" s="14"/>
       <c r="Y5" s="14"/>
     </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="15" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1089,9 +1568,9 @@
       <c r="X6" s="14"/>
       <c r="Y6" s="14"/>
     </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="15" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -1118,9 +1597,9 @@
       <c r="X7" s="14"/>
       <c r="Y7" s="14"/>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="15" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -1147,9 +1626,9 @@
       <c r="X8" s="14"/>
       <c r="Y8" s="14"/>
     </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="15" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -1176,7 +1655,7 @@
       <c r="X9" s="14"/>
       <c r="Y9" s="14"/>
     </row>
-    <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="15" customHeight="1">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -1203,7 +1682,7 @@
       <c r="X10" s="14"/>
       <c r="Y10" s="14"/>
     </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="15" customHeight="1">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -1230,7 +1709,7 @@
       <c r="X11" s="14"/>
       <c r="Y11" s="14"/>
     </row>
-    <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="15" customHeight="1">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -1257,7 +1736,7 @@
       <c r="X12" s="14"/>
       <c r="Y12" s="14"/>
     </row>
-    <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="15" customHeight="1">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -1284,7 +1763,7 @@
       <c r="X13" s="14"/>
       <c r="Y13" s="14"/>
     </row>
-    <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="15" customHeight="1">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -1311,7 +1790,7 @@
       <c r="X14" s="14"/>
       <c r="Y14" s="14"/>
     </row>
-    <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="15" customHeight="1">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -1338,7 +1817,7 @@
       <c r="X15" s="14"/>
       <c r="Y15" s="14"/>
     </row>
-    <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="15" customHeight="1">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -1365,7 +1844,7 @@
       <c r="X16" s="14"/>
       <c r="Y16" s="14"/>
     </row>
-    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="15" customHeight="1">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -1392,7 +1871,7 @@
       <c r="X17" s="14"/>
       <c r="Y17" s="14"/>
     </row>
-    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="15" customHeight="1">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -1419,7 +1898,7 @@
       <c r="X18" s="14"/>
       <c r="Y18" s="14"/>
     </row>
-    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="15" customHeight="1">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -1446,7 +1925,7 @@
       <c r="X19" s="14"/>
       <c r="Y19" s="14"/>
     </row>
-    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="15" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -1473,7 +1952,7 @@
       <c r="X20" s="14"/>
       <c r="Y20" s="14"/>
     </row>
-    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="15" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -1500,7 +1979,7 @@
       <c r="X21" s="14"/>
       <c r="Y21" s="14"/>
     </row>
-    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="15" customHeight="1">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -1527,7 +2006,7 @@
       <c r="X22" s="14"/>
       <c r="Y22" s="14"/>
     </row>
-    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="15" customHeight="1">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -1554,7 +2033,7 @@
       <c r="X23" s="14"/>
       <c r="Y23" s="14"/>
     </row>
-    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="15" customHeight="1">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -1581,7 +2060,7 @@
       <c r="X24" s="14"/>
       <c r="Y24" s="14"/>
     </row>
-    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="15" customHeight="1">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -1608,7 +2087,7 @@
       <c r="X25" s="14"/>
       <c r="Y25" s="14"/>
     </row>
-    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="15" customHeight="1">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -1635,7 +2114,7 @@
       <c r="X26" s="14"/>
       <c r="Y26" s="14"/>
     </row>
-    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="15" customHeight="1">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -1662,7 +2141,7 @@
       <c r="X27" s="14"/>
       <c r="Y27" s="14"/>
     </row>
-    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="15" customHeight="1">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -1689,7 +2168,7 @@
       <c r="X28" s="14"/>
       <c r="Y28" s="14"/>
     </row>
-    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="15" customHeight="1">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -1716,7 +2195,7 @@
       <c r="X29" s="14"/>
       <c r="Y29" s="14"/>
     </row>
-    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="15" customHeight="1">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -1743,7 +2222,7 @@
       <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
     </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -1770,7 +2249,7 @@
       <c r="X31" s="14"/>
       <c r="Y31" s="14"/>
     </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -1797,7 +2276,7 @@
       <c r="X32" s="14"/>
       <c r="Y32" s="14"/>
     </row>
-    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" ht="15.75" customHeight="1">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -1824,7 +2303,7 @@
       <c r="X33" s="14"/>
       <c r="Y33" s="14"/>
     </row>
-    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" ht="15.75" customHeight="1">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -1851,7 +2330,7 @@
       <c r="X34" s="14"/>
       <c r="Y34" s="14"/>
     </row>
-    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" ht="15.75" customHeight="1">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -1878,7 +2357,7 @@
       <c r="X35" s="14"/>
       <c r="Y35" s="14"/>
     </row>
-    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" ht="15.75" customHeight="1">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -1905,7 +2384,7 @@
       <c r="X36" s="14"/>
       <c r="Y36" s="14"/>
     </row>
-    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" ht="15.75" customHeight="1">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -1932,7 +2411,7 @@
       <c r="X37" s="14"/>
       <c r="Y37" s="14"/>
     </row>
-    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" ht="15.75" customHeight="1">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -1959,7 +2438,7 @@
       <c r="X38" s="14"/>
       <c r="Y38" s="14"/>
     </row>
-    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="15.75" customHeight="1">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -1986,7 +2465,7 @@
       <c r="X39" s="14"/>
       <c r="Y39" s="14"/>
     </row>
-    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" ht="15.75" customHeight="1">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -2013,7 +2492,7 @@
       <c r="X40" s="14"/>
       <c r="Y40" s="14"/>
     </row>
-    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" ht="15.75" customHeight="1">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -2040,7 +2519,7 @@
       <c r="X41" s="14"/>
       <c r="Y41" s="14"/>
     </row>
-    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" ht="15.75" customHeight="1">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -2067,7 +2546,7 @@
       <c r="X42" s="14"/>
       <c r="Y42" s="14"/>
     </row>
-    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" ht="15.75" customHeight="1">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -2094,7 +2573,7 @@
       <c r="X43" s="14"/>
       <c r="Y43" s="14"/>
     </row>
-    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" ht="15.75" customHeight="1">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -2121,7 +2600,7 @@
       <c r="X44" s="14"/>
       <c r="Y44" s="14"/>
     </row>
-    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" ht="15.75" customHeight="1">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -2148,7 +2627,7 @@
       <c r="X45" s="14"/>
       <c r="Y45" s="14"/>
     </row>
-    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" ht="15.75" customHeight="1">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -2175,7 +2654,7 @@
       <c r="X46" s="14"/>
       <c r="Y46" s="14"/>
     </row>
-    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" ht="15.75" customHeight="1">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -2202,7 +2681,7 @@
       <c r="X47" s="14"/>
       <c r="Y47" s="14"/>
     </row>
-    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" ht="15.75" customHeight="1">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -2229,7 +2708,7 @@
       <c r="X48" s="14"/>
       <c r="Y48" s="14"/>
     </row>
-    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" ht="15.75" customHeight="1">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -2256,7 +2735,7 @@
       <c r="X49" s="14"/>
       <c r="Y49" s="14"/>
     </row>
-    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" ht="15.75" customHeight="1">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -2283,7 +2762,7 @@
       <c r="X50" s="14"/>
       <c r="Y50" s="14"/>
     </row>
-    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" ht="15.75" customHeight="1">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -2310,7 +2789,7 @@
       <c r="X51" s="14"/>
       <c r="Y51" s="14"/>
     </row>
-    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" ht="15.75" customHeight="1">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -2337,7 +2816,7 @@
       <c r="X52" s="14"/>
       <c r="Y52" s="14"/>
     </row>
-    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -2364,7 +2843,7 @@
       <c r="X53" s="14"/>
       <c r="Y53" s="14"/>
     </row>
-    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -2391,7 +2870,7 @@
       <c r="X54" s="14"/>
       <c r="Y54" s="14"/>
     </row>
-    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" ht="15.75" customHeight="1">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -2418,7 +2897,7 @@
       <c r="X55" s="14"/>
       <c r="Y55" s="14"/>
     </row>
-    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" ht="15.75" customHeight="1">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -2445,7 +2924,7 @@
       <c r="X56" s="14"/>
       <c r="Y56" s="14"/>
     </row>
-    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" ht="15.75" customHeight="1">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -2472,7 +2951,7 @@
       <c r="X57" s="14"/>
       <c r="Y57" s="14"/>
     </row>
-    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" ht="15.75" customHeight="1">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -2499,7 +2978,7 @@
       <c r="X58" s="14"/>
       <c r="Y58" s="14"/>
     </row>
-    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" ht="15.75" customHeight="1">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -2526,7 +3005,7 @@
       <c r="X59" s="14"/>
       <c r="Y59" s="14"/>
     </row>
-    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" ht="15.75" customHeight="1">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -2553,7 +3032,7 @@
       <c r="X60" s="14"/>
       <c r="Y60" s="14"/>
     </row>
-    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" ht="15.75" customHeight="1">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -2580,7 +3059,7 @@
       <c r="X61" s="14"/>
       <c r="Y61" s="14"/>
     </row>
-    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" ht="15.75" customHeight="1">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -2607,7 +3086,7 @@
       <c r="X62" s="14"/>
       <c r="Y62" s="14"/>
     </row>
-    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" ht="15.75" customHeight="1">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -2634,7 +3113,7 @@
       <c r="X63" s="14"/>
       <c r="Y63" s="14"/>
     </row>
-    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" ht="15.75" customHeight="1">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -2661,7 +3140,7 @@
       <c r="X64" s="14"/>
       <c r="Y64" s="14"/>
     </row>
-    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" ht="15.75" customHeight="1">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -2688,7 +3167,7 @@
       <c r="X65" s="14"/>
       <c r="Y65" s="14"/>
     </row>
-    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" ht="15.75" customHeight="1">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -2715,7 +3194,7 @@
       <c r="X66" s="14"/>
       <c r="Y66" s="14"/>
     </row>
-    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" ht="15.75" customHeight="1">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -2742,7 +3221,7 @@
       <c r="X67" s="14"/>
       <c r="Y67" s="14"/>
     </row>
-    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" ht="15.75" customHeight="1">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -2769,7 +3248,7 @@
       <c r="X68" s="14"/>
       <c r="Y68" s="14"/>
     </row>
-    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" ht="15.75" customHeight="1">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -2796,7 +3275,7 @@
       <c r="X69" s="14"/>
       <c r="Y69" s="14"/>
     </row>
-    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" ht="15.75" customHeight="1">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -2823,7 +3302,7 @@
       <c r="X70" s="14"/>
       <c r="Y70" s="14"/>
     </row>
-    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" ht="15.75" customHeight="1">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -2850,7 +3329,7 @@
       <c r="X71" s="14"/>
       <c r="Y71" s="14"/>
     </row>
-    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" ht="15.75" customHeight="1">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -2877,7 +3356,7 @@
       <c r="X72" s="14"/>
       <c r="Y72" s="14"/>
     </row>
-    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" ht="15.75" customHeight="1">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -2904,7 +3383,7 @@
       <c r="X73" s="14"/>
       <c r="Y73" s="14"/>
     </row>
-    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" ht="15.75" customHeight="1">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -2931,7 +3410,7 @@
       <c r="X74" s="14"/>
       <c r="Y74" s="14"/>
     </row>
-    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" ht="15.75" customHeight="1">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -2958,7 +3437,7 @@
       <c r="X75" s="14"/>
       <c r="Y75" s="14"/>
     </row>
-    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" ht="15.75" customHeight="1">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -2985,7 +3464,7 @@
       <c r="X76" s="14"/>
       <c r="Y76" s="14"/>
     </row>
-    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" ht="15.75" customHeight="1">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -3012,7 +3491,7 @@
       <c r="X77" s="14"/>
       <c r="Y77" s="14"/>
     </row>
-    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" ht="15.75" customHeight="1">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -3039,7 +3518,7 @@
       <c r="X78" s="14"/>
       <c r="Y78" s="14"/>
     </row>
-    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" ht="15.75" customHeight="1">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -3066,7 +3545,7 @@
       <c r="X79" s="14"/>
       <c r="Y79" s="14"/>
     </row>
-    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" ht="15.75" customHeight="1">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -3093,7 +3572,7 @@
       <c r="X80" s="14"/>
       <c r="Y80" s="14"/>
     </row>
-    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" ht="15.75" customHeight="1">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -3120,7 +3599,7 @@
       <c r="X81" s="14"/>
       <c r="Y81" s="14"/>
     </row>
-    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" ht="15.75" customHeight="1">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -3147,7 +3626,7 @@
       <c r="X82" s="14"/>
       <c r="Y82" s="14"/>
     </row>
-    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" ht="15.75" customHeight="1">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -3174,7 +3653,7 @@
       <c r="X83" s="14"/>
       <c r="Y83" s="14"/>
     </row>
-    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" ht="15.75" customHeight="1">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -3201,7 +3680,7 @@
       <c r="X84" s="14"/>
       <c r="Y84" s="14"/>
     </row>
-    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" ht="15.75" customHeight="1">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -3228,7 +3707,7 @@
       <c r="X85" s="14"/>
       <c r="Y85" s="14"/>
     </row>
-    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" ht="15.75" customHeight="1">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -3255,7 +3734,7 @@
       <c r="X86" s="14"/>
       <c r="Y86" s="14"/>
     </row>
-    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" ht="15.75" customHeight="1">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -3282,7 +3761,7 @@
       <c r="X87" s="14"/>
       <c r="Y87" s="14"/>
     </row>
-    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" ht="15.75" customHeight="1">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -3309,7 +3788,7 @@
       <c r="X88" s="14"/>
       <c r="Y88" s="14"/>
     </row>
-    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" ht="15.75" customHeight="1">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -3336,7 +3815,7 @@
       <c r="X89" s="14"/>
       <c r="Y89" s="14"/>
     </row>
-    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" ht="15.75" customHeight="1">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -3363,7 +3842,7 @@
       <c r="X90" s="14"/>
       <c r="Y90" s="14"/>
     </row>
-    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" ht="15.75" customHeight="1">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -3390,7 +3869,7 @@
       <c r="X91" s="14"/>
       <c r="Y91" s="14"/>
     </row>
-    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" ht="15.75" customHeight="1">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -3417,7 +3896,7 @@
       <c r="X92" s="14"/>
       <c r="Y92" s="14"/>
     </row>
-    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" ht="15.75" customHeight="1">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -3444,7 +3923,7 @@
       <c r="X93" s="14"/>
       <c r="Y93" s="14"/>
     </row>
-    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" ht="15.75" customHeight="1">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -3471,7 +3950,7 @@
       <c r="X94" s="14"/>
       <c r="Y94" s="14"/>
     </row>
-    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" ht="15.75" customHeight="1">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -3498,7 +3977,7 @@
       <c r="X95" s="14"/>
       <c r="Y95" s="14"/>
     </row>
-    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" ht="15.75" customHeight="1">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -3525,7 +4004,7 @@
       <c r="X96" s="14"/>
       <c r="Y96" s="14"/>
     </row>
-    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" ht="15.75" customHeight="1">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -3552,7 +4031,7 @@
       <c r="X97" s="14"/>
       <c r="Y97" s="14"/>
     </row>
-    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" ht="15.75" customHeight="1">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -3579,7 +4058,7 @@
       <c r="X98" s="14"/>
       <c r="Y98" s="14"/>
     </row>
-    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" ht="15.75" customHeight="1">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -3606,7 +4085,7 @@
       <c r="X99" s="14"/>
       <c r="Y99" s="14"/>
     </row>
-    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" ht="15.75" customHeight="1">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -3633,7 +4112,7 @@
       <c r="X100" s="14"/>
       <c r="Y100" s="14"/>
     </row>
-    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" ht="15.75" customHeight="1">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -3660,7 +4139,7 @@
       <c r="X101" s="14"/>
       <c r="Y101" s="14"/>
     </row>
-    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" ht="15.75" customHeight="1">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -3687,7 +4166,7 @@
       <c r="X102" s="14"/>
       <c r="Y102" s="14"/>
     </row>
-    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" ht="15.75" customHeight="1">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -3714,7 +4193,7 @@
       <c r="X103" s="14"/>
       <c r="Y103" s="14"/>
     </row>
-    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" ht="15.75" customHeight="1">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -3741,7 +4220,7 @@
       <c r="X104" s="14"/>
       <c r="Y104" s="14"/>
     </row>
-    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" ht="15.75" customHeight="1">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -3768,7 +4247,7 @@
       <c r="X105" s="14"/>
       <c r="Y105" s="14"/>
     </row>
-    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" ht="15.75" customHeight="1">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -3795,7 +4274,7 @@
       <c r="X106" s="14"/>
       <c r="Y106" s="14"/>
     </row>
-    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" ht="15.75" customHeight="1">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -3822,7 +4301,7 @@
       <c r="X107" s="14"/>
       <c r="Y107" s="14"/>
     </row>
-    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" ht="15.75" customHeight="1">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -3849,7 +4328,7 @@
       <c r="X108" s="14"/>
       <c r="Y108" s="14"/>
     </row>
-    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" ht="15.75" customHeight="1">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -3876,7 +4355,7 @@
       <c r="X109" s="14"/>
       <c r="Y109" s="14"/>
     </row>
-    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" ht="15.75" customHeight="1">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -3903,7 +4382,7 @@
       <c r="X110" s="14"/>
       <c r="Y110" s="14"/>
     </row>
-    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" ht="15.75" customHeight="1">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -3930,7 +4409,7 @@
       <c r="X111" s="14"/>
       <c r="Y111" s="14"/>
     </row>
-    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" ht="15.75" customHeight="1">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -3957,7 +4436,7 @@
       <c r="X112" s="14"/>
       <c r="Y112" s="14"/>
     </row>
-    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" ht="15.75" customHeight="1">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -3984,7 +4463,7 @@
       <c r="X113" s="14"/>
       <c r="Y113" s="14"/>
     </row>
-    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" ht="15.75" customHeight="1">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -4011,7 +4490,7 @@
       <c r="X114" s="14"/>
       <c r="Y114" s="14"/>
     </row>
-    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" ht="15.75" customHeight="1">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -4038,7 +4517,7 @@
       <c r="X115" s="14"/>
       <c r="Y115" s="14"/>
     </row>
-    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" ht="15.75" customHeight="1">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -4065,7 +4544,7 @@
       <c r="X116" s="14"/>
       <c r="Y116" s="14"/>
     </row>
-    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" ht="15.75" customHeight="1">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -4092,7 +4571,7 @@
       <c r="X117" s="14"/>
       <c r="Y117" s="14"/>
     </row>
-    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" ht="15.75" customHeight="1">
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
@@ -4119,7 +4598,7 @@
       <c r="X118" s="14"/>
       <c r="Y118" s="14"/>
     </row>
-    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" ht="15.75" customHeight="1">
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
@@ -4146,7 +4625,7 @@
       <c r="X119" s="14"/>
       <c r="Y119" s="14"/>
     </row>
-    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" ht="15.75" customHeight="1">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
@@ -4173,7 +4652,7 @@
       <c r="X120" s="14"/>
       <c r="Y120" s="14"/>
     </row>
-    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" ht="15.75" customHeight="1">
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
@@ -4200,7 +4679,7 @@
       <c r="X121" s="14"/>
       <c r="Y121" s="14"/>
     </row>
-    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" ht="15.75" customHeight="1">
       <c r="A122" s="14"/>
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
@@ -4227,7 +4706,7 @@
       <c r="X122" s="14"/>
       <c r="Y122" s="14"/>
     </row>
-    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" ht="15.75" customHeight="1">
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
@@ -4254,7 +4733,7 @@
       <c r="X123" s="14"/>
       <c r="Y123" s="14"/>
     </row>
-    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" ht="15.75" customHeight="1">
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
@@ -4281,7 +4760,7 @@
       <c r="X124" s="14"/>
       <c r="Y124" s="14"/>
     </row>
-    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" ht="15.75" customHeight="1">
       <c r="A125" s="14"/>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
@@ -4308,7 +4787,7 @@
       <c r="X125" s="14"/>
       <c r="Y125" s="14"/>
     </row>
-    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" ht="15.75" customHeight="1">
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
@@ -4335,7 +4814,7 @@
       <c r="X126" s="14"/>
       <c r="Y126" s="14"/>
     </row>
-    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" ht="15.75" customHeight="1">
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
@@ -4362,7 +4841,7 @@
       <c r="X127" s="14"/>
       <c r="Y127" s="14"/>
     </row>
-    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" ht="15.75" customHeight="1">
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
@@ -4389,7 +4868,7 @@
       <c r="X128" s="14"/>
       <c r="Y128" s="14"/>
     </row>
-    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" ht="15.75" customHeight="1">
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
@@ -4416,7 +4895,7 @@
       <c r="X129" s="14"/>
       <c r="Y129" s="14"/>
     </row>
-    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" ht="15.75" customHeight="1">
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>
@@ -4443,7 +4922,7 @@
       <c r="X130" s="14"/>
       <c r="Y130" s="14"/>
     </row>
-    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" ht="15.75" customHeight="1">
       <c r="A131" s="14"/>
       <c r="B131" s="14"/>
       <c r="C131" s="14"/>
@@ -4470,7 +4949,7 @@
       <c r="X131" s="14"/>
       <c r="Y131" s="14"/>
     </row>
-    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" ht="15.75" customHeight="1">
       <c r="A132" s="14"/>
       <c r="B132" s="14"/>
       <c r="C132" s="14"/>
@@ -4497,7 +4976,7 @@
       <c r="X132" s="14"/>
       <c r="Y132" s="14"/>
     </row>
-    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" ht="15.75" customHeight="1">
       <c r="A133" s="14"/>
       <c r="B133" s="14"/>
       <c r="C133" s="14"/>
@@ -4524,7 +5003,7 @@
       <c r="X133" s="14"/>
       <c r="Y133" s="14"/>
     </row>
-    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" ht="15.75" customHeight="1">
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
       <c r="C134" s="14"/>
@@ -4551,7 +5030,7 @@
       <c r="X134" s="14"/>
       <c r="Y134" s="14"/>
     </row>
-    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" ht="15.75" customHeight="1">
       <c r="A135" s="14"/>
       <c r="B135" s="14"/>
       <c r="C135" s="14"/>
@@ -4578,7 +5057,7 @@
       <c r="X135" s="14"/>
       <c r="Y135" s="14"/>
     </row>
-    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" ht="15.75" customHeight="1">
       <c r="A136" s="14"/>
       <c r="B136" s="14"/>
       <c r="C136" s="14"/>
@@ -4605,7 +5084,7 @@
       <c r="X136" s="14"/>
       <c r="Y136" s="14"/>
     </row>
-    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" ht="15.75" customHeight="1">
       <c r="A137" s="14"/>
       <c r="B137" s="14"/>
       <c r="C137" s="14"/>
@@ -4632,7 +5111,7 @@
       <c r="X137" s="14"/>
       <c r="Y137" s="14"/>
     </row>
-    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" ht="15.75" customHeight="1">
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
       <c r="C138" s="14"/>
@@ -4659,7 +5138,7 @@
       <c r="X138" s="14"/>
       <c r="Y138" s="14"/>
     </row>
-    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" ht="15.75" customHeight="1">
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
       <c r="C139" s="14"/>
@@ -4686,7 +5165,7 @@
       <c r="X139" s="14"/>
       <c r="Y139" s="14"/>
     </row>
-    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" ht="15.75" customHeight="1">
       <c r="A140" s="14"/>
       <c r="B140" s="14"/>
       <c r="C140" s="14"/>
@@ -4713,7 +5192,7 @@
       <c r="X140" s="14"/>
       <c r="Y140" s="14"/>
     </row>
-    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" ht="15.75" customHeight="1">
       <c r="A141" s="14"/>
       <c r="B141" s="14"/>
       <c r="C141" s="14"/>
@@ -4740,7 +5219,7 @@
       <c r="X141" s="14"/>
       <c r="Y141" s="14"/>
     </row>
-    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" ht="15.75" customHeight="1">
       <c r="A142" s="14"/>
       <c r="B142" s="14"/>
       <c r="C142" s="14"/>
@@ -4767,7 +5246,7 @@
       <c r="X142" s="14"/>
       <c r="Y142" s="14"/>
     </row>
-    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" ht="15.75" customHeight="1">
       <c r="A143" s="14"/>
       <c r="B143" s="14"/>
       <c r="C143" s="14"/>
@@ -4794,7 +5273,7 @@
       <c r="X143" s="14"/>
       <c r="Y143" s="14"/>
     </row>
-    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" ht="15.75" customHeight="1">
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
       <c r="C144" s="14"/>
@@ -4821,7 +5300,7 @@
       <c r="X144" s="14"/>
       <c r="Y144" s="14"/>
     </row>
-    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" ht="15.75" customHeight="1">
       <c r="A145" s="14"/>
       <c r="B145" s="14"/>
       <c r="C145" s="14"/>
@@ -4848,7 +5327,7 @@
       <c r="X145" s="14"/>
       <c r="Y145" s="14"/>
     </row>
-    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" ht="15.75" customHeight="1">
       <c r="A146" s="14"/>
       <c r="B146" s="14"/>
       <c r="C146" s="14"/>
@@ -4875,7 +5354,7 @@
       <c r="X146" s="14"/>
       <c r="Y146" s="14"/>
     </row>
-    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" ht="15.75" customHeight="1">
       <c r="A147" s="14"/>
       <c r="B147" s="14"/>
       <c r="C147" s="14"/>
@@ -4902,7 +5381,7 @@
       <c r="X147" s="14"/>
       <c r="Y147" s="14"/>
     </row>
-    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" ht="15.75" customHeight="1">
       <c r="A148" s="14"/>
       <c r="B148" s="14"/>
       <c r="C148" s="14"/>
@@ -4929,7 +5408,7 @@
       <c r="X148" s="14"/>
       <c r="Y148" s="14"/>
     </row>
-    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" ht="15.75" customHeight="1">
       <c r="A149" s="14"/>
       <c r="B149" s="14"/>
       <c r="C149" s="14"/>
@@ -4956,7 +5435,7 @@
       <c r="X149" s="14"/>
       <c r="Y149" s="14"/>
     </row>
-    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" ht="15.75" customHeight="1">
       <c r="A150" s="14"/>
       <c r="B150" s="14"/>
       <c r="C150" s="14"/>
@@ -4983,7 +5462,7 @@
       <c r="X150" s="14"/>
       <c r="Y150" s="14"/>
     </row>
-    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" ht="15.75" customHeight="1">
       <c r="A151" s="14"/>
       <c r="B151" s="14"/>
       <c r="C151" s="14"/>
@@ -5010,7 +5489,7 @@
       <c r="X151" s="14"/>
       <c r="Y151" s="14"/>
     </row>
-    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" ht="15.75" customHeight="1">
       <c r="A152" s="14"/>
       <c r="B152" s="14"/>
       <c r="C152" s="14"/>
@@ -5037,7 +5516,7 @@
       <c r="X152" s="14"/>
       <c r="Y152" s="14"/>
     </row>
-    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" ht="15.75" customHeight="1">
       <c r="A153" s="14"/>
       <c r="B153" s="14"/>
       <c r="C153" s="14"/>
@@ -5064,7 +5543,7 @@
       <c r="X153" s="14"/>
       <c r="Y153" s="14"/>
     </row>
-    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" ht="15.75" customHeight="1">
       <c r="A154" s="14"/>
       <c r="B154" s="14"/>
       <c r="C154" s="14"/>
@@ -5091,7 +5570,7 @@
       <c r="X154" s="14"/>
       <c r="Y154" s="14"/>
     </row>
-    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" ht="15.75" customHeight="1">
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
       <c r="C155" s="14"/>
@@ -5118,7 +5597,7 @@
       <c r="X155" s="14"/>
       <c r="Y155" s="14"/>
     </row>
-    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" ht="15.75" customHeight="1">
       <c r="A156" s="14"/>
       <c r="B156" s="14"/>
       <c r="C156" s="14"/>
@@ -5145,7 +5624,7 @@
       <c r="X156" s="14"/>
       <c r="Y156" s="14"/>
     </row>
-    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" ht="15.75" customHeight="1">
       <c r="A157" s="14"/>
       <c r="B157" s="14"/>
       <c r="C157" s="14"/>
@@ -5172,7 +5651,7 @@
       <c r="X157" s="14"/>
       <c r="Y157" s="14"/>
     </row>
-    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" ht="15.75" customHeight="1">
       <c r="A158" s="14"/>
       <c r="B158" s="14"/>
       <c r="C158" s="14"/>
@@ -5199,7 +5678,7 @@
       <c r="X158" s="14"/>
       <c r="Y158" s="14"/>
     </row>
-    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" ht="15.75" customHeight="1">
       <c r="A159" s="14"/>
       <c r="B159" s="14"/>
       <c r="C159" s="14"/>
@@ -5226,7 +5705,7 @@
       <c r="X159" s="14"/>
       <c r="Y159" s="14"/>
     </row>
-    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" ht="15.75" customHeight="1">
       <c r="A160" s="14"/>
       <c r="B160" s="14"/>
       <c r="C160" s="14"/>
@@ -5253,7 +5732,7 @@
       <c r="X160" s="14"/>
       <c r="Y160" s="14"/>
     </row>
-    <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" ht="15.75" customHeight="1">
       <c r="A161" s="14"/>
       <c r="B161" s="14"/>
       <c r="C161" s="14"/>
@@ -5280,7 +5759,7 @@
       <c r="X161" s="14"/>
       <c r="Y161" s="14"/>
     </row>
-    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" ht="15.75" customHeight="1">
       <c r="A162" s="14"/>
       <c r="B162" s="14"/>
       <c r="C162" s="14"/>
@@ -5307,7 +5786,7 @@
       <c r="X162" s="14"/>
       <c r="Y162" s="14"/>
     </row>
-    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" ht="15.75" customHeight="1">
       <c r="A163" s="14"/>
       <c r="B163" s="14"/>
       <c r="C163" s="14"/>
@@ -5334,7 +5813,7 @@
       <c r="X163" s="14"/>
       <c r="Y163" s="14"/>
     </row>
-    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" ht="15.75" customHeight="1">
       <c r="A164" s="14"/>
       <c r="B164" s="14"/>
       <c r="C164" s="14"/>
@@ -5361,7 +5840,7 @@
       <c r="X164" s="14"/>
       <c r="Y164" s="14"/>
     </row>
-    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" ht="15.75" customHeight="1">
       <c r="A165" s="14"/>
       <c r="B165" s="14"/>
       <c r="C165" s="14"/>
@@ -5388,7 +5867,7 @@
       <c r="X165" s="14"/>
       <c r="Y165" s="14"/>
     </row>
-    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" ht="15.75" customHeight="1">
       <c r="A166" s="14"/>
       <c r="B166" s="14"/>
       <c r="C166" s="14"/>
@@ -5415,7 +5894,7 @@
       <c r="X166" s="14"/>
       <c r="Y166" s="14"/>
     </row>
-    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" ht="15.75" customHeight="1">
       <c r="A167" s="14"/>
       <c r="B167" s="14"/>
       <c r="C167" s="14"/>
@@ -5442,7 +5921,7 @@
       <c r="X167" s="14"/>
       <c r="Y167" s="14"/>
     </row>
-    <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" ht="15.75" customHeight="1">
       <c r="A168" s="14"/>
       <c r="B168" s="14"/>
       <c r="C168" s="14"/>
@@ -5469,7 +5948,7 @@
       <c r="X168" s="14"/>
       <c r="Y168" s="14"/>
     </row>
-    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" ht="15.75" customHeight="1">
       <c r="A169" s="14"/>
       <c r="B169" s="14"/>
       <c r="C169" s="14"/>
@@ -5496,7 +5975,7 @@
       <c r="X169" s="14"/>
       <c r="Y169" s="14"/>
     </row>
-    <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" ht="15.75" customHeight="1">
       <c r="A170" s="14"/>
       <c r="B170" s="14"/>
       <c r="C170" s="14"/>
@@ -5523,7 +6002,7 @@
       <c r="X170" s="14"/>
       <c r="Y170" s="14"/>
     </row>
-    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" ht="15.75" customHeight="1">
       <c r="A171" s="14"/>
       <c r="B171" s="14"/>
       <c r="C171" s="14"/>
@@ -5550,7 +6029,7 @@
       <c r="X171" s="14"/>
       <c r="Y171" s="14"/>
     </row>
-    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" ht="15.75" customHeight="1">
       <c r="A172" s="14"/>
       <c r="B172" s="14"/>
       <c r="C172" s="14"/>
@@ -5577,7 +6056,7 @@
       <c r="X172" s="14"/>
       <c r="Y172" s="14"/>
     </row>
-    <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" ht="15.75" customHeight="1">
       <c r="A173" s="14"/>
       <c r="B173" s="14"/>
       <c r="C173" s="14"/>
@@ -5604,7 +6083,7 @@
       <c r="X173" s="14"/>
       <c r="Y173" s="14"/>
     </row>
-    <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" ht="15.75" customHeight="1">
       <c r="A174" s="14"/>
       <c r="B174" s="14"/>
       <c r="C174" s="14"/>
@@ -5631,7 +6110,7 @@
       <c r="X174" s="14"/>
       <c r="Y174" s="14"/>
     </row>
-    <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" ht="15.75" customHeight="1">
       <c r="A175" s="14"/>
       <c r="B175" s="14"/>
       <c r="C175" s="14"/>
@@ -5658,7 +6137,7 @@
       <c r="X175" s="14"/>
       <c r="Y175" s="14"/>
     </row>
-    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" ht="15.75" customHeight="1">
       <c r="A176" s="14"/>
       <c r="B176" s="14"/>
       <c r="C176" s="14"/>
@@ -5685,7 +6164,7 @@
       <c r="X176" s="14"/>
       <c r="Y176" s="14"/>
     </row>
-    <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" ht="15.75" customHeight="1">
       <c r="A177" s="14"/>
       <c r="B177" s="14"/>
       <c r="C177" s="14"/>
@@ -5712,7 +6191,7 @@
       <c r="X177" s="14"/>
       <c r="Y177" s="14"/>
     </row>
-    <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" ht="15.75" customHeight="1">
       <c r="A178" s="14"/>
       <c r="B178" s="14"/>
       <c r="C178" s="14"/>
@@ -5739,7 +6218,7 @@
       <c r="X178" s="14"/>
       <c r="Y178" s="14"/>
     </row>
-    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" ht="15.75" customHeight="1">
       <c r="A179" s="14"/>
       <c r="B179" s="14"/>
       <c r="C179" s="14"/>
@@ -5766,7 +6245,7 @@
       <c r="X179" s="14"/>
       <c r="Y179" s="14"/>
     </row>
-    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" ht="15.75" customHeight="1">
       <c r="A180" s="14"/>
       <c r="B180" s="14"/>
       <c r="C180" s="14"/>
@@ -5793,7 +6272,7 @@
       <c r="X180" s="14"/>
       <c r="Y180" s="14"/>
     </row>
-    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" ht="15.75" customHeight="1">
       <c r="A181" s="14"/>
       <c r="B181" s="14"/>
       <c r="C181" s="14"/>
@@ -5820,7 +6299,7 @@
       <c r="X181" s="14"/>
       <c r="Y181" s="14"/>
     </row>
-    <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" ht="15.75" customHeight="1">
       <c r="A182" s="14"/>
       <c r="B182" s="14"/>
       <c r="C182" s="14"/>
@@ -5847,7 +6326,7 @@
       <c r="X182" s="14"/>
       <c r="Y182" s="14"/>
     </row>
-    <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" ht="15.75" customHeight="1">
       <c r="A183" s="14"/>
       <c r="B183" s="14"/>
       <c r="C183" s="14"/>
@@ -5874,7 +6353,7 @@
       <c r="X183" s="14"/>
       <c r="Y183" s="14"/>
     </row>
-    <row r="184" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" ht="15.75" customHeight="1">
       <c r="A184" s="14"/>
       <c r="B184" s="14"/>
       <c r="C184" s="14"/>
@@ -5901,7 +6380,7 @@
       <c r="X184" s="14"/>
       <c r="Y184" s="14"/>
     </row>
-    <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" ht="15.75" customHeight="1">
       <c r="A185" s="14"/>
       <c r="B185" s="14"/>
       <c r="C185" s="14"/>
@@ -5928,7 +6407,7 @@
       <c r="X185" s="14"/>
       <c r="Y185" s="14"/>
     </row>
-    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" ht="15.75" customHeight="1">
       <c r="A186" s="14"/>
       <c r="B186" s="14"/>
       <c r="C186" s="14"/>
@@ -5955,7 +6434,7 @@
       <c r="X186" s="14"/>
       <c r="Y186" s="14"/>
     </row>
-    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" ht="15.75" customHeight="1">
       <c r="A187" s="14"/>
       <c r="B187" s="14"/>
       <c r="C187" s="14"/>
@@ -5982,7 +6461,7 @@
       <c r="X187" s="14"/>
       <c r="Y187" s="14"/>
     </row>
-    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" ht="15.75" customHeight="1">
       <c r="A188" s="14"/>
       <c r="B188" s="14"/>
       <c r="C188" s="14"/>
@@ -6009,7 +6488,7 @@
       <c r="X188" s="14"/>
       <c r="Y188" s="14"/>
     </row>
-    <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" ht="15.75" customHeight="1">
       <c r="A189" s="14"/>
       <c r="B189" s="14"/>
       <c r="C189" s="14"/>
@@ -6036,7 +6515,7 @@
       <c r="X189" s="14"/>
       <c r="Y189" s="14"/>
     </row>
-    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" ht="15.75" customHeight="1">
       <c r="A190" s="14"/>
       <c r="B190" s="14"/>
       <c r="C190" s="14"/>
@@ -6063,7 +6542,7 @@
       <c r="X190" s="14"/>
       <c r="Y190" s="14"/>
     </row>
-    <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" ht="15.75" customHeight="1">
       <c r="A191" s="14"/>
       <c r="B191" s="14"/>
       <c r="C191" s="14"/>
@@ -6090,7 +6569,7 @@
       <c r="X191" s="14"/>
       <c r="Y191" s="14"/>
     </row>
-    <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" ht="15.75" customHeight="1">
       <c r="A192" s="14"/>
       <c r="B192" s="14"/>
       <c r="C192" s="14"/>
@@ -6117,7 +6596,7 @@
       <c r="X192" s="14"/>
       <c r="Y192" s="14"/>
     </row>
-    <row r="193" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" ht="15.75" customHeight="1">
       <c r="A193" s="14"/>
       <c r="B193" s="14"/>
       <c r="C193" s="14"/>
@@ -6144,7 +6623,7 @@
       <c r="X193" s="14"/>
       <c r="Y193" s="14"/>
     </row>
-    <row r="194" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" ht="15.75" customHeight="1">
       <c r="A194" s="14"/>
       <c r="B194" s="14"/>
       <c r="C194" s="14"/>
@@ -6171,7 +6650,7 @@
       <c r="X194" s="14"/>
       <c r="Y194" s="14"/>
     </row>
-    <row r="195" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" ht="15.75" customHeight="1">
       <c r="A195" s="14"/>
       <c r="B195" s="14"/>
       <c r="C195" s="14"/>
@@ -6198,7 +6677,7 @@
       <c r="X195" s="14"/>
       <c r="Y195" s="14"/>
     </row>
-    <row r="196" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25" ht="15.75" customHeight="1">
       <c r="A196" s="14"/>
       <c r="B196" s="14"/>
       <c r="C196" s="14"/>
@@ -6225,7 +6704,7 @@
       <c r="X196" s="14"/>
       <c r="Y196" s="14"/>
     </row>
-    <row r="197" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" ht="15.75" customHeight="1">
       <c r="A197" s="14"/>
       <c r="B197" s="14"/>
       <c r="C197" s="14"/>
@@ -6252,7 +6731,7 @@
       <c r="X197" s="14"/>
       <c r="Y197" s="14"/>
     </row>
-    <row r="198" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25" ht="15.75" customHeight="1">
       <c r="A198" s="14"/>
       <c r="B198" s="14"/>
       <c r="C198" s="14"/>
@@ -6279,7 +6758,7 @@
       <c r="X198" s="14"/>
       <c r="Y198" s="14"/>
     </row>
-    <row r="199" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25" ht="15.75" customHeight="1">
       <c r="A199" s="14"/>
       <c r="B199" s="14"/>
       <c r="C199" s="14"/>
@@ -6306,7 +6785,7 @@
       <c r="X199" s="14"/>
       <c r="Y199" s="14"/>
     </row>
-    <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25" ht="15.75" customHeight="1">
       <c r="A200" s="14"/>
       <c r="B200" s="14"/>
       <c r="C200" s="14"/>
@@ -6333,7 +6812,7 @@
       <c r="X200" s="14"/>
       <c r="Y200" s="14"/>
     </row>
-    <row r="201" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25" ht="15.75" customHeight="1">
       <c r="A201" s="14"/>
       <c r="B201" s="14"/>
       <c r="C201" s="14"/>
@@ -6360,7 +6839,7 @@
       <c r="X201" s="14"/>
       <c r="Y201" s="14"/>
     </row>
-    <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25" ht="15.75" customHeight="1">
       <c r="A202" s="14"/>
       <c r="B202" s="14"/>
       <c r="C202" s="14"/>
@@ -6387,7 +6866,7 @@
       <c r="X202" s="14"/>
       <c r="Y202" s="14"/>
     </row>
-    <row r="203" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25" ht="15.75" customHeight="1">
       <c r="A203" s="14"/>
       <c r="B203" s="14"/>
       <c r="C203" s="14"/>
@@ -6414,7 +6893,7 @@
       <c r="X203" s="14"/>
       <c r="Y203" s="14"/>
     </row>
-    <row r="204" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25" ht="15.75" customHeight="1">
       <c r="A204" s="14"/>
       <c r="B204" s="14"/>
       <c r="C204" s="14"/>
@@ -6441,7 +6920,7 @@
       <c r="X204" s="14"/>
       <c r="Y204" s="14"/>
     </row>
-    <row r="205" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25" ht="15.75" customHeight="1">
       <c r="A205" s="14"/>
       <c r="B205" s="14"/>
       <c r="C205" s="14"/>
@@ -6468,7 +6947,7 @@
       <c r="X205" s="14"/>
       <c r="Y205" s="14"/>
     </row>
-    <row r="206" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:25" ht="15.75" customHeight="1">
       <c r="A206" s="14"/>
       <c r="B206" s="14"/>
       <c r="C206" s="14"/>
@@ -6495,7 +6974,7 @@
       <c r="X206" s="14"/>
       <c r="Y206" s="14"/>
     </row>
-    <row r="207" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25" ht="15.75" customHeight="1">
       <c r="A207" s="14"/>
       <c r="B207" s="14"/>
       <c r="C207" s="14"/>
@@ -6522,7 +7001,7 @@
       <c r="X207" s="14"/>
       <c r="Y207" s="14"/>
     </row>
-    <row r="208" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25" ht="15.75" customHeight="1">
       <c r="A208" s="14"/>
       <c r="B208" s="14"/>
       <c r="C208" s="14"/>
@@ -6549,7 +7028,7 @@
       <c r="X208" s="14"/>
       <c r="Y208" s="14"/>
     </row>
-    <row r="209" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:25" ht="15.75" customHeight="1">
       <c r="A209" s="14"/>
       <c r="B209" s="14"/>
       <c r="C209" s="14"/>
@@ -6576,7 +7055,7 @@
       <c r="X209" s="14"/>
       <c r="Y209" s="14"/>
     </row>
-    <row r="210" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25" ht="15.75" customHeight="1">
       <c r="A210" s="14"/>
       <c r="B210" s="14"/>
       <c r="C210" s="14"/>
@@ -6603,7 +7082,7 @@
       <c r="X210" s="14"/>
       <c r="Y210" s="14"/>
     </row>
-    <row r="211" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:25" ht="15.75" customHeight="1">
       <c r="A211" s="14"/>
       <c r="B211" s="14"/>
       <c r="C211" s="14"/>
@@ -6630,7 +7109,7 @@
       <c r="X211" s="14"/>
       <c r="Y211" s="14"/>
     </row>
-    <row r="212" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:25" ht="15.75" customHeight="1">
       <c r="A212" s="14"/>
       <c r="B212" s="14"/>
       <c r="C212" s="14"/>
@@ -6657,7 +7136,7 @@
       <c r="X212" s="14"/>
       <c r="Y212" s="14"/>
     </row>
-    <row r="213" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:25" ht="15.75" customHeight="1">
       <c r="A213" s="14"/>
       <c r="B213" s="14"/>
       <c r="C213" s="14"/>
@@ -6684,7 +7163,7 @@
       <c r="X213" s="14"/>
       <c r="Y213" s="14"/>
     </row>
-    <row r="214" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:25" ht="15.75" customHeight="1">
       <c r="A214" s="14"/>
       <c r="B214" s="14"/>
       <c r="C214" s="14"/>
@@ -6711,7 +7190,7 @@
       <c r="X214" s="14"/>
       <c r="Y214" s="14"/>
     </row>
-    <row r="215" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:25" ht="15.75" customHeight="1">
       <c r="A215" s="14"/>
       <c r="B215" s="14"/>
       <c r="C215" s="14"/>
@@ -6738,7 +7217,7 @@
       <c r="X215" s="14"/>
       <c r="Y215" s="14"/>
     </row>
-    <row r="216" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:25" ht="15.75" customHeight="1">
       <c r="A216" s="14"/>
       <c r="B216" s="14"/>
       <c r="C216" s="14"/>
@@ -6765,7 +7244,7 @@
       <c r="X216" s="14"/>
       <c r="Y216" s="14"/>
     </row>
-    <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25" ht="15.75" customHeight="1">
       <c r="A217" s="14"/>
       <c r="B217" s="14"/>
       <c r="C217" s="14"/>
@@ -6792,7 +7271,7 @@
       <c r="X217" s="14"/>
       <c r="Y217" s="14"/>
     </row>
-    <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25" ht="15.75" customHeight="1">
       <c r="A218" s="14"/>
       <c r="B218" s="14"/>
       <c r="C218" s="14"/>
@@ -6819,7 +7298,7 @@
       <c r="X218" s="14"/>
       <c r="Y218" s="14"/>
     </row>
-    <row r="219" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:25" ht="15.75" customHeight="1">
       <c r="A219" s="14"/>
       <c r="B219" s="14"/>
       <c r="C219" s="14"/>
@@ -6846,7 +7325,7 @@
       <c r="X219" s="14"/>
       <c r="Y219" s="14"/>
     </row>
-    <row r="220" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:25" ht="15.75" customHeight="1">
       <c r="A220" s="14"/>
       <c r="B220" s="14"/>
       <c r="C220" s="14"/>
@@ -6873,786 +7352,786 @@
       <c r="X220" s="14"/>
       <c r="Y220" s="14"/>
     </row>
-    <row r="221" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -7660,38 +8139,38 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7167E5D-7646-4D13-9DE3-075ADA7229C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7167E5D-7646-4D13-9DE3-075ADA7229C1}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.571428571428571"/>
+    <col min="2" max="2" customWidth="true" width="21.142857142857142"/>
+    <col min="3" max="4" customWidth="true" width="12.571428571428571"/>
+    <col min="5" max="5" customWidth="true" width="31.428571428571427"/>
+    <col min="6" max="6" customWidth="true" width="12.571428571428571"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -7701,1009 +8180,1009 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3731D52F-1857-45BD-8B62-F8BD178CAD0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3731D52F-1857-45BD-8B62-F8BD178CAD0B}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="12.5703125" customWidth="1"/>
+    <col min="1" max="6" customWidth="true" width="12.571428571428571"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="12.75">
       <c r="A1" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="12.75">
+      <c r="A2" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -8711,16 +9190,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197BC4C0-EDAE-46C4-ACC2-E0EFA6EA08D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{daf57138-c2d7-43f1-869d-965a519aefb2}">
   <dimension ref="A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="5" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
-        <v>41</v>
+    <row r="5" spans="1:1" ht="23.25" customHeight="1">
+      <c r="A5" s="30" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Options" sheetId="3" r:id="rId5"/>
     <sheet name="Group-Turn" sheetId="4" r:id="rId6"/>
     <sheet name="Note" sheetId="5" r:id="rId7"/>
-    <sheet name="Evaluation Warning" sheetId="22" r:id="rId8"/>
+    <sheet name="Evaluation Warning" sheetId="27" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
@@ -149,7 +149,7 @@
     <t>Evaluation Only. Created with Aspose.Cells for Java.Copyright 2003 - 2021 Aspose Pty Ltd.</t>
   </si>
   <si>
-    <t>Report_BE.RS02WordMachine(Clone)</t>
+    <t>Report_BE.IP02(Clone)</t>
   </si>
 </sst>
 </file>
@@ -288,7 +288,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -315,50 +315,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -683,12 +639,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
@@ -1229,8 +1185,143 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
+    <row r="20" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+    </row>
+    <row r="21" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+    </row>
+    <row r="22" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+    </row>
+    <row r="23" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+    </row>
+    <row r="24" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D19">
+  <conditionalFormatting sqref="D1:D24">
     <cfRule type="cellIs" priority="1" dxfId="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
@@ -1242,7 +1333,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E19">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E24">
       <formula1>'Group-Turn'!$A:$A</formula1>
     </dataValidation>
   </dataValidations>
@@ -1259,7 +1350,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="topLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
@@ -1319,7 +1410,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="11">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D2" s="11">
         <v>1.0</v>
@@ -9190,7 +9281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{daf57138-c2d7-43f1-869d-965a519aefb2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{c5aaf85d-571b-4cc3-be0a-5ce6ba3a55e5}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -9198,7 +9289,7 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="5" spans="1:1" ht="23.25" customHeight="1">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="19" t="s">
         <v>40</v>
       </c>
     </row>

--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tool_test_game\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Scope" sheetId="1" r:id="rId3"/>
@@ -17,14 +17,15 @@
     <sheet name="Options" sheetId="3" r:id="rId5"/>
     <sheet name="Group-Turn" sheetId="4" r:id="rId6"/>
     <sheet name="Note" sheetId="5" r:id="rId7"/>
-    <sheet name="Evaluation Warning" sheetId="27" r:id="rId8"/>
+    <sheet name="Evaluation Warning" sheetId="52" r:id="rId8"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>STT</t>
   </si>
@@ -149,14 +150,13 @@
     <t>Evaluation Only. Created with Aspose.Cells for Java.Copyright 2003 - 2021 Aspose Pty Ltd.</t>
   </si>
   <si>
-    <t>Report_BE.IP02(Clone)</t>
+    <t>Report_MJ.VI01VideoInteractive(Clone)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="8">
     <font>
       <sz val="10"/>
@@ -288,7 +288,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -315,6 +315,66 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -639,7 +699,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Y49"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -649,9 +709,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="5.857142857142857"/>
-    <col min="2" max="2" customWidth="true" width="45.714285714285715"/>
-    <col min="3" max="6" customWidth="true" width="12.571428571428571"/>
+    <col min="1" max="1" width="5.857142857142857" customWidth="1"/>
+    <col min="2" max="2" width="45.714285714285715" customWidth="1"/>
+    <col min="3" max="6" width="12.571428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1">
@@ -1320,8 +1380,683 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
+    <row r="25" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+    </row>
+    <row r="26" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+    </row>
+    <row r="27" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+    </row>
+    <row r="28" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+    </row>
+    <row r="29" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+    </row>
+    <row r="30" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+    </row>
+    <row r="31" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+    </row>
+    <row r="32" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A32" s="4"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+    </row>
+    <row r="33" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A33" s="4"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+    </row>
+    <row r="34" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A34" s="4"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+    </row>
+    <row r="35" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A35" s="4"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+    </row>
+    <row r="36" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A36" s="4"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+    </row>
+    <row r="37" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+    </row>
+    <row r="38" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+    </row>
+    <row r="39" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A39" s="4"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A40" s="4"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A41" s="4"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+    </row>
+    <row r="42" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A42" s="4"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+    </row>
+    <row r="43" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A43" s="4"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+    </row>
+    <row r="44" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A44" s="4"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+    </row>
+    <row r="45" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A45" s="4"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+    </row>
+    <row r="46" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A46" s="4"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+    </row>
+    <row r="47" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A47" s="4"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+    </row>
+    <row r="48" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A48" s="4"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+    </row>
+    <row r="49" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A49" s="4"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D24">
+  <conditionalFormatting sqref="D1:D49">
     <cfRule type="cellIs" priority="1" dxfId="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
@@ -1333,7 +2068,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E24">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E49">
       <formula1>'Group-Turn'!$A:$A</formula1>
     </dataValidation>
   </dataValidations>
@@ -1350,18 +2085,18 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="topLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.142857142857142"/>
-    <col min="2" max="4" customWidth="true" width="12.571428571428571"/>
-    <col min="5" max="5" customWidth="true" width="13.714285714285714"/>
-    <col min="6" max="6" customWidth="true" width="12.571428571428571"/>
-    <col min="7" max="8" customWidth="true" width="26.428571428571427"/>
-    <col min="9" max="9" customWidth="true" width="15.571428571428571"/>
-    <col min="12" max="12" customWidth="true" width="24.0"/>
+    <col min="1" max="1" width="13.142857142857142" customWidth="1"/>
+    <col min="2" max="4" width="12.571428571428571" customWidth="1"/>
+    <col min="5" max="5" width="13.714285714285714" customWidth="1"/>
+    <col min="6" max="6" width="12.571428571428571" customWidth="1"/>
+    <col min="7" max="8" width="26.428571428571427" customWidth="1"/>
+    <col min="9" max="9" width="15.571428571428571" customWidth="1"/>
+    <col min="12" max="12" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -1413,13 +2148,13 @@
         <v>2.0</v>
       </c>
       <c r="D2" s="11">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" s="11">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F2" s="11">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>21</v>
@@ -1430,10 +2165,10 @@
       <c r="I2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="11" t="n">
+      <c r="J2" s="11">
         <v>0.0</v>
       </c>
-      <c r="K2" s="11" t="n">
+      <c r="K2" s="11">
         <v>0.0</v>
       </c>
       <c r="L2" s="12"/>
@@ -1460,13 +2195,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y1000"/>
+  <dimension ref="A1:Y220"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" customWidth="true" width="12.571428571428571"/>
+    <col min="1" max="6" width="12.571428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15" customHeight="1">
@@ -8240,11 +8975,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.571428571428571"/>
-    <col min="2" max="2" customWidth="true" width="21.142857142857142"/>
-    <col min="3" max="4" customWidth="true" width="12.571428571428571"/>
-    <col min="5" max="5" customWidth="true" width="31.428571428571427"/>
-    <col min="6" max="6" customWidth="true" width="12.571428571428571"/>
+    <col min="1" max="1" width="12.571428571428571" customWidth="1"/>
+    <col min="2" max="2" width="21.142857142857142" customWidth="1"/>
+    <col min="3" max="4" width="12.571428571428571" customWidth="1"/>
+    <col min="5" max="5" width="31.428571428571427" customWidth="1"/>
+    <col min="6" max="6" width="12.571428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
@@ -8275,13 +9010,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A1000"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" customWidth="true" width="12.571428571428571"/>
+    <col min="1" max="6" width="12.571428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="12.75">
@@ -9281,7 +10016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{c5aaf85d-571b-4cc3-be0a-5ce6ba3a55e5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a1d5706c-37c4-48c6-9135-a28ee3d3e53c}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -9289,7 +10024,7 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="5" spans="1:1" ht="23.25" customHeight="1">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="34" t="s">
         <v>40</v>
       </c>
     </row>

--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tool_test_game\config\"/>
     </mc:Choice>
@@ -17,15 +17,14 @@
     <sheet name="Options" sheetId="3" r:id="rId5"/>
     <sheet name="Group-Turn" sheetId="4" r:id="rId6"/>
     <sheet name="Note" sheetId="5" r:id="rId7"/>
-    <sheet name="Evaluation Warning" sheetId="52" r:id="rId8"/>
+    <sheet name="Evaluation Warning" sheetId="67" r:id="rId8"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>STT</t>
   </si>
@@ -156,7 +155,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="8">
     <font>
       <sz val="10"/>
@@ -288,7 +288,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -314,67 +314,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -695,11 +634,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0388E7AB-5141-4C6A-9D1A-96678E51502C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ec5c77ff-4d40-413e-b951-af1f59fb20ff}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y49"/>
+  <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -709,9 +648,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.857142857142857" customWidth="1"/>
-    <col min="2" max="2" width="45.714285714285715" customWidth="1"/>
-    <col min="3" max="6" width="12.571428571428571" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="5.857142857142857"/>
+    <col min="2" max="2" customWidth="true" width="45.714285714285715"/>
+    <col min="3" max="6" customWidth="true" width="12.571428571428571"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1">
@@ -2055,8 +1994,413 @@
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
     </row>
+    <row r="50" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A50" s="4"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+    </row>
+    <row r="51" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A51" s="4"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+    </row>
+    <row r="52" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A52" s="4"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+    </row>
+    <row r="53" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A53" s="4"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+    </row>
+    <row r="54" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A54" s="4"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+    </row>
+    <row r="55" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A55" s="4"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A56" s="4"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A57" s="4"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+    </row>
+    <row r="58" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A58" s="4"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+    </row>
+    <row r="59" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A59" s="4"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+    </row>
+    <row r="60" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A60" s="4"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+    </row>
+    <row r="61" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A61" s="4"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3"/>
+    </row>
+    <row r="62" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A62" s="4"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+    </row>
+    <row r="63" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A63" s="4"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+    </row>
+    <row r="64" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A64" s="4"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D49">
+  <conditionalFormatting sqref="D1:D64">
     <cfRule type="cellIs" priority="1" dxfId="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
@@ -2068,7 +2412,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E49">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E64">
       <formula1>'Group-Turn'!$A:$A</formula1>
     </dataValidation>
   </dataValidations>
@@ -2078,7 +2422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A823D49-3ECE-41E6-9052-6B54B9FD6041}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ceb9f4a0-d429-43cd-a34c-0de5a78dd058}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2090,13 +2434,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.142857142857142" customWidth="1"/>
-    <col min="2" max="4" width="12.571428571428571" customWidth="1"/>
-    <col min="5" max="5" width="13.714285714285714" customWidth="1"/>
-    <col min="6" max="6" width="12.571428571428571" customWidth="1"/>
-    <col min="7" max="8" width="26.428571428571427" customWidth="1"/>
-    <col min="9" max="9" width="15.571428571428571" customWidth="1"/>
-    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.142857142857142"/>
+    <col min="2" max="4" customWidth="true" width="12.571428571428571"/>
+    <col min="5" max="5" customWidth="true" width="13.714285714285714"/>
+    <col min="6" max="6" customWidth="true" width="12.571428571428571"/>
+    <col min="7" max="8" customWidth="true" width="26.428571428571427"/>
+    <col min="9" max="9" customWidth="true" width="15.571428571428571"/>
+    <col min="12" max="12" customWidth="true" width="24.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -2145,16 +2489,16 @@
         <v>20</v>
       </c>
       <c r="C2" s="11">
-        <v>2.0</v>
+        <v>27.0</v>
       </c>
       <c r="D2" s="11">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E2" s="11">
-        <v>2.0</v>
+        <v>27.0</v>
       </c>
       <c r="F2" s="11">
-        <v>2.0</v>
+        <v>26.0</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>21</v>
@@ -2191,17 +2535,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEDEEE1-AE87-43AE-8245-93CE1AC16CA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911d0387-12a0-4038-b218-2369b68a2eb5}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y220"/>
+  <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="12.571428571428571" customWidth="1"/>
+    <col min="1" max="6" customWidth="true" width="12.571428571428571"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15" customHeight="1">
@@ -8965,7 +9309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7167E5D-7646-4D13-9DE3-075ADA7229C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a533279f-dce6-476b-ad11-14247dadf783}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -8975,11 +9319,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.571428571428571" customWidth="1"/>
-    <col min="2" max="2" width="21.142857142857142" customWidth="1"/>
-    <col min="3" max="4" width="12.571428571428571" customWidth="1"/>
-    <col min="5" max="5" width="31.428571428571427" customWidth="1"/>
-    <col min="6" max="6" width="12.571428571428571" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.571428571428571"/>
+    <col min="2" max="2" customWidth="true" width="21.142857142857142"/>
+    <col min="3" max="4" customWidth="true" width="12.571428571428571"/>
+    <col min="5" max="5" customWidth="true" width="31.428571428571427"/>
+    <col min="6" max="6" customWidth="true" width="12.571428571428571"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
@@ -9006,17 +9350,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3731D52F-1857-45BD-8B62-F8BD178CAD0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12a5df42-02c0-439f-afad-701895a2546e}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="12.571428571428571" customWidth="1"/>
+    <col min="1" max="6" customWidth="true" width="12.571428571428571"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="12.75">
@@ -10016,7 +10360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a1d5706c-37c4-48c6-9135-a28ee3d3e53c}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19c3e536-d2ae-4f0e-828d-e890275ac7bf}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -10024,7 +10368,7 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="5" spans="1:1" ht="23.25" customHeight="1">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="18" t="s">
         <v>40</v>
       </c>
     </row>

--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="-28920" yWindow="-2730" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Scope" sheetId="1" r:id="rId3"/>
@@ -17,7 +17,7 @@
     <sheet name="Options" sheetId="3" r:id="rId5"/>
     <sheet name="Group-Turn" sheetId="4" r:id="rId6"/>
     <sheet name="Note" sheetId="5" r:id="rId7"/>
-    <sheet name="Evaluation Warning" sheetId="67" r:id="rId8"/>
+    <sheet name="Evaluation Warning" sheetId="81" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="8">
     <font>
@@ -288,7 +288,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -314,6 +314,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -634,11 +635,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ec5c77ff-4d40-413e-b951-af1f59fb20ff}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5C77FF-4D40-413E-B951-AF1F59FB20FF}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y64"/>
+  <dimension ref="A1:Y78"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -2399,8 +2400,386 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
     </row>
+    <row r="65" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A65" s="4"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+    </row>
+    <row r="66" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A66" s="4"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+    </row>
+    <row r="67" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A67" s="4"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A68" s="4"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+    </row>
+    <row r="69" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A69" s="4"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
+    </row>
+    <row r="70" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A70" s="4"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+    </row>
+    <row r="71" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A71" s="4"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3"/>
+      <c r="X71" s="3"/>
+      <c r="Y71" s="3"/>
+    </row>
+    <row r="72" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A72" s="4"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3"/>
+    </row>
+    <row r="73" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A73" s="4"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3"/>
+      <c r="X73" s="3"/>
+      <c r="Y73" s="3"/>
+    </row>
+    <row r="74" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A74" s="4"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+    </row>
+    <row r="75" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A75" s="4"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3"/>
+      <c r="Y75" s="3"/>
+    </row>
+    <row r="76" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A76" s="4"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+    </row>
+    <row r="77" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A77" s="4"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3"/>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="3"/>
+    </row>
+    <row r="78" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A78" s="4"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D64">
+  <conditionalFormatting sqref="D1:D78">
     <cfRule type="cellIs" priority="1" dxfId="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
@@ -2412,7 +2791,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E64">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E78">
       <formula1>'Group-Turn'!$A:$A</formula1>
     </dataValidation>
   </dataValidations>
@@ -2422,14 +2801,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ceb9f4a0-d429-43cd-a34c-0de5a78dd058}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB9F4A0-D429-43CD-A34C-0DE5A78DD058}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="topLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
@@ -2489,13 +2868,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="11">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="D2" s="11">
-        <v>5.0</v>
+        <v>26.0</v>
       </c>
       <c r="E2" s="11">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="F2" s="11">
         <v>26.0</v>
@@ -2535,7 +2914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911d0387-12a0-4038-b218-2369b68a2eb5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911D0387-12A0-4038-B218-2369B68A2EB5}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -9309,7 +9688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a533279f-dce6-476b-ad11-14247dadf783}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A533279F-DCE6-476B-AD11-14247DADF783}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -9350,7 +9729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12a5df42-02c0-439f-afad-701895a2546e}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A5DF42-02C0-439F-AFAD-701895A2546E}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10360,7 +10739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19c3e536-d2ae-4f0e-828d-e890275ac7bf}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a54820dd-12ea-46ed-87db-eccd168c8377}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -10368,7 +10747,7 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="5" spans="1:1" ht="23.25" customHeight="1">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>40</v>
       </c>
     </row>

--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Options" sheetId="3" r:id="rId5"/>
     <sheet name="Group-Turn" sheetId="4" r:id="rId6"/>
     <sheet name="Note" sheetId="5" r:id="rId7"/>
-    <sheet name="Evaluation Warning" sheetId="81" r:id="rId8"/>
+    <sheet name="Evaluation Warning" sheetId="95" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -149,7 +149,7 @@
     <t>Evaluation Only. Created with Aspose.Cells for Java.Copyright 2003 - 2021 Aspose Pty Ltd.</t>
   </si>
   <si>
-    <t>Report_MJ.VI01VideoInteractive(Clone)</t>
+    <t>Report_BEPV04DragLetters(Clone)</t>
   </si>
 </sst>
 </file>
@@ -288,7 +288,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -315,6 +315,54 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -639,7 +687,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y78"/>
+  <dimension ref="A1:Y92"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -2778,8 +2826,386 @@
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
     </row>
+    <row r="79" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A79" s="4"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="3"/>
+      <c r="Y79" s="3"/>
+    </row>
+    <row r="80" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A80" s="4"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+    </row>
+    <row r="81" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A81" s="4"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+    </row>
+    <row r="82" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A82" s="4"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A83" s="4"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="3"/>
+      <c r="Y83" s="3"/>
+    </row>
+    <row r="84" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A84" s="4"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+    </row>
+    <row r="85" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A85" s="4"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="3"/>
+      <c r="W85" s="3"/>
+      <c r="X85" s="3"/>
+      <c r="Y85" s="3"/>
+    </row>
+    <row r="86" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A86" s="4"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+      <c r="X86" s="3"/>
+      <c r="Y86" s="3"/>
+    </row>
+    <row r="87" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A87" s="4"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+      <c r="V87" s="3"/>
+      <c r="W87" s="3"/>
+      <c r="X87" s="3"/>
+      <c r="Y87" s="3"/>
+    </row>
+    <row r="88" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A88" s="4"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3"/>
+      <c r="X88" s="3"/>
+      <c r="Y88" s="3"/>
+    </row>
+    <row r="89" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A89" s="4"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+      <c r="V89" s="3"/>
+      <c r="W89" s="3"/>
+      <c r="X89" s="3"/>
+      <c r="Y89" s="3"/>
+    </row>
+    <row r="90" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A90" s="4"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A91" s="4"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3"/>
+      <c r="W91" s="3"/>
+      <c r="X91" s="3"/>
+      <c r="Y91" s="3"/>
+    </row>
+    <row r="92" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A92" s="4"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+      <c r="X92" s="3"/>
+      <c r="Y92" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D78">
+  <conditionalFormatting sqref="D1:D92">
     <cfRule type="cellIs" priority="1" dxfId="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
@@ -2791,7 +3217,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E78">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E92">
       <formula1>'Group-Turn'!$A:$A</formula1>
     </dataValidation>
   </dataValidations>
@@ -2871,13 +3297,13 @@
         <v>26.0</v>
       </c>
       <c r="D2" s="11">
-        <v>26.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" s="11">
-        <v>26.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" s="11">
-        <v>26.0</v>
+        <v>1.0</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>21</v>
@@ -10739,7 +11165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a54820dd-12ea-46ed-87db-eccd168c8377}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444a8cc9-4ea8-4edb-acd9-0763d6b3bc2f}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -10747,7 +11173,7 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="5" spans="1:1" ht="23.25" customHeight="1">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="31" t="s">
         <v>40</v>
       </c>
     </row>

--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="-28920" yWindow="-2730" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Scope" sheetId="1" r:id="rId3"/>
@@ -17,7 +17,7 @@
     <sheet name="Options" sheetId="3" r:id="rId5"/>
     <sheet name="Group-Turn" sheetId="4" r:id="rId6"/>
     <sheet name="Note" sheetId="5" r:id="rId7"/>
-    <sheet name="Evaluation Warning" sheetId="67" r:id="rId8"/>
+    <sheet name="Evaluation Warning" sheetId="102" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -149,13 +149,13 @@
     <t>Evaluation Only. Created with Aspose.Cells for Java.Copyright 2003 - 2021 Aspose Pty Ltd.</t>
   </si>
   <si>
-    <t>Report_MJ.VI01VideoInteractive(Clone)</t>
+    <t>Report_BE.IV01DinosaurChasing(Clone)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="8">
     <font>
@@ -288,7 +288,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -314,6 +314,103 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -634,16 +731,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ec5c77ff-4d40-413e-b951-af1f59fb20ff}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5C77FF-4D40-413E-B951-AF1F59FB20FF}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y64"/>
+  <dimension ref="A1:Y99"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
@@ -2399,8 +2496,953 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
     </row>
+    <row r="65" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A65" s="4"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+    </row>
+    <row r="66" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A66" s="4"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+    </row>
+    <row r="67" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A67" s="4"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A68" s="4"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+    </row>
+    <row r="69" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A69" s="4"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
+    </row>
+    <row r="70" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A70" s="4"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+    </row>
+    <row r="71" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A71" s="4"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3"/>
+      <c r="X71" s="3"/>
+      <c r="Y71" s="3"/>
+    </row>
+    <row r="72" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A72" s="4"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3"/>
+    </row>
+    <row r="73" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A73" s="4"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3"/>
+      <c r="X73" s="3"/>
+      <c r="Y73" s="3"/>
+    </row>
+    <row r="74" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A74" s="4"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+    </row>
+    <row r="75" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A75" s="4"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3"/>
+      <c r="Y75" s="3"/>
+    </row>
+    <row r="76" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A76" s="4"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+    </row>
+    <row r="77" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A77" s="4"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3"/>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="3"/>
+    </row>
+    <row r="78" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A78" s="4"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+    </row>
+    <row r="79" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A79" s="4"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="3"/>
+      <c r="Y79" s="3"/>
+    </row>
+    <row r="80" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A80" s="4"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+    </row>
+    <row r="81" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A81" s="4"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+    </row>
+    <row r="82" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A82" s="4"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A83" s="4"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="3"/>
+      <c r="Y83" s="3"/>
+    </row>
+    <row r="84" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A84" s="4"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+    </row>
+    <row r="85" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A85" s="4"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="3"/>
+      <c r="W85" s="3"/>
+      <c r="X85" s="3"/>
+      <c r="Y85" s="3"/>
+    </row>
+    <row r="86" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A86" s="4"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+      <c r="X86" s="3"/>
+      <c r="Y86" s="3"/>
+    </row>
+    <row r="87" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A87" s="4"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+      <c r="V87" s="3"/>
+      <c r="W87" s="3"/>
+      <c r="X87" s="3"/>
+      <c r="Y87" s="3"/>
+    </row>
+    <row r="88" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A88" s="4"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3"/>
+      <c r="X88" s="3"/>
+      <c r="Y88" s="3"/>
+    </row>
+    <row r="89" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A89" s="4"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+      <c r="V89" s="3"/>
+      <c r="W89" s="3"/>
+      <c r="X89" s="3"/>
+      <c r="Y89" s="3"/>
+    </row>
+    <row r="90" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A90" s="4"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A91" s="4"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3"/>
+      <c r="W91" s="3"/>
+      <c r="X91" s="3"/>
+      <c r="Y91" s="3"/>
+    </row>
+    <row r="92" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A92" s="4"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+      <c r="X92" s="3"/>
+      <c r="Y92" s="3"/>
+    </row>
+    <row r="93" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A93" s="4"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
+      <c r="U93" s="3"/>
+      <c r="V93" s="3"/>
+      <c r="W93" s="3"/>
+      <c r="X93" s="3"/>
+      <c r="Y93" s="3"/>
+    </row>
+    <row r="94" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A94" s="4"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3"/>
+      <c r="X94" s="3"/>
+      <c r="Y94" s="3"/>
+    </row>
+    <row r="95" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A95" s="4"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A96" s="4"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
+      <c r="Y96" s="3"/>
+    </row>
+    <row r="97" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A97" s="4"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="3"/>
+      <c r="W97" s="3"/>
+      <c r="X97" s="3"/>
+      <c r="Y97" s="3"/>
+    </row>
+    <row r="98" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A98" s="4"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3"/>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+      <c r="V98" s="3"/>
+      <c r="W98" s="3"/>
+      <c r="X98" s="3"/>
+      <c r="Y98" s="3"/>
+    </row>
+    <row r="99" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A99" s="4"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+      <c r="U99" s="3"/>
+      <c r="V99" s="3"/>
+      <c r="W99" s="3"/>
+      <c r="X99" s="3"/>
+      <c r="Y99" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D64">
+  <conditionalFormatting sqref="D1:D99">
     <cfRule type="cellIs" priority="1" dxfId="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
@@ -2412,7 +3454,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E64">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E99">
       <formula1>'Group-Turn'!$A:$A</formula1>
     </dataValidation>
   </dataValidations>
@@ -2422,14 +3464,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ceb9f4a0-d429-43cd-a34c-0de5a78dd058}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB9F4A0-D429-43CD-A34C-0DE5A78DD058}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="topLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
@@ -2489,16 +3531,16 @@
         <v>20</v>
       </c>
       <c r="C2" s="11">
-        <v>27.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" s="11">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" s="11">
-        <v>27.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" s="11">
-        <v>26.0</v>
+        <v>1.0</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>21</v>
@@ -2509,10 +3551,10 @@
       <c r="I2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="11" t="n">
         <v>0.0</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="11" t="n">
         <v>0.0</v>
       </c>
       <c r="L2" s="12"/>
@@ -2535,7 +3577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911d0387-12a0-4038-b218-2369b68a2eb5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911D0387-12A0-4038-B218-2369B68A2EB5}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -9309,7 +10351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a533279f-dce6-476b-ad11-14247dadf783}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A533279F-DCE6-476B-AD11-14247DADF783}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -9350,7 +10392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12a5df42-02c0-439f-afad-701895a2546e}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A5DF42-02C0-439F-AFAD-701895A2546E}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10360,7 +11402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19c3e536-d2ae-4f0e-828d-e890275ac7bf}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6cd95555-b438-42d8-9c29-a8fb31f9db43}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -10368,7 +11410,7 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="5" spans="1:1" ht="23.25" customHeight="1">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="43" t="s">
         <v>40</v>
       </c>
     </row>

--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2730" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Scope" sheetId="1" r:id="rId3"/>
@@ -17,7 +17,7 @@
     <sheet name="Options" sheetId="3" r:id="rId5"/>
     <sheet name="Group-Turn" sheetId="4" r:id="rId6"/>
     <sheet name="Note" sheetId="5" r:id="rId7"/>
-    <sheet name="Evaluation Warning" sheetId="102" r:id="rId8"/>
+    <sheet name="Evaluation Warning" sheetId="175" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -149,7 +149,7 @@
     <t>Evaluation Only. Created with Aspose.Cells for Java.Copyright 2003 - 2021 Aspose Pty Ltd.</t>
   </si>
   <si>
-    <t>Report_BE.IV01DinosaurChasing(Clone)</t>
+    <t>Report_EEIW01Multisensory(Clone)</t>
   </si>
 </sst>
 </file>
@@ -288,7 +288,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -315,94 +315,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -735,12 +647,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y99"/>
+  <dimension ref="A1:Y172"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
@@ -3441,8 +3353,1979 @@
       <c r="X99" s="3"/>
       <c r="Y99" s="3"/>
     </row>
+    <row r="100" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A100" s="4"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3"/>
+      <c r="S100" s="3"/>
+      <c r="T100" s="3"/>
+      <c r="U100" s="3"/>
+      <c r="V100" s="3"/>
+      <c r="W100" s="3"/>
+      <c r="X100" s="3"/>
+      <c r="Y100" s="3"/>
+    </row>
+    <row r="101" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A101" s="4"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+      <c r="O101" s="3"/>
+      <c r="P101" s="3"/>
+      <c r="Q101" s="3"/>
+      <c r="R101" s="3"/>
+      <c r="S101" s="3"/>
+      <c r="T101" s="3"/>
+      <c r="U101" s="3"/>
+      <c r="V101" s="3"/>
+      <c r="W101" s="3"/>
+      <c r="X101" s="3"/>
+      <c r="Y101" s="3"/>
+    </row>
+    <row r="102" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A102" s="4"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
+      <c r="R102" s="3"/>
+      <c r="S102" s="3"/>
+      <c r="T102" s="3"/>
+      <c r="U102" s="3"/>
+      <c r="V102" s="3"/>
+      <c r="W102" s="3"/>
+      <c r="X102" s="3"/>
+      <c r="Y102" s="3"/>
+    </row>
+    <row r="103" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A103" s="4"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3"/>
+      <c r="P103" s="3"/>
+      <c r="Q103" s="3"/>
+      <c r="R103" s="3"/>
+      <c r="S103" s="3"/>
+      <c r="T103" s="3"/>
+      <c r="U103" s="3"/>
+      <c r="V103" s="3"/>
+      <c r="W103" s="3"/>
+      <c r="X103" s="3"/>
+      <c r="Y103" s="3"/>
+    </row>
+    <row r="104" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A104" s="4"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="3"/>
+      <c r="R104" s="3"/>
+      <c r="S104" s="3"/>
+      <c r="T104" s="3"/>
+      <c r="U104" s="3"/>
+      <c r="V104" s="3"/>
+      <c r="W104" s="3"/>
+      <c r="X104" s="3"/>
+      <c r="Y104" s="3"/>
+    </row>
+    <row r="105" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A105" s="4"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
+      <c r="P105" s="3"/>
+      <c r="Q105" s="3"/>
+      <c r="R105" s="3"/>
+      <c r="S105" s="3"/>
+      <c r="T105" s="3"/>
+      <c r="U105" s="3"/>
+      <c r="V105" s="3"/>
+      <c r="W105" s="3"/>
+      <c r="X105" s="3"/>
+      <c r="Y105" s="3"/>
+    </row>
+    <row r="106" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A106" s="4"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3"/>
+      <c r="S106" s="3"/>
+      <c r="T106" s="3"/>
+      <c r="U106" s="3"/>
+      <c r="V106" s="3"/>
+      <c r="W106" s="3"/>
+      <c r="X106" s="3"/>
+      <c r="Y106" s="3"/>
+    </row>
+    <row r="107" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A107" s="4"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
+      <c r="P107" s="3"/>
+      <c r="Q107" s="3"/>
+      <c r="R107" s="3"/>
+      <c r="S107" s="3"/>
+      <c r="T107" s="3"/>
+      <c r="U107" s="3"/>
+      <c r="V107" s="3"/>
+      <c r="W107" s="3"/>
+      <c r="X107" s="3"/>
+      <c r="Y107" s="3"/>
+    </row>
+    <row r="108" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A108" s="4"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+      <c r="O108" s="3"/>
+      <c r="P108" s="3"/>
+      <c r="Q108" s="3"/>
+      <c r="R108" s="3"/>
+      <c r="S108" s="3"/>
+      <c r="T108" s="3"/>
+      <c r="U108" s="3"/>
+      <c r="V108" s="3"/>
+      <c r="W108" s="3"/>
+      <c r="X108" s="3"/>
+      <c r="Y108" s="3"/>
+    </row>
+    <row r="109" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A109" s="4"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
+      <c r="M109" s="3"/>
+      <c r="N109" s="3"/>
+      <c r="O109" s="3"/>
+      <c r="P109" s="3"/>
+      <c r="Q109" s="3"/>
+      <c r="R109" s="3"/>
+      <c r="S109" s="3"/>
+      <c r="T109" s="3"/>
+      <c r="U109" s="3"/>
+      <c r="V109" s="3"/>
+      <c r="W109" s="3"/>
+      <c r="X109" s="3"/>
+      <c r="Y109" s="3"/>
+    </row>
+    <row r="110" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A110" s="4"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3"/>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="3"/>
+      <c r="R110" s="3"/>
+      <c r="S110" s="3"/>
+      <c r="T110" s="3"/>
+      <c r="U110" s="3"/>
+      <c r="V110" s="3"/>
+      <c r="W110" s="3"/>
+      <c r="X110" s="3"/>
+      <c r="Y110" s="3"/>
+    </row>
+    <row r="111" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A111" s="4"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
+      <c r="Q111" s="3"/>
+      <c r="R111" s="3"/>
+      <c r="S111" s="3"/>
+      <c r="T111" s="3"/>
+      <c r="U111" s="3"/>
+      <c r="V111" s="3"/>
+      <c r="W111" s="3"/>
+      <c r="X111" s="3"/>
+      <c r="Y111" s="3"/>
+    </row>
+    <row r="112" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A112" s="4"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
+      <c r="N112" s="3"/>
+      <c r="O112" s="3"/>
+      <c r="P112" s="3"/>
+      <c r="Q112" s="3"/>
+      <c r="R112" s="3"/>
+      <c r="S112" s="3"/>
+      <c r="T112" s="3"/>
+      <c r="U112" s="3"/>
+      <c r="V112" s="3"/>
+      <c r="W112" s="3"/>
+      <c r="X112" s="3"/>
+      <c r="Y112" s="3"/>
+    </row>
+    <row r="113" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A113" s="4"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+      <c r="Q113" s="3"/>
+      <c r="R113" s="3"/>
+      <c r="S113" s="3"/>
+      <c r="T113" s="3"/>
+      <c r="U113" s="3"/>
+      <c r="V113" s="3"/>
+      <c r="W113" s="3"/>
+      <c r="X113" s="3"/>
+      <c r="Y113" s="3"/>
+    </row>
+    <row r="114" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A114" s="4"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3"/>
+      <c r="S114" s="3"/>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3"/>
+      <c r="V114" s="3"/>
+      <c r="W114" s="3"/>
+      <c r="X114" s="3"/>
+      <c r="Y114" s="3"/>
+    </row>
+    <row r="115" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A115" s="4"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
+      <c r="M115" s="3"/>
+      <c r="N115" s="3"/>
+      <c r="O115" s="3"/>
+      <c r="P115" s="3"/>
+      <c r="Q115" s="3"/>
+      <c r="R115" s="3"/>
+      <c r="S115" s="3"/>
+      <c r="T115" s="3"/>
+      <c r="U115" s="3"/>
+      <c r="V115" s="3"/>
+      <c r="W115" s="3"/>
+      <c r="X115" s="3"/>
+      <c r="Y115" s="3"/>
+    </row>
+    <row r="116" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A116" s="4"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
+      <c r="O116" s="3"/>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="3"/>
+      <c r="R116" s="3"/>
+      <c r="S116" s="3"/>
+      <c r="T116" s="3"/>
+      <c r="U116" s="3"/>
+      <c r="V116" s="3"/>
+      <c r="W116" s="3"/>
+      <c r="X116" s="3"/>
+      <c r="Y116" s="3"/>
+    </row>
+    <row r="117" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A117" s="4"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="3"/>
+      <c r="R117" s="3"/>
+      <c r="S117" s="3"/>
+      <c r="T117" s="3"/>
+      <c r="U117" s="3"/>
+      <c r="V117" s="3"/>
+      <c r="W117" s="3"/>
+      <c r="X117" s="3"/>
+      <c r="Y117" s="3"/>
+    </row>
+    <row r="118" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A118" s="4"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
+      <c r="M118" s="3"/>
+      <c r="N118" s="3"/>
+      <c r="O118" s="3"/>
+      <c r="P118" s="3"/>
+      <c r="Q118" s="3"/>
+      <c r="R118" s="3"/>
+      <c r="S118" s="3"/>
+      <c r="T118" s="3"/>
+      <c r="U118" s="3"/>
+      <c r="V118" s="3"/>
+      <c r="W118" s="3"/>
+      <c r="X118" s="3"/>
+      <c r="Y118" s="3"/>
+    </row>
+    <row r="119" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A119" s="4"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+      <c r="L119" s="3"/>
+      <c r="M119" s="3"/>
+      <c r="N119" s="3"/>
+      <c r="O119" s="3"/>
+      <c r="P119" s="3"/>
+      <c r="Q119" s="3"/>
+      <c r="R119" s="3"/>
+      <c r="S119" s="3"/>
+      <c r="T119" s="3"/>
+      <c r="U119" s="3"/>
+      <c r="V119" s="3"/>
+      <c r="W119" s="3"/>
+      <c r="X119" s="3"/>
+      <c r="Y119" s="3"/>
+    </row>
+    <row r="120" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A120" s="4"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3"/>
+      <c r="N120" s="3"/>
+      <c r="O120" s="3"/>
+      <c r="P120" s="3"/>
+      <c r="Q120" s="3"/>
+      <c r="R120" s="3"/>
+      <c r="S120" s="3"/>
+      <c r="T120" s="3"/>
+      <c r="U120" s="3"/>
+      <c r="V120" s="3"/>
+      <c r="W120" s="3"/>
+      <c r="X120" s="3"/>
+      <c r="Y120" s="3"/>
+    </row>
+    <row r="121" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A121" s="4"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3"/>
+      <c r="N121" s="3"/>
+      <c r="O121" s="3"/>
+      <c r="P121" s="3"/>
+      <c r="Q121" s="3"/>
+      <c r="R121" s="3"/>
+      <c r="S121" s="3"/>
+      <c r="T121" s="3"/>
+      <c r="U121" s="3"/>
+      <c r="V121" s="3"/>
+      <c r="W121" s="3"/>
+      <c r="X121" s="3"/>
+      <c r="Y121" s="3"/>
+    </row>
+    <row r="122" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A122" s="4"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="3"/>
+      <c r="M122" s="3"/>
+      <c r="N122" s="3"/>
+      <c r="O122" s="3"/>
+      <c r="P122" s="3"/>
+      <c r="Q122" s="3"/>
+      <c r="R122" s="3"/>
+      <c r="S122" s="3"/>
+      <c r="T122" s="3"/>
+      <c r="U122" s="3"/>
+      <c r="V122" s="3"/>
+      <c r="W122" s="3"/>
+      <c r="X122" s="3"/>
+      <c r="Y122" s="3"/>
+    </row>
+    <row r="123" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A123" s="4"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3"/>
+      <c r="L123" s="3"/>
+      <c r="M123" s="3"/>
+      <c r="N123" s="3"/>
+      <c r="O123" s="3"/>
+      <c r="P123" s="3"/>
+      <c r="Q123" s="3"/>
+      <c r="R123" s="3"/>
+      <c r="S123" s="3"/>
+      <c r="T123" s="3"/>
+      <c r="U123" s="3"/>
+      <c r="V123" s="3"/>
+      <c r="W123" s="3"/>
+      <c r="X123" s="3"/>
+      <c r="Y123" s="3"/>
+    </row>
+    <row r="124" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A124" s="4"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3"/>
+      <c r="L124" s="3"/>
+      <c r="M124" s="3"/>
+      <c r="N124" s="3"/>
+      <c r="O124" s="3"/>
+      <c r="P124" s="3"/>
+      <c r="Q124" s="3"/>
+      <c r="R124" s="3"/>
+      <c r="S124" s="3"/>
+      <c r="T124" s="3"/>
+      <c r="U124" s="3"/>
+      <c r="V124" s="3"/>
+      <c r="W124" s="3"/>
+      <c r="X124" s="3"/>
+      <c r="Y124" s="3"/>
+    </row>
+    <row r="125" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A125" s="4"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="3"/>
+      <c r="K125" s="3"/>
+      <c r="L125" s="3"/>
+      <c r="M125" s="3"/>
+      <c r="N125" s="3"/>
+      <c r="O125" s="3"/>
+      <c r="P125" s="3"/>
+      <c r="Q125" s="3"/>
+      <c r="R125" s="3"/>
+      <c r="S125" s="3"/>
+      <c r="T125" s="3"/>
+      <c r="U125" s="3"/>
+      <c r="V125" s="3"/>
+      <c r="W125" s="3"/>
+      <c r="X125" s="3"/>
+      <c r="Y125" s="3"/>
+    </row>
+    <row r="126" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A126" s="4"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="3"/>
+      <c r="M126" s="3"/>
+      <c r="N126" s="3"/>
+      <c r="O126" s="3"/>
+      <c r="P126" s="3"/>
+      <c r="Q126" s="3"/>
+      <c r="R126" s="3"/>
+      <c r="S126" s="3"/>
+      <c r="T126" s="3"/>
+      <c r="U126" s="3"/>
+      <c r="V126" s="3"/>
+      <c r="W126" s="3"/>
+      <c r="X126" s="3"/>
+      <c r="Y126" s="3"/>
+    </row>
+    <row r="127" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A127" s="4"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3"/>
+      <c r="L127" s="3"/>
+      <c r="M127" s="3"/>
+      <c r="N127" s="3"/>
+      <c r="O127" s="3"/>
+      <c r="P127" s="3"/>
+      <c r="Q127" s="3"/>
+      <c r="R127" s="3"/>
+      <c r="S127" s="3"/>
+      <c r="T127" s="3"/>
+      <c r="U127" s="3"/>
+      <c r="V127" s="3"/>
+      <c r="W127" s="3"/>
+      <c r="X127" s="3"/>
+      <c r="Y127" s="3"/>
+    </row>
+    <row r="128" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A128" s="4"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+      <c r="L128" s="3"/>
+      <c r="M128" s="3"/>
+      <c r="N128" s="3"/>
+      <c r="O128" s="3"/>
+      <c r="P128" s="3"/>
+      <c r="Q128" s="3"/>
+      <c r="R128" s="3"/>
+      <c r="S128" s="3"/>
+      <c r="T128" s="3"/>
+      <c r="U128" s="3"/>
+      <c r="V128" s="3"/>
+      <c r="W128" s="3"/>
+      <c r="X128" s="3"/>
+      <c r="Y128" s="3"/>
+    </row>
+    <row r="129" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A129" s="4"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
+      <c r="M129" s="3"/>
+      <c r="N129" s="3"/>
+      <c r="O129" s="3"/>
+      <c r="P129" s="3"/>
+      <c r="Q129" s="3"/>
+      <c r="R129" s="3"/>
+      <c r="S129" s="3"/>
+      <c r="T129" s="3"/>
+      <c r="U129" s="3"/>
+      <c r="V129" s="3"/>
+      <c r="W129" s="3"/>
+      <c r="X129" s="3"/>
+      <c r="Y129" s="3"/>
+    </row>
+    <row r="130" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A130" s="4"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
+      <c r="L130" s="3"/>
+      <c r="M130" s="3"/>
+      <c r="N130" s="3"/>
+      <c r="O130" s="3"/>
+      <c r="P130" s="3"/>
+      <c r="Q130" s="3"/>
+      <c r="R130" s="3"/>
+      <c r="S130" s="3"/>
+      <c r="T130" s="3"/>
+      <c r="U130" s="3"/>
+      <c r="V130" s="3"/>
+      <c r="W130" s="3"/>
+      <c r="X130" s="3"/>
+      <c r="Y130" s="3"/>
+    </row>
+    <row r="131" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A131" s="4"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3"/>
+      <c r="L131" s="3"/>
+      <c r="M131" s="3"/>
+      <c r="N131" s="3"/>
+      <c r="O131" s="3"/>
+      <c r="P131" s="3"/>
+      <c r="Q131" s="3"/>
+      <c r="R131" s="3"/>
+      <c r="S131" s="3"/>
+      <c r="T131" s="3"/>
+      <c r="U131" s="3"/>
+      <c r="V131" s="3"/>
+      <c r="W131" s="3"/>
+      <c r="X131" s="3"/>
+      <c r="Y131" s="3"/>
+    </row>
+    <row r="132" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A132" s="4"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
+      <c r="K132" s="3"/>
+      <c r="L132" s="3"/>
+      <c r="M132" s="3"/>
+      <c r="N132" s="3"/>
+      <c r="O132" s="3"/>
+      <c r="P132" s="3"/>
+      <c r="Q132" s="3"/>
+      <c r="R132" s="3"/>
+      <c r="S132" s="3"/>
+      <c r="T132" s="3"/>
+      <c r="U132" s="3"/>
+      <c r="V132" s="3"/>
+      <c r="W132" s="3"/>
+      <c r="X132" s="3"/>
+      <c r="Y132" s="3"/>
+    </row>
+    <row r="133" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A133" s="4"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3"/>
+      <c r="K133" s="3"/>
+      <c r="L133" s="3"/>
+      <c r="M133" s="3"/>
+      <c r="N133" s="3"/>
+      <c r="O133" s="3"/>
+      <c r="P133" s="3"/>
+      <c r="Q133" s="3"/>
+      <c r="R133" s="3"/>
+      <c r="S133" s="3"/>
+      <c r="T133" s="3"/>
+      <c r="U133" s="3"/>
+      <c r="V133" s="3"/>
+      <c r="W133" s="3"/>
+      <c r="X133" s="3"/>
+      <c r="Y133" s="3"/>
+    </row>
+    <row r="134" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A134" s="4"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3"/>
+      <c r="K134" s="3"/>
+      <c r="L134" s="3"/>
+      <c r="M134" s="3"/>
+      <c r="N134" s="3"/>
+      <c r="O134" s="3"/>
+      <c r="P134" s="3"/>
+      <c r="Q134" s="3"/>
+      <c r="R134" s="3"/>
+      <c r="S134" s="3"/>
+      <c r="T134" s="3"/>
+      <c r="U134" s="3"/>
+      <c r="V134" s="3"/>
+      <c r="W134" s="3"/>
+      <c r="X134" s="3"/>
+      <c r="Y134" s="3"/>
+    </row>
+    <row r="135" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A135" s="4"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3"/>
+      <c r="K135" s="3"/>
+      <c r="L135" s="3"/>
+      <c r="M135" s="3"/>
+      <c r="N135" s="3"/>
+      <c r="O135" s="3"/>
+      <c r="P135" s="3"/>
+      <c r="Q135" s="3"/>
+      <c r="R135" s="3"/>
+      <c r="S135" s="3"/>
+      <c r="T135" s="3"/>
+      <c r="U135" s="3"/>
+      <c r="V135" s="3"/>
+      <c r="W135" s="3"/>
+      <c r="X135" s="3"/>
+      <c r="Y135" s="3"/>
+    </row>
+    <row r="136" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A136" s="4"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
+      <c r="J136" s="3"/>
+      <c r="K136" s="3"/>
+      <c r="L136" s="3"/>
+      <c r="M136" s="3"/>
+      <c r="N136" s="3"/>
+      <c r="O136" s="3"/>
+      <c r="P136" s="3"/>
+      <c r="Q136" s="3"/>
+      <c r="R136" s="3"/>
+      <c r="S136" s="3"/>
+      <c r="T136" s="3"/>
+      <c r="U136" s="3"/>
+      <c r="V136" s="3"/>
+      <c r="W136" s="3"/>
+      <c r="X136" s="3"/>
+      <c r="Y136" s="3"/>
+    </row>
+    <row r="137" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A137" s="4"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
+      <c r="K137" s="3"/>
+      <c r="L137" s="3"/>
+      <c r="M137" s="3"/>
+      <c r="N137" s="3"/>
+      <c r="O137" s="3"/>
+      <c r="P137" s="3"/>
+      <c r="Q137" s="3"/>
+      <c r="R137" s="3"/>
+      <c r="S137" s="3"/>
+      <c r="T137" s="3"/>
+      <c r="U137" s="3"/>
+      <c r="V137" s="3"/>
+      <c r="W137" s="3"/>
+      <c r="X137" s="3"/>
+      <c r="Y137" s="3"/>
+    </row>
+    <row r="138" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A138" s="4"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+      <c r="J138" s="3"/>
+      <c r="K138" s="3"/>
+      <c r="L138" s="3"/>
+      <c r="M138" s="3"/>
+      <c r="N138" s="3"/>
+      <c r="O138" s="3"/>
+      <c r="P138" s="3"/>
+      <c r="Q138" s="3"/>
+      <c r="R138" s="3"/>
+      <c r="S138" s="3"/>
+      <c r="T138" s="3"/>
+      <c r="U138" s="3"/>
+      <c r="V138" s="3"/>
+      <c r="W138" s="3"/>
+      <c r="X138" s="3"/>
+      <c r="Y138" s="3"/>
+    </row>
+    <row r="139" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A139" s="4"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3"/>
+      <c r="K139" s="3"/>
+      <c r="L139" s="3"/>
+      <c r="M139" s="3"/>
+      <c r="N139" s="3"/>
+      <c r="O139" s="3"/>
+      <c r="P139" s="3"/>
+      <c r="Q139" s="3"/>
+      <c r="R139" s="3"/>
+      <c r="S139" s="3"/>
+      <c r="T139" s="3"/>
+      <c r="U139" s="3"/>
+      <c r="V139" s="3"/>
+      <c r="W139" s="3"/>
+      <c r="X139" s="3"/>
+      <c r="Y139" s="3"/>
+    </row>
+    <row r="140" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A140" s="4"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="3"/>
+      <c r="K140" s="3"/>
+      <c r="L140" s="3"/>
+      <c r="M140" s="3"/>
+      <c r="N140" s="3"/>
+      <c r="O140" s="3"/>
+      <c r="P140" s="3"/>
+      <c r="Q140" s="3"/>
+      <c r="R140" s="3"/>
+      <c r="S140" s="3"/>
+      <c r="T140" s="3"/>
+      <c r="U140" s="3"/>
+      <c r="V140" s="3"/>
+      <c r="W140" s="3"/>
+      <c r="X140" s="3"/>
+      <c r="Y140" s="3"/>
+    </row>
+    <row r="141" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A141" s="4"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
+      <c r="J141" s="3"/>
+      <c r="K141" s="3"/>
+      <c r="L141" s="3"/>
+      <c r="M141" s="3"/>
+      <c r="N141" s="3"/>
+      <c r="O141" s="3"/>
+      <c r="P141" s="3"/>
+      <c r="Q141" s="3"/>
+      <c r="R141" s="3"/>
+      <c r="S141" s="3"/>
+      <c r="T141" s="3"/>
+      <c r="U141" s="3"/>
+      <c r="V141" s="3"/>
+      <c r="W141" s="3"/>
+      <c r="X141" s="3"/>
+      <c r="Y141" s="3"/>
+    </row>
+    <row r="142" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A142" s="4"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="3"/>
+      <c r="K142" s="3"/>
+      <c r="L142" s="3"/>
+      <c r="M142" s="3"/>
+      <c r="N142" s="3"/>
+      <c r="O142" s="3"/>
+      <c r="P142" s="3"/>
+      <c r="Q142" s="3"/>
+      <c r="R142" s="3"/>
+      <c r="S142" s="3"/>
+      <c r="T142" s="3"/>
+      <c r="U142" s="3"/>
+      <c r="V142" s="3"/>
+      <c r="W142" s="3"/>
+      <c r="X142" s="3"/>
+      <c r="Y142" s="3"/>
+    </row>
+    <row r="143" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A143" s="4"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3"/>
+      <c r="J143" s="3"/>
+      <c r="K143" s="3"/>
+      <c r="L143" s="3"/>
+      <c r="M143" s="3"/>
+      <c r="N143" s="3"/>
+      <c r="O143" s="3"/>
+      <c r="P143" s="3"/>
+      <c r="Q143" s="3"/>
+      <c r="R143" s="3"/>
+      <c r="S143" s="3"/>
+      <c r="T143" s="3"/>
+      <c r="U143" s="3"/>
+      <c r="V143" s="3"/>
+      <c r="W143" s="3"/>
+      <c r="X143" s="3"/>
+      <c r="Y143" s="3"/>
+    </row>
+    <row r="144" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A144" s="4"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+      <c r="J144" s="3"/>
+      <c r="K144" s="3"/>
+      <c r="L144" s="3"/>
+      <c r="M144" s="3"/>
+      <c r="N144" s="3"/>
+      <c r="O144" s="3"/>
+      <c r="P144" s="3"/>
+      <c r="Q144" s="3"/>
+      <c r="R144" s="3"/>
+      <c r="S144" s="3"/>
+      <c r="T144" s="3"/>
+      <c r="U144" s="3"/>
+      <c r="V144" s="3"/>
+      <c r="W144" s="3"/>
+      <c r="X144" s="3"/>
+      <c r="Y144" s="3"/>
+    </row>
+    <row r="145" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A145" s="4"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+      <c r="J145" s="3"/>
+      <c r="K145" s="3"/>
+      <c r="L145" s="3"/>
+      <c r="M145" s="3"/>
+      <c r="N145" s="3"/>
+      <c r="O145" s="3"/>
+      <c r="P145" s="3"/>
+      <c r="Q145" s="3"/>
+      <c r="R145" s="3"/>
+      <c r="S145" s="3"/>
+      <c r="T145" s="3"/>
+      <c r="U145" s="3"/>
+      <c r="V145" s="3"/>
+      <c r="W145" s="3"/>
+      <c r="X145" s="3"/>
+      <c r="Y145" s="3"/>
+    </row>
+    <row r="146" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A146" s="4"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3"/>
+      <c r="J146" s="3"/>
+      <c r="K146" s="3"/>
+      <c r="L146" s="3"/>
+      <c r="M146" s="3"/>
+      <c r="N146" s="3"/>
+      <c r="O146" s="3"/>
+      <c r="P146" s="3"/>
+      <c r="Q146" s="3"/>
+      <c r="R146" s="3"/>
+      <c r="S146" s="3"/>
+      <c r="T146" s="3"/>
+      <c r="U146" s="3"/>
+      <c r="V146" s="3"/>
+      <c r="W146" s="3"/>
+      <c r="X146" s="3"/>
+      <c r="Y146" s="3"/>
+    </row>
+    <row r="147" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A147" s="4"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3"/>
+      <c r="J147" s="3"/>
+      <c r="K147" s="3"/>
+      <c r="L147" s="3"/>
+      <c r="M147" s="3"/>
+      <c r="N147" s="3"/>
+      <c r="O147" s="3"/>
+      <c r="P147" s="3"/>
+      <c r="Q147" s="3"/>
+      <c r="R147" s="3"/>
+      <c r="S147" s="3"/>
+      <c r="T147" s="3"/>
+      <c r="U147" s="3"/>
+      <c r="V147" s="3"/>
+      <c r="W147" s="3"/>
+      <c r="X147" s="3"/>
+      <c r="Y147" s="3"/>
+    </row>
+    <row r="148" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A148" s="4"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3"/>
+      <c r="K148" s="3"/>
+      <c r="L148" s="3"/>
+      <c r="M148" s="3"/>
+      <c r="N148" s="3"/>
+      <c r="O148" s="3"/>
+      <c r="P148" s="3"/>
+      <c r="Q148" s="3"/>
+      <c r="R148" s="3"/>
+      <c r="S148" s="3"/>
+      <c r="T148" s="3"/>
+      <c r="U148" s="3"/>
+      <c r="V148" s="3"/>
+      <c r="W148" s="3"/>
+      <c r="X148" s="3"/>
+      <c r="Y148" s="3"/>
+    </row>
+    <row r="149" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A149" s="4"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="3"/>
+      <c r="K149" s="3"/>
+      <c r="L149" s="3"/>
+      <c r="M149" s="3"/>
+      <c r="N149" s="3"/>
+      <c r="O149" s="3"/>
+      <c r="P149" s="3"/>
+      <c r="Q149" s="3"/>
+      <c r="R149" s="3"/>
+      <c r="S149" s="3"/>
+      <c r="T149" s="3"/>
+      <c r="U149" s="3"/>
+      <c r="V149" s="3"/>
+      <c r="W149" s="3"/>
+      <c r="X149" s="3"/>
+      <c r="Y149" s="3"/>
+    </row>
+    <row r="150" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A150" s="4"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="3"/>
+      <c r="K150" s="3"/>
+      <c r="L150" s="3"/>
+      <c r="M150" s="3"/>
+      <c r="N150" s="3"/>
+      <c r="O150" s="3"/>
+      <c r="P150" s="3"/>
+      <c r="Q150" s="3"/>
+      <c r="R150" s="3"/>
+      <c r="S150" s="3"/>
+      <c r="T150" s="3"/>
+      <c r="U150" s="3"/>
+      <c r="V150" s="3"/>
+      <c r="W150" s="3"/>
+      <c r="X150" s="3"/>
+      <c r="Y150" s="3"/>
+    </row>
+    <row r="151" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A151" s="4"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="3"/>
+      <c r="K151" s="3"/>
+      <c r="L151" s="3"/>
+      <c r="M151" s="3"/>
+      <c r="N151" s="3"/>
+      <c r="O151" s="3"/>
+      <c r="P151" s="3"/>
+      <c r="Q151" s="3"/>
+      <c r="R151" s="3"/>
+      <c r="S151" s="3"/>
+      <c r="T151" s="3"/>
+      <c r="U151" s="3"/>
+      <c r="V151" s="3"/>
+      <c r="W151" s="3"/>
+      <c r="X151" s="3"/>
+      <c r="Y151" s="3"/>
+    </row>
+    <row r="152" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A152" s="4"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="3"/>
+      <c r="J152" s="3"/>
+      <c r="K152" s="3"/>
+      <c r="L152" s="3"/>
+      <c r="M152" s="3"/>
+      <c r="N152" s="3"/>
+      <c r="O152" s="3"/>
+      <c r="P152" s="3"/>
+      <c r="Q152" s="3"/>
+      <c r="R152" s="3"/>
+      <c r="S152" s="3"/>
+      <c r="T152" s="3"/>
+      <c r="U152" s="3"/>
+      <c r="V152" s="3"/>
+      <c r="W152" s="3"/>
+      <c r="X152" s="3"/>
+      <c r="Y152" s="3"/>
+    </row>
+    <row r="153" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A153" s="4"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
+      <c r="I153" s="3"/>
+      <c r="J153" s="3"/>
+      <c r="K153" s="3"/>
+      <c r="L153" s="3"/>
+      <c r="M153" s="3"/>
+      <c r="N153" s="3"/>
+      <c r="O153" s="3"/>
+      <c r="P153" s="3"/>
+      <c r="Q153" s="3"/>
+      <c r="R153" s="3"/>
+      <c r="S153" s="3"/>
+      <c r="T153" s="3"/>
+      <c r="U153" s="3"/>
+      <c r="V153" s="3"/>
+      <c r="W153" s="3"/>
+      <c r="X153" s="3"/>
+      <c r="Y153" s="3"/>
+    </row>
+    <row r="154" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A154" s="4"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3"/>
+      <c r="I154" s="3"/>
+      <c r="J154" s="3"/>
+      <c r="K154" s="3"/>
+      <c r="L154" s="3"/>
+      <c r="M154" s="3"/>
+      <c r="N154" s="3"/>
+      <c r="O154" s="3"/>
+      <c r="P154" s="3"/>
+      <c r="Q154" s="3"/>
+      <c r="R154" s="3"/>
+      <c r="S154" s="3"/>
+      <c r="T154" s="3"/>
+      <c r="U154" s="3"/>
+      <c r="V154" s="3"/>
+      <c r="W154" s="3"/>
+      <c r="X154" s="3"/>
+      <c r="Y154" s="3"/>
+    </row>
+    <row r="155" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A155" s="4"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3"/>
+      <c r="I155" s="3"/>
+      <c r="J155" s="3"/>
+      <c r="K155" s="3"/>
+      <c r="L155" s="3"/>
+      <c r="M155" s="3"/>
+      <c r="N155" s="3"/>
+      <c r="O155" s="3"/>
+      <c r="P155" s="3"/>
+      <c r="Q155" s="3"/>
+      <c r="R155" s="3"/>
+      <c r="S155" s="3"/>
+      <c r="T155" s="3"/>
+      <c r="U155" s="3"/>
+      <c r="V155" s="3"/>
+      <c r="W155" s="3"/>
+      <c r="X155" s="3"/>
+      <c r="Y155" s="3"/>
+    </row>
+    <row r="156" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A156" s="4"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="3"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3"/>
+      <c r="I156" s="3"/>
+      <c r="J156" s="3"/>
+      <c r="K156" s="3"/>
+      <c r="L156" s="3"/>
+      <c r="M156" s="3"/>
+      <c r="N156" s="3"/>
+      <c r="O156" s="3"/>
+      <c r="P156" s="3"/>
+      <c r="Q156" s="3"/>
+      <c r="R156" s="3"/>
+      <c r="S156" s="3"/>
+      <c r="T156" s="3"/>
+      <c r="U156" s="3"/>
+      <c r="V156" s="3"/>
+      <c r="W156" s="3"/>
+      <c r="X156" s="3"/>
+      <c r="Y156" s="3"/>
+    </row>
+    <row r="157" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A157" s="4"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="3"/>
+      <c r="K157" s="3"/>
+      <c r="L157" s="3"/>
+      <c r="M157" s="3"/>
+      <c r="N157" s="3"/>
+      <c r="O157" s="3"/>
+      <c r="P157" s="3"/>
+      <c r="Q157" s="3"/>
+      <c r="R157" s="3"/>
+      <c r="S157" s="3"/>
+      <c r="T157" s="3"/>
+      <c r="U157" s="3"/>
+      <c r="V157" s="3"/>
+      <c r="W157" s="3"/>
+      <c r="X157" s="3"/>
+      <c r="Y157" s="3"/>
+    </row>
+    <row r="158" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A158" s="4"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3"/>
+      <c r="I158" s="3"/>
+      <c r="J158" s="3"/>
+      <c r="K158" s="3"/>
+      <c r="L158" s="3"/>
+      <c r="M158" s="3"/>
+      <c r="N158" s="3"/>
+      <c r="O158" s="3"/>
+      <c r="P158" s="3"/>
+      <c r="Q158" s="3"/>
+      <c r="R158" s="3"/>
+      <c r="S158" s="3"/>
+      <c r="T158" s="3"/>
+      <c r="U158" s="3"/>
+      <c r="V158" s="3"/>
+      <c r="W158" s="3"/>
+      <c r="X158" s="3"/>
+      <c r="Y158" s="3"/>
+    </row>
+    <row r="159" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A159" s="4"/>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="3"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="3"/>
+      <c r="K159" s="3"/>
+      <c r="L159" s="3"/>
+      <c r="M159" s="3"/>
+      <c r="N159" s="3"/>
+      <c r="O159" s="3"/>
+      <c r="P159" s="3"/>
+      <c r="Q159" s="3"/>
+      <c r="R159" s="3"/>
+      <c r="S159" s="3"/>
+      <c r="T159" s="3"/>
+      <c r="U159" s="3"/>
+      <c r="V159" s="3"/>
+      <c r="W159" s="3"/>
+      <c r="X159" s="3"/>
+      <c r="Y159" s="3"/>
+    </row>
+    <row r="160" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A160" s="4"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3"/>
+      <c r="I160" s="3"/>
+      <c r="J160" s="3"/>
+      <c r="K160" s="3"/>
+      <c r="L160" s="3"/>
+      <c r="M160" s="3"/>
+      <c r="N160" s="3"/>
+      <c r="O160" s="3"/>
+      <c r="P160" s="3"/>
+      <c r="Q160" s="3"/>
+      <c r="R160" s="3"/>
+      <c r="S160" s="3"/>
+      <c r="T160" s="3"/>
+      <c r="U160" s="3"/>
+      <c r="V160" s="3"/>
+      <c r="W160" s="3"/>
+      <c r="X160" s="3"/>
+      <c r="Y160" s="3"/>
+    </row>
+    <row r="161" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A161" s="4"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3"/>
+      <c r="J161" s="3"/>
+      <c r="K161" s="3"/>
+      <c r="L161" s="3"/>
+      <c r="M161" s="3"/>
+      <c r="N161" s="3"/>
+      <c r="O161" s="3"/>
+      <c r="P161" s="3"/>
+      <c r="Q161" s="3"/>
+      <c r="R161" s="3"/>
+      <c r="S161" s="3"/>
+      <c r="T161" s="3"/>
+      <c r="U161" s="3"/>
+      <c r="V161" s="3"/>
+      <c r="W161" s="3"/>
+      <c r="X161" s="3"/>
+      <c r="Y161" s="3"/>
+    </row>
+    <row r="162" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A162" s="4"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="3"/>
+      <c r="H162" s="3"/>
+      <c r="I162" s="3"/>
+      <c r="J162" s="3"/>
+      <c r="K162" s="3"/>
+      <c r="L162" s="3"/>
+      <c r="M162" s="3"/>
+      <c r="N162" s="3"/>
+      <c r="O162" s="3"/>
+      <c r="P162" s="3"/>
+      <c r="Q162" s="3"/>
+      <c r="R162" s="3"/>
+      <c r="S162" s="3"/>
+      <c r="T162" s="3"/>
+      <c r="U162" s="3"/>
+      <c r="V162" s="3"/>
+      <c r="W162" s="3"/>
+      <c r="X162" s="3"/>
+      <c r="Y162" s="3"/>
+    </row>
+    <row r="163" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A163" s="4"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="3"/>
+      <c r="I163" s="3"/>
+      <c r="J163" s="3"/>
+      <c r="K163" s="3"/>
+      <c r="L163" s="3"/>
+      <c r="M163" s="3"/>
+      <c r="N163" s="3"/>
+      <c r="O163" s="3"/>
+      <c r="P163" s="3"/>
+      <c r="Q163" s="3"/>
+      <c r="R163" s="3"/>
+      <c r="S163" s="3"/>
+      <c r="T163" s="3"/>
+      <c r="U163" s="3"/>
+      <c r="V163" s="3"/>
+      <c r="W163" s="3"/>
+      <c r="X163" s="3"/>
+      <c r="Y163" s="3"/>
+    </row>
+    <row r="164" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A164" s="4"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="3"/>
+      <c r="I164" s="3"/>
+      <c r="J164" s="3"/>
+      <c r="K164" s="3"/>
+      <c r="L164" s="3"/>
+      <c r="M164" s="3"/>
+      <c r="N164" s="3"/>
+      <c r="O164" s="3"/>
+      <c r="P164" s="3"/>
+      <c r="Q164" s="3"/>
+      <c r="R164" s="3"/>
+      <c r="S164" s="3"/>
+      <c r="T164" s="3"/>
+      <c r="U164" s="3"/>
+      <c r="V164" s="3"/>
+      <c r="W164" s="3"/>
+      <c r="X164" s="3"/>
+      <c r="Y164" s="3"/>
+    </row>
+    <row r="165" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A165" s="4"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="3"/>
+      <c r="I165" s="3"/>
+      <c r="J165" s="3"/>
+      <c r="K165" s="3"/>
+      <c r="L165" s="3"/>
+      <c r="M165" s="3"/>
+      <c r="N165" s="3"/>
+      <c r="O165" s="3"/>
+      <c r="P165" s="3"/>
+      <c r="Q165" s="3"/>
+      <c r="R165" s="3"/>
+      <c r="S165" s="3"/>
+      <c r="T165" s="3"/>
+      <c r="U165" s="3"/>
+      <c r="V165" s="3"/>
+      <c r="W165" s="3"/>
+      <c r="X165" s="3"/>
+      <c r="Y165" s="3"/>
+    </row>
+    <row r="166" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A166" s="4"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="3"/>
+      <c r="J166" s="3"/>
+      <c r="K166" s="3"/>
+      <c r="L166" s="3"/>
+      <c r="M166" s="3"/>
+      <c r="N166" s="3"/>
+      <c r="O166" s="3"/>
+      <c r="P166" s="3"/>
+      <c r="Q166" s="3"/>
+      <c r="R166" s="3"/>
+      <c r="S166" s="3"/>
+      <c r="T166" s="3"/>
+      <c r="U166" s="3"/>
+      <c r="V166" s="3"/>
+      <c r="W166" s="3"/>
+      <c r="X166" s="3"/>
+      <c r="Y166" s="3"/>
+    </row>
+    <row r="167" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A167" s="4"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="3"/>
+      <c r="G167" s="3"/>
+      <c r="H167" s="3"/>
+      <c r="I167" s="3"/>
+      <c r="J167" s="3"/>
+      <c r="K167" s="3"/>
+      <c r="L167" s="3"/>
+      <c r="M167" s="3"/>
+      <c r="N167" s="3"/>
+      <c r="O167" s="3"/>
+      <c r="P167" s="3"/>
+      <c r="Q167" s="3"/>
+      <c r="R167" s="3"/>
+      <c r="S167" s="3"/>
+      <c r="T167" s="3"/>
+      <c r="U167" s="3"/>
+      <c r="V167" s="3"/>
+      <c r="W167" s="3"/>
+      <c r="X167" s="3"/>
+      <c r="Y167" s="3"/>
+    </row>
+    <row r="168" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A168" s="4"/>
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
+      <c r="H168" s="3"/>
+      <c r="I168" s="3"/>
+      <c r="J168" s="3"/>
+      <c r="K168" s="3"/>
+      <c r="L168" s="3"/>
+      <c r="M168" s="3"/>
+      <c r="N168" s="3"/>
+      <c r="O168" s="3"/>
+      <c r="P168" s="3"/>
+      <c r="Q168" s="3"/>
+      <c r="R168" s="3"/>
+      <c r="S168" s="3"/>
+      <c r="T168" s="3"/>
+      <c r="U168" s="3"/>
+      <c r="V168" s="3"/>
+      <c r="W168" s="3"/>
+      <c r="X168" s="3"/>
+      <c r="Y168" s="3"/>
+    </row>
+    <row r="169" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A169" s="4"/>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
+      <c r="I169" s="3"/>
+      <c r="J169" s="3"/>
+      <c r="K169" s="3"/>
+      <c r="L169" s="3"/>
+      <c r="M169" s="3"/>
+      <c r="N169" s="3"/>
+      <c r="O169" s="3"/>
+      <c r="P169" s="3"/>
+      <c r="Q169" s="3"/>
+      <c r="R169" s="3"/>
+      <c r="S169" s="3"/>
+      <c r="T169" s="3"/>
+      <c r="U169" s="3"/>
+      <c r="V169" s="3"/>
+      <c r="W169" s="3"/>
+      <c r="X169" s="3"/>
+      <c r="Y169" s="3"/>
+    </row>
+    <row r="170" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A170" s="4"/>
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+      <c r="I170" s="3"/>
+      <c r="J170" s="3"/>
+      <c r="K170" s="3"/>
+      <c r="L170" s="3"/>
+      <c r="M170" s="3"/>
+      <c r="N170" s="3"/>
+      <c r="O170" s="3"/>
+      <c r="P170" s="3"/>
+      <c r="Q170" s="3"/>
+      <c r="R170" s="3"/>
+      <c r="S170" s="3"/>
+      <c r="T170" s="3"/>
+      <c r="U170" s="3"/>
+      <c r="V170" s="3"/>
+      <c r="W170" s="3"/>
+      <c r="X170" s="3"/>
+      <c r="Y170" s="3"/>
+    </row>
+    <row r="171" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A171" s="4"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="3"/>
+      <c r="J171" s="3"/>
+      <c r="K171" s="3"/>
+      <c r="L171" s="3"/>
+      <c r="M171" s="3"/>
+      <c r="N171" s="3"/>
+      <c r="O171" s="3"/>
+      <c r="P171" s="3"/>
+      <c r="Q171" s="3"/>
+      <c r="R171" s="3"/>
+      <c r="S171" s="3"/>
+      <c r="T171" s="3"/>
+      <c r="U171" s="3"/>
+      <c r="V171" s="3"/>
+      <c r="W171" s="3"/>
+      <c r="X171" s="3"/>
+      <c r="Y171" s="3"/>
+    </row>
+    <row r="172" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A172" s="4"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3"/>
+      <c r="I172" s="3"/>
+      <c r="J172" s="3"/>
+      <c r="K172" s="3"/>
+      <c r="L172" s="3"/>
+      <c r="M172" s="3"/>
+      <c r="N172" s="3"/>
+      <c r="O172" s="3"/>
+      <c r="P172" s="3"/>
+      <c r="Q172" s="3"/>
+      <c r="R172" s="3"/>
+      <c r="S172" s="3"/>
+      <c r="T172" s="3"/>
+      <c r="U172" s="3"/>
+      <c r="V172" s="3"/>
+      <c r="W172" s="3"/>
+      <c r="X172" s="3"/>
+      <c r="Y172" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D99">
+  <conditionalFormatting sqref="D1:D172">
     <cfRule type="cellIs" priority="1" dxfId="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
@@ -3454,7 +5337,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E99">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E172">
       <formula1>'Group-Turn'!$A:$A</formula1>
     </dataValidation>
   </dataValidations>
@@ -3531,16 +5414,16 @@
         <v>20</v>
       </c>
       <c r="C2" s="11">
-        <v>1.0</v>
+        <v>328.0</v>
       </c>
       <c r="D2" s="11">
-        <v>1.0</v>
+        <v>268.0</v>
       </c>
       <c r="E2" s="11">
-        <v>1.0</v>
+        <v>288.0</v>
       </c>
       <c r="F2" s="11">
-        <v>1.0</v>
+        <v>281.0</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>21</v>
@@ -3551,10 +5434,10 @@
       <c r="I2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="11" t="n">
+      <c r="J2" s="11">
         <v>0.0</v>
       </c>
-      <c r="K2" s="11" t="n">
+      <c r="K2" s="11">
         <v>0.0</v>
       </c>
       <c r="L2" s="12"/>
@@ -11402,7 +13285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6cd95555-b438-42d8-9c29-a8fb31f9db43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f5f826e9-e1f6-4550-9f7f-1241bc58267e}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -11410,7 +13293,7 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="5" spans="1:1" ht="23.25" customHeight="1">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="21" t="s">
         <v>40</v>
       </c>
     </row>

--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent>
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tool_test_game\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551EDC71-C041-46E8-BED3-AEE3FB78BF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Scope" sheetId="1" r:id="rId3"/>
-    <sheet name="Plan" sheetId="2" r:id="rId4"/>
-    <sheet name="Options" sheetId="3" r:id="rId5"/>
-    <sheet name="Group-Turn" sheetId="4" r:id="rId6"/>
-    <sheet name="Note" sheetId="5" r:id="rId7"/>
-    <sheet name="Evaluation Warning" sheetId="175" r:id="rId8"/>
+    <sheet name="Scope" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan" sheetId="2" r:id="rId2"/>
+    <sheet name="Options" sheetId="3" r:id="rId3"/>
+    <sheet name="Group-Turn" sheetId="4" r:id="rId4"/>
+    <sheet name="Note" sheetId="5" r:id="rId5"/>
+    <sheet name="Evaluation Warning" sheetId="175" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>STT</t>
   </si>
@@ -157,7 +158,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -263,32 +264,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -315,30 +294,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -367,74 +325,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -643,26 +533,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5C77FF-4D40-413E-B951-AF1F59FB20FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5C77FF-4D40-413E-B951-AF1F59FB20FF}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Y172"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="5.857142857142857"/>
-    <col min="2" max="2" customWidth="true" width="45.714285714285715"/>
-    <col min="3" max="6" customWidth="true" width="12.571428571428571"/>
+    <col min="1" max="1" customWidth="true" width="5.85546875"/>
+    <col min="2" max="2" customWidth="true" width="45.7109375"/>
+    <col min="3" max="6" customWidth="true" width="12.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,9 +588,9 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>41</v>
@@ -734,7 +623,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -761,7 +650,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -788,7 +677,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -815,7 +704,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -842,7 +731,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -869,7 +758,7 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -896,7 +785,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -923,7 +812,7 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -950,7 +839,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -977,7 +866,7 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1004,7 +893,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1031,7 +920,7 @@
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1058,7 +947,7 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1085,7 +974,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1112,7 +1001,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1">
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1139,7 +1028,7 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:25" ht="15.75" customHeight="1">
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1166,7 +1055,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25" ht="15.75" customHeight="1">
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1193,7 +1082,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1">
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1220,7 +1109,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1">
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1247,7 +1136,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1">
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1274,7 +1163,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25" ht="15.75" customHeight="1">
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1301,7 +1190,7 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1">
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1328,7 +1217,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1355,7 +1244,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1">
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1382,7 +1271,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="1:25" ht="15.75" customHeight="1">
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1409,7 +1298,7 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1">
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1436,7 +1325,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="1:25" ht="15.75" customHeight="1">
+    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1463,7 +1352,7 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1">
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1490,7 +1379,7 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1517,7 +1406,7 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
     </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1544,7 +1433,7 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
     </row>
-    <row r="33" spans="1:25" ht="15.75" customHeight="1">
+    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1571,7 +1460,7 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
     </row>
-    <row r="34" spans="1:25" ht="15.75" customHeight="1">
+    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1598,7 +1487,7 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
     </row>
-    <row r="35" spans="1:25" ht="15.75" customHeight="1">
+    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1625,7 +1514,7 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
     </row>
-    <row r="36" spans="1:25" ht="15.75" customHeight="1">
+    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1652,7 +1541,7 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
     </row>
-    <row r="37" spans="1:25" ht="15.75" customHeight="1">
+    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1679,7 +1568,7 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
     </row>
-    <row r="38" spans="1:25" ht="15.75" customHeight="1">
+    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1706,7 +1595,7 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
     </row>
-    <row r="39" spans="1:25" ht="15.75" customHeight="1">
+    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1733,7 +1622,7 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
     </row>
-    <row r="40" spans="1:25" ht="15.75" customHeight="1">
+    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1760,7 +1649,7 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
     </row>
-    <row r="41" spans="1:25" ht="15.75" customHeight="1">
+    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1787,7 +1676,7 @@
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
     </row>
-    <row r="42" spans="1:25" ht="15.75" customHeight="1">
+    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1814,7 +1703,7 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
     </row>
-    <row r="43" spans="1:25" ht="15.75" customHeight="1">
+    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1841,7 +1730,7 @@
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
     </row>
-    <row r="44" spans="1:25" ht="15.75" customHeight="1">
+    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1868,7 +1757,7 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
     </row>
-    <row r="45" spans="1:25" ht="15.75" customHeight="1">
+    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1895,7 +1784,7 @@
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
     </row>
-    <row r="46" spans="1:25" ht="15.75" customHeight="1">
+    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1922,7 +1811,7 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
     </row>
-    <row r="47" spans="1:25" ht="15.75" customHeight="1">
+    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1949,7 +1838,7 @@
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
     </row>
-    <row r="48" spans="1:25" ht="15.75" customHeight="1">
+    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1976,7 +1865,7 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
     </row>
-    <row r="49" spans="1:25" ht="15.75" customHeight="1">
+    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2003,7 +1892,7 @@
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
     </row>
-    <row r="50" spans="1:25" ht="15.75" customHeight="1">
+    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2030,7 +1919,7 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
     </row>
-    <row r="51" spans="1:25" ht="15.75" customHeight="1">
+    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2057,7 +1946,7 @@
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
     </row>
-    <row r="52" spans="1:25" ht="15.75" customHeight="1">
+    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2084,7 +1973,7 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
     </row>
-    <row r="53" spans="1:25" ht="15.75" customHeight="1">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2111,7 +2000,7 @@
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
     </row>
-    <row r="54" spans="1:25" ht="15.75" customHeight="1">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2138,7 +2027,7 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
     </row>
-    <row r="55" spans="1:25" ht="15.75" customHeight="1">
+    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2165,7 +2054,7 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
     </row>
-    <row r="56" spans="1:25" ht="15.75" customHeight="1">
+    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2192,7 +2081,7 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
     </row>
-    <row r="57" spans="1:25" ht="15.75" customHeight="1">
+    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2219,7 +2108,7 @@
       <c r="X57" s="3"/>
       <c r="Y57" s="3"/>
     </row>
-    <row r="58" spans="1:25" ht="15.75" customHeight="1">
+    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2246,7 +2135,7 @@
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
     </row>
-    <row r="59" spans="1:25" ht="15.75" customHeight="1">
+    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2273,7 +2162,7 @@
       <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
     </row>
-    <row r="60" spans="1:25" ht="15.75" customHeight="1">
+    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2300,7 +2189,7 @@
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
     </row>
-    <row r="61" spans="1:25" ht="15.75" customHeight="1">
+    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2327,7 +2216,7 @@
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
     </row>
-    <row r="62" spans="1:25" ht="15.75" customHeight="1">
+    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2354,7 +2243,7 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
     </row>
-    <row r="63" spans="1:25" ht="15.75" customHeight="1">
+    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2381,7 +2270,7 @@
       <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
     </row>
-    <row r="64" spans="1:25" ht="15.75" customHeight="1">
+    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2408,7 +2297,7 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
     </row>
-    <row r="65" spans="1:25" ht="15.75" customHeight="1">
+    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2435,7 +2324,7 @@
       <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
     </row>
-    <row r="66" spans="1:25" ht="15.75" customHeight="1">
+    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2462,7 +2351,7 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
     </row>
-    <row r="67" spans="1:25" ht="15.75" customHeight="1">
+    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2489,7 +2378,7 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
     </row>
-    <row r="68" spans="1:25" ht="15.75" customHeight="1">
+    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2516,7 +2405,7 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
     </row>
-    <row r="69" spans="1:25" ht="15.75" customHeight="1">
+    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2543,7 +2432,7 @@
       <c r="X69" s="3"/>
       <c r="Y69" s="3"/>
     </row>
-    <row r="70" spans="1:25" ht="15.75" customHeight="1">
+    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2570,7 +2459,7 @@
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
     </row>
-    <row r="71" spans="1:25" ht="15.75" customHeight="1">
+    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2597,7 +2486,7 @@
       <c r="X71" s="3"/>
       <c r="Y71" s="3"/>
     </row>
-    <row r="72" spans="1:25" ht="15.75" customHeight="1">
+    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2624,7 +2513,7 @@
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
     </row>
-    <row r="73" spans="1:25" ht="15.75" customHeight="1">
+    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2651,7 +2540,7 @@
       <c r="X73" s="3"/>
       <c r="Y73" s="3"/>
     </row>
-    <row r="74" spans="1:25" ht="15.75" customHeight="1">
+    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2678,7 +2567,7 @@
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
     </row>
-    <row r="75" spans="1:25" ht="15.75" customHeight="1">
+    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2705,7 +2594,7 @@
       <c r="X75" s="3"/>
       <c r="Y75" s="3"/>
     </row>
-    <row r="76" spans="1:25" ht="15.75" customHeight="1">
+    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2732,7 +2621,7 @@
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
     </row>
-    <row r="77" spans="1:25" ht="15.75" customHeight="1">
+    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2759,7 +2648,7 @@
       <c r="X77" s="3"/>
       <c r="Y77" s="3"/>
     </row>
-    <row r="78" spans="1:25" ht="15.75" customHeight="1">
+    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2786,7 +2675,7 @@
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
     </row>
-    <row r="79" spans="1:25" ht="15.75" customHeight="1">
+    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2813,7 +2702,7 @@
       <c r="X79" s="3"/>
       <c r="Y79" s="3"/>
     </row>
-    <row r="80" spans="1:25" ht="15.75" customHeight="1">
+    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2840,7 +2729,7 @@
       <c r="X80" s="3"/>
       <c r="Y80" s="3"/>
     </row>
-    <row r="81" spans="1:25" ht="15.75" customHeight="1">
+    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2867,7 +2756,7 @@
       <c r="X81" s="3"/>
       <c r="Y81" s="3"/>
     </row>
-    <row r="82" spans="1:25" ht="15.75" customHeight="1">
+    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2894,7 +2783,7 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
     </row>
-    <row r="83" spans="1:25" ht="15.75" customHeight="1">
+    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2921,7 +2810,7 @@
       <c r="X83" s="3"/>
       <c r="Y83" s="3"/>
     </row>
-    <row r="84" spans="1:25" ht="15.75" customHeight="1">
+    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2948,7 +2837,7 @@
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
     </row>
-    <row r="85" spans="1:25" ht="15.75" customHeight="1">
+    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2975,7 +2864,7 @@
       <c r="X85" s="3"/>
       <c r="Y85" s="3"/>
     </row>
-    <row r="86" spans="1:25" ht="15.75" customHeight="1">
+    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -3002,7 +2891,7 @@
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
     </row>
-    <row r="87" spans="1:25" ht="15.75" customHeight="1">
+    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -3029,7 +2918,7 @@
       <c r="X87" s="3"/>
       <c r="Y87" s="3"/>
     </row>
-    <row r="88" spans="1:25" ht="15.75" customHeight="1">
+    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3056,7 +2945,7 @@
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
     </row>
-    <row r="89" spans="1:25" ht="15.75" customHeight="1">
+    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3083,7 +2972,7 @@
       <c r="X89" s="3"/>
       <c r="Y89" s="3"/>
     </row>
-    <row r="90" spans="1:25" ht="15.75" customHeight="1">
+    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3110,7 +2999,7 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
     </row>
-    <row r="91" spans="1:25" ht="15.75" customHeight="1">
+    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3137,7 +3026,7 @@
       <c r="X91" s="3"/>
       <c r="Y91" s="3"/>
     </row>
-    <row r="92" spans="1:25" ht="15.75" customHeight="1">
+    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3164,7 +3053,7 @@
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
     </row>
-    <row r="93" spans="1:25" ht="15.75" customHeight="1">
+    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3191,7 +3080,7 @@
       <c r="X93" s="3"/>
       <c r="Y93" s="3"/>
     </row>
-    <row r="94" spans="1:25" ht="15.75" customHeight="1">
+    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3218,7 +3107,7 @@
       <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
     </row>
-    <row r="95" spans="1:25" ht="15.75" customHeight="1">
+    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3245,7 +3134,7 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
     </row>
-    <row r="96" spans="1:25" ht="15.75" customHeight="1">
+    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3272,7 +3161,7 @@
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
     </row>
-    <row r="97" spans="1:25" ht="15.75" customHeight="1">
+    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3299,7 +3188,7 @@
       <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
     </row>
-    <row r="98" spans="1:25" ht="15.75" customHeight="1">
+    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3326,7 +3215,7 @@
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
     </row>
-    <row r="99" spans="1:25" ht="15.75" customHeight="1">
+    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3353,7 +3242,7 @@
       <c r="X99" s="3"/>
       <c r="Y99" s="3"/>
     </row>
-    <row r="100" spans="1:25" ht="15.75" customHeight="1">
+    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3380,7 +3269,7 @@
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
     </row>
-    <row r="101" spans="1:25" ht="15.75" customHeight="1">
+    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -3407,7 +3296,7 @@
       <c r="X101" s="3"/>
       <c r="Y101" s="3"/>
     </row>
-    <row r="102" spans="1:25" ht="15.75" customHeight="1">
+    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -3434,7 +3323,7 @@
       <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
     </row>
-    <row r="103" spans="1:25" ht="15.75" customHeight="1">
+    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -3461,7 +3350,7 @@
       <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
     </row>
-    <row r="104" spans="1:25" ht="15.75" customHeight="1">
+    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -3488,7 +3377,7 @@
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
     </row>
-    <row r="105" spans="1:25" ht="15.75" customHeight="1">
+    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -3515,7 +3404,7 @@
       <c r="X105" s="3"/>
       <c r="Y105" s="3"/>
     </row>
-    <row r="106" spans="1:25" ht="15.75" customHeight="1">
+    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -3542,7 +3431,7 @@
       <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
     </row>
-    <row r="107" spans="1:25" ht="15.75" customHeight="1">
+    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -3569,7 +3458,7 @@
       <c r="X107" s="3"/>
       <c r="Y107" s="3"/>
     </row>
-    <row r="108" spans="1:25" ht="15.75" customHeight="1">
+    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -3596,7 +3485,7 @@
       <c r="X108" s="3"/>
       <c r="Y108" s="3"/>
     </row>
-    <row r="109" spans="1:25" ht="15.75" customHeight="1">
+    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -3623,7 +3512,7 @@
       <c r="X109" s="3"/>
       <c r="Y109" s="3"/>
     </row>
-    <row r="110" spans="1:25" ht="15.75" customHeight="1">
+    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -3650,7 +3539,7 @@
       <c r="X110" s="3"/>
       <c r="Y110" s="3"/>
     </row>
-    <row r="111" spans="1:25" ht="15.75" customHeight="1">
+    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -3677,7 +3566,7 @@
       <c r="X111" s="3"/>
       <c r="Y111" s="3"/>
     </row>
-    <row r="112" spans="1:25" ht="15.75" customHeight="1">
+    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -3704,7 +3593,7 @@
       <c r="X112" s="3"/>
       <c r="Y112" s="3"/>
     </row>
-    <row r="113" spans="1:25" ht="15.75" customHeight="1">
+    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -3731,7 +3620,7 @@
       <c r="X113" s="3"/>
       <c r="Y113" s="3"/>
     </row>
-    <row r="114" spans="1:25" ht="15.75" customHeight="1">
+    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -3758,7 +3647,7 @@
       <c r="X114" s="3"/>
       <c r="Y114" s="3"/>
     </row>
-    <row r="115" spans="1:25" ht="15.75" customHeight="1">
+    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -3785,7 +3674,7 @@
       <c r="X115" s="3"/>
       <c r="Y115" s="3"/>
     </row>
-    <row r="116" spans="1:25" ht="15.75" customHeight="1">
+    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -3812,7 +3701,7 @@
       <c r="X116" s="3"/>
       <c r="Y116" s="3"/>
     </row>
-    <row r="117" spans="1:25" ht="15.75" customHeight="1">
+    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -3839,7 +3728,7 @@
       <c r="X117" s="3"/>
       <c r="Y117" s="3"/>
     </row>
-    <row r="118" spans="1:25" ht="15.75" customHeight="1">
+    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -3866,7 +3755,7 @@
       <c r="X118" s="3"/>
       <c r="Y118" s="3"/>
     </row>
-    <row r="119" spans="1:25" ht="15.75" customHeight="1">
+    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -3893,7 +3782,7 @@
       <c r="X119" s="3"/>
       <c r="Y119" s="3"/>
     </row>
-    <row r="120" spans="1:25" ht="15.75" customHeight="1">
+    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -3920,7 +3809,7 @@
       <c r="X120" s="3"/>
       <c r="Y120" s="3"/>
     </row>
-    <row r="121" spans="1:25" ht="15.75" customHeight="1">
+    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -3947,7 +3836,7 @@
       <c r="X121" s="3"/>
       <c r="Y121" s="3"/>
     </row>
-    <row r="122" spans="1:25" ht="15.75" customHeight="1">
+    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -3974,7 +3863,7 @@
       <c r="X122" s="3"/>
       <c r="Y122" s="3"/>
     </row>
-    <row r="123" spans="1:25" ht="15.75" customHeight="1">
+    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -4001,7 +3890,7 @@
       <c r="X123" s="3"/>
       <c r="Y123" s="3"/>
     </row>
-    <row r="124" spans="1:25" ht="15.75" customHeight="1">
+    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -4028,7 +3917,7 @@
       <c r="X124" s="3"/>
       <c r="Y124" s="3"/>
     </row>
-    <row r="125" spans="1:25" ht="15.75" customHeight="1">
+    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -4055,7 +3944,7 @@
       <c r="X125" s="3"/>
       <c r="Y125" s="3"/>
     </row>
-    <row r="126" spans="1:25" ht="15.75" customHeight="1">
+    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -4082,7 +3971,7 @@
       <c r="X126" s="3"/>
       <c r="Y126" s="3"/>
     </row>
-    <row r="127" spans="1:25" ht="15.75" customHeight="1">
+    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -4109,7 +3998,7 @@
       <c r="X127" s="3"/>
       <c r="Y127" s="3"/>
     </row>
-    <row r="128" spans="1:25" ht="15.75" customHeight="1">
+    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -4136,7 +4025,7 @@
       <c r="X128" s="3"/>
       <c r="Y128" s="3"/>
     </row>
-    <row r="129" spans="1:25" ht="15.75" customHeight="1">
+    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -4163,7 +4052,7 @@
       <c r="X129" s="3"/>
       <c r="Y129" s="3"/>
     </row>
-    <row r="130" spans="1:25" ht="15.75" customHeight="1">
+    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -4190,7 +4079,7 @@
       <c r="X130" s="3"/>
       <c r="Y130" s="3"/>
     </row>
-    <row r="131" spans="1:25" ht="15.75" customHeight="1">
+    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -4217,7 +4106,7 @@
       <c r="X131" s="3"/>
       <c r="Y131" s="3"/>
     </row>
-    <row r="132" spans="1:25" ht="15.75" customHeight="1">
+    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -4244,7 +4133,7 @@
       <c r="X132" s="3"/>
       <c r="Y132" s="3"/>
     </row>
-    <row r="133" spans="1:25" ht="15.75" customHeight="1">
+    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -4271,7 +4160,7 @@
       <c r="X133" s="3"/>
       <c r="Y133" s="3"/>
     </row>
-    <row r="134" spans="1:25" ht="15.75" customHeight="1">
+    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -4298,7 +4187,7 @@
       <c r="X134" s="3"/>
       <c r="Y134" s="3"/>
     </row>
-    <row r="135" spans="1:25" ht="15.75" customHeight="1">
+    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -4325,7 +4214,7 @@
       <c r="X135" s="3"/>
       <c r="Y135" s="3"/>
     </row>
-    <row r="136" spans="1:25" ht="15.75" customHeight="1">
+    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -4352,7 +4241,7 @@
       <c r="X136" s="3"/>
       <c r="Y136" s="3"/>
     </row>
-    <row r="137" spans="1:25" ht="15.75" customHeight="1">
+    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -4379,7 +4268,7 @@
       <c r="X137" s="3"/>
       <c r="Y137" s="3"/>
     </row>
-    <row r="138" spans="1:25" ht="15.75" customHeight="1">
+    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -4406,7 +4295,7 @@
       <c r="X138" s="3"/>
       <c r="Y138" s="3"/>
     </row>
-    <row r="139" spans="1:25" ht="15.75" customHeight="1">
+    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -4433,7 +4322,7 @@
       <c r="X139" s="3"/>
       <c r="Y139" s="3"/>
     </row>
-    <row r="140" spans="1:25" ht="15.75" customHeight="1">
+    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -4460,7 +4349,7 @@
       <c r="X140" s="3"/>
       <c r="Y140" s="3"/>
     </row>
-    <row r="141" spans="1:25" ht="15.75" customHeight="1">
+    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -4487,7 +4376,7 @@
       <c r="X141" s="3"/>
       <c r="Y141" s="3"/>
     </row>
-    <row r="142" spans="1:25" ht="15.75" customHeight="1">
+    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -4514,7 +4403,7 @@
       <c r="X142" s="3"/>
       <c r="Y142" s="3"/>
     </row>
-    <row r="143" spans="1:25" ht="15.75" customHeight="1">
+    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -4541,7 +4430,7 @@
       <c r="X143" s="3"/>
       <c r="Y143" s="3"/>
     </row>
-    <row r="144" spans="1:25" ht="15.75" customHeight="1">
+    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -4568,7 +4457,7 @@
       <c r="X144" s="3"/>
       <c r="Y144" s="3"/>
     </row>
-    <row r="145" spans="1:25" ht="15.75" customHeight="1">
+    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -4595,7 +4484,7 @@
       <c r="X145" s="3"/>
       <c r="Y145" s="3"/>
     </row>
-    <row r="146" spans="1:25" ht="15.75" customHeight="1">
+    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -4622,7 +4511,7 @@
       <c r="X146" s="3"/>
       <c r="Y146" s="3"/>
     </row>
-    <row r="147" spans="1:25" ht="15.75" customHeight="1">
+    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -4649,7 +4538,7 @@
       <c r="X147" s="3"/>
       <c r="Y147" s="3"/>
     </row>
-    <row r="148" spans="1:25" ht="15.75" customHeight="1">
+    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -4676,7 +4565,7 @@
       <c r="X148" s="3"/>
       <c r="Y148" s="3"/>
     </row>
-    <row r="149" spans="1:25" ht="15.75" customHeight="1">
+    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -4703,7 +4592,7 @@
       <c r="X149" s="3"/>
       <c r="Y149" s="3"/>
     </row>
-    <row r="150" spans="1:25" ht="15.75" customHeight="1">
+    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -4730,7 +4619,7 @@
       <c r="X150" s="3"/>
       <c r="Y150" s="3"/>
     </row>
-    <row r="151" spans="1:25" ht="15.75" customHeight="1">
+    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -4757,7 +4646,7 @@
       <c r="X151" s="3"/>
       <c r="Y151" s="3"/>
     </row>
-    <row r="152" spans="1:25" ht="15.75" customHeight="1">
+    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -4784,7 +4673,7 @@
       <c r="X152" s="3"/>
       <c r="Y152" s="3"/>
     </row>
-    <row r="153" spans="1:25" ht="15.75" customHeight="1">
+    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -4811,7 +4700,7 @@
       <c r="X153" s="3"/>
       <c r="Y153" s="3"/>
     </row>
-    <row r="154" spans="1:25" ht="15.75" customHeight="1">
+    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -4838,7 +4727,7 @@
       <c r="X154" s="3"/>
       <c r="Y154" s="3"/>
     </row>
-    <row r="155" spans="1:25" ht="15.75" customHeight="1">
+    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -4865,7 +4754,7 @@
       <c r="X155" s="3"/>
       <c r="Y155" s="3"/>
     </row>
-    <row r="156" spans="1:25" ht="15.75" customHeight="1">
+    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -4892,7 +4781,7 @@
       <c r="X156" s="3"/>
       <c r="Y156" s="3"/>
     </row>
-    <row r="157" spans="1:25" ht="15.75" customHeight="1">
+    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -4919,7 +4808,7 @@
       <c r="X157" s="3"/>
       <c r="Y157" s="3"/>
     </row>
-    <row r="158" spans="1:25" ht="15.75" customHeight="1">
+    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -4946,7 +4835,7 @@
       <c r="X158" s="3"/>
       <c r="Y158" s="3"/>
     </row>
-    <row r="159" spans="1:25" ht="15.75" customHeight="1">
+    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -4973,7 +4862,7 @@
       <c r="X159" s="3"/>
       <c r="Y159" s="3"/>
     </row>
-    <row r="160" spans="1:25" ht="15.75" customHeight="1">
+    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -5000,7 +4889,7 @@
       <c r="X160" s="3"/>
       <c r="Y160" s="3"/>
     </row>
-    <row r="161" spans="1:25" ht="15.75" customHeight="1">
+    <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -5027,7 +4916,7 @@
       <c r="X161" s="3"/>
       <c r="Y161" s="3"/>
     </row>
-    <row r="162" spans="1:25" ht="15.75" customHeight="1">
+    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -5054,7 +4943,7 @@
       <c r="X162" s="3"/>
       <c r="Y162" s="3"/>
     </row>
-    <row r="163" spans="1:25" ht="15.75" customHeight="1">
+    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -5081,7 +4970,7 @@
       <c r="X163" s="3"/>
       <c r="Y163" s="3"/>
     </row>
-    <row r="164" spans="1:25" ht="15.75" customHeight="1">
+    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -5108,7 +4997,7 @@
       <c r="X164" s="3"/>
       <c r="Y164" s="3"/>
     </row>
-    <row r="165" spans="1:25" ht="15.75" customHeight="1">
+    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -5135,7 +5024,7 @@
       <c r="X165" s="3"/>
       <c r="Y165" s="3"/>
     </row>
-    <row r="166" spans="1:25" ht="15.75" customHeight="1">
+    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -5162,7 +5051,7 @@
       <c r="X166" s="3"/>
       <c r="Y166" s="3"/>
     </row>
-    <row r="167" spans="1:25" ht="15.75" customHeight="1">
+    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -5189,7 +5078,7 @@
       <c r="X167" s="3"/>
       <c r="Y167" s="3"/>
     </row>
-    <row r="168" spans="1:25" ht="15.75" customHeight="1">
+    <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -5216,7 +5105,7 @@
       <c r="X168" s="3"/>
       <c r="Y168" s="3"/>
     </row>
-    <row r="169" spans="1:25" ht="15.75" customHeight="1">
+    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -5243,7 +5132,7 @@
       <c r="X169" s="3"/>
       <c r="Y169" s="3"/>
     </row>
-    <row r="170" spans="1:25" ht="15.75" customHeight="1">
+    <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -5270,7 +5159,7 @@
       <c r="X170" s="3"/>
       <c r="Y170" s="3"/>
     </row>
-    <row r="171" spans="1:25" ht="15.75" customHeight="1">
+    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -5297,7 +5186,7 @@
       <c r="X171" s="3"/>
       <c r="Y171" s="3"/>
     </row>
-    <row r="172" spans="1:25" ht="15.75" customHeight="1">
+    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -5326,49 +5215,56 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D172">
-    <cfRule type="cellIs" priority="1" dxfId="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="2" dxfId="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" dxfId="0" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E172">
-      <formula1>'Group-Turn'!$A:$A</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>'Group-Turn'!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E172</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB9F4A0-D429-43CD-A34C-0DE5A78DD058}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB9F4A0-D429-43CD-A34C-0DE5A78DD058}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.142857142857142"/>
-    <col min="2" max="4" customWidth="true" width="12.571428571428571"/>
-    <col min="5" max="5" customWidth="true" width="13.714285714285714"/>
-    <col min="6" max="6" customWidth="true" width="12.571428571428571"/>
-    <col min="7" max="8" customWidth="true" width="26.428571428571427"/>
-    <col min="9" max="9" customWidth="true" width="15.571428571428571"/>
+    <col min="1" max="1" customWidth="true" width="13.140625"/>
+    <col min="2" max="4" customWidth="true" width="12.5703125"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375"/>
+    <col min="6" max="6" customWidth="true" width="12.5703125"/>
+    <col min="7" max="8" customWidth="true" width="26.42578125"/>
+    <col min="9" max="9" customWidth="true" width="15.5703125"/>
     <col min="12" max="12" customWidth="true" width="24.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -5406,7 +5302,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.5">
+    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>19</v>
       </c>
@@ -5414,16 +5310,16 @@
         <v>20</v>
       </c>
       <c r="C2" s="11">
-        <v>328.0</v>
+        <v>328</v>
       </c>
       <c r="D2" s="11">
-        <v>268.0</v>
+        <v>289</v>
       </c>
       <c r="E2" s="11">
-        <v>288.0</v>
+        <v>319</v>
       </c>
       <c r="F2" s="11">
-        <v>281.0</v>
+        <v>281</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>21</v>
@@ -5434,46 +5330,59 @@
       <c r="I2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="11" t="n">
         <v>0.0</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="11" t="n">
         <v>0.0</v>
       </c>
       <c r="L2" s="12"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2">
-      <formula1>Options!$C:$C</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2">
-      <formula1>Options!$A$2:$A2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2">
-      <formula1>Options!$B$2:$B2</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>Options!$C:$C</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+          <x14:formula1>
+            <xm:f>Options!$A$2:$A2</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+          <x14:formula1>
+            <xm:f>Options!$B$2:$B2</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911D0387-12A0-4038-B218-2369B68A2EB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911D0387-12A0-4038-B218-2369B68A2EB5}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" customWidth="true" width="12.571428571428571"/>
+    <col min="1" max="6" customWidth="true" width="12.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" customHeight="1">
+    <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
@@ -5506,7 +5415,7 @@
       <c r="X1" s="14"/>
       <c r="Y1" s="14"/>
     </row>
-    <row r="2" spans="1:25" ht="15" customHeight="1">
+    <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>24</v>
       </c>
@@ -5539,7 +5448,7 @@
       <c r="X2" s="14"/>
       <c r="Y2" s="14"/>
     </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1">
+    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>26</v>
       </c>
@@ -5572,7 +5481,7 @@
       <c r="X3" s="14"/>
       <c r="Y3" s="14"/>
     </row>
-    <row r="4" spans="1:25" ht="15" customHeight="1">
+    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>29</v>
       </c>
@@ -5603,7 +5512,7 @@
       <c r="X4" s="14"/>
       <c r="Y4" s="14"/>
     </row>
-    <row r="5" spans="1:25" ht="15" customHeight="1">
+    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
@@ -5634,7 +5543,7 @@
       <c r="X5" s="14"/>
       <c r="Y5" s="14"/>
     </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1">
+    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>31</v>
       </c>
@@ -5663,7 +5572,7 @@
       <c r="X6" s="14"/>
       <c r="Y6" s="14"/>
     </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1">
+    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>32</v>
       </c>
@@ -5692,7 +5601,7 @@
       <c r="X7" s="14"/>
       <c r="Y7" s="14"/>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1">
+    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>33</v>
       </c>
@@ -5721,7 +5630,7 @@
       <c r="X8" s="14"/>
       <c r="Y8" s="14"/>
     </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1">
+    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>34</v>
       </c>
@@ -5750,7 +5659,7 @@
       <c r="X9" s="14"/>
       <c r="Y9" s="14"/>
     </row>
-    <row r="10" spans="1:25" ht="15" customHeight="1">
+    <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -5777,7 +5686,7 @@
       <c r="X10" s="14"/>
       <c r="Y10" s="14"/>
     </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1">
+    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -5804,7 +5713,7 @@
       <c r="X11" s="14"/>
       <c r="Y11" s="14"/>
     </row>
-    <row r="12" spans="1:25" ht="15" customHeight="1">
+    <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -5831,7 +5740,7 @@
       <c r="X12" s="14"/>
       <c r="Y12" s="14"/>
     </row>
-    <row r="13" spans="1:25" ht="15" customHeight="1">
+    <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -5858,7 +5767,7 @@
       <c r="X13" s="14"/>
       <c r="Y13" s="14"/>
     </row>
-    <row r="14" spans="1:25" ht="15" customHeight="1">
+    <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -5885,7 +5794,7 @@
       <c r="X14" s="14"/>
       <c r="Y14" s="14"/>
     </row>
-    <row r="15" spans="1:25" ht="15" customHeight="1">
+    <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -5912,7 +5821,7 @@
       <c r="X15" s="14"/>
       <c r="Y15" s="14"/>
     </row>
-    <row r="16" spans="1:25" ht="15" customHeight="1">
+    <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -5939,7 +5848,7 @@
       <c r="X16" s="14"/>
       <c r="Y16" s="14"/>
     </row>
-    <row r="17" spans="1:25" ht="15" customHeight="1">
+    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -5966,7 +5875,7 @@
       <c r="X17" s="14"/>
       <c r="Y17" s="14"/>
     </row>
-    <row r="18" spans="1:25" ht="15" customHeight="1">
+    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -5993,7 +5902,7 @@
       <c r="X18" s="14"/>
       <c r="Y18" s="14"/>
     </row>
-    <row r="19" spans="1:25" ht="15" customHeight="1">
+    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -6020,7 +5929,7 @@
       <c r="X19" s="14"/>
       <c r="Y19" s="14"/>
     </row>
-    <row r="20" spans="1:25" ht="15" customHeight="1">
+    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -6047,7 +5956,7 @@
       <c r="X20" s="14"/>
       <c r="Y20" s="14"/>
     </row>
-    <row r="21" spans="1:25" ht="15" customHeight="1">
+    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -6074,7 +5983,7 @@
       <c r="X21" s="14"/>
       <c r="Y21" s="14"/>
     </row>
-    <row r="22" spans="1:25" ht="15" customHeight="1">
+    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -6101,7 +6010,7 @@
       <c r="X22" s="14"/>
       <c r="Y22" s="14"/>
     </row>
-    <row r="23" spans="1:25" ht="15" customHeight="1">
+    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -6128,7 +6037,7 @@
       <c r="X23" s="14"/>
       <c r="Y23" s="14"/>
     </row>
-    <row r="24" spans="1:25" ht="15" customHeight="1">
+    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -6155,7 +6064,7 @@
       <c r="X24" s="14"/>
       <c r="Y24" s="14"/>
     </row>
-    <row r="25" spans="1:25" ht="15" customHeight="1">
+    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -6182,7 +6091,7 @@
       <c r="X25" s="14"/>
       <c r="Y25" s="14"/>
     </row>
-    <row r="26" spans="1:25" ht="15" customHeight="1">
+    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -6209,7 +6118,7 @@
       <c r="X26" s="14"/>
       <c r="Y26" s="14"/>
     </row>
-    <row r="27" spans="1:25" ht="15" customHeight="1">
+    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -6236,7 +6145,7 @@
       <c r="X27" s="14"/>
       <c r="Y27" s="14"/>
     </row>
-    <row r="28" spans="1:25" ht="15" customHeight="1">
+    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -6263,7 +6172,7 @@
       <c r="X28" s="14"/>
       <c r="Y28" s="14"/>
     </row>
-    <row r="29" spans="1:25" ht="15" customHeight="1">
+    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -6290,7 +6199,7 @@
       <c r="X29" s="14"/>
       <c r="Y29" s="14"/>
     </row>
-    <row r="30" spans="1:25" ht="15" customHeight="1">
+    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -6317,7 +6226,7 @@
       <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
     </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -6344,7 +6253,7 @@
       <c r="X31" s="14"/>
       <c r="Y31" s="14"/>
     </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -6371,7 +6280,7 @@
       <c r="X32" s="14"/>
       <c r="Y32" s="14"/>
     </row>
-    <row r="33" spans="1:25" ht="15.75" customHeight="1">
+    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -6398,7 +6307,7 @@
       <c r="X33" s="14"/>
       <c r="Y33" s="14"/>
     </row>
-    <row r="34" spans="1:25" ht="15.75" customHeight="1">
+    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -6425,7 +6334,7 @@
       <c r="X34" s="14"/>
       <c r="Y34" s="14"/>
     </row>
-    <row r="35" spans="1:25" ht="15.75" customHeight="1">
+    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -6452,7 +6361,7 @@
       <c r="X35" s="14"/>
       <c r="Y35" s="14"/>
     </row>
-    <row r="36" spans="1:25" ht="15.75" customHeight="1">
+    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -6479,7 +6388,7 @@
       <c r="X36" s="14"/>
       <c r="Y36" s="14"/>
     </row>
-    <row r="37" spans="1:25" ht="15.75" customHeight="1">
+    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -6506,7 +6415,7 @@
       <c r="X37" s="14"/>
       <c r="Y37" s="14"/>
     </row>
-    <row r="38" spans="1:25" ht="15.75" customHeight="1">
+    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -6533,7 +6442,7 @@
       <c r="X38" s="14"/>
       <c r="Y38" s="14"/>
     </row>
-    <row r="39" spans="1:25" ht="15.75" customHeight="1">
+    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -6560,7 +6469,7 @@
       <c r="X39" s="14"/>
       <c r="Y39" s="14"/>
     </row>
-    <row r="40" spans="1:25" ht="15.75" customHeight="1">
+    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -6587,7 +6496,7 @@
       <c r="X40" s="14"/>
       <c r="Y40" s="14"/>
     </row>
-    <row r="41" spans="1:25" ht="15.75" customHeight="1">
+    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -6614,7 +6523,7 @@
       <c r="X41" s="14"/>
       <c r="Y41" s="14"/>
     </row>
-    <row r="42" spans="1:25" ht="15.75" customHeight="1">
+    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -6641,7 +6550,7 @@
       <c r="X42" s="14"/>
       <c r="Y42" s="14"/>
     </row>
-    <row r="43" spans="1:25" ht="15.75" customHeight="1">
+    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -6668,7 +6577,7 @@
       <c r="X43" s="14"/>
       <c r="Y43" s="14"/>
     </row>
-    <row r="44" spans="1:25" ht="15.75" customHeight="1">
+    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -6695,7 +6604,7 @@
       <c r="X44" s="14"/>
       <c r="Y44" s="14"/>
     </row>
-    <row r="45" spans="1:25" ht="15.75" customHeight="1">
+    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -6722,7 +6631,7 @@
       <c r="X45" s="14"/>
       <c r="Y45" s="14"/>
     </row>
-    <row r="46" spans="1:25" ht="15.75" customHeight="1">
+    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -6749,7 +6658,7 @@
       <c r="X46" s="14"/>
       <c r="Y46" s="14"/>
     </row>
-    <row r="47" spans="1:25" ht="15.75" customHeight="1">
+    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -6776,7 +6685,7 @@
       <c r="X47" s="14"/>
       <c r="Y47" s="14"/>
     </row>
-    <row r="48" spans="1:25" ht="15.75" customHeight="1">
+    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -6803,7 +6712,7 @@
       <c r="X48" s="14"/>
       <c r="Y48" s="14"/>
     </row>
-    <row r="49" spans="1:25" ht="15.75" customHeight="1">
+    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -6830,7 +6739,7 @@
       <c r="X49" s="14"/>
       <c r="Y49" s="14"/>
     </row>
-    <row r="50" spans="1:25" ht="15.75" customHeight="1">
+    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -6857,7 +6766,7 @@
       <c r="X50" s="14"/>
       <c r="Y50" s="14"/>
     </row>
-    <row r="51" spans="1:25" ht="15.75" customHeight="1">
+    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -6884,7 +6793,7 @@
       <c r="X51" s="14"/>
       <c r="Y51" s="14"/>
     </row>
-    <row r="52" spans="1:25" ht="15.75" customHeight="1">
+    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -6911,7 +6820,7 @@
       <c r="X52" s="14"/>
       <c r="Y52" s="14"/>
     </row>
-    <row r="53" spans="1:25" ht="15.75" customHeight="1">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -6938,7 +6847,7 @@
       <c r="X53" s="14"/>
       <c r="Y53" s="14"/>
     </row>
-    <row r="54" spans="1:25" ht="15.75" customHeight="1">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -6965,7 +6874,7 @@
       <c r="X54" s="14"/>
       <c r="Y54" s="14"/>
     </row>
-    <row r="55" spans="1:25" ht="15.75" customHeight="1">
+    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -6992,7 +6901,7 @@
       <c r="X55" s="14"/>
       <c r="Y55" s="14"/>
     </row>
-    <row r="56" spans="1:25" ht="15.75" customHeight="1">
+    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -7019,7 +6928,7 @@
       <c r="X56" s="14"/>
       <c r="Y56" s="14"/>
     </row>
-    <row r="57" spans="1:25" ht="15.75" customHeight="1">
+    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -7046,7 +6955,7 @@
       <c r="X57" s="14"/>
       <c r="Y57" s="14"/>
     </row>
-    <row r="58" spans="1:25" ht="15.75" customHeight="1">
+    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -7073,7 +6982,7 @@
       <c r="X58" s="14"/>
       <c r="Y58" s="14"/>
     </row>
-    <row r="59" spans="1:25" ht="15.75" customHeight="1">
+    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -7100,7 +7009,7 @@
       <c r="X59" s="14"/>
       <c r="Y59" s="14"/>
     </row>
-    <row r="60" spans="1:25" ht="15.75" customHeight="1">
+    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -7127,7 +7036,7 @@
       <c r="X60" s="14"/>
       <c r="Y60" s="14"/>
     </row>
-    <row r="61" spans="1:25" ht="15.75" customHeight="1">
+    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -7154,7 +7063,7 @@
       <c r="X61" s="14"/>
       <c r="Y61" s="14"/>
     </row>
-    <row r="62" spans="1:25" ht="15.75" customHeight="1">
+    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -7181,7 +7090,7 @@
       <c r="X62" s="14"/>
       <c r="Y62" s="14"/>
     </row>
-    <row r="63" spans="1:25" ht="15.75" customHeight="1">
+    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -7208,7 +7117,7 @@
       <c r="X63" s="14"/>
       <c r="Y63" s="14"/>
     </row>
-    <row r="64" spans="1:25" ht="15.75" customHeight="1">
+    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -7235,7 +7144,7 @@
       <c r="X64" s="14"/>
       <c r="Y64" s="14"/>
     </row>
-    <row r="65" spans="1:25" ht="15.75" customHeight="1">
+    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -7262,7 +7171,7 @@
       <c r="X65" s="14"/>
       <c r="Y65" s="14"/>
     </row>
-    <row r="66" spans="1:25" ht="15.75" customHeight="1">
+    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -7289,7 +7198,7 @@
       <c r="X66" s="14"/>
       <c r="Y66" s="14"/>
     </row>
-    <row r="67" spans="1:25" ht="15.75" customHeight="1">
+    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -7316,7 +7225,7 @@
       <c r="X67" s="14"/>
       <c r="Y67" s="14"/>
     </row>
-    <row r="68" spans="1:25" ht="15.75" customHeight="1">
+    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -7343,7 +7252,7 @@
       <c r="X68" s="14"/>
       <c r="Y68" s="14"/>
     </row>
-    <row r="69" spans="1:25" ht="15.75" customHeight="1">
+    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -7370,7 +7279,7 @@
       <c r="X69" s="14"/>
       <c r="Y69" s="14"/>
     </row>
-    <row r="70" spans="1:25" ht="15.75" customHeight="1">
+    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -7397,7 +7306,7 @@
       <c r="X70" s="14"/>
       <c r="Y70" s="14"/>
     </row>
-    <row r="71" spans="1:25" ht="15.75" customHeight="1">
+    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -7424,7 +7333,7 @@
       <c r="X71" s="14"/>
       <c r="Y71" s="14"/>
     </row>
-    <row r="72" spans="1:25" ht="15.75" customHeight="1">
+    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -7451,7 +7360,7 @@
       <c r="X72" s="14"/>
       <c r="Y72" s="14"/>
     </row>
-    <row r="73" spans="1:25" ht="15.75" customHeight="1">
+    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -7478,7 +7387,7 @@
       <c r="X73" s="14"/>
       <c r="Y73" s="14"/>
     </row>
-    <row r="74" spans="1:25" ht="15.75" customHeight="1">
+    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -7505,7 +7414,7 @@
       <c r="X74" s="14"/>
       <c r="Y74" s="14"/>
     </row>
-    <row r="75" spans="1:25" ht="15.75" customHeight="1">
+    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -7532,7 +7441,7 @@
       <c r="X75" s="14"/>
       <c r="Y75" s="14"/>
     </row>
-    <row r="76" spans="1:25" ht="15.75" customHeight="1">
+    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -7559,7 +7468,7 @@
       <c r="X76" s="14"/>
       <c r="Y76" s="14"/>
     </row>
-    <row r="77" spans="1:25" ht="15.75" customHeight="1">
+    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -7586,7 +7495,7 @@
       <c r="X77" s="14"/>
       <c r="Y77" s="14"/>
     </row>
-    <row r="78" spans="1:25" ht="15.75" customHeight="1">
+    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -7613,7 +7522,7 @@
       <c r="X78" s="14"/>
       <c r="Y78" s="14"/>
     </row>
-    <row r="79" spans="1:25" ht="15.75" customHeight="1">
+    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -7640,7 +7549,7 @@
       <c r="X79" s="14"/>
       <c r="Y79" s="14"/>
     </row>
-    <row r="80" spans="1:25" ht="15.75" customHeight="1">
+    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -7667,7 +7576,7 @@
       <c r="X80" s="14"/>
       <c r="Y80" s="14"/>
     </row>
-    <row r="81" spans="1:25" ht="15.75" customHeight="1">
+    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -7694,7 +7603,7 @@
       <c r="X81" s="14"/>
       <c r="Y81" s="14"/>
     </row>
-    <row r="82" spans="1:25" ht="15.75" customHeight="1">
+    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -7721,7 +7630,7 @@
       <c r="X82" s="14"/>
       <c r="Y82" s="14"/>
     </row>
-    <row r="83" spans="1:25" ht="15.75" customHeight="1">
+    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -7748,7 +7657,7 @@
       <c r="X83" s="14"/>
       <c r="Y83" s="14"/>
     </row>
-    <row r="84" spans="1:25" ht="15.75" customHeight="1">
+    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -7775,7 +7684,7 @@
       <c r="X84" s="14"/>
       <c r="Y84" s="14"/>
     </row>
-    <row r="85" spans="1:25" ht="15.75" customHeight="1">
+    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -7802,7 +7711,7 @@
       <c r="X85" s="14"/>
       <c r="Y85" s="14"/>
     </row>
-    <row r="86" spans="1:25" ht="15.75" customHeight="1">
+    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -7829,7 +7738,7 @@
       <c r="X86" s="14"/>
       <c r="Y86" s="14"/>
     </row>
-    <row r="87" spans="1:25" ht="15.75" customHeight="1">
+    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -7856,7 +7765,7 @@
       <c r="X87" s="14"/>
       <c r="Y87" s="14"/>
     </row>
-    <row r="88" spans="1:25" ht="15.75" customHeight="1">
+    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -7883,7 +7792,7 @@
       <c r="X88" s="14"/>
       <c r="Y88" s="14"/>
     </row>
-    <row r="89" spans="1:25" ht="15.75" customHeight="1">
+    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -7910,7 +7819,7 @@
       <c r="X89" s="14"/>
       <c r="Y89" s="14"/>
     </row>
-    <row r="90" spans="1:25" ht="15.75" customHeight="1">
+    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -7937,7 +7846,7 @@
       <c r="X90" s="14"/>
       <c r="Y90" s="14"/>
     </row>
-    <row r="91" spans="1:25" ht="15.75" customHeight="1">
+    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -7964,7 +7873,7 @@
       <c r="X91" s="14"/>
       <c r="Y91" s="14"/>
     </row>
-    <row r="92" spans="1:25" ht="15.75" customHeight="1">
+    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -7991,7 +7900,7 @@
       <c r="X92" s="14"/>
       <c r="Y92" s="14"/>
     </row>
-    <row r="93" spans="1:25" ht="15.75" customHeight="1">
+    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -8018,7 +7927,7 @@
       <c r="X93" s="14"/>
       <c r="Y93" s="14"/>
     </row>
-    <row r="94" spans="1:25" ht="15.75" customHeight="1">
+    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -8045,7 +7954,7 @@
       <c r="X94" s="14"/>
       <c r="Y94" s="14"/>
     </row>
-    <row r="95" spans="1:25" ht="15.75" customHeight="1">
+    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -8072,7 +7981,7 @@
       <c r="X95" s="14"/>
       <c r="Y95" s="14"/>
     </row>
-    <row r="96" spans="1:25" ht="15.75" customHeight="1">
+    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -8099,7 +8008,7 @@
       <c r="X96" s="14"/>
       <c r="Y96" s="14"/>
     </row>
-    <row r="97" spans="1:25" ht="15.75" customHeight="1">
+    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -8126,7 +8035,7 @@
       <c r="X97" s="14"/>
       <c r="Y97" s="14"/>
     </row>
-    <row r="98" spans="1:25" ht="15.75" customHeight="1">
+    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -8153,7 +8062,7 @@
       <c r="X98" s="14"/>
       <c r="Y98" s="14"/>
     </row>
-    <row r="99" spans="1:25" ht="15.75" customHeight="1">
+    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -8180,7 +8089,7 @@
       <c r="X99" s="14"/>
       <c r="Y99" s="14"/>
     </row>
-    <row r="100" spans="1:25" ht="15.75" customHeight="1">
+    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -8207,7 +8116,7 @@
       <c r="X100" s="14"/>
       <c r="Y100" s="14"/>
     </row>
-    <row r="101" spans="1:25" ht="15.75" customHeight="1">
+    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -8234,7 +8143,7 @@
       <c r="X101" s="14"/>
       <c r="Y101" s="14"/>
     </row>
-    <row r="102" spans="1:25" ht="15.75" customHeight="1">
+    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -8261,7 +8170,7 @@
       <c r="X102" s="14"/>
       <c r="Y102" s="14"/>
     </row>
-    <row r="103" spans="1:25" ht="15.75" customHeight="1">
+    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -8288,7 +8197,7 @@
       <c r="X103" s="14"/>
       <c r="Y103" s="14"/>
     </row>
-    <row r="104" spans="1:25" ht="15.75" customHeight="1">
+    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -8315,7 +8224,7 @@
       <c r="X104" s="14"/>
       <c r="Y104" s="14"/>
     </row>
-    <row r="105" spans="1:25" ht="15.75" customHeight="1">
+    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -8342,7 +8251,7 @@
       <c r="X105" s="14"/>
       <c r="Y105" s="14"/>
     </row>
-    <row r="106" spans="1:25" ht="15.75" customHeight="1">
+    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -8369,7 +8278,7 @@
       <c r="X106" s="14"/>
       <c r="Y106" s="14"/>
     </row>
-    <row r="107" spans="1:25" ht="15.75" customHeight="1">
+    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -8396,7 +8305,7 @@
       <c r="X107" s="14"/>
       <c r="Y107" s="14"/>
     </row>
-    <row r="108" spans="1:25" ht="15.75" customHeight="1">
+    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -8423,7 +8332,7 @@
       <c r="X108" s="14"/>
       <c r="Y108" s="14"/>
     </row>
-    <row r="109" spans="1:25" ht="15.75" customHeight="1">
+    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -8450,7 +8359,7 @@
       <c r="X109" s="14"/>
       <c r="Y109" s="14"/>
     </row>
-    <row r="110" spans="1:25" ht="15.75" customHeight="1">
+    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -8477,7 +8386,7 @@
       <c r="X110" s="14"/>
       <c r="Y110" s="14"/>
     </row>
-    <row r="111" spans="1:25" ht="15.75" customHeight="1">
+    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -8504,7 +8413,7 @@
       <c r="X111" s="14"/>
       <c r="Y111" s="14"/>
     </row>
-    <row r="112" spans="1:25" ht="15.75" customHeight="1">
+    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -8531,7 +8440,7 @@
       <c r="X112" s="14"/>
       <c r="Y112" s="14"/>
     </row>
-    <row r="113" spans="1:25" ht="15.75" customHeight="1">
+    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -8558,7 +8467,7 @@
       <c r="X113" s="14"/>
       <c r="Y113" s="14"/>
     </row>
-    <row r="114" spans="1:25" ht="15.75" customHeight="1">
+    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -8585,7 +8494,7 @@
       <c r="X114" s="14"/>
       <c r="Y114" s="14"/>
     </row>
-    <row r="115" spans="1:25" ht="15.75" customHeight="1">
+    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -8612,7 +8521,7 @@
       <c r="X115" s="14"/>
       <c r="Y115" s="14"/>
     </row>
-    <row r="116" spans="1:25" ht="15.75" customHeight="1">
+    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -8639,7 +8548,7 @@
       <c r="X116" s="14"/>
       <c r="Y116" s="14"/>
     </row>
-    <row r="117" spans="1:25" ht="15.75" customHeight="1">
+    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -8666,7 +8575,7 @@
       <c r="X117" s="14"/>
       <c r="Y117" s="14"/>
     </row>
-    <row r="118" spans="1:25" ht="15.75" customHeight="1">
+    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
@@ -8693,7 +8602,7 @@
       <c r="X118" s="14"/>
       <c r="Y118" s="14"/>
     </row>
-    <row r="119" spans="1:25" ht="15.75" customHeight="1">
+    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
@@ -8720,7 +8629,7 @@
       <c r="X119" s="14"/>
       <c r="Y119" s="14"/>
     </row>
-    <row r="120" spans="1:25" ht="15.75" customHeight="1">
+    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
@@ -8747,7 +8656,7 @@
       <c r="X120" s="14"/>
       <c r="Y120" s="14"/>
     </row>
-    <row r="121" spans="1:25" ht="15.75" customHeight="1">
+    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
@@ -8774,7 +8683,7 @@
       <c r="X121" s="14"/>
       <c r="Y121" s="14"/>
     </row>
-    <row r="122" spans="1:25" ht="15.75" customHeight="1">
+    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="14"/>
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
@@ -8801,7 +8710,7 @@
       <c r="X122" s="14"/>
       <c r="Y122" s="14"/>
     </row>
-    <row r="123" spans="1:25" ht="15.75" customHeight="1">
+    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
@@ -8828,7 +8737,7 @@
       <c r="X123" s="14"/>
       <c r="Y123" s="14"/>
     </row>
-    <row r="124" spans="1:25" ht="15.75" customHeight="1">
+    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
@@ -8855,7 +8764,7 @@
       <c r="X124" s="14"/>
       <c r="Y124" s="14"/>
     </row>
-    <row r="125" spans="1:25" ht="15.75" customHeight="1">
+    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="14"/>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
@@ -8882,7 +8791,7 @@
       <c r="X125" s="14"/>
       <c r="Y125" s="14"/>
     </row>
-    <row r="126" spans="1:25" ht="15.75" customHeight="1">
+    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
@@ -8909,7 +8818,7 @@
       <c r="X126" s="14"/>
       <c r="Y126" s="14"/>
     </row>
-    <row r="127" spans="1:25" ht="15.75" customHeight="1">
+    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
@@ -8936,7 +8845,7 @@
       <c r="X127" s="14"/>
       <c r="Y127" s="14"/>
     </row>
-    <row r="128" spans="1:25" ht="15.75" customHeight="1">
+    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
@@ -8963,7 +8872,7 @@
       <c r="X128" s="14"/>
       <c r="Y128" s="14"/>
     </row>
-    <row r="129" spans="1:25" ht="15.75" customHeight="1">
+    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
@@ -8990,7 +8899,7 @@
       <c r="X129" s="14"/>
       <c r="Y129" s="14"/>
     </row>
-    <row r="130" spans="1:25" ht="15.75" customHeight="1">
+    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>
@@ -9017,7 +8926,7 @@
       <c r="X130" s="14"/>
       <c r="Y130" s="14"/>
     </row>
-    <row r="131" spans="1:25" ht="15.75" customHeight="1">
+    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="14"/>
       <c r="B131" s="14"/>
       <c r="C131" s="14"/>
@@ -9044,7 +8953,7 @@
       <c r="X131" s="14"/>
       <c r="Y131" s="14"/>
     </row>
-    <row r="132" spans="1:25" ht="15.75" customHeight="1">
+    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="14"/>
       <c r="B132" s="14"/>
       <c r="C132" s="14"/>
@@ -9071,7 +8980,7 @@
       <c r="X132" s="14"/>
       <c r="Y132" s="14"/>
     </row>
-    <row r="133" spans="1:25" ht="15.75" customHeight="1">
+    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="14"/>
       <c r="B133" s="14"/>
       <c r="C133" s="14"/>
@@ -9098,7 +9007,7 @@
       <c r="X133" s="14"/>
       <c r="Y133" s="14"/>
     </row>
-    <row r="134" spans="1:25" ht="15.75" customHeight="1">
+    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
       <c r="C134" s="14"/>
@@ -9125,7 +9034,7 @@
       <c r="X134" s="14"/>
       <c r="Y134" s="14"/>
     </row>
-    <row r="135" spans="1:25" ht="15.75" customHeight="1">
+    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="14"/>
       <c r="B135" s="14"/>
       <c r="C135" s="14"/>
@@ -9152,7 +9061,7 @@
       <c r="X135" s="14"/>
       <c r="Y135" s="14"/>
     </row>
-    <row r="136" spans="1:25" ht="15.75" customHeight="1">
+    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="14"/>
       <c r="B136" s="14"/>
       <c r="C136" s="14"/>
@@ -9179,7 +9088,7 @@
       <c r="X136" s="14"/>
       <c r="Y136" s="14"/>
     </row>
-    <row r="137" spans="1:25" ht="15.75" customHeight="1">
+    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="14"/>
       <c r="B137" s="14"/>
       <c r="C137" s="14"/>
@@ -9206,7 +9115,7 @@
       <c r="X137" s="14"/>
       <c r="Y137" s="14"/>
     </row>
-    <row r="138" spans="1:25" ht="15.75" customHeight="1">
+    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
       <c r="C138" s="14"/>
@@ -9233,7 +9142,7 @@
       <c r="X138" s="14"/>
       <c r="Y138" s="14"/>
     </row>
-    <row r="139" spans="1:25" ht="15.75" customHeight="1">
+    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
       <c r="C139" s="14"/>
@@ -9260,7 +9169,7 @@
       <c r="X139" s="14"/>
       <c r="Y139" s="14"/>
     </row>
-    <row r="140" spans="1:25" ht="15.75" customHeight="1">
+    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="14"/>
       <c r="B140" s="14"/>
       <c r="C140" s="14"/>
@@ -9287,7 +9196,7 @@
       <c r="X140" s="14"/>
       <c r="Y140" s="14"/>
     </row>
-    <row r="141" spans="1:25" ht="15.75" customHeight="1">
+    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="14"/>
       <c r="B141" s="14"/>
       <c r="C141" s="14"/>
@@ -9314,7 +9223,7 @@
       <c r="X141" s="14"/>
       <c r="Y141" s="14"/>
     </row>
-    <row r="142" spans="1:25" ht="15.75" customHeight="1">
+    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="14"/>
       <c r="B142" s="14"/>
       <c r="C142" s="14"/>
@@ -9341,7 +9250,7 @@
       <c r="X142" s="14"/>
       <c r="Y142" s="14"/>
     </row>
-    <row r="143" spans="1:25" ht="15.75" customHeight="1">
+    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="14"/>
       <c r="B143" s="14"/>
       <c r="C143" s="14"/>
@@ -9368,7 +9277,7 @@
       <c r="X143" s="14"/>
       <c r="Y143" s="14"/>
     </row>
-    <row r="144" spans="1:25" ht="15.75" customHeight="1">
+    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
       <c r="C144" s="14"/>
@@ -9395,7 +9304,7 @@
       <c r="X144" s="14"/>
       <c r="Y144" s="14"/>
     </row>
-    <row r="145" spans="1:25" ht="15.75" customHeight="1">
+    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="14"/>
       <c r="B145" s="14"/>
       <c r="C145" s="14"/>
@@ -9422,7 +9331,7 @@
       <c r="X145" s="14"/>
       <c r="Y145" s="14"/>
     </row>
-    <row r="146" spans="1:25" ht="15.75" customHeight="1">
+    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="14"/>
       <c r="B146" s="14"/>
       <c r="C146" s="14"/>
@@ -9449,7 +9358,7 @@
       <c r="X146" s="14"/>
       <c r="Y146" s="14"/>
     </row>
-    <row r="147" spans="1:25" ht="15.75" customHeight="1">
+    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="14"/>
       <c r="B147" s="14"/>
       <c r="C147" s="14"/>
@@ -9476,7 +9385,7 @@
       <c r="X147" s="14"/>
       <c r="Y147" s="14"/>
     </row>
-    <row r="148" spans="1:25" ht="15.75" customHeight="1">
+    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="14"/>
       <c r="B148" s="14"/>
       <c r="C148" s="14"/>
@@ -9503,7 +9412,7 @@
       <c r="X148" s="14"/>
       <c r="Y148" s="14"/>
     </row>
-    <row r="149" spans="1:25" ht="15.75" customHeight="1">
+    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="14"/>
       <c r="B149" s="14"/>
       <c r="C149" s="14"/>
@@ -9530,7 +9439,7 @@
       <c r="X149" s="14"/>
       <c r="Y149" s="14"/>
     </row>
-    <row r="150" spans="1:25" ht="15.75" customHeight="1">
+    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="14"/>
       <c r="B150" s="14"/>
       <c r="C150" s="14"/>
@@ -9557,7 +9466,7 @@
       <c r="X150" s="14"/>
       <c r="Y150" s="14"/>
     </row>
-    <row r="151" spans="1:25" ht="15.75" customHeight="1">
+    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="14"/>
       <c r="B151" s="14"/>
       <c r="C151" s="14"/>
@@ -9584,7 +9493,7 @@
       <c r="X151" s="14"/>
       <c r="Y151" s="14"/>
     </row>
-    <row r="152" spans="1:25" ht="15.75" customHeight="1">
+    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="14"/>
       <c r="B152" s="14"/>
       <c r="C152" s="14"/>
@@ -9611,7 +9520,7 @@
       <c r="X152" s="14"/>
       <c r="Y152" s="14"/>
     </row>
-    <row r="153" spans="1:25" ht="15.75" customHeight="1">
+    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="14"/>
       <c r="B153" s="14"/>
       <c r="C153" s="14"/>
@@ -9638,7 +9547,7 @@
       <c r="X153" s="14"/>
       <c r="Y153" s="14"/>
     </row>
-    <row r="154" spans="1:25" ht="15.75" customHeight="1">
+    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="14"/>
       <c r="B154" s="14"/>
       <c r="C154" s="14"/>
@@ -9665,7 +9574,7 @@
       <c r="X154" s="14"/>
       <c r="Y154" s="14"/>
     </row>
-    <row r="155" spans="1:25" ht="15.75" customHeight="1">
+    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
       <c r="C155" s="14"/>
@@ -9692,7 +9601,7 @@
       <c r="X155" s="14"/>
       <c r="Y155" s="14"/>
     </row>
-    <row r="156" spans="1:25" ht="15.75" customHeight="1">
+    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="14"/>
       <c r="B156" s="14"/>
       <c r="C156" s="14"/>
@@ -9719,7 +9628,7 @@
       <c r="X156" s="14"/>
       <c r="Y156" s="14"/>
     </row>
-    <row r="157" spans="1:25" ht="15.75" customHeight="1">
+    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="14"/>
       <c r="B157" s="14"/>
       <c r="C157" s="14"/>
@@ -9746,7 +9655,7 @@
       <c r="X157" s="14"/>
       <c r="Y157" s="14"/>
     </row>
-    <row r="158" spans="1:25" ht="15.75" customHeight="1">
+    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="14"/>
       <c r="B158" s="14"/>
       <c r="C158" s="14"/>
@@ -9773,7 +9682,7 @@
       <c r="X158" s="14"/>
       <c r="Y158" s="14"/>
     </row>
-    <row r="159" spans="1:25" ht="15.75" customHeight="1">
+    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="14"/>
       <c r="B159" s="14"/>
       <c r="C159" s="14"/>
@@ -9800,7 +9709,7 @@
       <c r="X159" s="14"/>
       <c r="Y159" s="14"/>
     </row>
-    <row r="160" spans="1:25" ht="15.75" customHeight="1">
+    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="14"/>
       <c r="B160" s="14"/>
       <c r="C160" s="14"/>
@@ -9827,7 +9736,7 @@
       <c r="X160" s="14"/>
       <c r="Y160" s="14"/>
     </row>
-    <row r="161" spans="1:25" ht="15.75" customHeight="1">
+    <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="14"/>
       <c r="B161" s="14"/>
       <c r="C161" s="14"/>
@@ -9854,7 +9763,7 @@
       <c r="X161" s="14"/>
       <c r="Y161" s="14"/>
     </row>
-    <row r="162" spans="1:25" ht="15.75" customHeight="1">
+    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="14"/>
       <c r="B162" s="14"/>
       <c r="C162" s="14"/>
@@ -9881,7 +9790,7 @@
       <c r="X162" s="14"/>
       <c r="Y162" s="14"/>
     </row>
-    <row r="163" spans="1:25" ht="15.75" customHeight="1">
+    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="14"/>
       <c r="B163" s="14"/>
       <c r="C163" s="14"/>
@@ -9908,7 +9817,7 @@
       <c r="X163" s="14"/>
       <c r="Y163" s="14"/>
     </row>
-    <row r="164" spans="1:25" ht="15.75" customHeight="1">
+    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="14"/>
       <c r="B164" s="14"/>
       <c r="C164" s="14"/>
@@ -9935,7 +9844,7 @@
       <c r="X164" s="14"/>
       <c r="Y164" s="14"/>
     </row>
-    <row r="165" spans="1:25" ht="15.75" customHeight="1">
+    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="14"/>
       <c r="B165" s="14"/>
       <c r="C165" s="14"/>
@@ -9962,7 +9871,7 @@
       <c r="X165" s="14"/>
       <c r="Y165" s="14"/>
     </row>
-    <row r="166" spans="1:25" ht="15.75" customHeight="1">
+    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="14"/>
       <c r="B166" s="14"/>
       <c r="C166" s="14"/>
@@ -9989,7 +9898,7 @@
       <c r="X166" s="14"/>
       <c r="Y166" s="14"/>
     </row>
-    <row r="167" spans="1:25" ht="15.75" customHeight="1">
+    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="14"/>
       <c r="B167" s="14"/>
       <c r="C167" s="14"/>
@@ -10016,7 +9925,7 @@
       <c r="X167" s="14"/>
       <c r="Y167" s="14"/>
     </row>
-    <row r="168" spans="1:25" ht="15.75" customHeight="1">
+    <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="14"/>
       <c r="B168" s="14"/>
       <c r="C168" s="14"/>
@@ -10043,7 +9952,7 @@
       <c r="X168" s="14"/>
       <c r="Y168" s="14"/>
     </row>
-    <row r="169" spans="1:25" ht="15.75" customHeight="1">
+    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="14"/>
       <c r="B169" s="14"/>
       <c r="C169" s="14"/>
@@ -10070,7 +9979,7 @@
       <c r="X169" s="14"/>
       <c r="Y169" s="14"/>
     </row>
-    <row r="170" spans="1:25" ht="15.75" customHeight="1">
+    <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="14"/>
       <c r="B170" s="14"/>
       <c r="C170" s="14"/>
@@ -10097,7 +10006,7 @@
       <c r="X170" s="14"/>
       <c r="Y170" s="14"/>
     </row>
-    <row r="171" spans="1:25" ht="15.75" customHeight="1">
+    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="14"/>
       <c r="B171" s="14"/>
       <c r="C171" s="14"/>
@@ -10124,7 +10033,7 @@
       <c r="X171" s="14"/>
       <c r="Y171" s="14"/>
     </row>
-    <row r="172" spans="1:25" ht="15.75" customHeight="1">
+    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="14"/>
       <c r="B172" s="14"/>
       <c r="C172" s="14"/>
@@ -10151,7 +10060,7 @@
       <c r="X172" s="14"/>
       <c r="Y172" s="14"/>
     </row>
-    <row r="173" spans="1:25" ht="15.75" customHeight="1">
+    <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="14"/>
       <c r="B173" s="14"/>
       <c r="C173" s="14"/>
@@ -10178,7 +10087,7 @@
       <c r="X173" s="14"/>
       <c r="Y173" s="14"/>
     </row>
-    <row r="174" spans="1:25" ht="15.75" customHeight="1">
+    <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="14"/>
       <c r="B174" s="14"/>
       <c r="C174" s="14"/>
@@ -10205,7 +10114,7 @@
       <c r="X174" s="14"/>
       <c r="Y174" s="14"/>
     </row>
-    <row r="175" spans="1:25" ht="15.75" customHeight="1">
+    <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="14"/>
       <c r="B175" s="14"/>
       <c r="C175" s="14"/>
@@ -10232,7 +10141,7 @@
       <c r="X175" s="14"/>
       <c r="Y175" s="14"/>
     </row>
-    <row r="176" spans="1:25" ht="15.75" customHeight="1">
+    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="14"/>
       <c r="B176" s="14"/>
       <c r="C176" s="14"/>
@@ -10259,7 +10168,7 @@
       <c r="X176" s="14"/>
       <c r="Y176" s="14"/>
     </row>
-    <row r="177" spans="1:25" ht="15.75" customHeight="1">
+    <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="14"/>
       <c r="B177" s="14"/>
       <c r="C177" s="14"/>
@@ -10286,7 +10195,7 @@
       <c r="X177" s="14"/>
       <c r="Y177" s="14"/>
     </row>
-    <row r="178" spans="1:25" ht="15.75" customHeight="1">
+    <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="14"/>
       <c r="B178" s="14"/>
       <c r="C178" s="14"/>
@@ -10313,7 +10222,7 @@
       <c r="X178" s="14"/>
       <c r="Y178" s="14"/>
     </row>
-    <row r="179" spans="1:25" ht="15.75" customHeight="1">
+    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="14"/>
       <c r="B179" s="14"/>
       <c r="C179" s="14"/>
@@ -10340,7 +10249,7 @@
       <c r="X179" s="14"/>
       <c r="Y179" s="14"/>
     </row>
-    <row r="180" spans="1:25" ht="15.75" customHeight="1">
+    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="14"/>
       <c r="B180" s="14"/>
       <c r="C180" s="14"/>
@@ -10367,7 +10276,7 @@
       <c r="X180" s="14"/>
       <c r="Y180" s="14"/>
     </row>
-    <row r="181" spans="1:25" ht="15.75" customHeight="1">
+    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="14"/>
       <c r="B181" s="14"/>
       <c r="C181" s="14"/>
@@ -10394,7 +10303,7 @@
       <c r="X181" s="14"/>
       <c r="Y181" s="14"/>
     </row>
-    <row r="182" spans="1:25" ht="15.75" customHeight="1">
+    <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="14"/>
       <c r="B182" s="14"/>
       <c r="C182" s="14"/>
@@ -10421,7 +10330,7 @@
       <c r="X182" s="14"/>
       <c r="Y182" s="14"/>
     </row>
-    <row r="183" spans="1:25" ht="15.75" customHeight="1">
+    <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="14"/>
       <c r="B183" s="14"/>
       <c r="C183" s="14"/>
@@ -10448,7 +10357,7 @@
       <c r="X183" s="14"/>
       <c r="Y183" s="14"/>
     </row>
-    <row r="184" spans="1:25" ht="15.75" customHeight="1">
+    <row r="184" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="14"/>
       <c r="B184" s="14"/>
       <c r="C184" s="14"/>
@@ -10475,7 +10384,7 @@
       <c r="X184" s="14"/>
       <c r="Y184" s="14"/>
     </row>
-    <row r="185" spans="1:25" ht="15.75" customHeight="1">
+    <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="14"/>
       <c r="B185" s="14"/>
       <c r="C185" s="14"/>
@@ -10502,7 +10411,7 @@
       <c r="X185" s="14"/>
       <c r="Y185" s="14"/>
     </row>
-    <row r="186" spans="1:25" ht="15.75" customHeight="1">
+    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="14"/>
       <c r="B186" s="14"/>
       <c r="C186" s="14"/>
@@ -10529,7 +10438,7 @@
       <c r="X186" s="14"/>
       <c r="Y186" s="14"/>
     </row>
-    <row r="187" spans="1:25" ht="15.75" customHeight="1">
+    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="14"/>
       <c r="B187" s="14"/>
       <c r="C187" s="14"/>
@@ -10556,7 +10465,7 @@
       <c r="X187" s="14"/>
       <c r="Y187" s="14"/>
     </row>
-    <row r="188" spans="1:25" ht="15.75" customHeight="1">
+    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="14"/>
       <c r="B188" s="14"/>
       <c r="C188" s="14"/>
@@ -10583,7 +10492,7 @@
       <c r="X188" s="14"/>
       <c r="Y188" s="14"/>
     </row>
-    <row r="189" spans="1:25" ht="15.75" customHeight="1">
+    <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="14"/>
       <c r="B189" s="14"/>
       <c r="C189" s="14"/>
@@ -10610,7 +10519,7 @@
       <c r="X189" s="14"/>
       <c r="Y189" s="14"/>
     </row>
-    <row r="190" spans="1:25" ht="15.75" customHeight="1">
+    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="14"/>
       <c r="B190" s="14"/>
       <c r="C190" s="14"/>
@@ -10637,7 +10546,7 @@
       <c r="X190" s="14"/>
       <c r="Y190" s="14"/>
     </row>
-    <row r="191" spans="1:25" ht="15.75" customHeight="1">
+    <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="14"/>
       <c r="B191" s="14"/>
       <c r="C191" s="14"/>
@@ -10664,7 +10573,7 @@
       <c r="X191" s="14"/>
       <c r="Y191" s="14"/>
     </row>
-    <row r="192" spans="1:25" ht="15.75" customHeight="1">
+    <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="14"/>
       <c r="B192" s="14"/>
       <c r="C192" s="14"/>
@@ -10691,7 +10600,7 @@
       <c r="X192" s="14"/>
       <c r="Y192" s="14"/>
     </row>
-    <row r="193" spans="1:25" ht="15.75" customHeight="1">
+    <row r="193" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="14"/>
       <c r="B193" s="14"/>
       <c r="C193" s="14"/>
@@ -10718,7 +10627,7 @@
       <c r="X193" s="14"/>
       <c r="Y193" s="14"/>
     </row>
-    <row r="194" spans="1:25" ht="15.75" customHeight="1">
+    <row r="194" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="14"/>
       <c r="B194" s="14"/>
       <c r="C194" s="14"/>
@@ -10745,7 +10654,7 @@
       <c r="X194" s="14"/>
       <c r="Y194" s="14"/>
     </row>
-    <row r="195" spans="1:25" ht="15.75" customHeight="1">
+    <row r="195" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="14"/>
       <c r="B195" s="14"/>
       <c r="C195" s="14"/>
@@ -10772,7 +10681,7 @@
       <c r="X195" s="14"/>
       <c r="Y195" s="14"/>
     </row>
-    <row r="196" spans="1:25" ht="15.75" customHeight="1">
+    <row r="196" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="14"/>
       <c r="B196" s="14"/>
       <c r="C196" s="14"/>
@@ -10799,7 +10708,7 @@
       <c r="X196" s="14"/>
       <c r="Y196" s="14"/>
     </row>
-    <row r="197" spans="1:25" ht="15.75" customHeight="1">
+    <row r="197" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="14"/>
       <c r="B197" s="14"/>
       <c r="C197" s="14"/>
@@ -10826,7 +10735,7 @@
       <c r="X197" s="14"/>
       <c r="Y197" s="14"/>
     </row>
-    <row r="198" spans="1:25" ht="15.75" customHeight="1">
+    <row r="198" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="14"/>
       <c r="B198" s="14"/>
       <c r="C198" s="14"/>
@@ -10853,7 +10762,7 @@
       <c r="X198" s="14"/>
       <c r="Y198" s="14"/>
     </row>
-    <row r="199" spans="1:25" ht="15.75" customHeight="1">
+    <row r="199" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="14"/>
       <c r="B199" s="14"/>
       <c r="C199" s="14"/>
@@ -10880,7 +10789,7 @@
       <c r="X199" s="14"/>
       <c r="Y199" s="14"/>
     </row>
-    <row r="200" spans="1:25" ht="15.75" customHeight="1">
+    <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="14"/>
       <c r="B200" s="14"/>
       <c r="C200" s="14"/>
@@ -10907,7 +10816,7 @@
       <c r="X200" s="14"/>
       <c r="Y200" s="14"/>
     </row>
-    <row r="201" spans="1:25" ht="15.75" customHeight="1">
+    <row r="201" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="14"/>
       <c r="B201" s="14"/>
       <c r="C201" s="14"/>
@@ -10934,7 +10843,7 @@
       <c r="X201" s="14"/>
       <c r="Y201" s="14"/>
     </row>
-    <row r="202" spans="1:25" ht="15.75" customHeight="1">
+    <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="14"/>
       <c r="B202" s="14"/>
       <c r="C202" s="14"/>
@@ -10961,7 +10870,7 @@
       <c r="X202" s="14"/>
       <c r="Y202" s="14"/>
     </row>
-    <row r="203" spans="1:25" ht="15.75" customHeight="1">
+    <row r="203" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="14"/>
       <c r="B203" s="14"/>
       <c r="C203" s="14"/>
@@ -10988,7 +10897,7 @@
       <c r="X203" s="14"/>
       <c r="Y203" s="14"/>
     </row>
-    <row r="204" spans="1:25" ht="15.75" customHeight="1">
+    <row r="204" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="14"/>
       <c r="B204" s="14"/>
       <c r="C204" s="14"/>
@@ -11015,7 +10924,7 @@
       <c r="X204" s="14"/>
       <c r="Y204" s="14"/>
     </row>
-    <row r="205" spans="1:25" ht="15.75" customHeight="1">
+    <row r="205" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="14"/>
       <c r="B205" s="14"/>
       <c r="C205" s="14"/>
@@ -11042,7 +10951,7 @@
       <c r="X205" s="14"/>
       <c r="Y205" s="14"/>
     </row>
-    <row r="206" spans="1:25" ht="15.75" customHeight="1">
+    <row r="206" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="14"/>
       <c r="B206" s="14"/>
       <c r="C206" s="14"/>
@@ -11069,7 +10978,7 @@
       <c r="X206" s="14"/>
       <c r="Y206" s="14"/>
     </row>
-    <row r="207" spans="1:25" ht="15.75" customHeight="1">
+    <row r="207" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="14"/>
       <c r="B207" s="14"/>
       <c r="C207" s="14"/>
@@ -11096,7 +11005,7 @@
       <c r="X207" s="14"/>
       <c r="Y207" s="14"/>
     </row>
-    <row r="208" spans="1:25" ht="15.75" customHeight="1">
+    <row r="208" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="14"/>
       <c r="B208" s="14"/>
       <c r="C208" s="14"/>
@@ -11123,7 +11032,7 @@
       <c r="X208" s="14"/>
       <c r="Y208" s="14"/>
     </row>
-    <row r="209" spans="1:25" ht="15.75" customHeight="1">
+    <row r="209" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="14"/>
       <c r="B209" s="14"/>
       <c r="C209" s="14"/>
@@ -11150,7 +11059,7 @@
       <c r="X209" s="14"/>
       <c r="Y209" s="14"/>
     </row>
-    <row r="210" spans="1:25" ht="15.75" customHeight="1">
+    <row r="210" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="14"/>
       <c r="B210" s="14"/>
       <c r="C210" s="14"/>
@@ -11177,7 +11086,7 @@
       <c r="X210" s="14"/>
       <c r="Y210" s="14"/>
     </row>
-    <row r="211" spans="1:25" ht="15.75" customHeight="1">
+    <row r="211" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="14"/>
       <c r="B211" s="14"/>
       <c r="C211" s="14"/>
@@ -11204,7 +11113,7 @@
       <c r="X211" s="14"/>
       <c r="Y211" s="14"/>
     </row>
-    <row r="212" spans="1:25" ht="15.75" customHeight="1">
+    <row r="212" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="14"/>
       <c r="B212" s="14"/>
       <c r="C212" s="14"/>
@@ -11231,7 +11140,7 @@
       <c r="X212" s="14"/>
       <c r="Y212" s="14"/>
     </row>
-    <row r="213" spans="1:25" ht="15.75" customHeight="1">
+    <row r="213" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="14"/>
       <c r="B213" s="14"/>
       <c r="C213" s="14"/>
@@ -11258,7 +11167,7 @@
       <c r="X213" s="14"/>
       <c r="Y213" s="14"/>
     </row>
-    <row r="214" spans="1:25" ht="15.75" customHeight="1">
+    <row r="214" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="14"/>
       <c r="B214" s="14"/>
       <c r="C214" s="14"/>
@@ -11285,7 +11194,7 @@
       <c r="X214" s="14"/>
       <c r="Y214" s="14"/>
     </row>
-    <row r="215" spans="1:25" ht="15.75" customHeight="1">
+    <row r="215" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="14"/>
       <c r="B215" s="14"/>
       <c r="C215" s="14"/>
@@ -11312,7 +11221,7 @@
       <c r="X215" s="14"/>
       <c r="Y215" s="14"/>
     </row>
-    <row r="216" spans="1:25" ht="15.75" customHeight="1">
+    <row r="216" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="14"/>
       <c r="B216" s="14"/>
       <c r="C216" s="14"/>
@@ -11339,7 +11248,7 @@
       <c r="X216" s="14"/>
       <c r="Y216" s="14"/>
     </row>
-    <row r="217" spans="1:25" ht="15.75" customHeight="1">
+    <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="14"/>
       <c r="B217" s="14"/>
       <c r="C217" s="14"/>
@@ -11366,7 +11275,7 @@
       <c r="X217" s="14"/>
       <c r="Y217" s="14"/>
     </row>
-    <row r="218" spans="1:25" ht="15.75" customHeight="1">
+    <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="14"/>
       <c r="B218" s="14"/>
       <c r="C218" s="14"/>
@@ -11393,7 +11302,7 @@
       <c r="X218" s="14"/>
       <c r="Y218" s="14"/>
     </row>
-    <row r="219" spans="1:25" ht="15.75" customHeight="1">
+    <row r="219" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="14"/>
       <c r="B219" s="14"/>
       <c r="C219" s="14"/>
@@ -11420,7 +11329,7 @@
       <c r="X219" s="14"/>
       <c r="Y219" s="14"/>
     </row>
-    <row r="220" spans="1:25" ht="15.75" customHeight="1">
+    <row r="220" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="14"/>
       <c r="B220" s="14"/>
       <c r="C220" s="14"/>
@@ -11447,786 +11356,786 @@
       <c r="X220" s="14"/>
       <c r="Y220" s="14"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="221" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -12234,24 +12143,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A533279F-DCE6-476B-AD11-14247DADF783}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A533279F-DCE6-476B-AD11-14247DADF783}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.571428571428571"/>
-    <col min="2" max="2" customWidth="true" width="21.142857142857142"/>
-    <col min="3" max="4" customWidth="true" width="12.571428571428571"/>
-    <col min="5" max="5" customWidth="true" width="31.428571428571427"/>
-    <col min="6" max="6" customWidth="true" width="12.571428571428571"/>
+    <col min="1" max="1" customWidth="true" width="12.5703125"/>
+    <col min="2" max="2" customWidth="true" width="21.140625"/>
+    <col min="3" max="4" customWidth="true" width="12.5703125"/>
+    <col min="5" max="5" customWidth="true" width="31.42578125"/>
+    <col min="6" max="6" customWidth="true" width="12.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
@@ -12275,1009 +12184,1009 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A5DF42-02C0-439F-AFAD-701895A2546E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A5DF42-02C0-439F-AFAD-701895A2546E}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" customWidth="true" width="12.571428571428571"/>
+    <col min="1" max="6" customWidth="true" width="12.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="12.75">
+    <row r="1" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="12.75">
+    <row r="2" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -13285,15 +13194,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f5f826e9-e1f6-4550-9f7f-1241bc58267e}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F826E9-E1F6-4550-9F7F-1241BC58267E}">
   <dimension ref="A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="5" spans="1:1" ht="23.25" customHeight="1">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
         <v>40</v>
       </c>
     </row>

--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="57">
   <si>
     <t>STT</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>Report_EEIV01Flashcard(Clone)</t>
+  </si>
+  <si>
+    <t>Report_EE.IV04 - Tap three options(Clone)</t>
+  </si>
+  <si>
+    <t>Report_BERP04ListenAndChoose(Clone)</t>
   </si>
 </sst>
 </file>
@@ -902,7 +908,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>8</v>
@@ -913,13 +919,13 @@
         <v>46</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>5</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>8</v>
@@ -930,13 +936,13 @@
         <v>46</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>5</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>8</v>
@@ -947,7 +953,7 @@
         <v>47</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>5</v>

--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6105" yWindow="3210" windowWidth="21600" windowHeight="11385" activeTab="5"/>
+    <workbookView xWindow="6450" yWindow="3555" windowWidth="21600" windowHeight="11385" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Scope" sheetId="1" r:id="rId3"/>
@@ -17,14 +17,14 @@
     <sheet name="Options" sheetId="3" r:id="rId5"/>
     <sheet name="Group-Turn" sheetId="4" r:id="rId6"/>
     <sheet name="Note" sheetId="5" r:id="rId7"/>
-    <sheet name="Evaluation Warning" sheetId="7" r:id="rId8"/>
+    <sheet name="Evaluation Warning" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="56">
   <si>
     <t>STT</t>
   </si>
@@ -179,10 +179,10 @@
     <t>Report_EEIW01Multisensory(Clone)</t>
   </si>
   <si>
-    <t>Report_EE.RW08 - Multi bubbles(Clone)</t>
+    <t>Report_EEIW04TapTheBalloon(Clone)</t>
   </si>
   <si>
-    <t>Report_EEIW04TapTheBalloon(Clone)</t>
+    <t>Report_EE.RW08 - Multi bubbles(Clone)</t>
   </si>
   <si>
     <t>Report_EERV01MultipleChoice(Clone)</t>
@@ -192,9 +192,6 @@
   </si>
   <si>
     <t>Report_EE.IV04 - Tap three options(Clone)</t>
-  </si>
-  <si>
-    <t>Report_BERP04ListenAndChoose(Clone)</t>
   </si>
 </sst>
 </file>
@@ -340,7 +337,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -368,6 +365,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -688,12 +686,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="topRight" activeCell="B3" sqref="B3"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
@@ -775,42 +773,22 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:5" ht="12.75">
+      <c r="A3" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
@@ -942,7 +920,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>8</v>
@@ -953,7 +931,7 @@
         <v>47</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>5</v>
@@ -1025,8 +1003,35 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
     </row>
+    <row r="15" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A15" s="17"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D14">
+  <conditionalFormatting sqref="D1:D15">
     <cfRule type="cellIs" priority="1" dxfId="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
@@ -1038,7 +1043,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2">
       <formula1>'Group-Turn'!$A:$A</formula1>
     </dataValidation>
   </dataValidations>
@@ -1055,7 +1060,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="topLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
@@ -1118,13 +1123,13 @@
         <v>205.0</v>
       </c>
       <c r="D2" s="10">
-        <v>4.0</v>
+        <v>41.0</v>
       </c>
       <c r="E2" s="10">
         <v>205.0</v>
       </c>
       <c r="F2" s="10">
-        <v>1.0</v>
+        <v>52.0</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>23</v>
@@ -9000,7 +9005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00c435ba-5160-4483-b3bc-804a706be3de}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d6c2e03d-189e-4da6-bf19-269b31b48ee5}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -9008,7 +9013,7 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="5" spans="1:1" ht="23.25" customHeight="1">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>45</v>
       </c>
     </row>

--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="3555" windowWidth="21600" windowHeight="11385" activeTab="5"/>
+    <workbookView xWindow="6105" yWindow="3210" windowWidth="21600" windowHeight="11385" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Scope" sheetId="1" r:id="rId3"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="52">
   <si>
     <t>STT</t>
   </si>
@@ -176,22 +176,10 @@
     <t>Report_Play lesson M Go</t>
   </si>
   <si>
-    <t>Report_EEIW01Multisensory(Clone)</t>
+    <t>Report_MG.VD01(Clone)</t>
   </si>
   <si>
-    <t>Report_EEIW04TapTheBalloon(Clone)</t>
-  </si>
-  <si>
-    <t>Report_EE.RW08 - Multi bubbles(Clone)</t>
-  </si>
-  <si>
-    <t>Report_EERV01MultipleChoice(Clone)</t>
-  </si>
-  <si>
-    <t>Report_EEIV01Flashcard(Clone)</t>
-  </si>
-  <si>
-    <t>Report_EE.IV04 - Tap three options(Clone)</t>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -691,7 +679,7 @@
     <sheetView workbookViewId="0" topLeftCell="A1">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
@@ -795,13 +783,13 @@
         <v>46</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>5</v>
-      </c>
       <c r="D4" t="s" s="0">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>8</v>
@@ -812,13 +800,13 @@
         <v>46</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>5</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>8</v>
@@ -829,13 +817,13 @@
         <v>46</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>5</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>8</v>
@@ -846,13 +834,13 @@
         <v>46</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>5</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>8</v>
@@ -863,13 +851,13 @@
         <v>46</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>5</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>8</v>
@@ -880,13 +868,13 @@
         <v>46</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>5</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>8</v>
@@ -897,13 +885,13 @@
         <v>46</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>5</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>8</v>
@@ -914,7 +902,7 @@
         <v>46</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>5</v>
@@ -1123,13 +1111,13 @@
         <v>205.0</v>
       </c>
       <c r="D2" s="10">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
       <c r="E2" s="10">
         <v>205.0</v>
       </c>
       <c r="F2" s="10">
-        <v>52.0</v>
+        <v>60.0</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>23</v>
@@ -9005,7 +8993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d6c2e03d-189e-4da6-bf19-269b31b48ee5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{dbf1ca6f-571a-4130-a9d6-526fbcf85d0d}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tool_test_game\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A079B2A9-0F8D-4C2A-AB16-99B8C81B6585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2327E40-E277-414E-8BBA-F850B1A17785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scope" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="Options" sheetId="3" r:id="rId3"/>
     <sheet name="Group-Turn" sheetId="4" r:id="rId4"/>
     <sheet name="Note" sheetId="5" r:id="rId5"/>
-    <sheet name="Evaluation Warning" sheetId="7" r:id="rId6"/>
+    <sheet name="Evaluation Warning" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>STT</t>
   </si>
@@ -49,15 +49,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Report_VideoCall_Part</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>FLow</t>
@@ -169,6 +160,15 @@
   </si>
   <si>
     <t>Evaluation Only. Created with Aspose.Cells for Java.Copyright 2003 - 2021 Aspose Pty Ltd.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Report_VideoCall_Part</t>
   </si>
 </sst>
 </file>
@@ -521,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCA68A8-FD36-469A-AA3F-0F96A845C8A6}">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -606,20 +606,22 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>8</v>
+    <row r="3" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>46</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>9</v>
+      <c r="B3" t="s">
+        <v>47</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>10</v>
+      <c r="D3" t="s">
+        <v>45</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
@@ -635,8 +637,43 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
+    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D5">
+  <conditionalFormatting sqref="D1:D10">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
@@ -656,7 +693,7 @@
           <x14:formula1>
             <xm:f>'Group-Turn'!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E5</xm:sqref>
+          <xm:sqref>E2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -685,42 +722,42 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -735,16 +772,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -755,21 +792,21 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
+            <xm:f>Options!$C:$C</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+          <x14:formula1>
             <xm:f>Options!$B$2:$B2</xm:f>
           </x14:formula1>
           <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>Options!$D$2:$D2</xm:f>
           </x14:formula1>
           <xm:sqref>J2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
-          <x14:formula1>
-            <xm:f>Options!$C:$C</xm:f>
-          </x14:formula1>
-          <xm:sqref>I2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
@@ -797,16 +834,16 @@
   <sheetData>
     <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -832,16 +869,16 @@
     </row>
     <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -867,16 +904,16 @@
     </row>
     <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -902,11 +939,11 @@
     </row>
     <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -933,7 +970,7 @@
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -962,7 +999,7 @@
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -991,7 +1028,7 @@
     </row>
     <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1020,7 +1057,7 @@
     </row>
     <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -7561,7 +7598,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15326D90-C3FC-45AC-9A04-0AA163864D62}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7578,33 +7617,33 @@
         <v>4</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -7632,12 +7671,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8645,7 +8684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6234FD3F-D7F8-4D49-BF8A-A14D16F9ECBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71731544-D3C3-44DD-9D24-0C92DF208DE7}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8654,7 +8693,7 @@
   <sheetData>
     <row r="5" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -1,31 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tool_test_game\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2327E40-E277-414E-8BBA-F850B1A17785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Scope" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan" sheetId="2" r:id="rId2"/>
-    <sheet name="Options" sheetId="3" r:id="rId3"/>
-    <sheet name="Group-Turn" sheetId="4" r:id="rId4"/>
-    <sheet name="Note" sheetId="5" r:id="rId5"/>
-    <sheet name="Evaluation Warning" sheetId="12" r:id="rId6"/>
+    <sheet name="Scope" sheetId="1" r:id="rId3"/>
+    <sheet name="Plan" sheetId="2" r:id="rId4"/>
+    <sheet name="Options" sheetId="3" r:id="rId5"/>
+    <sheet name="Group-Turn" sheetId="4" r:id="rId6"/>
+    <sheet name="Note" sheetId="5" r:id="rId7"/>
+    <sheet name="Evaluation Warning" sheetId="24" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>STT</t>
   </si>
@@ -170,18 +169,31 @@
   <si>
     <t>Report_VideoCall_Part</t>
   </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -252,38 +264,69 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -312,6 +355,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -520,23 +631,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCA68A8-FD36-469A-AA3F-0F96A845C8A6}">
-  <dimension ref="A1:Y10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCA68A8-FD36-469A-AA3F-0F96A845C8A6}">
+  <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0" topLeftCell="A1">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
       <selection pane="topRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
-    <col min="3" max="25" width="12.5703125" customWidth="1"/>
-    <col min="26" max="26" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="5.857142857142857"/>
+    <col min="2" max="2" customWidth="true" width="45.714285714285715"/>
+    <col min="3" max="25" customWidth="true" width="12.571428571428571"/>
+    <col min="26" max="26" customWidth="true" width="8.571428571428571"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,7 +685,7 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -583,7 +695,9 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="E2" s="5"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -606,121 +720,251 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" ht="12.75">
+      <c r="A3" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C6" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D6" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E6" t="s" s="0">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="12.75" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="12.75" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="12.75" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="12.75" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
+    <row r="11" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D10">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="D1:D25">
+    <cfRule type="cellIs" priority="1" dxfId="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" priority="2" dxfId="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" priority="3" dxfId="0" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2">
+      <formula1>'Group-Turn'!$A:$A</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>'Group-Turn'!$A:$A</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227D5321-73C8-4A30-86E2-7D2FECBDF156}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227D5321-73C8-4A30-86E2-7D2FECBDF156}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="8" width="26.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="26" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.142857142857142"/>
+    <col min="2" max="4" customWidth="true" width="12.571428571428571"/>
+    <col min="5" max="5" customWidth="true" width="13.714285714285714"/>
+    <col min="6" max="6" customWidth="true" width="12.571428571428571"/>
+    <col min="7" max="8" customWidth="true" width="26.428571428571427"/>
+    <col min="9" max="9" customWidth="true" width="15.428571428571429"/>
+    <col min="10" max="11" customWidth="true" width="12.571428571428571"/>
+    <col min="12" max="12" customWidth="true" width="24.0"/>
+    <col min="13" max="26" customWidth="true" width="8.571428571428571"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -752,7 +996,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="12.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -760,16 +1004,16 @@
         <v>19</v>
       </c>
       <c r="C2" s="7">
-        <v>1</v>
+        <v>1446.0</v>
       </c>
       <c r="D2" s="7">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E2" s="7">
-        <v>1</v>
+        <v>500.0</v>
       </c>
       <c r="F2" s="5">
-        <v>1</v>
+        <v>2.0</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>20</v>
@@ -785,54 +1029,38 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2">
+      <formula1>Options!$C:$C</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2">
+      <formula1>Options!$B$2:$B2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J2">
+      <formula1>Options!$D$2:$D2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2">
+      <formula1>Options!$A$2:$A2</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
-          <x14:formula1>
-            <xm:f>Options!$C:$C</xm:f>
-          </x14:formula1>
-          <xm:sqref>I2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
-          <x14:formula1>
-            <xm:f>Options!$B$2:$B2</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
-          <x14:formula1>
-            <xm:f>Options!$D$2:$D2</xm:f>
-          </x14:formula1>
-          <xm:sqref>J2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
-          <x14:formula1>
-            <xm:f>Options!$A$2:$A2</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA41FCC4-CD66-4B06-8FE0-791925A20D0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA41FCC4-CD66-4B06-8FE0-791925A20D0A}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="23" width="12.5703125" customWidth="1"/>
-    <col min="24" max="26" width="8.5703125" customWidth="1"/>
+    <col min="1" max="23" customWidth="true" width="12.571428571428571"/>
+    <col min="24" max="26" customWidth="true" width="8.571428571428571"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="15" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
@@ -867,7 +1095,7 @@
       <c r="X1" s="8"/>
       <c r="Y1" s="8"/>
     </row>
-    <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="15" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -902,7 +1130,7 @@
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
     </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>27</v>
       </c>
@@ -937,7 +1165,7 @@
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
     </row>
-    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="15" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>30</v>
       </c>
@@ -968,7 +1196,7 @@
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
     </row>
-    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>32</v>
       </c>
@@ -997,7 +1225,7 @@
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
     </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="15" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
@@ -1026,7 +1254,7 @@
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
     </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="15" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
@@ -1055,7 +1283,7 @@
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="15" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>34</v>
       </c>
@@ -1084,7 +1312,7 @@
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
     </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="15" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1111,7 +1339,7 @@
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
     </row>
-    <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="15" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1138,7 +1366,7 @@
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
     </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="15" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1165,7 +1393,7 @@
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
     </row>
-    <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="15" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1192,7 +1420,7 @@
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
     </row>
-    <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="15" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1219,7 +1447,7 @@
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
     </row>
-    <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="15" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1246,7 +1474,7 @@
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
     </row>
-    <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="15" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1273,7 +1501,7 @@
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
     </row>
-    <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="15" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1300,7 +1528,7 @@
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
     </row>
-    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="15" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1327,7 +1555,7 @@
       <c r="X17" s="8"/>
       <c r="Y17" s="8"/>
     </row>
-    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="15" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -1354,7 +1582,7 @@
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
     </row>
-    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="15" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -1381,7 +1609,7 @@
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
     </row>
-    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="15" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -1408,7 +1636,7 @@
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
     </row>
-    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="15" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -1435,7 +1663,7 @@
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
     </row>
-    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="15" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1462,7 +1690,7 @@
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
     </row>
-    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="15" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1489,7 +1717,7 @@
       <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
     </row>
-    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="15" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1516,7 +1744,7 @@
       <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
     </row>
-    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="15" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1543,7 +1771,7 @@
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
     </row>
-    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="15" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1570,7 +1798,7 @@
       <c r="X26" s="8"/>
       <c r="Y26" s="8"/>
     </row>
-    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="15" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1597,7 +1825,7 @@
       <c r="X27" s="8"/>
       <c r="Y27" s="8"/>
     </row>
-    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="15" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1624,7 +1852,7 @@
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
     </row>
-    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="15" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -1651,7 +1879,7 @@
       <c r="X29" s="8"/>
       <c r="Y29" s="8"/>
     </row>
-    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="15" customHeight="1">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -1678,7 +1906,7 @@
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
     </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1705,7 +1933,7 @@
       <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
     </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1732,7 +1960,7 @@
       <c r="X32" s="8"/>
       <c r="Y32" s="8"/>
     </row>
-    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" ht="15.75" customHeight="1">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1759,7 +1987,7 @@
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
     </row>
-    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" ht="15.75" customHeight="1">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1786,7 +2014,7 @@
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
     </row>
-    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" ht="15.75" customHeight="1">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1813,7 +2041,7 @@
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
     </row>
-    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" ht="15.75" customHeight="1">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -1840,7 +2068,7 @@
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
     </row>
-    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" ht="15.75" customHeight="1">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -1867,7 +2095,7 @@
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
     </row>
-    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" ht="15.75" customHeight="1">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -1894,7 +2122,7 @@
       <c r="X38" s="8"/>
       <c r="Y38" s="8"/>
     </row>
-    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="15.75" customHeight="1">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -1921,7 +2149,7 @@
       <c r="X39" s="8"/>
       <c r="Y39" s="8"/>
     </row>
-    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" ht="15.75" customHeight="1">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -1948,7 +2176,7 @@
       <c r="X40" s="8"/>
       <c r="Y40" s="8"/>
     </row>
-    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" ht="15.75" customHeight="1">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -1975,7 +2203,7 @@
       <c r="X41" s="8"/>
       <c r="Y41" s="8"/>
     </row>
-    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" ht="15.75" customHeight="1">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -2002,7 +2230,7 @@
       <c r="X42" s="8"/>
       <c r="Y42" s="8"/>
     </row>
-    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" ht="15.75" customHeight="1">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -2029,7 +2257,7 @@
       <c r="X43" s="8"/>
       <c r="Y43" s="8"/>
     </row>
-    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" ht="15.75" customHeight="1">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -2056,7 +2284,7 @@
       <c r="X44" s="8"/>
       <c r="Y44" s="8"/>
     </row>
-    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" ht="15.75" customHeight="1">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -2083,7 +2311,7 @@
       <c r="X45" s="8"/>
       <c r="Y45" s="8"/>
     </row>
-    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" ht="15.75" customHeight="1">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -2110,7 +2338,7 @@
       <c r="X46" s="8"/>
       <c r="Y46" s="8"/>
     </row>
-    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" ht="15.75" customHeight="1">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -2137,7 +2365,7 @@
       <c r="X47" s="8"/>
       <c r="Y47" s="8"/>
     </row>
-    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" ht="15.75" customHeight="1">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -2164,7 +2392,7 @@
       <c r="X48" s="8"/>
       <c r="Y48" s="8"/>
     </row>
-    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" ht="15.75" customHeight="1">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -2191,7 +2419,7 @@
       <c r="X49" s="8"/>
       <c r="Y49" s="8"/>
     </row>
-    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" ht="15.75" customHeight="1">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -2218,7 +2446,7 @@
       <c r="X50" s="8"/>
       <c r="Y50" s="8"/>
     </row>
-    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" ht="15.75" customHeight="1">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -2245,7 +2473,7 @@
       <c r="X51" s="8"/>
       <c r="Y51" s="8"/>
     </row>
-    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" ht="15.75" customHeight="1">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -2272,7 +2500,7 @@
       <c r="X52" s="8"/>
       <c r="Y52" s="8"/>
     </row>
-    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -2299,7 +2527,7 @@
       <c r="X53" s="8"/>
       <c r="Y53" s="8"/>
     </row>
-    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -2326,7 +2554,7 @@
       <c r="X54" s="8"/>
       <c r="Y54" s="8"/>
     </row>
-    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" ht="15.75" customHeight="1">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -2353,7 +2581,7 @@
       <c r="X55" s="8"/>
       <c r="Y55" s="8"/>
     </row>
-    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" ht="15.75" customHeight="1">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -2380,7 +2608,7 @@
       <c r="X56" s="8"/>
       <c r="Y56" s="8"/>
     </row>
-    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" ht="15.75" customHeight="1">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -2407,7 +2635,7 @@
       <c r="X57" s="8"/>
       <c r="Y57" s="8"/>
     </row>
-    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" ht="15.75" customHeight="1">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -2434,7 +2662,7 @@
       <c r="X58" s="8"/>
       <c r="Y58" s="8"/>
     </row>
-    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" ht="15.75" customHeight="1">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -2461,7 +2689,7 @@
       <c r="X59" s="8"/>
       <c r="Y59" s="8"/>
     </row>
-    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" ht="15.75" customHeight="1">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -2488,7 +2716,7 @@
       <c r="X60" s="8"/>
       <c r="Y60" s="8"/>
     </row>
-    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" ht="15.75" customHeight="1">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -2515,7 +2743,7 @@
       <c r="X61" s="8"/>
       <c r="Y61" s="8"/>
     </row>
-    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" ht="15.75" customHeight="1">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -2542,7 +2770,7 @@
       <c r="X62" s="8"/>
       <c r="Y62" s="8"/>
     </row>
-    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" ht="15.75" customHeight="1">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -2569,7 +2797,7 @@
       <c r="X63" s="8"/>
       <c r="Y63" s="8"/>
     </row>
-    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" ht="15.75" customHeight="1">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -2596,7 +2824,7 @@
       <c r="X64" s="8"/>
       <c r="Y64" s="8"/>
     </row>
-    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" ht="15.75" customHeight="1">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -2623,7 +2851,7 @@
       <c r="X65" s="8"/>
       <c r="Y65" s="8"/>
     </row>
-    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" ht="15.75" customHeight="1">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -2650,7 +2878,7 @@
       <c r="X66" s="8"/>
       <c r="Y66" s="8"/>
     </row>
-    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" ht="15.75" customHeight="1">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -2677,7 +2905,7 @@
       <c r="X67" s="8"/>
       <c r="Y67" s="8"/>
     </row>
-    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" ht="15.75" customHeight="1">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -2704,7 +2932,7 @@
       <c r="X68" s="8"/>
       <c r="Y68" s="8"/>
     </row>
-    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" ht="15.75" customHeight="1">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -2731,7 +2959,7 @@
       <c r="X69" s="8"/>
       <c r="Y69" s="8"/>
     </row>
-    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" ht="15.75" customHeight="1">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -2758,7 +2986,7 @@
       <c r="X70" s="8"/>
       <c r="Y70" s="8"/>
     </row>
-    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" ht="15.75" customHeight="1">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -2785,7 +3013,7 @@
       <c r="X71" s="8"/>
       <c r="Y71" s="8"/>
     </row>
-    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" ht="15.75" customHeight="1">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -2812,7 +3040,7 @@
       <c r="X72" s="8"/>
       <c r="Y72" s="8"/>
     </row>
-    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" ht="15.75" customHeight="1">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -2839,7 +3067,7 @@
       <c r="X73" s="8"/>
       <c r="Y73" s="8"/>
     </row>
-    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" ht="15.75" customHeight="1">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -2866,7 +3094,7 @@
       <c r="X74" s="8"/>
       <c r="Y74" s="8"/>
     </row>
-    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" ht="15.75" customHeight="1">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -2893,7 +3121,7 @@
       <c r="X75" s="8"/>
       <c r="Y75" s="8"/>
     </row>
-    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" ht="15.75" customHeight="1">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -2920,7 +3148,7 @@
       <c r="X76" s="8"/>
       <c r="Y76" s="8"/>
     </row>
-    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" ht="15.75" customHeight="1">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -2947,7 +3175,7 @@
       <c r="X77" s="8"/>
       <c r="Y77" s="8"/>
     </row>
-    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" ht="15.75" customHeight="1">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -2974,7 +3202,7 @@
       <c r="X78" s="8"/>
       <c r="Y78" s="8"/>
     </row>
-    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" ht="15.75" customHeight="1">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -3001,7 +3229,7 @@
       <c r="X79" s="8"/>
       <c r="Y79" s="8"/>
     </row>
-    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" ht="15.75" customHeight="1">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -3028,7 +3256,7 @@
       <c r="X80" s="8"/>
       <c r="Y80" s="8"/>
     </row>
-    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" ht="15.75" customHeight="1">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -3055,7 +3283,7 @@
       <c r="X81" s="8"/>
       <c r="Y81" s="8"/>
     </row>
-    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" ht="15.75" customHeight="1">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -3082,7 +3310,7 @@
       <c r="X82" s="8"/>
       <c r="Y82" s="8"/>
     </row>
-    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" ht="15.75" customHeight="1">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -3109,7 +3337,7 @@
       <c r="X83" s="8"/>
       <c r="Y83" s="8"/>
     </row>
-    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" ht="15.75" customHeight="1">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -3136,7 +3364,7 @@
       <c r="X84" s="8"/>
       <c r="Y84" s="8"/>
     </row>
-    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" ht="15.75" customHeight="1">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -3163,7 +3391,7 @@
       <c r="X85" s="8"/>
       <c r="Y85" s="8"/>
     </row>
-    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" ht="15.75" customHeight="1">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -3190,7 +3418,7 @@
       <c r="X86" s="8"/>
       <c r="Y86" s="8"/>
     </row>
-    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" ht="15.75" customHeight="1">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -3217,7 +3445,7 @@
       <c r="X87" s="8"/>
       <c r="Y87" s="8"/>
     </row>
-    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" ht="15.75" customHeight="1">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -3244,7 +3472,7 @@
       <c r="X88" s="8"/>
       <c r="Y88" s="8"/>
     </row>
-    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" ht="15.75" customHeight="1">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -3271,7 +3499,7 @@
       <c r="X89" s="8"/>
       <c r="Y89" s="8"/>
     </row>
-    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" ht="15.75" customHeight="1">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -3298,7 +3526,7 @@
       <c r="X90" s="8"/>
       <c r="Y90" s="8"/>
     </row>
-    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" ht="15.75" customHeight="1">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -3325,7 +3553,7 @@
       <c r="X91" s="8"/>
       <c r="Y91" s="8"/>
     </row>
-    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" ht="15.75" customHeight="1">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -3352,7 +3580,7 @@
       <c r="X92" s="8"/>
       <c r="Y92" s="8"/>
     </row>
-    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" ht="15.75" customHeight="1">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -3379,7 +3607,7 @@
       <c r="X93" s="8"/>
       <c r="Y93" s="8"/>
     </row>
-    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" ht="15.75" customHeight="1">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -3406,7 +3634,7 @@
       <c r="X94" s="8"/>
       <c r="Y94" s="8"/>
     </row>
-    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" ht="15.75" customHeight="1">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -3433,7 +3661,7 @@
       <c r="X95" s="8"/>
       <c r="Y95" s="8"/>
     </row>
-    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" ht="15.75" customHeight="1">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -3460,7 +3688,7 @@
       <c r="X96" s="8"/>
       <c r="Y96" s="8"/>
     </row>
-    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" ht="15.75" customHeight="1">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -3487,7 +3715,7 @@
       <c r="X97" s="8"/>
       <c r="Y97" s="8"/>
     </row>
-    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" ht="15.75" customHeight="1">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -3514,7 +3742,7 @@
       <c r="X98" s="8"/>
       <c r="Y98" s="8"/>
     </row>
-    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" ht="15.75" customHeight="1">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -3541,7 +3769,7 @@
       <c r="X99" s="8"/>
       <c r="Y99" s="8"/>
     </row>
-    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" ht="15.75" customHeight="1">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -3568,7 +3796,7 @@
       <c r="X100" s="8"/>
       <c r="Y100" s="8"/>
     </row>
-    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" ht="15.75" customHeight="1">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -3595,7 +3823,7 @@
       <c r="X101" s="8"/>
       <c r="Y101" s="8"/>
     </row>
-    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" ht="15.75" customHeight="1">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -3622,7 +3850,7 @@
       <c r="X102" s="8"/>
       <c r="Y102" s="8"/>
     </row>
-    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" ht="15.75" customHeight="1">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -3649,7 +3877,7 @@
       <c r="X103" s="8"/>
       <c r="Y103" s="8"/>
     </row>
-    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" ht="15.75" customHeight="1">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -3676,7 +3904,7 @@
       <c r="X104" s="8"/>
       <c r="Y104" s="8"/>
     </row>
-    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" ht="15.75" customHeight="1">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -3703,7 +3931,7 @@
       <c r="X105" s="8"/>
       <c r="Y105" s="8"/>
     </row>
-    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" ht="15.75" customHeight="1">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -3730,7 +3958,7 @@
       <c r="X106" s="8"/>
       <c r="Y106" s="8"/>
     </row>
-    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" ht="15.75" customHeight="1">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -3757,7 +3985,7 @@
       <c r="X107" s="8"/>
       <c r="Y107" s="8"/>
     </row>
-    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" ht="15.75" customHeight="1">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -3784,7 +4012,7 @@
       <c r="X108" s="8"/>
       <c r="Y108" s="8"/>
     </row>
-    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" ht="15.75" customHeight="1">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -3811,7 +4039,7 @@
       <c r="X109" s="8"/>
       <c r="Y109" s="8"/>
     </row>
-    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" ht="15.75" customHeight="1">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -3838,7 +4066,7 @@
       <c r="X110" s="8"/>
       <c r="Y110" s="8"/>
     </row>
-    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" ht="15.75" customHeight="1">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -3865,7 +4093,7 @@
       <c r="X111" s="8"/>
       <c r="Y111" s="8"/>
     </row>
-    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" ht="15.75" customHeight="1">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -3892,7 +4120,7 @@
       <c r="X112" s="8"/>
       <c r="Y112" s="8"/>
     </row>
-    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" ht="15.75" customHeight="1">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -3919,7 +4147,7 @@
       <c r="X113" s="8"/>
       <c r="Y113" s="8"/>
     </row>
-    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" ht="15.75" customHeight="1">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -3946,7 +4174,7 @@
       <c r="X114" s="8"/>
       <c r="Y114" s="8"/>
     </row>
-    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" ht="15.75" customHeight="1">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -3973,7 +4201,7 @@
       <c r="X115" s="8"/>
       <c r="Y115" s="8"/>
     </row>
-    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" ht="15.75" customHeight="1">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -4000,7 +4228,7 @@
       <c r="X116" s="8"/>
       <c r="Y116" s="8"/>
     </row>
-    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" ht="15.75" customHeight="1">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -4027,7 +4255,7 @@
       <c r="X117" s="8"/>
       <c r="Y117" s="8"/>
     </row>
-    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" ht="15.75" customHeight="1">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -4054,7 +4282,7 @@
       <c r="X118" s="8"/>
       <c r="Y118" s="8"/>
     </row>
-    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" ht="15.75" customHeight="1">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -4081,7 +4309,7 @@
       <c r="X119" s="8"/>
       <c r="Y119" s="8"/>
     </row>
-    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" ht="15.75" customHeight="1">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -4108,7 +4336,7 @@
       <c r="X120" s="8"/>
       <c r="Y120" s="8"/>
     </row>
-    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" ht="15.75" customHeight="1">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -4135,7 +4363,7 @@
       <c r="X121" s="8"/>
       <c r="Y121" s="8"/>
     </row>
-    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" ht="15.75" customHeight="1">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -4162,7 +4390,7 @@
       <c r="X122" s="8"/>
       <c r="Y122" s="8"/>
     </row>
-    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" ht="15.75" customHeight="1">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -4189,7 +4417,7 @@
       <c r="X123" s="8"/>
       <c r="Y123" s="8"/>
     </row>
-    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" ht="15.75" customHeight="1">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -4216,7 +4444,7 @@
       <c r="X124" s="8"/>
       <c r="Y124" s="8"/>
     </row>
-    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" ht="15.75" customHeight="1">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -4243,7 +4471,7 @@
       <c r="X125" s="8"/>
       <c r="Y125" s="8"/>
     </row>
-    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" ht="15.75" customHeight="1">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -4270,7 +4498,7 @@
       <c r="X126" s="8"/>
       <c r="Y126" s="8"/>
     </row>
-    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" ht="15.75" customHeight="1">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -4297,7 +4525,7 @@
       <c r="X127" s="8"/>
       <c r="Y127" s="8"/>
     </row>
-    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" ht="15.75" customHeight="1">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -4324,7 +4552,7 @@
       <c r="X128" s="8"/>
       <c r="Y128" s="8"/>
     </row>
-    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" ht="15.75" customHeight="1">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -4351,7 +4579,7 @@
       <c r="X129" s="8"/>
       <c r="Y129" s="8"/>
     </row>
-    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" ht="15.75" customHeight="1">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -4378,7 +4606,7 @@
       <c r="X130" s="8"/>
       <c r="Y130" s="8"/>
     </row>
-    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" ht="15.75" customHeight="1">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -4405,7 +4633,7 @@
       <c r="X131" s="8"/>
       <c r="Y131" s="8"/>
     </row>
-    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" ht="15.75" customHeight="1">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -4432,7 +4660,7 @@
       <c r="X132" s="8"/>
       <c r="Y132" s="8"/>
     </row>
-    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" ht="15.75" customHeight="1">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -4459,7 +4687,7 @@
       <c r="X133" s="8"/>
       <c r="Y133" s="8"/>
     </row>
-    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" ht="15.75" customHeight="1">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -4486,7 +4714,7 @@
       <c r="X134" s="8"/>
       <c r="Y134" s="8"/>
     </row>
-    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" ht="15.75" customHeight="1">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -4513,7 +4741,7 @@
       <c r="X135" s="8"/>
       <c r="Y135" s="8"/>
     </row>
-    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" ht="15.75" customHeight="1">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -4540,7 +4768,7 @@
       <c r="X136" s="8"/>
       <c r="Y136" s="8"/>
     </row>
-    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" ht="15.75" customHeight="1">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -4567,7 +4795,7 @@
       <c r="X137" s="8"/>
       <c r="Y137" s="8"/>
     </row>
-    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" ht="15.75" customHeight="1">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -4594,7 +4822,7 @@
       <c r="X138" s="8"/>
       <c r="Y138" s="8"/>
     </row>
-    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" ht="15.75" customHeight="1">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -4621,7 +4849,7 @@
       <c r="X139" s="8"/>
       <c r="Y139" s="8"/>
     </row>
-    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" ht="15.75" customHeight="1">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -4648,7 +4876,7 @@
       <c r="X140" s="8"/>
       <c r="Y140" s="8"/>
     </row>
-    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" ht="15.75" customHeight="1">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -4675,7 +4903,7 @@
       <c r="X141" s="8"/>
       <c r="Y141" s="8"/>
     </row>
-    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" ht="15.75" customHeight="1">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -4702,7 +4930,7 @@
       <c r="X142" s="8"/>
       <c r="Y142" s="8"/>
     </row>
-    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" ht="15.75" customHeight="1">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -4729,7 +4957,7 @@
       <c r="X143" s="8"/>
       <c r="Y143" s="8"/>
     </row>
-    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" ht="15.75" customHeight="1">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -4756,7 +4984,7 @@
       <c r="X144" s="8"/>
       <c r="Y144" s="8"/>
     </row>
-    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" ht="15.75" customHeight="1">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -4783,7 +5011,7 @@
       <c r="X145" s="8"/>
       <c r="Y145" s="8"/>
     </row>
-    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" ht="15.75" customHeight="1">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -4810,7 +5038,7 @@
       <c r="X146" s="8"/>
       <c r="Y146" s="8"/>
     </row>
-    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" ht="15.75" customHeight="1">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -4837,7 +5065,7 @@
       <c r="X147" s="8"/>
       <c r="Y147" s="8"/>
     </row>
-    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" ht="15.75" customHeight="1">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -4864,7 +5092,7 @@
       <c r="X148" s="8"/>
       <c r="Y148" s="8"/>
     </row>
-    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" ht="15.75" customHeight="1">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -4891,7 +5119,7 @@
       <c r="X149" s="8"/>
       <c r="Y149" s="8"/>
     </row>
-    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" ht="15.75" customHeight="1">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -4918,7 +5146,7 @@
       <c r="X150" s="8"/>
       <c r="Y150" s="8"/>
     </row>
-    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" ht="15.75" customHeight="1">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -4945,7 +5173,7 @@
       <c r="X151" s="8"/>
       <c r="Y151" s="8"/>
     </row>
-    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" ht="15.75" customHeight="1">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -4972,7 +5200,7 @@
       <c r="X152" s="8"/>
       <c r="Y152" s="8"/>
     </row>
-    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" ht="15.75" customHeight="1">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -4999,7 +5227,7 @@
       <c r="X153" s="8"/>
       <c r="Y153" s="8"/>
     </row>
-    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" ht="15.75" customHeight="1">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -5026,7 +5254,7 @@
       <c r="X154" s="8"/>
       <c r="Y154" s="8"/>
     </row>
-    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" ht="15.75" customHeight="1">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -5053,7 +5281,7 @@
       <c r="X155" s="8"/>
       <c r="Y155" s="8"/>
     </row>
-    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" ht="15.75" customHeight="1">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -5080,7 +5308,7 @@
       <c r="X156" s="8"/>
       <c r="Y156" s="8"/>
     </row>
-    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" ht="15.75" customHeight="1">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -5107,7 +5335,7 @@
       <c r="X157" s="8"/>
       <c r="Y157" s="8"/>
     </row>
-    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" ht="15.75" customHeight="1">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -5134,7 +5362,7 @@
       <c r="X158" s="8"/>
       <c r="Y158" s="8"/>
     </row>
-    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" ht="15.75" customHeight="1">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -5161,7 +5389,7 @@
       <c r="X159" s="8"/>
       <c r="Y159" s="8"/>
     </row>
-    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" ht="15.75" customHeight="1">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -5188,7 +5416,7 @@
       <c r="X160" s="8"/>
       <c r="Y160" s="8"/>
     </row>
-    <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" ht="15.75" customHeight="1">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -5215,7 +5443,7 @@
       <c r="X161" s="8"/>
       <c r="Y161" s="8"/>
     </row>
-    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" ht="15.75" customHeight="1">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -5242,7 +5470,7 @@
       <c r="X162" s="8"/>
       <c r="Y162" s="8"/>
     </row>
-    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" ht="15.75" customHeight="1">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -5269,7 +5497,7 @@
       <c r="X163" s="8"/>
       <c r="Y163" s="8"/>
     </row>
-    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" ht="15.75" customHeight="1">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -5296,7 +5524,7 @@
       <c r="X164" s="8"/>
       <c r="Y164" s="8"/>
     </row>
-    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" ht="15.75" customHeight="1">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -5323,7 +5551,7 @@
       <c r="X165" s="8"/>
       <c r="Y165" s="8"/>
     </row>
-    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" ht="15.75" customHeight="1">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -5350,7 +5578,7 @@
       <c r="X166" s="8"/>
       <c r="Y166" s="8"/>
     </row>
-    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" ht="15.75" customHeight="1">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -5377,7 +5605,7 @@
       <c r="X167" s="8"/>
       <c r="Y167" s="8"/>
     </row>
-    <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" ht="15.75" customHeight="1">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -5404,7 +5632,7 @@
       <c r="X168" s="8"/>
       <c r="Y168" s="8"/>
     </row>
-    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" ht="15.75" customHeight="1">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -5431,7 +5659,7 @@
       <c r="X169" s="8"/>
       <c r="Y169" s="8"/>
     </row>
-    <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" ht="15.75" customHeight="1">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -5458,7 +5686,7 @@
       <c r="X170" s="8"/>
       <c r="Y170" s="8"/>
     </row>
-    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" ht="15.75" customHeight="1">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -5485,7 +5713,7 @@
       <c r="X171" s="8"/>
       <c r="Y171" s="8"/>
     </row>
-    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" ht="15.75" customHeight="1">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -5512,7 +5740,7 @@
       <c r="X172" s="8"/>
       <c r="Y172" s="8"/>
     </row>
-    <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" ht="15.75" customHeight="1">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -5539,7 +5767,7 @@
       <c r="X173" s="8"/>
       <c r="Y173" s="8"/>
     </row>
-    <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" ht="15.75" customHeight="1">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -5566,7 +5794,7 @@
       <c r="X174" s="8"/>
       <c r="Y174" s="8"/>
     </row>
-    <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" ht="15.75" customHeight="1">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -5593,7 +5821,7 @@
       <c r="X175" s="8"/>
       <c r="Y175" s="8"/>
     </row>
-    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" ht="15.75" customHeight="1">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -5620,7 +5848,7 @@
       <c r="X176" s="8"/>
       <c r="Y176" s="8"/>
     </row>
-    <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" ht="15.75" customHeight="1">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -5647,7 +5875,7 @@
       <c r="X177" s="8"/>
       <c r="Y177" s="8"/>
     </row>
-    <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" ht="15.75" customHeight="1">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -5674,7 +5902,7 @@
       <c r="X178" s="8"/>
       <c r="Y178" s="8"/>
     </row>
-    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" ht="15.75" customHeight="1">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -5701,7 +5929,7 @@
       <c r="X179" s="8"/>
       <c r="Y179" s="8"/>
     </row>
-    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" ht="15.75" customHeight="1">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -5728,7 +5956,7 @@
       <c r="X180" s="8"/>
       <c r="Y180" s="8"/>
     </row>
-    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" ht="15.75" customHeight="1">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -5755,7 +5983,7 @@
       <c r="X181" s="8"/>
       <c r="Y181" s="8"/>
     </row>
-    <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" ht="15.75" customHeight="1">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -5782,7 +6010,7 @@
       <c r="X182" s="8"/>
       <c r="Y182" s="8"/>
     </row>
-    <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" ht="15.75" customHeight="1">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -5809,7 +6037,7 @@
       <c r="X183" s="8"/>
       <c r="Y183" s="8"/>
     </row>
-    <row r="184" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" ht="15.75" customHeight="1">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -5836,7 +6064,7 @@
       <c r="X184" s="8"/>
       <c r="Y184" s="8"/>
     </row>
-    <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" ht="15.75" customHeight="1">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -5863,7 +6091,7 @@
       <c r="X185" s="8"/>
       <c r="Y185" s="8"/>
     </row>
-    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" ht="15.75" customHeight="1">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -5890,7 +6118,7 @@
       <c r="X186" s="8"/>
       <c r="Y186" s="8"/>
     </row>
-    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" ht="15.75" customHeight="1">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -5917,7 +6145,7 @@
       <c r="X187" s="8"/>
       <c r="Y187" s="8"/>
     </row>
-    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" ht="15.75" customHeight="1">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -5944,7 +6172,7 @@
       <c r="X188" s="8"/>
       <c r="Y188" s="8"/>
     </row>
-    <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" ht="15.75" customHeight="1">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -5971,7 +6199,7 @@
       <c r="X189" s="8"/>
       <c r="Y189" s="8"/>
     </row>
-    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" ht="15.75" customHeight="1">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -5998,7 +6226,7 @@
       <c r="X190" s="8"/>
       <c r="Y190" s="8"/>
     </row>
-    <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" ht="15.75" customHeight="1">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -6025,7 +6253,7 @@
       <c r="X191" s="8"/>
       <c r="Y191" s="8"/>
     </row>
-    <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" ht="15.75" customHeight="1">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -6052,7 +6280,7 @@
       <c r="X192" s="8"/>
       <c r="Y192" s="8"/>
     </row>
-    <row r="193" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" ht="15.75" customHeight="1">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -6079,7 +6307,7 @@
       <c r="X193" s="8"/>
       <c r="Y193" s="8"/>
     </row>
-    <row r="194" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" ht="15.75" customHeight="1">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -6106,7 +6334,7 @@
       <c r="X194" s="8"/>
       <c r="Y194" s="8"/>
     </row>
-    <row r="195" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" ht="15.75" customHeight="1">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -6133,7 +6361,7 @@
       <c r="X195" s="8"/>
       <c r="Y195" s="8"/>
     </row>
-    <row r="196" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25" ht="15.75" customHeight="1">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -6160,7 +6388,7 @@
       <c r="X196" s="8"/>
       <c r="Y196" s="8"/>
     </row>
-    <row r="197" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" ht="15.75" customHeight="1">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -6187,7 +6415,7 @@
       <c r="X197" s="8"/>
       <c r="Y197" s="8"/>
     </row>
-    <row r="198" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25" ht="15.75" customHeight="1">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -6214,7 +6442,7 @@
       <c r="X198" s="8"/>
       <c r="Y198" s="8"/>
     </row>
-    <row r="199" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25" ht="15.75" customHeight="1">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -6241,7 +6469,7 @@
       <c r="X199" s="8"/>
       <c r="Y199" s="8"/>
     </row>
-    <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25" ht="15.75" customHeight="1">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -6268,7 +6496,7 @@
       <c r="X200" s="8"/>
       <c r="Y200" s="8"/>
     </row>
-    <row r="201" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25" ht="15.75" customHeight="1">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -6295,7 +6523,7 @@
       <c r="X201" s="8"/>
       <c r="Y201" s="8"/>
     </row>
-    <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25" ht="15.75" customHeight="1">
       <c r="A202" s="8"/>
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
@@ -6322,7 +6550,7 @@
       <c r="X202" s="8"/>
       <c r="Y202" s="8"/>
     </row>
-    <row r="203" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25" ht="15.75" customHeight="1">
       <c r="A203" s="8"/>
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
@@ -6349,7 +6577,7 @@
       <c r="X203" s="8"/>
       <c r="Y203" s="8"/>
     </row>
-    <row r="204" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25" ht="15.75" customHeight="1">
       <c r="A204" s="8"/>
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
@@ -6376,7 +6604,7 @@
       <c r="X204" s="8"/>
       <c r="Y204" s="8"/>
     </row>
-    <row r="205" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25" ht="15.75" customHeight="1">
       <c r="A205" s="8"/>
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
@@ -6403,7 +6631,7 @@
       <c r="X205" s="8"/>
       <c r="Y205" s="8"/>
     </row>
-    <row r="206" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:25" ht="15.75" customHeight="1">
       <c r="A206" s="8"/>
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
@@ -6430,7 +6658,7 @@
       <c r="X206" s="8"/>
       <c r="Y206" s="8"/>
     </row>
-    <row r="207" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25" ht="15.75" customHeight="1">
       <c r="A207" s="8"/>
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
@@ -6457,7 +6685,7 @@
       <c r="X207" s="8"/>
       <c r="Y207" s="8"/>
     </row>
-    <row r="208" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25" ht="15.75" customHeight="1">
       <c r="A208" s="8"/>
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
@@ -6484,7 +6712,7 @@
       <c r="X208" s="8"/>
       <c r="Y208" s="8"/>
     </row>
-    <row r="209" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:25" ht="15.75" customHeight="1">
       <c r="A209" s="8"/>
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
@@ -6511,7 +6739,7 @@
       <c r="X209" s="8"/>
       <c r="Y209" s="8"/>
     </row>
-    <row r="210" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25" ht="15.75" customHeight="1">
       <c r="A210" s="8"/>
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
@@ -6538,7 +6766,7 @@
       <c r="X210" s="8"/>
       <c r="Y210" s="8"/>
     </row>
-    <row r="211" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:25" ht="15.75" customHeight="1">
       <c r="A211" s="8"/>
       <c r="B211" s="8"/>
       <c r="C211" s="8"/>
@@ -6565,7 +6793,7 @@
       <c r="X211" s="8"/>
       <c r="Y211" s="8"/>
     </row>
-    <row r="212" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:25" ht="15.75" customHeight="1">
       <c r="A212" s="8"/>
       <c r="B212" s="8"/>
       <c r="C212" s="8"/>
@@ -6592,7 +6820,7 @@
       <c r="X212" s="8"/>
       <c r="Y212" s="8"/>
     </row>
-    <row r="213" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:25" ht="15.75" customHeight="1">
       <c r="A213" s="8"/>
       <c r="B213" s="8"/>
       <c r="C213" s="8"/>
@@ -6619,7 +6847,7 @@
       <c r="X213" s="8"/>
       <c r="Y213" s="8"/>
     </row>
-    <row r="214" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:25" ht="15.75" customHeight="1">
       <c r="A214" s="8"/>
       <c r="B214" s="8"/>
       <c r="C214" s="8"/>
@@ -6646,7 +6874,7 @@
       <c r="X214" s="8"/>
       <c r="Y214" s="8"/>
     </row>
-    <row r="215" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:25" ht="15.75" customHeight="1">
       <c r="A215" s="8"/>
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
@@ -6673,7 +6901,7 @@
       <c r="X215" s="8"/>
       <c r="Y215" s="8"/>
     </row>
-    <row r="216" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:25" ht="15.75" customHeight="1">
       <c r="A216" s="8"/>
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
@@ -6700,7 +6928,7 @@
       <c r="X216" s="8"/>
       <c r="Y216" s="8"/>
     </row>
-    <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25" ht="15.75" customHeight="1">
       <c r="A217" s="8"/>
       <c r="B217" s="8"/>
       <c r="C217" s="8"/>
@@ -6727,7 +6955,7 @@
       <c r="X217" s="8"/>
       <c r="Y217" s="8"/>
     </row>
-    <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25" ht="15.75" customHeight="1">
       <c r="A218" s="8"/>
       <c r="B218" s="8"/>
       <c r="C218" s="8"/>
@@ -6754,7 +6982,7 @@
       <c r="X218" s="8"/>
       <c r="Y218" s="8"/>
     </row>
-    <row r="219" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:25" ht="15.75" customHeight="1">
       <c r="A219" s="8"/>
       <c r="B219" s="8"/>
       <c r="C219" s="8"/>
@@ -6781,7 +7009,7 @@
       <c r="X219" s="8"/>
       <c r="Y219" s="8"/>
     </row>
-    <row r="220" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:25" ht="15.75" customHeight="1">
       <c r="A220" s="8"/>
       <c r="B220" s="8"/>
       <c r="C220" s="8"/>
@@ -6808,786 +7036,786 @@
       <c r="X220" s="8"/>
       <c r="Y220" s="8"/>
     </row>
-    <row r="221" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="12.75" customHeight="1"/>
+    <row r="222" ht="12.75" customHeight="1"/>
+    <row r="223" ht="12.75" customHeight="1"/>
+    <row r="224" ht="12.75" customHeight="1"/>
+    <row r="225" ht="12.75" customHeight="1"/>
+    <row r="226" ht="12.75" customHeight="1"/>
+    <row r="227" ht="12.75" customHeight="1"/>
+    <row r="228" ht="12.75" customHeight="1"/>
+    <row r="229" ht="12.75" customHeight="1"/>
+    <row r="230" ht="12.75" customHeight="1"/>
+    <row r="231" ht="12.75" customHeight="1"/>
+    <row r="232" ht="12.75" customHeight="1"/>
+    <row r="233" ht="12.75" customHeight="1"/>
+    <row r="234" ht="12.75" customHeight="1"/>
+    <row r="235" ht="12.75" customHeight="1"/>
+    <row r="236" ht="12.75" customHeight="1"/>
+    <row r="237" ht="12.75" customHeight="1"/>
+    <row r="238" ht="12.75" customHeight="1"/>
+    <row r="239" ht="12.75" customHeight="1"/>
+    <row r="240" ht="12.75" customHeight="1"/>
+    <row r="241" ht="12.75" customHeight="1"/>
+    <row r="242" ht="12.75" customHeight="1"/>
+    <row r="243" ht="12.75" customHeight="1"/>
+    <row r="244" ht="12.75" customHeight="1"/>
+    <row r="245" ht="12.75" customHeight="1"/>
+    <row r="246" ht="12.75" customHeight="1"/>
+    <row r="247" ht="12.75" customHeight="1"/>
+    <row r="248" ht="12.75" customHeight="1"/>
+    <row r="249" ht="12.75" customHeight="1"/>
+    <row r="250" ht="12.75" customHeight="1"/>
+    <row r="251" ht="12.75" customHeight="1"/>
+    <row r="252" ht="12.75" customHeight="1"/>
+    <row r="253" ht="12.75" customHeight="1"/>
+    <row r="254" ht="12.75" customHeight="1"/>
+    <row r="255" ht="12.75" customHeight="1"/>
+    <row r="256" ht="12.75" customHeight="1"/>
+    <row r="257" ht="12.75" customHeight="1"/>
+    <row r="258" ht="12.75" customHeight="1"/>
+    <row r="259" ht="12.75" customHeight="1"/>
+    <row r="260" ht="12.75" customHeight="1"/>
+    <row r="261" ht="12.75" customHeight="1"/>
+    <row r="262" ht="12.75" customHeight="1"/>
+    <row r="263" ht="12.75" customHeight="1"/>
+    <row r="264" ht="12.75" customHeight="1"/>
+    <row r="265" ht="12.75" customHeight="1"/>
+    <row r="266" ht="12.75" customHeight="1"/>
+    <row r="267" ht="12.75" customHeight="1"/>
+    <row r="268" ht="12.75" customHeight="1"/>
+    <row r="269" ht="12.75" customHeight="1"/>
+    <row r="270" ht="12.75" customHeight="1"/>
+    <row r="271" ht="12.75" customHeight="1"/>
+    <row r="272" ht="12.75" customHeight="1"/>
+    <row r="273" ht="12.75" customHeight="1"/>
+    <row r="274" ht="12.75" customHeight="1"/>
+    <row r="275" ht="12.75" customHeight="1"/>
+    <row r="276" ht="12.75" customHeight="1"/>
+    <row r="277" ht="12.75" customHeight="1"/>
+    <row r="278" ht="12.75" customHeight="1"/>
+    <row r="279" ht="12.75" customHeight="1"/>
+    <row r="280" ht="12.75" customHeight="1"/>
+    <row r="281" ht="12.75" customHeight="1"/>
+    <row r="282" ht="12.75" customHeight="1"/>
+    <row r="283" ht="12.75" customHeight="1"/>
+    <row r="284" ht="12.75" customHeight="1"/>
+    <row r="285" ht="12.75" customHeight="1"/>
+    <row r="286" ht="12.75" customHeight="1"/>
+    <row r="287" ht="12.75" customHeight="1"/>
+    <row r="288" ht="12.75" customHeight="1"/>
+    <row r="289" ht="12.75" customHeight="1"/>
+    <row r="290" ht="12.75" customHeight="1"/>
+    <row r="291" ht="12.75" customHeight="1"/>
+    <row r="292" ht="12.75" customHeight="1"/>
+    <row r="293" ht="12.75" customHeight="1"/>
+    <row r="294" ht="12.75" customHeight="1"/>
+    <row r="295" ht="12.75" customHeight="1"/>
+    <row r="296" ht="12.75" customHeight="1"/>
+    <row r="297" ht="12.75" customHeight="1"/>
+    <row r="298" ht="12.75" customHeight="1"/>
+    <row r="299" ht="12.75" customHeight="1"/>
+    <row r="300" ht="12.75" customHeight="1"/>
+    <row r="301" ht="12.75" customHeight="1"/>
+    <row r="302" ht="12.75" customHeight="1"/>
+    <row r="303" ht="12.75" customHeight="1"/>
+    <row r="304" ht="12.75" customHeight="1"/>
+    <row r="305" ht="12.75" customHeight="1"/>
+    <row r="306" ht="12.75" customHeight="1"/>
+    <row r="307" ht="12.75" customHeight="1"/>
+    <row r="308" ht="12.75" customHeight="1"/>
+    <row r="309" ht="12.75" customHeight="1"/>
+    <row r="310" ht="12.75" customHeight="1"/>
+    <row r="311" ht="12.75" customHeight="1"/>
+    <row r="312" ht="12.75" customHeight="1"/>
+    <row r="313" ht="12.75" customHeight="1"/>
+    <row r="314" ht="12.75" customHeight="1"/>
+    <row r="315" ht="12.75" customHeight="1"/>
+    <row r="316" ht="12.75" customHeight="1"/>
+    <row r="317" ht="12.75" customHeight="1"/>
+    <row r="318" ht="12.75" customHeight="1"/>
+    <row r="319" ht="12.75" customHeight="1"/>
+    <row r="320" ht="12.75" customHeight="1"/>
+    <row r="321" ht="12.75" customHeight="1"/>
+    <row r="322" ht="12.75" customHeight="1"/>
+    <row r="323" ht="12.75" customHeight="1"/>
+    <row r="324" ht="12.75" customHeight="1"/>
+    <row r="325" ht="12.75" customHeight="1"/>
+    <row r="326" ht="12.75" customHeight="1"/>
+    <row r="327" ht="12.75" customHeight="1"/>
+    <row r="328" ht="12.75" customHeight="1"/>
+    <row r="329" ht="12.75" customHeight="1"/>
+    <row r="330" ht="12.75" customHeight="1"/>
+    <row r="331" ht="12.75" customHeight="1"/>
+    <row r="332" ht="12.75" customHeight="1"/>
+    <row r="333" ht="12.75" customHeight="1"/>
+    <row r="334" ht="12.75" customHeight="1"/>
+    <row r="335" ht="12.75" customHeight="1"/>
+    <row r="336" ht="12.75" customHeight="1"/>
+    <row r="337" ht="12.75" customHeight="1"/>
+    <row r="338" ht="12.75" customHeight="1"/>
+    <row r="339" ht="12.75" customHeight="1"/>
+    <row r="340" ht="12.75" customHeight="1"/>
+    <row r="341" ht="12.75" customHeight="1"/>
+    <row r="342" ht="12.75" customHeight="1"/>
+    <row r="343" ht="12.75" customHeight="1"/>
+    <row r="344" ht="12.75" customHeight="1"/>
+    <row r="345" ht="12.75" customHeight="1"/>
+    <row r="346" ht="12.75" customHeight="1"/>
+    <row r="347" ht="12.75" customHeight="1"/>
+    <row r="348" ht="12.75" customHeight="1"/>
+    <row r="349" ht="12.75" customHeight="1"/>
+    <row r="350" ht="12.75" customHeight="1"/>
+    <row r="351" ht="12.75" customHeight="1"/>
+    <row r="352" ht="12.75" customHeight="1"/>
+    <row r="353" ht="12.75" customHeight="1"/>
+    <row r="354" ht="12.75" customHeight="1"/>
+    <row r="355" ht="12.75" customHeight="1"/>
+    <row r="356" ht="12.75" customHeight="1"/>
+    <row r="357" ht="12.75" customHeight="1"/>
+    <row r="358" ht="12.75" customHeight="1"/>
+    <row r="359" ht="12.75" customHeight="1"/>
+    <row r="360" ht="12.75" customHeight="1"/>
+    <row r="361" ht="12.75" customHeight="1"/>
+    <row r="362" ht="12.75" customHeight="1"/>
+    <row r="363" ht="12.75" customHeight="1"/>
+    <row r="364" ht="12.75" customHeight="1"/>
+    <row r="365" ht="12.75" customHeight="1"/>
+    <row r="366" ht="12.75" customHeight="1"/>
+    <row r="367" ht="12.75" customHeight="1"/>
+    <row r="368" ht="12.75" customHeight="1"/>
+    <row r="369" ht="12.75" customHeight="1"/>
+    <row r="370" ht="12.75" customHeight="1"/>
+    <row r="371" ht="12.75" customHeight="1"/>
+    <row r="372" ht="12.75" customHeight="1"/>
+    <row r="373" ht="12.75" customHeight="1"/>
+    <row r="374" ht="12.75" customHeight="1"/>
+    <row r="375" ht="12.75" customHeight="1"/>
+    <row r="376" ht="12.75" customHeight="1"/>
+    <row r="377" ht="12.75" customHeight="1"/>
+    <row r="378" ht="12.75" customHeight="1"/>
+    <row r="379" ht="12.75" customHeight="1"/>
+    <row r="380" ht="12.75" customHeight="1"/>
+    <row r="381" ht="12.75" customHeight="1"/>
+    <row r="382" ht="12.75" customHeight="1"/>
+    <row r="383" ht="12.75" customHeight="1"/>
+    <row r="384" ht="12.75" customHeight="1"/>
+    <row r="385" ht="12.75" customHeight="1"/>
+    <row r="386" ht="12.75" customHeight="1"/>
+    <row r="387" ht="12.75" customHeight="1"/>
+    <row r="388" ht="12.75" customHeight="1"/>
+    <row r="389" ht="12.75" customHeight="1"/>
+    <row r="390" ht="12.75" customHeight="1"/>
+    <row r="391" ht="12.75" customHeight="1"/>
+    <row r="392" ht="12.75" customHeight="1"/>
+    <row r="393" ht="12.75" customHeight="1"/>
+    <row r="394" ht="12.75" customHeight="1"/>
+    <row r="395" ht="12.75" customHeight="1"/>
+    <row r="396" ht="12.75" customHeight="1"/>
+    <row r="397" ht="12.75" customHeight="1"/>
+    <row r="398" ht="12.75" customHeight="1"/>
+    <row r="399" ht="12.75" customHeight="1"/>
+    <row r="400" ht="12.75" customHeight="1"/>
+    <row r="401" ht="12.75" customHeight="1"/>
+    <row r="402" ht="12.75" customHeight="1"/>
+    <row r="403" ht="12.75" customHeight="1"/>
+    <row r="404" ht="12.75" customHeight="1"/>
+    <row r="405" ht="12.75" customHeight="1"/>
+    <row r="406" ht="12.75" customHeight="1"/>
+    <row r="407" ht="12.75" customHeight="1"/>
+    <row r="408" ht="12.75" customHeight="1"/>
+    <row r="409" ht="12.75" customHeight="1"/>
+    <row r="410" ht="12.75" customHeight="1"/>
+    <row r="411" ht="12.75" customHeight="1"/>
+    <row r="412" ht="12.75" customHeight="1"/>
+    <row r="413" ht="12.75" customHeight="1"/>
+    <row r="414" ht="12.75" customHeight="1"/>
+    <row r="415" ht="12.75" customHeight="1"/>
+    <row r="416" ht="12.75" customHeight="1"/>
+    <row r="417" ht="12.75" customHeight="1"/>
+    <row r="418" ht="12.75" customHeight="1"/>
+    <row r="419" ht="12.75" customHeight="1"/>
+    <row r="420" ht="12.75" customHeight="1"/>
+    <row r="421" ht="12.75" customHeight="1"/>
+    <row r="422" ht="12.75" customHeight="1"/>
+    <row r="423" ht="12.75" customHeight="1"/>
+    <row r="424" ht="12.75" customHeight="1"/>
+    <row r="425" ht="12.75" customHeight="1"/>
+    <row r="426" ht="12.75" customHeight="1"/>
+    <row r="427" ht="12.75" customHeight="1"/>
+    <row r="428" ht="12.75" customHeight="1"/>
+    <row r="429" ht="12.75" customHeight="1"/>
+    <row r="430" ht="12.75" customHeight="1"/>
+    <row r="431" ht="12.75" customHeight="1"/>
+    <row r="432" ht="12.75" customHeight="1"/>
+    <row r="433" ht="12.75" customHeight="1"/>
+    <row r="434" ht="12.75" customHeight="1"/>
+    <row r="435" ht="12.75" customHeight="1"/>
+    <row r="436" ht="12.75" customHeight="1"/>
+    <row r="437" ht="12.75" customHeight="1"/>
+    <row r="438" ht="12.75" customHeight="1"/>
+    <row r="439" ht="12.75" customHeight="1"/>
+    <row r="440" ht="12.75" customHeight="1"/>
+    <row r="441" ht="12.75" customHeight="1"/>
+    <row r="442" ht="12.75" customHeight="1"/>
+    <row r="443" ht="12.75" customHeight="1"/>
+    <row r="444" ht="12.75" customHeight="1"/>
+    <row r="445" ht="12.75" customHeight="1"/>
+    <row r="446" ht="12.75" customHeight="1"/>
+    <row r="447" ht="12.75" customHeight="1"/>
+    <row r="448" ht="12.75" customHeight="1"/>
+    <row r="449" ht="12.75" customHeight="1"/>
+    <row r="450" ht="12.75" customHeight="1"/>
+    <row r="451" ht="12.75" customHeight="1"/>
+    <row r="452" ht="12.75" customHeight="1"/>
+    <row r="453" ht="12.75" customHeight="1"/>
+    <row r="454" ht="12.75" customHeight="1"/>
+    <row r="455" ht="12.75" customHeight="1"/>
+    <row r="456" ht="12.75" customHeight="1"/>
+    <row r="457" ht="12.75" customHeight="1"/>
+    <row r="458" ht="12.75" customHeight="1"/>
+    <row r="459" ht="12.75" customHeight="1"/>
+    <row r="460" ht="12.75" customHeight="1"/>
+    <row r="461" ht="12.75" customHeight="1"/>
+    <row r="462" ht="12.75" customHeight="1"/>
+    <row r="463" ht="12.75" customHeight="1"/>
+    <row r="464" ht="12.75" customHeight="1"/>
+    <row r="465" ht="12.75" customHeight="1"/>
+    <row r="466" ht="12.75" customHeight="1"/>
+    <row r="467" ht="12.75" customHeight="1"/>
+    <row r="468" ht="12.75" customHeight="1"/>
+    <row r="469" ht="12.75" customHeight="1"/>
+    <row r="470" ht="12.75" customHeight="1"/>
+    <row r="471" ht="12.75" customHeight="1"/>
+    <row r="472" ht="12.75" customHeight="1"/>
+    <row r="473" ht="12.75" customHeight="1"/>
+    <row r="474" ht="12.75" customHeight="1"/>
+    <row r="475" ht="12.75" customHeight="1"/>
+    <row r="476" ht="12.75" customHeight="1"/>
+    <row r="477" ht="12.75" customHeight="1"/>
+    <row r="478" ht="12.75" customHeight="1"/>
+    <row r="479" ht="12.75" customHeight="1"/>
+    <row r="480" ht="12.75" customHeight="1"/>
+    <row r="481" ht="12.75" customHeight="1"/>
+    <row r="482" ht="12.75" customHeight="1"/>
+    <row r="483" ht="12.75" customHeight="1"/>
+    <row r="484" ht="12.75" customHeight="1"/>
+    <row r="485" ht="12.75" customHeight="1"/>
+    <row r="486" ht="12.75" customHeight="1"/>
+    <row r="487" ht="12.75" customHeight="1"/>
+    <row r="488" ht="12.75" customHeight="1"/>
+    <row r="489" ht="12.75" customHeight="1"/>
+    <row r="490" ht="12.75" customHeight="1"/>
+    <row r="491" ht="12.75" customHeight="1"/>
+    <row r="492" ht="12.75" customHeight="1"/>
+    <row r="493" ht="12.75" customHeight="1"/>
+    <row r="494" ht="12.75" customHeight="1"/>
+    <row r="495" ht="12.75" customHeight="1"/>
+    <row r="496" ht="12.75" customHeight="1"/>
+    <row r="497" ht="12.75" customHeight="1"/>
+    <row r="498" ht="12.75" customHeight="1"/>
+    <row r="499" ht="12.75" customHeight="1"/>
+    <row r="500" ht="12.75" customHeight="1"/>
+    <row r="501" ht="12.75" customHeight="1"/>
+    <row r="502" ht="12.75" customHeight="1"/>
+    <row r="503" ht="12.75" customHeight="1"/>
+    <row r="504" ht="12.75" customHeight="1"/>
+    <row r="505" ht="12.75" customHeight="1"/>
+    <row r="506" ht="12.75" customHeight="1"/>
+    <row r="507" ht="12.75" customHeight="1"/>
+    <row r="508" ht="12.75" customHeight="1"/>
+    <row r="509" ht="12.75" customHeight="1"/>
+    <row r="510" ht="12.75" customHeight="1"/>
+    <row r="511" ht="12.75" customHeight="1"/>
+    <row r="512" ht="12.75" customHeight="1"/>
+    <row r="513" ht="12.75" customHeight="1"/>
+    <row r="514" ht="12.75" customHeight="1"/>
+    <row r="515" ht="12.75" customHeight="1"/>
+    <row r="516" ht="12.75" customHeight="1"/>
+    <row r="517" ht="12.75" customHeight="1"/>
+    <row r="518" ht="12.75" customHeight="1"/>
+    <row r="519" ht="12.75" customHeight="1"/>
+    <row r="520" ht="12.75" customHeight="1"/>
+    <row r="521" ht="12.75" customHeight="1"/>
+    <row r="522" ht="12.75" customHeight="1"/>
+    <row r="523" ht="12.75" customHeight="1"/>
+    <row r="524" ht="12.75" customHeight="1"/>
+    <row r="525" ht="12.75" customHeight="1"/>
+    <row r="526" ht="12.75" customHeight="1"/>
+    <row r="527" ht="12.75" customHeight="1"/>
+    <row r="528" ht="12.75" customHeight="1"/>
+    <row r="529" ht="12.75" customHeight="1"/>
+    <row r="530" ht="12.75" customHeight="1"/>
+    <row r="531" ht="12.75" customHeight="1"/>
+    <row r="532" ht="12.75" customHeight="1"/>
+    <row r="533" ht="12.75" customHeight="1"/>
+    <row r="534" ht="12.75" customHeight="1"/>
+    <row r="535" ht="12.75" customHeight="1"/>
+    <row r="536" ht="12.75" customHeight="1"/>
+    <row r="537" ht="12.75" customHeight="1"/>
+    <row r="538" ht="12.75" customHeight="1"/>
+    <row r="539" ht="12.75" customHeight="1"/>
+    <row r="540" ht="12.75" customHeight="1"/>
+    <row r="541" ht="12.75" customHeight="1"/>
+    <row r="542" ht="12.75" customHeight="1"/>
+    <row r="543" ht="12.75" customHeight="1"/>
+    <row r="544" ht="12.75" customHeight="1"/>
+    <row r="545" ht="12.75" customHeight="1"/>
+    <row r="546" ht="12.75" customHeight="1"/>
+    <row r="547" ht="12.75" customHeight="1"/>
+    <row r="548" ht="12.75" customHeight="1"/>
+    <row r="549" ht="12.75" customHeight="1"/>
+    <row r="550" ht="12.75" customHeight="1"/>
+    <row r="551" ht="12.75" customHeight="1"/>
+    <row r="552" ht="12.75" customHeight="1"/>
+    <row r="553" ht="12.75" customHeight="1"/>
+    <row r="554" ht="12.75" customHeight="1"/>
+    <row r="555" ht="12.75" customHeight="1"/>
+    <row r="556" ht="12.75" customHeight="1"/>
+    <row r="557" ht="12.75" customHeight="1"/>
+    <row r="558" ht="12.75" customHeight="1"/>
+    <row r="559" ht="12.75" customHeight="1"/>
+    <row r="560" ht="12.75" customHeight="1"/>
+    <row r="561" ht="12.75" customHeight="1"/>
+    <row r="562" ht="12.75" customHeight="1"/>
+    <row r="563" ht="12.75" customHeight="1"/>
+    <row r="564" ht="12.75" customHeight="1"/>
+    <row r="565" ht="12.75" customHeight="1"/>
+    <row r="566" ht="12.75" customHeight="1"/>
+    <row r="567" ht="12.75" customHeight="1"/>
+    <row r="568" ht="12.75" customHeight="1"/>
+    <row r="569" ht="12.75" customHeight="1"/>
+    <row r="570" ht="12.75" customHeight="1"/>
+    <row r="571" ht="12.75" customHeight="1"/>
+    <row r="572" ht="12.75" customHeight="1"/>
+    <row r="573" ht="12.75" customHeight="1"/>
+    <row r="574" ht="12.75" customHeight="1"/>
+    <row r="575" ht="12.75" customHeight="1"/>
+    <row r="576" ht="12.75" customHeight="1"/>
+    <row r="577" ht="12.75" customHeight="1"/>
+    <row r="578" ht="12.75" customHeight="1"/>
+    <row r="579" ht="12.75" customHeight="1"/>
+    <row r="580" ht="12.75" customHeight="1"/>
+    <row r="581" ht="12.75" customHeight="1"/>
+    <row r="582" ht="12.75" customHeight="1"/>
+    <row r="583" ht="12.75" customHeight="1"/>
+    <row r="584" ht="12.75" customHeight="1"/>
+    <row r="585" ht="12.75" customHeight="1"/>
+    <row r="586" ht="12.75" customHeight="1"/>
+    <row r="587" ht="12.75" customHeight="1"/>
+    <row r="588" ht="12.75" customHeight="1"/>
+    <row r="589" ht="12.75" customHeight="1"/>
+    <row r="590" ht="12.75" customHeight="1"/>
+    <row r="591" ht="12.75" customHeight="1"/>
+    <row r="592" ht="12.75" customHeight="1"/>
+    <row r="593" ht="12.75" customHeight="1"/>
+    <row r="594" ht="12.75" customHeight="1"/>
+    <row r="595" ht="12.75" customHeight="1"/>
+    <row r="596" ht="12.75" customHeight="1"/>
+    <row r="597" ht="12.75" customHeight="1"/>
+    <row r="598" ht="12.75" customHeight="1"/>
+    <row r="599" ht="12.75" customHeight="1"/>
+    <row r="600" ht="12.75" customHeight="1"/>
+    <row r="601" ht="12.75" customHeight="1"/>
+    <row r="602" ht="12.75" customHeight="1"/>
+    <row r="603" ht="12.75" customHeight="1"/>
+    <row r="604" ht="12.75" customHeight="1"/>
+    <row r="605" ht="12.75" customHeight="1"/>
+    <row r="606" ht="12.75" customHeight="1"/>
+    <row r="607" ht="12.75" customHeight="1"/>
+    <row r="608" ht="12.75" customHeight="1"/>
+    <row r="609" ht="12.75" customHeight="1"/>
+    <row r="610" ht="12.75" customHeight="1"/>
+    <row r="611" ht="12.75" customHeight="1"/>
+    <row r="612" ht="12.75" customHeight="1"/>
+    <row r="613" ht="12.75" customHeight="1"/>
+    <row r="614" ht="12.75" customHeight="1"/>
+    <row r="615" ht="12.75" customHeight="1"/>
+    <row r="616" ht="12.75" customHeight="1"/>
+    <row r="617" ht="12.75" customHeight="1"/>
+    <row r="618" ht="12.75" customHeight="1"/>
+    <row r="619" ht="12.75" customHeight="1"/>
+    <row r="620" ht="12.75" customHeight="1"/>
+    <row r="621" ht="12.75" customHeight="1"/>
+    <row r="622" ht="12.75" customHeight="1"/>
+    <row r="623" ht="12.75" customHeight="1"/>
+    <row r="624" ht="12.75" customHeight="1"/>
+    <row r="625" ht="12.75" customHeight="1"/>
+    <row r="626" ht="12.75" customHeight="1"/>
+    <row r="627" ht="12.75" customHeight="1"/>
+    <row r="628" ht="12.75" customHeight="1"/>
+    <row r="629" ht="12.75" customHeight="1"/>
+    <row r="630" ht="12.75" customHeight="1"/>
+    <row r="631" ht="12.75" customHeight="1"/>
+    <row r="632" ht="12.75" customHeight="1"/>
+    <row r="633" ht="12.75" customHeight="1"/>
+    <row r="634" ht="12.75" customHeight="1"/>
+    <row r="635" ht="12.75" customHeight="1"/>
+    <row r="636" ht="12.75" customHeight="1"/>
+    <row r="637" ht="12.75" customHeight="1"/>
+    <row r="638" ht="12.75" customHeight="1"/>
+    <row r="639" ht="12.75" customHeight="1"/>
+    <row r="640" ht="12.75" customHeight="1"/>
+    <row r="641" ht="12.75" customHeight="1"/>
+    <row r="642" ht="12.75" customHeight="1"/>
+    <row r="643" ht="12.75" customHeight="1"/>
+    <row r="644" ht="12.75" customHeight="1"/>
+    <row r="645" ht="12.75" customHeight="1"/>
+    <row r="646" ht="12.75" customHeight="1"/>
+    <row r="647" ht="12.75" customHeight="1"/>
+    <row r="648" ht="12.75" customHeight="1"/>
+    <row r="649" ht="12.75" customHeight="1"/>
+    <row r="650" ht="12.75" customHeight="1"/>
+    <row r="651" ht="12.75" customHeight="1"/>
+    <row r="652" ht="12.75" customHeight="1"/>
+    <row r="653" ht="12.75" customHeight="1"/>
+    <row r="654" ht="12.75" customHeight="1"/>
+    <row r="655" ht="12.75" customHeight="1"/>
+    <row r="656" ht="12.75" customHeight="1"/>
+    <row r="657" ht="12.75" customHeight="1"/>
+    <row r="658" ht="12.75" customHeight="1"/>
+    <row r="659" ht="12.75" customHeight="1"/>
+    <row r="660" ht="12.75" customHeight="1"/>
+    <row r="661" ht="12.75" customHeight="1"/>
+    <row r="662" ht="12.75" customHeight="1"/>
+    <row r="663" ht="12.75" customHeight="1"/>
+    <row r="664" ht="12.75" customHeight="1"/>
+    <row r="665" ht="12.75" customHeight="1"/>
+    <row r="666" ht="12.75" customHeight="1"/>
+    <row r="667" ht="12.75" customHeight="1"/>
+    <row r="668" ht="12.75" customHeight="1"/>
+    <row r="669" ht="12.75" customHeight="1"/>
+    <row r="670" ht="12.75" customHeight="1"/>
+    <row r="671" ht="12.75" customHeight="1"/>
+    <row r="672" ht="12.75" customHeight="1"/>
+    <row r="673" ht="12.75" customHeight="1"/>
+    <row r="674" ht="12.75" customHeight="1"/>
+    <row r="675" ht="12.75" customHeight="1"/>
+    <row r="676" ht="12.75" customHeight="1"/>
+    <row r="677" ht="12.75" customHeight="1"/>
+    <row r="678" ht="12.75" customHeight="1"/>
+    <row r="679" ht="12.75" customHeight="1"/>
+    <row r="680" ht="12.75" customHeight="1"/>
+    <row r="681" ht="12.75" customHeight="1"/>
+    <row r="682" ht="12.75" customHeight="1"/>
+    <row r="683" ht="12.75" customHeight="1"/>
+    <row r="684" ht="12.75" customHeight="1"/>
+    <row r="685" ht="12.75" customHeight="1"/>
+    <row r="686" ht="12.75" customHeight="1"/>
+    <row r="687" ht="12.75" customHeight="1"/>
+    <row r="688" ht="12.75" customHeight="1"/>
+    <row r="689" ht="12.75" customHeight="1"/>
+    <row r="690" ht="12.75" customHeight="1"/>
+    <row r="691" ht="12.75" customHeight="1"/>
+    <row r="692" ht="12.75" customHeight="1"/>
+    <row r="693" ht="12.75" customHeight="1"/>
+    <row r="694" ht="12.75" customHeight="1"/>
+    <row r="695" ht="12.75" customHeight="1"/>
+    <row r="696" ht="12.75" customHeight="1"/>
+    <row r="697" ht="12.75" customHeight="1"/>
+    <row r="698" ht="12.75" customHeight="1"/>
+    <row r="699" ht="12.75" customHeight="1"/>
+    <row r="700" ht="12.75" customHeight="1"/>
+    <row r="701" ht="12.75" customHeight="1"/>
+    <row r="702" ht="12.75" customHeight="1"/>
+    <row r="703" ht="12.75" customHeight="1"/>
+    <row r="704" ht="12.75" customHeight="1"/>
+    <row r="705" ht="12.75" customHeight="1"/>
+    <row r="706" ht="12.75" customHeight="1"/>
+    <row r="707" ht="12.75" customHeight="1"/>
+    <row r="708" ht="12.75" customHeight="1"/>
+    <row r="709" ht="12.75" customHeight="1"/>
+    <row r="710" ht="12.75" customHeight="1"/>
+    <row r="711" ht="12.75" customHeight="1"/>
+    <row r="712" ht="12.75" customHeight="1"/>
+    <row r="713" ht="12.75" customHeight="1"/>
+    <row r="714" ht="12.75" customHeight="1"/>
+    <row r="715" ht="12.75" customHeight="1"/>
+    <row r="716" ht="12.75" customHeight="1"/>
+    <row r="717" ht="12.75" customHeight="1"/>
+    <row r="718" ht="12.75" customHeight="1"/>
+    <row r="719" ht="12.75" customHeight="1"/>
+    <row r="720" ht="12.75" customHeight="1"/>
+    <row r="721" ht="12.75" customHeight="1"/>
+    <row r="722" ht="12.75" customHeight="1"/>
+    <row r="723" ht="12.75" customHeight="1"/>
+    <row r="724" ht="12.75" customHeight="1"/>
+    <row r="725" ht="12.75" customHeight="1"/>
+    <row r="726" ht="12.75" customHeight="1"/>
+    <row r="727" ht="12.75" customHeight="1"/>
+    <row r="728" ht="12.75" customHeight="1"/>
+    <row r="729" ht="12.75" customHeight="1"/>
+    <row r="730" ht="12.75" customHeight="1"/>
+    <row r="731" ht="12.75" customHeight="1"/>
+    <row r="732" ht="12.75" customHeight="1"/>
+    <row r="733" ht="12.75" customHeight="1"/>
+    <row r="734" ht="12.75" customHeight="1"/>
+    <row r="735" ht="12.75" customHeight="1"/>
+    <row r="736" ht="12.75" customHeight="1"/>
+    <row r="737" ht="12.75" customHeight="1"/>
+    <row r="738" ht="12.75" customHeight="1"/>
+    <row r="739" ht="12.75" customHeight="1"/>
+    <row r="740" ht="12.75" customHeight="1"/>
+    <row r="741" ht="12.75" customHeight="1"/>
+    <row r="742" ht="12.75" customHeight="1"/>
+    <row r="743" ht="12.75" customHeight="1"/>
+    <row r="744" ht="12.75" customHeight="1"/>
+    <row r="745" ht="12.75" customHeight="1"/>
+    <row r="746" ht="12.75" customHeight="1"/>
+    <row r="747" ht="12.75" customHeight="1"/>
+    <row r="748" ht="12.75" customHeight="1"/>
+    <row r="749" ht="12.75" customHeight="1"/>
+    <row r="750" ht="12.75" customHeight="1"/>
+    <row r="751" ht="12.75" customHeight="1"/>
+    <row r="752" ht="12.75" customHeight="1"/>
+    <row r="753" ht="12.75" customHeight="1"/>
+    <row r="754" ht="12.75" customHeight="1"/>
+    <row r="755" ht="12.75" customHeight="1"/>
+    <row r="756" ht="12.75" customHeight="1"/>
+    <row r="757" ht="12.75" customHeight="1"/>
+    <row r="758" ht="12.75" customHeight="1"/>
+    <row r="759" ht="12.75" customHeight="1"/>
+    <row r="760" ht="12.75" customHeight="1"/>
+    <row r="761" ht="12.75" customHeight="1"/>
+    <row r="762" ht="12.75" customHeight="1"/>
+    <row r="763" ht="12.75" customHeight="1"/>
+    <row r="764" ht="12.75" customHeight="1"/>
+    <row r="765" ht="12.75" customHeight="1"/>
+    <row r="766" ht="12.75" customHeight="1"/>
+    <row r="767" ht="12.75" customHeight="1"/>
+    <row r="768" ht="12.75" customHeight="1"/>
+    <row r="769" ht="12.75" customHeight="1"/>
+    <row r="770" ht="12.75" customHeight="1"/>
+    <row r="771" ht="12.75" customHeight="1"/>
+    <row r="772" ht="12.75" customHeight="1"/>
+    <row r="773" ht="12.75" customHeight="1"/>
+    <row r="774" ht="12.75" customHeight="1"/>
+    <row r="775" ht="12.75" customHeight="1"/>
+    <row r="776" ht="12.75" customHeight="1"/>
+    <row r="777" ht="12.75" customHeight="1"/>
+    <row r="778" ht="12.75" customHeight="1"/>
+    <row r="779" ht="12.75" customHeight="1"/>
+    <row r="780" ht="12.75" customHeight="1"/>
+    <row r="781" ht="12.75" customHeight="1"/>
+    <row r="782" ht="12.75" customHeight="1"/>
+    <row r="783" ht="12.75" customHeight="1"/>
+    <row r="784" ht="12.75" customHeight="1"/>
+    <row r="785" ht="12.75" customHeight="1"/>
+    <row r="786" ht="12.75" customHeight="1"/>
+    <row r="787" ht="12.75" customHeight="1"/>
+    <row r="788" ht="12.75" customHeight="1"/>
+    <row r="789" ht="12.75" customHeight="1"/>
+    <row r="790" ht="12.75" customHeight="1"/>
+    <row r="791" ht="12.75" customHeight="1"/>
+    <row r="792" ht="12.75" customHeight="1"/>
+    <row r="793" ht="12.75" customHeight="1"/>
+    <row r="794" ht="12.75" customHeight="1"/>
+    <row r="795" ht="12.75" customHeight="1"/>
+    <row r="796" ht="12.75" customHeight="1"/>
+    <row r="797" ht="12.75" customHeight="1"/>
+    <row r="798" ht="12.75" customHeight="1"/>
+    <row r="799" ht="12.75" customHeight="1"/>
+    <row r="800" ht="12.75" customHeight="1"/>
+    <row r="801" ht="12.75" customHeight="1"/>
+    <row r="802" ht="12.75" customHeight="1"/>
+    <row r="803" ht="12.75" customHeight="1"/>
+    <row r="804" ht="12.75" customHeight="1"/>
+    <row r="805" ht="12.75" customHeight="1"/>
+    <row r="806" ht="12.75" customHeight="1"/>
+    <row r="807" ht="12.75" customHeight="1"/>
+    <row r="808" ht="12.75" customHeight="1"/>
+    <row r="809" ht="12.75" customHeight="1"/>
+    <row r="810" ht="12.75" customHeight="1"/>
+    <row r="811" ht="12.75" customHeight="1"/>
+    <row r="812" ht="12.75" customHeight="1"/>
+    <row r="813" ht="12.75" customHeight="1"/>
+    <row r="814" ht="12.75" customHeight="1"/>
+    <row r="815" ht="12.75" customHeight="1"/>
+    <row r="816" ht="12.75" customHeight="1"/>
+    <row r="817" ht="12.75" customHeight="1"/>
+    <row r="818" ht="12.75" customHeight="1"/>
+    <row r="819" ht="12.75" customHeight="1"/>
+    <row r="820" ht="12.75" customHeight="1"/>
+    <row r="821" ht="12.75" customHeight="1"/>
+    <row r="822" ht="12.75" customHeight="1"/>
+    <row r="823" ht="12.75" customHeight="1"/>
+    <row r="824" ht="12.75" customHeight="1"/>
+    <row r="825" ht="12.75" customHeight="1"/>
+    <row r="826" ht="12.75" customHeight="1"/>
+    <row r="827" ht="12.75" customHeight="1"/>
+    <row r="828" ht="12.75" customHeight="1"/>
+    <row r="829" ht="12.75" customHeight="1"/>
+    <row r="830" ht="12.75" customHeight="1"/>
+    <row r="831" ht="12.75" customHeight="1"/>
+    <row r="832" ht="12.75" customHeight="1"/>
+    <row r="833" ht="12.75" customHeight="1"/>
+    <row r="834" ht="12.75" customHeight="1"/>
+    <row r="835" ht="12.75" customHeight="1"/>
+    <row r="836" ht="12.75" customHeight="1"/>
+    <row r="837" ht="12.75" customHeight="1"/>
+    <row r="838" ht="12.75" customHeight="1"/>
+    <row r="839" ht="12.75" customHeight="1"/>
+    <row r="840" ht="12.75" customHeight="1"/>
+    <row r="841" ht="12.75" customHeight="1"/>
+    <row r="842" ht="12.75" customHeight="1"/>
+    <row r="843" ht="12.75" customHeight="1"/>
+    <row r="844" ht="12.75" customHeight="1"/>
+    <row r="845" ht="12.75" customHeight="1"/>
+    <row r="846" ht="12.75" customHeight="1"/>
+    <row r="847" ht="12.75" customHeight="1"/>
+    <row r="848" ht="12.75" customHeight="1"/>
+    <row r="849" ht="12.75" customHeight="1"/>
+    <row r="850" ht="12.75" customHeight="1"/>
+    <row r="851" ht="12.75" customHeight="1"/>
+    <row r="852" ht="12.75" customHeight="1"/>
+    <row r="853" ht="12.75" customHeight="1"/>
+    <row r="854" ht="12.75" customHeight="1"/>
+    <row r="855" ht="12.75" customHeight="1"/>
+    <row r="856" ht="12.75" customHeight="1"/>
+    <row r="857" ht="12.75" customHeight="1"/>
+    <row r="858" ht="12.75" customHeight="1"/>
+    <row r="859" ht="12.75" customHeight="1"/>
+    <row r="860" ht="12.75" customHeight="1"/>
+    <row r="861" ht="12.75" customHeight="1"/>
+    <row r="862" ht="12.75" customHeight="1"/>
+    <row r="863" ht="12.75" customHeight="1"/>
+    <row r="864" ht="12.75" customHeight="1"/>
+    <row r="865" ht="12.75" customHeight="1"/>
+    <row r="866" ht="12.75" customHeight="1"/>
+    <row r="867" ht="12.75" customHeight="1"/>
+    <row r="868" ht="12.75" customHeight="1"/>
+    <row r="869" ht="12.75" customHeight="1"/>
+    <row r="870" ht="12.75" customHeight="1"/>
+    <row r="871" ht="12.75" customHeight="1"/>
+    <row r="872" ht="12.75" customHeight="1"/>
+    <row r="873" ht="12.75" customHeight="1"/>
+    <row r="874" ht="12.75" customHeight="1"/>
+    <row r="875" ht="12.75" customHeight="1"/>
+    <row r="876" ht="12.75" customHeight="1"/>
+    <row r="877" ht="12.75" customHeight="1"/>
+    <row r="878" ht="12.75" customHeight="1"/>
+    <row r="879" ht="12.75" customHeight="1"/>
+    <row r="880" ht="12.75" customHeight="1"/>
+    <row r="881" ht="12.75" customHeight="1"/>
+    <row r="882" ht="12.75" customHeight="1"/>
+    <row r="883" ht="12.75" customHeight="1"/>
+    <row r="884" ht="12.75" customHeight="1"/>
+    <row r="885" ht="12.75" customHeight="1"/>
+    <row r="886" ht="12.75" customHeight="1"/>
+    <row r="887" ht="12.75" customHeight="1"/>
+    <row r="888" ht="12.75" customHeight="1"/>
+    <row r="889" ht="12.75" customHeight="1"/>
+    <row r="890" ht="12.75" customHeight="1"/>
+    <row r="891" ht="12.75" customHeight="1"/>
+    <row r="892" ht="12.75" customHeight="1"/>
+    <row r="893" ht="12.75" customHeight="1"/>
+    <row r="894" ht="12.75" customHeight="1"/>
+    <row r="895" ht="12.75" customHeight="1"/>
+    <row r="896" ht="12.75" customHeight="1"/>
+    <row r="897" ht="12.75" customHeight="1"/>
+    <row r="898" ht="12.75" customHeight="1"/>
+    <row r="899" ht="12.75" customHeight="1"/>
+    <row r="900" ht="12.75" customHeight="1"/>
+    <row r="901" ht="12.75" customHeight="1"/>
+    <row r="902" ht="12.75" customHeight="1"/>
+    <row r="903" ht="12.75" customHeight="1"/>
+    <row r="904" ht="12.75" customHeight="1"/>
+    <row r="905" ht="12.75" customHeight="1"/>
+    <row r="906" ht="12.75" customHeight="1"/>
+    <row r="907" ht="12.75" customHeight="1"/>
+    <row r="908" ht="12.75" customHeight="1"/>
+    <row r="909" ht="12.75" customHeight="1"/>
+    <row r="910" ht="12.75" customHeight="1"/>
+    <row r="911" ht="12.75" customHeight="1"/>
+    <row r="912" ht="12.75" customHeight="1"/>
+    <row r="913" ht="12.75" customHeight="1"/>
+    <row r="914" ht="12.75" customHeight="1"/>
+    <row r="915" ht="12.75" customHeight="1"/>
+    <row r="916" ht="12.75" customHeight="1"/>
+    <row r="917" ht="12.75" customHeight="1"/>
+    <row r="918" ht="12.75" customHeight="1"/>
+    <row r="919" ht="12.75" customHeight="1"/>
+    <row r="920" ht="12.75" customHeight="1"/>
+    <row r="921" ht="12.75" customHeight="1"/>
+    <row r="922" ht="12.75" customHeight="1"/>
+    <row r="923" ht="12.75" customHeight="1"/>
+    <row r="924" ht="12.75" customHeight="1"/>
+    <row r="925" ht="12.75" customHeight="1"/>
+    <row r="926" ht="12.75" customHeight="1"/>
+    <row r="927" ht="12.75" customHeight="1"/>
+    <row r="928" ht="12.75" customHeight="1"/>
+    <row r="929" ht="12.75" customHeight="1"/>
+    <row r="930" ht="12.75" customHeight="1"/>
+    <row r="931" ht="12.75" customHeight="1"/>
+    <row r="932" ht="12.75" customHeight="1"/>
+    <row r="933" ht="12.75" customHeight="1"/>
+    <row r="934" ht="12.75" customHeight="1"/>
+    <row r="935" ht="12.75" customHeight="1"/>
+    <row r="936" ht="12.75" customHeight="1"/>
+    <row r="937" ht="12.75" customHeight="1"/>
+    <row r="938" ht="12.75" customHeight="1"/>
+    <row r="939" ht="12.75" customHeight="1"/>
+    <row r="940" ht="12.75" customHeight="1"/>
+    <row r="941" ht="12.75" customHeight="1"/>
+    <row r="942" ht="12.75" customHeight="1"/>
+    <row r="943" ht="12.75" customHeight="1"/>
+    <row r="944" ht="12.75" customHeight="1"/>
+    <row r="945" ht="12.75" customHeight="1"/>
+    <row r="946" ht="12.75" customHeight="1"/>
+    <row r="947" ht="12.75" customHeight="1"/>
+    <row r="948" ht="12.75" customHeight="1"/>
+    <row r="949" ht="12.75" customHeight="1"/>
+    <row r="950" ht="12.75" customHeight="1"/>
+    <row r="951" ht="12.75" customHeight="1"/>
+    <row r="952" ht="12.75" customHeight="1"/>
+    <row r="953" ht="12.75" customHeight="1"/>
+    <row r="954" ht="12.75" customHeight="1"/>
+    <row r="955" ht="12.75" customHeight="1"/>
+    <row r="956" ht="12.75" customHeight="1"/>
+    <row r="957" ht="12.75" customHeight="1"/>
+    <row r="958" ht="12.75" customHeight="1"/>
+    <row r="959" ht="12.75" customHeight="1"/>
+    <row r="960" ht="12.75" customHeight="1"/>
+    <row r="961" ht="12.75" customHeight="1"/>
+    <row r="962" ht="12.75" customHeight="1"/>
+    <row r="963" ht="12.75" customHeight="1"/>
+    <row r="964" ht="12.75" customHeight="1"/>
+    <row r="965" ht="12.75" customHeight="1"/>
+    <row r="966" ht="12.75" customHeight="1"/>
+    <row r="967" ht="12.75" customHeight="1"/>
+    <row r="968" ht="12.75" customHeight="1"/>
+    <row r="969" ht="12.75" customHeight="1"/>
+    <row r="970" ht="12.75" customHeight="1"/>
+    <row r="971" ht="12.75" customHeight="1"/>
+    <row r="972" ht="12.75" customHeight="1"/>
+    <row r="973" ht="12.75" customHeight="1"/>
+    <row r="974" ht="12.75" customHeight="1"/>
+    <row r="975" ht="12.75" customHeight="1"/>
+    <row r="976" ht="12.75" customHeight="1"/>
+    <row r="977" ht="12.75" customHeight="1"/>
+    <row r="978" ht="12.75" customHeight="1"/>
+    <row r="979" ht="12.75" customHeight="1"/>
+    <row r="980" ht="12.75" customHeight="1"/>
+    <row r="981" ht="12.75" customHeight="1"/>
+    <row r="982" ht="12.75" customHeight="1"/>
+    <row r="983" ht="12.75" customHeight="1"/>
+    <row r="984" ht="12.75" customHeight="1"/>
+    <row r="985" ht="12.75" customHeight="1"/>
+    <row r="986" ht="12.75" customHeight="1"/>
+    <row r="987" ht="12.75" customHeight="1"/>
+    <row r="988" ht="12.75" customHeight="1"/>
+    <row r="989" ht="12.75" customHeight="1"/>
+    <row r="990" ht="12.75" customHeight="1"/>
+    <row r="991" ht="12.75" customHeight="1"/>
+    <row r="992" ht="12.75" customHeight="1"/>
+    <row r="993" ht="12.75" customHeight="1"/>
+    <row r="994" ht="12.75" customHeight="1"/>
+    <row r="995" ht="12.75" customHeight="1"/>
+    <row r="996" ht="12.75" customHeight="1"/>
+    <row r="997" ht="12.75" customHeight="1"/>
+    <row r="998" ht="12.75" customHeight="1"/>
+    <row r="999" ht="12.75" customHeight="1"/>
+    <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -7595,24 +7823,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15326D90-C3FC-45AC-9A04-0AA163864D62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15326D90-C3FC-45AC-9A04-0AA163864D62}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="26" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.571428571428571"/>
+    <col min="2" max="2" customWidth="true" width="21.142857142857142"/>
+    <col min="3" max="4" customWidth="true" width="12.571428571428571"/>
+    <col min="5" max="5" customWidth="true" width="31.428571428571427"/>
+    <col min="6" max="6" customWidth="true" width="12.571428571428571"/>
+    <col min="7" max="26" customWidth="true" width="8.571428571428571"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="12.75" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -7629,7 +7857,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="12.75" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>38</v>
       </c>
@@ -7637,7 +7865,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>43</v>
@@ -7648,1051 +7876,1051 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2">
       <formula1>"1,2"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4BEB1C-9391-4B12-9424-36246AA8D2EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4BEB1C-9391-4B12-9424-36246AA8D2EF}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="26" width="8.5703125" customWidth="1"/>
+    <col min="1" max="6" customWidth="true" width="12.571428571428571"/>
+    <col min="7" max="26" customWidth="true" width="8.571428571428571"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="12.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="12.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" ht="12.75" customHeight="1"/>
+    <row r="4" ht="12.75" customHeight="1"/>
+    <row r="5" ht="12.75" customHeight="1"/>
+    <row r="6" ht="12.75" customHeight="1"/>
+    <row r="7" ht="12.75" customHeight="1"/>
+    <row r="8" ht="12.75" customHeight="1"/>
+    <row r="9" ht="12.75" customHeight="1"/>
+    <row r="10" ht="12.75" customHeight="1"/>
+    <row r="11" ht="12.75" customHeight="1"/>
+    <row r="12" ht="12.75" customHeight="1"/>
+    <row r="13" ht="12.75" customHeight="1"/>
+    <row r="14" ht="12.75" customHeight="1"/>
+    <row r="15" ht="12.75" customHeight="1"/>
+    <row r="16" ht="12.75" customHeight="1"/>
+    <row r="17" ht="12.75" customHeight="1"/>
+    <row r="18" ht="12.75" customHeight="1"/>
+    <row r="19" ht="12.75" customHeight="1"/>
+    <row r="20" ht="12.75" customHeight="1"/>
+    <row r="21" ht="12.75" customHeight="1"/>
+    <row r="22" ht="12.75" customHeight="1"/>
+    <row r="23" ht="12.75" customHeight="1"/>
+    <row r="24" ht="12.75" customHeight="1"/>
+    <row r="25" ht="12.75" customHeight="1"/>
+    <row r="26" ht="12.75" customHeight="1"/>
+    <row r="27" ht="12.75" customHeight="1"/>
+    <row r="28" ht="12.75" customHeight="1"/>
+    <row r="29" ht="12.75" customHeight="1"/>
+    <row r="30" ht="12.75" customHeight="1"/>
+    <row r="31" ht="12.75" customHeight="1"/>
+    <row r="32" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
+    <row r="42" ht="12.75" customHeight="1"/>
+    <row r="43" ht="12.75" customHeight="1"/>
+    <row r="44" ht="12.75" customHeight="1"/>
+    <row r="45" ht="12.75" customHeight="1"/>
+    <row r="46" ht="12.75" customHeight="1"/>
+    <row r="47" ht="12.75" customHeight="1"/>
+    <row r="48" ht="12.75" customHeight="1"/>
+    <row r="49" ht="12.75" customHeight="1"/>
+    <row r="50" ht="12.75" customHeight="1"/>
+    <row r="51" ht="12.75" customHeight="1"/>
+    <row r="52" ht="12.75" customHeight="1"/>
+    <row r="53" ht="12.75" customHeight="1"/>
+    <row r="54" ht="12.75" customHeight="1"/>
+    <row r="55" ht="12.75" customHeight="1"/>
+    <row r="56" ht="12.75" customHeight="1"/>
+    <row r="57" ht="12.75" customHeight="1"/>
+    <row r="58" ht="12.75" customHeight="1"/>
+    <row r="59" ht="12.75" customHeight="1"/>
+    <row r="60" ht="12.75" customHeight="1"/>
+    <row r="61" ht="12.75" customHeight="1"/>
+    <row r="62" ht="12.75" customHeight="1"/>
+    <row r="63" ht="12.75" customHeight="1"/>
+    <row r="64" ht="12.75" customHeight="1"/>
+    <row r="65" ht="12.75" customHeight="1"/>
+    <row r="66" ht="12.75" customHeight="1"/>
+    <row r="67" ht="12.75" customHeight="1"/>
+    <row r="68" ht="12.75" customHeight="1"/>
+    <row r="69" ht="12.75" customHeight="1"/>
+    <row r="70" ht="12.75" customHeight="1"/>
+    <row r="71" ht="12.75" customHeight="1"/>
+    <row r="72" ht="12.75" customHeight="1"/>
+    <row r="73" ht="12.75" customHeight="1"/>
+    <row r="74" ht="12.75" customHeight="1"/>
+    <row r="75" ht="12.75" customHeight="1"/>
+    <row r="76" ht="12.75" customHeight="1"/>
+    <row r="77" ht="12.75" customHeight="1"/>
+    <row r="78" ht="12.75" customHeight="1"/>
+    <row r="79" ht="12.75" customHeight="1"/>
+    <row r="80" ht="12.75" customHeight="1"/>
+    <row r="81" ht="12.75" customHeight="1"/>
+    <row r="82" ht="12.75" customHeight="1"/>
+    <row r="83" ht="12.75" customHeight="1"/>
+    <row r="84" ht="12.75" customHeight="1"/>
+    <row r="85" ht="12.75" customHeight="1"/>
+    <row r="86" ht="12.75" customHeight="1"/>
+    <row r="87" ht="12.75" customHeight="1"/>
+    <row r="88" ht="12.75" customHeight="1"/>
+    <row r="89" ht="12.75" customHeight="1"/>
+    <row r="90" ht="12.75" customHeight="1"/>
+    <row r="91" ht="12.75" customHeight="1"/>
+    <row r="92" ht="12.75" customHeight="1"/>
+    <row r="93" ht="12.75" customHeight="1"/>
+    <row r="94" ht="12.75" customHeight="1"/>
+    <row r="95" ht="12.75" customHeight="1"/>
+    <row r="96" ht="12.75" customHeight="1"/>
+    <row r="97" ht="12.75" customHeight="1"/>
+    <row r="98" ht="12.75" customHeight="1"/>
+    <row r="99" ht="12.75" customHeight="1"/>
+    <row r="100" ht="12.75" customHeight="1"/>
+    <row r="101" ht="12.75" customHeight="1"/>
+    <row r="102" ht="12.75" customHeight="1"/>
+    <row r="103" ht="12.75" customHeight="1"/>
+    <row r="104" ht="12.75" customHeight="1"/>
+    <row r="105" ht="12.75" customHeight="1"/>
+    <row r="106" ht="12.75" customHeight="1"/>
+    <row r="107" ht="12.75" customHeight="1"/>
+    <row r="108" ht="12.75" customHeight="1"/>
+    <row r="109" ht="12.75" customHeight="1"/>
+    <row r="110" ht="12.75" customHeight="1"/>
+    <row r="111" ht="12.75" customHeight="1"/>
+    <row r="112" ht="12.75" customHeight="1"/>
+    <row r="113" ht="12.75" customHeight="1"/>
+    <row r="114" ht="12.75" customHeight="1"/>
+    <row r="115" ht="12.75" customHeight="1"/>
+    <row r="116" ht="12.75" customHeight="1"/>
+    <row r="117" ht="12.75" customHeight="1"/>
+    <row r="118" ht="12.75" customHeight="1"/>
+    <row r="119" ht="12.75" customHeight="1"/>
+    <row r="120" ht="12.75" customHeight="1"/>
+    <row r="121" ht="12.75" customHeight="1"/>
+    <row r="122" ht="12.75" customHeight="1"/>
+    <row r="123" ht="12.75" customHeight="1"/>
+    <row r="124" ht="12.75" customHeight="1"/>
+    <row r="125" ht="12.75" customHeight="1"/>
+    <row r="126" ht="12.75" customHeight="1"/>
+    <row r="127" ht="12.75" customHeight="1"/>
+    <row r="128" ht="12.75" customHeight="1"/>
+    <row r="129" ht="12.75" customHeight="1"/>
+    <row r="130" ht="12.75" customHeight="1"/>
+    <row r="131" ht="12.75" customHeight="1"/>
+    <row r="132" ht="12.75" customHeight="1"/>
+    <row r="133" ht="12.75" customHeight="1"/>
+    <row r="134" ht="12.75" customHeight="1"/>
+    <row r="135" ht="12.75" customHeight="1"/>
+    <row r="136" ht="12.75" customHeight="1"/>
+    <row r="137" ht="12.75" customHeight="1"/>
+    <row r="138" ht="12.75" customHeight="1"/>
+    <row r="139" ht="12.75" customHeight="1"/>
+    <row r="140" ht="12.75" customHeight="1"/>
+    <row r="141" ht="12.75" customHeight="1"/>
+    <row r="142" ht="12.75" customHeight="1"/>
+    <row r="143" ht="12.75" customHeight="1"/>
+    <row r="144" ht="12.75" customHeight="1"/>
+    <row r="145" ht="12.75" customHeight="1"/>
+    <row r="146" ht="12.75" customHeight="1"/>
+    <row r="147" ht="12.75" customHeight="1"/>
+    <row r="148" ht="12.75" customHeight="1"/>
+    <row r="149" ht="12.75" customHeight="1"/>
+    <row r="150" ht="12.75" customHeight="1"/>
+    <row r="151" ht="12.75" customHeight="1"/>
+    <row r="152" ht="12.75" customHeight="1"/>
+    <row r="153" ht="12.75" customHeight="1"/>
+    <row r="154" ht="12.75" customHeight="1"/>
+    <row r="155" ht="12.75" customHeight="1"/>
+    <row r="156" ht="12.75" customHeight="1"/>
+    <row r="157" ht="12.75" customHeight="1"/>
+    <row r="158" ht="12.75" customHeight="1"/>
+    <row r="159" ht="12.75" customHeight="1"/>
+    <row r="160" ht="12.75" customHeight="1"/>
+    <row r="161" ht="12.75" customHeight="1"/>
+    <row r="162" ht="12.75" customHeight="1"/>
+    <row r="163" ht="12.75" customHeight="1"/>
+    <row r="164" ht="12.75" customHeight="1"/>
+    <row r="165" ht="12.75" customHeight="1"/>
+    <row r="166" ht="12.75" customHeight="1"/>
+    <row r="167" ht="12.75" customHeight="1"/>
+    <row r="168" ht="12.75" customHeight="1"/>
+    <row r="169" ht="12.75" customHeight="1"/>
+    <row r="170" ht="12.75" customHeight="1"/>
+    <row r="171" ht="12.75" customHeight="1"/>
+    <row r="172" ht="12.75" customHeight="1"/>
+    <row r="173" ht="12.75" customHeight="1"/>
+    <row r="174" ht="12.75" customHeight="1"/>
+    <row r="175" ht="12.75" customHeight="1"/>
+    <row r="176" ht="12.75" customHeight="1"/>
+    <row r="177" ht="12.75" customHeight="1"/>
+    <row r="178" ht="12.75" customHeight="1"/>
+    <row r="179" ht="12.75" customHeight="1"/>
+    <row r="180" ht="12.75" customHeight="1"/>
+    <row r="181" ht="12.75" customHeight="1"/>
+    <row r="182" ht="12.75" customHeight="1"/>
+    <row r="183" ht="12.75" customHeight="1"/>
+    <row r="184" ht="12.75" customHeight="1"/>
+    <row r="185" ht="12.75" customHeight="1"/>
+    <row r="186" ht="12.75" customHeight="1"/>
+    <row r="187" ht="12.75" customHeight="1"/>
+    <row r="188" ht="12.75" customHeight="1"/>
+    <row r="189" ht="12.75" customHeight="1"/>
+    <row r="190" ht="12.75" customHeight="1"/>
+    <row r="191" ht="12.75" customHeight="1"/>
+    <row r="192" ht="12.75" customHeight="1"/>
+    <row r="193" ht="12.75" customHeight="1"/>
+    <row r="194" ht="12.75" customHeight="1"/>
+    <row r="195" ht="12.75" customHeight="1"/>
+    <row r="196" ht="12.75" customHeight="1"/>
+    <row r="197" ht="12.75" customHeight="1"/>
+    <row r="198" ht="12.75" customHeight="1"/>
+    <row r="199" ht="12.75" customHeight="1"/>
+    <row r="200" ht="12.75" customHeight="1"/>
+    <row r="201" ht="12.75" customHeight="1"/>
+    <row r="202" ht="12.75" customHeight="1"/>
+    <row r="203" ht="12.75" customHeight="1"/>
+    <row r="204" ht="12.75" customHeight="1"/>
+    <row r="205" ht="12.75" customHeight="1"/>
+    <row r="206" ht="12.75" customHeight="1"/>
+    <row r="207" ht="12.75" customHeight="1"/>
+    <row r="208" ht="12.75" customHeight="1"/>
+    <row r="209" ht="12.75" customHeight="1"/>
+    <row r="210" ht="12.75" customHeight="1"/>
+    <row r="211" ht="12.75" customHeight="1"/>
+    <row r="212" ht="12.75" customHeight="1"/>
+    <row r="213" ht="12.75" customHeight="1"/>
+    <row r="214" ht="12.75" customHeight="1"/>
+    <row r="215" ht="12.75" customHeight="1"/>
+    <row r="216" ht="12.75" customHeight="1"/>
+    <row r="217" ht="12.75" customHeight="1"/>
+    <row r="218" ht="12.75" customHeight="1"/>
+    <row r="219" ht="12.75" customHeight="1"/>
+    <row r="220" ht="12.75" customHeight="1"/>
+    <row r="221" ht="12.75" customHeight="1"/>
+    <row r="222" ht="12.75" customHeight="1"/>
+    <row r="223" ht="12.75" customHeight="1"/>
+    <row r="224" ht="12.75" customHeight="1"/>
+    <row r="225" ht="12.75" customHeight="1"/>
+    <row r="226" ht="12.75" customHeight="1"/>
+    <row r="227" ht="12.75" customHeight="1"/>
+    <row r="228" ht="12.75" customHeight="1"/>
+    <row r="229" ht="12.75" customHeight="1"/>
+    <row r="230" ht="12.75" customHeight="1"/>
+    <row r="231" ht="12.75" customHeight="1"/>
+    <row r="232" ht="12.75" customHeight="1"/>
+    <row r="233" ht="12.75" customHeight="1"/>
+    <row r="234" ht="12.75" customHeight="1"/>
+    <row r="235" ht="12.75" customHeight="1"/>
+    <row r="236" ht="12.75" customHeight="1"/>
+    <row r="237" ht="12.75" customHeight="1"/>
+    <row r="238" ht="12.75" customHeight="1"/>
+    <row r="239" ht="12.75" customHeight="1"/>
+    <row r="240" ht="12.75" customHeight="1"/>
+    <row r="241" ht="12.75" customHeight="1"/>
+    <row r="242" ht="12.75" customHeight="1"/>
+    <row r="243" ht="12.75" customHeight="1"/>
+    <row r="244" ht="12.75" customHeight="1"/>
+    <row r="245" ht="12.75" customHeight="1"/>
+    <row r="246" ht="12.75" customHeight="1"/>
+    <row r="247" ht="12.75" customHeight="1"/>
+    <row r="248" ht="12.75" customHeight="1"/>
+    <row r="249" ht="12.75" customHeight="1"/>
+    <row r="250" ht="12.75" customHeight="1"/>
+    <row r="251" ht="12.75" customHeight="1"/>
+    <row r="252" ht="12.75" customHeight="1"/>
+    <row r="253" ht="12.75" customHeight="1"/>
+    <row r="254" ht="12.75" customHeight="1"/>
+    <row r="255" ht="12.75" customHeight="1"/>
+    <row r="256" ht="12.75" customHeight="1"/>
+    <row r="257" ht="12.75" customHeight="1"/>
+    <row r="258" ht="12.75" customHeight="1"/>
+    <row r="259" ht="12.75" customHeight="1"/>
+    <row r="260" ht="12.75" customHeight="1"/>
+    <row r="261" ht="12.75" customHeight="1"/>
+    <row r="262" ht="12.75" customHeight="1"/>
+    <row r="263" ht="12.75" customHeight="1"/>
+    <row r="264" ht="12.75" customHeight="1"/>
+    <row r="265" ht="12.75" customHeight="1"/>
+    <row r="266" ht="12.75" customHeight="1"/>
+    <row r="267" ht="12.75" customHeight="1"/>
+    <row r="268" ht="12.75" customHeight="1"/>
+    <row r="269" ht="12.75" customHeight="1"/>
+    <row r="270" ht="12.75" customHeight="1"/>
+    <row r="271" ht="12.75" customHeight="1"/>
+    <row r="272" ht="12.75" customHeight="1"/>
+    <row r="273" ht="12.75" customHeight="1"/>
+    <row r="274" ht="12.75" customHeight="1"/>
+    <row r="275" ht="12.75" customHeight="1"/>
+    <row r="276" ht="12.75" customHeight="1"/>
+    <row r="277" ht="12.75" customHeight="1"/>
+    <row r="278" ht="12.75" customHeight="1"/>
+    <row r="279" ht="12.75" customHeight="1"/>
+    <row r="280" ht="12.75" customHeight="1"/>
+    <row r="281" ht="12.75" customHeight="1"/>
+    <row r="282" ht="12.75" customHeight="1"/>
+    <row r="283" ht="12.75" customHeight="1"/>
+    <row r="284" ht="12.75" customHeight="1"/>
+    <row r="285" ht="12.75" customHeight="1"/>
+    <row r="286" ht="12.75" customHeight="1"/>
+    <row r="287" ht="12.75" customHeight="1"/>
+    <row r="288" ht="12.75" customHeight="1"/>
+    <row r="289" ht="12.75" customHeight="1"/>
+    <row r="290" ht="12.75" customHeight="1"/>
+    <row r="291" ht="12.75" customHeight="1"/>
+    <row r="292" ht="12.75" customHeight="1"/>
+    <row r="293" ht="12.75" customHeight="1"/>
+    <row r="294" ht="12.75" customHeight="1"/>
+    <row r="295" ht="12.75" customHeight="1"/>
+    <row r="296" ht="12.75" customHeight="1"/>
+    <row r="297" ht="12.75" customHeight="1"/>
+    <row r="298" ht="12.75" customHeight="1"/>
+    <row r="299" ht="12.75" customHeight="1"/>
+    <row r="300" ht="12.75" customHeight="1"/>
+    <row r="301" ht="12.75" customHeight="1"/>
+    <row r="302" ht="12.75" customHeight="1"/>
+    <row r="303" ht="12.75" customHeight="1"/>
+    <row r="304" ht="12.75" customHeight="1"/>
+    <row r="305" ht="12.75" customHeight="1"/>
+    <row r="306" ht="12.75" customHeight="1"/>
+    <row r="307" ht="12.75" customHeight="1"/>
+    <row r="308" ht="12.75" customHeight="1"/>
+    <row r="309" ht="12.75" customHeight="1"/>
+    <row r="310" ht="12.75" customHeight="1"/>
+    <row r="311" ht="12.75" customHeight="1"/>
+    <row r="312" ht="12.75" customHeight="1"/>
+    <row r="313" ht="12.75" customHeight="1"/>
+    <row r="314" ht="12.75" customHeight="1"/>
+    <row r="315" ht="12.75" customHeight="1"/>
+    <row r="316" ht="12.75" customHeight="1"/>
+    <row r="317" ht="12.75" customHeight="1"/>
+    <row r="318" ht="12.75" customHeight="1"/>
+    <row r="319" ht="12.75" customHeight="1"/>
+    <row r="320" ht="12.75" customHeight="1"/>
+    <row r="321" ht="12.75" customHeight="1"/>
+    <row r="322" ht="12.75" customHeight="1"/>
+    <row r="323" ht="12.75" customHeight="1"/>
+    <row r="324" ht="12.75" customHeight="1"/>
+    <row r="325" ht="12.75" customHeight="1"/>
+    <row r="326" ht="12.75" customHeight="1"/>
+    <row r="327" ht="12.75" customHeight="1"/>
+    <row r="328" ht="12.75" customHeight="1"/>
+    <row r="329" ht="12.75" customHeight="1"/>
+    <row r="330" ht="12.75" customHeight="1"/>
+    <row r="331" ht="12.75" customHeight="1"/>
+    <row r="332" ht="12.75" customHeight="1"/>
+    <row r="333" ht="12.75" customHeight="1"/>
+    <row r="334" ht="12.75" customHeight="1"/>
+    <row r="335" ht="12.75" customHeight="1"/>
+    <row r="336" ht="12.75" customHeight="1"/>
+    <row r="337" ht="12.75" customHeight="1"/>
+    <row r="338" ht="12.75" customHeight="1"/>
+    <row r="339" ht="12.75" customHeight="1"/>
+    <row r="340" ht="12.75" customHeight="1"/>
+    <row r="341" ht="12.75" customHeight="1"/>
+    <row r="342" ht="12.75" customHeight="1"/>
+    <row r="343" ht="12.75" customHeight="1"/>
+    <row r="344" ht="12.75" customHeight="1"/>
+    <row r="345" ht="12.75" customHeight="1"/>
+    <row r="346" ht="12.75" customHeight="1"/>
+    <row r="347" ht="12.75" customHeight="1"/>
+    <row r="348" ht="12.75" customHeight="1"/>
+    <row r="349" ht="12.75" customHeight="1"/>
+    <row r="350" ht="12.75" customHeight="1"/>
+    <row r="351" ht="12.75" customHeight="1"/>
+    <row r="352" ht="12.75" customHeight="1"/>
+    <row r="353" ht="12.75" customHeight="1"/>
+    <row r="354" ht="12.75" customHeight="1"/>
+    <row r="355" ht="12.75" customHeight="1"/>
+    <row r="356" ht="12.75" customHeight="1"/>
+    <row r="357" ht="12.75" customHeight="1"/>
+    <row r="358" ht="12.75" customHeight="1"/>
+    <row r="359" ht="12.75" customHeight="1"/>
+    <row r="360" ht="12.75" customHeight="1"/>
+    <row r="361" ht="12.75" customHeight="1"/>
+    <row r="362" ht="12.75" customHeight="1"/>
+    <row r="363" ht="12.75" customHeight="1"/>
+    <row r="364" ht="12.75" customHeight="1"/>
+    <row r="365" ht="12.75" customHeight="1"/>
+    <row r="366" ht="12.75" customHeight="1"/>
+    <row r="367" ht="12.75" customHeight="1"/>
+    <row r="368" ht="12.75" customHeight="1"/>
+    <row r="369" ht="12.75" customHeight="1"/>
+    <row r="370" ht="12.75" customHeight="1"/>
+    <row r="371" ht="12.75" customHeight="1"/>
+    <row r="372" ht="12.75" customHeight="1"/>
+    <row r="373" ht="12.75" customHeight="1"/>
+    <row r="374" ht="12.75" customHeight="1"/>
+    <row r="375" ht="12.75" customHeight="1"/>
+    <row r="376" ht="12.75" customHeight="1"/>
+    <row r="377" ht="12.75" customHeight="1"/>
+    <row r="378" ht="12.75" customHeight="1"/>
+    <row r="379" ht="12.75" customHeight="1"/>
+    <row r="380" ht="12.75" customHeight="1"/>
+    <row r="381" ht="12.75" customHeight="1"/>
+    <row r="382" ht="12.75" customHeight="1"/>
+    <row r="383" ht="12.75" customHeight="1"/>
+    <row r="384" ht="12.75" customHeight="1"/>
+    <row r="385" ht="12.75" customHeight="1"/>
+    <row r="386" ht="12.75" customHeight="1"/>
+    <row r="387" ht="12.75" customHeight="1"/>
+    <row r="388" ht="12.75" customHeight="1"/>
+    <row r="389" ht="12.75" customHeight="1"/>
+    <row r="390" ht="12.75" customHeight="1"/>
+    <row r="391" ht="12.75" customHeight="1"/>
+    <row r="392" ht="12.75" customHeight="1"/>
+    <row r="393" ht="12.75" customHeight="1"/>
+    <row r="394" ht="12.75" customHeight="1"/>
+    <row r="395" ht="12.75" customHeight="1"/>
+    <row r="396" ht="12.75" customHeight="1"/>
+    <row r="397" ht="12.75" customHeight="1"/>
+    <row r="398" ht="12.75" customHeight="1"/>
+    <row r="399" ht="12.75" customHeight="1"/>
+    <row r="400" ht="12.75" customHeight="1"/>
+    <row r="401" ht="12.75" customHeight="1"/>
+    <row r="402" ht="12.75" customHeight="1"/>
+    <row r="403" ht="12.75" customHeight="1"/>
+    <row r="404" ht="12.75" customHeight="1"/>
+    <row r="405" ht="12.75" customHeight="1"/>
+    <row r="406" ht="12.75" customHeight="1"/>
+    <row r="407" ht="12.75" customHeight="1"/>
+    <row r="408" ht="12.75" customHeight="1"/>
+    <row r="409" ht="12.75" customHeight="1"/>
+    <row r="410" ht="12.75" customHeight="1"/>
+    <row r="411" ht="12.75" customHeight="1"/>
+    <row r="412" ht="12.75" customHeight="1"/>
+    <row r="413" ht="12.75" customHeight="1"/>
+    <row r="414" ht="12.75" customHeight="1"/>
+    <row r="415" ht="12.75" customHeight="1"/>
+    <row r="416" ht="12.75" customHeight="1"/>
+    <row r="417" ht="12.75" customHeight="1"/>
+    <row r="418" ht="12.75" customHeight="1"/>
+    <row r="419" ht="12.75" customHeight="1"/>
+    <row r="420" ht="12.75" customHeight="1"/>
+    <row r="421" ht="12.75" customHeight="1"/>
+    <row r="422" ht="12.75" customHeight="1"/>
+    <row r="423" ht="12.75" customHeight="1"/>
+    <row r="424" ht="12.75" customHeight="1"/>
+    <row r="425" ht="12.75" customHeight="1"/>
+    <row r="426" ht="12.75" customHeight="1"/>
+    <row r="427" ht="12.75" customHeight="1"/>
+    <row r="428" ht="12.75" customHeight="1"/>
+    <row r="429" ht="12.75" customHeight="1"/>
+    <row r="430" ht="12.75" customHeight="1"/>
+    <row r="431" ht="12.75" customHeight="1"/>
+    <row r="432" ht="12.75" customHeight="1"/>
+    <row r="433" ht="12.75" customHeight="1"/>
+    <row r="434" ht="12.75" customHeight="1"/>
+    <row r="435" ht="12.75" customHeight="1"/>
+    <row r="436" ht="12.75" customHeight="1"/>
+    <row r="437" ht="12.75" customHeight="1"/>
+    <row r="438" ht="12.75" customHeight="1"/>
+    <row r="439" ht="12.75" customHeight="1"/>
+    <row r="440" ht="12.75" customHeight="1"/>
+    <row r="441" ht="12.75" customHeight="1"/>
+    <row r="442" ht="12.75" customHeight="1"/>
+    <row r="443" ht="12.75" customHeight="1"/>
+    <row r="444" ht="12.75" customHeight="1"/>
+    <row r="445" ht="12.75" customHeight="1"/>
+    <row r="446" ht="12.75" customHeight="1"/>
+    <row r="447" ht="12.75" customHeight="1"/>
+    <row r="448" ht="12.75" customHeight="1"/>
+    <row r="449" ht="12.75" customHeight="1"/>
+    <row r="450" ht="12.75" customHeight="1"/>
+    <row r="451" ht="12.75" customHeight="1"/>
+    <row r="452" ht="12.75" customHeight="1"/>
+    <row r="453" ht="12.75" customHeight="1"/>
+    <row r="454" ht="12.75" customHeight="1"/>
+    <row r="455" ht="12.75" customHeight="1"/>
+    <row r="456" ht="12.75" customHeight="1"/>
+    <row r="457" ht="12.75" customHeight="1"/>
+    <row r="458" ht="12.75" customHeight="1"/>
+    <row r="459" ht="12.75" customHeight="1"/>
+    <row r="460" ht="12.75" customHeight="1"/>
+    <row r="461" ht="12.75" customHeight="1"/>
+    <row r="462" ht="12.75" customHeight="1"/>
+    <row r="463" ht="12.75" customHeight="1"/>
+    <row r="464" ht="12.75" customHeight="1"/>
+    <row r="465" ht="12.75" customHeight="1"/>
+    <row r="466" ht="12.75" customHeight="1"/>
+    <row r="467" ht="12.75" customHeight="1"/>
+    <row r="468" ht="12.75" customHeight="1"/>
+    <row r="469" ht="12.75" customHeight="1"/>
+    <row r="470" ht="12.75" customHeight="1"/>
+    <row r="471" ht="12.75" customHeight="1"/>
+    <row r="472" ht="12.75" customHeight="1"/>
+    <row r="473" ht="12.75" customHeight="1"/>
+    <row r="474" ht="12.75" customHeight="1"/>
+    <row r="475" ht="12.75" customHeight="1"/>
+    <row r="476" ht="12.75" customHeight="1"/>
+    <row r="477" ht="12.75" customHeight="1"/>
+    <row r="478" ht="12.75" customHeight="1"/>
+    <row r="479" ht="12.75" customHeight="1"/>
+    <row r="480" ht="12.75" customHeight="1"/>
+    <row r="481" ht="12.75" customHeight="1"/>
+    <row r="482" ht="12.75" customHeight="1"/>
+    <row r="483" ht="12.75" customHeight="1"/>
+    <row r="484" ht="12.75" customHeight="1"/>
+    <row r="485" ht="12.75" customHeight="1"/>
+    <row r="486" ht="12.75" customHeight="1"/>
+    <row r="487" ht="12.75" customHeight="1"/>
+    <row r="488" ht="12.75" customHeight="1"/>
+    <row r="489" ht="12.75" customHeight="1"/>
+    <row r="490" ht="12.75" customHeight="1"/>
+    <row r="491" ht="12.75" customHeight="1"/>
+    <row r="492" ht="12.75" customHeight="1"/>
+    <row r="493" ht="12.75" customHeight="1"/>
+    <row r="494" ht="12.75" customHeight="1"/>
+    <row r="495" ht="12.75" customHeight="1"/>
+    <row r="496" ht="12.75" customHeight="1"/>
+    <row r="497" ht="12.75" customHeight="1"/>
+    <row r="498" ht="12.75" customHeight="1"/>
+    <row r="499" ht="12.75" customHeight="1"/>
+    <row r="500" ht="12.75" customHeight="1"/>
+    <row r="501" ht="12.75" customHeight="1"/>
+    <row r="502" ht="12.75" customHeight="1"/>
+    <row r="503" ht="12.75" customHeight="1"/>
+    <row r="504" ht="12.75" customHeight="1"/>
+    <row r="505" ht="12.75" customHeight="1"/>
+    <row r="506" ht="12.75" customHeight="1"/>
+    <row r="507" ht="12.75" customHeight="1"/>
+    <row r="508" ht="12.75" customHeight="1"/>
+    <row r="509" ht="12.75" customHeight="1"/>
+    <row r="510" ht="12.75" customHeight="1"/>
+    <row r="511" ht="12.75" customHeight="1"/>
+    <row r="512" ht="12.75" customHeight="1"/>
+    <row r="513" ht="12.75" customHeight="1"/>
+    <row r="514" ht="12.75" customHeight="1"/>
+    <row r="515" ht="12.75" customHeight="1"/>
+    <row r="516" ht="12.75" customHeight="1"/>
+    <row r="517" ht="12.75" customHeight="1"/>
+    <row r="518" ht="12.75" customHeight="1"/>
+    <row r="519" ht="12.75" customHeight="1"/>
+    <row r="520" ht="12.75" customHeight="1"/>
+    <row r="521" ht="12.75" customHeight="1"/>
+    <row r="522" ht="12.75" customHeight="1"/>
+    <row r="523" ht="12.75" customHeight="1"/>
+    <row r="524" ht="12.75" customHeight="1"/>
+    <row r="525" ht="12.75" customHeight="1"/>
+    <row r="526" ht="12.75" customHeight="1"/>
+    <row r="527" ht="12.75" customHeight="1"/>
+    <row r="528" ht="12.75" customHeight="1"/>
+    <row r="529" ht="12.75" customHeight="1"/>
+    <row r="530" ht="12.75" customHeight="1"/>
+    <row r="531" ht="12.75" customHeight="1"/>
+    <row r="532" ht="12.75" customHeight="1"/>
+    <row r="533" ht="12.75" customHeight="1"/>
+    <row r="534" ht="12.75" customHeight="1"/>
+    <row r="535" ht="12.75" customHeight="1"/>
+    <row r="536" ht="12.75" customHeight="1"/>
+    <row r="537" ht="12.75" customHeight="1"/>
+    <row r="538" ht="12.75" customHeight="1"/>
+    <row r="539" ht="12.75" customHeight="1"/>
+    <row r="540" ht="12.75" customHeight="1"/>
+    <row r="541" ht="12.75" customHeight="1"/>
+    <row r="542" ht="12.75" customHeight="1"/>
+    <row r="543" ht="12.75" customHeight="1"/>
+    <row r="544" ht="12.75" customHeight="1"/>
+    <row r="545" ht="12.75" customHeight="1"/>
+    <row r="546" ht="12.75" customHeight="1"/>
+    <row r="547" ht="12.75" customHeight="1"/>
+    <row r="548" ht="12.75" customHeight="1"/>
+    <row r="549" ht="12.75" customHeight="1"/>
+    <row r="550" ht="12.75" customHeight="1"/>
+    <row r="551" ht="12.75" customHeight="1"/>
+    <row r="552" ht="12.75" customHeight="1"/>
+    <row r="553" ht="12.75" customHeight="1"/>
+    <row r="554" ht="12.75" customHeight="1"/>
+    <row r="555" ht="12.75" customHeight="1"/>
+    <row r="556" ht="12.75" customHeight="1"/>
+    <row r="557" ht="12.75" customHeight="1"/>
+    <row r="558" ht="12.75" customHeight="1"/>
+    <row r="559" ht="12.75" customHeight="1"/>
+    <row r="560" ht="12.75" customHeight="1"/>
+    <row r="561" ht="12.75" customHeight="1"/>
+    <row r="562" ht="12.75" customHeight="1"/>
+    <row r="563" ht="12.75" customHeight="1"/>
+    <row r="564" ht="12.75" customHeight="1"/>
+    <row r="565" ht="12.75" customHeight="1"/>
+    <row r="566" ht="12.75" customHeight="1"/>
+    <row r="567" ht="12.75" customHeight="1"/>
+    <row r="568" ht="12.75" customHeight="1"/>
+    <row r="569" ht="12.75" customHeight="1"/>
+    <row r="570" ht="12.75" customHeight="1"/>
+    <row r="571" ht="12.75" customHeight="1"/>
+    <row r="572" ht="12.75" customHeight="1"/>
+    <row r="573" ht="12.75" customHeight="1"/>
+    <row r="574" ht="12.75" customHeight="1"/>
+    <row r="575" ht="12.75" customHeight="1"/>
+    <row r="576" ht="12.75" customHeight="1"/>
+    <row r="577" ht="12.75" customHeight="1"/>
+    <row r="578" ht="12.75" customHeight="1"/>
+    <row r="579" ht="12.75" customHeight="1"/>
+    <row r="580" ht="12.75" customHeight="1"/>
+    <row r="581" ht="12.75" customHeight="1"/>
+    <row r="582" ht="12.75" customHeight="1"/>
+    <row r="583" ht="12.75" customHeight="1"/>
+    <row r="584" ht="12.75" customHeight="1"/>
+    <row r="585" ht="12.75" customHeight="1"/>
+    <row r="586" ht="12.75" customHeight="1"/>
+    <row r="587" ht="12.75" customHeight="1"/>
+    <row r="588" ht="12.75" customHeight="1"/>
+    <row r="589" ht="12.75" customHeight="1"/>
+    <row r="590" ht="12.75" customHeight="1"/>
+    <row r="591" ht="12.75" customHeight="1"/>
+    <row r="592" ht="12.75" customHeight="1"/>
+    <row r="593" ht="12.75" customHeight="1"/>
+    <row r="594" ht="12.75" customHeight="1"/>
+    <row r="595" ht="12.75" customHeight="1"/>
+    <row r="596" ht="12.75" customHeight="1"/>
+    <row r="597" ht="12.75" customHeight="1"/>
+    <row r="598" ht="12.75" customHeight="1"/>
+    <row r="599" ht="12.75" customHeight="1"/>
+    <row r="600" ht="12.75" customHeight="1"/>
+    <row r="601" ht="12.75" customHeight="1"/>
+    <row r="602" ht="12.75" customHeight="1"/>
+    <row r="603" ht="12.75" customHeight="1"/>
+    <row r="604" ht="12.75" customHeight="1"/>
+    <row r="605" ht="12.75" customHeight="1"/>
+    <row r="606" ht="12.75" customHeight="1"/>
+    <row r="607" ht="12.75" customHeight="1"/>
+    <row r="608" ht="12.75" customHeight="1"/>
+    <row r="609" ht="12.75" customHeight="1"/>
+    <row r="610" ht="12.75" customHeight="1"/>
+    <row r="611" ht="12.75" customHeight="1"/>
+    <row r="612" ht="12.75" customHeight="1"/>
+    <row r="613" ht="12.75" customHeight="1"/>
+    <row r="614" ht="12.75" customHeight="1"/>
+    <row r="615" ht="12.75" customHeight="1"/>
+    <row r="616" ht="12.75" customHeight="1"/>
+    <row r="617" ht="12.75" customHeight="1"/>
+    <row r="618" ht="12.75" customHeight="1"/>
+    <row r="619" ht="12.75" customHeight="1"/>
+    <row r="620" ht="12.75" customHeight="1"/>
+    <row r="621" ht="12.75" customHeight="1"/>
+    <row r="622" ht="12.75" customHeight="1"/>
+    <row r="623" ht="12.75" customHeight="1"/>
+    <row r="624" ht="12.75" customHeight="1"/>
+    <row r="625" ht="12.75" customHeight="1"/>
+    <row r="626" ht="12.75" customHeight="1"/>
+    <row r="627" ht="12.75" customHeight="1"/>
+    <row r="628" ht="12.75" customHeight="1"/>
+    <row r="629" ht="12.75" customHeight="1"/>
+    <row r="630" ht="12.75" customHeight="1"/>
+    <row r="631" ht="12.75" customHeight="1"/>
+    <row r="632" ht="12.75" customHeight="1"/>
+    <row r="633" ht="12.75" customHeight="1"/>
+    <row r="634" ht="12.75" customHeight="1"/>
+    <row r="635" ht="12.75" customHeight="1"/>
+    <row r="636" ht="12.75" customHeight="1"/>
+    <row r="637" ht="12.75" customHeight="1"/>
+    <row r="638" ht="12.75" customHeight="1"/>
+    <row r="639" ht="12.75" customHeight="1"/>
+    <row r="640" ht="12.75" customHeight="1"/>
+    <row r="641" ht="12.75" customHeight="1"/>
+    <row r="642" ht="12.75" customHeight="1"/>
+    <row r="643" ht="12.75" customHeight="1"/>
+    <row r="644" ht="12.75" customHeight="1"/>
+    <row r="645" ht="12.75" customHeight="1"/>
+    <row r="646" ht="12.75" customHeight="1"/>
+    <row r="647" ht="12.75" customHeight="1"/>
+    <row r="648" ht="12.75" customHeight="1"/>
+    <row r="649" ht="12.75" customHeight="1"/>
+    <row r="650" ht="12.75" customHeight="1"/>
+    <row r="651" ht="12.75" customHeight="1"/>
+    <row r="652" ht="12.75" customHeight="1"/>
+    <row r="653" ht="12.75" customHeight="1"/>
+    <row r="654" ht="12.75" customHeight="1"/>
+    <row r="655" ht="12.75" customHeight="1"/>
+    <row r="656" ht="12.75" customHeight="1"/>
+    <row r="657" ht="12.75" customHeight="1"/>
+    <row r="658" ht="12.75" customHeight="1"/>
+    <row r="659" ht="12.75" customHeight="1"/>
+    <row r="660" ht="12.75" customHeight="1"/>
+    <row r="661" ht="12.75" customHeight="1"/>
+    <row r="662" ht="12.75" customHeight="1"/>
+    <row r="663" ht="12.75" customHeight="1"/>
+    <row r="664" ht="12.75" customHeight="1"/>
+    <row r="665" ht="12.75" customHeight="1"/>
+    <row r="666" ht="12.75" customHeight="1"/>
+    <row r="667" ht="12.75" customHeight="1"/>
+    <row r="668" ht="12.75" customHeight="1"/>
+    <row r="669" ht="12.75" customHeight="1"/>
+    <row r="670" ht="12.75" customHeight="1"/>
+    <row r="671" ht="12.75" customHeight="1"/>
+    <row r="672" ht="12.75" customHeight="1"/>
+    <row r="673" ht="12.75" customHeight="1"/>
+    <row r="674" ht="12.75" customHeight="1"/>
+    <row r="675" ht="12.75" customHeight="1"/>
+    <row r="676" ht="12.75" customHeight="1"/>
+    <row r="677" ht="12.75" customHeight="1"/>
+    <row r="678" ht="12.75" customHeight="1"/>
+    <row r="679" ht="12.75" customHeight="1"/>
+    <row r="680" ht="12.75" customHeight="1"/>
+    <row r="681" ht="12.75" customHeight="1"/>
+    <row r="682" ht="12.75" customHeight="1"/>
+    <row r="683" ht="12.75" customHeight="1"/>
+    <row r="684" ht="12.75" customHeight="1"/>
+    <row r="685" ht="12.75" customHeight="1"/>
+    <row r="686" ht="12.75" customHeight="1"/>
+    <row r="687" ht="12.75" customHeight="1"/>
+    <row r="688" ht="12.75" customHeight="1"/>
+    <row r="689" ht="12.75" customHeight="1"/>
+    <row r="690" ht="12.75" customHeight="1"/>
+    <row r="691" ht="12.75" customHeight="1"/>
+    <row r="692" ht="12.75" customHeight="1"/>
+    <row r="693" ht="12.75" customHeight="1"/>
+    <row r="694" ht="12.75" customHeight="1"/>
+    <row r="695" ht="12.75" customHeight="1"/>
+    <row r="696" ht="12.75" customHeight="1"/>
+    <row r="697" ht="12.75" customHeight="1"/>
+    <row r="698" ht="12.75" customHeight="1"/>
+    <row r="699" ht="12.75" customHeight="1"/>
+    <row r="700" ht="12.75" customHeight="1"/>
+    <row r="701" ht="12.75" customHeight="1"/>
+    <row r="702" ht="12.75" customHeight="1"/>
+    <row r="703" ht="12.75" customHeight="1"/>
+    <row r="704" ht="12.75" customHeight="1"/>
+    <row r="705" ht="12.75" customHeight="1"/>
+    <row r="706" ht="12.75" customHeight="1"/>
+    <row r="707" ht="12.75" customHeight="1"/>
+    <row r="708" ht="12.75" customHeight="1"/>
+    <row r="709" ht="12.75" customHeight="1"/>
+    <row r="710" ht="12.75" customHeight="1"/>
+    <row r="711" ht="12.75" customHeight="1"/>
+    <row r="712" ht="12.75" customHeight="1"/>
+    <row r="713" ht="12.75" customHeight="1"/>
+    <row r="714" ht="12.75" customHeight="1"/>
+    <row r="715" ht="12.75" customHeight="1"/>
+    <row r="716" ht="12.75" customHeight="1"/>
+    <row r="717" ht="12.75" customHeight="1"/>
+    <row r="718" ht="12.75" customHeight="1"/>
+    <row r="719" ht="12.75" customHeight="1"/>
+    <row r="720" ht="12.75" customHeight="1"/>
+    <row r="721" ht="12.75" customHeight="1"/>
+    <row r="722" ht="12.75" customHeight="1"/>
+    <row r="723" ht="12.75" customHeight="1"/>
+    <row r="724" ht="12.75" customHeight="1"/>
+    <row r="725" ht="12.75" customHeight="1"/>
+    <row r="726" ht="12.75" customHeight="1"/>
+    <row r="727" ht="12.75" customHeight="1"/>
+    <row r="728" ht="12.75" customHeight="1"/>
+    <row r="729" ht="12.75" customHeight="1"/>
+    <row r="730" ht="12.75" customHeight="1"/>
+    <row r="731" ht="12.75" customHeight="1"/>
+    <row r="732" ht="12.75" customHeight="1"/>
+    <row r="733" ht="12.75" customHeight="1"/>
+    <row r="734" ht="12.75" customHeight="1"/>
+    <row r="735" ht="12.75" customHeight="1"/>
+    <row r="736" ht="12.75" customHeight="1"/>
+    <row r="737" ht="12.75" customHeight="1"/>
+    <row r="738" ht="12.75" customHeight="1"/>
+    <row r="739" ht="12.75" customHeight="1"/>
+    <row r="740" ht="12.75" customHeight="1"/>
+    <row r="741" ht="12.75" customHeight="1"/>
+    <row r="742" ht="12.75" customHeight="1"/>
+    <row r="743" ht="12.75" customHeight="1"/>
+    <row r="744" ht="12.75" customHeight="1"/>
+    <row r="745" ht="12.75" customHeight="1"/>
+    <row r="746" ht="12.75" customHeight="1"/>
+    <row r="747" ht="12.75" customHeight="1"/>
+    <row r="748" ht="12.75" customHeight="1"/>
+    <row r="749" ht="12.75" customHeight="1"/>
+    <row r="750" ht="12.75" customHeight="1"/>
+    <row r="751" ht="12.75" customHeight="1"/>
+    <row r="752" ht="12.75" customHeight="1"/>
+    <row r="753" ht="12.75" customHeight="1"/>
+    <row r="754" ht="12.75" customHeight="1"/>
+    <row r="755" ht="12.75" customHeight="1"/>
+    <row r="756" ht="12.75" customHeight="1"/>
+    <row r="757" ht="12.75" customHeight="1"/>
+    <row r="758" ht="12.75" customHeight="1"/>
+    <row r="759" ht="12.75" customHeight="1"/>
+    <row r="760" ht="12.75" customHeight="1"/>
+    <row r="761" ht="12.75" customHeight="1"/>
+    <row r="762" ht="12.75" customHeight="1"/>
+    <row r="763" ht="12.75" customHeight="1"/>
+    <row r="764" ht="12.75" customHeight="1"/>
+    <row r="765" ht="12.75" customHeight="1"/>
+    <row r="766" ht="12.75" customHeight="1"/>
+    <row r="767" ht="12.75" customHeight="1"/>
+    <row r="768" ht="12.75" customHeight="1"/>
+    <row r="769" ht="12.75" customHeight="1"/>
+    <row r="770" ht="12.75" customHeight="1"/>
+    <row r="771" ht="12.75" customHeight="1"/>
+    <row r="772" ht="12.75" customHeight="1"/>
+    <row r="773" ht="12.75" customHeight="1"/>
+    <row r="774" ht="12.75" customHeight="1"/>
+    <row r="775" ht="12.75" customHeight="1"/>
+    <row r="776" ht="12.75" customHeight="1"/>
+    <row r="777" ht="12.75" customHeight="1"/>
+    <row r="778" ht="12.75" customHeight="1"/>
+    <row r="779" ht="12.75" customHeight="1"/>
+    <row r="780" ht="12.75" customHeight="1"/>
+    <row r="781" ht="12.75" customHeight="1"/>
+    <row r="782" ht="12.75" customHeight="1"/>
+    <row r="783" ht="12.75" customHeight="1"/>
+    <row r="784" ht="12.75" customHeight="1"/>
+    <row r="785" ht="12.75" customHeight="1"/>
+    <row r="786" ht="12.75" customHeight="1"/>
+    <row r="787" ht="12.75" customHeight="1"/>
+    <row r="788" ht="12.75" customHeight="1"/>
+    <row r="789" ht="12.75" customHeight="1"/>
+    <row r="790" ht="12.75" customHeight="1"/>
+    <row r="791" ht="12.75" customHeight="1"/>
+    <row r="792" ht="12.75" customHeight="1"/>
+    <row r="793" ht="12.75" customHeight="1"/>
+    <row r="794" ht="12.75" customHeight="1"/>
+    <row r="795" ht="12.75" customHeight="1"/>
+    <row r="796" ht="12.75" customHeight="1"/>
+    <row r="797" ht="12.75" customHeight="1"/>
+    <row r="798" ht="12.75" customHeight="1"/>
+    <row r="799" ht="12.75" customHeight="1"/>
+    <row r="800" ht="12.75" customHeight="1"/>
+    <row r="801" ht="12.75" customHeight="1"/>
+    <row r="802" ht="12.75" customHeight="1"/>
+    <row r="803" ht="12.75" customHeight="1"/>
+    <row r="804" ht="12.75" customHeight="1"/>
+    <row r="805" ht="12.75" customHeight="1"/>
+    <row r="806" ht="12.75" customHeight="1"/>
+    <row r="807" ht="12.75" customHeight="1"/>
+    <row r="808" ht="12.75" customHeight="1"/>
+    <row r="809" ht="12.75" customHeight="1"/>
+    <row r="810" ht="12.75" customHeight="1"/>
+    <row r="811" ht="12.75" customHeight="1"/>
+    <row r="812" ht="12.75" customHeight="1"/>
+    <row r="813" ht="12.75" customHeight="1"/>
+    <row r="814" ht="12.75" customHeight="1"/>
+    <row r="815" ht="12.75" customHeight="1"/>
+    <row r="816" ht="12.75" customHeight="1"/>
+    <row r="817" ht="12.75" customHeight="1"/>
+    <row r="818" ht="12.75" customHeight="1"/>
+    <row r="819" ht="12.75" customHeight="1"/>
+    <row r="820" ht="12.75" customHeight="1"/>
+    <row r="821" ht="12.75" customHeight="1"/>
+    <row r="822" ht="12.75" customHeight="1"/>
+    <row r="823" ht="12.75" customHeight="1"/>
+    <row r="824" ht="12.75" customHeight="1"/>
+    <row r="825" ht="12.75" customHeight="1"/>
+    <row r="826" ht="12.75" customHeight="1"/>
+    <row r="827" ht="12.75" customHeight="1"/>
+    <row r="828" ht="12.75" customHeight="1"/>
+    <row r="829" ht="12.75" customHeight="1"/>
+    <row r="830" ht="12.75" customHeight="1"/>
+    <row r="831" ht="12.75" customHeight="1"/>
+    <row r="832" ht="12.75" customHeight="1"/>
+    <row r="833" ht="12.75" customHeight="1"/>
+    <row r="834" ht="12.75" customHeight="1"/>
+    <row r="835" ht="12.75" customHeight="1"/>
+    <row r="836" ht="12.75" customHeight="1"/>
+    <row r="837" ht="12.75" customHeight="1"/>
+    <row r="838" ht="12.75" customHeight="1"/>
+    <row r="839" ht="12.75" customHeight="1"/>
+    <row r="840" ht="12.75" customHeight="1"/>
+    <row r="841" ht="12.75" customHeight="1"/>
+    <row r="842" ht="12.75" customHeight="1"/>
+    <row r="843" ht="12.75" customHeight="1"/>
+    <row r="844" ht="12.75" customHeight="1"/>
+    <row r="845" ht="12.75" customHeight="1"/>
+    <row r="846" ht="12.75" customHeight="1"/>
+    <row r="847" ht="12.75" customHeight="1"/>
+    <row r="848" ht="12.75" customHeight="1"/>
+    <row r="849" ht="12.75" customHeight="1"/>
+    <row r="850" ht="12.75" customHeight="1"/>
+    <row r="851" ht="12.75" customHeight="1"/>
+    <row r="852" ht="12.75" customHeight="1"/>
+    <row r="853" ht="12.75" customHeight="1"/>
+    <row r="854" ht="12.75" customHeight="1"/>
+    <row r="855" ht="12.75" customHeight="1"/>
+    <row r="856" ht="12.75" customHeight="1"/>
+    <row r="857" ht="12.75" customHeight="1"/>
+    <row r="858" ht="12.75" customHeight="1"/>
+    <row r="859" ht="12.75" customHeight="1"/>
+    <row r="860" ht="12.75" customHeight="1"/>
+    <row r="861" ht="12.75" customHeight="1"/>
+    <row r="862" ht="12.75" customHeight="1"/>
+    <row r="863" ht="12.75" customHeight="1"/>
+    <row r="864" ht="12.75" customHeight="1"/>
+    <row r="865" ht="12.75" customHeight="1"/>
+    <row r="866" ht="12.75" customHeight="1"/>
+    <row r="867" ht="12.75" customHeight="1"/>
+    <row r="868" ht="12.75" customHeight="1"/>
+    <row r="869" ht="12.75" customHeight="1"/>
+    <row r="870" ht="12.75" customHeight="1"/>
+    <row r="871" ht="12.75" customHeight="1"/>
+    <row r="872" ht="12.75" customHeight="1"/>
+    <row r="873" ht="12.75" customHeight="1"/>
+    <row r="874" ht="12.75" customHeight="1"/>
+    <row r="875" ht="12.75" customHeight="1"/>
+    <row r="876" ht="12.75" customHeight="1"/>
+    <row r="877" ht="12.75" customHeight="1"/>
+    <row r="878" ht="12.75" customHeight="1"/>
+    <row r="879" ht="12.75" customHeight="1"/>
+    <row r="880" ht="12.75" customHeight="1"/>
+    <row r="881" ht="12.75" customHeight="1"/>
+    <row r="882" ht="12.75" customHeight="1"/>
+    <row r="883" ht="12.75" customHeight="1"/>
+    <row r="884" ht="12.75" customHeight="1"/>
+    <row r="885" ht="12.75" customHeight="1"/>
+    <row r="886" ht="12.75" customHeight="1"/>
+    <row r="887" ht="12.75" customHeight="1"/>
+    <row r="888" ht="12.75" customHeight="1"/>
+    <row r="889" ht="12.75" customHeight="1"/>
+    <row r="890" ht="12.75" customHeight="1"/>
+    <row r="891" ht="12.75" customHeight="1"/>
+    <row r="892" ht="12.75" customHeight="1"/>
+    <row r="893" ht="12.75" customHeight="1"/>
+    <row r="894" ht="12.75" customHeight="1"/>
+    <row r="895" ht="12.75" customHeight="1"/>
+    <row r="896" ht="12.75" customHeight="1"/>
+    <row r="897" ht="12.75" customHeight="1"/>
+    <row r="898" ht="12.75" customHeight="1"/>
+    <row r="899" ht="12.75" customHeight="1"/>
+    <row r="900" ht="12.75" customHeight="1"/>
+    <row r="901" ht="12.75" customHeight="1"/>
+    <row r="902" ht="12.75" customHeight="1"/>
+    <row r="903" ht="12.75" customHeight="1"/>
+    <row r="904" ht="12.75" customHeight="1"/>
+    <row r="905" ht="12.75" customHeight="1"/>
+    <row r="906" ht="12.75" customHeight="1"/>
+    <row r="907" ht="12.75" customHeight="1"/>
+    <row r="908" ht="12.75" customHeight="1"/>
+    <row r="909" ht="12.75" customHeight="1"/>
+    <row r="910" ht="12.75" customHeight="1"/>
+    <row r="911" ht="12.75" customHeight="1"/>
+    <row r="912" ht="12.75" customHeight="1"/>
+    <row r="913" ht="12.75" customHeight="1"/>
+    <row r="914" ht="12.75" customHeight="1"/>
+    <row r="915" ht="12.75" customHeight="1"/>
+    <row r="916" ht="12.75" customHeight="1"/>
+    <row r="917" ht="12.75" customHeight="1"/>
+    <row r="918" ht="12.75" customHeight="1"/>
+    <row r="919" ht="12.75" customHeight="1"/>
+    <row r="920" ht="12.75" customHeight="1"/>
+    <row r="921" ht="12.75" customHeight="1"/>
+    <row r="922" ht="12.75" customHeight="1"/>
+    <row r="923" ht="12.75" customHeight="1"/>
+    <row r="924" ht="12.75" customHeight="1"/>
+    <row r="925" ht="12.75" customHeight="1"/>
+    <row r="926" ht="12.75" customHeight="1"/>
+    <row r="927" ht="12.75" customHeight="1"/>
+    <row r="928" ht="12.75" customHeight="1"/>
+    <row r="929" ht="12.75" customHeight="1"/>
+    <row r="930" ht="12.75" customHeight="1"/>
+    <row r="931" ht="12.75" customHeight="1"/>
+    <row r="932" ht="12.75" customHeight="1"/>
+    <row r="933" ht="12.75" customHeight="1"/>
+    <row r="934" ht="12.75" customHeight="1"/>
+    <row r="935" ht="12.75" customHeight="1"/>
+    <row r="936" ht="12.75" customHeight="1"/>
+    <row r="937" ht="12.75" customHeight="1"/>
+    <row r="938" ht="12.75" customHeight="1"/>
+    <row r="939" ht="12.75" customHeight="1"/>
+    <row r="940" ht="12.75" customHeight="1"/>
+    <row r="941" ht="12.75" customHeight="1"/>
+    <row r="942" ht="12.75" customHeight="1"/>
+    <row r="943" ht="12.75" customHeight="1"/>
+    <row r="944" ht="12.75" customHeight="1"/>
+    <row r="945" ht="12.75" customHeight="1"/>
+    <row r="946" ht="12.75" customHeight="1"/>
+    <row r="947" ht="12.75" customHeight="1"/>
+    <row r="948" ht="12.75" customHeight="1"/>
+    <row r="949" ht="12.75" customHeight="1"/>
+    <row r="950" ht="12.75" customHeight="1"/>
+    <row r="951" ht="12.75" customHeight="1"/>
+    <row r="952" ht="12.75" customHeight="1"/>
+    <row r="953" ht="12.75" customHeight="1"/>
+    <row r="954" ht="12.75" customHeight="1"/>
+    <row r="955" ht="12.75" customHeight="1"/>
+    <row r="956" ht="12.75" customHeight="1"/>
+    <row r="957" ht="12.75" customHeight="1"/>
+    <row r="958" ht="12.75" customHeight="1"/>
+    <row r="959" ht="12.75" customHeight="1"/>
+    <row r="960" ht="12.75" customHeight="1"/>
+    <row r="961" ht="12.75" customHeight="1"/>
+    <row r="962" ht="12.75" customHeight="1"/>
+    <row r="963" ht="12.75" customHeight="1"/>
+    <row r="964" ht="12.75" customHeight="1"/>
+    <row r="965" ht="12.75" customHeight="1"/>
+    <row r="966" ht="12.75" customHeight="1"/>
+    <row r="967" ht="12.75" customHeight="1"/>
+    <row r="968" ht="12.75" customHeight="1"/>
+    <row r="969" ht="12.75" customHeight="1"/>
+    <row r="970" ht="12.75" customHeight="1"/>
+    <row r="971" ht="12.75" customHeight="1"/>
+    <row r="972" ht="12.75" customHeight="1"/>
+    <row r="973" ht="12.75" customHeight="1"/>
+    <row r="974" ht="12.75" customHeight="1"/>
+    <row r="975" ht="12.75" customHeight="1"/>
+    <row r="976" ht="12.75" customHeight="1"/>
+    <row r="977" ht="12.75" customHeight="1"/>
+    <row r="978" ht="12.75" customHeight="1"/>
+    <row r="979" ht="12.75" customHeight="1"/>
+    <row r="980" ht="12.75" customHeight="1"/>
+    <row r="981" ht="12.75" customHeight="1"/>
+    <row r="982" ht="12.75" customHeight="1"/>
+    <row r="983" ht="12.75" customHeight="1"/>
+    <row r="984" ht="12.75" customHeight="1"/>
+    <row r="985" ht="12.75" customHeight="1"/>
+    <row r="986" ht="12.75" customHeight="1"/>
+    <row r="987" ht="12.75" customHeight="1"/>
+    <row r="988" ht="12.75" customHeight="1"/>
+    <row r="989" ht="12.75" customHeight="1"/>
+    <row r="990" ht="12.75" customHeight="1"/>
+    <row r="991" ht="12.75" customHeight="1"/>
+    <row r="992" ht="12.75" customHeight="1"/>
+    <row r="993" ht="12.75" customHeight="1"/>
+    <row r="994" ht="12.75" customHeight="1"/>
+    <row r="995" ht="12.75" customHeight="1"/>
+    <row r="996" ht="12.75" customHeight="1"/>
+    <row r="997" ht="12.75" customHeight="1"/>
+    <row r="998" ht="12.75" customHeight="1"/>
+    <row r="999" ht="12.75" customHeight="1"/>
+    <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71731544-D3C3-44DD-9D24-0C92DF208DE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{fee5fd36-ed02-4690-be60-01eed4b2a1fc}">
   <dimension ref="A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="5" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:1" ht="23.25" customHeight="1">
+      <c r="A5" s="15" t="s">
         <v>44</v>
       </c>
     </row>

--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="30495" yWindow="2535" windowWidth="27780" windowHeight="11385" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Scope" sheetId="1" r:id="rId3"/>
@@ -17,14 +17,14 @@
     <sheet name="Options" sheetId="3" r:id="rId5"/>
     <sheet name="Group-Turn" sheetId="4" r:id="rId6"/>
     <sheet name="Note" sheetId="5" r:id="rId7"/>
-    <sheet name="Evaluation Warning" sheetId="24" r:id="rId8"/>
+    <sheet name="Evaluation Warning" sheetId="33" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t>STT</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -632,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCA68A8-FD36-469A-AA3F-0F96A845C8A6}">
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:Y34"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -731,7 +734,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>38</v>
@@ -748,7 +751,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>38</v>
@@ -765,7 +768,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>38</v>
@@ -921,8 +924,71 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
     </row>
+    <row r="26" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D25">
+  <conditionalFormatting sqref="D1:D34">
     <cfRule type="cellIs" priority="1" dxfId="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
@@ -948,7 +1014,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="topLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
@@ -1004,16 +1070,16 @@
         <v>19</v>
       </c>
       <c r="C2" s="7">
-        <v>1446.0</v>
+        <v>806.0</v>
       </c>
       <c r="D2" s="7">
-        <v>1.0</v>
+        <v>640.0</v>
       </c>
       <c r="E2" s="7">
-        <v>500.0</v>
+        <v>806.0</v>
       </c>
       <c r="F2" s="5">
-        <v>2.0</v>
+        <v>657.0</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>20</v>
@@ -8912,7 +8978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{fee5fd36-ed02-4690-be60-01eed4b2a1fc}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9e4b4e2a-9d0e-4c1e-8260-8a96307b795b}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
@@ -17,14 +17,14 @@
     <sheet name="Options" sheetId="3" r:id="rId5"/>
     <sheet name="Group-Turn" sheetId="4" r:id="rId6"/>
     <sheet name="Note" sheetId="5" r:id="rId7"/>
-    <sheet name="Evaluation Warning" sheetId="320" r:id="rId8"/>
+    <sheet name="Evaluation Warning" sheetId="332" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>STT</t>
   </si>
@@ -149,7 +149,10 @@
     <t>Evaluation Only. Created with Aspose.Cells for Java.Copyright 2003 - 2021 Aspose Pty Ltd.</t>
   </si>
   <si>
-    <t>Report_EEIW01Multisensory(Clone)</t>
+    <t>Report_BEMC03MTCChooseContext(Clone)</t>
+  </si>
+  <si>
+    <t>MTC chọn context</t>
   </si>
 </sst>
 </file>
@@ -288,7 +291,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -315,14 +318,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -647,12 +642,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y317"/>
+  <dimension ref="A1:Y329"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
@@ -9239,8 +9234,332 @@
       <c r="X317" s="3"/>
       <c r="Y317" s="3"/>
     </row>
+    <row r="318" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A318" s="4"/>
+      <c r="B318" s="3"/>
+      <c r="C318" s="3"/>
+      <c r="D318" s="5"/>
+      <c r="E318" s="5"/>
+      <c r="F318" s="3"/>
+      <c r="G318" s="3"/>
+      <c r="H318" s="3"/>
+      <c r="I318" s="3"/>
+      <c r="J318" s="3"/>
+      <c r="K318" s="3"/>
+      <c r="L318" s="3"/>
+      <c r="M318" s="3"/>
+      <c r="N318" s="3"/>
+      <c r="O318" s="3"/>
+      <c r="P318" s="3"/>
+      <c r="Q318" s="3"/>
+      <c r="R318" s="3"/>
+      <c r="S318" s="3"/>
+      <c r="T318" s="3"/>
+      <c r="U318" s="3"/>
+      <c r="V318" s="3"/>
+      <c r="W318" s="3"/>
+      <c r="X318" s="3"/>
+      <c r="Y318" s="3"/>
+    </row>
+    <row r="319" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A319" s="4"/>
+      <c r="B319" s="3"/>
+      <c r="C319" s="3"/>
+      <c r="D319" s="5"/>
+      <c r="E319" s="5"/>
+      <c r="F319" s="3"/>
+      <c r="G319" s="3"/>
+      <c r="H319" s="3"/>
+      <c r="I319" s="3"/>
+      <c r="J319" s="3"/>
+      <c r="K319" s="3"/>
+      <c r="L319" s="3"/>
+      <c r="M319" s="3"/>
+      <c r="N319" s="3"/>
+      <c r="O319" s="3"/>
+      <c r="P319" s="3"/>
+      <c r="Q319" s="3"/>
+      <c r="R319" s="3"/>
+      <c r="S319" s="3"/>
+      <c r="T319" s="3"/>
+      <c r="U319" s="3"/>
+      <c r="V319" s="3"/>
+      <c r="W319" s="3"/>
+      <c r="X319" s="3"/>
+      <c r="Y319" s="3"/>
+    </row>
+    <row r="320" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A320" s="4"/>
+      <c r="B320" s="3"/>
+      <c r="C320" s="3"/>
+      <c r="D320" s="5"/>
+      <c r="E320" s="5"/>
+      <c r="F320" s="3"/>
+      <c r="G320" s="3"/>
+      <c r="H320" s="3"/>
+      <c r="I320" s="3"/>
+      <c r="J320" s="3"/>
+      <c r="K320" s="3"/>
+      <c r="L320" s="3"/>
+      <c r="M320" s="3"/>
+      <c r="N320" s="3"/>
+      <c r="O320" s="3"/>
+      <c r="P320" s="3"/>
+      <c r="Q320" s="3"/>
+      <c r="R320" s="3"/>
+      <c r="S320" s="3"/>
+      <c r="T320" s="3"/>
+      <c r="U320" s="3"/>
+      <c r="V320" s="3"/>
+      <c r="W320" s="3"/>
+      <c r="X320" s="3"/>
+      <c r="Y320" s="3"/>
+    </row>
+    <row r="321" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A321" s="4"/>
+      <c r="B321" s="3"/>
+      <c r="C321" s="3"/>
+      <c r="D321" s="5"/>
+      <c r="E321" s="5"/>
+      <c r="F321" s="3"/>
+      <c r="G321" s="3"/>
+      <c r="H321" s="3"/>
+      <c r="I321" s="3"/>
+      <c r="J321" s="3"/>
+      <c r="K321" s="3"/>
+      <c r="L321" s="3"/>
+      <c r="M321" s="3"/>
+      <c r="N321" s="3"/>
+      <c r="O321" s="3"/>
+      <c r="P321" s="3"/>
+      <c r="Q321" s="3"/>
+      <c r="R321" s="3"/>
+      <c r="S321" s="3"/>
+      <c r="T321" s="3"/>
+      <c r="U321" s="3"/>
+      <c r="V321" s="3"/>
+      <c r="W321" s="3"/>
+      <c r="X321" s="3"/>
+      <c r="Y321" s="3"/>
+    </row>
+    <row r="322" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A322" s="4"/>
+      <c r="B322" s="3"/>
+      <c r="C322" s="3"/>
+      <c r="D322" s="5"/>
+      <c r="E322" s="5"/>
+      <c r="F322" s="3"/>
+      <c r="G322" s="3"/>
+      <c r="H322" s="3"/>
+      <c r="I322" s="3"/>
+      <c r="J322" s="3"/>
+      <c r="K322" s="3"/>
+      <c r="L322" s="3"/>
+      <c r="M322" s="3"/>
+      <c r="N322" s="3"/>
+      <c r="O322" s="3"/>
+      <c r="P322" s="3"/>
+      <c r="Q322" s="3"/>
+      <c r="R322" s="3"/>
+      <c r="S322" s="3"/>
+      <c r="T322" s="3"/>
+      <c r="U322" s="3"/>
+      <c r="V322" s="3"/>
+      <c r="W322" s="3"/>
+      <c r="X322" s="3"/>
+      <c r="Y322" s="3"/>
+    </row>
+    <row r="323" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A323" s="4"/>
+      <c r="B323" s="3"/>
+      <c r="C323" s="3"/>
+      <c r="D323" s="5"/>
+      <c r="E323" s="5"/>
+      <c r="F323" s="3"/>
+      <c r="G323" s="3"/>
+      <c r="H323" s="3"/>
+      <c r="I323" s="3"/>
+      <c r="J323" s="3"/>
+      <c r="K323" s="3"/>
+      <c r="L323" s="3"/>
+      <c r="M323" s="3"/>
+      <c r="N323" s="3"/>
+      <c r="O323" s="3"/>
+      <c r="P323" s="3"/>
+      <c r="Q323" s="3"/>
+      <c r="R323" s="3"/>
+      <c r="S323" s="3"/>
+      <c r="T323" s="3"/>
+      <c r="U323" s="3"/>
+      <c r="V323" s="3"/>
+      <c r="W323" s="3"/>
+      <c r="X323" s="3"/>
+      <c r="Y323" s="3"/>
+    </row>
+    <row r="324" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A324" s="4"/>
+      <c r="B324" s="3"/>
+      <c r="C324" s="3"/>
+      <c r="D324" s="5"/>
+      <c r="E324" s="5"/>
+      <c r="F324" s="3"/>
+      <c r="G324" s="3"/>
+      <c r="H324" s="3"/>
+      <c r="I324" s="3"/>
+      <c r="J324" s="3"/>
+      <c r="K324" s="3"/>
+      <c r="L324" s="3"/>
+      <c r="M324" s="3"/>
+      <c r="N324" s="3"/>
+      <c r="O324" s="3"/>
+      <c r="P324" s="3"/>
+      <c r="Q324" s="3"/>
+      <c r="R324" s="3"/>
+      <c r="S324" s="3"/>
+      <c r="T324" s="3"/>
+      <c r="U324" s="3"/>
+      <c r="V324" s="3"/>
+      <c r="W324" s="3"/>
+      <c r="X324" s="3"/>
+      <c r="Y324" s="3"/>
+    </row>
+    <row r="325" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A325" s="4"/>
+      <c r="B325" s="3"/>
+      <c r="C325" s="3"/>
+      <c r="D325" s="5"/>
+      <c r="E325" s="5"/>
+      <c r="F325" s="3"/>
+      <c r="G325" s="3"/>
+      <c r="H325" s="3"/>
+      <c r="I325" s="3"/>
+      <c r="J325" s="3"/>
+      <c r="K325" s="3"/>
+      <c r="L325" s="3"/>
+      <c r="M325" s="3"/>
+      <c r="N325" s="3"/>
+      <c r="O325" s="3"/>
+      <c r="P325" s="3"/>
+      <c r="Q325" s="3"/>
+      <c r="R325" s="3"/>
+      <c r="S325" s="3"/>
+      <c r="T325" s="3"/>
+      <c r="U325" s="3"/>
+      <c r="V325" s="3"/>
+      <c r="W325" s="3"/>
+      <c r="X325" s="3"/>
+      <c r="Y325" s="3"/>
+    </row>
+    <row r="326" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A326" s="4"/>
+      <c r="B326" s="3"/>
+      <c r="C326" s="3"/>
+      <c r="D326" s="5"/>
+      <c r="E326" s="5"/>
+      <c r="F326" s="3"/>
+      <c r="G326" s="3"/>
+      <c r="H326" s="3"/>
+      <c r="I326" s="3"/>
+      <c r="J326" s="3"/>
+      <c r="K326" s="3"/>
+      <c r="L326" s="3"/>
+      <c r="M326" s="3"/>
+      <c r="N326" s="3"/>
+      <c r="O326" s="3"/>
+      <c r="P326" s="3"/>
+      <c r="Q326" s="3"/>
+      <c r="R326" s="3"/>
+      <c r="S326" s="3"/>
+      <c r="T326" s="3"/>
+      <c r="U326" s="3"/>
+      <c r="V326" s="3"/>
+      <c r="W326" s="3"/>
+      <c r="X326" s="3"/>
+      <c r="Y326" s="3"/>
+    </row>
+    <row r="327" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A327" s="4"/>
+      <c r="B327" s="3"/>
+      <c r="C327" s="3"/>
+      <c r="D327" s="5"/>
+      <c r="E327" s="5"/>
+      <c r="F327" s="3"/>
+      <c r="G327" s="3"/>
+      <c r="H327" s="3"/>
+      <c r="I327" s="3"/>
+      <c r="J327" s="3"/>
+      <c r="K327" s="3"/>
+      <c r="L327" s="3"/>
+      <c r="M327" s="3"/>
+      <c r="N327" s="3"/>
+      <c r="O327" s="3"/>
+      <c r="P327" s="3"/>
+      <c r="Q327" s="3"/>
+      <c r="R327" s="3"/>
+      <c r="S327" s="3"/>
+      <c r="T327" s="3"/>
+      <c r="U327" s="3"/>
+      <c r="V327" s="3"/>
+      <c r="W327" s="3"/>
+      <c r="X327" s="3"/>
+      <c r="Y327" s="3"/>
+    </row>
+    <row r="328" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A328" s="4"/>
+      <c r="B328" s="3"/>
+      <c r="C328" s="3"/>
+      <c r="D328" s="5"/>
+      <c r="E328" s="5"/>
+      <c r="F328" s="3"/>
+      <c r="G328" s="3"/>
+      <c r="H328" s="3"/>
+      <c r="I328" s="3"/>
+      <c r="J328" s="3"/>
+      <c r="K328" s="3"/>
+      <c r="L328" s="3"/>
+      <c r="M328" s="3"/>
+      <c r="N328" s="3"/>
+      <c r="O328" s="3"/>
+      <c r="P328" s="3"/>
+      <c r="Q328" s="3"/>
+      <c r="R328" s="3"/>
+      <c r="S328" s="3"/>
+      <c r="T328" s="3"/>
+      <c r="U328" s="3"/>
+      <c r="V328" s="3"/>
+      <c r="W328" s="3"/>
+      <c r="X328" s="3"/>
+      <c r="Y328" s="3"/>
+    </row>
+    <row r="329" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A329" s="4"/>
+      <c r="B329" s="3"/>
+      <c r="C329" s="3"/>
+      <c r="D329" s="5"/>
+      <c r="E329" s="5"/>
+      <c r="F329" s="3"/>
+      <c r="G329" s="3"/>
+      <c r="H329" s="3"/>
+      <c r="I329" s="3"/>
+      <c r="J329" s="3"/>
+      <c r="K329" s="3"/>
+      <c r="L329" s="3"/>
+      <c r="M329" s="3"/>
+      <c r="N329" s="3"/>
+      <c r="O329" s="3"/>
+      <c r="P329" s="3"/>
+      <c r="Q329" s="3"/>
+      <c r="R329" s="3"/>
+      <c r="S329" s="3"/>
+      <c r="T329" s="3"/>
+      <c r="U329" s="3"/>
+      <c r="V329" s="3"/>
+      <c r="W329" s="3"/>
+      <c r="X329" s="3"/>
+      <c r="Y329" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D317">
+  <conditionalFormatting sqref="D1:D329">
     <cfRule type="cellIs" priority="1" dxfId="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
@@ -9252,7 +9571,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E317">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E329">
       <formula1>'Group-Turn'!$A:$A</formula1>
     </dataValidation>
   </dataValidations>
@@ -9269,7 +9588,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="topLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
@@ -9332,19 +9651,19 @@
         <v>200.0</v>
       </c>
       <c r="D2" s="11">
-        <v>81.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" s="11">
-        <v>200.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" s="11">
-        <v>81.0</v>
+        <v>1.0</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>22</v>
@@ -17200,7 +17519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ce7e91c-d98b-4ba4-99e3-776878e65b9c}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{e6551d4c-ad1b-4498-915e-0edfaef1ce8c}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -17208,7 +17527,7 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="5" spans="1:1" ht="23.25" customHeight="1">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="19" t="s">
         <v>40</v>
       </c>
     </row>

--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Options" sheetId="3" r:id="rId5"/>
     <sheet name="Group-Turn" sheetId="4" r:id="rId6"/>
     <sheet name="Note" sheetId="5" r:id="rId7"/>
-    <sheet name="Evaluation Warning" sheetId="332" r:id="rId8"/>
+    <sheet name="Evaluation Warning" sheetId="400" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -149,10 +149,10 @@
     <t>Evaluation Only. Created with Aspose.Cells for Java.Copyright 2003 - 2021 Aspose Pty Ltd.</t>
   </si>
   <si>
-    <t>Report_BEMC03MTCChooseContext(Clone)</t>
+    <t>Report_BE.RWB01RecordBlending(Clone)</t>
   </si>
   <si>
-    <t>MTC chọn context</t>
+    <t>RecordBlending</t>
   </si>
 </sst>
 </file>
@@ -291,7 +291,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -318,6 +318,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -642,7 +650,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y329"/>
+  <dimension ref="A1:Y397"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -9558,8 +9566,1844 @@
       <c r="X329" s="3"/>
       <c r="Y329" s="3"/>
     </row>
+    <row r="330" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A330" s="4"/>
+      <c r="B330" s="3"/>
+      <c r="C330" s="3"/>
+      <c r="D330" s="5"/>
+      <c r="E330" s="5"/>
+      <c r="F330" s="3"/>
+      <c r="G330" s="3"/>
+      <c r="H330" s="3"/>
+      <c r="I330" s="3"/>
+      <c r="J330" s="3"/>
+      <c r="K330" s="3"/>
+      <c r="L330" s="3"/>
+      <c r="M330" s="3"/>
+      <c r="N330" s="3"/>
+      <c r="O330" s="3"/>
+      <c r="P330" s="3"/>
+      <c r="Q330" s="3"/>
+      <c r="R330" s="3"/>
+      <c r="S330" s="3"/>
+      <c r="T330" s="3"/>
+      <c r="U330" s="3"/>
+      <c r="V330" s="3"/>
+      <c r="W330" s="3"/>
+      <c r="X330" s="3"/>
+      <c r="Y330" s="3"/>
+    </row>
+    <row r="331" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A331" s="4"/>
+      <c r="B331" s="3"/>
+      <c r="C331" s="3"/>
+      <c r="D331" s="5"/>
+      <c r="E331" s="5"/>
+      <c r="F331" s="3"/>
+      <c r="G331" s="3"/>
+      <c r="H331" s="3"/>
+      <c r="I331" s="3"/>
+      <c r="J331" s="3"/>
+      <c r="K331" s="3"/>
+      <c r="L331" s="3"/>
+      <c r="M331" s="3"/>
+      <c r="N331" s="3"/>
+      <c r="O331" s="3"/>
+      <c r="P331" s="3"/>
+      <c r="Q331" s="3"/>
+      <c r="R331" s="3"/>
+      <c r="S331" s="3"/>
+      <c r="T331" s="3"/>
+      <c r="U331" s="3"/>
+      <c r="V331" s="3"/>
+      <c r="W331" s="3"/>
+      <c r="X331" s="3"/>
+      <c r="Y331" s="3"/>
+    </row>
+    <row r="332" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A332" s="4"/>
+      <c r="B332" s="3"/>
+      <c r="C332" s="3"/>
+      <c r="D332" s="5"/>
+      <c r="E332" s="5"/>
+      <c r="F332" s="3"/>
+      <c r="G332" s="3"/>
+      <c r="H332" s="3"/>
+      <c r="I332" s="3"/>
+      <c r="J332" s="3"/>
+      <c r="K332" s="3"/>
+      <c r="L332" s="3"/>
+      <c r="M332" s="3"/>
+      <c r="N332" s="3"/>
+      <c r="O332" s="3"/>
+      <c r="P332" s="3"/>
+      <c r="Q332" s="3"/>
+      <c r="R332" s="3"/>
+      <c r="S332" s="3"/>
+      <c r="T332" s="3"/>
+      <c r="U332" s="3"/>
+      <c r="V332" s="3"/>
+      <c r="W332" s="3"/>
+      <c r="X332" s="3"/>
+      <c r="Y332" s="3"/>
+    </row>
+    <row r="333" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A333" s="4"/>
+      <c r="B333" s="3"/>
+      <c r="C333" s="3"/>
+      <c r="D333" s="5"/>
+      <c r="E333" s="5"/>
+      <c r="F333" s="3"/>
+      <c r="G333" s="3"/>
+      <c r="H333" s="3"/>
+      <c r="I333" s="3"/>
+      <c r="J333" s="3"/>
+      <c r="K333" s="3"/>
+      <c r="L333" s="3"/>
+      <c r="M333" s="3"/>
+      <c r="N333" s="3"/>
+      <c r="O333" s="3"/>
+      <c r="P333" s="3"/>
+      <c r="Q333" s="3"/>
+      <c r="R333" s="3"/>
+      <c r="S333" s="3"/>
+      <c r="T333" s="3"/>
+      <c r="U333" s="3"/>
+      <c r="V333" s="3"/>
+      <c r="W333" s="3"/>
+      <c r="X333" s="3"/>
+      <c r="Y333" s="3"/>
+    </row>
+    <row r="334" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A334" s="4"/>
+      <c r="B334" s="3"/>
+      <c r="C334" s="3"/>
+      <c r="D334" s="5"/>
+      <c r="E334" s="5"/>
+      <c r="F334" s="3"/>
+      <c r="G334" s="3"/>
+      <c r="H334" s="3"/>
+      <c r="I334" s="3"/>
+      <c r="J334" s="3"/>
+      <c r="K334" s="3"/>
+      <c r="L334" s="3"/>
+      <c r="M334" s="3"/>
+      <c r="N334" s="3"/>
+      <c r="O334" s="3"/>
+      <c r="P334" s="3"/>
+      <c r="Q334" s="3"/>
+      <c r="R334" s="3"/>
+      <c r="S334" s="3"/>
+      <c r="T334" s="3"/>
+      <c r="U334" s="3"/>
+      <c r="V334" s="3"/>
+      <c r="W334" s="3"/>
+      <c r="X334" s="3"/>
+      <c r="Y334" s="3"/>
+    </row>
+    <row r="335" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A335" s="4"/>
+      <c r="B335" s="3"/>
+      <c r="C335" s="3"/>
+      <c r="D335" s="5"/>
+      <c r="E335" s="5"/>
+      <c r="F335" s="3"/>
+      <c r="G335" s="3"/>
+      <c r="H335" s="3"/>
+      <c r="I335" s="3"/>
+      <c r="J335" s="3"/>
+      <c r="K335" s="3"/>
+      <c r="L335" s="3"/>
+      <c r="M335" s="3"/>
+      <c r="N335" s="3"/>
+      <c r="O335" s="3"/>
+      <c r="P335" s="3"/>
+      <c r="Q335" s="3"/>
+      <c r="R335" s="3"/>
+      <c r="S335" s="3"/>
+      <c r="T335" s="3"/>
+      <c r="U335" s="3"/>
+      <c r="V335" s="3"/>
+      <c r="W335" s="3"/>
+      <c r="X335" s="3"/>
+      <c r="Y335" s="3"/>
+    </row>
+    <row r="336" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A336" s="4"/>
+      <c r="B336" s="3"/>
+      <c r="C336" s="3"/>
+      <c r="D336" s="5"/>
+      <c r="E336" s="5"/>
+      <c r="F336" s="3"/>
+      <c r="G336" s="3"/>
+      <c r="H336" s="3"/>
+      <c r="I336" s="3"/>
+      <c r="J336" s="3"/>
+      <c r="K336" s="3"/>
+      <c r="L336" s="3"/>
+      <c r="M336" s="3"/>
+      <c r="N336" s="3"/>
+      <c r="O336" s="3"/>
+      <c r="P336" s="3"/>
+      <c r="Q336" s="3"/>
+      <c r="R336" s="3"/>
+      <c r="S336" s="3"/>
+      <c r="T336" s="3"/>
+      <c r="U336" s="3"/>
+      <c r="V336" s="3"/>
+      <c r="W336" s="3"/>
+      <c r="X336" s="3"/>
+      <c r="Y336" s="3"/>
+    </row>
+    <row r="337" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A337" s="4"/>
+      <c r="B337" s="3"/>
+      <c r="C337" s="3"/>
+      <c r="D337" s="5"/>
+      <c r="E337" s="5"/>
+      <c r="F337" s="3"/>
+      <c r="G337" s="3"/>
+      <c r="H337" s="3"/>
+      <c r="I337" s="3"/>
+      <c r="J337" s="3"/>
+      <c r="K337" s="3"/>
+      <c r="L337" s="3"/>
+      <c r="M337" s="3"/>
+      <c r="N337" s="3"/>
+      <c r="O337" s="3"/>
+      <c r="P337" s="3"/>
+      <c r="Q337" s="3"/>
+      <c r="R337" s="3"/>
+      <c r="S337" s="3"/>
+      <c r="T337" s="3"/>
+      <c r="U337" s="3"/>
+      <c r="V337" s="3"/>
+      <c r="W337" s="3"/>
+      <c r="X337" s="3"/>
+      <c r="Y337" s="3"/>
+    </row>
+    <row r="338" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A338" s="4"/>
+      <c r="B338" s="3"/>
+      <c r="C338" s="3"/>
+      <c r="D338" s="5"/>
+      <c r="E338" s="5"/>
+      <c r="F338" s="3"/>
+      <c r="G338" s="3"/>
+      <c r="H338" s="3"/>
+      <c r="I338" s="3"/>
+      <c r="J338" s="3"/>
+      <c r="K338" s="3"/>
+      <c r="L338" s="3"/>
+      <c r="M338" s="3"/>
+      <c r="N338" s="3"/>
+      <c r="O338" s="3"/>
+      <c r="P338" s="3"/>
+      <c r="Q338" s="3"/>
+      <c r="R338" s="3"/>
+      <c r="S338" s="3"/>
+      <c r="T338" s="3"/>
+      <c r="U338" s="3"/>
+      <c r="V338" s="3"/>
+      <c r="W338" s="3"/>
+      <c r="X338" s="3"/>
+      <c r="Y338" s="3"/>
+    </row>
+    <row r="339" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A339" s="4"/>
+      <c r="B339" s="3"/>
+      <c r="C339" s="3"/>
+      <c r="D339" s="5"/>
+      <c r="E339" s="5"/>
+      <c r="F339" s="3"/>
+      <c r="G339" s="3"/>
+      <c r="H339" s="3"/>
+      <c r="I339" s="3"/>
+      <c r="J339" s="3"/>
+      <c r="K339" s="3"/>
+      <c r="L339" s="3"/>
+      <c r="M339" s="3"/>
+      <c r="N339" s="3"/>
+      <c r="O339" s="3"/>
+      <c r="P339" s="3"/>
+      <c r="Q339" s="3"/>
+      <c r="R339" s="3"/>
+      <c r="S339" s="3"/>
+      <c r="T339" s="3"/>
+      <c r="U339" s="3"/>
+      <c r="V339" s="3"/>
+      <c r="W339" s="3"/>
+      <c r="X339" s="3"/>
+      <c r="Y339" s="3"/>
+    </row>
+    <row r="340" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A340" s="4"/>
+      <c r="B340" s="3"/>
+      <c r="C340" s="3"/>
+      <c r="D340" s="5"/>
+      <c r="E340" s="5"/>
+      <c r="F340" s="3"/>
+      <c r="G340" s="3"/>
+      <c r="H340" s="3"/>
+      <c r="I340" s="3"/>
+      <c r="J340" s="3"/>
+      <c r="K340" s="3"/>
+      <c r="L340" s="3"/>
+      <c r="M340" s="3"/>
+      <c r="N340" s="3"/>
+      <c r="O340" s="3"/>
+      <c r="P340" s="3"/>
+      <c r="Q340" s="3"/>
+      <c r="R340" s="3"/>
+      <c r="S340" s="3"/>
+      <c r="T340" s="3"/>
+      <c r="U340" s="3"/>
+      <c r="V340" s="3"/>
+      <c r="W340" s="3"/>
+      <c r="X340" s="3"/>
+      <c r="Y340" s="3"/>
+    </row>
+    <row r="341" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A341" s="4"/>
+      <c r="B341" s="3"/>
+      <c r="C341" s="3"/>
+      <c r="D341" s="5"/>
+      <c r="E341" s="5"/>
+      <c r="F341" s="3"/>
+      <c r="G341" s="3"/>
+      <c r="H341" s="3"/>
+      <c r="I341" s="3"/>
+      <c r="J341" s="3"/>
+      <c r="K341" s="3"/>
+      <c r="L341" s="3"/>
+      <c r="M341" s="3"/>
+      <c r="N341" s="3"/>
+      <c r="O341" s="3"/>
+      <c r="P341" s="3"/>
+      <c r="Q341" s="3"/>
+      <c r="R341" s="3"/>
+      <c r="S341" s="3"/>
+      <c r="T341" s="3"/>
+      <c r="U341" s="3"/>
+      <c r="V341" s="3"/>
+      <c r="W341" s="3"/>
+      <c r="X341" s="3"/>
+      <c r="Y341" s="3"/>
+    </row>
+    <row r="342" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A342" s="4"/>
+      <c r="B342" s="3"/>
+      <c r="C342" s="3"/>
+      <c r="D342" s="5"/>
+      <c r="E342" s="5"/>
+      <c r="F342" s="3"/>
+      <c r="G342" s="3"/>
+      <c r="H342" s="3"/>
+      <c r="I342" s="3"/>
+      <c r="J342" s="3"/>
+      <c r="K342" s="3"/>
+      <c r="L342" s="3"/>
+      <c r="M342" s="3"/>
+      <c r="N342" s="3"/>
+      <c r="O342" s="3"/>
+      <c r="P342" s="3"/>
+      <c r="Q342" s="3"/>
+      <c r="R342" s="3"/>
+      <c r="S342" s="3"/>
+      <c r="T342" s="3"/>
+      <c r="U342" s="3"/>
+      <c r="V342" s="3"/>
+      <c r="W342" s="3"/>
+      <c r="X342" s="3"/>
+      <c r="Y342" s="3"/>
+    </row>
+    <row r="343" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A343" s="4"/>
+      <c r="B343" s="3"/>
+      <c r="C343" s="3"/>
+      <c r="D343" s="5"/>
+      <c r="E343" s="5"/>
+      <c r="F343" s="3"/>
+      <c r="G343" s="3"/>
+      <c r="H343" s="3"/>
+      <c r="I343" s="3"/>
+      <c r="J343" s="3"/>
+      <c r="K343" s="3"/>
+      <c r="L343" s="3"/>
+      <c r="M343" s="3"/>
+      <c r="N343" s="3"/>
+      <c r="O343" s="3"/>
+      <c r="P343" s="3"/>
+      <c r="Q343" s="3"/>
+      <c r="R343" s="3"/>
+      <c r="S343" s="3"/>
+      <c r="T343" s="3"/>
+      <c r="U343" s="3"/>
+      <c r="V343" s="3"/>
+      <c r="W343" s="3"/>
+      <c r="X343" s="3"/>
+      <c r="Y343" s="3"/>
+    </row>
+    <row r="344" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A344" s="4"/>
+      <c r="B344" s="3"/>
+      <c r="C344" s="3"/>
+      <c r="D344" s="5"/>
+      <c r="E344" s="5"/>
+      <c r="F344" s="3"/>
+      <c r="G344" s="3"/>
+      <c r="H344" s="3"/>
+      <c r="I344" s="3"/>
+      <c r="J344" s="3"/>
+      <c r="K344" s="3"/>
+      <c r="L344" s="3"/>
+      <c r="M344" s="3"/>
+      <c r="N344" s="3"/>
+      <c r="O344" s="3"/>
+      <c r="P344" s="3"/>
+      <c r="Q344" s="3"/>
+      <c r="R344" s="3"/>
+      <c r="S344" s="3"/>
+      <c r="T344" s="3"/>
+      <c r="U344" s="3"/>
+      <c r="V344" s="3"/>
+      <c r="W344" s="3"/>
+      <c r="X344" s="3"/>
+      <c r="Y344" s="3"/>
+    </row>
+    <row r="345" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A345" s="4"/>
+      <c r="B345" s="3"/>
+      <c r="C345" s="3"/>
+      <c r="D345" s="5"/>
+      <c r="E345" s="5"/>
+      <c r="F345" s="3"/>
+      <c r="G345" s="3"/>
+      <c r="H345" s="3"/>
+      <c r="I345" s="3"/>
+      <c r="J345" s="3"/>
+      <c r="K345" s="3"/>
+      <c r="L345" s="3"/>
+      <c r="M345" s="3"/>
+      <c r="N345" s="3"/>
+      <c r="O345" s="3"/>
+      <c r="P345" s="3"/>
+      <c r="Q345" s="3"/>
+      <c r="R345" s="3"/>
+      <c r="S345" s="3"/>
+      <c r="T345" s="3"/>
+      <c r="U345" s="3"/>
+      <c r="V345" s="3"/>
+      <c r="W345" s="3"/>
+      <c r="X345" s="3"/>
+      <c r="Y345" s="3"/>
+    </row>
+    <row r="346" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A346" s="4"/>
+      <c r="B346" s="3"/>
+      <c r="C346" s="3"/>
+      <c r="D346" s="5"/>
+      <c r="E346" s="5"/>
+      <c r="F346" s="3"/>
+      <c r="G346" s="3"/>
+      <c r="H346" s="3"/>
+      <c r="I346" s="3"/>
+      <c r="J346" s="3"/>
+      <c r="K346" s="3"/>
+      <c r="L346" s="3"/>
+      <c r="M346" s="3"/>
+      <c r="N346" s="3"/>
+      <c r="O346" s="3"/>
+      <c r="P346" s="3"/>
+      <c r="Q346" s="3"/>
+      <c r="R346" s="3"/>
+      <c r="S346" s="3"/>
+      <c r="T346" s="3"/>
+      <c r="U346" s="3"/>
+      <c r="V346" s="3"/>
+      <c r="W346" s="3"/>
+      <c r="X346" s="3"/>
+      <c r="Y346" s="3"/>
+    </row>
+    <row r="347" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A347" s="4"/>
+      <c r="B347" s="3"/>
+      <c r="C347" s="3"/>
+      <c r="D347" s="5"/>
+      <c r="E347" s="5"/>
+      <c r="F347" s="3"/>
+      <c r="G347" s="3"/>
+      <c r="H347" s="3"/>
+      <c r="I347" s="3"/>
+      <c r="J347" s="3"/>
+      <c r="K347" s="3"/>
+      <c r="L347" s="3"/>
+      <c r="M347" s="3"/>
+      <c r="N347" s="3"/>
+      <c r="O347" s="3"/>
+      <c r="P347" s="3"/>
+      <c r="Q347" s="3"/>
+      <c r="R347" s="3"/>
+      <c r="S347" s="3"/>
+      <c r="T347" s="3"/>
+      <c r="U347" s="3"/>
+      <c r="V347" s="3"/>
+      <c r="W347" s="3"/>
+      <c r="X347" s="3"/>
+      <c r="Y347" s="3"/>
+    </row>
+    <row r="348" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A348" s="4"/>
+      <c r="B348" s="3"/>
+      <c r="C348" s="3"/>
+      <c r="D348" s="5"/>
+      <c r="E348" s="5"/>
+      <c r="F348" s="3"/>
+      <c r="G348" s="3"/>
+      <c r="H348" s="3"/>
+      <c r="I348" s="3"/>
+      <c r="J348" s="3"/>
+      <c r="K348" s="3"/>
+      <c r="L348" s="3"/>
+      <c r="M348" s="3"/>
+      <c r="N348" s="3"/>
+      <c r="O348" s="3"/>
+      <c r="P348" s="3"/>
+      <c r="Q348" s="3"/>
+      <c r="R348" s="3"/>
+      <c r="S348" s="3"/>
+      <c r="T348" s="3"/>
+      <c r="U348" s="3"/>
+      <c r="V348" s="3"/>
+      <c r="W348" s="3"/>
+      <c r="X348" s="3"/>
+      <c r="Y348" s="3"/>
+    </row>
+    <row r="349" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A349" s="4"/>
+      <c r="B349" s="3"/>
+      <c r="C349" s="3"/>
+      <c r="D349" s="5"/>
+      <c r="E349" s="5"/>
+      <c r="F349" s="3"/>
+      <c r="G349" s="3"/>
+      <c r="H349" s="3"/>
+      <c r="I349" s="3"/>
+      <c r="J349" s="3"/>
+      <c r="K349" s="3"/>
+      <c r="L349" s="3"/>
+      <c r="M349" s="3"/>
+      <c r="N349" s="3"/>
+      <c r="O349" s="3"/>
+      <c r="P349" s="3"/>
+      <c r="Q349" s="3"/>
+      <c r="R349" s="3"/>
+      <c r="S349" s="3"/>
+      <c r="T349" s="3"/>
+      <c r="U349" s="3"/>
+      <c r="V349" s="3"/>
+      <c r="W349" s="3"/>
+      <c r="X349" s="3"/>
+      <c r="Y349" s="3"/>
+    </row>
+    <row r="350" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A350" s="4"/>
+      <c r="B350" s="3"/>
+      <c r="C350" s="3"/>
+      <c r="D350" s="5"/>
+      <c r="E350" s="5"/>
+      <c r="F350" s="3"/>
+      <c r="G350" s="3"/>
+      <c r="H350" s="3"/>
+      <c r="I350" s="3"/>
+      <c r="J350" s="3"/>
+      <c r="K350" s="3"/>
+      <c r="L350" s="3"/>
+      <c r="M350" s="3"/>
+      <c r="N350" s="3"/>
+      <c r="O350" s="3"/>
+      <c r="P350" s="3"/>
+      <c r="Q350" s="3"/>
+      <c r="R350" s="3"/>
+      <c r="S350" s="3"/>
+      <c r="T350" s="3"/>
+      <c r="U350" s="3"/>
+      <c r="V350" s="3"/>
+      <c r="W350" s="3"/>
+      <c r="X350" s="3"/>
+      <c r="Y350" s="3"/>
+    </row>
+    <row r="351" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A351" s="4"/>
+      <c r="B351" s="3"/>
+      <c r="C351" s="3"/>
+      <c r="D351" s="5"/>
+      <c r="E351" s="5"/>
+      <c r="F351" s="3"/>
+      <c r="G351" s="3"/>
+      <c r="H351" s="3"/>
+      <c r="I351" s="3"/>
+      <c r="J351" s="3"/>
+      <c r="K351" s="3"/>
+      <c r="L351" s="3"/>
+      <c r="M351" s="3"/>
+      <c r="N351" s="3"/>
+      <c r="O351" s="3"/>
+      <c r="P351" s="3"/>
+      <c r="Q351" s="3"/>
+      <c r="R351" s="3"/>
+      <c r="S351" s="3"/>
+      <c r="T351" s="3"/>
+      <c r="U351" s="3"/>
+      <c r="V351" s="3"/>
+      <c r="W351" s="3"/>
+      <c r="X351" s="3"/>
+      <c r="Y351" s="3"/>
+    </row>
+    <row r="352" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A352" s="4"/>
+      <c r="B352" s="3"/>
+      <c r="C352" s="3"/>
+      <c r="D352" s="5"/>
+      <c r="E352" s="5"/>
+      <c r="F352" s="3"/>
+      <c r="G352" s="3"/>
+      <c r="H352" s="3"/>
+      <c r="I352" s="3"/>
+      <c r="J352" s="3"/>
+      <c r="K352" s="3"/>
+      <c r="L352" s="3"/>
+      <c r="M352" s="3"/>
+      <c r="N352" s="3"/>
+      <c r="O352" s="3"/>
+      <c r="P352" s="3"/>
+      <c r="Q352" s="3"/>
+      <c r="R352" s="3"/>
+      <c r="S352" s="3"/>
+      <c r="T352" s="3"/>
+      <c r="U352" s="3"/>
+      <c r="V352" s="3"/>
+      <c r="W352" s="3"/>
+      <c r="X352" s="3"/>
+      <c r="Y352" s="3"/>
+    </row>
+    <row r="353" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A353" s="4"/>
+      <c r="B353" s="3"/>
+      <c r="C353" s="3"/>
+      <c r="D353" s="5"/>
+      <c r="E353" s="5"/>
+      <c r="F353" s="3"/>
+      <c r="G353" s="3"/>
+      <c r="H353" s="3"/>
+      <c r="I353" s="3"/>
+      <c r="J353" s="3"/>
+      <c r="K353" s="3"/>
+      <c r="L353" s="3"/>
+      <c r="M353" s="3"/>
+      <c r="N353" s="3"/>
+      <c r="O353" s="3"/>
+      <c r="P353" s="3"/>
+      <c r="Q353" s="3"/>
+      <c r="R353" s="3"/>
+      <c r="S353" s="3"/>
+      <c r="T353" s="3"/>
+      <c r="U353" s="3"/>
+      <c r="V353" s="3"/>
+      <c r="W353" s="3"/>
+      <c r="X353" s="3"/>
+      <c r="Y353" s="3"/>
+    </row>
+    <row r="354" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A354" s="4"/>
+      <c r="B354" s="3"/>
+      <c r="C354" s="3"/>
+      <c r="D354" s="5"/>
+      <c r="E354" s="5"/>
+      <c r="F354" s="3"/>
+      <c r="G354" s="3"/>
+      <c r="H354" s="3"/>
+      <c r="I354" s="3"/>
+      <c r="J354" s="3"/>
+      <c r="K354" s="3"/>
+      <c r="L354" s="3"/>
+      <c r="M354" s="3"/>
+      <c r="N354" s="3"/>
+      <c r="O354" s="3"/>
+      <c r="P354" s="3"/>
+      <c r="Q354" s="3"/>
+      <c r="R354" s="3"/>
+      <c r="S354" s="3"/>
+      <c r="T354" s="3"/>
+      <c r="U354" s="3"/>
+      <c r="V354" s="3"/>
+      <c r="W354" s="3"/>
+      <c r="X354" s="3"/>
+      <c r="Y354" s="3"/>
+    </row>
+    <row r="355" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A355" s="4"/>
+      <c r="B355" s="3"/>
+      <c r="C355" s="3"/>
+      <c r="D355" s="5"/>
+      <c r="E355" s="5"/>
+      <c r="F355" s="3"/>
+      <c r="G355" s="3"/>
+      <c r="H355" s="3"/>
+      <c r="I355" s="3"/>
+      <c r="J355" s="3"/>
+      <c r="K355" s="3"/>
+      <c r="L355" s="3"/>
+      <c r="M355" s="3"/>
+      <c r="N355" s="3"/>
+      <c r="O355" s="3"/>
+      <c r="P355" s="3"/>
+      <c r="Q355" s="3"/>
+      <c r="R355" s="3"/>
+      <c r="S355" s="3"/>
+      <c r="T355" s="3"/>
+      <c r="U355" s="3"/>
+      <c r="V355" s="3"/>
+      <c r="W355" s="3"/>
+      <c r="X355" s="3"/>
+      <c r="Y355" s="3"/>
+    </row>
+    <row r="356" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A356" s="4"/>
+      <c r="B356" s="3"/>
+      <c r="C356" s="3"/>
+      <c r="D356" s="5"/>
+      <c r="E356" s="5"/>
+      <c r="F356" s="3"/>
+      <c r="G356" s="3"/>
+      <c r="H356" s="3"/>
+      <c r="I356" s="3"/>
+      <c r="J356" s="3"/>
+      <c r="K356" s="3"/>
+      <c r="L356" s="3"/>
+      <c r="M356" s="3"/>
+      <c r="N356" s="3"/>
+      <c r="O356" s="3"/>
+      <c r="P356" s="3"/>
+      <c r="Q356" s="3"/>
+      <c r="R356" s="3"/>
+      <c r="S356" s="3"/>
+      <c r="T356" s="3"/>
+      <c r="U356" s="3"/>
+      <c r="V356" s="3"/>
+      <c r="W356" s="3"/>
+      <c r="X356" s="3"/>
+      <c r="Y356" s="3"/>
+    </row>
+    <row r="357" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A357" s="4"/>
+      <c r="B357" s="3"/>
+      <c r="C357" s="3"/>
+      <c r="D357" s="5"/>
+      <c r="E357" s="5"/>
+      <c r="F357" s="3"/>
+      <c r="G357" s="3"/>
+      <c r="H357" s="3"/>
+      <c r="I357" s="3"/>
+      <c r="J357" s="3"/>
+      <c r="K357" s="3"/>
+      <c r="L357" s="3"/>
+      <c r="M357" s="3"/>
+      <c r="N357" s="3"/>
+      <c r="O357" s="3"/>
+      <c r="P357" s="3"/>
+      <c r="Q357" s="3"/>
+      <c r="R357" s="3"/>
+      <c r="S357" s="3"/>
+      <c r="T357" s="3"/>
+      <c r="U357" s="3"/>
+      <c r="V357" s="3"/>
+      <c r="W357" s="3"/>
+      <c r="X357" s="3"/>
+      <c r="Y357" s="3"/>
+    </row>
+    <row r="358" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A358" s="4"/>
+      <c r="B358" s="3"/>
+      <c r="C358" s="3"/>
+      <c r="D358" s="5"/>
+      <c r="E358" s="5"/>
+      <c r="F358" s="3"/>
+      <c r="G358" s="3"/>
+      <c r="H358" s="3"/>
+      <c r="I358" s="3"/>
+      <c r="J358" s="3"/>
+      <c r="K358" s="3"/>
+      <c r="L358" s="3"/>
+      <c r="M358" s="3"/>
+      <c r="N358" s="3"/>
+      <c r="O358" s="3"/>
+      <c r="P358" s="3"/>
+      <c r="Q358" s="3"/>
+      <c r="R358" s="3"/>
+      <c r="S358" s="3"/>
+      <c r="T358" s="3"/>
+      <c r="U358" s="3"/>
+      <c r="V358" s="3"/>
+      <c r="W358" s="3"/>
+      <c r="X358" s="3"/>
+      <c r="Y358" s="3"/>
+    </row>
+    <row r="359" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A359" s="4"/>
+      <c r="B359" s="3"/>
+      <c r="C359" s="3"/>
+      <c r="D359" s="5"/>
+      <c r="E359" s="5"/>
+      <c r="F359" s="3"/>
+      <c r="G359" s="3"/>
+      <c r="H359" s="3"/>
+      <c r="I359" s="3"/>
+      <c r="J359" s="3"/>
+      <c r="K359" s="3"/>
+      <c r="L359" s="3"/>
+      <c r="M359" s="3"/>
+      <c r="N359" s="3"/>
+      <c r="O359" s="3"/>
+      <c r="P359" s="3"/>
+      <c r="Q359" s="3"/>
+      <c r="R359" s="3"/>
+      <c r="S359" s="3"/>
+      <c r="T359" s="3"/>
+      <c r="U359" s="3"/>
+      <c r="V359" s="3"/>
+      <c r="W359" s="3"/>
+      <c r="X359" s="3"/>
+      <c r="Y359" s="3"/>
+    </row>
+    <row r="360" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A360" s="4"/>
+      <c r="B360" s="3"/>
+      <c r="C360" s="3"/>
+      <c r="D360" s="5"/>
+      <c r="E360" s="5"/>
+      <c r="F360" s="3"/>
+      <c r="G360" s="3"/>
+      <c r="H360" s="3"/>
+      <c r="I360" s="3"/>
+      <c r="J360" s="3"/>
+      <c r="K360" s="3"/>
+      <c r="L360" s="3"/>
+      <c r="M360" s="3"/>
+      <c r="N360" s="3"/>
+      <c r="O360" s="3"/>
+      <c r="P360" s="3"/>
+      <c r="Q360" s="3"/>
+      <c r="R360" s="3"/>
+      <c r="S360" s="3"/>
+      <c r="T360" s="3"/>
+      <c r="U360" s="3"/>
+      <c r="V360" s="3"/>
+      <c r="W360" s="3"/>
+      <c r="X360" s="3"/>
+      <c r="Y360" s="3"/>
+    </row>
+    <row r="361" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A361" s="4"/>
+      <c r="B361" s="3"/>
+      <c r="C361" s="3"/>
+      <c r="D361" s="5"/>
+      <c r="E361" s="5"/>
+      <c r="F361" s="3"/>
+      <c r="G361" s="3"/>
+      <c r="H361" s="3"/>
+      <c r="I361" s="3"/>
+      <c r="J361" s="3"/>
+      <c r="K361" s="3"/>
+      <c r="L361" s="3"/>
+      <c r="M361" s="3"/>
+      <c r="N361" s="3"/>
+      <c r="O361" s="3"/>
+      <c r="P361" s="3"/>
+      <c r="Q361" s="3"/>
+      <c r="R361" s="3"/>
+      <c r="S361" s="3"/>
+      <c r="T361" s="3"/>
+      <c r="U361" s="3"/>
+      <c r="V361" s="3"/>
+      <c r="W361" s="3"/>
+      <c r="X361" s="3"/>
+      <c r="Y361" s="3"/>
+    </row>
+    <row r="362" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A362" s="4"/>
+      <c r="B362" s="3"/>
+      <c r="C362" s="3"/>
+      <c r="D362" s="5"/>
+      <c r="E362" s="5"/>
+      <c r="F362" s="3"/>
+      <c r="G362" s="3"/>
+      <c r="H362" s="3"/>
+      <c r="I362" s="3"/>
+      <c r="J362" s="3"/>
+      <c r="K362" s="3"/>
+      <c r="L362" s="3"/>
+      <c r="M362" s="3"/>
+      <c r="N362" s="3"/>
+      <c r="O362" s="3"/>
+      <c r="P362" s="3"/>
+      <c r="Q362" s="3"/>
+      <c r="R362" s="3"/>
+      <c r="S362" s="3"/>
+      <c r="T362" s="3"/>
+      <c r="U362" s="3"/>
+      <c r="V362" s="3"/>
+      <c r="W362" s="3"/>
+      <c r="X362" s="3"/>
+      <c r="Y362" s="3"/>
+    </row>
+    <row r="363" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A363" s="4"/>
+      <c r="B363" s="3"/>
+      <c r="C363" s="3"/>
+      <c r="D363" s="5"/>
+      <c r="E363" s="5"/>
+      <c r="F363" s="3"/>
+      <c r="G363" s="3"/>
+      <c r="H363" s="3"/>
+      <c r="I363" s="3"/>
+      <c r="J363" s="3"/>
+      <c r="K363" s="3"/>
+      <c r="L363" s="3"/>
+      <c r="M363" s="3"/>
+      <c r="N363" s="3"/>
+      <c r="O363" s="3"/>
+      <c r="P363" s="3"/>
+      <c r="Q363" s="3"/>
+      <c r="R363" s="3"/>
+      <c r="S363" s="3"/>
+      <c r="T363" s="3"/>
+      <c r="U363" s="3"/>
+      <c r="V363" s="3"/>
+      <c r="W363" s="3"/>
+      <c r="X363" s="3"/>
+      <c r="Y363" s="3"/>
+    </row>
+    <row r="364" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A364" s="4"/>
+      <c r="B364" s="3"/>
+      <c r="C364" s="3"/>
+      <c r="D364" s="5"/>
+      <c r="E364" s="5"/>
+      <c r="F364" s="3"/>
+      <c r="G364" s="3"/>
+      <c r="H364" s="3"/>
+      <c r="I364" s="3"/>
+      <c r="J364" s="3"/>
+      <c r="K364" s="3"/>
+      <c r="L364" s="3"/>
+      <c r="M364" s="3"/>
+      <c r="N364" s="3"/>
+      <c r="O364" s="3"/>
+      <c r="P364" s="3"/>
+      <c r="Q364" s="3"/>
+      <c r="R364" s="3"/>
+      <c r="S364" s="3"/>
+      <c r="T364" s="3"/>
+      <c r="U364" s="3"/>
+      <c r="V364" s="3"/>
+      <c r="W364" s="3"/>
+      <c r="X364" s="3"/>
+      <c r="Y364" s="3"/>
+    </row>
+    <row r="365" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A365" s="4"/>
+      <c r="B365" s="3"/>
+      <c r="C365" s="3"/>
+      <c r="D365" s="5"/>
+      <c r="E365" s="5"/>
+      <c r="F365" s="3"/>
+      <c r="G365" s="3"/>
+      <c r="H365" s="3"/>
+      <c r="I365" s="3"/>
+      <c r="J365" s="3"/>
+      <c r="K365" s="3"/>
+      <c r="L365" s="3"/>
+      <c r="M365" s="3"/>
+      <c r="N365" s="3"/>
+      <c r="O365" s="3"/>
+      <c r="P365" s="3"/>
+      <c r="Q365" s="3"/>
+      <c r="R365" s="3"/>
+      <c r="S365" s="3"/>
+      <c r="T365" s="3"/>
+      <c r="U365" s="3"/>
+      <c r="V365" s="3"/>
+      <c r="W365" s="3"/>
+      <c r="X365" s="3"/>
+      <c r="Y365" s="3"/>
+    </row>
+    <row r="366" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A366" s="4"/>
+      <c r="B366" s="3"/>
+      <c r="C366" s="3"/>
+      <c r="D366" s="5"/>
+      <c r="E366" s="5"/>
+      <c r="F366" s="3"/>
+      <c r="G366" s="3"/>
+      <c r="H366" s="3"/>
+      <c r="I366" s="3"/>
+      <c r="J366" s="3"/>
+      <c r="K366" s="3"/>
+      <c r="L366" s="3"/>
+      <c r="M366" s="3"/>
+      <c r="N366" s="3"/>
+      <c r="O366" s="3"/>
+      <c r="P366" s="3"/>
+      <c r="Q366" s="3"/>
+      <c r="R366" s="3"/>
+      <c r="S366" s="3"/>
+      <c r="T366" s="3"/>
+      <c r="U366" s="3"/>
+      <c r="V366" s="3"/>
+      <c r="W366" s="3"/>
+      <c r="X366" s="3"/>
+      <c r="Y366" s="3"/>
+    </row>
+    <row r="367" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A367" s="4"/>
+      <c r="B367" s="3"/>
+      <c r="C367" s="3"/>
+      <c r="D367" s="5"/>
+      <c r="E367" s="5"/>
+      <c r="F367" s="3"/>
+      <c r="G367" s="3"/>
+      <c r="H367" s="3"/>
+      <c r="I367" s="3"/>
+      <c r="J367" s="3"/>
+      <c r="K367" s="3"/>
+      <c r="L367" s="3"/>
+      <c r="M367" s="3"/>
+      <c r="N367" s="3"/>
+      <c r="O367" s="3"/>
+      <c r="P367" s="3"/>
+      <c r="Q367" s="3"/>
+      <c r="R367" s="3"/>
+      <c r="S367" s="3"/>
+      <c r="T367" s="3"/>
+      <c r="U367" s="3"/>
+      <c r="V367" s="3"/>
+      <c r="W367" s="3"/>
+      <c r="X367" s="3"/>
+      <c r="Y367" s="3"/>
+    </row>
+    <row r="368" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A368" s="4"/>
+      <c r="B368" s="3"/>
+      <c r="C368" s="3"/>
+      <c r="D368" s="5"/>
+      <c r="E368" s="5"/>
+      <c r="F368" s="3"/>
+      <c r="G368" s="3"/>
+      <c r="H368" s="3"/>
+      <c r="I368" s="3"/>
+      <c r="J368" s="3"/>
+      <c r="K368" s="3"/>
+      <c r="L368" s="3"/>
+      <c r="M368" s="3"/>
+      <c r="N368" s="3"/>
+      <c r="O368" s="3"/>
+      <c r="P368" s="3"/>
+      <c r="Q368" s="3"/>
+      <c r="R368" s="3"/>
+      <c r="S368" s="3"/>
+      <c r="T368" s="3"/>
+      <c r="U368" s="3"/>
+      <c r="V368" s="3"/>
+      <c r="W368" s="3"/>
+      <c r="X368" s="3"/>
+      <c r="Y368" s="3"/>
+    </row>
+    <row r="369" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A369" s="4"/>
+      <c r="B369" s="3"/>
+      <c r="C369" s="3"/>
+      <c r="D369" s="5"/>
+      <c r="E369" s="5"/>
+      <c r="F369" s="3"/>
+      <c r="G369" s="3"/>
+      <c r="H369" s="3"/>
+      <c r="I369" s="3"/>
+      <c r="J369" s="3"/>
+      <c r="K369" s="3"/>
+      <c r="L369" s="3"/>
+      <c r="M369" s="3"/>
+      <c r="N369" s="3"/>
+      <c r="O369" s="3"/>
+      <c r="P369" s="3"/>
+      <c r="Q369" s="3"/>
+      <c r="R369" s="3"/>
+      <c r="S369" s="3"/>
+      <c r="T369" s="3"/>
+      <c r="U369" s="3"/>
+      <c r="V369" s="3"/>
+      <c r="W369" s="3"/>
+      <c r="X369" s="3"/>
+      <c r="Y369" s="3"/>
+    </row>
+    <row r="370" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A370" s="4"/>
+      <c r="B370" s="3"/>
+      <c r="C370" s="3"/>
+      <c r="D370" s="5"/>
+      <c r="E370" s="5"/>
+      <c r="F370" s="3"/>
+      <c r="G370" s="3"/>
+      <c r="H370" s="3"/>
+      <c r="I370" s="3"/>
+      <c r="J370" s="3"/>
+      <c r="K370" s="3"/>
+      <c r="L370" s="3"/>
+      <c r="M370" s="3"/>
+      <c r="N370" s="3"/>
+      <c r="O370" s="3"/>
+      <c r="P370" s="3"/>
+      <c r="Q370" s="3"/>
+      <c r="R370" s="3"/>
+      <c r="S370" s="3"/>
+      <c r="T370" s="3"/>
+      <c r="U370" s="3"/>
+      <c r="V370" s="3"/>
+      <c r="W370" s="3"/>
+      <c r="X370" s="3"/>
+      <c r="Y370" s="3"/>
+    </row>
+    <row r="371" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A371" s="4"/>
+      <c r="B371" s="3"/>
+      <c r="C371" s="3"/>
+      <c r="D371" s="5"/>
+      <c r="E371" s="5"/>
+      <c r="F371" s="3"/>
+      <c r="G371" s="3"/>
+      <c r="H371" s="3"/>
+      <c r="I371" s="3"/>
+      <c r="J371" s="3"/>
+      <c r="K371" s="3"/>
+      <c r="L371" s="3"/>
+      <c r="M371" s="3"/>
+      <c r="N371" s="3"/>
+      <c r="O371" s="3"/>
+      <c r="P371" s="3"/>
+      <c r="Q371" s="3"/>
+      <c r="R371" s="3"/>
+      <c r="S371" s="3"/>
+      <c r="T371" s="3"/>
+      <c r="U371" s="3"/>
+      <c r="V371" s="3"/>
+      <c r="W371" s="3"/>
+      <c r="X371" s="3"/>
+      <c r="Y371" s="3"/>
+    </row>
+    <row r="372" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A372" s="4"/>
+      <c r="B372" s="3"/>
+      <c r="C372" s="3"/>
+      <c r="D372" s="5"/>
+      <c r="E372" s="5"/>
+      <c r="F372" s="3"/>
+      <c r="G372" s="3"/>
+      <c r="H372" s="3"/>
+      <c r="I372" s="3"/>
+      <c r="J372" s="3"/>
+      <c r="K372" s="3"/>
+      <c r="L372" s="3"/>
+      <c r="M372" s="3"/>
+      <c r="N372" s="3"/>
+      <c r="O372" s="3"/>
+      <c r="P372" s="3"/>
+      <c r="Q372" s="3"/>
+      <c r="R372" s="3"/>
+      <c r="S372" s="3"/>
+      <c r="T372" s="3"/>
+      <c r="U372" s="3"/>
+      <c r="V372" s="3"/>
+      <c r="W372" s="3"/>
+      <c r="X372" s="3"/>
+      <c r="Y372" s="3"/>
+    </row>
+    <row r="373" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A373" s="4"/>
+      <c r="B373" s="3"/>
+      <c r="C373" s="3"/>
+      <c r="D373" s="5"/>
+      <c r="E373" s="5"/>
+      <c r="F373" s="3"/>
+      <c r="G373" s="3"/>
+      <c r="H373" s="3"/>
+      <c r="I373" s="3"/>
+      <c r="J373" s="3"/>
+      <c r="K373" s="3"/>
+      <c r="L373" s="3"/>
+      <c r="M373" s="3"/>
+      <c r="N373" s="3"/>
+      <c r="O373" s="3"/>
+      <c r="P373" s="3"/>
+      <c r="Q373" s="3"/>
+      <c r="R373" s="3"/>
+      <c r="S373" s="3"/>
+      <c r="T373" s="3"/>
+      <c r="U373" s="3"/>
+      <c r="V373" s="3"/>
+      <c r="W373" s="3"/>
+      <c r="X373" s="3"/>
+      <c r="Y373" s="3"/>
+    </row>
+    <row r="374" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A374" s="4"/>
+      <c r="B374" s="3"/>
+      <c r="C374" s="3"/>
+      <c r="D374" s="5"/>
+      <c r="E374" s="5"/>
+      <c r="F374" s="3"/>
+      <c r="G374" s="3"/>
+      <c r="H374" s="3"/>
+      <c r="I374" s="3"/>
+      <c r="J374" s="3"/>
+      <c r="K374" s="3"/>
+      <c r="L374" s="3"/>
+      <c r="M374" s="3"/>
+      <c r="N374" s="3"/>
+      <c r="O374" s="3"/>
+      <c r="P374" s="3"/>
+      <c r="Q374" s="3"/>
+      <c r="R374" s="3"/>
+      <c r="S374" s="3"/>
+      <c r="T374" s="3"/>
+      <c r="U374" s="3"/>
+      <c r="V374" s="3"/>
+      <c r="W374" s="3"/>
+      <c r="X374" s="3"/>
+      <c r="Y374" s="3"/>
+    </row>
+    <row r="375" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A375" s="4"/>
+      <c r="B375" s="3"/>
+      <c r="C375" s="3"/>
+      <c r="D375" s="5"/>
+      <c r="E375" s="5"/>
+      <c r="F375" s="3"/>
+      <c r="G375" s="3"/>
+      <c r="H375" s="3"/>
+      <c r="I375" s="3"/>
+      <c r="J375" s="3"/>
+      <c r="K375" s="3"/>
+      <c r="L375" s="3"/>
+      <c r="M375" s="3"/>
+      <c r="N375" s="3"/>
+      <c r="O375" s="3"/>
+      <c r="P375" s="3"/>
+      <c r="Q375" s="3"/>
+      <c r="R375" s="3"/>
+      <c r="S375" s="3"/>
+      <c r="T375" s="3"/>
+      <c r="U375" s="3"/>
+      <c r="V375" s="3"/>
+      <c r="W375" s="3"/>
+      <c r="X375" s="3"/>
+      <c r="Y375" s="3"/>
+    </row>
+    <row r="376" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A376" s="4"/>
+      <c r="B376" s="3"/>
+      <c r="C376" s="3"/>
+      <c r="D376" s="5"/>
+      <c r="E376" s="5"/>
+      <c r="F376" s="3"/>
+      <c r="G376" s="3"/>
+      <c r="H376" s="3"/>
+      <c r="I376" s="3"/>
+      <c r="J376" s="3"/>
+      <c r="K376" s="3"/>
+      <c r="L376" s="3"/>
+      <c r="M376" s="3"/>
+      <c r="N376" s="3"/>
+      <c r="O376" s="3"/>
+      <c r="P376" s="3"/>
+      <c r="Q376" s="3"/>
+      <c r="R376" s="3"/>
+      <c r="S376" s="3"/>
+      <c r="T376" s="3"/>
+      <c r="U376" s="3"/>
+      <c r="V376" s="3"/>
+      <c r="W376" s="3"/>
+      <c r="X376" s="3"/>
+      <c r="Y376" s="3"/>
+    </row>
+    <row r="377" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A377" s="4"/>
+      <c r="B377" s="3"/>
+      <c r="C377" s="3"/>
+      <c r="D377" s="5"/>
+      <c r="E377" s="5"/>
+      <c r="F377" s="3"/>
+      <c r="G377" s="3"/>
+      <c r="H377" s="3"/>
+      <c r="I377" s="3"/>
+      <c r="J377" s="3"/>
+      <c r="K377" s="3"/>
+      <c r="L377" s="3"/>
+      <c r="M377" s="3"/>
+      <c r="N377" s="3"/>
+      <c r="O377" s="3"/>
+      <c r="P377" s="3"/>
+      <c r="Q377" s="3"/>
+      <c r="R377" s="3"/>
+      <c r="S377" s="3"/>
+      <c r="T377" s="3"/>
+      <c r="U377" s="3"/>
+      <c r="V377" s="3"/>
+      <c r="W377" s="3"/>
+      <c r="X377" s="3"/>
+      <c r="Y377" s="3"/>
+    </row>
+    <row r="378" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A378" s="4"/>
+      <c r="B378" s="3"/>
+      <c r="C378" s="3"/>
+      <c r="D378" s="5"/>
+      <c r="E378" s="5"/>
+      <c r="F378" s="3"/>
+      <c r="G378" s="3"/>
+      <c r="H378" s="3"/>
+      <c r="I378" s="3"/>
+      <c r="J378" s="3"/>
+      <c r="K378" s="3"/>
+      <c r="L378" s="3"/>
+      <c r="M378" s="3"/>
+      <c r="N378" s="3"/>
+      <c r="O378" s="3"/>
+      <c r="P378" s="3"/>
+      <c r="Q378" s="3"/>
+      <c r="R378" s="3"/>
+      <c r="S378" s="3"/>
+      <c r="T378" s="3"/>
+      <c r="U378" s="3"/>
+      <c r="V378" s="3"/>
+      <c r="W378" s="3"/>
+      <c r="X378" s="3"/>
+      <c r="Y378" s="3"/>
+    </row>
+    <row r="379" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A379" s="4"/>
+      <c r="B379" s="3"/>
+      <c r="C379" s="3"/>
+      <c r="D379" s="5"/>
+      <c r="E379" s="5"/>
+      <c r="F379" s="3"/>
+      <c r="G379" s="3"/>
+      <c r="H379" s="3"/>
+      <c r="I379" s="3"/>
+      <c r="J379" s="3"/>
+      <c r="K379" s="3"/>
+      <c r="L379" s="3"/>
+      <c r="M379" s="3"/>
+      <c r="N379" s="3"/>
+      <c r="O379" s="3"/>
+      <c r="P379" s="3"/>
+      <c r="Q379" s="3"/>
+      <c r="R379" s="3"/>
+      <c r="S379" s="3"/>
+      <c r="T379" s="3"/>
+      <c r="U379" s="3"/>
+      <c r="V379" s="3"/>
+      <c r="W379" s="3"/>
+      <c r="X379" s="3"/>
+      <c r="Y379" s="3"/>
+    </row>
+    <row r="380" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A380" s="4"/>
+      <c r="B380" s="3"/>
+      <c r="C380" s="3"/>
+      <c r="D380" s="5"/>
+      <c r="E380" s="5"/>
+      <c r="F380" s="3"/>
+      <c r="G380" s="3"/>
+      <c r="H380" s="3"/>
+      <c r="I380" s="3"/>
+      <c r="J380" s="3"/>
+      <c r="K380" s="3"/>
+      <c r="L380" s="3"/>
+      <c r="M380" s="3"/>
+      <c r="N380" s="3"/>
+      <c r="O380" s="3"/>
+      <c r="P380" s="3"/>
+      <c r="Q380" s="3"/>
+      <c r="R380" s="3"/>
+      <c r="S380" s="3"/>
+      <c r="T380" s="3"/>
+      <c r="U380" s="3"/>
+      <c r="V380" s="3"/>
+      <c r="W380" s="3"/>
+      <c r="X380" s="3"/>
+      <c r="Y380" s="3"/>
+    </row>
+    <row r="381" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A381" s="4"/>
+      <c r="B381" s="3"/>
+      <c r="C381" s="3"/>
+      <c r="D381" s="5"/>
+      <c r="E381" s="5"/>
+      <c r="F381" s="3"/>
+      <c r="G381" s="3"/>
+      <c r="H381" s="3"/>
+      <c r="I381" s="3"/>
+      <c r="J381" s="3"/>
+      <c r="K381" s="3"/>
+      <c r="L381" s="3"/>
+      <c r="M381" s="3"/>
+      <c r="N381" s="3"/>
+      <c r="O381" s="3"/>
+      <c r="P381" s="3"/>
+      <c r="Q381" s="3"/>
+      <c r="R381" s="3"/>
+      <c r="S381" s="3"/>
+      <c r="T381" s="3"/>
+      <c r="U381" s="3"/>
+      <c r="V381" s="3"/>
+      <c r="W381" s="3"/>
+      <c r="X381" s="3"/>
+      <c r="Y381" s="3"/>
+    </row>
+    <row r="382" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A382" s="4"/>
+      <c r="B382" s="3"/>
+      <c r="C382" s="3"/>
+      <c r="D382" s="5"/>
+      <c r="E382" s="5"/>
+      <c r="F382" s="3"/>
+      <c r="G382" s="3"/>
+      <c r="H382" s="3"/>
+      <c r="I382" s="3"/>
+      <c r="J382" s="3"/>
+      <c r="K382" s="3"/>
+      <c r="L382" s="3"/>
+      <c r="M382" s="3"/>
+      <c r="N382" s="3"/>
+      <c r="O382" s="3"/>
+      <c r="P382" s="3"/>
+      <c r="Q382" s="3"/>
+      <c r="R382" s="3"/>
+      <c r="S382" s="3"/>
+      <c r="T382" s="3"/>
+      <c r="U382" s="3"/>
+      <c r="V382" s="3"/>
+      <c r="W382" s="3"/>
+      <c r="X382" s="3"/>
+      <c r="Y382" s="3"/>
+    </row>
+    <row r="383" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A383" s="4"/>
+      <c r="B383" s="3"/>
+      <c r="C383" s="3"/>
+      <c r="D383" s="5"/>
+      <c r="E383" s="5"/>
+      <c r="F383" s="3"/>
+      <c r="G383" s="3"/>
+      <c r="H383" s="3"/>
+      <c r="I383" s="3"/>
+      <c r="J383" s="3"/>
+      <c r="K383" s="3"/>
+      <c r="L383" s="3"/>
+      <c r="M383" s="3"/>
+      <c r="N383" s="3"/>
+      <c r="O383" s="3"/>
+      <c r="P383" s="3"/>
+      <c r="Q383" s="3"/>
+      <c r="R383" s="3"/>
+      <c r="S383" s="3"/>
+      <c r="T383" s="3"/>
+      <c r="U383" s="3"/>
+      <c r="V383" s="3"/>
+      <c r="W383" s="3"/>
+      <c r="X383" s="3"/>
+      <c r="Y383" s="3"/>
+    </row>
+    <row r="384" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A384" s="4"/>
+      <c r="B384" s="3"/>
+      <c r="C384" s="3"/>
+      <c r="D384" s="5"/>
+      <c r="E384" s="5"/>
+      <c r="F384" s="3"/>
+      <c r="G384" s="3"/>
+      <c r="H384" s="3"/>
+      <c r="I384" s="3"/>
+      <c r="J384" s="3"/>
+      <c r="K384" s="3"/>
+      <c r="L384" s="3"/>
+      <c r="M384" s="3"/>
+      <c r="N384" s="3"/>
+      <c r="O384" s="3"/>
+      <c r="P384" s="3"/>
+      <c r="Q384" s="3"/>
+      <c r="R384" s="3"/>
+      <c r="S384" s="3"/>
+      <c r="T384" s="3"/>
+      <c r="U384" s="3"/>
+      <c r="V384" s="3"/>
+      <c r="W384" s="3"/>
+      <c r="X384" s="3"/>
+      <c r="Y384" s="3"/>
+    </row>
+    <row r="385" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A385" s="4"/>
+      <c r="B385" s="3"/>
+      <c r="C385" s="3"/>
+      <c r="D385" s="5"/>
+      <c r="E385" s="5"/>
+      <c r="F385" s="3"/>
+      <c r="G385" s="3"/>
+      <c r="H385" s="3"/>
+      <c r="I385" s="3"/>
+      <c r="J385" s="3"/>
+      <c r="K385" s="3"/>
+      <c r="L385" s="3"/>
+      <c r="M385" s="3"/>
+      <c r="N385" s="3"/>
+      <c r="O385" s="3"/>
+      <c r="P385" s="3"/>
+      <c r="Q385" s="3"/>
+      <c r="R385" s="3"/>
+      <c r="S385" s="3"/>
+      <c r="T385" s="3"/>
+      <c r="U385" s="3"/>
+      <c r="V385" s="3"/>
+      <c r="W385" s="3"/>
+      <c r="X385" s="3"/>
+      <c r="Y385" s="3"/>
+    </row>
+    <row r="386" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A386" s="4"/>
+      <c r="B386" s="3"/>
+      <c r="C386" s="3"/>
+      <c r="D386" s="5"/>
+      <c r="E386" s="5"/>
+      <c r="F386" s="3"/>
+      <c r="G386" s="3"/>
+      <c r="H386" s="3"/>
+      <c r="I386" s="3"/>
+      <c r="J386" s="3"/>
+      <c r="K386" s="3"/>
+      <c r="L386" s="3"/>
+      <c r="M386" s="3"/>
+      <c r="N386" s="3"/>
+      <c r="O386" s="3"/>
+      <c r="P386" s="3"/>
+      <c r="Q386" s="3"/>
+      <c r="R386" s="3"/>
+      <c r="S386" s="3"/>
+      <c r="T386" s="3"/>
+      <c r="U386" s="3"/>
+      <c r="V386" s="3"/>
+      <c r="W386" s="3"/>
+      <c r="X386" s="3"/>
+      <c r="Y386" s="3"/>
+    </row>
+    <row r="387" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A387" s="4"/>
+      <c r="B387" s="3"/>
+      <c r="C387" s="3"/>
+      <c r="D387" s="5"/>
+      <c r="E387" s="5"/>
+      <c r="F387" s="3"/>
+      <c r="G387" s="3"/>
+      <c r="H387" s="3"/>
+      <c r="I387" s="3"/>
+      <c r="J387" s="3"/>
+      <c r="K387" s="3"/>
+      <c r="L387" s="3"/>
+      <c r="M387" s="3"/>
+      <c r="N387" s="3"/>
+      <c r="O387" s="3"/>
+      <c r="P387" s="3"/>
+      <c r="Q387" s="3"/>
+      <c r="R387" s="3"/>
+      <c r="S387" s="3"/>
+      <c r="T387" s="3"/>
+      <c r="U387" s="3"/>
+      <c r="V387" s="3"/>
+      <c r="W387" s="3"/>
+      <c r="X387" s="3"/>
+      <c r="Y387" s="3"/>
+    </row>
+    <row r="388" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A388" s="4"/>
+      <c r="B388" s="3"/>
+      <c r="C388" s="3"/>
+      <c r="D388" s="5"/>
+      <c r="E388" s="5"/>
+      <c r="F388" s="3"/>
+      <c r="G388" s="3"/>
+      <c r="H388" s="3"/>
+      <c r="I388" s="3"/>
+      <c r="J388" s="3"/>
+      <c r="K388" s="3"/>
+      <c r="L388" s="3"/>
+      <c r="M388" s="3"/>
+      <c r="N388" s="3"/>
+      <c r="O388" s="3"/>
+      <c r="P388" s="3"/>
+      <c r="Q388" s="3"/>
+      <c r="R388" s="3"/>
+      <c r="S388" s="3"/>
+      <c r="T388" s="3"/>
+      <c r="U388" s="3"/>
+      <c r="V388" s="3"/>
+      <c r="W388" s="3"/>
+      <c r="X388" s="3"/>
+      <c r="Y388" s="3"/>
+    </row>
+    <row r="389" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A389" s="4"/>
+      <c r="B389" s="3"/>
+      <c r="C389" s="3"/>
+      <c r="D389" s="5"/>
+      <c r="E389" s="5"/>
+      <c r="F389" s="3"/>
+      <c r="G389" s="3"/>
+      <c r="H389" s="3"/>
+      <c r="I389" s="3"/>
+      <c r="J389" s="3"/>
+      <c r="K389" s="3"/>
+      <c r="L389" s="3"/>
+      <c r="M389" s="3"/>
+      <c r="N389" s="3"/>
+      <c r="O389" s="3"/>
+      <c r="P389" s="3"/>
+      <c r="Q389" s="3"/>
+      <c r="R389" s="3"/>
+      <c r="S389" s="3"/>
+      <c r="T389" s="3"/>
+      <c r="U389" s="3"/>
+      <c r="V389" s="3"/>
+      <c r="W389" s="3"/>
+      <c r="X389" s="3"/>
+      <c r="Y389" s="3"/>
+    </row>
+    <row r="390" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A390" s="4"/>
+      <c r="B390" s="3"/>
+      <c r="C390" s="3"/>
+      <c r="D390" s="5"/>
+      <c r="E390" s="5"/>
+      <c r="F390" s="3"/>
+      <c r="G390" s="3"/>
+      <c r="H390" s="3"/>
+      <c r="I390" s="3"/>
+      <c r="J390" s="3"/>
+      <c r="K390" s="3"/>
+      <c r="L390" s="3"/>
+      <c r="M390" s="3"/>
+      <c r="N390" s="3"/>
+      <c r="O390" s="3"/>
+      <c r="P390" s="3"/>
+      <c r="Q390" s="3"/>
+      <c r="R390" s="3"/>
+      <c r="S390" s="3"/>
+      <c r="T390" s="3"/>
+      <c r="U390" s="3"/>
+      <c r="V390" s="3"/>
+      <c r="W390" s="3"/>
+      <c r="X390" s="3"/>
+      <c r="Y390" s="3"/>
+    </row>
+    <row r="391" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A391" s="4"/>
+      <c r="B391" s="3"/>
+      <c r="C391" s="3"/>
+      <c r="D391" s="5"/>
+      <c r="E391" s="5"/>
+      <c r="F391" s="3"/>
+      <c r="G391" s="3"/>
+      <c r="H391" s="3"/>
+      <c r="I391" s="3"/>
+      <c r="J391" s="3"/>
+      <c r="K391" s="3"/>
+      <c r="L391" s="3"/>
+      <c r="M391" s="3"/>
+      <c r="N391" s="3"/>
+      <c r="O391" s="3"/>
+      <c r="P391" s="3"/>
+      <c r="Q391" s="3"/>
+      <c r="R391" s="3"/>
+      <c r="S391" s="3"/>
+      <c r="T391" s="3"/>
+      <c r="U391" s="3"/>
+      <c r="V391" s="3"/>
+      <c r="W391" s="3"/>
+      <c r="X391" s="3"/>
+      <c r="Y391" s="3"/>
+    </row>
+    <row r="392" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A392" s="4"/>
+      <c r="B392" s="3"/>
+      <c r="C392" s="3"/>
+      <c r="D392" s="5"/>
+      <c r="E392" s="5"/>
+      <c r="F392" s="3"/>
+      <c r="G392" s="3"/>
+      <c r="H392" s="3"/>
+      <c r="I392" s="3"/>
+      <c r="J392" s="3"/>
+      <c r="K392" s="3"/>
+      <c r="L392" s="3"/>
+      <c r="M392" s="3"/>
+      <c r="N392" s="3"/>
+      <c r="O392" s="3"/>
+      <c r="P392" s="3"/>
+      <c r="Q392" s="3"/>
+      <c r="R392" s="3"/>
+      <c r="S392" s="3"/>
+      <c r="T392" s="3"/>
+      <c r="U392" s="3"/>
+      <c r="V392" s="3"/>
+      <c r="W392" s="3"/>
+      <c r="X392" s="3"/>
+      <c r="Y392" s="3"/>
+    </row>
+    <row r="393" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A393" s="4"/>
+      <c r="B393" s="3"/>
+      <c r="C393" s="3"/>
+      <c r="D393" s="5"/>
+      <c r="E393" s="5"/>
+      <c r="F393" s="3"/>
+      <c r="G393" s="3"/>
+      <c r="H393" s="3"/>
+      <c r="I393" s="3"/>
+      <c r="J393" s="3"/>
+      <c r="K393" s="3"/>
+      <c r="L393" s="3"/>
+      <c r="M393" s="3"/>
+      <c r="N393" s="3"/>
+      <c r="O393" s="3"/>
+      <c r="P393" s="3"/>
+      <c r="Q393" s="3"/>
+      <c r="R393" s="3"/>
+      <c r="S393" s="3"/>
+      <c r="T393" s="3"/>
+      <c r="U393" s="3"/>
+      <c r="V393" s="3"/>
+      <c r="W393" s="3"/>
+      <c r="X393" s="3"/>
+      <c r="Y393" s="3"/>
+    </row>
+    <row r="394" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A394" s="4"/>
+      <c r="B394" s="3"/>
+      <c r="C394" s="3"/>
+      <c r="D394" s="5"/>
+      <c r="E394" s="5"/>
+      <c r="F394" s="3"/>
+      <c r="G394" s="3"/>
+      <c r="H394" s="3"/>
+      <c r="I394" s="3"/>
+      <c r="J394" s="3"/>
+      <c r="K394" s="3"/>
+      <c r="L394" s="3"/>
+      <c r="M394" s="3"/>
+      <c r="N394" s="3"/>
+      <c r="O394" s="3"/>
+      <c r="P394" s="3"/>
+      <c r="Q394" s="3"/>
+      <c r="R394" s="3"/>
+      <c r="S394" s="3"/>
+      <c r="T394" s="3"/>
+      <c r="U394" s="3"/>
+      <c r="V394" s="3"/>
+      <c r="W394" s="3"/>
+      <c r="X394" s="3"/>
+      <c r="Y394" s="3"/>
+    </row>
+    <row r="395" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A395" s="4"/>
+      <c r="B395" s="3"/>
+      <c r="C395" s="3"/>
+      <c r="D395" s="5"/>
+      <c r="E395" s="5"/>
+      <c r="F395" s="3"/>
+      <c r="G395" s="3"/>
+      <c r="H395" s="3"/>
+      <c r="I395" s="3"/>
+      <c r="J395" s="3"/>
+      <c r="K395" s="3"/>
+      <c r="L395" s="3"/>
+      <c r="M395" s="3"/>
+      <c r="N395" s="3"/>
+      <c r="O395" s="3"/>
+      <c r="P395" s="3"/>
+      <c r="Q395" s="3"/>
+      <c r="R395" s="3"/>
+      <c r="S395" s="3"/>
+      <c r="T395" s="3"/>
+      <c r="U395" s="3"/>
+      <c r="V395" s="3"/>
+      <c r="W395" s="3"/>
+      <c r="X395" s="3"/>
+      <c r="Y395" s="3"/>
+    </row>
+    <row r="396" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A396" s="4"/>
+      <c r="B396" s="3"/>
+      <c r="C396" s="3"/>
+      <c r="D396" s="5"/>
+      <c r="E396" s="5"/>
+      <c r="F396" s="3"/>
+      <c r="G396" s="3"/>
+      <c r="H396" s="3"/>
+      <c r="I396" s="3"/>
+      <c r="J396" s="3"/>
+      <c r="K396" s="3"/>
+      <c r="L396" s="3"/>
+      <c r="M396" s="3"/>
+      <c r="N396" s="3"/>
+      <c r="O396" s="3"/>
+      <c r="P396" s="3"/>
+      <c r="Q396" s="3"/>
+      <c r="R396" s="3"/>
+      <c r="S396" s="3"/>
+      <c r="T396" s="3"/>
+      <c r="U396" s="3"/>
+      <c r="V396" s="3"/>
+      <c r="W396" s="3"/>
+      <c r="X396" s="3"/>
+      <c r="Y396" s="3"/>
+    </row>
+    <row r="397" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A397" s="4"/>
+      <c r="B397" s="3"/>
+      <c r="C397" s="3"/>
+      <c r="D397" s="5"/>
+      <c r="E397" s="5"/>
+      <c r="F397" s="3"/>
+      <c r="G397" s="3"/>
+      <c r="H397" s="3"/>
+      <c r="I397" s="3"/>
+      <c r="J397" s="3"/>
+      <c r="K397" s="3"/>
+      <c r="L397" s="3"/>
+      <c r="M397" s="3"/>
+      <c r="N397" s="3"/>
+      <c r="O397" s="3"/>
+      <c r="P397" s="3"/>
+      <c r="Q397" s="3"/>
+      <c r="R397" s="3"/>
+      <c r="S397" s="3"/>
+      <c r="T397" s="3"/>
+      <c r="U397" s="3"/>
+      <c r="V397" s="3"/>
+      <c r="W397" s="3"/>
+      <c r="X397" s="3"/>
+      <c r="Y397" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D329">
+  <conditionalFormatting sqref="D1:D397">
     <cfRule type="cellIs" priority="1" dxfId="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
@@ -9571,7 +11415,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E329">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E397">
       <formula1>'Group-Turn'!$A:$A</formula1>
     </dataValidation>
   </dataValidations>
@@ -9588,7 +11432,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="topLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
@@ -9648,7 +11492,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="11">
-        <v>200.0</v>
+        <v>30.0</v>
       </c>
       <c r="D2" s="11">
         <v>1.0</v>
@@ -17519,7 +19363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{e6551d4c-ad1b-4498-915e-0edfaef1ce8c}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329d9a98-92b7-43b3-a000-f11e6fe09326}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -17527,7 +19371,7 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="5" spans="1:1" ht="23.25" customHeight="1">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="21" t="s">
         <v>40</v>
       </c>
     </row>

--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Scope" sheetId="1" r:id="rId3"/>
@@ -17,7 +17,7 @@
     <sheet name="Options" sheetId="3" r:id="rId5"/>
     <sheet name="Group-Turn" sheetId="4" r:id="rId6"/>
     <sheet name="Note" sheetId="5" r:id="rId7"/>
-    <sheet name="Evaluation Warning" sheetId="400" r:id="rId8"/>
+    <sheet name="Evaluation Warning" sheetId="486" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -149,10 +149,10 @@
     <t>Evaluation Only. Created with Aspose.Cells for Java.Copyright 2003 - 2021 Aspose Pty Ltd.</t>
   </si>
   <si>
-    <t>Report_BE.RWB01RecordBlending(Clone)</t>
+    <t>Report_BE.STW01SortTheWords(Clone)</t>
   </si>
   <si>
-    <t>RecordBlending</t>
+    <t>SortTheWord</t>
   </si>
 </sst>
 </file>
@@ -291,7 +291,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -318,18 +318,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -650,7 +638,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y397"/>
+  <dimension ref="A1:Y483"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -11402,8 +11390,2330 @@
       <c r="X397" s="3"/>
       <c r="Y397" s="3"/>
     </row>
+    <row r="398" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A398" s="4"/>
+      <c r="B398" s="3"/>
+      <c r="C398" s="3"/>
+      <c r="D398" s="5"/>
+      <c r="E398" s="5"/>
+      <c r="F398" s="3"/>
+      <c r="G398" s="3"/>
+      <c r="H398" s="3"/>
+      <c r="I398" s="3"/>
+      <c r="J398" s="3"/>
+      <c r="K398" s="3"/>
+      <c r="L398" s="3"/>
+      <c r="M398" s="3"/>
+      <c r="N398" s="3"/>
+      <c r="O398" s="3"/>
+      <c r="P398" s="3"/>
+      <c r="Q398" s="3"/>
+      <c r="R398" s="3"/>
+      <c r="S398" s="3"/>
+      <c r="T398" s="3"/>
+      <c r="U398" s="3"/>
+      <c r="V398" s="3"/>
+      <c r="W398" s="3"/>
+      <c r="X398" s="3"/>
+      <c r="Y398" s="3"/>
+    </row>
+    <row r="399" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A399" s="4"/>
+      <c r="B399" s="3"/>
+      <c r="C399" s="3"/>
+      <c r="D399" s="5"/>
+      <c r="E399" s="5"/>
+      <c r="F399" s="3"/>
+      <c r="G399" s="3"/>
+      <c r="H399" s="3"/>
+      <c r="I399" s="3"/>
+      <c r="J399" s="3"/>
+      <c r="K399" s="3"/>
+      <c r="L399" s="3"/>
+      <c r="M399" s="3"/>
+      <c r="N399" s="3"/>
+      <c r="O399" s="3"/>
+      <c r="P399" s="3"/>
+      <c r="Q399" s="3"/>
+      <c r="R399" s="3"/>
+      <c r="S399" s="3"/>
+      <c r="T399" s="3"/>
+      <c r="U399" s="3"/>
+      <c r="V399" s="3"/>
+      <c r="W399" s="3"/>
+      <c r="X399" s="3"/>
+      <c r="Y399" s="3"/>
+    </row>
+    <row r="400" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A400" s="4"/>
+      <c r="B400" s="3"/>
+      <c r="C400" s="3"/>
+      <c r="D400" s="5"/>
+      <c r="E400" s="5"/>
+      <c r="F400" s="3"/>
+      <c r="G400" s="3"/>
+      <c r="H400" s="3"/>
+      <c r="I400" s="3"/>
+      <c r="J400" s="3"/>
+      <c r="K400" s="3"/>
+      <c r="L400" s="3"/>
+      <c r="M400" s="3"/>
+      <c r="N400" s="3"/>
+      <c r="O400" s="3"/>
+      <c r="P400" s="3"/>
+      <c r="Q400" s="3"/>
+      <c r="R400" s="3"/>
+      <c r="S400" s="3"/>
+      <c r="T400" s="3"/>
+      <c r="U400" s="3"/>
+      <c r="V400" s="3"/>
+      <c r="W400" s="3"/>
+      <c r="X400" s="3"/>
+      <c r="Y400" s="3"/>
+    </row>
+    <row r="401" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A401" s="4"/>
+      <c r="B401" s="3"/>
+      <c r="C401" s="3"/>
+      <c r="D401" s="5"/>
+      <c r="E401" s="5"/>
+      <c r="F401" s="3"/>
+      <c r="G401" s="3"/>
+      <c r="H401" s="3"/>
+      <c r="I401" s="3"/>
+      <c r="J401" s="3"/>
+      <c r="K401" s="3"/>
+      <c r="L401" s="3"/>
+      <c r="M401" s="3"/>
+      <c r="N401" s="3"/>
+      <c r="O401" s="3"/>
+      <c r="P401" s="3"/>
+      <c r="Q401" s="3"/>
+      <c r="R401" s="3"/>
+      <c r="S401" s="3"/>
+      <c r="T401" s="3"/>
+      <c r="U401" s="3"/>
+      <c r="V401" s="3"/>
+      <c r="W401" s="3"/>
+      <c r="X401" s="3"/>
+      <c r="Y401" s="3"/>
+    </row>
+    <row r="402" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A402" s="4"/>
+      <c r="B402" s="3"/>
+      <c r="C402" s="3"/>
+      <c r="D402" s="5"/>
+      <c r="E402" s="5"/>
+      <c r="F402" s="3"/>
+      <c r="G402" s="3"/>
+      <c r="H402" s="3"/>
+      <c r="I402" s="3"/>
+      <c r="J402" s="3"/>
+      <c r="K402" s="3"/>
+      <c r="L402" s="3"/>
+      <c r="M402" s="3"/>
+      <c r="N402" s="3"/>
+      <c r="O402" s="3"/>
+      <c r="P402" s="3"/>
+      <c r="Q402" s="3"/>
+      <c r="R402" s="3"/>
+      <c r="S402" s="3"/>
+      <c r="T402" s="3"/>
+      <c r="U402" s="3"/>
+      <c r="V402" s="3"/>
+      <c r="W402" s="3"/>
+      <c r="X402" s="3"/>
+      <c r="Y402" s="3"/>
+    </row>
+    <row r="403" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A403" s="4"/>
+      <c r="B403" s="3"/>
+      <c r="C403" s="3"/>
+      <c r="D403" s="5"/>
+      <c r="E403" s="5"/>
+      <c r="F403" s="3"/>
+      <c r="G403" s="3"/>
+      <c r="H403" s="3"/>
+      <c r="I403" s="3"/>
+      <c r="J403" s="3"/>
+      <c r="K403" s="3"/>
+      <c r="L403" s="3"/>
+      <c r="M403" s="3"/>
+      <c r="N403" s="3"/>
+      <c r="O403" s="3"/>
+      <c r="P403" s="3"/>
+      <c r="Q403" s="3"/>
+      <c r="R403" s="3"/>
+      <c r="S403" s="3"/>
+      <c r="T403" s="3"/>
+      <c r="U403" s="3"/>
+      <c r="V403" s="3"/>
+      <c r="W403" s="3"/>
+      <c r="X403" s="3"/>
+      <c r="Y403" s="3"/>
+    </row>
+    <row r="404" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A404" s="4"/>
+      <c r="B404" s="3"/>
+      <c r="C404" s="3"/>
+      <c r="D404" s="5"/>
+      <c r="E404" s="5"/>
+      <c r="F404" s="3"/>
+      <c r="G404" s="3"/>
+      <c r="H404" s="3"/>
+      <c r="I404" s="3"/>
+      <c r="J404" s="3"/>
+      <c r="K404" s="3"/>
+      <c r="L404" s="3"/>
+      <c r="M404" s="3"/>
+      <c r="N404" s="3"/>
+      <c r="O404" s="3"/>
+      <c r="P404" s="3"/>
+      <c r="Q404" s="3"/>
+      <c r="R404" s="3"/>
+      <c r="S404" s="3"/>
+      <c r="T404" s="3"/>
+      <c r="U404" s="3"/>
+      <c r="V404" s="3"/>
+      <c r="W404" s="3"/>
+      <c r="X404" s="3"/>
+      <c r="Y404" s="3"/>
+    </row>
+    <row r="405" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A405" s="4"/>
+      <c r="B405" s="3"/>
+      <c r="C405" s="3"/>
+      <c r="D405" s="5"/>
+      <c r="E405" s="5"/>
+      <c r="F405" s="3"/>
+      <c r="G405" s="3"/>
+      <c r="H405" s="3"/>
+      <c r="I405" s="3"/>
+      <c r="J405" s="3"/>
+      <c r="K405" s="3"/>
+      <c r="L405" s="3"/>
+      <c r="M405" s="3"/>
+      <c r="N405" s="3"/>
+      <c r="O405" s="3"/>
+      <c r="P405" s="3"/>
+      <c r="Q405" s="3"/>
+      <c r="R405" s="3"/>
+      <c r="S405" s="3"/>
+      <c r="T405" s="3"/>
+      <c r="U405" s="3"/>
+      <c r="V405" s="3"/>
+      <c r="W405" s="3"/>
+      <c r="X405" s="3"/>
+      <c r="Y405" s="3"/>
+    </row>
+    <row r="406" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A406" s="4"/>
+      <c r="B406" s="3"/>
+      <c r="C406" s="3"/>
+      <c r="D406" s="5"/>
+      <c r="E406" s="5"/>
+      <c r="F406" s="3"/>
+      <c r="G406" s="3"/>
+      <c r="H406" s="3"/>
+      <c r="I406" s="3"/>
+      <c r="J406" s="3"/>
+      <c r="K406" s="3"/>
+      <c r="L406" s="3"/>
+      <c r="M406" s="3"/>
+      <c r="N406" s="3"/>
+      <c r="O406" s="3"/>
+      <c r="P406" s="3"/>
+      <c r="Q406" s="3"/>
+      <c r="R406" s="3"/>
+      <c r="S406" s="3"/>
+      <c r="T406" s="3"/>
+      <c r="U406" s="3"/>
+      <c r="V406" s="3"/>
+      <c r="W406" s="3"/>
+      <c r="X406" s="3"/>
+      <c r="Y406" s="3"/>
+    </row>
+    <row r="407" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A407" s="4"/>
+      <c r="B407" s="3"/>
+      <c r="C407" s="3"/>
+      <c r="D407" s="5"/>
+      <c r="E407" s="5"/>
+      <c r="F407" s="3"/>
+      <c r="G407" s="3"/>
+      <c r="H407" s="3"/>
+      <c r="I407" s="3"/>
+      <c r="J407" s="3"/>
+      <c r="K407" s="3"/>
+      <c r="L407" s="3"/>
+      <c r="M407" s="3"/>
+      <c r="N407" s="3"/>
+      <c r="O407" s="3"/>
+      <c r="P407" s="3"/>
+      <c r="Q407" s="3"/>
+      <c r="R407" s="3"/>
+      <c r="S407" s="3"/>
+      <c r="T407" s="3"/>
+      <c r="U407" s="3"/>
+      <c r="V407" s="3"/>
+      <c r="W407" s="3"/>
+      <c r="X407" s="3"/>
+      <c r="Y407" s="3"/>
+    </row>
+    <row r="408" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A408" s="4"/>
+      <c r="B408" s="3"/>
+      <c r="C408" s="3"/>
+      <c r="D408" s="5"/>
+      <c r="E408" s="5"/>
+      <c r="F408" s="3"/>
+      <c r="G408" s="3"/>
+      <c r="H408" s="3"/>
+      <c r="I408" s="3"/>
+      <c r="J408" s="3"/>
+      <c r="K408" s="3"/>
+      <c r="L408" s="3"/>
+      <c r="M408" s="3"/>
+      <c r="N408" s="3"/>
+      <c r="O408" s="3"/>
+      <c r="P408" s="3"/>
+      <c r="Q408" s="3"/>
+      <c r="R408" s="3"/>
+      <c r="S408" s="3"/>
+      <c r="T408" s="3"/>
+      <c r="U408" s="3"/>
+      <c r="V408" s="3"/>
+      <c r="W408" s="3"/>
+      <c r="X408" s="3"/>
+      <c r="Y408" s="3"/>
+    </row>
+    <row r="409" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A409" s="4"/>
+      <c r="B409" s="3"/>
+      <c r="C409" s="3"/>
+      <c r="D409" s="5"/>
+      <c r="E409" s="5"/>
+      <c r="F409" s="3"/>
+      <c r="G409" s="3"/>
+      <c r="H409" s="3"/>
+      <c r="I409" s="3"/>
+      <c r="J409" s="3"/>
+      <c r="K409" s="3"/>
+      <c r="L409" s="3"/>
+      <c r="M409" s="3"/>
+      <c r="N409" s="3"/>
+      <c r="O409" s="3"/>
+      <c r="P409" s="3"/>
+      <c r="Q409" s="3"/>
+      <c r="R409" s="3"/>
+      <c r="S409" s="3"/>
+      <c r="T409" s="3"/>
+      <c r="U409" s="3"/>
+      <c r="V409" s="3"/>
+      <c r="W409" s="3"/>
+      <c r="X409" s="3"/>
+      <c r="Y409" s="3"/>
+    </row>
+    <row r="410" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A410" s="4"/>
+      <c r="B410" s="3"/>
+      <c r="C410" s="3"/>
+      <c r="D410" s="5"/>
+      <c r="E410" s="5"/>
+      <c r="F410" s="3"/>
+      <c r="G410" s="3"/>
+      <c r="H410" s="3"/>
+      <c r="I410" s="3"/>
+      <c r="J410" s="3"/>
+      <c r="K410" s="3"/>
+      <c r="L410" s="3"/>
+      <c r="M410" s="3"/>
+      <c r="N410" s="3"/>
+      <c r="O410" s="3"/>
+      <c r="P410" s="3"/>
+      <c r="Q410" s="3"/>
+      <c r="R410" s="3"/>
+      <c r="S410" s="3"/>
+      <c r="T410" s="3"/>
+      <c r="U410" s="3"/>
+      <c r="V410" s="3"/>
+      <c r="W410" s="3"/>
+      <c r="X410" s="3"/>
+      <c r="Y410" s="3"/>
+    </row>
+    <row r="411" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A411" s="4"/>
+      <c r="B411" s="3"/>
+      <c r="C411" s="3"/>
+      <c r="D411" s="5"/>
+      <c r="E411" s="5"/>
+      <c r="F411" s="3"/>
+      <c r="G411" s="3"/>
+      <c r="H411" s="3"/>
+      <c r="I411" s="3"/>
+      <c r="J411" s="3"/>
+      <c r="K411" s="3"/>
+      <c r="L411" s="3"/>
+      <c r="M411" s="3"/>
+      <c r="N411" s="3"/>
+      <c r="O411" s="3"/>
+      <c r="P411" s="3"/>
+      <c r="Q411" s="3"/>
+      <c r="R411" s="3"/>
+      <c r="S411" s="3"/>
+      <c r="T411" s="3"/>
+      <c r="U411" s="3"/>
+      <c r="V411" s="3"/>
+      <c r="W411" s="3"/>
+      <c r="X411" s="3"/>
+      <c r="Y411" s="3"/>
+    </row>
+    <row r="412" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A412" s="4"/>
+      <c r="B412" s="3"/>
+      <c r="C412" s="3"/>
+      <c r="D412" s="5"/>
+      <c r="E412" s="5"/>
+      <c r="F412" s="3"/>
+      <c r="G412" s="3"/>
+      <c r="H412" s="3"/>
+      <c r="I412" s="3"/>
+      <c r="J412" s="3"/>
+      <c r="K412" s="3"/>
+      <c r="L412" s="3"/>
+      <c r="M412" s="3"/>
+      <c r="N412" s="3"/>
+      <c r="O412" s="3"/>
+      <c r="P412" s="3"/>
+      <c r="Q412" s="3"/>
+      <c r="R412" s="3"/>
+      <c r="S412" s="3"/>
+      <c r="T412" s="3"/>
+      <c r="U412" s="3"/>
+      <c r="V412" s="3"/>
+      <c r="W412" s="3"/>
+      <c r="X412" s="3"/>
+      <c r="Y412" s="3"/>
+    </row>
+    <row r="413" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A413" s="4"/>
+      <c r="B413" s="3"/>
+      <c r="C413" s="3"/>
+      <c r="D413" s="5"/>
+      <c r="E413" s="5"/>
+      <c r="F413" s="3"/>
+      <c r="G413" s="3"/>
+      <c r="H413" s="3"/>
+      <c r="I413" s="3"/>
+      <c r="J413" s="3"/>
+      <c r="K413" s="3"/>
+      <c r="L413" s="3"/>
+      <c r="M413" s="3"/>
+      <c r="N413" s="3"/>
+      <c r="O413" s="3"/>
+      <c r="P413" s="3"/>
+      <c r="Q413" s="3"/>
+      <c r="R413" s="3"/>
+      <c r="S413" s="3"/>
+      <c r="T413" s="3"/>
+      <c r="U413" s="3"/>
+      <c r="V413" s="3"/>
+      <c r="W413" s="3"/>
+      <c r="X413" s="3"/>
+      <c r="Y413" s="3"/>
+    </row>
+    <row r="414" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A414" s="4"/>
+      <c r="B414" s="3"/>
+      <c r="C414" s="3"/>
+      <c r="D414" s="5"/>
+      <c r="E414" s="5"/>
+      <c r="F414" s="3"/>
+      <c r="G414" s="3"/>
+      <c r="H414" s="3"/>
+      <c r="I414" s="3"/>
+      <c r="J414" s="3"/>
+      <c r="K414" s="3"/>
+      <c r="L414" s="3"/>
+      <c r="M414" s="3"/>
+      <c r="N414" s="3"/>
+      <c r="O414" s="3"/>
+      <c r="P414" s="3"/>
+      <c r="Q414" s="3"/>
+      <c r="R414" s="3"/>
+      <c r="S414" s="3"/>
+      <c r="T414" s="3"/>
+      <c r="U414" s="3"/>
+      <c r="V414" s="3"/>
+      <c r="W414" s="3"/>
+      <c r="X414" s="3"/>
+      <c r="Y414" s="3"/>
+    </row>
+    <row r="415" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A415" s="4"/>
+      <c r="B415" s="3"/>
+      <c r="C415" s="3"/>
+      <c r="D415" s="5"/>
+      <c r="E415" s="5"/>
+      <c r="F415" s="3"/>
+      <c r="G415" s="3"/>
+      <c r="H415" s="3"/>
+      <c r="I415" s="3"/>
+      <c r="J415" s="3"/>
+      <c r="K415" s="3"/>
+      <c r="L415" s="3"/>
+      <c r="M415" s="3"/>
+      <c r="N415" s="3"/>
+      <c r="O415" s="3"/>
+      <c r="P415" s="3"/>
+      <c r="Q415" s="3"/>
+      <c r="R415" s="3"/>
+      <c r="S415" s="3"/>
+      <c r="T415" s="3"/>
+      <c r="U415" s="3"/>
+      <c r="V415" s="3"/>
+      <c r="W415" s="3"/>
+      <c r="X415" s="3"/>
+      <c r="Y415" s="3"/>
+    </row>
+    <row r="416" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A416" s="4"/>
+      <c r="B416" s="3"/>
+      <c r="C416" s="3"/>
+      <c r="D416" s="5"/>
+      <c r="E416" s="5"/>
+      <c r="F416" s="3"/>
+      <c r="G416" s="3"/>
+      <c r="H416" s="3"/>
+      <c r="I416" s="3"/>
+      <c r="J416" s="3"/>
+      <c r="K416" s="3"/>
+      <c r="L416" s="3"/>
+      <c r="M416" s="3"/>
+      <c r="N416" s="3"/>
+      <c r="O416" s="3"/>
+      <c r="P416" s="3"/>
+      <c r="Q416" s="3"/>
+      <c r="R416" s="3"/>
+      <c r="S416" s="3"/>
+      <c r="T416" s="3"/>
+      <c r="U416" s="3"/>
+      <c r="V416" s="3"/>
+      <c r="W416" s="3"/>
+      <c r="X416" s="3"/>
+      <c r="Y416" s="3"/>
+    </row>
+    <row r="417" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A417" s="4"/>
+      <c r="B417" s="3"/>
+      <c r="C417" s="3"/>
+      <c r="D417" s="5"/>
+      <c r="E417" s="5"/>
+      <c r="F417" s="3"/>
+      <c r="G417" s="3"/>
+      <c r="H417" s="3"/>
+      <c r="I417" s="3"/>
+      <c r="J417" s="3"/>
+      <c r="K417" s="3"/>
+      <c r="L417" s="3"/>
+      <c r="M417" s="3"/>
+      <c r="N417" s="3"/>
+      <c r="O417" s="3"/>
+      <c r="P417" s="3"/>
+      <c r="Q417" s="3"/>
+      <c r="R417" s="3"/>
+      <c r="S417" s="3"/>
+      <c r="T417" s="3"/>
+      <c r="U417" s="3"/>
+      <c r="V417" s="3"/>
+      <c r="W417" s="3"/>
+      <c r="X417" s="3"/>
+      <c r="Y417" s="3"/>
+    </row>
+    <row r="418" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A418" s="4"/>
+      <c r="B418" s="3"/>
+      <c r="C418" s="3"/>
+      <c r="D418" s="5"/>
+      <c r="E418" s="5"/>
+      <c r="F418" s="3"/>
+      <c r="G418" s="3"/>
+      <c r="H418" s="3"/>
+      <c r="I418" s="3"/>
+      <c r="J418" s="3"/>
+      <c r="K418" s="3"/>
+      <c r="L418" s="3"/>
+      <c r="M418" s="3"/>
+      <c r="N418" s="3"/>
+      <c r="O418" s="3"/>
+      <c r="P418" s="3"/>
+      <c r="Q418" s="3"/>
+      <c r="R418" s="3"/>
+      <c r="S418" s="3"/>
+      <c r="T418" s="3"/>
+      <c r="U418" s="3"/>
+      <c r="V418" s="3"/>
+      <c r="W418" s="3"/>
+      <c r="X418" s="3"/>
+      <c r="Y418" s="3"/>
+    </row>
+    <row r="419" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A419" s="4"/>
+      <c r="B419" s="3"/>
+      <c r="C419" s="3"/>
+      <c r="D419" s="5"/>
+      <c r="E419" s="5"/>
+      <c r="F419" s="3"/>
+      <c r="G419" s="3"/>
+      <c r="H419" s="3"/>
+      <c r="I419" s="3"/>
+      <c r="J419" s="3"/>
+      <c r="K419" s="3"/>
+      <c r="L419" s="3"/>
+      <c r="M419" s="3"/>
+      <c r="N419" s="3"/>
+      <c r="O419" s="3"/>
+      <c r="P419" s="3"/>
+      <c r="Q419" s="3"/>
+      <c r="R419" s="3"/>
+      <c r="S419" s="3"/>
+      <c r="T419" s="3"/>
+      <c r="U419" s="3"/>
+      <c r="V419" s="3"/>
+      <c r="W419" s="3"/>
+      <c r="X419" s="3"/>
+      <c r="Y419" s="3"/>
+    </row>
+    <row r="420" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A420" s="4"/>
+      <c r="B420" s="3"/>
+      <c r="C420" s="3"/>
+      <c r="D420" s="5"/>
+      <c r="E420" s="5"/>
+      <c r="F420" s="3"/>
+      <c r="G420" s="3"/>
+      <c r="H420" s="3"/>
+      <c r="I420" s="3"/>
+      <c r="J420" s="3"/>
+      <c r="K420" s="3"/>
+      <c r="L420" s="3"/>
+      <c r="M420" s="3"/>
+      <c r="N420" s="3"/>
+      <c r="O420" s="3"/>
+      <c r="P420" s="3"/>
+      <c r="Q420" s="3"/>
+      <c r="R420" s="3"/>
+      <c r="S420" s="3"/>
+      <c r="T420" s="3"/>
+      <c r="U420" s="3"/>
+      <c r="V420" s="3"/>
+      <c r="W420" s="3"/>
+      <c r="X420" s="3"/>
+      <c r="Y420" s="3"/>
+    </row>
+    <row r="421" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A421" s="4"/>
+      <c r="B421" s="3"/>
+      <c r="C421" s="3"/>
+      <c r="D421" s="5"/>
+      <c r="E421" s="5"/>
+      <c r="F421" s="3"/>
+      <c r="G421" s="3"/>
+      <c r="H421" s="3"/>
+      <c r="I421" s="3"/>
+      <c r="J421" s="3"/>
+      <c r="K421" s="3"/>
+      <c r="L421" s="3"/>
+      <c r="M421" s="3"/>
+      <c r="N421" s="3"/>
+      <c r="O421" s="3"/>
+      <c r="P421" s="3"/>
+      <c r="Q421" s="3"/>
+      <c r="R421" s="3"/>
+      <c r="S421" s="3"/>
+      <c r="T421" s="3"/>
+      <c r="U421" s="3"/>
+      <c r="V421" s="3"/>
+      <c r="W421" s="3"/>
+      <c r="X421" s="3"/>
+      <c r="Y421" s="3"/>
+    </row>
+    <row r="422" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A422" s="4"/>
+      <c r="B422" s="3"/>
+      <c r="C422" s="3"/>
+      <c r="D422" s="5"/>
+      <c r="E422" s="5"/>
+      <c r="F422" s="3"/>
+      <c r="G422" s="3"/>
+      <c r="H422" s="3"/>
+      <c r="I422" s="3"/>
+      <c r="J422" s="3"/>
+      <c r="K422" s="3"/>
+      <c r="L422" s="3"/>
+      <c r="M422" s="3"/>
+      <c r="N422" s="3"/>
+      <c r="O422" s="3"/>
+      <c r="P422" s="3"/>
+      <c r="Q422" s="3"/>
+      <c r="R422" s="3"/>
+      <c r="S422" s="3"/>
+      <c r="T422" s="3"/>
+      <c r="U422" s="3"/>
+      <c r="V422" s="3"/>
+      <c r="W422" s="3"/>
+      <c r="X422" s="3"/>
+      <c r="Y422" s="3"/>
+    </row>
+    <row r="423" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A423" s="4"/>
+      <c r="B423" s="3"/>
+      <c r="C423" s="3"/>
+      <c r="D423" s="5"/>
+      <c r="E423" s="5"/>
+      <c r="F423" s="3"/>
+      <c r="G423" s="3"/>
+      <c r="H423" s="3"/>
+      <c r="I423" s="3"/>
+      <c r="J423" s="3"/>
+      <c r="K423" s="3"/>
+      <c r="L423" s="3"/>
+      <c r="M423" s="3"/>
+      <c r="N423" s="3"/>
+      <c r="O423" s="3"/>
+      <c r="P423" s="3"/>
+      <c r="Q423" s="3"/>
+      <c r="R423" s="3"/>
+      <c r="S423" s="3"/>
+      <c r="T423" s="3"/>
+      <c r="U423" s="3"/>
+      <c r="V423" s="3"/>
+      <c r="W423" s="3"/>
+      <c r="X423" s="3"/>
+      <c r="Y423" s="3"/>
+    </row>
+    <row r="424" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A424" s="4"/>
+      <c r="B424" s="3"/>
+      <c r="C424" s="3"/>
+      <c r="D424" s="5"/>
+      <c r="E424" s="5"/>
+      <c r="F424" s="3"/>
+      <c r="G424" s="3"/>
+      <c r="H424" s="3"/>
+      <c r="I424" s="3"/>
+      <c r="J424" s="3"/>
+      <c r="K424" s="3"/>
+      <c r="L424" s="3"/>
+      <c r="M424" s="3"/>
+      <c r="N424" s="3"/>
+      <c r="O424" s="3"/>
+      <c r="P424" s="3"/>
+      <c r="Q424" s="3"/>
+      <c r="R424" s="3"/>
+      <c r="S424" s="3"/>
+      <c r="T424" s="3"/>
+      <c r="U424" s="3"/>
+      <c r="V424" s="3"/>
+      <c r="W424" s="3"/>
+      <c r="X424" s="3"/>
+      <c r="Y424" s="3"/>
+    </row>
+    <row r="425" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A425" s="4"/>
+      <c r="B425" s="3"/>
+      <c r="C425" s="3"/>
+      <c r="D425" s="5"/>
+      <c r="E425" s="5"/>
+      <c r="F425" s="3"/>
+      <c r="G425" s="3"/>
+      <c r="H425" s="3"/>
+      <c r="I425" s="3"/>
+      <c r="J425" s="3"/>
+      <c r="K425" s="3"/>
+      <c r="L425" s="3"/>
+      <c r="M425" s="3"/>
+      <c r="N425" s="3"/>
+      <c r="O425" s="3"/>
+      <c r="P425" s="3"/>
+      <c r="Q425" s="3"/>
+      <c r="R425" s="3"/>
+      <c r="S425" s="3"/>
+      <c r="T425" s="3"/>
+      <c r="U425" s="3"/>
+      <c r="V425" s="3"/>
+      <c r="W425" s="3"/>
+      <c r="X425" s="3"/>
+      <c r="Y425" s="3"/>
+    </row>
+    <row r="426" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A426" s="4"/>
+      <c r="B426" s="3"/>
+      <c r="C426" s="3"/>
+      <c r="D426" s="5"/>
+      <c r="E426" s="5"/>
+      <c r="F426" s="3"/>
+      <c r="G426" s="3"/>
+      <c r="H426" s="3"/>
+      <c r="I426" s="3"/>
+      <c r="J426" s="3"/>
+      <c r="K426" s="3"/>
+      <c r="L426" s="3"/>
+      <c r="M426" s="3"/>
+      <c r="N426" s="3"/>
+      <c r="O426" s="3"/>
+      <c r="P426" s="3"/>
+      <c r="Q426" s="3"/>
+      <c r="R426" s="3"/>
+      <c r="S426" s="3"/>
+      <c r="T426" s="3"/>
+      <c r="U426" s="3"/>
+      <c r="V426" s="3"/>
+      <c r="W426" s="3"/>
+      <c r="X426" s="3"/>
+      <c r="Y426" s="3"/>
+    </row>
+    <row r="427" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A427" s="4"/>
+      <c r="B427" s="3"/>
+      <c r="C427" s="3"/>
+      <c r="D427" s="5"/>
+      <c r="E427" s="5"/>
+      <c r="F427" s="3"/>
+      <c r="G427" s="3"/>
+      <c r="H427" s="3"/>
+      <c r="I427" s="3"/>
+      <c r="J427" s="3"/>
+      <c r="K427" s="3"/>
+      <c r="L427" s="3"/>
+      <c r="M427" s="3"/>
+      <c r="N427" s="3"/>
+      <c r="O427" s="3"/>
+      <c r="P427" s="3"/>
+      <c r="Q427" s="3"/>
+      <c r="R427" s="3"/>
+      <c r="S427" s="3"/>
+      <c r="T427" s="3"/>
+      <c r="U427" s="3"/>
+      <c r="V427" s="3"/>
+      <c r="W427" s="3"/>
+      <c r="X427" s="3"/>
+      <c r="Y427" s="3"/>
+    </row>
+    <row r="428" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A428" s="4"/>
+      <c r="B428" s="3"/>
+      <c r="C428" s="3"/>
+      <c r="D428" s="5"/>
+      <c r="E428" s="5"/>
+      <c r="F428" s="3"/>
+      <c r="G428" s="3"/>
+      <c r="H428" s="3"/>
+      <c r="I428" s="3"/>
+      <c r="J428" s="3"/>
+      <c r="K428" s="3"/>
+      <c r="L428" s="3"/>
+      <c r="M428" s="3"/>
+      <c r="N428" s="3"/>
+      <c r="O428" s="3"/>
+      <c r="P428" s="3"/>
+      <c r="Q428" s="3"/>
+      <c r="R428" s="3"/>
+      <c r="S428" s="3"/>
+      <c r="T428" s="3"/>
+      <c r="U428" s="3"/>
+      <c r="V428" s="3"/>
+      <c r="W428" s="3"/>
+      <c r="X428" s="3"/>
+      <c r="Y428" s="3"/>
+    </row>
+    <row r="429" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A429" s="4"/>
+      <c r="B429" s="3"/>
+      <c r="C429" s="3"/>
+      <c r="D429" s="5"/>
+      <c r="E429" s="5"/>
+      <c r="F429" s="3"/>
+      <c r="G429" s="3"/>
+      <c r="H429" s="3"/>
+      <c r="I429" s="3"/>
+      <c r="J429" s="3"/>
+      <c r="K429" s="3"/>
+      <c r="L429" s="3"/>
+      <c r="M429" s="3"/>
+      <c r="N429" s="3"/>
+      <c r="O429" s="3"/>
+      <c r="P429" s="3"/>
+      <c r="Q429" s="3"/>
+      <c r="R429" s="3"/>
+      <c r="S429" s="3"/>
+      <c r="T429" s="3"/>
+      <c r="U429" s="3"/>
+      <c r="V429" s="3"/>
+      <c r="W429" s="3"/>
+      <c r="X429" s="3"/>
+      <c r="Y429" s="3"/>
+    </row>
+    <row r="430" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A430" s="4"/>
+      <c r="B430" s="3"/>
+      <c r="C430" s="3"/>
+      <c r="D430" s="5"/>
+      <c r="E430" s="5"/>
+      <c r="F430" s="3"/>
+      <c r="G430" s="3"/>
+      <c r="H430" s="3"/>
+      <c r="I430" s="3"/>
+      <c r="J430" s="3"/>
+      <c r="K430" s="3"/>
+      <c r="L430" s="3"/>
+      <c r="M430" s="3"/>
+      <c r="N430" s="3"/>
+      <c r="O430" s="3"/>
+      <c r="P430" s="3"/>
+      <c r="Q430" s="3"/>
+      <c r="R430" s="3"/>
+      <c r="S430" s="3"/>
+      <c r="T430" s="3"/>
+      <c r="U430" s="3"/>
+      <c r="V430" s="3"/>
+      <c r="W430" s="3"/>
+      <c r="X430" s="3"/>
+      <c r="Y430" s="3"/>
+    </row>
+    <row r="431" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A431" s="4"/>
+      <c r="B431" s="3"/>
+      <c r="C431" s="3"/>
+      <c r="D431" s="5"/>
+      <c r="E431" s="5"/>
+      <c r="F431" s="3"/>
+      <c r="G431" s="3"/>
+      <c r="H431" s="3"/>
+      <c r="I431" s="3"/>
+      <c r="J431" s="3"/>
+      <c r="K431" s="3"/>
+      <c r="L431" s="3"/>
+      <c r="M431" s="3"/>
+      <c r="N431" s="3"/>
+      <c r="O431" s="3"/>
+      <c r="P431" s="3"/>
+      <c r="Q431" s="3"/>
+      <c r="R431" s="3"/>
+      <c r="S431" s="3"/>
+      <c r="T431" s="3"/>
+      <c r="U431" s="3"/>
+      <c r="V431" s="3"/>
+      <c r="W431" s="3"/>
+      <c r="X431" s="3"/>
+      <c r="Y431" s="3"/>
+    </row>
+    <row r="432" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A432" s="4"/>
+      <c r="B432" s="3"/>
+      <c r="C432" s="3"/>
+      <c r="D432" s="5"/>
+      <c r="E432" s="5"/>
+      <c r="F432" s="3"/>
+      <c r="G432" s="3"/>
+      <c r="H432" s="3"/>
+      <c r="I432" s="3"/>
+      <c r="J432" s="3"/>
+      <c r="K432" s="3"/>
+      <c r="L432" s="3"/>
+      <c r="M432" s="3"/>
+      <c r="N432" s="3"/>
+      <c r="O432" s="3"/>
+      <c r="P432" s="3"/>
+      <c r="Q432" s="3"/>
+      <c r="R432" s="3"/>
+      <c r="S432" s="3"/>
+      <c r="T432" s="3"/>
+      <c r="U432" s="3"/>
+      <c r="V432" s="3"/>
+      <c r="W432" s="3"/>
+      <c r="X432" s="3"/>
+      <c r="Y432" s="3"/>
+    </row>
+    <row r="433" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A433" s="4"/>
+      <c r="B433" s="3"/>
+      <c r="C433" s="3"/>
+      <c r="D433" s="5"/>
+      <c r="E433" s="5"/>
+      <c r="F433" s="3"/>
+      <c r="G433" s="3"/>
+      <c r="H433" s="3"/>
+      <c r="I433" s="3"/>
+      <c r="J433" s="3"/>
+      <c r="K433" s="3"/>
+      <c r="L433" s="3"/>
+      <c r="M433" s="3"/>
+      <c r="N433" s="3"/>
+      <c r="O433" s="3"/>
+      <c r="P433" s="3"/>
+      <c r="Q433" s="3"/>
+      <c r="R433" s="3"/>
+      <c r="S433" s="3"/>
+      <c r="T433" s="3"/>
+      <c r="U433" s="3"/>
+      <c r="V433" s="3"/>
+      <c r="W433" s="3"/>
+      <c r="X433" s="3"/>
+      <c r="Y433" s="3"/>
+    </row>
+    <row r="434" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A434" s="4"/>
+      <c r="B434" s="3"/>
+      <c r="C434" s="3"/>
+      <c r="D434" s="5"/>
+      <c r="E434" s="5"/>
+      <c r="F434" s="3"/>
+      <c r="G434" s="3"/>
+      <c r="H434" s="3"/>
+      <c r="I434" s="3"/>
+      <c r="J434" s="3"/>
+      <c r="K434" s="3"/>
+      <c r="L434" s="3"/>
+      <c r="M434" s="3"/>
+      <c r="N434" s="3"/>
+      <c r="O434" s="3"/>
+      <c r="P434" s="3"/>
+      <c r="Q434" s="3"/>
+      <c r="R434" s="3"/>
+      <c r="S434" s="3"/>
+      <c r="T434" s="3"/>
+      <c r="U434" s="3"/>
+      <c r="V434" s="3"/>
+      <c r="W434" s="3"/>
+      <c r="X434" s="3"/>
+      <c r="Y434" s="3"/>
+    </row>
+    <row r="435" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A435" s="4"/>
+      <c r="B435" s="3"/>
+      <c r="C435" s="3"/>
+      <c r="D435" s="5"/>
+      <c r="E435" s="5"/>
+      <c r="F435" s="3"/>
+      <c r="G435" s="3"/>
+      <c r="H435" s="3"/>
+      <c r="I435" s="3"/>
+      <c r="J435" s="3"/>
+      <c r="K435" s="3"/>
+      <c r="L435" s="3"/>
+      <c r="M435" s="3"/>
+      <c r="N435" s="3"/>
+      <c r="O435" s="3"/>
+      <c r="P435" s="3"/>
+      <c r="Q435" s="3"/>
+      <c r="R435" s="3"/>
+      <c r="S435" s="3"/>
+      <c r="T435" s="3"/>
+      <c r="U435" s="3"/>
+      <c r="V435" s="3"/>
+      <c r="W435" s="3"/>
+      <c r="X435" s="3"/>
+      <c r="Y435" s="3"/>
+    </row>
+    <row r="436" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A436" s="4"/>
+      <c r="B436" s="3"/>
+      <c r="C436" s="3"/>
+      <c r="D436" s="5"/>
+      <c r="E436" s="5"/>
+      <c r="F436" s="3"/>
+      <c r="G436" s="3"/>
+      <c r="H436" s="3"/>
+      <c r="I436" s="3"/>
+      <c r="J436" s="3"/>
+      <c r="K436" s="3"/>
+      <c r="L436" s="3"/>
+      <c r="M436" s="3"/>
+      <c r="N436" s="3"/>
+      <c r="O436" s="3"/>
+      <c r="P436" s="3"/>
+      <c r="Q436" s="3"/>
+      <c r="R436" s="3"/>
+      <c r="S436" s="3"/>
+      <c r="T436" s="3"/>
+      <c r="U436" s="3"/>
+      <c r="V436" s="3"/>
+      <c r="W436" s="3"/>
+      <c r="X436" s="3"/>
+      <c r="Y436" s="3"/>
+    </row>
+    <row r="437" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A437" s="4"/>
+      <c r="B437" s="3"/>
+      <c r="C437" s="3"/>
+      <c r="D437" s="5"/>
+      <c r="E437" s="5"/>
+      <c r="F437" s="3"/>
+      <c r="G437" s="3"/>
+      <c r="H437" s="3"/>
+      <c r="I437" s="3"/>
+      <c r="J437" s="3"/>
+      <c r="K437" s="3"/>
+      <c r="L437" s="3"/>
+      <c r="M437" s="3"/>
+      <c r="N437" s="3"/>
+      <c r="O437" s="3"/>
+      <c r="P437" s="3"/>
+      <c r="Q437" s="3"/>
+      <c r="R437" s="3"/>
+      <c r="S437" s="3"/>
+      <c r="T437" s="3"/>
+      <c r="U437" s="3"/>
+      <c r="V437" s="3"/>
+      <c r="W437" s="3"/>
+      <c r="X437" s="3"/>
+      <c r="Y437" s="3"/>
+    </row>
+    <row r="438" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A438" s="4"/>
+      <c r="B438" s="3"/>
+      <c r="C438" s="3"/>
+      <c r="D438" s="5"/>
+      <c r="E438" s="5"/>
+      <c r="F438" s="3"/>
+      <c r="G438" s="3"/>
+      <c r="H438" s="3"/>
+      <c r="I438" s="3"/>
+      <c r="J438" s="3"/>
+      <c r="K438" s="3"/>
+      <c r="L438" s="3"/>
+      <c r="M438" s="3"/>
+      <c r="N438" s="3"/>
+      <c r="O438" s="3"/>
+      <c r="P438" s="3"/>
+      <c r="Q438" s="3"/>
+      <c r="R438" s="3"/>
+      <c r="S438" s="3"/>
+      <c r="T438" s="3"/>
+      <c r="U438" s="3"/>
+      <c r="V438" s="3"/>
+      <c r="W438" s="3"/>
+      <c r="X438" s="3"/>
+      <c r="Y438" s="3"/>
+    </row>
+    <row r="439" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A439" s="4"/>
+      <c r="B439" s="3"/>
+      <c r="C439" s="3"/>
+      <c r="D439" s="5"/>
+      <c r="E439" s="5"/>
+      <c r="F439" s="3"/>
+      <c r="G439" s="3"/>
+      <c r="H439" s="3"/>
+      <c r="I439" s="3"/>
+      <c r="J439" s="3"/>
+      <c r="K439" s="3"/>
+      <c r="L439" s="3"/>
+      <c r="M439" s="3"/>
+      <c r="N439" s="3"/>
+      <c r="O439" s="3"/>
+      <c r="P439" s="3"/>
+      <c r="Q439" s="3"/>
+      <c r="R439" s="3"/>
+      <c r="S439" s="3"/>
+      <c r="T439" s="3"/>
+      <c r="U439" s="3"/>
+      <c r="V439" s="3"/>
+      <c r="W439" s="3"/>
+      <c r="X439" s="3"/>
+      <c r="Y439" s="3"/>
+    </row>
+    <row r="440" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A440" s="4"/>
+      <c r="B440" s="3"/>
+      <c r="C440" s="3"/>
+      <c r="D440" s="5"/>
+      <c r="E440" s="5"/>
+      <c r="F440" s="3"/>
+      <c r="G440" s="3"/>
+      <c r="H440" s="3"/>
+      <c r="I440" s="3"/>
+      <c r="J440" s="3"/>
+      <c r="K440" s="3"/>
+      <c r="L440" s="3"/>
+      <c r="M440" s="3"/>
+      <c r="N440" s="3"/>
+      <c r="O440" s="3"/>
+      <c r="P440" s="3"/>
+      <c r="Q440" s="3"/>
+      <c r="R440" s="3"/>
+      <c r="S440" s="3"/>
+      <c r="T440" s="3"/>
+      <c r="U440" s="3"/>
+      <c r="V440" s="3"/>
+      <c r="W440" s="3"/>
+      <c r="X440" s="3"/>
+      <c r="Y440" s="3"/>
+    </row>
+    <row r="441" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A441" s="4"/>
+      <c r="B441" s="3"/>
+      <c r="C441" s="3"/>
+      <c r="D441" s="5"/>
+      <c r="E441" s="5"/>
+      <c r="F441" s="3"/>
+      <c r="G441" s="3"/>
+      <c r="H441" s="3"/>
+      <c r="I441" s="3"/>
+      <c r="J441" s="3"/>
+      <c r="K441" s="3"/>
+      <c r="L441" s="3"/>
+      <c r="M441" s="3"/>
+      <c r="N441" s="3"/>
+      <c r="O441" s="3"/>
+      <c r="P441" s="3"/>
+      <c r="Q441" s="3"/>
+      <c r="R441" s="3"/>
+      <c r="S441" s="3"/>
+      <c r="T441" s="3"/>
+      <c r="U441" s="3"/>
+      <c r="V441" s="3"/>
+      <c r="W441" s="3"/>
+      <c r="X441" s="3"/>
+      <c r="Y441" s="3"/>
+    </row>
+    <row r="442" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A442" s="4"/>
+      <c r="B442" s="3"/>
+      <c r="C442" s="3"/>
+      <c r="D442" s="5"/>
+      <c r="E442" s="5"/>
+      <c r="F442" s="3"/>
+      <c r="G442" s="3"/>
+      <c r="H442" s="3"/>
+      <c r="I442" s="3"/>
+      <c r="J442" s="3"/>
+      <c r="K442" s="3"/>
+      <c r="L442" s="3"/>
+      <c r="M442" s="3"/>
+      <c r="N442" s="3"/>
+      <c r="O442" s="3"/>
+      <c r="P442" s="3"/>
+      <c r="Q442" s="3"/>
+      <c r="R442" s="3"/>
+      <c r="S442" s="3"/>
+      <c r="T442" s="3"/>
+      <c r="U442" s="3"/>
+      <c r="V442" s="3"/>
+      <c r="W442" s="3"/>
+      <c r="X442" s="3"/>
+      <c r="Y442" s="3"/>
+    </row>
+    <row r="443" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A443" s="4"/>
+      <c r="B443" s="3"/>
+      <c r="C443" s="3"/>
+      <c r="D443" s="5"/>
+      <c r="E443" s="5"/>
+      <c r="F443" s="3"/>
+      <c r="G443" s="3"/>
+      <c r="H443" s="3"/>
+      <c r="I443" s="3"/>
+      <c r="J443" s="3"/>
+      <c r="K443" s="3"/>
+      <c r="L443" s="3"/>
+      <c r="M443" s="3"/>
+      <c r="N443" s="3"/>
+      <c r="O443" s="3"/>
+      <c r="P443" s="3"/>
+      <c r="Q443" s="3"/>
+      <c r="R443" s="3"/>
+      <c r="S443" s="3"/>
+      <c r="T443" s="3"/>
+      <c r="U443" s="3"/>
+      <c r="V443" s="3"/>
+      <c r="W443" s="3"/>
+      <c r="X443" s="3"/>
+      <c r="Y443" s="3"/>
+    </row>
+    <row r="444" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A444" s="4"/>
+      <c r="B444" s="3"/>
+      <c r="C444" s="3"/>
+      <c r="D444" s="5"/>
+      <c r="E444" s="5"/>
+      <c r="F444" s="3"/>
+      <c r="G444" s="3"/>
+      <c r="H444" s="3"/>
+      <c r="I444" s="3"/>
+      <c r="J444" s="3"/>
+      <c r="K444" s="3"/>
+      <c r="L444" s="3"/>
+      <c r="M444" s="3"/>
+      <c r="N444" s="3"/>
+      <c r="O444" s="3"/>
+      <c r="P444" s="3"/>
+      <c r="Q444" s="3"/>
+      <c r="R444" s="3"/>
+      <c r="S444" s="3"/>
+      <c r="T444" s="3"/>
+      <c r="U444" s="3"/>
+      <c r="V444" s="3"/>
+      <c r="W444" s="3"/>
+      <c r="X444" s="3"/>
+      <c r="Y444" s="3"/>
+    </row>
+    <row r="445" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A445" s="4"/>
+      <c r="B445" s="3"/>
+      <c r="C445" s="3"/>
+      <c r="D445" s="5"/>
+      <c r="E445" s="5"/>
+      <c r="F445" s="3"/>
+      <c r="G445" s="3"/>
+      <c r="H445" s="3"/>
+      <c r="I445" s="3"/>
+      <c r="J445" s="3"/>
+      <c r="K445" s="3"/>
+      <c r="L445" s="3"/>
+      <c r="M445" s="3"/>
+      <c r="N445" s="3"/>
+      <c r="O445" s="3"/>
+      <c r="P445" s="3"/>
+      <c r="Q445" s="3"/>
+      <c r="R445" s="3"/>
+      <c r="S445" s="3"/>
+      <c r="T445" s="3"/>
+      <c r="U445" s="3"/>
+      <c r="V445" s="3"/>
+      <c r="W445" s="3"/>
+      <c r="X445" s="3"/>
+      <c r="Y445" s="3"/>
+    </row>
+    <row r="446" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A446" s="4"/>
+      <c r="B446" s="3"/>
+      <c r="C446" s="3"/>
+      <c r="D446" s="5"/>
+      <c r="E446" s="5"/>
+      <c r="F446" s="3"/>
+      <c r="G446" s="3"/>
+      <c r="H446" s="3"/>
+      <c r="I446" s="3"/>
+      <c r="J446" s="3"/>
+      <c r="K446" s="3"/>
+      <c r="L446" s="3"/>
+      <c r="M446" s="3"/>
+      <c r="N446" s="3"/>
+      <c r="O446" s="3"/>
+      <c r="P446" s="3"/>
+      <c r="Q446" s="3"/>
+      <c r="R446" s="3"/>
+      <c r="S446" s="3"/>
+      <c r="T446" s="3"/>
+      <c r="U446" s="3"/>
+      <c r="V446" s="3"/>
+      <c r="W446" s="3"/>
+      <c r="X446" s="3"/>
+      <c r="Y446" s="3"/>
+    </row>
+    <row r="447" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A447" s="4"/>
+      <c r="B447" s="3"/>
+      <c r="C447" s="3"/>
+      <c r="D447" s="5"/>
+      <c r="E447" s="5"/>
+      <c r="F447" s="3"/>
+      <c r="G447" s="3"/>
+      <c r="H447" s="3"/>
+      <c r="I447" s="3"/>
+      <c r="J447" s="3"/>
+      <c r="K447" s="3"/>
+      <c r="L447" s="3"/>
+      <c r="M447" s="3"/>
+      <c r="N447" s="3"/>
+      <c r="O447" s="3"/>
+      <c r="P447" s="3"/>
+      <c r="Q447" s="3"/>
+      <c r="R447" s="3"/>
+      <c r="S447" s="3"/>
+      <c r="T447" s="3"/>
+      <c r="U447" s="3"/>
+      <c r="V447" s="3"/>
+      <c r="W447" s="3"/>
+      <c r="X447" s="3"/>
+      <c r="Y447" s="3"/>
+    </row>
+    <row r="448" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A448" s="4"/>
+      <c r="B448" s="3"/>
+      <c r="C448" s="3"/>
+      <c r="D448" s="5"/>
+      <c r="E448" s="5"/>
+      <c r="F448" s="3"/>
+      <c r="G448" s="3"/>
+      <c r="H448" s="3"/>
+      <c r="I448" s="3"/>
+      <c r="J448" s="3"/>
+      <c r="K448" s="3"/>
+      <c r="L448" s="3"/>
+      <c r="M448" s="3"/>
+      <c r="N448" s="3"/>
+      <c r="O448" s="3"/>
+      <c r="P448" s="3"/>
+      <c r="Q448" s="3"/>
+      <c r="R448" s="3"/>
+      <c r="S448" s="3"/>
+      <c r="T448" s="3"/>
+      <c r="U448" s="3"/>
+      <c r="V448" s="3"/>
+      <c r="W448" s="3"/>
+      <c r="X448" s="3"/>
+      <c r="Y448" s="3"/>
+    </row>
+    <row r="449" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A449" s="4"/>
+      <c r="B449" s="3"/>
+      <c r="C449" s="3"/>
+      <c r="D449" s="5"/>
+      <c r="E449" s="5"/>
+      <c r="F449" s="3"/>
+      <c r="G449" s="3"/>
+      <c r="H449" s="3"/>
+      <c r="I449" s="3"/>
+      <c r="J449" s="3"/>
+      <c r="K449" s="3"/>
+      <c r="L449" s="3"/>
+      <c r="M449" s="3"/>
+      <c r="N449" s="3"/>
+      <c r="O449" s="3"/>
+      <c r="P449" s="3"/>
+      <c r="Q449" s="3"/>
+      <c r="R449" s="3"/>
+      <c r="S449" s="3"/>
+      <c r="T449" s="3"/>
+      <c r="U449" s="3"/>
+      <c r="V449" s="3"/>
+      <c r="W449" s="3"/>
+      <c r="X449" s="3"/>
+      <c r="Y449" s="3"/>
+    </row>
+    <row r="450" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A450" s="4"/>
+      <c r="B450" s="3"/>
+      <c r="C450" s="3"/>
+      <c r="D450" s="5"/>
+      <c r="E450" s="5"/>
+      <c r="F450" s="3"/>
+      <c r="G450" s="3"/>
+      <c r="H450" s="3"/>
+      <c r="I450" s="3"/>
+      <c r="J450" s="3"/>
+      <c r="K450" s="3"/>
+      <c r="L450" s="3"/>
+      <c r="M450" s="3"/>
+      <c r="N450" s="3"/>
+      <c r="O450" s="3"/>
+      <c r="P450" s="3"/>
+      <c r="Q450" s="3"/>
+      <c r="R450" s="3"/>
+      <c r="S450" s="3"/>
+      <c r="T450" s="3"/>
+      <c r="U450" s="3"/>
+      <c r="V450" s="3"/>
+      <c r="W450" s="3"/>
+      <c r="X450" s="3"/>
+      <c r="Y450" s="3"/>
+    </row>
+    <row r="451" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A451" s="4"/>
+      <c r="B451" s="3"/>
+      <c r="C451" s="3"/>
+      <c r="D451" s="5"/>
+      <c r="E451" s="5"/>
+      <c r="F451" s="3"/>
+      <c r="G451" s="3"/>
+      <c r="H451" s="3"/>
+      <c r="I451" s="3"/>
+      <c r="J451" s="3"/>
+      <c r="K451" s="3"/>
+      <c r="L451" s="3"/>
+      <c r="M451" s="3"/>
+      <c r="N451" s="3"/>
+      <c r="O451" s="3"/>
+      <c r="P451" s="3"/>
+      <c r="Q451" s="3"/>
+      <c r="R451" s="3"/>
+      <c r="S451" s="3"/>
+      <c r="T451" s="3"/>
+      <c r="U451" s="3"/>
+      <c r="V451" s="3"/>
+      <c r="W451" s="3"/>
+      <c r="X451" s="3"/>
+      <c r="Y451" s="3"/>
+    </row>
+    <row r="452" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A452" s="4"/>
+      <c r="B452" s="3"/>
+      <c r="C452" s="3"/>
+      <c r="D452" s="5"/>
+      <c r="E452" s="5"/>
+      <c r="F452" s="3"/>
+      <c r="G452" s="3"/>
+      <c r="H452" s="3"/>
+      <c r="I452" s="3"/>
+      <c r="J452" s="3"/>
+      <c r="K452" s="3"/>
+      <c r="L452" s="3"/>
+      <c r="M452" s="3"/>
+      <c r="N452" s="3"/>
+      <c r="O452" s="3"/>
+      <c r="P452" s="3"/>
+      <c r="Q452" s="3"/>
+      <c r="R452" s="3"/>
+      <c r="S452" s="3"/>
+      <c r="T452" s="3"/>
+      <c r="U452" s="3"/>
+      <c r="V452" s="3"/>
+      <c r="W452" s="3"/>
+      <c r="X452" s="3"/>
+      <c r="Y452" s="3"/>
+    </row>
+    <row r="453" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A453" s="4"/>
+      <c r="B453" s="3"/>
+      <c r="C453" s="3"/>
+      <c r="D453" s="5"/>
+      <c r="E453" s="5"/>
+      <c r="F453" s="3"/>
+      <c r="G453" s="3"/>
+      <c r="H453" s="3"/>
+      <c r="I453" s="3"/>
+      <c r="J453" s="3"/>
+      <c r="K453" s="3"/>
+      <c r="L453" s="3"/>
+      <c r="M453" s="3"/>
+      <c r="N453" s="3"/>
+      <c r="O453" s="3"/>
+      <c r="P453" s="3"/>
+      <c r="Q453" s="3"/>
+      <c r="R453" s="3"/>
+      <c r="S453" s="3"/>
+      <c r="T453" s="3"/>
+      <c r="U453" s="3"/>
+      <c r="V453" s="3"/>
+      <c r="W453" s="3"/>
+      <c r="X453" s="3"/>
+      <c r="Y453" s="3"/>
+    </row>
+    <row r="454" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A454" s="4"/>
+      <c r="B454" s="3"/>
+      <c r="C454" s="3"/>
+      <c r="D454" s="5"/>
+      <c r="E454" s="5"/>
+      <c r="F454" s="3"/>
+      <c r="G454" s="3"/>
+      <c r="H454" s="3"/>
+      <c r="I454" s="3"/>
+      <c r="J454" s="3"/>
+      <c r="K454" s="3"/>
+      <c r="L454" s="3"/>
+      <c r="M454" s="3"/>
+      <c r="N454" s="3"/>
+      <c r="O454" s="3"/>
+      <c r="P454" s="3"/>
+      <c r="Q454" s="3"/>
+      <c r="R454" s="3"/>
+      <c r="S454" s="3"/>
+      <c r="T454" s="3"/>
+      <c r="U454" s="3"/>
+      <c r="V454" s="3"/>
+      <c r="W454" s="3"/>
+      <c r="X454" s="3"/>
+      <c r="Y454" s="3"/>
+    </row>
+    <row r="455" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A455" s="4"/>
+      <c r="B455" s="3"/>
+      <c r="C455" s="3"/>
+      <c r="D455" s="5"/>
+      <c r="E455" s="5"/>
+      <c r="F455" s="3"/>
+      <c r="G455" s="3"/>
+      <c r="H455" s="3"/>
+      <c r="I455" s="3"/>
+      <c r="J455" s="3"/>
+      <c r="K455" s="3"/>
+      <c r="L455" s="3"/>
+      <c r="M455" s="3"/>
+      <c r="N455" s="3"/>
+      <c r="O455" s="3"/>
+      <c r="P455" s="3"/>
+      <c r="Q455" s="3"/>
+      <c r="R455" s="3"/>
+      <c r="S455" s="3"/>
+      <c r="T455" s="3"/>
+      <c r="U455" s="3"/>
+      <c r="V455" s="3"/>
+      <c r="W455" s="3"/>
+      <c r="X455" s="3"/>
+      <c r="Y455" s="3"/>
+    </row>
+    <row r="456" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A456" s="4"/>
+      <c r="B456" s="3"/>
+      <c r="C456" s="3"/>
+      <c r="D456" s="5"/>
+      <c r="E456" s="5"/>
+      <c r="F456" s="3"/>
+      <c r="G456" s="3"/>
+      <c r="H456" s="3"/>
+      <c r="I456" s="3"/>
+      <c r="J456" s="3"/>
+      <c r="K456" s="3"/>
+      <c r="L456" s="3"/>
+      <c r="M456" s="3"/>
+      <c r="N456" s="3"/>
+      <c r="O456" s="3"/>
+      <c r="P456" s="3"/>
+      <c r="Q456" s="3"/>
+      <c r="R456" s="3"/>
+      <c r="S456" s="3"/>
+      <c r="T456" s="3"/>
+      <c r="U456" s="3"/>
+      <c r="V456" s="3"/>
+      <c r="W456" s="3"/>
+      <c r="X456" s="3"/>
+      <c r="Y456" s="3"/>
+    </row>
+    <row r="457" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A457" s="4"/>
+      <c r="B457" s="3"/>
+      <c r="C457" s="3"/>
+      <c r="D457" s="5"/>
+      <c r="E457" s="5"/>
+      <c r="F457" s="3"/>
+      <c r="G457" s="3"/>
+      <c r="H457" s="3"/>
+      <c r="I457" s="3"/>
+      <c r="J457" s="3"/>
+      <c r="K457" s="3"/>
+      <c r="L457" s="3"/>
+      <c r="M457" s="3"/>
+      <c r="N457" s="3"/>
+      <c r="O457" s="3"/>
+      <c r="P457" s="3"/>
+      <c r="Q457" s="3"/>
+      <c r="R457" s="3"/>
+      <c r="S457" s="3"/>
+      <c r="T457" s="3"/>
+      <c r="U457" s="3"/>
+      <c r="V457" s="3"/>
+      <c r="W457" s="3"/>
+      <c r="X457" s="3"/>
+      <c r="Y457" s="3"/>
+    </row>
+    <row r="458" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A458" s="4"/>
+      <c r="B458" s="3"/>
+      <c r="C458" s="3"/>
+      <c r="D458" s="5"/>
+      <c r="E458" s="5"/>
+      <c r="F458" s="3"/>
+      <c r="G458" s="3"/>
+      <c r="H458" s="3"/>
+      <c r="I458" s="3"/>
+      <c r="J458" s="3"/>
+      <c r="K458" s="3"/>
+      <c r="L458" s="3"/>
+      <c r="M458" s="3"/>
+      <c r="N458" s="3"/>
+      <c r="O458" s="3"/>
+      <c r="P458" s="3"/>
+      <c r="Q458" s="3"/>
+      <c r="R458" s="3"/>
+      <c r="S458" s="3"/>
+      <c r="T458" s="3"/>
+      <c r="U458" s="3"/>
+      <c r="V458" s="3"/>
+      <c r="W458" s="3"/>
+      <c r="X458" s="3"/>
+      <c r="Y458" s="3"/>
+    </row>
+    <row r="459" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A459" s="4"/>
+      <c r="B459" s="3"/>
+      <c r="C459" s="3"/>
+      <c r="D459" s="5"/>
+      <c r="E459" s="5"/>
+      <c r="F459" s="3"/>
+      <c r="G459" s="3"/>
+      <c r="H459" s="3"/>
+      <c r="I459" s="3"/>
+      <c r="J459" s="3"/>
+      <c r="K459" s="3"/>
+      <c r="L459" s="3"/>
+      <c r="M459" s="3"/>
+      <c r="N459" s="3"/>
+      <c r="O459" s="3"/>
+      <c r="P459" s="3"/>
+      <c r="Q459" s="3"/>
+      <c r="R459" s="3"/>
+      <c r="S459" s="3"/>
+      <c r="T459" s="3"/>
+      <c r="U459" s="3"/>
+      <c r="V459" s="3"/>
+      <c r="W459" s="3"/>
+      <c r="X459" s="3"/>
+      <c r="Y459" s="3"/>
+    </row>
+    <row r="460" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A460" s="4"/>
+      <c r="B460" s="3"/>
+      <c r="C460" s="3"/>
+      <c r="D460" s="5"/>
+      <c r="E460" s="5"/>
+      <c r="F460" s="3"/>
+      <c r="G460" s="3"/>
+      <c r="H460" s="3"/>
+      <c r="I460" s="3"/>
+      <c r="J460" s="3"/>
+      <c r="K460" s="3"/>
+      <c r="L460" s="3"/>
+      <c r="M460" s="3"/>
+      <c r="N460" s="3"/>
+      <c r="O460" s="3"/>
+      <c r="P460" s="3"/>
+      <c r="Q460" s="3"/>
+      <c r="R460" s="3"/>
+      <c r="S460" s="3"/>
+      <c r="T460" s="3"/>
+      <c r="U460" s="3"/>
+      <c r="V460" s="3"/>
+      <c r="W460" s="3"/>
+      <c r="X460" s="3"/>
+      <c r="Y460" s="3"/>
+    </row>
+    <row r="461" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A461" s="4"/>
+      <c r="B461" s="3"/>
+      <c r="C461" s="3"/>
+      <c r="D461" s="5"/>
+      <c r="E461" s="5"/>
+      <c r="F461" s="3"/>
+      <c r="G461" s="3"/>
+      <c r="H461" s="3"/>
+      <c r="I461" s="3"/>
+      <c r="J461" s="3"/>
+      <c r="K461" s="3"/>
+      <c r="L461" s="3"/>
+      <c r="M461" s="3"/>
+      <c r="N461" s="3"/>
+      <c r="O461" s="3"/>
+      <c r="P461" s="3"/>
+      <c r="Q461" s="3"/>
+      <c r="R461" s="3"/>
+      <c r="S461" s="3"/>
+      <c r="T461" s="3"/>
+      <c r="U461" s="3"/>
+      <c r="V461" s="3"/>
+      <c r="W461" s="3"/>
+      <c r="X461" s="3"/>
+      <c r="Y461" s="3"/>
+    </row>
+    <row r="462" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A462" s="4"/>
+      <c r="B462" s="3"/>
+      <c r="C462" s="3"/>
+      <c r="D462" s="5"/>
+      <c r="E462" s="5"/>
+      <c r="F462" s="3"/>
+      <c r="G462" s="3"/>
+      <c r="H462" s="3"/>
+      <c r="I462" s="3"/>
+      <c r="J462" s="3"/>
+      <c r="K462" s="3"/>
+      <c r="L462" s="3"/>
+      <c r="M462" s="3"/>
+      <c r="N462" s="3"/>
+      <c r="O462" s="3"/>
+      <c r="P462" s="3"/>
+      <c r="Q462" s="3"/>
+      <c r="R462" s="3"/>
+      <c r="S462" s="3"/>
+      <c r="T462" s="3"/>
+      <c r="U462" s="3"/>
+      <c r="V462" s="3"/>
+      <c r="W462" s="3"/>
+      <c r="X462" s="3"/>
+      <c r="Y462" s="3"/>
+    </row>
+    <row r="463" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A463" s="4"/>
+      <c r="B463" s="3"/>
+      <c r="C463" s="3"/>
+      <c r="D463" s="5"/>
+      <c r="E463" s="5"/>
+      <c r="F463" s="3"/>
+      <c r="G463" s="3"/>
+      <c r="H463" s="3"/>
+      <c r="I463" s="3"/>
+      <c r="J463" s="3"/>
+      <c r="K463" s="3"/>
+      <c r="L463" s="3"/>
+      <c r="M463" s="3"/>
+      <c r="N463" s="3"/>
+      <c r="O463" s="3"/>
+      <c r="P463" s="3"/>
+      <c r="Q463" s="3"/>
+      <c r="R463" s="3"/>
+      <c r="S463" s="3"/>
+      <c r="T463" s="3"/>
+      <c r="U463" s="3"/>
+      <c r="V463" s="3"/>
+      <c r="W463" s="3"/>
+      <c r="X463" s="3"/>
+      <c r="Y463" s="3"/>
+    </row>
+    <row r="464" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A464" s="4"/>
+      <c r="B464" s="3"/>
+      <c r="C464" s="3"/>
+      <c r="D464" s="5"/>
+      <c r="E464" s="5"/>
+      <c r="F464" s="3"/>
+      <c r="G464" s="3"/>
+      <c r="H464" s="3"/>
+      <c r="I464" s="3"/>
+      <c r="J464" s="3"/>
+      <c r="K464" s="3"/>
+      <c r="L464" s="3"/>
+      <c r="M464" s="3"/>
+      <c r="N464" s="3"/>
+      <c r="O464" s="3"/>
+      <c r="P464" s="3"/>
+      <c r="Q464" s="3"/>
+      <c r="R464" s="3"/>
+      <c r="S464" s="3"/>
+      <c r="T464" s="3"/>
+      <c r="U464" s="3"/>
+      <c r="V464" s="3"/>
+      <c r="W464" s="3"/>
+      <c r="X464" s="3"/>
+      <c r="Y464" s="3"/>
+    </row>
+    <row r="465" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A465" s="4"/>
+      <c r="B465" s="3"/>
+      <c r="C465" s="3"/>
+      <c r="D465" s="5"/>
+      <c r="E465" s="5"/>
+      <c r="F465" s="3"/>
+      <c r="G465" s="3"/>
+      <c r="H465" s="3"/>
+      <c r="I465" s="3"/>
+      <c r="J465" s="3"/>
+      <c r="K465" s="3"/>
+      <c r="L465" s="3"/>
+      <c r="M465" s="3"/>
+      <c r="N465" s="3"/>
+      <c r="O465" s="3"/>
+      <c r="P465" s="3"/>
+      <c r="Q465" s="3"/>
+      <c r="R465" s="3"/>
+      <c r="S465" s="3"/>
+      <c r="T465" s="3"/>
+      <c r="U465" s="3"/>
+      <c r="V465" s="3"/>
+      <c r="W465" s="3"/>
+      <c r="X465" s="3"/>
+      <c r="Y465" s="3"/>
+    </row>
+    <row r="466" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A466" s="4"/>
+      <c r="B466" s="3"/>
+      <c r="C466" s="3"/>
+      <c r="D466" s="5"/>
+      <c r="E466" s="5"/>
+      <c r="F466" s="3"/>
+      <c r="G466" s="3"/>
+      <c r="H466" s="3"/>
+      <c r="I466" s="3"/>
+      <c r="J466" s="3"/>
+      <c r="K466" s="3"/>
+      <c r="L466" s="3"/>
+      <c r="M466" s="3"/>
+      <c r="N466" s="3"/>
+      <c r="O466" s="3"/>
+      <c r="P466" s="3"/>
+      <c r="Q466" s="3"/>
+      <c r="R466" s="3"/>
+      <c r="S466" s="3"/>
+      <c r="T466" s="3"/>
+      <c r="U466" s="3"/>
+      <c r="V466" s="3"/>
+      <c r="W466" s="3"/>
+      <c r="X466" s="3"/>
+      <c r="Y466" s="3"/>
+    </row>
+    <row r="467" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A467" s="4"/>
+      <c r="B467" s="3"/>
+      <c r="C467" s="3"/>
+      <c r="D467" s="5"/>
+      <c r="E467" s="5"/>
+      <c r="F467" s="3"/>
+      <c r="G467" s="3"/>
+      <c r="H467" s="3"/>
+      <c r="I467" s="3"/>
+      <c r="J467" s="3"/>
+      <c r="K467" s="3"/>
+      <c r="L467" s="3"/>
+      <c r="M467" s="3"/>
+      <c r="N467" s="3"/>
+      <c r="O467" s="3"/>
+      <c r="P467" s="3"/>
+      <c r="Q467" s="3"/>
+      <c r="R467" s="3"/>
+      <c r="S467" s="3"/>
+      <c r="T467" s="3"/>
+      <c r="U467" s="3"/>
+      <c r="V467" s="3"/>
+      <c r="W467" s="3"/>
+      <c r="X467" s="3"/>
+      <c r="Y467" s="3"/>
+    </row>
+    <row r="468" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A468" s="4"/>
+      <c r="B468" s="3"/>
+      <c r="C468" s="3"/>
+      <c r="D468" s="5"/>
+      <c r="E468" s="5"/>
+      <c r="F468" s="3"/>
+      <c r="G468" s="3"/>
+      <c r="H468" s="3"/>
+      <c r="I468" s="3"/>
+      <c r="J468" s="3"/>
+      <c r="K468" s="3"/>
+      <c r="L468" s="3"/>
+      <c r="M468" s="3"/>
+      <c r="N468" s="3"/>
+      <c r="O468" s="3"/>
+      <c r="P468" s="3"/>
+      <c r="Q468" s="3"/>
+      <c r="R468" s="3"/>
+      <c r="S468" s="3"/>
+      <c r="T468" s="3"/>
+      <c r="U468" s="3"/>
+      <c r="V468" s="3"/>
+      <c r="W468" s="3"/>
+      <c r="X468" s="3"/>
+      <c r="Y468" s="3"/>
+    </row>
+    <row r="469" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A469" s="4"/>
+      <c r="B469" s="3"/>
+      <c r="C469" s="3"/>
+      <c r="D469" s="5"/>
+      <c r="E469" s="5"/>
+      <c r="F469" s="3"/>
+      <c r="G469" s="3"/>
+      <c r="H469" s="3"/>
+      <c r="I469" s="3"/>
+      <c r="J469" s="3"/>
+      <c r="K469" s="3"/>
+      <c r="L469" s="3"/>
+      <c r="M469" s="3"/>
+      <c r="N469" s="3"/>
+      <c r="O469" s="3"/>
+      <c r="P469" s="3"/>
+      <c r="Q469" s="3"/>
+      <c r="R469" s="3"/>
+      <c r="S469" s="3"/>
+      <c r="T469" s="3"/>
+      <c r="U469" s="3"/>
+      <c r="V469" s="3"/>
+      <c r="W469" s="3"/>
+      <c r="X469" s="3"/>
+      <c r="Y469" s="3"/>
+    </row>
+    <row r="470" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A470" s="4"/>
+      <c r="B470" s="3"/>
+      <c r="C470" s="3"/>
+      <c r="D470" s="5"/>
+      <c r="E470" s="5"/>
+      <c r="F470" s="3"/>
+      <c r="G470" s="3"/>
+      <c r="H470" s="3"/>
+      <c r="I470" s="3"/>
+      <c r="J470" s="3"/>
+      <c r="K470" s="3"/>
+      <c r="L470" s="3"/>
+      <c r="M470" s="3"/>
+      <c r="N470" s="3"/>
+      <c r="O470" s="3"/>
+      <c r="P470" s="3"/>
+      <c r="Q470" s="3"/>
+      <c r="R470" s="3"/>
+      <c r="S470" s="3"/>
+      <c r="T470" s="3"/>
+      <c r="U470" s="3"/>
+      <c r="V470" s="3"/>
+      <c r="W470" s="3"/>
+      <c r="X470" s="3"/>
+      <c r="Y470" s="3"/>
+    </row>
+    <row r="471" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A471" s="4"/>
+      <c r="B471" s="3"/>
+      <c r="C471" s="3"/>
+      <c r="D471" s="5"/>
+      <c r="E471" s="5"/>
+      <c r="F471" s="3"/>
+      <c r="G471" s="3"/>
+      <c r="H471" s="3"/>
+      <c r="I471" s="3"/>
+      <c r="J471" s="3"/>
+      <c r="K471" s="3"/>
+      <c r="L471" s="3"/>
+      <c r="M471" s="3"/>
+      <c r="N471" s="3"/>
+      <c r="O471" s="3"/>
+      <c r="P471" s="3"/>
+      <c r="Q471" s="3"/>
+      <c r="R471" s="3"/>
+      <c r="S471" s="3"/>
+      <c r="T471" s="3"/>
+      <c r="U471" s="3"/>
+      <c r="V471" s="3"/>
+      <c r="W471" s="3"/>
+      <c r="X471" s="3"/>
+      <c r="Y471" s="3"/>
+    </row>
+    <row r="472" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A472" s="4"/>
+      <c r="B472" s="3"/>
+      <c r="C472" s="3"/>
+      <c r="D472" s="5"/>
+      <c r="E472" s="5"/>
+      <c r="F472" s="3"/>
+      <c r="G472" s="3"/>
+      <c r="H472" s="3"/>
+      <c r="I472" s="3"/>
+      <c r="J472" s="3"/>
+      <c r="K472" s="3"/>
+      <c r="L472" s="3"/>
+      <c r="M472" s="3"/>
+      <c r="N472" s="3"/>
+      <c r="O472" s="3"/>
+      <c r="P472" s="3"/>
+      <c r="Q472" s="3"/>
+      <c r="R472" s="3"/>
+      <c r="S472" s="3"/>
+      <c r="T472" s="3"/>
+      <c r="U472" s="3"/>
+      <c r="V472" s="3"/>
+      <c r="W472" s="3"/>
+      <c r="X472" s="3"/>
+      <c r="Y472" s="3"/>
+    </row>
+    <row r="473" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A473" s="4"/>
+      <c r="B473" s="3"/>
+      <c r="C473" s="3"/>
+      <c r="D473" s="5"/>
+      <c r="E473" s="5"/>
+      <c r="F473" s="3"/>
+      <c r="G473" s="3"/>
+      <c r="H473" s="3"/>
+      <c r="I473" s="3"/>
+      <c r="J473" s="3"/>
+      <c r="K473" s="3"/>
+      <c r="L473" s="3"/>
+      <c r="M473" s="3"/>
+      <c r="N473" s="3"/>
+      <c r="O473" s="3"/>
+      <c r="P473" s="3"/>
+      <c r="Q473" s="3"/>
+      <c r="R473" s="3"/>
+      <c r="S473" s="3"/>
+      <c r="T473" s="3"/>
+      <c r="U473" s="3"/>
+      <c r="V473" s="3"/>
+      <c r="W473" s="3"/>
+      <c r="X473" s="3"/>
+      <c r="Y473" s="3"/>
+    </row>
+    <row r="474" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A474" s="4"/>
+      <c r="B474" s="3"/>
+      <c r="C474" s="3"/>
+      <c r="D474" s="5"/>
+      <c r="E474" s="5"/>
+      <c r="F474" s="3"/>
+      <c r="G474" s="3"/>
+      <c r="H474" s="3"/>
+      <c r="I474" s="3"/>
+      <c r="J474" s="3"/>
+      <c r="K474" s="3"/>
+      <c r="L474" s="3"/>
+      <c r="M474" s="3"/>
+      <c r="N474" s="3"/>
+      <c r="O474" s="3"/>
+      <c r="P474" s="3"/>
+      <c r="Q474" s="3"/>
+      <c r="R474" s="3"/>
+      <c r="S474" s="3"/>
+      <c r="T474" s="3"/>
+      <c r="U474" s="3"/>
+      <c r="V474" s="3"/>
+      <c r="W474" s="3"/>
+      <c r="X474" s="3"/>
+      <c r="Y474" s="3"/>
+    </row>
+    <row r="475" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A475" s="4"/>
+      <c r="B475" s="3"/>
+      <c r="C475" s="3"/>
+      <c r="D475" s="5"/>
+      <c r="E475" s="5"/>
+      <c r="F475" s="3"/>
+      <c r="G475" s="3"/>
+      <c r="H475" s="3"/>
+      <c r="I475" s="3"/>
+      <c r="J475" s="3"/>
+      <c r="K475" s="3"/>
+      <c r="L475" s="3"/>
+      <c r="M475" s="3"/>
+      <c r="N475" s="3"/>
+      <c r="O475" s="3"/>
+      <c r="P475" s="3"/>
+      <c r="Q475" s="3"/>
+      <c r="R475" s="3"/>
+      <c r="S475" s="3"/>
+      <c r="T475" s="3"/>
+      <c r="U475" s="3"/>
+      <c r="V475" s="3"/>
+      <c r="W475" s="3"/>
+      <c r="X475" s="3"/>
+      <c r="Y475" s="3"/>
+    </row>
+    <row r="476" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A476" s="4"/>
+      <c r="B476" s="3"/>
+      <c r="C476" s="3"/>
+      <c r="D476" s="5"/>
+      <c r="E476" s="5"/>
+      <c r="F476" s="3"/>
+      <c r="G476" s="3"/>
+      <c r="H476" s="3"/>
+      <c r="I476" s="3"/>
+      <c r="J476" s="3"/>
+      <c r="K476" s="3"/>
+      <c r="L476" s="3"/>
+      <c r="M476" s="3"/>
+      <c r="N476" s="3"/>
+      <c r="O476" s="3"/>
+      <c r="P476" s="3"/>
+      <c r="Q476" s="3"/>
+      <c r="R476" s="3"/>
+      <c r="S476" s="3"/>
+      <c r="T476" s="3"/>
+      <c r="U476" s="3"/>
+      <c r="V476" s="3"/>
+      <c r="W476" s="3"/>
+      <c r="X476" s="3"/>
+      <c r="Y476" s="3"/>
+    </row>
+    <row r="477" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A477" s="4"/>
+      <c r="B477" s="3"/>
+      <c r="C477" s="3"/>
+      <c r="D477" s="5"/>
+      <c r="E477" s="5"/>
+      <c r="F477" s="3"/>
+      <c r="G477" s="3"/>
+      <c r="H477" s="3"/>
+      <c r="I477" s="3"/>
+      <c r="J477" s="3"/>
+      <c r="K477" s="3"/>
+      <c r="L477" s="3"/>
+      <c r="M477" s="3"/>
+      <c r="N477" s="3"/>
+      <c r="O477" s="3"/>
+      <c r="P477" s="3"/>
+      <c r="Q477" s="3"/>
+      <c r="R477" s="3"/>
+      <c r="S477" s="3"/>
+      <c r="T477" s="3"/>
+      <c r="U477" s="3"/>
+      <c r="V477" s="3"/>
+      <c r="W477" s="3"/>
+      <c r="X477" s="3"/>
+      <c r="Y477" s="3"/>
+    </row>
+    <row r="478" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A478" s="4"/>
+      <c r="B478" s="3"/>
+      <c r="C478" s="3"/>
+      <c r="D478" s="5"/>
+      <c r="E478" s="5"/>
+      <c r="F478" s="3"/>
+      <c r="G478" s="3"/>
+      <c r="H478" s="3"/>
+      <c r="I478" s="3"/>
+      <c r="J478" s="3"/>
+      <c r="K478" s="3"/>
+      <c r="L478" s="3"/>
+      <c r="M478" s="3"/>
+      <c r="N478" s="3"/>
+      <c r="O478" s="3"/>
+      <c r="P478" s="3"/>
+      <c r="Q478" s="3"/>
+      <c r="R478" s="3"/>
+      <c r="S478" s="3"/>
+      <c r="T478" s="3"/>
+      <c r="U478" s="3"/>
+      <c r="V478" s="3"/>
+      <c r="W478" s="3"/>
+      <c r="X478" s="3"/>
+      <c r="Y478" s="3"/>
+    </row>
+    <row r="479" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A479" s="4"/>
+      <c r="B479" s="3"/>
+      <c r="C479" s="3"/>
+      <c r="D479" s="5"/>
+      <c r="E479" s="5"/>
+      <c r="F479" s="3"/>
+      <c r="G479" s="3"/>
+      <c r="H479" s="3"/>
+      <c r="I479" s="3"/>
+      <c r="J479" s="3"/>
+      <c r="K479" s="3"/>
+      <c r="L479" s="3"/>
+      <c r="M479" s="3"/>
+      <c r="N479" s="3"/>
+      <c r="O479" s="3"/>
+      <c r="P479" s="3"/>
+      <c r="Q479" s="3"/>
+      <c r="R479" s="3"/>
+      <c r="S479" s="3"/>
+      <c r="T479" s="3"/>
+      <c r="U479" s="3"/>
+      <c r="V479" s="3"/>
+      <c r="W479" s="3"/>
+      <c r="X479" s="3"/>
+      <c r="Y479" s="3"/>
+    </row>
+    <row r="480" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A480" s="4"/>
+      <c r="B480" s="3"/>
+      <c r="C480" s="3"/>
+      <c r="D480" s="5"/>
+      <c r="E480" s="5"/>
+      <c r="F480" s="3"/>
+      <c r="G480" s="3"/>
+      <c r="H480" s="3"/>
+      <c r="I480" s="3"/>
+      <c r="J480" s="3"/>
+      <c r="K480" s="3"/>
+      <c r="L480" s="3"/>
+      <c r="M480" s="3"/>
+      <c r="N480" s="3"/>
+      <c r="O480" s="3"/>
+      <c r="P480" s="3"/>
+      <c r="Q480" s="3"/>
+      <c r="R480" s="3"/>
+      <c r="S480" s="3"/>
+      <c r="T480" s="3"/>
+      <c r="U480" s="3"/>
+      <c r="V480" s="3"/>
+      <c r="W480" s="3"/>
+      <c r="X480" s="3"/>
+      <c r="Y480" s="3"/>
+    </row>
+    <row r="481" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A481" s="4"/>
+      <c r="B481" s="3"/>
+      <c r="C481" s="3"/>
+      <c r="D481" s="5"/>
+      <c r="E481" s="5"/>
+      <c r="F481" s="3"/>
+      <c r="G481" s="3"/>
+      <c r="H481" s="3"/>
+      <c r="I481" s="3"/>
+      <c r="J481" s="3"/>
+      <c r="K481" s="3"/>
+      <c r="L481" s="3"/>
+      <c r="M481" s="3"/>
+      <c r="N481" s="3"/>
+      <c r="O481" s="3"/>
+      <c r="P481" s="3"/>
+      <c r="Q481" s="3"/>
+      <c r="R481" s="3"/>
+      <c r="S481" s="3"/>
+      <c r="T481" s="3"/>
+      <c r="U481" s="3"/>
+      <c r="V481" s="3"/>
+      <c r="W481" s="3"/>
+      <c r="X481" s="3"/>
+      <c r="Y481" s="3"/>
+    </row>
+    <row r="482" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A482" s="4"/>
+      <c r="B482" s="3"/>
+      <c r="C482" s="3"/>
+      <c r="D482" s="5"/>
+      <c r="E482" s="5"/>
+      <c r="F482" s="3"/>
+      <c r="G482" s="3"/>
+      <c r="H482" s="3"/>
+      <c r="I482" s="3"/>
+      <c r="J482" s="3"/>
+      <c r="K482" s="3"/>
+      <c r="L482" s="3"/>
+      <c r="M482" s="3"/>
+      <c r="N482" s="3"/>
+      <c r="O482" s="3"/>
+      <c r="P482" s="3"/>
+      <c r="Q482" s="3"/>
+      <c r="R482" s="3"/>
+      <c r="S482" s="3"/>
+      <c r="T482" s="3"/>
+      <c r="U482" s="3"/>
+      <c r="V482" s="3"/>
+      <c r="W482" s="3"/>
+      <c r="X482" s="3"/>
+      <c r="Y482" s="3"/>
+    </row>
+    <row r="483" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A483" s="4"/>
+      <c r="B483" s="3"/>
+      <c r="C483" s="3"/>
+      <c r="D483" s="5"/>
+      <c r="E483" s="5"/>
+      <c r="F483" s="3"/>
+      <c r="G483" s="3"/>
+      <c r="H483" s="3"/>
+      <c r="I483" s="3"/>
+      <c r="J483" s="3"/>
+      <c r="K483" s="3"/>
+      <c r="L483" s="3"/>
+      <c r="M483" s="3"/>
+      <c r="N483" s="3"/>
+      <c r="O483" s="3"/>
+      <c r="P483" s="3"/>
+      <c r="Q483" s="3"/>
+      <c r="R483" s="3"/>
+      <c r="S483" s="3"/>
+      <c r="T483" s="3"/>
+      <c r="U483" s="3"/>
+      <c r="V483" s="3"/>
+      <c r="W483" s="3"/>
+      <c r="X483" s="3"/>
+      <c r="Y483" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D397">
+  <conditionalFormatting sqref="D1:D483">
     <cfRule type="cellIs" priority="1" dxfId="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
@@ -11415,7 +13725,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E397">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E483">
       <formula1>'Group-Turn'!$A:$A</formula1>
     </dataValidation>
   </dataValidations>
@@ -11432,7 +13742,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="topLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
@@ -11492,16 +13802,16 @@
         <v>20</v>
       </c>
       <c r="C2" s="11">
-        <v>30.0</v>
+        <v>90.0</v>
       </c>
       <c r="D2" s="11">
         <v>1.0</v>
       </c>
       <c r="E2" s="11">
-        <v>1.0</v>
+        <v>90.0</v>
       </c>
       <c r="F2" s="11">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>21</v>
@@ -19363,7 +21673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329d9a98-92b7-43b3-a000-f11e6fe09326}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3279bdba-83e2-49fe-b012-25f54fcd8344}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -19371,7 +21681,7 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="5" spans="1:1" ht="23.25" customHeight="1">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="18" t="s">
         <v>40</v>
       </c>
     </row>

--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Scope" sheetId="1" r:id="rId3"/>
@@ -17,7 +17,7 @@
     <sheet name="Options" sheetId="3" r:id="rId5"/>
     <sheet name="Group-Turn" sheetId="4" r:id="rId6"/>
     <sheet name="Note" sheetId="5" r:id="rId7"/>
-    <sheet name="Evaluation Warning" sheetId="486" r:id="rId8"/>
+    <sheet name="Evaluation Warning" sheetId="602" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -149,10 +149,10 @@
     <t>Evaluation Only. Created with Aspose.Cells for Java.Copyright 2003 - 2021 Aspose Pty Ltd.</t>
   </si>
   <si>
-    <t>Report_BE.STW01SortTheWords(Clone)</t>
+    <t>Flying owls</t>
   </si>
   <si>
-    <t>SortTheWord</t>
+    <t>Report_BE.PS02FlyingOwls(Clone)</t>
   </si>
 </sst>
 </file>
@@ -638,7 +638,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y483"/>
+  <dimension ref="A1:Y599"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -695,7 +695,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -13712,8 +13712,3140 @@
       <c r="X483" s="3"/>
       <c r="Y483" s="3"/>
     </row>
+    <row r="484" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A484" s="4"/>
+      <c r="B484" s="3"/>
+      <c r="C484" s="3"/>
+      <c r="D484" s="5"/>
+      <c r="E484" s="5"/>
+      <c r="F484" s="3"/>
+      <c r="G484" s="3"/>
+      <c r="H484" s="3"/>
+      <c r="I484" s="3"/>
+      <c r="J484" s="3"/>
+      <c r="K484" s="3"/>
+      <c r="L484" s="3"/>
+      <c r="M484" s="3"/>
+      <c r="N484" s="3"/>
+      <c r="O484" s="3"/>
+      <c r="P484" s="3"/>
+      <c r="Q484" s="3"/>
+      <c r="R484" s="3"/>
+      <c r="S484" s="3"/>
+      <c r="T484" s="3"/>
+      <c r="U484" s="3"/>
+      <c r="V484" s="3"/>
+      <c r="W484" s="3"/>
+      <c r="X484" s="3"/>
+      <c r="Y484" s="3"/>
+    </row>
+    <row r="485" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A485" s="4"/>
+      <c r="B485" s="3"/>
+      <c r="C485" s="3"/>
+      <c r="D485" s="5"/>
+      <c r="E485" s="5"/>
+      <c r="F485" s="3"/>
+      <c r="G485" s="3"/>
+      <c r="H485" s="3"/>
+      <c r="I485" s="3"/>
+      <c r="J485" s="3"/>
+      <c r="K485" s="3"/>
+      <c r="L485" s="3"/>
+      <c r="M485" s="3"/>
+      <c r="N485" s="3"/>
+      <c r="O485" s="3"/>
+      <c r="P485" s="3"/>
+      <c r="Q485" s="3"/>
+      <c r="R485" s="3"/>
+      <c r="S485" s="3"/>
+      <c r="T485" s="3"/>
+      <c r="U485" s="3"/>
+      <c r="V485" s="3"/>
+      <c r="W485" s="3"/>
+      <c r="X485" s="3"/>
+      <c r="Y485" s="3"/>
+    </row>
+    <row r="486" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A486" s="4"/>
+      <c r="B486" s="3"/>
+      <c r="C486" s="3"/>
+      <c r="D486" s="5"/>
+      <c r="E486" s="5"/>
+      <c r="F486" s="3"/>
+      <c r="G486" s="3"/>
+      <c r="H486" s="3"/>
+      <c r="I486" s="3"/>
+      <c r="J486" s="3"/>
+      <c r="K486" s="3"/>
+      <c r="L486" s="3"/>
+      <c r="M486" s="3"/>
+      <c r="N486" s="3"/>
+      <c r="O486" s="3"/>
+      <c r="P486" s="3"/>
+      <c r="Q486" s="3"/>
+      <c r="R486" s="3"/>
+      <c r="S486" s="3"/>
+      <c r="T486" s="3"/>
+      <c r="U486" s="3"/>
+      <c r="V486" s="3"/>
+      <c r="W486" s="3"/>
+      <c r="X486" s="3"/>
+      <c r="Y486" s="3"/>
+    </row>
+    <row r="487" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A487" s="4"/>
+      <c r="B487" s="3"/>
+      <c r="C487" s="3"/>
+      <c r="D487" s="5"/>
+      <c r="E487" s="5"/>
+      <c r="F487" s="3"/>
+      <c r="G487" s="3"/>
+      <c r="H487" s="3"/>
+      <c r="I487" s="3"/>
+      <c r="J487" s="3"/>
+      <c r="K487" s="3"/>
+      <c r="L487" s="3"/>
+      <c r="M487" s="3"/>
+      <c r="N487" s="3"/>
+      <c r="O487" s="3"/>
+      <c r="P487" s="3"/>
+      <c r="Q487" s="3"/>
+      <c r="R487" s="3"/>
+      <c r="S487" s="3"/>
+      <c r="T487" s="3"/>
+      <c r="U487" s="3"/>
+      <c r="V487" s="3"/>
+      <c r="W487" s="3"/>
+      <c r="X487" s="3"/>
+      <c r="Y487" s="3"/>
+    </row>
+    <row r="488" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A488" s="4"/>
+      <c r="B488" s="3"/>
+      <c r="C488" s="3"/>
+      <c r="D488" s="5"/>
+      <c r="E488" s="5"/>
+      <c r="F488" s="3"/>
+      <c r="G488" s="3"/>
+      <c r="H488" s="3"/>
+      <c r="I488" s="3"/>
+      <c r="J488" s="3"/>
+      <c r="K488" s="3"/>
+      <c r="L488" s="3"/>
+      <c r="M488" s="3"/>
+      <c r="N488" s="3"/>
+      <c r="O488" s="3"/>
+      <c r="P488" s="3"/>
+      <c r="Q488" s="3"/>
+      <c r="R488" s="3"/>
+      <c r="S488" s="3"/>
+      <c r="T488" s="3"/>
+      <c r="U488" s="3"/>
+      <c r="V488" s="3"/>
+      <c r="W488" s="3"/>
+      <c r="X488" s="3"/>
+      <c r="Y488" s="3"/>
+    </row>
+    <row r="489" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A489" s="4"/>
+      <c r="B489" s="3"/>
+      <c r="C489" s="3"/>
+      <c r="D489" s="5"/>
+      <c r="E489" s="5"/>
+      <c r="F489" s="3"/>
+      <c r="G489" s="3"/>
+      <c r="H489" s="3"/>
+      <c r="I489" s="3"/>
+      <c r="J489" s="3"/>
+      <c r="K489" s="3"/>
+      <c r="L489" s="3"/>
+      <c r="M489" s="3"/>
+      <c r="N489" s="3"/>
+      <c r="O489" s="3"/>
+      <c r="P489" s="3"/>
+      <c r="Q489" s="3"/>
+      <c r="R489" s="3"/>
+      <c r="S489" s="3"/>
+      <c r="T489" s="3"/>
+      <c r="U489" s="3"/>
+      <c r="V489" s="3"/>
+      <c r="W489" s="3"/>
+      <c r="X489" s="3"/>
+      <c r="Y489" s="3"/>
+    </row>
+    <row r="490" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A490" s="4"/>
+      <c r="B490" s="3"/>
+      <c r="C490" s="3"/>
+      <c r="D490" s="5"/>
+      <c r="E490" s="5"/>
+      <c r="F490" s="3"/>
+      <c r="G490" s="3"/>
+      <c r="H490" s="3"/>
+      <c r="I490" s="3"/>
+      <c r="J490" s="3"/>
+      <c r="K490" s="3"/>
+      <c r="L490" s="3"/>
+      <c r="M490" s="3"/>
+      <c r="N490" s="3"/>
+      <c r="O490" s="3"/>
+      <c r="P490" s="3"/>
+      <c r="Q490" s="3"/>
+      <c r="R490" s="3"/>
+      <c r="S490" s="3"/>
+      <c r="T490" s="3"/>
+      <c r="U490" s="3"/>
+      <c r="V490" s="3"/>
+      <c r="W490" s="3"/>
+      <c r="X490" s="3"/>
+      <c r="Y490" s="3"/>
+    </row>
+    <row r="491" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A491" s="4"/>
+      <c r="B491" s="3"/>
+      <c r="C491" s="3"/>
+      <c r="D491" s="5"/>
+      <c r="E491" s="5"/>
+      <c r="F491" s="3"/>
+      <c r="G491" s="3"/>
+      <c r="H491" s="3"/>
+      <c r="I491" s="3"/>
+      <c r="J491" s="3"/>
+      <c r="K491" s="3"/>
+      <c r="L491" s="3"/>
+      <c r="M491" s="3"/>
+      <c r="N491" s="3"/>
+      <c r="O491" s="3"/>
+      <c r="P491" s="3"/>
+      <c r="Q491" s="3"/>
+      <c r="R491" s="3"/>
+      <c r="S491" s="3"/>
+      <c r="T491" s="3"/>
+      <c r="U491" s="3"/>
+      <c r="V491" s="3"/>
+      <c r="W491" s="3"/>
+      <c r="X491" s="3"/>
+      <c r="Y491" s="3"/>
+    </row>
+    <row r="492" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A492" s="4"/>
+      <c r="B492" s="3"/>
+      <c r="C492" s="3"/>
+      <c r="D492" s="5"/>
+      <c r="E492" s="5"/>
+      <c r="F492" s="3"/>
+      <c r="G492" s="3"/>
+      <c r="H492" s="3"/>
+      <c r="I492" s="3"/>
+      <c r="J492" s="3"/>
+      <c r="K492" s="3"/>
+      <c r="L492" s="3"/>
+      <c r="M492" s="3"/>
+      <c r="N492" s="3"/>
+      <c r="O492" s="3"/>
+      <c r="P492" s="3"/>
+      <c r="Q492" s="3"/>
+      <c r="R492" s="3"/>
+      <c r="S492" s="3"/>
+      <c r="T492" s="3"/>
+      <c r="U492" s="3"/>
+      <c r="V492" s="3"/>
+      <c r="W492" s="3"/>
+      <c r="X492" s="3"/>
+      <c r="Y492" s="3"/>
+    </row>
+    <row r="493" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A493" s="4"/>
+      <c r="B493" s="3"/>
+      <c r="C493" s="3"/>
+      <c r="D493" s="5"/>
+      <c r="E493" s="5"/>
+      <c r="F493" s="3"/>
+      <c r="G493" s="3"/>
+      <c r="H493" s="3"/>
+      <c r="I493" s="3"/>
+      <c r="J493" s="3"/>
+      <c r="K493" s="3"/>
+      <c r="L493" s="3"/>
+      <c r="M493" s="3"/>
+      <c r="N493" s="3"/>
+      <c r="O493" s="3"/>
+      <c r="P493" s="3"/>
+      <c r="Q493" s="3"/>
+      <c r="R493" s="3"/>
+      <c r="S493" s="3"/>
+      <c r="T493" s="3"/>
+      <c r="U493" s="3"/>
+      <c r="V493" s="3"/>
+      <c r="W493" s="3"/>
+      <c r="X493" s="3"/>
+      <c r="Y493" s="3"/>
+    </row>
+    <row r="494" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A494" s="4"/>
+      <c r="B494" s="3"/>
+      <c r="C494" s="3"/>
+      <c r="D494" s="5"/>
+      <c r="E494" s="5"/>
+      <c r="F494" s="3"/>
+      <c r="G494" s="3"/>
+      <c r="H494" s="3"/>
+      <c r="I494" s="3"/>
+      <c r="J494" s="3"/>
+      <c r="K494" s="3"/>
+      <c r="L494" s="3"/>
+      <c r="M494" s="3"/>
+      <c r="N494" s="3"/>
+      <c r="O494" s="3"/>
+      <c r="P494" s="3"/>
+      <c r="Q494" s="3"/>
+      <c r="R494" s="3"/>
+      <c r="S494" s="3"/>
+      <c r="T494" s="3"/>
+      <c r="U494" s="3"/>
+      <c r="V494" s="3"/>
+      <c r="W494" s="3"/>
+      <c r="X494" s="3"/>
+      <c r="Y494" s="3"/>
+    </row>
+    <row r="495" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A495" s="4"/>
+      <c r="B495" s="3"/>
+      <c r="C495" s="3"/>
+      <c r="D495" s="5"/>
+      <c r="E495" s="5"/>
+      <c r="F495" s="3"/>
+      <c r="G495" s="3"/>
+      <c r="H495" s="3"/>
+      <c r="I495" s="3"/>
+      <c r="J495" s="3"/>
+      <c r="K495" s="3"/>
+      <c r="L495" s="3"/>
+      <c r="M495" s="3"/>
+      <c r="N495" s="3"/>
+      <c r="O495" s="3"/>
+      <c r="P495" s="3"/>
+      <c r="Q495" s="3"/>
+      <c r="R495" s="3"/>
+      <c r="S495" s="3"/>
+      <c r="T495" s="3"/>
+      <c r="U495" s="3"/>
+      <c r="V495" s="3"/>
+      <c r="W495" s="3"/>
+      <c r="X495" s="3"/>
+      <c r="Y495" s="3"/>
+    </row>
+    <row r="496" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A496" s="4"/>
+      <c r="B496" s="3"/>
+      <c r="C496" s="3"/>
+      <c r="D496" s="5"/>
+      <c r="E496" s="5"/>
+      <c r="F496" s="3"/>
+      <c r="G496" s="3"/>
+      <c r="H496" s="3"/>
+      <c r="I496" s="3"/>
+      <c r="J496" s="3"/>
+      <c r="K496" s="3"/>
+      <c r="L496" s="3"/>
+      <c r="M496" s="3"/>
+      <c r="N496" s="3"/>
+      <c r="O496" s="3"/>
+      <c r="P496" s="3"/>
+      <c r="Q496" s="3"/>
+      <c r="R496" s="3"/>
+      <c r="S496" s="3"/>
+      <c r="T496" s="3"/>
+      <c r="U496" s="3"/>
+      <c r="V496" s="3"/>
+      <c r="W496" s="3"/>
+      <c r="X496" s="3"/>
+      <c r="Y496" s="3"/>
+    </row>
+    <row r="497" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A497" s="4"/>
+      <c r="B497" s="3"/>
+      <c r="C497" s="3"/>
+      <c r="D497" s="5"/>
+      <c r="E497" s="5"/>
+      <c r="F497" s="3"/>
+      <c r="G497" s="3"/>
+      <c r="H497" s="3"/>
+      <c r="I497" s="3"/>
+      <c r="J497" s="3"/>
+      <c r="K497" s="3"/>
+      <c r="L497" s="3"/>
+      <c r="M497" s="3"/>
+      <c r="N497" s="3"/>
+      <c r="O497" s="3"/>
+      <c r="P497" s="3"/>
+      <c r="Q497" s="3"/>
+      <c r="R497" s="3"/>
+      <c r="S497" s="3"/>
+      <c r="T497" s="3"/>
+      <c r="U497" s="3"/>
+      <c r="V497" s="3"/>
+      <c r="W497" s="3"/>
+      <c r="X497" s="3"/>
+      <c r="Y497" s="3"/>
+    </row>
+    <row r="498" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A498" s="4"/>
+      <c r="B498" s="3"/>
+      <c r="C498" s="3"/>
+      <c r="D498" s="5"/>
+      <c r="E498" s="5"/>
+      <c r="F498" s="3"/>
+      <c r="G498" s="3"/>
+      <c r="H498" s="3"/>
+      <c r="I498" s="3"/>
+      <c r="J498" s="3"/>
+      <c r="K498" s="3"/>
+      <c r="L498" s="3"/>
+      <c r="M498" s="3"/>
+      <c r="N498" s="3"/>
+      <c r="O498" s="3"/>
+      <c r="P498" s="3"/>
+      <c r="Q498" s="3"/>
+      <c r="R498" s="3"/>
+      <c r="S498" s="3"/>
+      <c r="T498" s="3"/>
+      <c r="U498" s="3"/>
+      <c r="V498" s="3"/>
+      <c r="W498" s="3"/>
+      <c r="X498" s="3"/>
+      <c r="Y498" s="3"/>
+    </row>
+    <row r="499" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A499" s="4"/>
+      <c r="B499" s="3"/>
+      <c r="C499" s="3"/>
+      <c r="D499" s="5"/>
+      <c r="E499" s="5"/>
+      <c r="F499" s="3"/>
+      <c r="G499" s="3"/>
+      <c r="H499" s="3"/>
+      <c r="I499" s="3"/>
+      <c r="J499" s="3"/>
+      <c r="K499" s="3"/>
+      <c r="L499" s="3"/>
+      <c r="M499" s="3"/>
+      <c r="N499" s="3"/>
+      <c r="O499" s="3"/>
+      <c r="P499" s="3"/>
+      <c r="Q499" s="3"/>
+      <c r="R499" s="3"/>
+      <c r="S499" s="3"/>
+      <c r="T499" s="3"/>
+      <c r="U499" s="3"/>
+      <c r="V499" s="3"/>
+      <c r="W499" s="3"/>
+      <c r="X499" s="3"/>
+      <c r="Y499" s="3"/>
+    </row>
+    <row r="500" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A500" s="4"/>
+      <c r="B500" s="3"/>
+      <c r="C500" s="3"/>
+      <c r="D500" s="5"/>
+      <c r="E500" s="5"/>
+      <c r="F500" s="3"/>
+      <c r="G500" s="3"/>
+      <c r="H500" s="3"/>
+      <c r="I500" s="3"/>
+      <c r="J500" s="3"/>
+      <c r="K500" s="3"/>
+      <c r="L500" s="3"/>
+      <c r="M500" s="3"/>
+      <c r="N500" s="3"/>
+      <c r="O500" s="3"/>
+      <c r="P500" s="3"/>
+      <c r="Q500" s="3"/>
+      <c r="R500" s="3"/>
+      <c r="S500" s="3"/>
+      <c r="T500" s="3"/>
+      <c r="U500" s="3"/>
+      <c r="V500" s="3"/>
+      <c r="W500" s="3"/>
+      <c r="X500" s="3"/>
+      <c r="Y500" s="3"/>
+    </row>
+    <row r="501" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A501" s="4"/>
+      <c r="B501" s="3"/>
+      <c r="C501" s="3"/>
+      <c r="D501" s="5"/>
+      <c r="E501" s="5"/>
+      <c r="F501" s="3"/>
+      <c r="G501" s="3"/>
+      <c r="H501" s="3"/>
+      <c r="I501" s="3"/>
+      <c r="J501" s="3"/>
+      <c r="K501" s="3"/>
+      <c r="L501" s="3"/>
+      <c r="M501" s="3"/>
+      <c r="N501" s="3"/>
+      <c r="O501" s="3"/>
+      <c r="P501" s="3"/>
+      <c r="Q501" s="3"/>
+      <c r="R501" s="3"/>
+      <c r="S501" s="3"/>
+      <c r="T501" s="3"/>
+      <c r="U501" s="3"/>
+      <c r="V501" s="3"/>
+      <c r="W501" s="3"/>
+      <c r="X501" s="3"/>
+      <c r="Y501" s="3"/>
+    </row>
+    <row r="502" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A502" s="4"/>
+      <c r="B502" s="3"/>
+      <c r="C502" s="3"/>
+      <c r="D502" s="5"/>
+      <c r="E502" s="5"/>
+      <c r="F502" s="3"/>
+      <c r="G502" s="3"/>
+      <c r="H502" s="3"/>
+      <c r="I502" s="3"/>
+      <c r="J502" s="3"/>
+      <c r="K502" s="3"/>
+      <c r="L502" s="3"/>
+      <c r="M502" s="3"/>
+      <c r="N502" s="3"/>
+      <c r="O502" s="3"/>
+      <c r="P502" s="3"/>
+      <c r="Q502" s="3"/>
+      <c r="R502" s="3"/>
+      <c r="S502" s="3"/>
+      <c r="T502" s="3"/>
+      <c r="U502" s="3"/>
+      <c r="V502" s="3"/>
+      <c r="W502" s="3"/>
+      <c r="X502" s="3"/>
+      <c r="Y502" s="3"/>
+    </row>
+    <row r="503" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A503" s="4"/>
+      <c r="B503" s="3"/>
+      <c r="C503" s="3"/>
+      <c r="D503" s="5"/>
+      <c r="E503" s="5"/>
+      <c r="F503" s="3"/>
+      <c r="G503" s="3"/>
+      <c r="H503" s="3"/>
+      <c r="I503" s="3"/>
+      <c r="J503" s="3"/>
+      <c r="K503" s="3"/>
+      <c r="L503" s="3"/>
+      <c r="M503" s="3"/>
+      <c r="N503" s="3"/>
+      <c r="O503" s="3"/>
+      <c r="P503" s="3"/>
+      <c r="Q503" s="3"/>
+      <c r="R503" s="3"/>
+      <c r="S503" s="3"/>
+      <c r="T503" s="3"/>
+      <c r="U503" s="3"/>
+      <c r="V503" s="3"/>
+      <c r="W503" s="3"/>
+      <c r="X503" s="3"/>
+      <c r="Y503" s="3"/>
+    </row>
+    <row r="504" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A504" s="4"/>
+      <c r="B504" s="3"/>
+      <c r="C504" s="3"/>
+      <c r="D504" s="5"/>
+      <c r="E504" s="5"/>
+      <c r="F504" s="3"/>
+      <c r="G504" s="3"/>
+      <c r="H504" s="3"/>
+      <c r="I504" s="3"/>
+      <c r="J504" s="3"/>
+      <c r="K504" s="3"/>
+      <c r="L504" s="3"/>
+      <c r="M504" s="3"/>
+      <c r="N504" s="3"/>
+      <c r="O504" s="3"/>
+      <c r="P504" s="3"/>
+      <c r="Q504" s="3"/>
+      <c r="R504" s="3"/>
+      <c r="S504" s="3"/>
+      <c r="T504" s="3"/>
+      <c r="U504" s="3"/>
+      <c r="V504" s="3"/>
+      <c r="W504" s="3"/>
+      <c r="X504" s="3"/>
+      <c r="Y504" s="3"/>
+    </row>
+    <row r="505" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A505" s="4"/>
+      <c r="B505" s="3"/>
+      <c r="C505" s="3"/>
+      <c r="D505" s="5"/>
+      <c r="E505" s="5"/>
+      <c r="F505" s="3"/>
+      <c r="G505" s="3"/>
+      <c r="H505" s="3"/>
+      <c r="I505" s="3"/>
+      <c r="J505" s="3"/>
+      <c r="K505" s="3"/>
+      <c r="L505" s="3"/>
+      <c r="M505" s="3"/>
+      <c r="N505" s="3"/>
+      <c r="O505" s="3"/>
+      <c r="P505" s="3"/>
+      <c r="Q505" s="3"/>
+      <c r="R505" s="3"/>
+      <c r="S505" s="3"/>
+      <c r="T505" s="3"/>
+      <c r="U505" s="3"/>
+      <c r="V505" s="3"/>
+      <c r="W505" s="3"/>
+      <c r="X505" s="3"/>
+      <c r="Y505" s="3"/>
+    </row>
+    <row r="506" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A506" s="4"/>
+      <c r="B506" s="3"/>
+      <c r="C506" s="3"/>
+      <c r="D506" s="5"/>
+      <c r="E506" s="5"/>
+      <c r="F506" s="3"/>
+      <c r="G506" s="3"/>
+      <c r="H506" s="3"/>
+      <c r="I506" s="3"/>
+      <c r="J506" s="3"/>
+      <c r="K506" s="3"/>
+      <c r="L506" s="3"/>
+      <c r="M506" s="3"/>
+      <c r="N506" s="3"/>
+      <c r="O506" s="3"/>
+      <c r="P506" s="3"/>
+      <c r="Q506" s="3"/>
+      <c r="R506" s="3"/>
+      <c r="S506" s="3"/>
+      <c r="T506" s="3"/>
+      <c r="U506" s="3"/>
+      <c r="V506" s="3"/>
+      <c r="W506" s="3"/>
+      <c r="X506" s="3"/>
+      <c r="Y506" s="3"/>
+    </row>
+    <row r="507" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A507" s="4"/>
+      <c r="B507" s="3"/>
+      <c r="C507" s="3"/>
+      <c r="D507" s="5"/>
+      <c r="E507" s="5"/>
+      <c r="F507" s="3"/>
+      <c r="G507" s="3"/>
+      <c r="H507" s="3"/>
+      <c r="I507" s="3"/>
+      <c r="J507" s="3"/>
+      <c r="K507" s="3"/>
+      <c r="L507" s="3"/>
+      <c r="M507" s="3"/>
+      <c r="N507" s="3"/>
+      <c r="O507" s="3"/>
+      <c r="P507" s="3"/>
+      <c r="Q507" s="3"/>
+      <c r="R507" s="3"/>
+      <c r="S507" s="3"/>
+      <c r="T507" s="3"/>
+      <c r="U507" s="3"/>
+      <c r="V507" s="3"/>
+      <c r="W507" s="3"/>
+      <c r="X507" s="3"/>
+      <c r="Y507" s="3"/>
+    </row>
+    <row r="508" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A508" s="4"/>
+      <c r="B508" s="3"/>
+      <c r="C508" s="3"/>
+      <c r="D508" s="5"/>
+      <c r="E508" s="5"/>
+      <c r="F508" s="3"/>
+      <c r="G508" s="3"/>
+      <c r="H508" s="3"/>
+      <c r="I508" s="3"/>
+      <c r="J508" s="3"/>
+      <c r="K508" s="3"/>
+      <c r="L508" s="3"/>
+      <c r="M508" s="3"/>
+      <c r="N508" s="3"/>
+      <c r="O508" s="3"/>
+      <c r="P508" s="3"/>
+      <c r="Q508" s="3"/>
+      <c r="R508" s="3"/>
+      <c r="S508" s="3"/>
+      <c r="T508" s="3"/>
+      <c r="U508" s="3"/>
+      <c r="V508" s="3"/>
+      <c r="W508" s="3"/>
+      <c r="X508" s="3"/>
+      <c r="Y508" s="3"/>
+    </row>
+    <row r="509" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A509" s="4"/>
+      <c r="B509" s="3"/>
+      <c r="C509" s="3"/>
+      <c r="D509" s="5"/>
+      <c r="E509" s="5"/>
+      <c r="F509" s="3"/>
+      <c r="G509" s="3"/>
+      <c r="H509" s="3"/>
+      <c r="I509" s="3"/>
+      <c r="J509" s="3"/>
+      <c r="K509" s="3"/>
+      <c r="L509" s="3"/>
+      <c r="M509" s="3"/>
+      <c r="N509" s="3"/>
+      <c r="O509" s="3"/>
+      <c r="P509" s="3"/>
+      <c r="Q509" s="3"/>
+      <c r="R509" s="3"/>
+      <c r="S509" s="3"/>
+      <c r="T509" s="3"/>
+      <c r="U509" s="3"/>
+      <c r="V509" s="3"/>
+      <c r="W509" s="3"/>
+      <c r="X509" s="3"/>
+      <c r="Y509" s="3"/>
+    </row>
+    <row r="510" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A510" s="4"/>
+      <c r="B510" s="3"/>
+      <c r="C510" s="3"/>
+      <c r="D510" s="5"/>
+      <c r="E510" s="5"/>
+      <c r="F510" s="3"/>
+      <c r="G510" s="3"/>
+      <c r="H510" s="3"/>
+      <c r="I510" s="3"/>
+      <c r="J510" s="3"/>
+      <c r="K510" s="3"/>
+      <c r="L510" s="3"/>
+      <c r="M510" s="3"/>
+      <c r="N510" s="3"/>
+      <c r="O510" s="3"/>
+      <c r="P510" s="3"/>
+      <c r="Q510" s="3"/>
+      <c r="R510" s="3"/>
+      <c r="S510" s="3"/>
+      <c r="T510" s="3"/>
+      <c r="U510" s="3"/>
+      <c r="V510" s="3"/>
+      <c r="W510" s="3"/>
+      <c r="X510" s="3"/>
+      <c r="Y510" s="3"/>
+    </row>
+    <row r="511" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A511" s="4"/>
+      <c r="B511" s="3"/>
+      <c r="C511" s="3"/>
+      <c r="D511" s="5"/>
+      <c r="E511" s="5"/>
+      <c r="F511" s="3"/>
+      <c r="G511" s="3"/>
+      <c r="H511" s="3"/>
+      <c r="I511" s="3"/>
+      <c r="J511" s="3"/>
+      <c r="K511" s="3"/>
+      <c r="L511" s="3"/>
+      <c r="M511" s="3"/>
+      <c r="N511" s="3"/>
+      <c r="O511" s="3"/>
+      <c r="P511" s="3"/>
+      <c r="Q511" s="3"/>
+      <c r="R511" s="3"/>
+      <c r="S511" s="3"/>
+      <c r="T511" s="3"/>
+      <c r="U511" s="3"/>
+      <c r="V511" s="3"/>
+      <c r="W511" s="3"/>
+      <c r="X511" s="3"/>
+      <c r="Y511" s="3"/>
+    </row>
+    <row r="512" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A512" s="4"/>
+      <c r="B512" s="3"/>
+      <c r="C512" s="3"/>
+      <c r="D512" s="5"/>
+      <c r="E512" s="5"/>
+      <c r="F512" s="3"/>
+      <c r="G512" s="3"/>
+      <c r="H512" s="3"/>
+      <c r="I512" s="3"/>
+      <c r="J512" s="3"/>
+      <c r="K512" s="3"/>
+      <c r="L512" s="3"/>
+      <c r="M512" s="3"/>
+      <c r="N512" s="3"/>
+      <c r="O512" s="3"/>
+      <c r="P512" s="3"/>
+      <c r="Q512" s="3"/>
+      <c r="R512" s="3"/>
+      <c r="S512" s="3"/>
+      <c r="T512" s="3"/>
+      <c r="U512" s="3"/>
+      <c r="V512" s="3"/>
+      <c r="W512" s="3"/>
+      <c r="X512" s="3"/>
+      <c r="Y512" s="3"/>
+    </row>
+    <row r="513" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A513" s="4"/>
+      <c r="B513" s="3"/>
+      <c r="C513" s="3"/>
+      <c r="D513" s="5"/>
+      <c r="E513" s="5"/>
+      <c r="F513" s="3"/>
+      <c r="G513" s="3"/>
+      <c r="H513" s="3"/>
+      <c r="I513" s="3"/>
+      <c r="J513" s="3"/>
+      <c r="K513" s="3"/>
+      <c r="L513" s="3"/>
+      <c r="M513" s="3"/>
+      <c r="N513" s="3"/>
+      <c r="O513" s="3"/>
+      <c r="P513" s="3"/>
+      <c r="Q513" s="3"/>
+      <c r="R513" s="3"/>
+      <c r="S513" s="3"/>
+      <c r="T513" s="3"/>
+      <c r="U513" s="3"/>
+      <c r="V513" s="3"/>
+      <c r="W513" s="3"/>
+      <c r="X513" s="3"/>
+      <c r="Y513" s="3"/>
+    </row>
+    <row r="514" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A514" s="4"/>
+      <c r="B514" s="3"/>
+      <c r="C514" s="3"/>
+      <c r="D514" s="5"/>
+      <c r="E514" s="5"/>
+      <c r="F514" s="3"/>
+      <c r="G514" s="3"/>
+      <c r="H514" s="3"/>
+      <c r="I514" s="3"/>
+      <c r="J514" s="3"/>
+      <c r="K514" s="3"/>
+      <c r="L514" s="3"/>
+      <c r="M514" s="3"/>
+      <c r="N514" s="3"/>
+      <c r="O514" s="3"/>
+      <c r="P514" s="3"/>
+      <c r="Q514" s="3"/>
+      <c r="R514" s="3"/>
+      <c r="S514" s="3"/>
+      <c r="T514" s="3"/>
+      <c r="U514" s="3"/>
+      <c r="V514" s="3"/>
+      <c r="W514" s="3"/>
+      <c r="X514" s="3"/>
+      <c r="Y514" s="3"/>
+    </row>
+    <row r="515" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A515" s="4"/>
+      <c r="B515" s="3"/>
+      <c r="C515" s="3"/>
+      <c r="D515" s="5"/>
+      <c r="E515" s="5"/>
+      <c r="F515" s="3"/>
+      <c r="G515" s="3"/>
+      <c r="H515" s="3"/>
+      <c r="I515" s="3"/>
+      <c r="J515" s="3"/>
+      <c r="K515" s="3"/>
+      <c r="L515" s="3"/>
+      <c r="M515" s="3"/>
+      <c r="N515" s="3"/>
+      <c r="O515" s="3"/>
+      <c r="P515" s="3"/>
+      <c r="Q515" s="3"/>
+      <c r="R515" s="3"/>
+      <c r="S515" s="3"/>
+      <c r="T515" s="3"/>
+      <c r="U515" s="3"/>
+      <c r="V515" s="3"/>
+      <c r="W515" s="3"/>
+      <c r="X515" s="3"/>
+      <c r="Y515" s="3"/>
+    </row>
+    <row r="516" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A516" s="4"/>
+      <c r="B516" s="3"/>
+      <c r="C516" s="3"/>
+      <c r="D516" s="5"/>
+      <c r="E516" s="5"/>
+      <c r="F516" s="3"/>
+      <c r="G516" s="3"/>
+      <c r="H516" s="3"/>
+      <c r="I516" s="3"/>
+      <c r="J516" s="3"/>
+      <c r="K516" s="3"/>
+      <c r="L516" s="3"/>
+      <c r="M516" s="3"/>
+      <c r="N516" s="3"/>
+      <c r="O516" s="3"/>
+      <c r="P516" s="3"/>
+      <c r="Q516" s="3"/>
+      <c r="R516" s="3"/>
+      <c r="S516" s="3"/>
+      <c r="T516" s="3"/>
+      <c r="U516" s="3"/>
+      <c r="V516" s="3"/>
+      <c r="W516" s="3"/>
+      <c r="X516" s="3"/>
+      <c r="Y516" s="3"/>
+    </row>
+    <row r="517" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A517" s="4"/>
+      <c r="B517" s="3"/>
+      <c r="C517" s="3"/>
+      <c r="D517" s="5"/>
+      <c r="E517" s="5"/>
+      <c r="F517" s="3"/>
+      <c r="G517" s="3"/>
+      <c r="H517" s="3"/>
+      <c r="I517" s="3"/>
+      <c r="J517" s="3"/>
+      <c r="K517" s="3"/>
+      <c r="L517" s="3"/>
+      <c r="M517" s="3"/>
+      <c r="N517" s="3"/>
+      <c r="O517" s="3"/>
+      <c r="P517" s="3"/>
+      <c r="Q517" s="3"/>
+      <c r="R517" s="3"/>
+      <c r="S517" s="3"/>
+      <c r="T517" s="3"/>
+      <c r="U517" s="3"/>
+      <c r="V517" s="3"/>
+      <c r="W517" s="3"/>
+      <c r="X517" s="3"/>
+      <c r="Y517" s="3"/>
+    </row>
+    <row r="518" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A518" s="4"/>
+      <c r="B518" s="3"/>
+      <c r="C518" s="3"/>
+      <c r="D518" s="5"/>
+      <c r="E518" s="5"/>
+      <c r="F518" s="3"/>
+      <c r="G518" s="3"/>
+      <c r="H518" s="3"/>
+      <c r="I518" s="3"/>
+      <c r="J518" s="3"/>
+      <c r="K518" s="3"/>
+      <c r="L518" s="3"/>
+      <c r="M518" s="3"/>
+      <c r="N518" s="3"/>
+      <c r="O518" s="3"/>
+      <c r="P518" s="3"/>
+      <c r="Q518" s="3"/>
+      <c r="R518" s="3"/>
+      <c r="S518" s="3"/>
+      <c r="T518" s="3"/>
+      <c r="U518" s="3"/>
+      <c r="V518" s="3"/>
+      <c r="W518" s="3"/>
+      <c r="X518" s="3"/>
+      <c r="Y518" s="3"/>
+    </row>
+    <row r="519" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A519" s="4"/>
+      <c r="B519" s="3"/>
+      <c r="C519" s="3"/>
+      <c r="D519" s="5"/>
+      <c r="E519" s="5"/>
+      <c r="F519" s="3"/>
+      <c r="G519" s="3"/>
+      <c r="H519" s="3"/>
+      <c r="I519" s="3"/>
+      <c r="J519" s="3"/>
+      <c r="K519" s="3"/>
+      <c r="L519" s="3"/>
+      <c r="M519" s="3"/>
+      <c r="N519" s="3"/>
+      <c r="O519" s="3"/>
+      <c r="P519" s="3"/>
+      <c r="Q519" s="3"/>
+      <c r="R519" s="3"/>
+      <c r="S519" s="3"/>
+      <c r="T519" s="3"/>
+      <c r="U519" s="3"/>
+      <c r="V519" s="3"/>
+      <c r="W519" s="3"/>
+      <c r="X519" s="3"/>
+      <c r="Y519" s="3"/>
+    </row>
+    <row r="520" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A520" s="4"/>
+      <c r="B520" s="3"/>
+      <c r="C520" s="3"/>
+      <c r="D520" s="5"/>
+      <c r="E520" s="5"/>
+      <c r="F520" s="3"/>
+      <c r="G520" s="3"/>
+      <c r="H520" s="3"/>
+      <c r="I520" s="3"/>
+      <c r="J520" s="3"/>
+      <c r="K520" s="3"/>
+      <c r="L520" s="3"/>
+      <c r="M520" s="3"/>
+      <c r="N520" s="3"/>
+      <c r="O520" s="3"/>
+      <c r="P520" s="3"/>
+      <c r="Q520" s="3"/>
+      <c r="R520" s="3"/>
+      <c r="S520" s="3"/>
+      <c r="T520" s="3"/>
+      <c r="U520" s="3"/>
+      <c r="V520" s="3"/>
+      <c r="W520" s="3"/>
+      <c r="X520" s="3"/>
+      <c r="Y520" s="3"/>
+    </row>
+    <row r="521" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A521" s="4"/>
+      <c r="B521" s="3"/>
+      <c r="C521" s="3"/>
+      <c r="D521" s="5"/>
+      <c r="E521" s="5"/>
+      <c r="F521" s="3"/>
+      <c r="G521" s="3"/>
+      <c r="H521" s="3"/>
+      <c r="I521" s="3"/>
+      <c r="J521" s="3"/>
+      <c r="K521" s="3"/>
+      <c r="L521" s="3"/>
+      <c r="M521" s="3"/>
+      <c r="N521" s="3"/>
+      <c r="O521" s="3"/>
+      <c r="P521" s="3"/>
+      <c r="Q521" s="3"/>
+      <c r="R521" s="3"/>
+      <c r="S521" s="3"/>
+      <c r="T521" s="3"/>
+      <c r="U521" s="3"/>
+      <c r="V521" s="3"/>
+      <c r="W521" s="3"/>
+      <c r="X521" s="3"/>
+      <c r="Y521" s="3"/>
+    </row>
+    <row r="522" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A522" s="4"/>
+      <c r="B522" s="3"/>
+      <c r="C522" s="3"/>
+      <c r="D522" s="5"/>
+      <c r="E522" s="5"/>
+      <c r="F522" s="3"/>
+      <c r="G522" s="3"/>
+      <c r="H522" s="3"/>
+      <c r="I522" s="3"/>
+      <c r="J522" s="3"/>
+      <c r="K522" s="3"/>
+      <c r="L522" s="3"/>
+      <c r="M522" s="3"/>
+      <c r="N522" s="3"/>
+      <c r="O522" s="3"/>
+      <c r="P522" s="3"/>
+      <c r="Q522" s="3"/>
+      <c r="R522" s="3"/>
+      <c r="S522" s="3"/>
+      <c r="T522" s="3"/>
+      <c r="U522" s="3"/>
+      <c r="V522" s="3"/>
+      <c r="W522" s="3"/>
+      <c r="X522" s="3"/>
+      <c r="Y522" s="3"/>
+    </row>
+    <row r="523" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A523" s="4"/>
+      <c r="B523" s="3"/>
+      <c r="C523" s="3"/>
+      <c r="D523" s="5"/>
+      <c r="E523" s="5"/>
+      <c r="F523" s="3"/>
+      <c r="G523" s="3"/>
+      <c r="H523" s="3"/>
+      <c r="I523" s="3"/>
+      <c r="J523" s="3"/>
+      <c r="K523" s="3"/>
+      <c r="L523" s="3"/>
+      <c r="M523" s="3"/>
+      <c r="N523" s="3"/>
+      <c r="O523" s="3"/>
+      <c r="P523" s="3"/>
+      <c r="Q523" s="3"/>
+      <c r="R523" s="3"/>
+      <c r="S523" s="3"/>
+      <c r="T523" s="3"/>
+      <c r="U523" s="3"/>
+      <c r="V523" s="3"/>
+      <c r="W523" s="3"/>
+      <c r="X523" s="3"/>
+      <c r="Y523" s="3"/>
+    </row>
+    <row r="524" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A524" s="4"/>
+      <c r="B524" s="3"/>
+      <c r="C524" s="3"/>
+      <c r="D524" s="5"/>
+      <c r="E524" s="5"/>
+      <c r="F524" s="3"/>
+      <c r="G524" s="3"/>
+      <c r="H524" s="3"/>
+      <c r="I524" s="3"/>
+      <c r="J524" s="3"/>
+      <c r="K524" s="3"/>
+      <c r="L524" s="3"/>
+      <c r="M524" s="3"/>
+      <c r="N524" s="3"/>
+      <c r="O524" s="3"/>
+      <c r="P524" s="3"/>
+      <c r="Q524" s="3"/>
+      <c r="R524" s="3"/>
+      <c r="S524" s="3"/>
+      <c r="T524" s="3"/>
+      <c r="U524" s="3"/>
+      <c r="V524" s="3"/>
+      <c r="W524" s="3"/>
+      <c r="X524" s="3"/>
+      <c r="Y524" s="3"/>
+    </row>
+    <row r="525" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A525" s="4"/>
+      <c r="B525" s="3"/>
+      <c r="C525" s="3"/>
+      <c r="D525" s="5"/>
+      <c r="E525" s="5"/>
+      <c r="F525" s="3"/>
+      <c r="G525" s="3"/>
+      <c r="H525" s="3"/>
+      <c r="I525" s="3"/>
+      <c r="J525" s="3"/>
+      <c r="K525" s="3"/>
+      <c r="L525" s="3"/>
+      <c r="M525" s="3"/>
+      <c r="N525" s="3"/>
+      <c r="O525" s="3"/>
+      <c r="P525" s="3"/>
+      <c r="Q525" s="3"/>
+      <c r="R525" s="3"/>
+      <c r="S525" s="3"/>
+      <c r="T525" s="3"/>
+      <c r="U525" s="3"/>
+      <c r="V525" s="3"/>
+      <c r="W525" s="3"/>
+      <c r="X525" s="3"/>
+      <c r="Y525" s="3"/>
+    </row>
+    <row r="526" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A526" s="4"/>
+      <c r="B526" s="3"/>
+      <c r="C526" s="3"/>
+      <c r="D526" s="5"/>
+      <c r="E526" s="5"/>
+      <c r="F526" s="3"/>
+      <c r="G526" s="3"/>
+      <c r="H526" s="3"/>
+      <c r="I526" s="3"/>
+      <c r="J526" s="3"/>
+      <c r="K526" s="3"/>
+      <c r="L526" s="3"/>
+      <c r="M526" s="3"/>
+      <c r="N526" s="3"/>
+      <c r="O526" s="3"/>
+      <c r="P526" s="3"/>
+      <c r="Q526" s="3"/>
+      <c r="R526" s="3"/>
+      <c r="S526" s="3"/>
+      <c r="T526" s="3"/>
+      <c r="U526" s="3"/>
+      <c r="V526" s="3"/>
+      <c r="W526" s="3"/>
+      <c r="X526" s="3"/>
+      <c r="Y526" s="3"/>
+    </row>
+    <row r="527" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A527" s="4"/>
+      <c r="B527" s="3"/>
+      <c r="C527" s="3"/>
+      <c r="D527" s="5"/>
+      <c r="E527" s="5"/>
+      <c r="F527" s="3"/>
+      <c r="G527" s="3"/>
+      <c r="H527" s="3"/>
+      <c r="I527" s="3"/>
+      <c r="J527" s="3"/>
+      <c r="K527" s="3"/>
+      <c r="L527" s="3"/>
+      <c r="M527" s="3"/>
+      <c r="N527" s="3"/>
+      <c r="O527" s="3"/>
+      <c r="P527" s="3"/>
+      <c r="Q527" s="3"/>
+      <c r="R527" s="3"/>
+      <c r="S527" s="3"/>
+      <c r="T527" s="3"/>
+      <c r="U527" s="3"/>
+      <c r="V527" s="3"/>
+      <c r="W527" s="3"/>
+      <c r="X527" s="3"/>
+      <c r="Y527" s="3"/>
+    </row>
+    <row r="528" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A528" s="4"/>
+      <c r="B528" s="3"/>
+      <c r="C528" s="3"/>
+      <c r="D528" s="5"/>
+      <c r="E528" s="5"/>
+      <c r="F528" s="3"/>
+      <c r="G528" s="3"/>
+      <c r="H528" s="3"/>
+      <c r="I528" s="3"/>
+      <c r="J528" s="3"/>
+      <c r="K528" s="3"/>
+      <c r="L528" s="3"/>
+      <c r="M528" s="3"/>
+      <c r="N528" s="3"/>
+      <c r="O528" s="3"/>
+      <c r="P528" s="3"/>
+      <c r="Q528" s="3"/>
+      <c r="R528" s="3"/>
+      <c r="S528" s="3"/>
+      <c r="T528" s="3"/>
+      <c r="U528" s="3"/>
+      <c r="V528" s="3"/>
+      <c r="W528" s="3"/>
+      <c r="X528" s="3"/>
+      <c r="Y528" s="3"/>
+    </row>
+    <row r="529" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A529" s="4"/>
+      <c r="B529" s="3"/>
+      <c r="C529" s="3"/>
+      <c r="D529" s="5"/>
+      <c r="E529" s="5"/>
+      <c r="F529" s="3"/>
+      <c r="G529" s="3"/>
+      <c r="H529" s="3"/>
+      <c r="I529" s="3"/>
+      <c r="J529" s="3"/>
+      <c r="K529" s="3"/>
+      <c r="L529" s="3"/>
+      <c r="M529" s="3"/>
+      <c r="N529" s="3"/>
+      <c r="O529" s="3"/>
+      <c r="P529" s="3"/>
+      <c r="Q529" s="3"/>
+      <c r="R529" s="3"/>
+      <c r="S529" s="3"/>
+      <c r="T529" s="3"/>
+      <c r="U529" s="3"/>
+      <c r="V529" s="3"/>
+      <c r="W529" s="3"/>
+      <c r="X529" s="3"/>
+      <c r="Y529" s="3"/>
+    </row>
+    <row r="530" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A530" s="4"/>
+      <c r="B530" s="3"/>
+      <c r="C530" s="3"/>
+      <c r="D530" s="5"/>
+      <c r="E530" s="5"/>
+      <c r="F530" s="3"/>
+      <c r="G530" s="3"/>
+      <c r="H530" s="3"/>
+      <c r="I530" s="3"/>
+      <c r="J530" s="3"/>
+      <c r="K530" s="3"/>
+      <c r="L530" s="3"/>
+      <c r="M530" s="3"/>
+      <c r="N530" s="3"/>
+      <c r="O530" s="3"/>
+      <c r="P530" s="3"/>
+      <c r="Q530" s="3"/>
+      <c r="R530" s="3"/>
+      <c r="S530" s="3"/>
+      <c r="T530" s="3"/>
+      <c r="U530" s="3"/>
+      <c r="V530" s="3"/>
+      <c r="W530" s="3"/>
+      <c r="X530" s="3"/>
+      <c r="Y530" s="3"/>
+    </row>
+    <row r="531" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A531" s="4"/>
+      <c r="B531" s="3"/>
+      <c r="C531" s="3"/>
+      <c r="D531" s="5"/>
+      <c r="E531" s="5"/>
+      <c r="F531" s="3"/>
+      <c r="G531" s="3"/>
+      <c r="H531" s="3"/>
+      <c r="I531" s="3"/>
+      <c r="J531" s="3"/>
+      <c r="K531" s="3"/>
+      <c r="L531" s="3"/>
+      <c r="M531" s="3"/>
+      <c r="N531" s="3"/>
+      <c r="O531" s="3"/>
+      <c r="P531" s="3"/>
+      <c r="Q531" s="3"/>
+      <c r="R531" s="3"/>
+      <c r="S531" s="3"/>
+      <c r="T531" s="3"/>
+      <c r="U531" s="3"/>
+      <c r="V531" s="3"/>
+      <c r="W531" s="3"/>
+      <c r="X531" s="3"/>
+      <c r="Y531" s="3"/>
+    </row>
+    <row r="532" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A532" s="4"/>
+      <c r="B532" s="3"/>
+      <c r="C532" s="3"/>
+      <c r="D532" s="5"/>
+      <c r="E532" s="5"/>
+      <c r="F532" s="3"/>
+      <c r="G532" s="3"/>
+      <c r="H532" s="3"/>
+      <c r="I532" s="3"/>
+      <c r="J532" s="3"/>
+      <c r="K532" s="3"/>
+      <c r="L532" s="3"/>
+      <c r="M532" s="3"/>
+      <c r="N532" s="3"/>
+      <c r="O532" s="3"/>
+      <c r="P532" s="3"/>
+      <c r="Q532" s="3"/>
+      <c r="R532" s="3"/>
+      <c r="S532" s="3"/>
+      <c r="T532" s="3"/>
+      <c r="U532" s="3"/>
+      <c r="V532" s="3"/>
+      <c r="W532" s="3"/>
+      <c r="X532" s="3"/>
+      <c r="Y532" s="3"/>
+    </row>
+    <row r="533" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A533" s="4"/>
+      <c r="B533" s="3"/>
+      <c r="C533" s="3"/>
+      <c r="D533" s="5"/>
+      <c r="E533" s="5"/>
+      <c r="F533" s="3"/>
+      <c r="G533" s="3"/>
+      <c r="H533" s="3"/>
+      <c r="I533" s="3"/>
+      <c r="J533" s="3"/>
+      <c r="K533" s="3"/>
+      <c r="L533" s="3"/>
+      <c r="M533" s="3"/>
+      <c r="N533" s="3"/>
+      <c r="O533" s="3"/>
+      <c r="P533" s="3"/>
+      <c r="Q533" s="3"/>
+      <c r="R533" s="3"/>
+      <c r="S533" s="3"/>
+      <c r="T533" s="3"/>
+      <c r="U533" s="3"/>
+      <c r="V533" s="3"/>
+      <c r="W533" s="3"/>
+      <c r="X533" s="3"/>
+      <c r="Y533" s="3"/>
+    </row>
+    <row r="534" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A534" s="4"/>
+      <c r="B534" s="3"/>
+      <c r="C534" s="3"/>
+      <c r="D534" s="5"/>
+      <c r="E534" s="5"/>
+      <c r="F534" s="3"/>
+      <c r="G534" s="3"/>
+      <c r="H534" s="3"/>
+      <c r="I534" s="3"/>
+      <c r="J534" s="3"/>
+      <c r="K534" s="3"/>
+      <c r="L534" s="3"/>
+      <c r="M534" s="3"/>
+      <c r="N534" s="3"/>
+      <c r="O534" s="3"/>
+      <c r="P534" s="3"/>
+      <c r="Q534" s="3"/>
+      <c r="R534" s="3"/>
+      <c r="S534" s="3"/>
+      <c r="T534" s="3"/>
+      <c r="U534" s="3"/>
+      <c r="V534" s="3"/>
+      <c r="W534" s="3"/>
+      <c r="X534" s="3"/>
+      <c r="Y534" s="3"/>
+    </row>
+    <row r="535" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A535" s="4"/>
+      <c r="B535" s="3"/>
+      <c r="C535" s="3"/>
+      <c r="D535" s="5"/>
+      <c r="E535" s="5"/>
+      <c r="F535" s="3"/>
+      <c r="G535" s="3"/>
+      <c r="H535" s="3"/>
+      <c r="I535" s="3"/>
+      <c r="J535" s="3"/>
+      <c r="K535" s="3"/>
+      <c r="L535" s="3"/>
+      <c r="M535" s="3"/>
+      <c r="N535" s="3"/>
+      <c r="O535" s="3"/>
+      <c r="P535" s="3"/>
+      <c r="Q535" s="3"/>
+      <c r="R535" s="3"/>
+      <c r="S535" s="3"/>
+      <c r="T535" s="3"/>
+      <c r="U535" s="3"/>
+      <c r="V535" s="3"/>
+      <c r="W535" s="3"/>
+      <c r="X535" s="3"/>
+      <c r="Y535" s="3"/>
+    </row>
+    <row r="536" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A536" s="4"/>
+      <c r="B536" s="3"/>
+      <c r="C536" s="3"/>
+      <c r="D536" s="5"/>
+      <c r="E536" s="5"/>
+      <c r="F536" s="3"/>
+      <c r="G536" s="3"/>
+      <c r="H536" s="3"/>
+      <c r="I536" s="3"/>
+      <c r="J536" s="3"/>
+      <c r="K536" s="3"/>
+      <c r="L536" s="3"/>
+      <c r="M536" s="3"/>
+      <c r="N536" s="3"/>
+      <c r="O536" s="3"/>
+      <c r="P536" s="3"/>
+      <c r="Q536" s="3"/>
+      <c r="R536" s="3"/>
+      <c r="S536" s="3"/>
+      <c r="T536" s="3"/>
+      <c r="U536" s="3"/>
+      <c r="V536" s="3"/>
+      <c r="W536" s="3"/>
+      <c r="X536" s="3"/>
+      <c r="Y536" s="3"/>
+    </row>
+    <row r="537" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A537" s="4"/>
+      <c r="B537" s="3"/>
+      <c r="C537" s="3"/>
+      <c r="D537" s="5"/>
+      <c r="E537" s="5"/>
+      <c r="F537" s="3"/>
+      <c r="G537" s="3"/>
+      <c r="H537" s="3"/>
+      <c r="I537" s="3"/>
+      <c r="J537" s="3"/>
+      <c r="K537" s="3"/>
+      <c r="L537" s="3"/>
+      <c r="M537" s="3"/>
+      <c r="N537" s="3"/>
+      <c r="O537" s="3"/>
+      <c r="P537" s="3"/>
+      <c r="Q537" s="3"/>
+      <c r="R537" s="3"/>
+      <c r="S537" s="3"/>
+      <c r="T537" s="3"/>
+      <c r="U537" s="3"/>
+      <c r="V537" s="3"/>
+      <c r="W537" s="3"/>
+      <c r="X537" s="3"/>
+      <c r="Y537" s="3"/>
+    </row>
+    <row r="538" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A538" s="4"/>
+      <c r="B538" s="3"/>
+      <c r="C538" s="3"/>
+      <c r="D538" s="5"/>
+      <c r="E538" s="5"/>
+      <c r="F538" s="3"/>
+      <c r="G538" s="3"/>
+      <c r="H538" s="3"/>
+      <c r="I538" s="3"/>
+      <c r="J538" s="3"/>
+      <c r="K538" s="3"/>
+      <c r="L538" s="3"/>
+      <c r="M538" s="3"/>
+      <c r="N538" s="3"/>
+      <c r="O538" s="3"/>
+      <c r="P538" s="3"/>
+      <c r="Q538" s="3"/>
+      <c r="R538" s="3"/>
+      <c r="S538" s="3"/>
+      <c r="T538" s="3"/>
+      <c r="U538" s="3"/>
+      <c r="V538" s="3"/>
+      <c r="W538" s="3"/>
+      <c r="X538" s="3"/>
+      <c r="Y538" s="3"/>
+    </row>
+    <row r="539" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A539" s="4"/>
+      <c r="B539" s="3"/>
+      <c r="C539" s="3"/>
+      <c r="D539" s="5"/>
+      <c r="E539" s="5"/>
+      <c r="F539" s="3"/>
+      <c r="G539" s="3"/>
+      <c r="H539" s="3"/>
+      <c r="I539" s="3"/>
+      <c r="J539" s="3"/>
+      <c r="K539" s="3"/>
+      <c r="L539" s="3"/>
+      <c r="M539" s="3"/>
+      <c r="N539" s="3"/>
+      <c r="O539" s="3"/>
+      <c r="P539" s="3"/>
+      <c r="Q539" s="3"/>
+      <c r="R539" s="3"/>
+      <c r="S539" s="3"/>
+      <c r="T539" s="3"/>
+      <c r="U539" s="3"/>
+      <c r="V539" s="3"/>
+      <c r="W539" s="3"/>
+      <c r="X539" s="3"/>
+      <c r="Y539" s="3"/>
+    </row>
+    <row r="540" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A540" s="4"/>
+      <c r="B540" s="3"/>
+      <c r="C540" s="3"/>
+      <c r="D540" s="5"/>
+      <c r="E540" s="5"/>
+      <c r="F540" s="3"/>
+      <c r="G540" s="3"/>
+      <c r="H540" s="3"/>
+      <c r="I540" s="3"/>
+      <c r="J540" s="3"/>
+      <c r="K540" s="3"/>
+      <c r="L540" s="3"/>
+      <c r="M540" s="3"/>
+      <c r="N540" s="3"/>
+      <c r="O540" s="3"/>
+      <c r="P540" s="3"/>
+      <c r="Q540" s="3"/>
+      <c r="R540" s="3"/>
+      <c r="S540" s="3"/>
+      <c r="T540" s="3"/>
+      <c r="U540" s="3"/>
+      <c r="V540" s="3"/>
+      <c r="W540" s="3"/>
+      <c r="X540" s="3"/>
+      <c r="Y540" s="3"/>
+    </row>
+    <row r="541" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A541" s="4"/>
+      <c r="B541" s="3"/>
+      <c r="C541" s="3"/>
+      <c r="D541" s="5"/>
+      <c r="E541" s="5"/>
+      <c r="F541" s="3"/>
+      <c r="G541" s="3"/>
+      <c r="H541" s="3"/>
+      <c r="I541" s="3"/>
+      <c r="J541" s="3"/>
+      <c r="K541" s="3"/>
+      <c r="L541" s="3"/>
+      <c r="M541" s="3"/>
+      <c r="N541" s="3"/>
+      <c r="O541" s="3"/>
+      <c r="P541" s="3"/>
+      <c r="Q541" s="3"/>
+      <c r="R541" s="3"/>
+      <c r="S541" s="3"/>
+      <c r="T541" s="3"/>
+      <c r="U541" s="3"/>
+      <c r="V541" s="3"/>
+      <c r="W541" s="3"/>
+      <c r="X541" s="3"/>
+      <c r="Y541" s="3"/>
+    </row>
+    <row r="542" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A542" s="4"/>
+      <c r="B542" s="3"/>
+      <c r="C542" s="3"/>
+      <c r="D542" s="5"/>
+      <c r="E542" s="5"/>
+      <c r="F542" s="3"/>
+      <c r="G542" s="3"/>
+      <c r="H542" s="3"/>
+      <c r="I542" s="3"/>
+      <c r="J542" s="3"/>
+      <c r="K542" s="3"/>
+      <c r="L542" s="3"/>
+      <c r="M542" s="3"/>
+      <c r="N542" s="3"/>
+      <c r="O542" s="3"/>
+      <c r="P542" s="3"/>
+      <c r="Q542" s="3"/>
+      <c r="R542" s="3"/>
+      <c r="S542" s="3"/>
+      <c r="T542" s="3"/>
+      <c r="U542" s="3"/>
+      <c r="V542" s="3"/>
+      <c r="W542" s="3"/>
+      <c r="X542" s="3"/>
+      <c r="Y542" s="3"/>
+    </row>
+    <row r="543" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A543" s="4"/>
+      <c r="B543" s="3"/>
+      <c r="C543" s="3"/>
+      <c r="D543" s="5"/>
+      <c r="E543" s="5"/>
+      <c r="F543" s="3"/>
+      <c r="G543" s="3"/>
+      <c r="H543" s="3"/>
+      <c r="I543" s="3"/>
+      <c r="J543" s="3"/>
+      <c r="K543" s="3"/>
+      <c r="L543" s="3"/>
+      <c r="M543" s="3"/>
+      <c r="N543" s="3"/>
+      <c r="O543" s="3"/>
+      <c r="P543" s="3"/>
+      <c r="Q543" s="3"/>
+      <c r="R543" s="3"/>
+      <c r="S543" s="3"/>
+      <c r="T543" s="3"/>
+      <c r="U543" s="3"/>
+      <c r="V543" s="3"/>
+      <c r="W543" s="3"/>
+      <c r="X543" s="3"/>
+      <c r="Y543" s="3"/>
+    </row>
+    <row r="544" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A544" s="4"/>
+      <c r="B544" s="3"/>
+      <c r="C544" s="3"/>
+      <c r="D544" s="5"/>
+      <c r="E544" s="5"/>
+      <c r="F544" s="3"/>
+      <c r="G544" s="3"/>
+      <c r="H544" s="3"/>
+      <c r="I544" s="3"/>
+      <c r="J544" s="3"/>
+      <c r="K544" s="3"/>
+      <c r="L544" s="3"/>
+      <c r="M544" s="3"/>
+      <c r="N544" s="3"/>
+      <c r="O544" s="3"/>
+      <c r="P544" s="3"/>
+      <c r="Q544" s="3"/>
+      <c r="R544" s="3"/>
+      <c r="S544" s="3"/>
+      <c r="T544" s="3"/>
+      <c r="U544" s="3"/>
+      <c r="V544" s="3"/>
+      <c r="W544" s="3"/>
+      <c r="X544" s="3"/>
+      <c r="Y544" s="3"/>
+    </row>
+    <row r="545" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A545" s="4"/>
+      <c r="B545" s="3"/>
+      <c r="C545" s="3"/>
+      <c r="D545" s="5"/>
+      <c r="E545" s="5"/>
+      <c r="F545" s="3"/>
+      <c r="G545" s="3"/>
+      <c r="H545" s="3"/>
+      <c r="I545" s="3"/>
+      <c r="J545" s="3"/>
+      <c r="K545" s="3"/>
+      <c r="L545" s="3"/>
+      <c r="M545" s="3"/>
+      <c r="N545" s="3"/>
+      <c r="O545" s="3"/>
+      <c r="P545" s="3"/>
+      <c r="Q545" s="3"/>
+      <c r="R545" s="3"/>
+      <c r="S545" s="3"/>
+      <c r="T545" s="3"/>
+      <c r="U545" s="3"/>
+      <c r="V545" s="3"/>
+      <c r="W545" s="3"/>
+      <c r="X545" s="3"/>
+      <c r="Y545" s="3"/>
+    </row>
+    <row r="546" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A546" s="4"/>
+      <c r="B546" s="3"/>
+      <c r="C546" s="3"/>
+      <c r="D546" s="5"/>
+      <c r="E546" s="5"/>
+      <c r="F546" s="3"/>
+      <c r="G546" s="3"/>
+      <c r="H546" s="3"/>
+      <c r="I546" s="3"/>
+      <c r="J546" s="3"/>
+      <c r="K546" s="3"/>
+      <c r="L546" s="3"/>
+      <c r="M546" s="3"/>
+      <c r="N546" s="3"/>
+      <c r="O546" s="3"/>
+      <c r="P546" s="3"/>
+      <c r="Q546" s="3"/>
+      <c r="R546" s="3"/>
+      <c r="S546" s="3"/>
+      <c r="T546" s="3"/>
+      <c r="U546" s="3"/>
+      <c r="V546" s="3"/>
+      <c r="W546" s="3"/>
+      <c r="X546" s="3"/>
+      <c r="Y546" s="3"/>
+    </row>
+    <row r="547" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A547" s="4"/>
+      <c r="B547" s="3"/>
+      <c r="C547" s="3"/>
+      <c r="D547" s="5"/>
+      <c r="E547" s="5"/>
+      <c r="F547" s="3"/>
+      <c r="G547" s="3"/>
+      <c r="H547" s="3"/>
+      <c r="I547" s="3"/>
+      <c r="J547" s="3"/>
+      <c r="K547" s="3"/>
+      <c r="L547" s="3"/>
+      <c r="M547" s="3"/>
+      <c r="N547" s="3"/>
+      <c r="O547" s="3"/>
+      <c r="P547" s="3"/>
+      <c r="Q547" s="3"/>
+      <c r="R547" s="3"/>
+      <c r="S547" s="3"/>
+      <c r="T547" s="3"/>
+      <c r="U547" s="3"/>
+      <c r="V547" s="3"/>
+      <c r="W547" s="3"/>
+      <c r="X547" s="3"/>
+      <c r="Y547" s="3"/>
+    </row>
+    <row r="548" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A548" s="4"/>
+      <c r="B548" s="3"/>
+      <c r="C548" s="3"/>
+      <c r="D548" s="5"/>
+      <c r="E548" s="5"/>
+      <c r="F548" s="3"/>
+      <c r="G548" s="3"/>
+      <c r="H548" s="3"/>
+      <c r="I548" s="3"/>
+      <c r="J548" s="3"/>
+      <c r="K548" s="3"/>
+      <c r="L548" s="3"/>
+      <c r="M548" s="3"/>
+      <c r="N548" s="3"/>
+      <c r="O548" s="3"/>
+      <c r="P548" s="3"/>
+      <c r="Q548" s="3"/>
+      <c r="R548" s="3"/>
+      <c r="S548" s="3"/>
+      <c r="T548" s="3"/>
+      <c r="U548" s="3"/>
+      <c r="V548" s="3"/>
+      <c r="W548" s="3"/>
+      <c r="X548" s="3"/>
+      <c r="Y548" s="3"/>
+    </row>
+    <row r="549" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A549" s="4"/>
+      <c r="B549" s="3"/>
+      <c r="C549" s="3"/>
+      <c r="D549" s="5"/>
+      <c r="E549" s="5"/>
+      <c r="F549" s="3"/>
+      <c r="G549" s="3"/>
+      <c r="H549" s="3"/>
+      <c r="I549" s="3"/>
+      <c r="J549" s="3"/>
+      <c r="K549" s="3"/>
+      <c r="L549" s="3"/>
+      <c r="M549" s="3"/>
+      <c r="N549" s="3"/>
+      <c r="O549" s="3"/>
+      <c r="P549" s="3"/>
+      <c r="Q549" s="3"/>
+      <c r="R549" s="3"/>
+      <c r="S549" s="3"/>
+      <c r="T549" s="3"/>
+      <c r="U549" s="3"/>
+      <c r="V549" s="3"/>
+      <c r="W549" s="3"/>
+      <c r="X549" s="3"/>
+      <c r="Y549" s="3"/>
+    </row>
+    <row r="550" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A550" s="4"/>
+      <c r="B550" s="3"/>
+      <c r="C550" s="3"/>
+      <c r="D550" s="5"/>
+      <c r="E550" s="5"/>
+      <c r="F550" s="3"/>
+      <c r="G550" s="3"/>
+      <c r="H550" s="3"/>
+      <c r="I550" s="3"/>
+      <c r="J550" s="3"/>
+      <c r="K550" s="3"/>
+      <c r="L550" s="3"/>
+      <c r="M550" s="3"/>
+      <c r="N550" s="3"/>
+      <c r="O550" s="3"/>
+      <c r="P550" s="3"/>
+      <c r="Q550" s="3"/>
+      <c r="R550" s="3"/>
+      <c r="S550" s="3"/>
+      <c r="T550" s="3"/>
+      <c r="U550" s="3"/>
+      <c r="V550" s="3"/>
+      <c r="W550" s="3"/>
+      <c r="X550" s="3"/>
+      <c r="Y550" s="3"/>
+    </row>
+    <row r="551" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A551" s="4"/>
+      <c r="B551" s="3"/>
+      <c r="C551" s="3"/>
+      <c r="D551" s="5"/>
+      <c r="E551" s="5"/>
+      <c r="F551" s="3"/>
+      <c r="G551" s="3"/>
+      <c r="H551" s="3"/>
+      <c r="I551" s="3"/>
+      <c r="J551" s="3"/>
+      <c r="K551" s="3"/>
+      <c r="L551" s="3"/>
+      <c r="M551" s="3"/>
+      <c r="N551" s="3"/>
+      <c r="O551" s="3"/>
+      <c r="P551" s="3"/>
+      <c r="Q551" s="3"/>
+      <c r="R551" s="3"/>
+      <c r="S551" s="3"/>
+      <c r="T551" s="3"/>
+      <c r="U551" s="3"/>
+      <c r="V551" s="3"/>
+      <c r="W551" s="3"/>
+      <c r="X551" s="3"/>
+      <c r="Y551" s="3"/>
+    </row>
+    <row r="552" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A552" s="4"/>
+      <c r="B552" s="3"/>
+      <c r="C552" s="3"/>
+      <c r="D552" s="5"/>
+      <c r="E552" s="5"/>
+      <c r="F552" s="3"/>
+      <c r="G552" s="3"/>
+      <c r="H552" s="3"/>
+      <c r="I552" s="3"/>
+      <c r="J552" s="3"/>
+      <c r="K552" s="3"/>
+      <c r="L552" s="3"/>
+      <c r="M552" s="3"/>
+      <c r="N552" s="3"/>
+      <c r="O552" s="3"/>
+      <c r="P552" s="3"/>
+      <c r="Q552" s="3"/>
+      <c r="R552" s="3"/>
+      <c r="S552" s="3"/>
+      <c r="T552" s="3"/>
+      <c r="U552" s="3"/>
+      <c r="V552" s="3"/>
+      <c r="W552" s="3"/>
+      <c r="X552" s="3"/>
+      <c r="Y552" s="3"/>
+    </row>
+    <row r="553" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A553" s="4"/>
+      <c r="B553" s="3"/>
+      <c r="C553" s="3"/>
+      <c r="D553" s="5"/>
+      <c r="E553" s="5"/>
+      <c r="F553" s="3"/>
+      <c r="G553" s="3"/>
+      <c r="H553" s="3"/>
+      <c r="I553" s="3"/>
+      <c r="J553" s="3"/>
+      <c r="K553" s="3"/>
+      <c r="L553" s="3"/>
+      <c r="M553" s="3"/>
+      <c r="N553" s="3"/>
+      <c r="O553" s="3"/>
+      <c r="P553" s="3"/>
+      <c r="Q553" s="3"/>
+      <c r="R553" s="3"/>
+      <c r="S553" s="3"/>
+      <c r="T553" s="3"/>
+      <c r="U553" s="3"/>
+      <c r="V553" s="3"/>
+      <c r="W553" s="3"/>
+      <c r="X553" s="3"/>
+      <c r="Y553" s="3"/>
+    </row>
+    <row r="554" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A554" s="4"/>
+      <c r="B554" s="3"/>
+      <c r="C554" s="3"/>
+      <c r="D554" s="5"/>
+      <c r="E554" s="5"/>
+      <c r="F554" s="3"/>
+      <c r="G554" s="3"/>
+      <c r="H554" s="3"/>
+      <c r="I554" s="3"/>
+      <c r="J554" s="3"/>
+      <c r="K554" s="3"/>
+      <c r="L554" s="3"/>
+      <c r="M554" s="3"/>
+      <c r="N554" s="3"/>
+      <c r="O554" s="3"/>
+      <c r="P554" s="3"/>
+      <c r="Q554" s="3"/>
+      <c r="R554" s="3"/>
+      <c r="S554" s="3"/>
+      <c r="T554" s="3"/>
+      <c r="U554" s="3"/>
+      <c r="V554" s="3"/>
+      <c r="W554" s="3"/>
+      <c r="X554" s="3"/>
+      <c r="Y554" s="3"/>
+    </row>
+    <row r="555" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A555" s="4"/>
+      <c r="B555" s="3"/>
+      <c r="C555" s="3"/>
+      <c r="D555" s="5"/>
+      <c r="E555" s="5"/>
+      <c r="F555" s="3"/>
+      <c r="G555" s="3"/>
+      <c r="H555" s="3"/>
+      <c r="I555" s="3"/>
+      <c r="J555" s="3"/>
+      <c r="K555" s="3"/>
+      <c r="L555" s="3"/>
+      <c r="M555" s="3"/>
+      <c r="N555" s="3"/>
+      <c r="O555" s="3"/>
+      <c r="P555" s="3"/>
+      <c r="Q555" s="3"/>
+      <c r="R555" s="3"/>
+      <c r="S555" s="3"/>
+      <c r="T555" s="3"/>
+      <c r="U555" s="3"/>
+      <c r="V555" s="3"/>
+      <c r="W555" s="3"/>
+      <c r="X555" s="3"/>
+      <c r="Y555" s="3"/>
+    </row>
+    <row r="556" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A556" s="4"/>
+      <c r="B556" s="3"/>
+      <c r="C556" s="3"/>
+      <c r="D556" s="5"/>
+      <c r="E556" s="5"/>
+      <c r="F556" s="3"/>
+      <c r="G556" s="3"/>
+      <c r="H556" s="3"/>
+      <c r="I556" s="3"/>
+      <c r="J556" s="3"/>
+      <c r="K556" s="3"/>
+      <c r="L556" s="3"/>
+      <c r="M556" s="3"/>
+      <c r="N556" s="3"/>
+      <c r="O556" s="3"/>
+      <c r="P556" s="3"/>
+      <c r="Q556" s="3"/>
+      <c r="R556" s="3"/>
+      <c r="S556" s="3"/>
+      <c r="T556" s="3"/>
+      <c r="U556" s="3"/>
+      <c r="V556" s="3"/>
+      <c r="W556" s="3"/>
+      <c r="X556" s="3"/>
+      <c r="Y556" s="3"/>
+    </row>
+    <row r="557" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A557" s="4"/>
+      <c r="B557" s="3"/>
+      <c r="C557" s="3"/>
+      <c r="D557" s="5"/>
+      <c r="E557" s="5"/>
+      <c r="F557" s="3"/>
+      <c r="G557" s="3"/>
+      <c r="H557" s="3"/>
+      <c r="I557" s="3"/>
+      <c r="J557" s="3"/>
+      <c r="K557" s="3"/>
+      <c r="L557" s="3"/>
+      <c r="M557" s="3"/>
+      <c r="N557" s="3"/>
+      <c r="O557" s="3"/>
+      <c r="P557" s="3"/>
+      <c r="Q557" s="3"/>
+      <c r="R557" s="3"/>
+      <c r="S557" s="3"/>
+      <c r="T557" s="3"/>
+      <c r="U557" s="3"/>
+      <c r="V557" s="3"/>
+      <c r="W557" s="3"/>
+      <c r="X557" s="3"/>
+      <c r="Y557" s="3"/>
+    </row>
+    <row r="558" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A558" s="4"/>
+      <c r="B558" s="3"/>
+      <c r="C558" s="3"/>
+      <c r="D558" s="5"/>
+      <c r="E558" s="5"/>
+      <c r="F558" s="3"/>
+      <c r="G558" s="3"/>
+      <c r="H558" s="3"/>
+      <c r="I558" s="3"/>
+      <c r="J558" s="3"/>
+      <c r="K558" s="3"/>
+      <c r="L558" s="3"/>
+      <c r="M558" s="3"/>
+      <c r="N558" s="3"/>
+      <c r="O558" s="3"/>
+      <c r="P558" s="3"/>
+      <c r="Q558" s="3"/>
+      <c r="R558" s="3"/>
+      <c r="S558" s="3"/>
+      <c r="T558" s="3"/>
+      <c r="U558" s="3"/>
+      <c r="V558" s="3"/>
+      <c r="W558" s="3"/>
+      <c r="X558" s="3"/>
+      <c r="Y558" s="3"/>
+    </row>
+    <row r="559" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A559" s="4"/>
+      <c r="B559" s="3"/>
+      <c r="C559" s="3"/>
+      <c r="D559" s="5"/>
+      <c r="E559" s="5"/>
+      <c r="F559" s="3"/>
+      <c r="G559" s="3"/>
+      <c r="H559" s="3"/>
+      <c r="I559" s="3"/>
+      <c r="J559" s="3"/>
+      <c r="K559" s="3"/>
+      <c r="L559" s="3"/>
+      <c r="M559" s="3"/>
+      <c r="N559" s="3"/>
+      <c r="O559" s="3"/>
+      <c r="P559" s="3"/>
+      <c r="Q559" s="3"/>
+      <c r="R559" s="3"/>
+      <c r="S559" s="3"/>
+      <c r="T559" s="3"/>
+      <c r="U559" s="3"/>
+      <c r="V559" s="3"/>
+      <c r="W559" s="3"/>
+      <c r="X559" s="3"/>
+      <c r="Y559" s="3"/>
+    </row>
+    <row r="560" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A560" s="4"/>
+      <c r="B560" s="3"/>
+      <c r="C560" s="3"/>
+      <c r="D560" s="5"/>
+      <c r="E560" s="5"/>
+      <c r="F560" s="3"/>
+      <c r="G560" s="3"/>
+      <c r="H560" s="3"/>
+      <c r="I560" s="3"/>
+      <c r="J560" s="3"/>
+      <c r="K560" s="3"/>
+      <c r="L560" s="3"/>
+      <c r="M560" s="3"/>
+      <c r="N560" s="3"/>
+      <c r="O560" s="3"/>
+      <c r="P560" s="3"/>
+      <c r="Q560" s="3"/>
+      <c r="R560" s="3"/>
+      <c r="S560" s="3"/>
+      <c r="T560" s="3"/>
+      <c r="U560" s="3"/>
+      <c r="V560" s="3"/>
+      <c r="W560" s="3"/>
+      <c r="X560" s="3"/>
+      <c r="Y560" s="3"/>
+    </row>
+    <row r="561" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A561" s="4"/>
+      <c r="B561" s="3"/>
+      <c r="C561" s="3"/>
+      <c r="D561" s="5"/>
+      <c r="E561" s="5"/>
+      <c r="F561" s="3"/>
+      <c r="G561" s="3"/>
+      <c r="H561" s="3"/>
+      <c r="I561" s="3"/>
+      <c r="J561" s="3"/>
+      <c r="K561" s="3"/>
+      <c r="L561" s="3"/>
+      <c r="M561" s="3"/>
+      <c r="N561" s="3"/>
+      <c r="O561" s="3"/>
+      <c r="P561" s="3"/>
+      <c r="Q561" s="3"/>
+      <c r="R561" s="3"/>
+      <c r="S561" s="3"/>
+      <c r="T561" s="3"/>
+      <c r="U561" s="3"/>
+      <c r="V561" s="3"/>
+      <c r="W561" s="3"/>
+      <c r="X561" s="3"/>
+      <c r="Y561" s="3"/>
+    </row>
+    <row r="562" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A562" s="4"/>
+      <c r="B562" s="3"/>
+      <c r="C562" s="3"/>
+      <c r="D562" s="5"/>
+      <c r="E562" s="5"/>
+      <c r="F562" s="3"/>
+      <c r="G562" s="3"/>
+      <c r="H562" s="3"/>
+      <c r="I562" s="3"/>
+      <c r="J562" s="3"/>
+      <c r="K562" s="3"/>
+      <c r="L562" s="3"/>
+      <c r="M562" s="3"/>
+      <c r="N562" s="3"/>
+      <c r="O562" s="3"/>
+      <c r="P562" s="3"/>
+      <c r="Q562" s="3"/>
+      <c r="R562" s="3"/>
+      <c r="S562" s="3"/>
+      <c r="T562" s="3"/>
+      <c r="U562" s="3"/>
+      <c r="V562" s="3"/>
+      <c r="W562" s="3"/>
+      <c r="X562" s="3"/>
+      <c r="Y562" s="3"/>
+    </row>
+    <row r="563" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A563" s="4"/>
+      <c r="B563" s="3"/>
+      <c r="C563" s="3"/>
+      <c r="D563" s="5"/>
+      <c r="E563" s="5"/>
+      <c r="F563" s="3"/>
+      <c r="G563" s="3"/>
+      <c r="H563" s="3"/>
+      <c r="I563" s="3"/>
+      <c r="J563" s="3"/>
+      <c r="K563" s="3"/>
+      <c r="L563" s="3"/>
+      <c r="M563" s="3"/>
+      <c r="N563" s="3"/>
+      <c r="O563" s="3"/>
+      <c r="P563" s="3"/>
+      <c r="Q563" s="3"/>
+      <c r="R563" s="3"/>
+      <c r="S563" s="3"/>
+      <c r="T563" s="3"/>
+      <c r="U563" s="3"/>
+      <c r="V563" s="3"/>
+      <c r="W563" s="3"/>
+      <c r="X563" s="3"/>
+      <c r="Y563" s="3"/>
+    </row>
+    <row r="564" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A564" s="4"/>
+      <c r="B564" s="3"/>
+      <c r="C564" s="3"/>
+      <c r="D564" s="5"/>
+      <c r="E564" s="5"/>
+      <c r="F564" s="3"/>
+      <c r="G564" s="3"/>
+      <c r="H564" s="3"/>
+      <c r="I564" s="3"/>
+      <c r="J564" s="3"/>
+      <c r="K564" s="3"/>
+      <c r="L564" s="3"/>
+      <c r="M564" s="3"/>
+      <c r="N564" s="3"/>
+      <c r="O564" s="3"/>
+      <c r="P564" s="3"/>
+      <c r="Q564" s="3"/>
+      <c r="R564" s="3"/>
+      <c r="S564" s="3"/>
+      <c r="T564" s="3"/>
+      <c r="U564" s="3"/>
+      <c r="V564" s="3"/>
+      <c r="W564" s="3"/>
+      <c r="X564" s="3"/>
+      <c r="Y564" s="3"/>
+    </row>
+    <row r="565" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A565" s="4"/>
+      <c r="B565" s="3"/>
+      <c r="C565" s="3"/>
+      <c r="D565" s="5"/>
+      <c r="E565" s="5"/>
+      <c r="F565" s="3"/>
+      <c r="G565" s="3"/>
+      <c r="H565" s="3"/>
+      <c r="I565" s="3"/>
+      <c r="J565" s="3"/>
+      <c r="K565" s="3"/>
+      <c r="L565" s="3"/>
+      <c r="M565" s="3"/>
+      <c r="N565" s="3"/>
+      <c r="O565" s="3"/>
+      <c r="P565" s="3"/>
+      <c r="Q565" s="3"/>
+      <c r="R565" s="3"/>
+      <c r="S565" s="3"/>
+      <c r="T565" s="3"/>
+      <c r="U565" s="3"/>
+      <c r="V565" s="3"/>
+      <c r="W565" s="3"/>
+      <c r="X565" s="3"/>
+      <c r="Y565" s="3"/>
+    </row>
+    <row r="566" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A566" s="4"/>
+      <c r="B566" s="3"/>
+      <c r="C566" s="3"/>
+      <c r="D566" s="5"/>
+      <c r="E566" s="5"/>
+      <c r="F566" s="3"/>
+      <c r="G566" s="3"/>
+      <c r="H566" s="3"/>
+      <c r="I566" s="3"/>
+      <c r="J566" s="3"/>
+      <c r="K566" s="3"/>
+      <c r="L566" s="3"/>
+      <c r="M566" s="3"/>
+      <c r="N566" s="3"/>
+      <c r="O566" s="3"/>
+      <c r="P566" s="3"/>
+      <c r="Q566" s="3"/>
+      <c r="R566" s="3"/>
+      <c r="S566" s="3"/>
+      <c r="T566" s="3"/>
+      <c r="U566" s="3"/>
+      <c r="V566" s="3"/>
+      <c r="W566" s="3"/>
+      <c r="X566" s="3"/>
+      <c r="Y566" s="3"/>
+    </row>
+    <row r="567" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A567" s="4"/>
+      <c r="B567" s="3"/>
+      <c r="C567" s="3"/>
+      <c r="D567" s="5"/>
+      <c r="E567" s="5"/>
+      <c r="F567" s="3"/>
+      <c r="G567" s="3"/>
+      <c r="H567" s="3"/>
+      <c r="I567" s="3"/>
+      <c r="J567" s="3"/>
+      <c r="K567" s="3"/>
+      <c r="L567" s="3"/>
+      <c r="M567" s="3"/>
+      <c r="N567" s="3"/>
+      <c r="O567" s="3"/>
+      <c r="P567" s="3"/>
+      <c r="Q567" s="3"/>
+      <c r="R567" s="3"/>
+      <c r="S567" s="3"/>
+      <c r="T567" s="3"/>
+      <c r="U567" s="3"/>
+      <c r="V567" s="3"/>
+      <c r="W567" s="3"/>
+      <c r="X567" s="3"/>
+      <c r="Y567" s="3"/>
+    </row>
+    <row r="568" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A568" s="4"/>
+      <c r="B568" s="3"/>
+      <c r="C568" s="3"/>
+      <c r="D568" s="5"/>
+      <c r="E568" s="5"/>
+      <c r="F568" s="3"/>
+      <c r="G568" s="3"/>
+      <c r="H568" s="3"/>
+      <c r="I568" s="3"/>
+      <c r="J568" s="3"/>
+      <c r="K568" s="3"/>
+      <c r="L568" s="3"/>
+      <c r="M568" s="3"/>
+      <c r="N568" s="3"/>
+      <c r="O568" s="3"/>
+      <c r="P568" s="3"/>
+      <c r="Q568" s="3"/>
+      <c r="R568" s="3"/>
+      <c r="S568" s="3"/>
+      <c r="T568" s="3"/>
+      <c r="U568" s="3"/>
+      <c r="V568" s="3"/>
+      <c r="W568" s="3"/>
+      <c r="X568" s="3"/>
+      <c r="Y568" s="3"/>
+    </row>
+    <row r="569" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A569" s="4"/>
+      <c r="B569" s="3"/>
+      <c r="C569" s="3"/>
+      <c r="D569" s="5"/>
+      <c r="E569" s="5"/>
+      <c r="F569" s="3"/>
+      <c r="G569" s="3"/>
+      <c r="H569" s="3"/>
+      <c r="I569" s="3"/>
+      <c r="J569" s="3"/>
+      <c r="K569" s="3"/>
+      <c r="L569" s="3"/>
+      <c r="M569" s="3"/>
+      <c r="N569" s="3"/>
+      <c r="O569" s="3"/>
+      <c r="P569" s="3"/>
+      <c r="Q569" s="3"/>
+      <c r="R569" s="3"/>
+      <c r="S569" s="3"/>
+      <c r="T569" s="3"/>
+      <c r="U569" s="3"/>
+      <c r="V569" s="3"/>
+      <c r="W569" s="3"/>
+      <c r="X569" s="3"/>
+      <c r="Y569" s="3"/>
+    </row>
+    <row r="570" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A570" s="4"/>
+      <c r="B570" s="3"/>
+      <c r="C570" s="3"/>
+      <c r="D570" s="5"/>
+      <c r="E570" s="5"/>
+      <c r="F570" s="3"/>
+      <c r="G570" s="3"/>
+      <c r="H570" s="3"/>
+      <c r="I570" s="3"/>
+      <c r="J570" s="3"/>
+      <c r="K570" s="3"/>
+      <c r="L570" s="3"/>
+      <c r="M570" s="3"/>
+      <c r="N570" s="3"/>
+      <c r="O570" s="3"/>
+      <c r="P570" s="3"/>
+      <c r="Q570" s="3"/>
+      <c r="R570" s="3"/>
+      <c r="S570" s="3"/>
+      <c r="T570" s="3"/>
+      <c r="U570" s="3"/>
+      <c r="V570" s="3"/>
+      <c r="W570" s="3"/>
+      <c r="X570" s="3"/>
+      <c r="Y570" s="3"/>
+    </row>
+    <row r="571" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A571" s="4"/>
+      <c r="B571" s="3"/>
+      <c r="C571" s="3"/>
+      <c r="D571" s="5"/>
+      <c r="E571" s="5"/>
+      <c r="F571" s="3"/>
+      <c r="G571" s="3"/>
+      <c r="H571" s="3"/>
+      <c r="I571" s="3"/>
+      <c r="J571" s="3"/>
+      <c r="K571" s="3"/>
+      <c r="L571" s="3"/>
+      <c r="M571" s="3"/>
+      <c r="N571" s="3"/>
+      <c r="O571" s="3"/>
+      <c r="P571" s="3"/>
+      <c r="Q571" s="3"/>
+      <c r="R571" s="3"/>
+      <c r="S571" s="3"/>
+      <c r="T571" s="3"/>
+      <c r="U571" s="3"/>
+      <c r="V571" s="3"/>
+      <c r="W571" s="3"/>
+      <c r="X571" s="3"/>
+      <c r="Y571" s="3"/>
+    </row>
+    <row r="572" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A572" s="4"/>
+      <c r="B572" s="3"/>
+      <c r="C572" s="3"/>
+      <c r="D572" s="5"/>
+      <c r="E572" s="5"/>
+      <c r="F572" s="3"/>
+      <c r="G572" s="3"/>
+      <c r="H572" s="3"/>
+      <c r="I572" s="3"/>
+      <c r="J572" s="3"/>
+      <c r="K572" s="3"/>
+      <c r="L572" s="3"/>
+      <c r="M572" s="3"/>
+      <c r="N572" s="3"/>
+      <c r="O572" s="3"/>
+      <c r="P572" s="3"/>
+      <c r="Q572" s="3"/>
+      <c r="R572" s="3"/>
+      <c r="S572" s="3"/>
+      <c r="T572" s="3"/>
+      <c r="U572" s="3"/>
+      <c r="V572" s="3"/>
+      <c r="W572" s="3"/>
+      <c r="X572" s="3"/>
+      <c r="Y572" s="3"/>
+    </row>
+    <row r="573" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A573" s="4"/>
+      <c r="B573" s="3"/>
+      <c r="C573" s="3"/>
+      <c r="D573" s="5"/>
+      <c r="E573" s="5"/>
+      <c r="F573" s="3"/>
+      <c r="G573" s="3"/>
+      <c r="H573" s="3"/>
+      <c r="I573" s="3"/>
+      <c r="J573" s="3"/>
+      <c r="K573" s="3"/>
+      <c r="L573" s="3"/>
+      <c r="M573" s="3"/>
+      <c r="N573" s="3"/>
+      <c r="O573" s="3"/>
+      <c r="P573" s="3"/>
+      <c r="Q573" s="3"/>
+      <c r="R573" s="3"/>
+      <c r="S573" s="3"/>
+      <c r="T573" s="3"/>
+      <c r="U573" s="3"/>
+      <c r="V573" s="3"/>
+      <c r="W573" s="3"/>
+      <c r="X573" s="3"/>
+      <c r="Y573" s="3"/>
+    </row>
+    <row r="574" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A574" s="4"/>
+      <c r="B574" s="3"/>
+      <c r="C574" s="3"/>
+      <c r="D574" s="5"/>
+      <c r="E574" s="5"/>
+      <c r="F574" s="3"/>
+      <c r="G574" s="3"/>
+      <c r="H574" s="3"/>
+      <c r="I574" s="3"/>
+      <c r="J574" s="3"/>
+      <c r="K574" s="3"/>
+      <c r="L574" s="3"/>
+      <c r="M574" s="3"/>
+      <c r="N574" s="3"/>
+      <c r="O574" s="3"/>
+      <c r="P574" s="3"/>
+      <c r="Q574" s="3"/>
+      <c r="R574" s="3"/>
+      <c r="S574" s="3"/>
+      <c r="T574" s="3"/>
+      <c r="U574" s="3"/>
+      <c r="V574" s="3"/>
+      <c r="W574" s="3"/>
+      <c r="X574" s="3"/>
+      <c r="Y574" s="3"/>
+    </row>
+    <row r="575" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A575" s="4"/>
+      <c r="B575" s="3"/>
+      <c r="C575" s="3"/>
+      <c r="D575" s="5"/>
+      <c r="E575" s="5"/>
+      <c r="F575" s="3"/>
+      <c r="G575" s="3"/>
+      <c r="H575" s="3"/>
+      <c r="I575" s="3"/>
+      <c r="J575" s="3"/>
+      <c r="K575" s="3"/>
+      <c r="L575" s="3"/>
+      <c r="M575" s="3"/>
+      <c r="N575" s="3"/>
+      <c r="O575" s="3"/>
+      <c r="P575" s="3"/>
+      <c r="Q575" s="3"/>
+      <c r="R575" s="3"/>
+      <c r="S575" s="3"/>
+      <c r="T575" s="3"/>
+      <c r="U575" s="3"/>
+      <c r="V575" s="3"/>
+      <c r="W575" s="3"/>
+      <c r="X575" s="3"/>
+      <c r="Y575" s="3"/>
+    </row>
+    <row r="576" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A576" s="4"/>
+      <c r="B576" s="3"/>
+      <c r="C576" s="3"/>
+      <c r="D576" s="5"/>
+      <c r="E576" s="5"/>
+      <c r="F576" s="3"/>
+      <c r="G576" s="3"/>
+      <c r="H576" s="3"/>
+      <c r="I576" s="3"/>
+      <c r="J576" s="3"/>
+      <c r="K576" s="3"/>
+      <c r="L576" s="3"/>
+      <c r="M576" s="3"/>
+      <c r="N576" s="3"/>
+      <c r="O576" s="3"/>
+      <c r="P576" s="3"/>
+      <c r="Q576" s="3"/>
+      <c r="R576" s="3"/>
+      <c r="S576" s="3"/>
+      <c r="T576" s="3"/>
+      <c r="U576" s="3"/>
+      <c r="V576" s="3"/>
+      <c r="W576" s="3"/>
+      <c r="X576" s="3"/>
+      <c r="Y576" s="3"/>
+    </row>
+    <row r="577" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A577" s="4"/>
+      <c r="B577" s="3"/>
+      <c r="C577" s="3"/>
+      <c r="D577" s="5"/>
+      <c r="E577" s="5"/>
+      <c r="F577" s="3"/>
+      <c r="G577" s="3"/>
+      <c r="H577" s="3"/>
+      <c r="I577" s="3"/>
+      <c r="J577" s="3"/>
+      <c r="K577" s="3"/>
+      <c r="L577" s="3"/>
+      <c r="M577" s="3"/>
+      <c r="N577" s="3"/>
+      <c r="O577" s="3"/>
+      <c r="P577" s="3"/>
+      <c r="Q577" s="3"/>
+      <c r="R577" s="3"/>
+      <c r="S577" s="3"/>
+      <c r="T577" s="3"/>
+      <c r="U577" s="3"/>
+      <c r="V577" s="3"/>
+      <c r="W577" s="3"/>
+      <c r="X577" s="3"/>
+      <c r="Y577" s="3"/>
+    </row>
+    <row r="578" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A578" s="4"/>
+      <c r="B578" s="3"/>
+      <c r="C578" s="3"/>
+      <c r="D578" s="5"/>
+      <c r="E578" s="5"/>
+      <c r="F578" s="3"/>
+      <c r="G578" s="3"/>
+      <c r="H578" s="3"/>
+      <c r="I578" s="3"/>
+      <c r="J578" s="3"/>
+      <c r="K578" s="3"/>
+      <c r="L578" s="3"/>
+      <c r="M578" s="3"/>
+      <c r="N578" s="3"/>
+      <c r="O578" s="3"/>
+      <c r="P578" s="3"/>
+      <c r="Q578" s="3"/>
+      <c r="R578" s="3"/>
+      <c r="S578" s="3"/>
+      <c r="T578" s="3"/>
+      <c r="U578" s="3"/>
+      <c r="V578" s="3"/>
+      <c r="W578" s="3"/>
+      <c r="X578" s="3"/>
+      <c r="Y578" s="3"/>
+    </row>
+    <row r="579" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A579" s="4"/>
+      <c r="B579" s="3"/>
+      <c r="C579" s="3"/>
+      <c r="D579" s="5"/>
+      <c r="E579" s="5"/>
+      <c r="F579" s="3"/>
+      <c r="G579" s="3"/>
+      <c r="H579" s="3"/>
+      <c r="I579" s="3"/>
+      <c r="J579" s="3"/>
+      <c r="K579" s="3"/>
+      <c r="L579" s="3"/>
+      <c r="M579" s="3"/>
+      <c r="N579" s="3"/>
+      <c r="O579" s="3"/>
+      <c r="P579" s="3"/>
+      <c r="Q579" s="3"/>
+      <c r="R579" s="3"/>
+      <c r="S579" s="3"/>
+      <c r="T579" s="3"/>
+      <c r="U579" s="3"/>
+      <c r="V579" s="3"/>
+      <c r="W579" s="3"/>
+      <c r="X579" s="3"/>
+      <c r="Y579" s="3"/>
+    </row>
+    <row r="580" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A580" s="4"/>
+      <c r="B580" s="3"/>
+      <c r="C580" s="3"/>
+      <c r="D580" s="5"/>
+      <c r="E580" s="5"/>
+      <c r="F580" s="3"/>
+      <c r="G580" s="3"/>
+      <c r="H580" s="3"/>
+      <c r="I580" s="3"/>
+      <c r="J580" s="3"/>
+      <c r="K580" s="3"/>
+      <c r="L580" s="3"/>
+      <c r="M580" s="3"/>
+      <c r="N580" s="3"/>
+      <c r="O580" s="3"/>
+      <c r="P580" s="3"/>
+      <c r="Q580" s="3"/>
+      <c r="R580" s="3"/>
+      <c r="S580" s="3"/>
+      <c r="T580" s="3"/>
+      <c r="U580" s="3"/>
+      <c r="V580" s="3"/>
+      <c r="W580" s="3"/>
+      <c r="X580" s="3"/>
+      <c r="Y580" s="3"/>
+    </row>
+    <row r="581" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A581" s="4"/>
+      <c r="B581" s="3"/>
+      <c r="C581" s="3"/>
+      <c r="D581" s="5"/>
+      <c r="E581" s="5"/>
+      <c r="F581" s="3"/>
+      <c r="G581" s="3"/>
+      <c r="H581" s="3"/>
+      <c r="I581" s="3"/>
+      <c r="J581" s="3"/>
+      <c r="K581" s="3"/>
+      <c r="L581" s="3"/>
+      <c r="M581" s="3"/>
+      <c r="N581" s="3"/>
+      <c r="O581" s="3"/>
+      <c r="P581" s="3"/>
+      <c r="Q581" s="3"/>
+      <c r="R581" s="3"/>
+      <c r="S581" s="3"/>
+      <c r="T581" s="3"/>
+      <c r="U581" s="3"/>
+      <c r="V581" s="3"/>
+      <c r="W581" s="3"/>
+      <c r="X581" s="3"/>
+      <c r="Y581" s="3"/>
+    </row>
+    <row r="582" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A582" s="4"/>
+      <c r="B582" s="3"/>
+      <c r="C582" s="3"/>
+      <c r="D582" s="5"/>
+      <c r="E582" s="5"/>
+      <c r="F582" s="3"/>
+      <c r="G582" s="3"/>
+      <c r="H582" s="3"/>
+      <c r="I582" s="3"/>
+      <c r="J582" s="3"/>
+      <c r="K582" s="3"/>
+      <c r="L582" s="3"/>
+      <c r="M582" s="3"/>
+      <c r="N582" s="3"/>
+      <c r="O582" s="3"/>
+      <c r="P582" s="3"/>
+      <c r="Q582" s="3"/>
+      <c r="R582" s="3"/>
+      <c r="S582" s="3"/>
+      <c r="T582" s="3"/>
+      <c r="U582" s="3"/>
+      <c r="V582" s="3"/>
+      <c r="W582" s="3"/>
+      <c r="X582" s="3"/>
+      <c r="Y582" s="3"/>
+    </row>
+    <row r="583" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A583" s="4"/>
+      <c r="B583" s="3"/>
+      <c r="C583" s="3"/>
+      <c r="D583" s="5"/>
+      <c r="E583" s="5"/>
+      <c r="F583" s="3"/>
+      <c r="G583" s="3"/>
+      <c r="H583" s="3"/>
+      <c r="I583" s="3"/>
+      <c r="J583" s="3"/>
+      <c r="K583" s="3"/>
+      <c r="L583" s="3"/>
+      <c r="M583" s="3"/>
+      <c r="N583" s="3"/>
+      <c r="O583" s="3"/>
+      <c r="P583" s="3"/>
+      <c r="Q583" s="3"/>
+      <c r="R583" s="3"/>
+      <c r="S583" s="3"/>
+      <c r="T583" s="3"/>
+      <c r="U583" s="3"/>
+      <c r="V583" s="3"/>
+      <c r="W583" s="3"/>
+      <c r="X583" s="3"/>
+      <c r="Y583" s="3"/>
+    </row>
+    <row r="584" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A584" s="4"/>
+      <c r="B584" s="3"/>
+      <c r="C584" s="3"/>
+      <c r="D584" s="5"/>
+      <c r="E584" s="5"/>
+      <c r="F584" s="3"/>
+      <c r="G584" s="3"/>
+      <c r="H584" s="3"/>
+      <c r="I584" s="3"/>
+      <c r="J584" s="3"/>
+      <c r="K584" s="3"/>
+      <c r="L584" s="3"/>
+      <c r="M584" s="3"/>
+      <c r="N584" s="3"/>
+      <c r="O584" s="3"/>
+      <c r="P584" s="3"/>
+      <c r="Q584" s="3"/>
+      <c r="R584" s="3"/>
+      <c r="S584" s="3"/>
+      <c r="T584" s="3"/>
+      <c r="U584" s="3"/>
+      <c r="V584" s="3"/>
+      <c r="W584" s="3"/>
+      <c r="X584" s="3"/>
+      <c r="Y584" s="3"/>
+    </row>
+    <row r="585" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A585" s="4"/>
+      <c r="B585" s="3"/>
+      <c r="C585" s="3"/>
+      <c r="D585" s="5"/>
+      <c r="E585" s="5"/>
+      <c r="F585" s="3"/>
+      <c r="G585" s="3"/>
+      <c r="H585" s="3"/>
+      <c r="I585" s="3"/>
+      <c r="J585" s="3"/>
+      <c r="K585" s="3"/>
+      <c r="L585" s="3"/>
+      <c r="M585" s="3"/>
+      <c r="N585" s="3"/>
+      <c r="O585" s="3"/>
+      <c r="P585" s="3"/>
+      <c r="Q585" s="3"/>
+      <c r="R585" s="3"/>
+      <c r="S585" s="3"/>
+      <c r="T585" s="3"/>
+      <c r="U585" s="3"/>
+      <c r="V585" s="3"/>
+      <c r="W585" s="3"/>
+      <c r="X585" s="3"/>
+      <c r="Y585" s="3"/>
+    </row>
+    <row r="586" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A586" s="4"/>
+      <c r="B586" s="3"/>
+      <c r="C586" s="3"/>
+      <c r="D586" s="5"/>
+      <c r="E586" s="5"/>
+      <c r="F586" s="3"/>
+      <c r="G586" s="3"/>
+      <c r="H586" s="3"/>
+      <c r="I586" s="3"/>
+      <c r="J586" s="3"/>
+      <c r="K586" s="3"/>
+      <c r="L586" s="3"/>
+      <c r="M586" s="3"/>
+      <c r="N586" s="3"/>
+      <c r="O586" s="3"/>
+      <c r="P586" s="3"/>
+      <c r="Q586" s="3"/>
+      <c r="R586" s="3"/>
+      <c r="S586" s="3"/>
+      <c r="T586" s="3"/>
+      <c r="U586" s="3"/>
+      <c r="V586" s="3"/>
+      <c r="W586" s="3"/>
+      <c r="X586" s="3"/>
+      <c r="Y586" s="3"/>
+    </row>
+    <row r="587" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A587" s="4"/>
+      <c r="B587" s="3"/>
+      <c r="C587" s="3"/>
+      <c r="D587" s="5"/>
+      <c r="E587" s="5"/>
+      <c r="F587" s="3"/>
+      <c r="G587" s="3"/>
+      <c r="H587" s="3"/>
+      <c r="I587" s="3"/>
+      <c r="J587" s="3"/>
+      <c r="K587" s="3"/>
+      <c r="L587" s="3"/>
+      <c r="M587" s="3"/>
+      <c r="N587" s="3"/>
+      <c r="O587" s="3"/>
+      <c r="P587" s="3"/>
+      <c r="Q587" s="3"/>
+      <c r="R587" s="3"/>
+      <c r="S587" s="3"/>
+      <c r="T587" s="3"/>
+      <c r="U587" s="3"/>
+      <c r="V587" s="3"/>
+      <c r="W587" s="3"/>
+      <c r="X587" s="3"/>
+      <c r="Y587" s="3"/>
+    </row>
+    <row r="588" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A588" s="4"/>
+      <c r="B588" s="3"/>
+      <c r="C588" s="3"/>
+      <c r="D588" s="5"/>
+      <c r="E588" s="5"/>
+      <c r="F588" s="3"/>
+      <c r="G588" s="3"/>
+      <c r="H588" s="3"/>
+      <c r="I588" s="3"/>
+      <c r="J588" s="3"/>
+      <c r="K588" s="3"/>
+      <c r="L588" s="3"/>
+      <c r="M588" s="3"/>
+      <c r="N588" s="3"/>
+      <c r="O588" s="3"/>
+      <c r="P588" s="3"/>
+      <c r="Q588" s="3"/>
+      <c r="R588" s="3"/>
+      <c r="S588" s="3"/>
+      <c r="T588" s="3"/>
+      <c r="U588" s="3"/>
+      <c r="V588" s="3"/>
+      <c r="W588" s="3"/>
+      <c r="X588" s="3"/>
+      <c r="Y588" s="3"/>
+    </row>
+    <row r="589" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A589" s="4"/>
+      <c r="B589" s="3"/>
+      <c r="C589" s="3"/>
+      <c r="D589" s="5"/>
+      <c r="E589" s="5"/>
+      <c r="F589" s="3"/>
+      <c r="G589" s="3"/>
+      <c r="H589" s="3"/>
+      <c r="I589" s="3"/>
+      <c r="J589" s="3"/>
+      <c r="K589" s="3"/>
+      <c r="L589" s="3"/>
+      <c r="M589" s="3"/>
+      <c r="N589" s="3"/>
+      <c r="O589" s="3"/>
+      <c r="P589" s="3"/>
+      <c r="Q589" s="3"/>
+      <c r="R589" s="3"/>
+      <c r="S589" s="3"/>
+      <c r="T589" s="3"/>
+      <c r="U589" s="3"/>
+      <c r="V589" s="3"/>
+      <c r="W589" s="3"/>
+      <c r="X589" s="3"/>
+      <c r="Y589" s="3"/>
+    </row>
+    <row r="590" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A590" s="4"/>
+      <c r="B590" s="3"/>
+      <c r="C590" s="3"/>
+      <c r="D590" s="5"/>
+      <c r="E590" s="5"/>
+      <c r="F590" s="3"/>
+      <c r="G590" s="3"/>
+      <c r="H590" s="3"/>
+      <c r="I590" s="3"/>
+      <c r="J590" s="3"/>
+      <c r="K590" s="3"/>
+      <c r="L590" s="3"/>
+      <c r="M590" s="3"/>
+      <c r="N590" s="3"/>
+      <c r="O590" s="3"/>
+      <c r="P590" s="3"/>
+      <c r="Q590" s="3"/>
+      <c r="R590" s="3"/>
+      <c r="S590" s="3"/>
+      <c r="T590" s="3"/>
+      <c r="U590" s="3"/>
+      <c r="V590" s="3"/>
+      <c r="W590" s="3"/>
+      <c r="X590" s="3"/>
+      <c r="Y590" s="3"/>
+    </row>
+    <row r="591" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A591" s="4"/>
+      <c r="B591" s="3"/>
+      <c r="C591" s="3"/>
+      <c r="D591" s="5"/>
+      <c r="E591" s="5"/>
+      <c r="F591" s="3"/>
+      <c r="G591" s="3"/>
+      <c r="H591" s="3"/>
+      <c r="I591" s="3"/>
+      <c r="J591" s="3"/>
+      <c r="K591" s="3"/>
+      <c r="L591" s="3"/>
+      <c r="M591" s="3"/>
+      <c r="N591" s="3"/>
+      <c r="O591" s="3"/>
+      <c r="P591" s="3"/>
+      <c r="Q591" s="3"/>
+      <c r="R591" s="3"/>
+      <c r="S591" s="3"/>
+      <c r="T591" s="3"/>
+      <c r="U591" s="3"/>
+      <c r="V591" s="3"/>
+      <c r="W591" s="3"/>
+      <c r="X591" s="3"/>
+      <c r="Y591" s="3"/>
+    </row>
+    <row r="592" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A592" s="4"/>
+      <c r="B592" s="3"/>
+      <c r="C592" s="3"/>
+      <c r="D592" s="5"/>
+      <c r="E592" s="5"/>
+      <c r="F592" s="3"/>
+      <c r="G592" s="3"/>
+      <c r="H592" s="3"/>
+      <c r="I592" s="3"/>
+      <c r="J592" s="3"/>
+      <c r="K592" s="3"/>
+      <c r="L592" s="3"/>
+      <c r="M592" s="3"/>
+      <c r="N592" s="3"/>
+      <c r="O592" s="3"/>
+      <c r="P592" s="3"/>
+      <c r="Q592" s="3"/>
+      <c r="R592" s="3"/>
+      <c r="S592" s="3"/>
+      <c r="T592" s="3"/>
+      <c r="U592" s="3"/>
+      <c r="V592" s="3"/>
+      <c r="W592" s="3"/>
+      <c r="X592" s="3"/>
+      <c r="Y592" s="3"/>
+    </row>
+    <row r="593" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A593" s="4"/>
+      <c r="B593" s="3"/>
+      <c r="C593" s="3"/>
+      <c r="D593" s="5"/>
+      <c r="E593" s="5"/>
+      <c r="F593" s="3"/>
+      <c r="G593" s="3"/>
+      <c r="H593" s="3"/>
+      <c r="I593" s="3"/>
+      <c r="J593" s="3"/>
+      <c r="K593" s="3"/>
+      <c r="L593" s="3"/>
+      <c r="M593" s="3"/>
+      <c r="N593" s="3"/>
+      <c r="O593" s="3"/>
+      <c r="P593" s="3"/>
+      <c r="Q593" s="3"/>
+      <c r="R593" s="3"/>
+      <c r="S593" s="3"/>
+      <c r="T593" s="3"/>
+      <c r="U593" s="3"/>
+      <c r="V593" s="3"/>
+      <c r="W593" s="3"/>
+      <c r="X593" s="3"/>
+      <c r="Y593" s="3"/>
+    </row>
+    <row r="594" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A594" s="4"/>
+      <c r="B594" s="3"/>
+      <c r="C594" s="3"/>
+      <c r="D594" s="5"/>
+      <c r="E594" s="5"/>
+      <c r="F594" s="3"/>
+      <c r="G594" s="3"/>
+      <c r="H594" s="3"/>
+      <c r="I594" s="3"/>
+      <c r="J594" s="3"/>
+      <c r="K594" s="3"/>
+      <c r="L594" s="3"/>
+      <c r="M594" s="3"/>
+      <c r="N594" s="3"/>
+      <c r="O594" s="3"/>
+      <c r="P594" s="3"/>
+      <c r="Q594" s="3"/>
+      <c r="R594" s="3"/>
+      <c r="S594" s="3"/>
+      <c r="T594" s="3"/>
+      <c r="U594" s="3"/>
+      <c r="V594" s="3"/>
+      <c r="W594" s="3"/>
+      <c r="X594" s="3"/>
+      <c r="Y594" s="3"/>
+    </row>
+    <row r="595" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A595" s="4"/>
+      <c r="B595" s="3"/>
+      <c r="C595" s="3"/>
+      <c r="D595" s="5"/>
+      <c r="E595" s="5"/>
+      <c r="F595" s="3"/>
+      <c r="G595" s="3"/>
+      <c r="H595" s="3"/>
+      <c r="I595" s="3"/>
+      <c r="J595" s="3"/>
+      <c r="K595" s="3"/>
+      <c r="L595" s="3"/>
+      <c r="M595" s="3"/>
+      <c r="N595" s="3"/>
+      <c r="O595" s="3"/>
+      <c r="P595" s="3"/>
+      <c r="Q595" s="3"/>
+      <c r="R595" s="3"/>
+      <c r="S595" s="3"/>
+      <c r="T595" s="3"/>
+      <c r="U595" s="3"/>
+      <c r="V595" s="3"/>
+      <c r="W595" s="3"/>
+      <c r="X595" s="3"/>
+      <c r="Y595" s="3"/>
+    </row>
+    <row r="596" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A596" s="4"/>
+      <c r="B596" s="3"/>
+      <c r="C596" s="3"/>
+      <c r="D596" s="5"/>
+      <c r="E596" s="5"/>
+      <c r="F596" s="3"/>
+      <c r="G596" s="3"/>
+      <c r="H596" s="3"/>
+      <c r="I596" s="3"/>
+      <c r="J596" s="3"/>
+      <c r="K596" s="3"/>
+      <c r="L596" s="3"/>
+      <c r="M596" s="3"/>
+      <c r="N596" s="3"/>
+      <c r="O596" s="3"/>
+      <c r="P596" s="3"/>
+      <c r="Q596" s="3"/>
+      <c r="R596" s="3"/>
+      <c r="S596" s="3"/>
+      <c r="T596" s="3"/>
+      <c r="U596" s="3"/>
+      <c r="V596" s="3"/>
+      <c r="W596" s="3"/>
+      <c r="X596" s="3"/>
+      <c r="Y596" s="3"/>
+    </row>
+    <row r="597" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A597" s="4"/>
+      <c r="B597" s="3"/>
+      <c r="C597" s="3"/>
+      <c r="D597" s="5"/>
+      <c r="E597" s="5"/>
+      <c r="F597" s="3"/>
+      <c r="G597" s="3"/>
+      <c r="H597" s="3"/>
+      <c r="I597" s="3"/>
+      <c r="J597" s="3"/>
+      <c r="K597" s="3"/>
+      <c r="L597" s="3"/>
+      <c r="M597" s="3"/>
+      <c r="N597" s="3"/>
+      <c r="O597" s="3"/>
+      <c r="P597" s="3"/>
+      <c r="Q597" s="3"/>
+      <c r="R597" s="3"/>
+      <c r="S597" s="3"/>
+      <c r="T597" s="3"/>
+      <c r="U597" s="3"/>
+      <c r="V597" s="3"/>
+      <c r="W597" s="3"/>
+      <c r="X597" s="3"/>
+      <c r="Y597" s="3"/>
+    </row>
+    <row r="598" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A598" s="4"/>
+      <c r="B598" s="3"/>
+      <c r="C598" s="3"/>
+      <c r="D598" s="5"/>
+      <c r="E598" s="5"/>
+      <c r="F598" s="3"/>
+      <c r="G598" s="3"/>
+      <c r="H598" s="3"/>
+      <c r="I598" s="3"/>
+      <c r="J598" s="3"/>
+      <c r="K598" s="3"/>
+      <c r="L598" s="3"/>
+      <c r="M598" s="3"/>
+      <c r="N598" s="3"/>
+      <c r="O598" s="3"/>
+      <c r="P598" s="3"/>
+      <c r="Q598" s="3"/>
+      <c r="R598" s="3"/>
+      <c r="S598" s="3"/>
+      <c r="T598" s="3"/>
+      <c r="U598" s="3"/>
+      <c r="V598" s="3"/>
+      <c r="W598" s="3"/>
+      <c r="X598" s="3"/>
+      <c r="Y598" s="3"/>
+    </row>
+    <row r="599" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A599" s="4"/>
+      <c r="B599" s="3"/>
+      <c r="C599" s="3"/>
+      <c r="D599" s="5"/>
+      <c r="E599" s="5"/>
+      <c r="F599" s="3"/>
+      <c r="G599" s="3"/>
+      <c r="H599" s="3"/>
+      <c r="I599" s="3"/>
+      <c r="J599" s="3"/>
+      <c r="K599" s="3"/>
+      <c r="L599" s="3"/>
+      <c r="M599" s="3"/>
+      <c r="N599" s="3"/>
+      <c r="O599" s="3"/>
+      <c r="P599" s="3"/>
+      <c r="Q599" s="3"/>
+      <c r="R599" s="3"/>
+      <c r="S599" s="3"/>
+      <c r="T599" s="3"/>
+      <c r="U599" s="3"/>
+      <c r="V599" s="3"/>
+      <c r="W599" s="3"/>
+      <c r="X599" s="3"/>
+      <c r="Y599" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D483">
+  <conditionalFormatting sqref="D1:D599">
     <cfRule type="cellIs" priority="1" dxfId="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
@@ -13725,7 +16857,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E483">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E599">
       <formula1>'Group-Turn'!$A:$A</formula1>
     </dataValidation>
   </dataValidations>
@@ -13742,7 +16874,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="topLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
@@ -13802,22 +16934,22 @@
         <v>20</v>
       </c>
       <c r="C2" s="11">
-        <v>90.0</v>
+        <v>40.0</v>
       </c>
       <c r="D2" s="11">
-        <v>1.0</v>
+        <v>18.0</v>
       </c>
       <c r="E2" s="11">
-        <v>90.0</v>
+        <v>40.0</v>
       </c>
       <c r="F2" s="11">
-        <v>2.0</v>
+        <v>18.0</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>22</v>
@@ -21673,7 +24805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3279bdba-83e2-49fe-b012-25f54fcd8344}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395ae1e7-eacf-4836-a9d8-27a5a12988c2}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
